--- a/data/02_intermediate/cleaned_LAlgérino_songs.xlsx
+++ b/data/02_intermediate/cleaned_LAlgérino_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tching tchang tchong sabai dee Elle parle en thaïlandais sabai dee Tu t'es mis dans la merde t'as pas idée Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Nan elle t'a pas jeté de sort, c'est toi qui est faible Petit tailleur, Louboutin, c'est vrai qu'elle est trop fraîche Tu veux limpressionner en boite tu vides le garage Tu comptes l'amener à lhôtel mais elle s'arrache Elle s'arrache avec un autre ouais ouais Elle s'est mise à ta table pour gratter 2, 3 re-vers Elle t'fait mal mal mal quand elle wine wine wine Elle va t'sucer ton sang et te dire bye bye bye Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel You might also like Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Ah ah ah, tu t'es mis dans la merde ouais ouais Laisse moi finir mon pet et je vais te dire la vérité La frappe à dans la tete et je remets les Christian Dior Au cousin tia coulé tu vois pas tu t'endors Elle veut son sac Céline elle tenenew la maline Rien qu'elle fait des lignes ses narines c'est Medellín Tu, tu t'es pris pour Mesrine tu t'es pris pour Pablo Elle veut pas de ta bague elle veut l'Audi quatre anneaux Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong mira mira mira elle t'a mis les menottes Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel3</t>
+          <t>Tching tchang tchong sabai dee Elle parle en thaïlandais sabai dee Tu t'es mis dans la merde t'as pas idée Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Nan elle t'a pas jeté de sort, c'est toi qui est faible Petit tailleur, Louboutin, c'est vrai qu'elle est trop fraîche Tu veux limpressionner en boite tu vides le garage Tu comptes l'amener à lhôtel mais elle s'arrache Elle s'arrache avec un autre ouais ouais Elle s'est mise à ta table pour gratter 2, 3 re-vers Elle t'fait mal mal mal quand elle wine wine wine Elle va t'sucer ton sang et te dire bye bye bye Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Elle va te tching tchang tchong sabai dee Ah ah ah, tu t'es mis dans la merde ouais ouais Laisse moi finir mon pet et je vais te dire la vérité La frappe à dans la tete et je remets les Christian Dior Au cousin tia coulé tu vois pas tu t'endors Elle veut son sac Céline elle tenenew la maline Rien qu'elle fait des lignes ses narines c'est Medellín Tu, tu t'es pris pour Mesrine tu t'es pris pour Pablo Elle veut pas de ta bague elle veut l'Audi quatre anneaux Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong chika chika chika elle t'a mis les menottes Elle va te tching tchang tchong mira mira mira elle t'a mis les menottes Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel Ah elle t'a mis les menottes ouais ouais Tu réponds plus aux potos ouais ouais Elle fait la folle, elle fait la mac ouais ouais En boite toute la night t'attends son appel3</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'ai galéré, zoné J'ai cherché de la monnaie Personne pour me raisonner J'ai fumé j'me suis saoulé Et oui la roue a tourné Fréro je t'ai pardonné Mais j'ai pas oublié Quand on faute il faut assumer, eh Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie J'ai rêvé de toucher le ciel J'ai mis les voiles Je voulais toucher les étoiles Et j'ai déployé mes ailes Charbonné comme un fou, ils m'ont pris pour un fou T'sais pas où la vie nous mène On se tue comme des loups J'écoute pas les jaloux Ils connaissent rien de mes problèmes You might also like Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous1</t>
+          <t>J'ai galéré, zoné J'ai cherché de la monnaie Personne pour me raisonner J'ai fumé j'me suis saoulé Et oui la roue a tourné Fréro je t'ai pardonné Mais j'ai pas oublié Quand on faute il faut assumer, eh Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie J'ai rêvé de toucher le ciel J'ai mis les voiles Je voulais toucher les étoiles Et j'ai déployé mes ailes Charbonné comme un fou, ils m'ont pris pour un fou T'sais pas où la vie nous mène On se tue comme des loups J'écoute pas les jaloux Ils connaissent rien de mes problèmes Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous, j'm'en fous palapalapalapala J'm'en fous, j'm'en fous Tu connais rien de mes problèmes nan Tu connais rien de mes problèmes palapalapalapala Tu connais rien de mes problèmes nan Tu connais rien de ma vie Si tu savais, a Yema, j'ai trop galéré, a Yema Que j'tourne en rond, a Yema, y'a trop de jaloux, a Yema Ouais y'a trop de jaloux, a Yema, ils veulent mon biff, a Yema Ils veulent ma perte, a Yema, ils veulent m'atteindre Mais j'm'en fous1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Vas-y cousine lève-toi de là Ce soir je prends le large Y'a la mèche qui est khabta Faut que je le traînes avec moi Rien qu'il me casse les couilles Il passe du coq à l'âne Il parle de sa gadji Ensuite il parle de faire un braquage On rôde toute la nuit Thab l'kiwi wel banana Elle fait trop la bonne Et je la traîne par son bandanas Y'a les condés araaaaah La mèche cache la selaa Mets ta ceinture bâtard Ca va finir au chtar You might also like Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna</t>
+          <t>Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Vas-y cousine lève-toi de là Ce soir je prends le large Y'a la mèche qui est khabta Faut que je le traînes avec moi Rien qu'il me casse les couilles Il passe du coq à l'âne Il parle de sa gadji Ensuite il parle de faire un braquage On rôde toute la nuit Thab l'kiwi wel banana Elle fait trop la bonne Et je la traîne par son bandanas Y'a les condés araaaaah La mèche cache la selaa Mets ta ceinture bâtard Ca va finir au chtar Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna Je fais le tour de la ville En chantant la la la J'ai fêté le million Et j'ai mon compte au Panama Elle fait la meuf docile Mais c'est une vraie sheitana Tu la ramènes à l'hôtel Elle dit qu'elle a ses ragnagna</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi J'rentre sur la piste, les bras écartés La coupe à Elvis et la ceinture LV On a le sang chaud, Algérien danger Oriental Dream 2015 c'est Alger Ce soir c'est cabaret cavalé, s'hab el baroud w l'carabina J'fais danser les Samira, Khadouj et même Katarina Aywa Liasses dans la poche on est là Mon son tourne dans les caisses et dans les boîtes J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi You might also like Panamera, Cayenne, la sape est italienne Graine de café au cou, chemise hawaïenne J'suis à Marseille, lunettes Persol J'fais mes affaires, besoin de personne Demande à Bouchta numéro un dans l'Raï game Dans mes ShowCases que des bombes qui s'ramènent J'fais mes khaliss, déteste n'aies pas la haine Maroc, Algérie, Tunisie c'est la même J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi Elles font les belles, ils font les stars Détends-toi cousine et vas-y shtah Y'a de l'oseille, et que du sah Ce soir on danse jusqu'à sept heures du sbah Elles font les belles, ils font les stars Et digui digui digui digui vas-y shtah Y'a de l'oseille, et que du sah Ce soir on danse jusqu'à sept heures du sbah J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi3</t>
+          <t>J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi J'rentre sur la piste, les bras écartés La coupe à Elvis et la ceinture LV On a le sang chaud, Algérien danger Oriental Dream 2015 c'est Alger Ce soir c'est cabaret cavalé, s'hab el baroud w l'carabina J'fais danser les Samira, Khadouj et même Katarina Aywa Liasses dans la poche on est là Mon son tourne dans les caisses et dans les boîtes J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi Panamera, Cayenne, la sape est italienne Graine de café au cou, chemise hawaïenne J'suis à Marseille, lunettes Persol J'fais mes affaires, besoin de personne Demande à Bouchta numéro un dans l'Raï game Dans mes ShowCases que des bombes qui s'ramènent J'fais mes khaliss, déteste n'aies pas la haine Maroc, Algérie, Tunisie c'est la même J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi Elles font les belles, ils font les stars Détends-toi cousine et vas-y shtah Y'a de l'oseille, et que du sah Ce soir on danse jusqu'à sept heures du sbah Elles font les belles, ils font les stars Et digui digui digui digui vas-y shtah Y'a de l'oseille, et que du sah Ce soir on danse jusqu'à sept heures du sbah J'suis dans mon bolide Audi R8 Arah y'a la police Attache les ceintures dans les niqués On est les princes de la ville Elle veut mon 06 Elle a le vis, le tournevis Et tu vas pas m'la faire à moi3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jai la tête dans les nuages Jai envie de prendre le large Jsuis en mode Emirates Fly Marseille cest chaud, mets lgilet pare-balles Petit cigare, chapeau dpaille Verre de rosé, ah, jsuis die Elle a du style, aïe aïe aïe Elle fait trembler les vilaines canailles Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Tes dans ta paranoïa, jsuis dans mon Panamera Mes 3arbis ont trop dswag, Antonio Banderas Arah ya le 3eses, cache le iPhone 6S Un petit tour chez lheffef, je suis frais, jai dla fraîche You might also like Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Yeah, LAlgérino number one La classe internationale Elle se prend pour Rihanna Elle ressemble à Biyouna Espèce de conne Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca1</t>
+          <t>Jai la tête dans les nuages Jai envie de prendre le large Jsuis en mode Emirates Fly Marseille cest chaud, mets lgilet pare-balles Petit cigare, chapeau dpaille Verre de rosé, ah, jsuis die Elle a du style, aïe aïe aïe Elle fait trembler les vilaines canailles Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Tes dans ta paranoïa, jsuis dans mon Panamera Mes 3arbis ont trop dswag, Antonio Banderas Arah ya le 3eses, cache le iPhone 6S Un petit tour chez lheffef, je suis frais, jai dla fraîche Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Yeah, LAlgérino number one La classe internationale Elle se prend pour Rihanna Elle ressemble à Biyouna Espèce de conne Venga, venga mi amor Pina colada, chicha menthe, si señor Way way way bouge ton corps Chemise ouverte, Rolex en or Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca Cest la vida, vida, vid-vida, vida, vid-vida-vida loca1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J'croyais plus en la vie, rien que je fumais la frappe Enfumé toutes les nuits, les rêves passent à la trappe Bats les couilles d'ton avis, poto, lâche-moi la grappe On a pris des risques, on avait trop la dalle Ça pointe à la SPIP, les frérots en cavale La faute à l'OCTRIS, la justice est loca La vida loca, les folles à l'hôtel On a perdu la boule, les boulettes sur la moquette Yeah, yeah, à Marseille, ça vend du shit et d'la chloroquine Ça prend des années fermes et ça libère les pédophiles Elle veut bouillave, trop coquine, pour être ta copine J'suis en terrasse, jus d'goyave, polo crocodile Yeah, les temps ont changé putain, fais pas blehni Tu m'salis, que ça parle mal, cousin J'suis dans un putain d'engin, j'fais danser ta frangine On est venu braquer la vie comme le casino dEnghien Toute la noche, les frères sont scotchés Pack de Heine' sur un rocher, ça rêve de trophée Sur la musique, ça met des crochets, on était fauchés, hein Aujourd'hui, ça rentre en boîte en full Dolce You might also like J'ai jamais pris la mach', j'ai jamais fait le monstre Regarde à 8, on mange et personne jouera la montre J'ai relevé les manches, pour donner à graille aux mômes Quand j'vois le ciel orange, j'repense à la fin du monde J'suis du secteur à Zizou, pour ça que j'aime le 10 J'ai planqué dans mes bijoux d'famille, mon bout à 10 Ma mère mon paradis, qui la préserve d'la maladie Souvent les nerfs à vif, j'vais prendre un flash à l'alim' Un quart de siècle à trop zoner, j'entends les flingues résonner Je chante pour mes abonnés, est-ce que vraiment tu m'connais ? Ils aimeraient tous nous coller pour pirater les données Mais tout ça, je le sentais, frère, tout ça, je le savais J'ai gagné les tournois, j'leur ai laissé la coupe J'ai dû découper, pas mes couplets, qui m'ont ramené la Soupline Le rap c'était ma poupée, vu sa fouffe On m'a dit mec joue la cool, après mon passage, tu peux faire du hula-hoop Fais-moi démarrer l'moteur de Subaru, la routine La rue m'a rapporté des thunes et la justice m'a tout pris Je pardonne pas mais j'oublie, nage au milieu des rookies Respecte-moi, il y a des chances que ta daronne c'était ma groupie Couche-tard depuis la cité Carter, j'met du Shootstar On représente Marseille 13015 On apprend de tout l'monde et même des plus jeunes Le vêtement le plus beau n'est pas forcément le plus cher, cousin Hey, hey, gosse du bendo, j'arrache le sol comme si j'avais volé l'benzo Fuck le taulier, j'vais crever comme le pendo Hein ces fils de p' qui mettent les yeux comme le Fendo Hey, expliquer compliquer, j'rentre dans l'appart' j'tire à la Zé Peque' Plus rien n'm'étonne, laisse-moi trop à part, j'veux ma part de paplards, pas là pour les checker Ouais, grr, j'connais l'tourniquet, j'vais crever où j'dois pas là pour t'meniker Le monde me doit rien, j'te dois quoi ? J'te l'dis pour toi, très courtois, pourquoi polémiquer ? Aïe, merde, il a l'air à terre, il s'prend pour l'pater, fausse Patek au poignet Non, j'peux plus l'voir comme Gilbert Montagné, il fait l'chaud en équipe, conduite accompagnée Marseillais, l'étoile sur le maillot La Kalash' est sortie du chapeau Roue arrière sur le Prado Y a 800 chevaux sous le capot Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port Le fric sent la lessive, le local sent la résine, on a des gros caissons, aussi, les sous pour la révision Que ça parle en mandarin quand faut sortir dix tickets J'vais faire huit cents cette année, que tye là à critiquer La meilleure haze, en vrai, le hazi ferme à minuit, le PMU tire le rideau, on joue au poker, au rami Les gants bien serrés, qualité Fouganza, Romanzo criminale, j'ai grandi avec ça 13, 14ème et 15, le Var et Corsica, que des brigantés, ça tue pour pas 1K Tout c'qu'on fait pour manger, sur ma mère, tya pas idée De janvier à janvier, j'essaie d'rester là, bébé, j'essaie d'pas m'faire pincer Gimme, gimme mauve, ils ont pas compris j'rappe comme si j'étais chauve Comme si j'étais pauvre, comme si j'étais mort Je fume mais fais-moi deux, j'vais respirer fort J'vais t'faire et rentrer à la kham comme si t'étais pas mort, han Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port J'rappe sous la canicule, 1.3 matricule Personne manipule, y a plein d'bâtards dans l'radar de rcul Dans ma bulle, j'fume que d'la purée, j'suis dans l'véhicule Ils sont pas contents quand tu perces, ils aimeraient dire Vé, il coule hein Contre les fils de pute, jsuis pas immunisé La misère ça fait peur comme des mecs qui rentrent chez toi déguisés Maintenant, j'suis parano, même quand je vais pisser Tu m'dois des papiers, j'm'en fous combien tu dois à l'épicier Guetteur au talkie, jobbeur cagoulé Y a que des matrixés dans la zone, ils aiment pas les poulets Ils m'ont pas vu débouler, j'fais des tours dans la war zone J'ai mon pochon dans les couilles, il fait qu'tomber vers les mollets Ça écarte des volets, pour trouver bonheur dans maison dorée l'OVNI Eh, toujours dans les temps, toujours à l'affût Pourtant, j'ai plus de 40 piges, j'ai pas stoppé la fume J'envoie la fusée car j'ai visé la Lune Doucement, je peux t'brutaliser juste en sortant ma plume Ça vient du 6.9, frère, big up au 9.3 J'habitais dans l'9.4, pourtant je viens du 1.3 Posé dans l'appart' avec mes big brothers Tu sais, en train d'jouer aux cartes, on est sous Jack Fire Game over, mes s7abs arrivent en Range Rover Ok, réglons les affaires avant qu'je parte t't à l'heure C'est fou, l'inspiration arrive quand je la cherche pas Ma réaction quand j'les écoute bouge pas J'en ai vu trahir, ça a changé D'autres se manger rien qu'pour 100 G' Que des propos, des discours sans gêne Fais attention, j'peux t'mettre en danger Les plus gros jaloux c'est ceux que ton cur abrite Parle dans ton dos, après, viennent te sucer la bite Qu'à 30 , j'faisais déjà la diff' À six dans la va-go, ouais donne nous le GO Prêts pour le départ, bois de leau, si tu tiens pas l'alcool, tu vas t'manger des baffes let's go Diplomatico, pour calmer ma hargne, tu me cherches Attends mon loulou, regarde comme on débarque Marseillais, l'étoile sur le maillot La Kalash' est sortie du chapeau Roue arrière sur le Prado Y a 800 chevaux sous le capot Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port</t>
+          <t>J'croyais plus en la vie, rien que je fumais la frappe Enfumé toutes les nuits, les rêves passent à la trappe Bats les couilles d'ton avis, poto, lâche-moi la grappe On a pris des risques, on avait trop la dalle Ça pointe à la SPIP, les frérots en cavale La faute à l'OCTRIS, la justice est loca La vida loca, les folles à l'hôtel On a perdu la boule, les boulettes sur la moquette Yeah, yeah, à Marseille, ça vend du shit et d'la chloroquine Ça prend des années fermes et ça libère les pédophiles Elle veut bouillave, trop coquine, pour être ta copine J'suis en terrasse, jus d'goyave, polo crocodile Yeah, les temps ont changé putain, fais pas blehni Tu m'salis, que ça parle mal, cousin J'suis dans un putain d'engin, j'fais danser ta frangine On est venu braquer la vie comme le casino dEnghien Toute la noche, les frères sont scotchés Pack de Heine' sur un rocher, ça rêve de trophée Sur la musique, ça met des crochets, on était fauchés, hein Aujourd'hui, ça rentre en boîte en full Dolce J'ai jamais pris la mach', j'ai jamais fait le monstre Regarde à 8, on mange et personne jouera la montre J'ai relevé les manches, pour donner à graille aux mômes Quand j'vois le ciel orange, j'repense à la fin du monde J'suis du secteur à Zizou, pour ça que j'aime le 10 J'ai planqué dans mes bijoux d'famille, mon bout à 10 Ma mère mon paradis, qui la préserve d'la maladie Souvent les nerfs à vif, j'vais prendre un flash à l'alim' Un quart de siècle à trop zoner, j'entends les flingues résonner Je chante pour mes abonnés, est-ce que vraiment tu m'connais ? Ils aimeraient tous nous coller pour pirater les données Mais tout ça, je le sentais, frère, tout ça, je le savais J'ai gagné les tournois, j'leur ai laissé la coupe J'ai dû découper, pas mes couplets, qui m'ont ramené la Soupline Le rap c'était ma poupée, vu sa fouffe On m'a dit mec joue la cool, après mon passage, tu peux faire du hula-hoop Fais-moi démarrer l'moteur de Subaru, la routine La rue m'a rapporté des thunes et la justice m'a tout pris Je pardonne pas mais j'oublie, nage au milieu des rookies Respecte-moi, il y a des chances que ta daronne c'était ma groupie Couche-tard depuis la cité Carter, j'met du Shootstar On représente Marseille 13015 On apprend de tout l'monde et même des plus jeunes Le vêtement le plus beau n'est pas forcément le plus cher, cousin Hey, hey, gosse du bendo, j'arrache le sol comme si j'avais volé l'benzo Fuck le taulier, j'vais crever comme le pendo Hein ces fils de p' qui mettent les yeux comme le Fendo Hey, expliquer compliquer, j'rentre dans l'appart' j'tire à la Zé Peque' Plus rien n'm'étonne, laisse-moi trop à part, j'veux ma part de paplards, pas là pour les checker Ouais, grr, j'connais l'tourniquet, j'vais crever où j'dois pas là pour t'meniker Le monde me doit rien, j'te dois quoi ? J'te l'dis pour toi, très courtois, pourquoi polémiquer ? Aïe, merde, il a l'air à terre, il s'prend pour l'pater, fausse Patek au poignet Non, j'peux plus l'voir comme Gilbert Montagné, il fait l'chaud en équipe, conduite accompagnée Marseillais, l'étoile sur le maillot La Kalash' est sortie du chapeau Roue arrière sur le Prado Y a 800 chevaux sous le capot Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port Le fric sent la lessive, le local sent la résine, on a des gros caissons, aussi, les sous pour la révision Que ça parle en mandarin quand faut sortir dix tickets J'vais faire huit cents cette année, que tye là à critiquer La meilleure haze, en vrai, le hazi ferme à minuit, le PMU tire le rideau, on joue au poker, au rami Les gants bien serrés, qualité Fouganza, Romanzo criminale, j'ai grandi avec ça 13, 14ème et 15, le Var et Corsica, que des brigantés, ça tue pour pas 1K Tout c'qu'on fait pour manger, sur ma mère, tya pas idée De janvier à janvier, j'essaie d'rester là, bébé, j'essaie d'pas m'faire pincer Gimme, gimme mauve, ils ont pas compris j'rappe comme si j'étais chauve Comme si j'étais pauvre, comme si j'étais mort Je fume mais fais-moi deux, j'vais respirer fort J'vais t'faire et rentrer à la kham comme si t'étais pas mort, han Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port J'rappe sous la canicule, 1.3 matricule Personne manipule, y a plein d'bâtards dans l'radar de rcul Dans ma bulle, j'fume que d'la purée, j'suis dans l'véhicule Ils sont pas contents quand tu perces, ils aimeraient dire Vé, il coule hein Contre les fils de pute, jsuis pas immunisé La misère ça fait peur comme des mecs qui rentrent chez toi déguisés Maintenant, j'suis parano, même quand je vais pisser Tu m'dois des papiers, j'm'en fous combien tu dois à l'épicier Guetteur au talkie, jobbeur cagoulé Y a que des matrixés dans la zone, ils aiment pas les poulets Ils m'ont pas vu débouler, j'fais des tours dans la war zone J'ai mon pochon dans les couilles, il fait qu'tomber vers les mollets Ça écarte des volets, pour trouver bonheur dans maison dorée l'OVNI Eh, toujours dans les temps, toujours à l'affût Pourtant, j'ai plus de 40 piges, j'ai pas stoppé la fume J'envoie la fusée car j'ai visé la Lune Doucement, je peux t'brutaliser juste en sortant ma plume Ça vient du 6.9, frère, big up au 9.3 J'habitais dans l'9.4, pourtant je viens du 1.3 Posé dans l'appart' avec mes big brothers Tu sais, en train d'jouer aux cartes, on est sous Jack Fire Game over, mes s7abs arrivent en Range Rover Ok, réglons les affaires avant qu'je parte t't à l'heure C'est fou, l'inspiration arrive quand je la cherche pas Ma réaction quand j'les écoute bouge pas J'en ai vu trahir, ça a changé D'autres se manger rien qu'pour 100 G' Que des propos, des discours sans gêne Fais attention, j'peux t'mettre en danger Les plus gros jaloux c'est ceux que ton cur abrite Parle dans ton dos, après, viennent te sucer la bite Qu'à 30 , j'faisais déjà la diff' À six dans la va-go, ouais donne nous le GO Prêts pour le départ, bois de leau, si tu tiens pas l'alcool, tu vas t'manger des baffes let's go Diplomatico, pour calmer ma hargne, tu me cherches Attends mon loulou, regarde comme on débarque Marseillais, l'étoile sur le maillot La Kalash' est sortie du chapeau Roue arrière sur le Prado Y a 800 chevaux sous le capot Ça me dit, si y a embrouille, j'ai mon pétard Sils bougent, j'leur fait faire le grand écart J'ai vu trop d'BDH dans mon décor Évitons d'être chargés vers le Vieux-Port</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala On m'a dit c'est ça la vie, ne trahis jamais pour un billet Regarde les gens qui t'aimes parce quils profitent de te voir briller J'vois pas la vie en rose mais j'veux la voir quitte à me griller Comment ça se finira-a-a-a En ce moment je suis dans la galère, obliger de passer par là On m'a dit que ça va passer, on m'a dit évite les blablas J'fais confiance à ma mère, j'écoute ses paroles quand j'suis pas bien J'aime mon petit frère comme tout, il m'a dit j'en ai marre d'être en chien On m'a dit fais ta life, fais gaffe les femmes la night Fais gaffe à la police ils surveillent quand tu fais ta maille J'pense aux potes si je me met die On m'a dit Petit tu veux des sous? Il faut aller au fight Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala You might also like On m'a dit que la vie est belle, petit il faut garder le sourire On m'a dit profite de la vie, de toutes façons on va tous mourir Depuis que j'ai connu l'oseille j'arrête pas de courir Mais le bonheur ne s'achète pas gros, j'arrive plus à dormir On m'a dit que la roue tourne, que le temps cicatrice les plaies J'ai pas arrêté de prier On m'a dit que les gens changent surtout avec le succès Moi j'ai jamais changé, j'ai juste un peu plus d'lovés J'ai pas oublié poto, j'ai pas oublié Quand j'étais dans la merde tu m'as renié On m'a dit fait gaffe aux femmes elles font couler des larmes Dites à ma mère que je l'aime du plus profond de mon âme Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala On m'a dit le silence vaut de l'or, ça t'éviteras de pleurer des larmes On m'a dit y'a trop de morts, j'ai répondu y'a trop d'armes J'trouve pas la vie si belle, j'sors jamais de Marseille J'ai toujours viser la lune, pour finir sous le soleil On m'a dit L'algé, ton blase est grillé Fier de mes origines j'peux pas les renier Moi, je fais de la musique pour tout plier Dès que je fais le rouleau j'me taille au de-blé On m'a dit fait ta vie, ne calcule pas les gens Pense à l'avenir si tu veux rentrer dans la légende On m'a dit le silence est d'or, et la parole d'argent J'ai rien vu, rien entendu, je l'jure monsieur l'agent, breh Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala4</t>
+          <t>Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala On m'a dit c'est ça la vie, ne trahis jamais pour un billet Regarde les gens qui t'aimes parce quils profitent de te voir briller J'vois pas la vie en rose mais j'veux la voir quitte à me griller Comment ça se finira-a-a-a En ce moment je suis dans la galère, obliger de passer par là On m'a dit que ça va passer, on m'a dit évite les blablas J'fais confiance à ma mère, j'écoute ses paroles quand j'suis pas bien J'aime mon petit frère comme tout, il m'a dit j'en ai marre d'être en chien On m'a dit fais ta life, fais gaffe les femmes la night Fais gaffe à la police ils surveillent quand tu fais ta maille J'pense aux potes si je me met die On m'a dit Petit tu veux des sous? Il faut aller au fight Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala On m'a dit que la vie est belle, petit il faut garder le sourire On m'a dit profite de la vie, de toutes façons on va tous mourir Depuis que j'ai connu l'oseille j'arrête pas de courir Mais le bonheur ne s'achète pas gros, j'arrive plus à dormir On m'a dit que la roue tourne, que le temps cicatrice les plaies J'ai pas arrêté de prier On m'a dit que les gens changent surtout avec le succès Moi j'ai jamais changé, j'ai juste un peu plus d'lovés J'ai pas oublié poto, j'ai pas oublié Quand j'étais dans la merde tu m'as renié On m'a dit fait gaffe aux femmes elles font couler des larmes Dites à ma mère que je l'aime du plus profond de mon âme Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala On m'a dit le silence vaut de l'or, ça t'éviteras de pleurer des larmes On m'a dit y'a trop de morts, j'ai répondu y'a trop d'armes J'trouve pas la vie si belle, j'sors jamais de Marseille J'ai toujours viser la lune, pour finir sous le soleil On m'a dit L'algé, ton blase est grillé Fier de mes origines j'peux pas les renier Moi, je fais de la musique pour tout plier Dès que je fais le rouleau j'me taille au de-blé On m'a dit fait ta vie, ne calcule pas les gens Pense à l'avenir si tu veux rentrer dans la légende On m'a dit le silence est d'or, et la parole d'argent J'ai rien vu, rien entendu, je l'jure monsieur l'agent, breh Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala Lalalala4</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ouais biloumi Taxi 5 C'est L'Algé', DJ Kore Jai grandi dans le bloc, jai connu la crise Mappelle pas le sang, non ne me fais pas la bise Marseille Quartiers Nord, cest devenu Cali Pas un dans les poches, Madame est devant la vitre Jveux la mari-marier, mais faut les billets Cagoulé ganté, jvais tous les faire chanter La la la, oui je vis Féfé en double file, jfais bugguer le taxi Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin You might also like Course-poursuite en hélico Marseille cest cramé, cest chaud Ya les condés dans lallée Les petits dchez moi les font cavaler Lamborghini Gallardo Jbois une petite menthe à leau Ah tu mas vu à la télé Gianni Versace tu mreconnais Ma chérie jsuis dans mon bolide Ça bombarde sur la route, le soleil est torride Le compte est chargé, tinquiète cest du solide Ya du bon, du mauvais Marseille cest la folie Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin Jsuis posé seul en terrasse Le couz il lève le T-Max Jcrois qujvais finir en serrage Tu rends fou le con de ta race HLM au bord dla mer Jsuis en buvette jaccélère Quest-ctu veux qujdise aux minots ? Sont tous devenus paranos Ma chérie jsuis dans mon bolide Ça bombarde sur la route, le soleil est torride Le compte est chargé, tinquiète cest du solide Ya du bon, du mauvais Marseille cest la folie Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin La la la la Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin La la la la La la la la J'suis un phénomène La la la la Va bene ma bella La la la la3</t>
+          <t>Ouais biloumi Taxi 5 C'est L'Algé', DJ Kore Jai grandi dans le bloc, jai connu la crise Mappelle pas le sang, non ne me fais pas la bise Marseille Quartiers Nord, cest devenu Cali Pas un dans les poches, Madame est devant la vitre Jveux la mari-marier, mais faut les billets Cagoulé ganté, jvais tous les faire chanter La la la, oui je vis Féfé en double file, jfais bugguer le taxi Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin Course-poursuite en hélico Marseille cest cramé, cest chaud Ya les condés dans lallée Les petits dchez moi les font cavaler Lamborghini Gallardo Jbois une petite menthe à leau Ah tu mas vu à la télé Gianni Versace tu mreconnais Ma chérie jsuis dans mon bolide Ça bombarde sur la route, le soleil est torride Le compte est chargé, tinquiète cest du solide Ya du bon, du mauvais Marseille cest la folie Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin Jsuis posé seul en terrasse Le couz il lève le T-Max Jcrois qujvais finir en serrage Tu rends fou le con de ta race HLM au bord dla mer Jsuis en buvette jaccélère Quest-ctu veux qujdise aux minots ? Sont tous devenus paranos Ma chérie jsuis dans mon bolide Ça bombarde sur la route, le soleil est torride Le compte est chargé, tinquiète cest du solide Ya du bon, du mauvais Marseille cest la folie Awin, awin Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin La la la la Va bene ma bella la la la la Jsuis à Marseille dans ma favela la la la la Va bene ma bella la la la la Jleur fais danser la macarena Jsuis un phénomène, elle est plein de manies Elle fait la difficile, jsuis loin dêtre fragile Jsuis calé dans le club, mon pote jme finis Et vas-y lâche une blonde, hasta luego Fanny Awin, awin La la la la La la la la J'suis un phénomène La la la la Va bene ma bella La la la la3</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L'École était accrochée à un flanc de colline surplombant une ville vielle de trois millénaires. Lorsque la nuit tombait, étalant son voile noir sur la cité, sa robe scintillait de milliers de lumières oranges. Ouvrez les yeux, vous êtes à Marseille On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang Jsuis d'l'époque où cette ville a connu tant dpeine Où sa jeunesse s'envoyait du rêve dans les veins Lorsque les vrais avec lurs poings amenaient les chrysanthèmes Mais qu'les grands baladaient les fers dans les vestes bang, bang, bang Phocée ancrée dans mon ADN, claquette et KTM On r'fait le monde, assis sur le capot de la BM Coincés entre mépris, les poches gonflées de thunes Et les buts insipides des poufs qui s'font gonfler le cul J'suis un enfant des grues, des conteneurs Mais considère que ce petit lopin de terre nous confédère On suit la voie du mic' de la Soli à Benza IAM, MRS, Independanza J'marche en bande organisée, pas là pour sympathiser Ils ont pas cru en moi, tinquiète, au final, ils ont réalisé Bois pas si tu sais pas tiser, tire pas si tu sais pas viser Jtraînais au quartier jusqu'à tard, jme rappelle que mama crisait Samedi soir électrisé, paraît qu'ça s'fight au Vieux Port Sortie de boîte arrosée, bruncha ça veut s'arroser On passe en décapotable comme des bad boys mais vu nos têtes, Tchikita, elle veut pas causer Elle sait que ça veut pas sposer C'est la guerre comme Savastano et Salvatore Conte Les p'tits, ils savent pas lire mais t'inquiète, ils savent conduire et compter Règlement d'compte, tous cagoulés comme sur l'Île de Beauté Fais gaffe, tu peux t'faire donner par un mec dans l'bar d'à côté You might also like On dit plus Versace, on dit chemise à L'Algé' Lunettes Cartier, les p'tits ont repris le rrain-té Bois un coup à ma santé, ces pédés font qu'me hasser J'change de fuseau horaire, j'fais l'tour du monde, j'suis jetlagué Marseille la nuit, ça roule en bolide, brolique, ça veut du liquide Wahed hypocrite, tu portais l'masque avant le COVID bang, bang, bang Ça va trop vite, même ton ami te trahit, te rafale et présente les condoléances à ta famille bang, bang, bang Les p'tits en roue arrière sur la Canebière, sors le cross volé J'ai vue sur la mer, j'ai trop vu la merde, arrête de t'affoler, on f'ra pas affaires Tu prêtes 20 000 , pour pas t'rembourser, il est capable de t'faire On bosse avec des couches-tard Eh ouais, L'Algé' d'la case on bouge tard, on bouffe tard La kichta ou la pushka Tous les jours, j'attends mon heure, les jnouns nourrissent ma peur En cours, j'étais rêveur mais mes couilles, c'était mon moteur L'adresse, c'est Quartiers Nord, les traîtres, c'est la BAC Nord La brèche, c'est l'disque d'or et le reste, c'est du désordre, et ouais Amore mio, Marseille, c'est devenu Rio, ah ! J'ai les mains dans la khra depuis ma Clio, mon pote J'en deviens malade vegan, j'fume que la salade, les boîtes Font du recalage, zebi, pour bir le kalash, JuL C'est normal, IAM, c'est normal, et Luch' C'est normal, Psy 4, c'est normal SCH C'est normal, L'Algé', c'est normal, Fahar C'est normal, l'Alonz', ouais, c'est normal, zin bang, bang, bang J'suis Marseille, drapeau hissé comme dans Heat, ça va tirer, on se propage, y a pas de remède C'est le 13'Organisé, le produit légalisé et ouais, de ma ville, j'suis tombé love d'elle On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang Mars tous les coups partent, ville jugée coupable Ce rap, c'est la soupape, Notre-Dame nous garde On parle pas de quota, diversité incroyable Surtout pas de faux pas, 10 mille MC à la table Relis bien l'contrat, on rentre pas à l'étable Vérifie l'compas, on voit qu'nos gueules sur la carte Et si on donne c'qu'on a, afin qu'nos gens nous acclament C'est parce que Mars' est une arme, et nous cette putain de balle C'est elle qui régit nos âmes, toile de fond de nos vies Vas-y, traite-nous de sauvage, une mère connait ses petits Plus il en viendra, plus il y en aura sur le parvis Tu sais ce qu'on dit blason brandi, c'est reparti Yo, 1.3, on remet ça, j'suis Marseille, les vrais le savent Tchiki-paw, 13.0.13, et le crime est sale Le message pour les braves, le métal pour les trav', une rafale pour les poucaves et les puta Ancienne école, nouvelle école, tu croyais quoi ? Ça bouge pas On veut tout prendre quitte à t'faire danser la zumba bang, bang, bang Dans nos halls, on vise le haut, pas l'choix, c'est normal Faut qu'ça rentre comme si c'était le dernier repas C'est les quartiers Nord, quartiers Sud, CV, ouais, ouais J'ai pas rasé les murs, j'les ai rayés, hein Elles veulent plus d'amour, elles veulent ta CB, ouais Ouais, nos rues restent un cauchemar, même éveillé Tu sais comment on fait Tu sais comment on est Tu sais comment on sait Trempés dans l'aluminium quand ça s'envenime Et les toxicos sous Rohypnol, on veut soulever la coupe L'Opinel entre deux côtes, sang sur les sweat-shirts Des talons, des prothèses, de la caisse, il sort que des tchok J's'rais jamais vraiment nichen, riche du cur et riche Tye fort et tout mais les balles, y a personne qui les digère J'vais pas mourir de vieillesse, flash devant l'alim' C'est tout pour le frigo, ouais, c'est tout pour la frime J'arrive comme un ouvre-branche sur puta madre malpolie Tellement de floconneuses qu'on s'croirait en Laponie Franc du collier à la Tony, s'auto-gère comme à Napoli P'tit air de guigui, polopopop à l'agonie J'suis Marseille, criminogène, la grande cité des rêves J'suis l'amour entre les kheys, j'suis la guerre entre les raises Personne d'auréolé, 1.3 te mettra la trique, mets quelque chose d'olé olé, 1.3 te mettra hat-trick Quartiers S, quartiers N tournent pas dans l'même sens que le globe Que de l'avant droit, devant toujours dans l'même sens que le Glock Qui trahit le pacte finira comme le Pac La vie sépare la mort et l'rap rassemble les foules comme le Pape bang, bang, bang J'suis Marseille, drapeau hissé comme dans Heat, ça va tirer, on se propage, y a pas de remède C'est le 13'Organisé, le produit légalisé et ouais, de ma ville, j'suis tombé love d'elle On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang1</t>
+          <t>L'École était accrochée à un flanc de colline surplombant une ville vielle de trois millénaires. Lorsque la nuit tombait, étalant son voile noir sur la cité, sa robe scintillait de milliers de lumières oranges. Ouvrez les yeux, vous êtes à Marseille On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang Jsuis d'l'époque où cette ville a connu tant dpeine Où sa jeunesse s'envoyait du rêve dans les veins Lorsque les vrais avec lurs poings amenaient les chrysanthèmes Mais qu'les grands baladaient les fers dans les vestes bang, bang, bang Phocée ancrée dans mon ADN, claquette et KTM On r'fait le monde, assis sur le capot de la BM Coincés entre mépris, les poches gonflées de thunes Et les buts insipides des poufs qui s'font gonfler le cul J'suis un enfant des grues, des conteneurs Mais considère que ce petit lopin de terre nous confédère On suit la voie du mic' de la Soli à Benza IAM, MRS, Independanza J'marche en bande organisée, pas là pour sympathiser Ils ont pas cru en moi, tinquiète, au final, ils ont réalisé Bois pas si tu sais pas tiser, tire pas si tu sais pas viser Jtraînais au quartier jusqu'à tard, jme rappelle que mama crisait Samedi soir électrisé, paraît qu'ça s'fight au Vieux Port Sortie de boîte arrosée, bruncha ça veut s'arroser On passe en décapotable comme des bad boys mais vu nos têtes, Tchikita, elle veut pas causer Elle sait que ça veut pas sposer C'est la guerre comme Savastano et Salvatore Conte Les p'tits, ils savent pas lire mais t'inquiète, ils savent conduire et compter Règlement d'compte, tous cagoulés comme sur l'Île de Beauté Fais gaffe, tu peux t'faire donner par un mec dans l'bar d'à côté On dit plus Versace, on dit chemise à L'Algé' Lunettes Cartier, les p'tits ont repris le rrain-té Bois un coup à ma santé, ces pédés font qu'me hasser J'change de fuseau horaire, j'fais l'tour du monde, j'suis jetlagué Marseille la nuit, ça roule en bolide, brolique, ça veut du liquide Wahed hypocrite, tu portais l'masque avant le COVID bang, bang, bang Ça va trop vite, même ton ami te trahit, te rafale et présente les condoléances à ta famille bang, bang, bang Les p'tits en roue arrière sur la Canebière, sors le cross volé J'ai vue sur la mer, j'ai trop vu la merde, arrête de t'affoler, on f'ra pas affaires Tu prêtes 20 000 , pour pas t'rembourser, il est capable de t'faire On bosse avec des couches-tard Eh ouais, L'Algé' d'la case on bouge tard, on bouffe tard La kichta ou la pushka Tous les jours, j'attends mon heure, les jnouns nourrissent ma peur En cours, j'étais rêveur mais mes couilles, c'était mon moteur L'adresse, c'est Quartiers Nord, les traîtres, c'est la BAC Nord La brèche, c'est l'disque d'or et le reste, c'est du désordre, et ouais Amore mio, Marseille, c'est devenu Rio, ah ! J'ai les mains dans la khra depuis ma Clio, mon pote J'en deviens malade vegan, j'fume que la salade, les boîtes Font du recalage, zebi, pour bir le kalash, JuL C'est normal, IAM, c'est normal, et Luch' C'est normal, Psy 4, c'est normal SCH C'est normal, L'Algé', c'est normal, Fahar C'est normal, l'Alonz', ouais, c'est normal, zin bang, bang, bang J'suis Marseille, drapeau hissé comme dans Heat, ça va tirer, on se propage, y a pas de remède C'est le 13'Organisé, le produit légalisé et ouais, de ma ville, j'suis tombé love d'elle On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang Mars tous les coups partent, ville jugée coupable Ce rap, c'est la soupape, Notre-Dame nous garde On parle pas de quota, diversité incroyable Surtout pas de faux pas, 10 mille MC à la table Relis bien l'contrat, on rentre pas à l'étable Vérifie l'compas, on voit qu'nos gueules sur la carte Et si on donne c'qu'on a, afin qu'nos gens nous acclament C'est parce que Mars' est une arme, et nous cette putain de balle C'est elle qui régit nos âmes, toile de fond de nos vies Vas-y, traite-nous de sauvage, une mère connait ses petits Plus il en viendra, plus il y en aura sur le parvis Tu sais ce qu'on dit blason brandi, c'est reparti Yo, 1.3, on remet ça, j'suis Marseille, les vrais le savent Tchiki-paw, 13.0.13, et le crime est sale Le message pour les braves, le métal pour les trav', une rafale pour les poucaves et les puta Ancienne école, nouvelle école, tu croyais quoi ? Ça bouge pas On veut tout prendre quitte à t'faire danser la zumba bang, bang, bang Dans nos halls, on vise le haut, pas l'choix, c'est normal Faut qu'ça rentre comme si c'était le dernier repas C'est les quartiers Nord, quartiers Sud, CV, ouais, ouais J'ai pas rasé les murs, j'les ai rayés, hein Elles veulent plus d'amour, elles veulent ta CB, ouais Ouais, nos rues restent un cauchemar, même éveillé Tu sais comment on fait Tu sais comment on est Tu sais comment on sait Trempés dans l'aluminium quand ça s'envenime Et les toxicos sous Rohypnol, on veut soulever la coupe L'Opinel entre deux côtes, sang sur les sweat-shirts Des talons, des prothèses, de la caisse, il sort que des tchok J's'rais jamais vraiment nichen, riche du cur et riche Tye fort et tout mais les balles, y a personne qui les digère J'vais pas mourir de vieillesse, flash devant l'alim' C'est tout pour le frigo, ouais, c'est tout pour la frime J'arrive comme un ouvre-branche sur puta madre malpolie Tellement de floconneuses qu'on s'croirait en Laponie Franc du collier à la Tony, s'auto-gère comme à Napoli P'tit air de guigui, polopopop à l'agonie J'suis Marseille, criminogène, la grande cité des rêves J'suis l'amour entre les kheys, j'suis la guerre entre les raises Personne d'auréolé, 1.3 te mettra la trique, mets quelque chose d'olé olé, 1.3 te mettra hat-trick Quartiers S, quartiers N tournent pas dans l'même sens que le globe Que de l'avant droit, devant toujours dans l'même sens que le Glock Qui trahit le pacte finira comme le Pac La vie sépare la mort et l'rap rassemble les foules comme le Pape bang, bang, bang J'suis Marseille, drapeau hissé comme dans Heat, ça va tirer, on se propage, y a pas de remède C'est le 13'Organisé, le produit légalisé et ouais, de ma ville, j'suis tombé love d'elle On a zoné sous le soleil bang, bang, bang Tu nous connais, made in Marseille bang, bang, bang1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Des fois jgamberge, jécoute du Hasni Jfais que rouler toute la nuit Jcroyais qutétais mon ami Jme confie à toi tu racontes toute ma vie Des fois jgamberge, jécoute du hasni Jfais que rouler toute la nuit On sétait dit oui pour la vie Khobz dar yaklou l'Berani Jallume une clope Jpense à la journée dhier Soleil au zénith, jsuis fraca Jai même pas fait ma prière Le temps cest des hassanets Cest dlargent aussi Comme toi jsuis malade Jcours après cqui méchappe Jmépuise aussi le pactole, le pactole Vas-y fais-en un, jarrive plus à dormir Panique, jsouffre, mon cur est malade Mon âme veut srepentir Jrecherche lantidote Yema, pardonne ton fils Jsuis dans un bloc Clope et des clopes, ya dla pisse Des fois jgamberge, jécoute du Hasni Jfais que rouler toute la nuit Jcroyais qutétais mon ami Jme confie à toi tu racontes toute ma vie Des fois jgamberge, jécoute du hasni Jfais que rouler toute la nuit On sétait dit oui pour la vie Khobz dar yaklou l'Berani x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argent Toi tu veux me voir couler Jai fumé, jme suis soulé Mais je msuis jamais écroulé Jconnais lvrai visage des gens Jconnais lvrai visage des gens Quand tes en chien ya personne qui tattend Moi jveux de lor et de lor et de lor x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argent Quoi ? Toi, quest-ctu connais dma vie ? Petit Berbère est devenu prince de sa ville Jai donné, jai donné Jmen bats les couilles des gadjis Jveux juste une villa, piscine pour Alia et Djibril Je tire deux-trois barres et je plane, et je plane Jentends à ma gauche le Sheitan qui ricane Lenvie dtout bruler, ramène un jerricane Jsuis entre deux flammes x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argentYou might also like4</t>
+          <t>Des fois jgamberge, jécoute du Hasni Jfais que rouler toute la nuit Jcroyais qutétais mon ami Jme confie à toi tu racontes toute ma vie Des fois jgamberge, jécoute du hasni Jfais que rouler toute la nuit On sétait dit oui pour la vie Khobz dar yaklou l'Berani Jallume une clope Jpense à la journée dhier Soleil au zénith, jsuis fraca Jai même pas fait ma prière Le temps cest des hassanets Cest dlargent aussi Comme toi jsuis malade Jcours après cqui méchappe Jmépuise aussi le pactole, le pactole Vas-y fais-en un, jarrive plus à dormir Panique, jsouffre, mon cur est malade Mon âme veut srepentir Jrecherche lantidote Yema, pardonne ton fils Jsuis dans un bloc Clope et des clopes, ya dla pisse Des fois jgamberge, jécoute du Hasni Jfais que rouler toute la nuit Jcroyais qutétais mon ami Jme confie à toi tu racontes toute ma vie Des fois jgamberge, jécoute du hasni Jfais que rouler toute la nuit On sétait dit oui pour la vie Khobz dar yaklou l'Berani x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argent Toi tu veux me voir couler Jai fumé, jme suis soulé Mais je msuis jamais écroulé Jconnais lvrai visage des gens Jconnais lvrai visage des gens Quand tes en chien ya personne qui tattend Moi jveux de lor et de lor et de lor x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argent Quoi ? Toi, quest-ctu connais dma vie ? Petit Berbère est devenu prince de sa ville Jai donné, jai donné Jmen bats les couilles des gadjis Jveux juste une villa, piscine pour Alia et Djibril Je tire deux-trois barres et je plane, et je plane Jentends à ma gauche le Sheitan qui ricane Lenvie dtout bruler, ramène un jerricane Jsuis entre deux flammes x2 Jai tourné, jai zoné Jai zoné, jai tourné Jai tourné, jai zoné Jai perdu mon temps Les mains faites pour de lor Les menottes en argent4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux You might also like Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
+          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien a voir, tas du mal à me croire Jte jure sur la tête de ma mère! Journée de merde sur ma mère rien à faire, Jprends mon merco Poste à fond dans la caisse vitre baissée le soleil frappe trop! Wesh Gros! Parait que Marseille a recruté du lourd Toujours les mêmes ragots les mêmes têtes cramées en bas dma tour Jai rendez-vous avec Samos, CLS, Gros Gamos Polo rose, Ralph Lo, Frais Tyé frais OK Bamos Chaleur caniculaire, faut que je me désaltère Direction la plage des catalans transat ça va le faire Sur le chemin de la playa ya plein de condés Ca fait dix mois quils mont retiré mon permis de piloter Contrôle de police on mdemande mes papiers Jdonne le blaz du ptit frère rien a faire à Marseille jsuis cramé Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! You might also like Cest pour les mecs qui jurent la tête de ma mère, HLM au bord de la mer Un pied dans la mosquée lautre dans la merde, du ter ter ter la tête de ma mère Si ça défonce cest mon son cest du bon naies pas peur dinvestir ten auras pour tes Hron Lalbum de la bombe de chez bombe bombe bombe! Jure Wallah La tête de ma mère! Customisé, flow remonté, les flics on les fait baliser Tes pas la bienvenue si tas le boule de Beyoncé, on nest pas du genre à pigeonner Tas écouté mon son à la radio pour mes Gadji, pour mes Gadjo Tu peux me croiser à Clichy ou à Las Vegas ma suite au Bellagio ! Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! Jai passé plus de 24 éternités en G-A-V Questionné, mitraillé ça sentait le poulailler Boumaillié droite, gauche je me serais vu les foudroyer, yeah La-La-La-La Volaille, jai du mal à les côtoyer On a tous une couverture quand je branche une Gadji jm'appelle Mehdi Tauras beau être la plus belle tauras jamais ma carte de crédit! Barbecue, sauna, jacuzzi, oui cest Halim Mon public passe lété à Marseille, si la famille G-S-X-R, roue arrière, torse nu, les pec en lair À Marseille on est des fous des barges on roule en ville en marche arrière, yeahhhhh Lété sera chaud dans le Ter Ter L'Algérie en coupe du monde frère! Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! Ohww! Lautre il était en classe tas vu Il a envoyé la craie sur la tête de la prof La prof elle le regarde elle la vu en flag Rinani Puis il jure sur la tête de sa mère que cest pas lui! Lest malade! Et ya lautre aussi il a reçu un SMS Cest une Gadji Oui salut nanani Nanana Sa femme elle tombe dessus Et il jure la tête de sa mère qui la connait pas! Arrêtez de jurer sur la tête de vos mères! Yen a carrément ils jurent sur la vie de leur morts!3</t>
+          <t>Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien a voir, tas du mal à me croire Jte jure sur la tête de ma mère! Journée de merde sur ma mère rien à faire, Jprends mon merco Poste à fond dans la caisse vitre baissée le soleil frappe trop! Wesh Gros! Parait que Marseille a recruté du lourd Toujours les mêmes ragots les mêmes têtes cramées en bas dma tour Jai rendez-vous avec Samos, CLS, Gros Gamos Polo rose, Ralph Lo, Frais Tyé frais OK Bamos Chaleur caniculaire, faut que je me désaltère Direction la plage des catalans transat ça va le faire Sur le chemin de la playa ya plein de condés Ca fait dix mois quils mont retiré mon permis de piloter Contrôle de police on mdemande mes papiers Jdonne le blaz du ptit frère rien a faire à Marseille jsuis cramé Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! Cest pour les mecs qui jurent la tête de ma mère, HLM au bord de la mer Un pied dans la mosquée lautre dans la merde, du ter ter ter la tête de ma mère Si ça défonce cest mon son cest du bon naies pas peur dinvestir ten auras pour tes Hron Lalbum de la bombe de chez bombe bombe bombe! Jure Wallah La tête de ma mère! Customisé, flow remonté, les flics on les fait baliser Tes pas la bienvenue si tas le boule de Beyoncé, on nest pas du genre à pigeonner Tas écouté mon son à la radio pour mes Gadji, pour mes Gadjo Tu peux me croiser à Clichy ou à Las Vegas ma suite au Bellagio ! Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! Jai passé plus de 24 éternités en G-A-V Questionné, mitraillé ça sentait le poulailler Boumaillié droite, gauche je me serais vu les foudroyer, yeah La-La-La-La Volaille, jai du mal à les côtoyer On a tous une couverture quand je branche une Gadji jm'appelle Mehdi Tauras beau être la plus belle tauras jamais ma carte de crédit! Barbecue, sauna, jacuzzi, oui cest Halim Mon public passe lété à Marseille, si la famille G-S-X-R, roue arrière, torse nu, les pec en lair À Marseille on est des fous des barges on roule en ville en marche arrière, yeahhhhh Lété sera chaud dans le Ter Ter L'Algérie en coupe du monde frère! Sur la tête de ma mère Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère Madame la juge jai rien à voir, tas du mal à me croire Jte jure sur la tête de ma mère! Jai rien vu rien entendu, Monsieur le commissaire Je ljure sur la tête de ma mère! Arrête de Hlef Hlef, arrête de Hlef Hlef Arrête de Hlef Hlef sur la tête de ma mère! Ohww! Lautre il était en classe tas vu Il a envoyé la craie sur la tête de la prof La prof elle le regarde elle la vu en flag Rinani Puis il jure sur la tête de sa mère que cest pas lui! Lest malade! Et ya lautre aussi il a reçu un SMS Cest une Gadji Oui salut nanani Nanana Sa femme elle tombe dessus Et il jure la tête de sa mère qui la connait pas! Arrêtez de jurer sur la tête de vos mères! Yen a carrément ils jurent sur la vie de leur morts!3</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? De mes propres mains j'ferais un château d'amour On vivra la bohème comme disait Aznavour Y'a plus de limite oui mon cur, on savoure Je bétonnerais dans mon cur toutes les choses qu'on savoure Nuit de noces à Dubaï habillé en Kandou J'décrocherais les étoiles pour t'prouver mon amour Tous les débuts du mois j'chargerais le caddie On fera la prière pour s'revoir au Paradis J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? You might also like On s'racontait nos vies des heures au téléphone J'aime ton sourire tes fou-rires qui résonnent Laisse moi pendant le foot ma princesse tu déconnes Je t'aime sauvagement il faut que tu décodes J'te vois en flash tu porteras la robe Accorde moi cette danse fais de moi un homme Engueulades vite oubliées dans la rigolade N'en fais pas une marmelade ou j'te garde ou j'te largue Sèches tes larmes quand j'te regarde Ton corps à son bodyguard son bunker quand ça bombarde Reste présent dans les moments hard Aigle Royal j'veux bâtir mon nid Un trait de vie royale a la Clyde et Bonnie À la recherche de mi amor avec un cur d'Apache Faut faire des concessions pour faire des attaches J'suis une bête sauvage, apprivoises mon amour Aide moi à prendre mon envol depuis le bas des tours J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? x2 Dès que dans mon cur tombe de la pluie Seul dans ma tempête je recherche un abri Quand je me sens seul perdu dans la nuit C'est dans ton regard que le soleil brille J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ?2</t>
+          <t>J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? De mes propres mains j'ferais un château d'amour On vivra la bohème comme disait Aznavour Y'a plus de limite oui mon cur, on savoure Je bétonnerais dans mon cur toutes les choses qu'on savoure Nuit de noces à Dubaï habillé en Kandou J'décrocherais les étoiles pour t'prouver mon amour Tous les débuts du mois j'chargerais le caddie On fera la prière pour s'revoir au Paradis J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? On s'racontait nos vies des heures au téléphone J'aime ton sourire tes fou-rires qui résonnent Laisse moi pendant le foot ma princesse tu déconnes Je t'aime sauvagement il faut que tu décodes J'te vois en flash tu porteras la robe Accorde moi cette danse fais de moi un homme Engueulades vite oubliées dans la rigolade N'en fais pas une marmelade ou j'te garde ou j'te largue Sèches tes larmes quand j'te regarde Ton corps à son bodyguard son bunker quand ça bombarde Reste présent dans les moments hard Aigle Royal j'veux bâtir mon nid Un trait de vie royale a la Clyde et Bonnie À la recherche de mi amor avec un cur d'Apache Faut faire des concessions pour faire des attaches J'suis une bête sauvage, apprivoises mon amour Aide moi à prendre mon envol depuis le bas des tours J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? x2 Dès que dans mon cur tombe de la pluie Seul dans ma tempête je recherche un abri Quand je me sens seul perdu dans la nuit C'est dans ton regard que le soleil brille J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ? J'suis déjà un aigle avec toi je serais un Airbus Mademoiselle veux-tu être ma reine ? Grimpe sur mes ailes pour toucher le ciel Mademoiselle veux-tu être ma reine ?2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A-A-Abys One 13 Organisé Là pour prendre la vie dans des positions indécentes, mon ami Si tu veux pas qu'on monte eh, faudra nous descendre, mon ami 1.3 Ni confiance en toi, ni en ma rétine, tu sais bien, tu sais rien, pourquoi parle-t-il ? J'ai la mort, j'ai le démon, parait-il, c'est mon tour pas le tien, j'la tiens par les tifs Déjà été tué mais j'sais par qui, j'tire dans l'tas comme si j'avais la Parkins' Si tu les comptes, j'veux les peser et par kil' j'veux la caisse plus grande que la place de parking J'suis ici, j'suis là-bas, j'suis la j'nesse sans rêve, on veut tout, mon poto, on est v'nu sans rien Accroche-toi car tout meurt si les couilles s'enraillent On peut tout, mon poto, dans ces coins sans règles On en jette, on les jette, on veut tout avoir Il trahit, on l'éjecte, on veut rien savoir Très fidèle, très dévoué, pas là pour la gloire Y a qu'pour la soif, pour la swagg et pour la soie D'puis qu'on est jeunes, la guerre dans nos quartiers J'sais pas combien mais j'sais qu'on va tout claquer J'tuerais des gens pour l'temps, des lunettes Cartier Personne n'est immortel, on va tous raquer Égaré, mal-barré, j'peux plus réparer J'ai laissé mon bon fond sur la bande d'arrêt J'suis garé dans l'carré, j'bois des raz d'marée Rien à narrer, je n'suis que c'que mon art est You might also like J'ai pris le mic' pour me soigner à 15 piges, à la base, on rappait pas pour être riche En larmes quand les frères nous faisaient l'prêche, face aux flics, personne faisait l'autruche On affrontait nos torts comme des grands garçons, pas de raisins secs dans le caleçon On prenait exemple sur les anciens, aujourd'hui, l'respect, c'est un paillasson Tout a changé, même pour manger, des frères se shootent dans les tranchées Les plus âgés sont ravagés et les p'tits ne savent que s'kalasher Parents fauchés, amour fâché, t'es cagoulé devant le guichet Voilà pourquoi tous mes couplets sont des lettres à France comme Polnareff Moi, j'suis sorti du mur, personne me connaissait, j'rappais dans la Twingo, j'étais au quartier C'était moi qu'tu voyais sur une roue, c'était moi qui sentait l'parfum Cartier Dans les bras de Morphée, j'ai vu les p'tits morfler Les schmitts, ils font peur à six heures et les mamas, c'pas de leur faute Des qualités, des défauts mais trahis pas si tu es mon frère, on va s'en vouloir comme des fous J'ai tout donné et ça m'en veut, de quoi frissonner J'ai mis d'côté mon côté émotionnel Car y a des choses qu'il faut pas cautionner Tout a changé, c'est comme ça, mon frangin Personne a rien fait, pourquoi j'irais me venger ? J'suis dans l'Range, j'gamberge et quand j'pense, ça fait mal de voir ton ami faire l'étranger Tout a changé, tout l'monde veut manger À dire que même des daronnes se baladent chargées Retiens bien l'message quand tu as pas pied, faut pas nager Les potos, la rue, la rue, les potos, c'est trop chaud, la rue Les condés prennent des photos, est-ce que tu m'as vu ? Le futur un loto, les p'tits vendent la coco, les frères meurent en moto J'étais dans ma bulle, j'avais pas un euro, j'suis dans l'PMU Demande à Nono, j'me lâche quand j'ai bu J'me mets à nu, j'pense à ma mère quand j'regarde la lune Si tu savais, yemma, rien n'a changé, yemma Y a trop d'jaloux, yemma, ils font que parler, yemma Si tu savais, yemma, rien n'a changé, yemma J'reviens de loin, yemma, la roue a tourné, yemma J'ai rien oublié, génération veut des billets mais billets nous mènent dans l'corbillard Ouais, tout a changé même si moi-même, j'ai pas changé On s'est jamais plaint dans le brouillard J'peux pas éponger, une vie noyée dans les soucis On était jeunes et insouciants, pas encore soucieux 2020, ça part en sucette, j'ai cuisiné sans la recette Donc j'connais les enjeux Avec rien, on faisait un et avec un, on faisait tout Et maintenant, même si tu leur donnes 100, ils font plus rien Et même avec, ça se mêle de tout Donc j'peux pas oublier sans être outillé, on a marqué la tess, on la fait briller Tout l'monde a vrillé, maintenant, ça cherche à s'envoler vers le ciel avec des ailes grillées Y avait des rires, des larmes, l'hiver et des rappels de souvenirs donc je pleure sous l'averse Le ventre ouvert, cur déchiré, passé dans mixeur, le reste en PLS Époque accidentée, sentiments sur l'trottoir, l'histoire ne m'écrit pas, moi, j'écris mon histoire J'repense à tous mes torts mais y a zéro mystère, on commence comme des potes, on finit adversaires À la base, y avait pas d'avenir Tout a changé, tout a changé À la base, y avait pas d'avenir Tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Oh, atterri au monde dans cette ville, dans les années quatre-vingt-dix dix Marseille, F.E.L.I.X, Dieu m'a créé, faut pas que j'traîne dans le bendo Ma mère me pensait très nia nia, attiré par les mensonges, je l'ai nié nié Dans la cité, j'élastiquais les billets pour pas qu'tu fasses le ménage et qu'tu casses le dos, le dos Faut qu'j'sorte ma tête de l'eau, je savais que c'était pas dans le bendo 'do Que j'allais faire des loves, no Oh maman, souris, là, j'sors de toutes ces conneries, ma femme, mes gosses et j'esquive La taule, la drogue, les geôles, les flingues, les boum-boum et les perquis' Là, j'sors de toutes ces conneries J'taffe, j'taffe, j'taffe, j'écris, j'veux qu'mon gosse voit que je brille Qu'à l'école, ça lui dise Ton daron, c'est un monstre quand il débite, c'est la folie, folie, folie Regarde la vie qu'on mène, j'ai changé mon domaine Ma haine, ma peine dans mes veines, j'prends tout, j'taille aux Seychelles Tout a changé tant d'faux sourires, propre sur moi, j'vais les pourrir J'marche pas au pas, j'les fais courir, si j't'aime vraiment prêt à t'couvrir Jamais j'vendrai la main qui veut m'nourrir, à de meilleurs lendemains, pas peur de mourir La vie d'avant n'est que souvenirs, j'peux plus m'ouvrir, jveux plus souffrir Voilà du bon pour les tympans, cur bat au BPM du tempo Entendu les cris, sous les pim-pom, j'suis 1.3, l'honneur du drapeau Tout a changé dès l'arrivée des armes, dans mon temps, on faisait des têtes puis des fêtes On sait même plus la destination des âmes, maintenant, l'adversaire n'accepte plus aucune défaite Il y a les hommes de paix, les forts, puis, les faibles La jalousie plane, la rancur lui précède Le déshonneur et la honte tiennent la baraque pendant que le respect, bah lui, fait la vaisselle Ne cherche pas la merde à ton gars le plus sage Des concours de bites du plus con au plus sage, tu trouveras ta dignité au fond du sac, ne ramène pas ta rue, j'ai mon droit de cuissage La vie m'a pas fait de cadeau, débrouillard, j'ai dû trimer Tout seul, j'ai dû faire un garrot, telle est ma destinée, boy Y a qu'Dieu qui m'épaule, j'ai vu des horreurs, plus rien ne m'étonne Nan, j'ai pas changé d'fusil d'épaule, sauf que tout a changé depuis l'école J'ai fait la guerre pour trouver la paix, chasser mes démons et faire le point J'ai ce goût amer de mon passé, j'ai dû couper les ponts et voir au loin T'as les coups de feu qui résonnent, la rue fabrique et détruit des hommes On avait tous un rêve quand on était mômes, depuis, tout a changé, chacun ses raisons T'as vu les traces dans l'auto, ça, c'est les coups de couteau Sur le même océan mais pas sur le même bateau, oh Aujourd'hui, ça donne des go, plus d'sentiments pour le poto Hier, on était innocents, ensemble sur la photo, oh À la base, y avait pas d'avenir Tout a changé, tout a changé À la base, y avait pas d'avenir Tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Tout a changé, tout a changé, tout a changé, tout a changé</t>
+          <t>A-A-Abys One 13 Organisé Là pour prendre la vie dans des positions indécentes, mon ami Si tu veux pas qu'on monte eh, faudra nous descendre, mon ami 1.3 Ni confiance en toi, ni en ma rétine, tu sais bien, tu sais rien, pourquoi parle-t-il ? J'ai la mort, j'ai le démon, parait-il, c'est mon tour pas le tien, j'la tiens par les tifs Déjà été tué mais j'sais par qui, j'tire dans l'tas comme si j'avais la Parkins' Si tu les comptes, j'veux les peser et par kil' j'veux la caisse plus grande que la place de parking J'suis ici, j'suis là-bas, j'suis la j'nesse sans rêve, on veut tout, mon poto, on est v'nu sans rien Accroche-toi car tout meurt si les couilles s'enraillent On peut tout, mon poto, dans ces coins sans règles On en jette, on les jette, on veut tout avoir Il trahit, on l'éjecte, on veut rien savoir Très fidèle, très dévoué, pas là pour la gloire Y a qu'pour la soif, pour la swagg et pour la soie D'puis qu'on est jeunes, la guerre dans nos quartiers J'sais pas combien mais j'sais qu'on va tout claquer J'tuerais des gens pour l'temps, des lunettes Cartier Personne n'est immortel, on va tous raquer Égaré, mal-barré, j'peux plus réparer J'ai laissé mon bon fond sur la bande d'arrêt J'suis garé dans l'carré, j'bois des raz d'marée Rien à narrer, je n'suis que c'que mon art est J'ai pris le mic' pour me soigner à 15 piges, à la base, on rappait pas pour être riche En larmes quand les frères nous faisaient l'prêche, face aux flics, personne faisait l'autruche On affrontait nos torts comme des grands garçons, pas de raisins secs dans le caleçon On prenait exemple sur les anciens, aujourd'hui, l'respect, c'est un paillasson Tout a changé, même pour manger, des frères se shootent dans les tranchées Les plus âgés sont ravagés et les p'tits ne savent que s'kalasher Parents fauchés, amour fâché, t'es cagoulé devant le guichet Voilà pourquoi tous mes couplets sont des lettres à France comme Polnareff Moi, j'suis sorti du mur, personne me connaissait, j'rappais dans la Twingo, j'étais au quartier C'était moi qu'tu voyais sur une roue, c'était moi qui sentait l'parfum Cartier Dans les bras de Morphée, j'ai vu les p'tits morfler Les schmitts, ils font peur à six heures et les mamas, c'pas de leur faute Des qualités, des défauts mais trahis pas si tu es mon frère, on va s'en vouloir comme des fous J'ai tout donné et ça m'en veut, de quoi frissonner J'ai mis d'côté mon côté émotionnel Car y a des choses qu'il faut pas cautionner Tout a changé, c'est comme ça, mon frangin Personne a rien fait, pourquoi j'irais me venger ? J'suis dans l'Range, j'gamberge et quand j'pense, ça fait mal de voir ton ami faire l'étranger Tout a changé, tout l'monde veut manger À dire que même des daronnes se baladent chargées Retiens bien l'message quand tu as pas pied, faut pas nager Les potos, la rue, la rue, les potos, c'est trop chaud, la rue Les condés prennent des photos, est-ce que tu m'as vu ? Le futur un loto, les p'tits vendent la coco, les frères meurent en moto J'étais dans ma bulle, j'avais pas un euro, j'suis dans l'PMU Demande à Nono, j'me lâche quand j'ai bu J'me mets à nu, j'pense à ma mère quand j'regarde la lune Si tu savais, yemma, rien n'a changé, yemma Y a trop d'jaloux, yemma, ils font que parler, yemma Si tu savais, yemma, rien n'a changé, yemma J'reviens de loin, yemma, la roue a tourné, yemma J'ai rien oublié, génération veut des billets mais billets nous mènent dans l'corbillard Ouais, tout a changé même si moi-même, j'ai pas changé On s'est jamais plaint dans le brouillard J'peux pas éponger, une vie noyée dans les soucis On était jeunes et insouciants, pas encore soucieux 2020, ça part en sucette, j'ai cuisiné sans la recette Donc j'connais les enjeux Avec rien, on faisait un et avec un, on faisait tout Et maintenant, même si tu leur donnes 100, ils font plus rien Et même avec, ça se mêle de tout Donc j'peux pas oublier sans être outillé, on a marqué la tess, on la fait briller Tout l'monde a vrillé, maintenant, ça cherche à s'envoler vers le ciel avec des ailes grillées Y avait des rires, des larmes, l'hiver et des rappels de souvenirs donc je pleure sous l'averse Le ventre ouvert, cur déchiré, passé dans mixeur, le reste en PLS Époque accidentée, sentiments sur l'trottoir, l'histoire ne m'écrit pas, moi, j'écris mon histoire J'repense à tous mes torts mais y a zéro mystère, on commence comme des potes, on finit adversaires À la base, y avait pas d'avenir Tout a changé, tout a changé À la base, y avait pas d'avenir Tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Oh, atterri au monde dans cette ville, dans les années quatre-vingt-dix dix Marseille, F.E.L.I.X, Dieu m'a créé, faut pas que j'traîne dans le bendo Ma mère me pensait très nia nia, attiré par les mensonges, je l'ai nié nié Dans la cité, j'élastiquais les billets pour pas qu'tu fasses le ménage et qu'tu casses le dos, le dos Faut qu'j'sorte ma tête de l'eau, je savais que c'était pas dans le bendo 'do Que j'allais faire des loves, no Oh maman, souris, là, j'sors de toutes ces conneries, ma femme, mes gosses et j'esquive La taule, la drogue, les geôles, les flingues, les boum-boum et les perquis' Là, j'sors de toutes ces conneries J'taffe, j'taffe, j'taffe, j'écris, j'veux qu'mon gosse voit que je brille Qu'à l'école, ça lui dise Ton daron, c'est un monstre quand il débite, c'est la folie, folie, folie Regarde la vie qu'on mène, j'ai changé mon domaine Ma haine, ma peine dans mes veines, j'prends tout, j'taille aux Seychelles Tout a changé tant d'faux sourires, propre sur moi, j'vais les pourrir J'marche pas au pas, j'les fais courir, si j't'aime vraiment prêt à t'couvrir Jamais j'vendrai la main qui veut m'nourrir, à de meilleurs lendemains, pas peur de mourir La vie d'avant n'est que souvenirs, j'peux plus m'ouvrir, jveux plus souffrir Voilà du bon pour les tympans, cur bat au BPM du tempo Entendu les cris, sous les pim-pom, j'suis 1.3, l'honneur du drapeau Tout a changé dès l'arrivée des armes, dans mon temps, on faisait des têtes puis des fêtes On sait même plus la destination des âmes, maintenant, l'adversaire n'accepte plus aucune défaite Il y a les hommes de paix, les forts, puis, les faibles La jalousie plane, la rancur lui précède Le déshonneur et la honte tiennent la baraque pendant que le respect, bah lui, fait la vaisselle Ne cherche pas la merde à ton gars le plus sage Des concours de bites du plus con au plus sage, tu trouveras ta dignité au fond du sac, ne ramène pas ta rue, j'ai mon droit de cuissage La vie m'a pas fait de cadeau, débrouillard, j'ai dû trimer Tout seul, j'ai dû faire un garrot, telle est ma destinée, boy Y a qu'Dieu qui m'épaule, j'ai vu des horreurs, plus rien ne m'étonne Nan, j'ai pas changé d'fusil d'épaule, sauf que tout a changé depuis l'école J'ai fait la guerre pour trouver la paix, chasser mes démons et faire le point J'ai ce goût amer de mon passé, j'ai dû couper les ponts et voir au loin T'as les coups de feu qui résonnent, la rue fabrique et détruit des hommes On avait tous un rêve quand on était mômes, depuis, tout a changé, chacun ses raisons T'as vu les traces dans l'auto, ça, c'est les coups de couteau Sur le même océan mais pas sur le même bateau, oh Aujourd'hui, ça donne des go, plus d'sentiments pour le poto Hier, on était innocents, ensemble sur la photo, oh À la base, y avait pas d'avenir Tout a changé, tout a changé À la base, y avait pas d'avenir Tout a changé Tout a changé, tout a changé, tout a changé, tout a changé Tout a changé, tout a changé, tout a changé, tout a changé</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lalgérino Nouveau millénaire, lépoque est folle Dur de garder la tête sur les épaules Ce monde me fait peur donc je misole Jai pas compté combien de fois jai touché le sol Où sont passé mes rêves denfant Jai grandi trop vite ma chère maman Papa ma dit de prendre mon temps Aujourdhui je raconte mes regrets en chantant Javais rien à foutre du monde plaqué, menotté Jai cru que le bonheur cétait de courir après le blé, ouais Les études abrégées, jai beaucoup dacnés Je parle plus aux filles je suis trop complexé Je me demande, je me demande, je me demande ohhhh Jai pas compris faudrait mexpliquer Je me demande, je me demande, je me demande ohhhh Je me sens pas beau je me sens détesté Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes You might also like J'taillais les cours jdécoupais des plaques Jtrainais avec mes pottos blanc beur asiatique et black Assis contre un mur jfume ma première cigarette Petit déjà jai compris que le quartier nétait pas net Juste en bas de chez moi je vois les grands qui bicravent On a la Playstation et la télé dans la cave On freestyle jusquà pas dheures, quand je découvre le rap Papa me donnait des roustes, il avait peur que je dérape La conseillère me dit que jai des capacités Avertissement de conduite rarement félicité La plus bonne de lécole me fait tourner la tête Un mec mattend à la sortie pour faire un tête à tête Je faisais tout dans lexcès, adolescent complexé Maman se fait du souci, regarde la rue entrain de me piéger Jai cherché la paix dans le pavé Je ferai la guerre pour construire à maman son palais Je me demande, je me demande, je me demande ohhhh Jai pas compris faudrait mexpliquer Je me demande, je me demande, je me demande ohhhh Je me sens pas beau je me sens détesté Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Je souhaite à tout le monde de sortir du tieqs Moi jai trop était collé au banc de la Tess Dédié à tous nos amis disparus J'suis pas comme tous ces rappeurs qui vénère la rue Je me demande, je me demande, je me demande ohhhh Je me demande, je me demande, je me demande ohhhh Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes4</t>
+          <t>Lalgérino Nouveau millénaire, lépoque est folle Dur de garder la tête sur les épaules Ce monde me fait peur donc je misole Jai pas compté combien de fois jai touché le sol Où sont passé mes rêves denfant Jai grandi trop vite ma chère maman Papa ma dit de prendre mon temps Aujourdhui je raconte mes regrets en chantant Javais rien à foutre du monde plaqué, menotté Jai cru que le bonheur cétait de courir après le blé, ouais Les études abrégées, jai beaucoup dacnés Je parle plus aux filles je suis trop complexé Je me demande, je me demande, je me demande ohhhh Jai pas compris faudrait mexpliquer Je me demande, je me demande, je me demande ohhhh Je me sens pas beau je me sens détesté Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes J'taillais les cours jdécoupais des plaques Jtrainais avec mes pottos blanc beur asiatique et black Assis contre un mur jfume ma première cigarette Petit déjà jai compris que le quartier nétait pas net Juste en bas de chez moi je vois les grands qui bicravent On a la Playstation et la télé dans la cave On freestyle jusquà pas dheures, quand je découvre le rap Papa me donnait des roustes, il avait peur que je dérape La conseillère me dit que jai des capacités Avertissement de conduite rarement félicité La plus bonne de lécole me fait tourner la tête Un mec mattend à la sortie pour faire un tête à tête Je faisais tout dans lexcès, adolescent complexé Maman se fait du souci, regarde la rue entrain de me piéger Jai cherché la paix dans le pavé Je ferai la guerre pour construire à maman son palais Je me demande, je me demande, je me demande ohhhh Jai pas compris faudrait mexpliquer Je me demande, je me demande, je me demande ohhhh Je me sens pas beau je me sens détesté Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Je souhaite à tout le monde de sortir du tieqs Moi jai trop était collé au banc de la Tess Dédié à tous nos amis disparus J'suis pas comme tous ces rappeurs qui vénère la rue Je me demande, je me demande, je me demande ohhhh Je me demande, je me demande, je me demande ohhhh Petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes Écoute moi petit ça va aller Cest la vie, cest le monde, cest les Hommes Tes tout seul sous le ciel étoilée Cest la vie, cest le monde, cest les Hommes4</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>On est entré dans le game pour le braquer, le dévaliser Nous, c'est Marseille city, 13 Organisé N'essaie pas de nous test, rivaliser On est des ovnis, des machines déshumanisées Tu nous connais, tu peux nous localiser sur la carte 1.3, sur la plaque, un doigt sur la gâchette T'as reconnu la came au double F sur la plaquette Or et Platine, des disques jusque sur les claquettes Plus rien ne m'arrêt, j'suis allé trop loin, j'peux plus reculer J'ai ctte voix dans la tête qui me dit de revenir les fumer Conçu pour tuer, pour perdurer Rien qu'à la vue du tracklisting, tu saignes du nez Ct enculé Avec moi, y a que des hafrit, de la rassa qu'j'effrite Magique, je tire sur le joint, j'suis sur orbite, j'm'agite On est sur l'terrain, c'est pas un movie, mon vier Y a cassage de reins, la frappe à Rooney, oh oui Tu portes l'il, j'raie la jante de mon Range Rover, j'ai deux-trois contacts que j'ai nommé Les arroseurs Ils n'ont pas le temps de rapper, donc j'le fais pour eux Viens toucher la salade, en cadeau, on te donne un grinder Tu peux finir dans la malle, mal Parabellum, on est dans la zone, on met du Stone, on fait péter les barrages Minimum on t'arrache le con d'tes morts, quartiers Nord On est en indé, y a plus d'major You might also like C'est la Fonky Family, j'te le dis d'avance Ouais, Melik, j'ai des amis flics, pas d'ami balance On avance, remballe tes avances, bientôt, j'quitte la France Pas confiance des guetteurs de merde ont crié l'ambulance J'ai des potos qui tuent bien plus que l'corona, normal, ils ont leur place dans Gomorra J'ai monté les marches de Cannes, j'ai vendu de la came On a gagné la guerre, après, on a gagné la CAN DZ Une Kalash' et une bécane J'fais rentrer des sous mais gros, j'suis bien dans la Mégane, vroum, vroum T'inquiète, on met les gaz, cagoulé sous le casque, lui qui parle, nous, on l'écrase Kofs J'ai rien vu, j'ai rien entendu, j'vous dirai rien walou T'es tendu, un malentendu, t'en rallumes un ouh J'ai grandi, t'as senti qu'j'ai galéré ok T'as compris, j'ai compris, fais pas l'erreur nan On l'dira même en interview fascinés par la classe ouvrière, la vie des voleurs et celle des voyous La trahison, ça laisse un sale goût ok Ça fait gamberger, comme dit la légende Luch' ouh, ouh J'suis Marseillais, pas Français, on est 13 Organisé On peut t'niquer ta mère et juste après, on va sympathiser On a les dents, les crocs, t'inquiète, ils sont aiguisés On sort les outils, en cas d'heja, on s'ra déguisés Plaqué au nom de ville Allemande à bord, c'est des guitares La te-tê dans les étoiles, j'ai hala dpotos tis-par On veut tenir la city, influents, tu connais, j'parle pas à toi, j'parle à lui qui tient ta tétine On va manger l'autoroute une ouvreuse, une porteuse, aéroport Marignane, la mule arrive de Juarez Un carré, des bouteilles, que des putes à vodka, alibi bétonné, j'vais v'nir sans l'avocat C'est l'S, enculé, c'est tout l'13, enculé, elle a un gros cul, un tout p'tit QI, c'est abusé J'en ai assez sous les roues pour trouer la Subaru, j'mets que le doigt aux jaloux, aéroport, Macao J'ai la caution au cas où, j'ai la potion au cas où, j'ai l'.45 au cas où on tire, on met pas des K.O, hein Le fric, c'est bandant, j'espère que t'entends Moi, quand j'arrive, ça fait peur comme le bruit du pan, pan En cas de vrai pépin, CZ ou pe-pom J'peux t'le dire que ça t'éteint même si tu t'caches vers Peypin J'savais pas c'qui allait m'arriver, j'suis pas visionnaire J'ai galéré sa mère avant d'finir millionnaire J'ai vu les jeunes braquer, cambuter et voler des Pioneer J'ai vu le p'tit rentrer, j'ai vu sa daronne en colère J'traîne avec ceux que j'aime et ceux qui étaient là au collège Ceux qui sont là pour ton buzz, ton argent, c'est pas tes collègues Nique les colleurs et les traîtres Si demain j'arrête, j'aurais pas d'chômage, j'aurais pas d'retraite Mais j'suis très organisé comme la bande à Pablo J'fais attention qui est qui parce la vie, c'est pas Blow Équipe de RoboCop pectoraux comme des minotaures ouais On délaisse pas, ça fait hame', la barre on la tort Akha, y a les porcs, roue arrière sur le Vieux Port Tu parles à tord salope, on t'pète la tête à coup d'marteau de Thor Tous tes morts, c'est les Cités d'Or, en bande organisé 1.3 localisé, eh, cono,tu veux rivaliser ? d'Or et de Platinisé Cramé, que des têtes carbonisées Chargé, rabaissée, autoroute, RS4 motorisé 1-3, c'est Warzone Hijo de puta, maricon Des billets, j'en ai Mano posé sur des silicone Demande à Halem ça fournit selha, du gramme à la tonne On va sortir les guitares, ça va danser reggaeton Eh Marseille, c'est chaud, mi amor ok C'est violent, j'suis pisté par le mirador ok On fait des sous, mi amor ok, ok Marseille, c'est chaud, mi amor Ça sort la gari, y a pas d'clé J'vends pas d'écaille, il faut des valises de khaliss, la grosse villa à Carry Carry La zone est à risques risques, j'sais pas c'qui t'arrives Violent comme une équipe de Marseillais à Paris Cette affiche, c'est un classico Que des bicots, que des kahlouch et des Corsico yeah Toi, t'es un toxico, j'fais le million, j'pète le Veuve Clicquot Ça représente les DZ, c'est violent comme DBZ Au volant, que des baisés, zigzag en X-ADV La violence dans le débit, trop vrais depuis le début Si tu croises un Marseillais, fais gaffe à ta CB Si y a embrouille, ça sort le chrome, c'est 1.3, c'est la zone, c'est les hommes Que des Marseillais dans lalbum, on vient braquer le game, on va s'emparer du trône Si y a embrouille, ça sort le chrome, c'est 1.3, c'est la zone, c'est les hommes Que des Marseillais dans lalbum, on vient braquer le game, on va s'emparer du trône 13 énervé, 13 énervé, 13 organisé, 13 organisé, 13 13 énervé, 13 énervé, 13 organisé, 13 organisé, 13</t>
+          <t>On est entré dans le game pour le braquer, le dévaliser Nous, c'est Marseille city, 13 Organisé N'essaie pas de nous test, rivaliser On est des ovnis, des machines déshumanisées Tu nous connais, tu peux nous localiser sur la carte 1.3, sur la plaque, un doigt sur la gâchette T'as reconnu la came au double F sur la plaquette Or et Platine, des disques jusque sur les claquettes Plus rien ne m'arrêt, j'suis allé trop loin, j'peux plus reculer J'ai ctte voix dans la tête qui me dit de revenir les fumer Conçu pour tuer, pour perdurer Rien qu'à la vue du tracklisting, tu saignes du nez Ct enculé Avec moi, y a que des hafrit, de la rassa qu'j'effrite Magique, je tire sur le joint, j'suis sur orbite, j'm'agite On est sur l'terrain, c'est pas un movie, mon vier Y a cassage de reins, la frappe à Rooney, oh oui Tu portes l'il, j'raie la jante de mon Range Rover, j'ai deux-trois contacts que j'ai nommé Les arroseurs Ils n'ont pas le temps de rapper, donc j'le fais pour eux Viens toucher la salade, en cadeau, on te donne un grinder Tu peux finir dans la malle, mal Parabellum, on est dans la zone, on met du Stone, on fait péter les barrages Minimum on t'arrache le con d'tes morts, quartiers Nord On est en indé, y a plus d'major C'est la Fonky Family, j'te le dis d'avance Ouais, Melik, j'ai des amis flics, pas d'ami balance On avance, remballe tes avances, bientôt, j'quitte la France Pas confiance des guetteurs de merde ont crié l'ambulance J'ai des potos qui tuent bien plus que l'corona, normal, ils ont leur place dans Gomorra J'ai monté les marches de Cannes, j'ai vendu de la came On a gagné la guerre, après, on a gagné la CAN DZ Une Kalash' et une bécane J'fais rentrer des sous mais gros, j'suis bien dans la Mégane, vroum, vroum T'inquiète, on met les gaz, cagoulé sous le casque, lui qui parle, nous, on l'écrase Kofs J'ai rien vu, j'ai rien entendu, j'vous dirai rien walou T'es tendu, un malentendu, t'en rallumes un ouh J'ai grandi, t'as senti qu'j'ai galéré ok T'as compris, j'ai compris, fais pas l'erreur nan On l'dira même en interview fascinés par la classe ouvrière, la vie des voleurs et celle des voyous La trahison, ça laisse un sale goût ok Ça fait gamberger, comme dit la légende Luch' ouh, ouh J'suis Marseillais, pas Français, on est 13 Organisé On peut t'niquer ta mère et juste après, on va sympathiser On a les dents, les crocs, t'inquiète, ils sont aiguisés On sort les outils, en cas d'heja, on s'ra déguisés Plaqué au nom de ville Allemande à bord, c'est des guitares La te-tê dans les étoiles, j'ai hala dpotos tis-par On veut tenir la city, influents, tu connais, j'parle pas à toi, j'parle à lui qui tient ta tétine On va manger l'autoroute une ouvreuse, une porteuse, aéroport Marignane, la mule arrive de Juarez Un carré, des bouteilles, que des putes à vodka, alibi bétonné, j'vais v'nir sans l'avocat C'est l'S, enculé, c'est tout l'13, enculé, elle a un gros cul, un tout p'tit QI, c'est abusé J'en ai assez sous les roues pour trouer la Subaru, j'mets que le doigt aux jaloux, aéroport, Macao J'ai la caution au cas où, j'ai la potion au cas où, j'ai l'.45 au cas où on tire, on met pas des K.O, hein Le fric, c'est bandant, j'espère que t'entends Moi, quand j'arrive, ça fait peur comme le bruit du pan, pan En cas de vrai pépin, CZ ou pe-pom J'peux t'le dire que ça t'éteint même si tu t'caches vers Peypin J'savais pas c'qui allait m'arriver, j'suis pas visionnaire J'ai galéré sa mère avant d'finir millionnaire J'ai vu les jeunes braquer, cambuter et voler des Pioneer J'ai vu le p'tit rentrer, j'ai vu sa daronne en colère J'traîne avec ceux que j'aime et ceux qui étaient là au collège Ceux qui sont là pour ton buzz, ton argent, c'est pas tes collègues Nique les colleurs et les traîtres Si demain j'arrête, j'aurais pas d'chômage, j'aurais pas d'retraite Mais j'suis très organisé comme la bande à Pablo J'fais attention qui est qui parce la vie, c'est pas Blow Équipe de RoboCop pectoraux comme des minotaures ouais On délaisse pas, ça fait hame', la barre on la tort Akha, y a les porcs, roue arrière sur le Vieux Port Tu parles à tord salope, on t'pète la tête à coup d'marteau de Thor Tous tes morts, c'est les Cités d'Or, en bande organisé 1.3 localisé, eh, cono,tu veux rivaliser ? d'Or et de Platinisé Cramé, que des têtes carbonisées Chargé, rabaissée, autoroute, RS4 motorisé 1-3, c'est Warzone Hijo de puta, maricon Des billets, j'en ai Mano posé sur des silicone Demande à Halem ça fournit selha, du gramme à la tonne On va sortir les guitares, ça va danser reggaeton Eh Marseille, c'est chaud, mi amor ok C'est violent, j'suis pisté par le mirador ok On fait des sous, mi amor ok, ok Marseille, c'est chaud, mi amor Ça sort la gari, y a pas d'clé J'vends pas d'écaille, il faut des valises de khaliss, la grosse villa à Carry Carry La zone est à risques risques, j'sais pas c'qui t'arrives Violent comme une équipe de Marseillais à Paris Cette affiche, c'est un classico Que des bicots, que des kahlouch et des Corsico yeah Toi, t'es un toxico, j'fais le million, j'pète le Veuve Clicquot Ça représente les DZ, c'est violent comme DBZ Au volant, que des baisés, zigzag en X-ADV La violence dans le débit, trop vrais depuis le début Si tu croises un Marseillais, fais gaffe à ta CB Si y a embrouille, ça sort le chrome, c'est 1.3, c'est la zone, c'est les hommes Que des Marseillais dans lalbum, on vient braquer le game, on va s'emparer du trône Si y a embrouille, ça sort le chrome, c'est 1.3, c'est la zone, c'est les hommes Que des Marseillais dans lalbum, on vient braquer le game, on va s'emparer du trône 13 énervé, 13 énervé, 13 organisé, 13 organisé, 13 13 énervé, 13 énervé, 13 organisé, 13 organisé, 13</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mamamama mamama Mamamama mamama Mamamama mamama Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Tu parles dans le vent Tu t'en mets plein le nez Elle t'a mis dedans Tu te fait pigeonner Les petits n'ont plus le temps Ils pensent qu'à charbonner Fais pas trop le gros Il vont te raffaler Du shit dans le cellophane Je touche pas la coco A Marseille quand tu parles trop On dit tu as la boca Le fréro est libérable J'ai sorti le Lambo Rafale dans les amygdales On va te faire danser le mambo You might also likex2 Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Je me sers un blanc de blanc T'es plutôt Chardonnay Toi de quoi tu te mêles On t'a pas klaxonné Cousine on prend le temps Arrêtes de t'affoler Cette mélodie de zgeg Tu vas la fredonner Embrouille on déboule y'a R Arrêtes de faire tes manières J'tire en l'air en roue arrière T'arrive a Kech en RyanAir Et quand elle bouge son train arrière Oh mon Dieu la vie de ma mère J'ai la maladie de Parkinson Je ne calcule plus personne Eeeeh x2 Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Avec Alonz' on nique tout cette année En deux trois showcases On prend ce que tu touches à l'année Bah Wesh Alors Je les entends critiquer Je finis mon kahwa Harba tsellek Bye bye la hess Du shit dans le cellophane Je touche pas la coco A Marseille quand tu parles trop On dit que t'as la boco Le fréro est libérable J'ai sorti le Lambo Rafale dans les amygdales On va te faire danser le mambo Mamamama mamama Mamamama mamama Mamamama mamama</t>
+          <t>Mamamama mamama Mamamama mamama Mamamama mamama Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Tu parles dans le vent Tu t'en mets plein le nez Elle t'a mis dedans Tu te fait pigeonner Les petits n'ont plus le temps Ils pensent qu'à charbonner Fais pas trop le gros Il vont te raffaler Du shit dans le cellophane Je touche pas la coco A Marseille quand tu parles trop On dit tu as la boca Le fréro est libérable J'ai sorti le Lambo Rafale dans les amygdales On va te faire danser le mambo x2 Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Je me sers un blanc de blanc T'es plutôt Chardonnay Toi de quoi tu te mêles On t'a pas klaxonné Cousine on prend le temps Arrêtes de t'affoler Cette mélodie de zgeg Tu vas la fredonner Embrouille on déboule y'a R Arrêtes de faire tes manières J'tire en l'air en roue arrière T'arrive a Kech en RyanAir Et quand elle bouge son train arrière Oh mon Dieu la vie de ma mère J'ai la maladie de Parkinson Je ne calcule plus personne Eeeeh x2 Je me sens chaud, Amigooo Y'a des folles, le poto Ils veulent ma peau, comme Savastano Oui je m'envole, hasta luego Avec Alonz' on nique tout cette année En deux trois showcases On prend ce que tu touches à l'année Bah Wesh Alors Je les entends critiquer Je finis mon kahwa Harba tsellek Bye bye la hess Du shit dans le cellophane Je touche pas la coco A Marseille quand tu parles trop On dit que t'as la boco Le fréro est libérable J'ai sorti le Lambo Rafale dans les amygdales On va te faire danser le mambo Mamamama mamama Mamamama mamama Mamamama mamama</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 heures et demi du matin Pleine gamberge, plein dtruc qui tpassent par la tête Tu khemem, tu tremets en question tu voyages dans tes pensées Tu tposes plein dquestions sur la vie Ou tu vas ? Ou tu en es ? Tu ne sais même pas ou tu en seras demain Si ça strouve cest peut-être même les derniers mots qujécris Enfin Sais-tu ce que cest de se sentir souillé Sale jusquà la moelle baignant dans une marre de pêchers Jai pieds mais jme noie toute ma vie jai fait que tricher Trimer pour des billets, lenvie de tout piller Jen oubliais même de prier On scroit tout puissant, adolescent inachevé On scroit invulnérable un simple virus peut nous achever Toute ma vie jai triché Trimer pour des billets, lenvie de tout piller Jen oubliais de prier Jfais lbilan et jvois qujai rien fait Jai fait dlargent mais jen ai rien fait Ya que tes actes qui restent Ta descendance que tu laisses Tout ce qui sélève se rabaisse Au final mon frère jfais lbilan et jvois qujai rien fait Dans cmonde de barge jme sens prisonnier Jfais lbilan et jvois qujai rien fait Yeah y x2 Les faux amis ne cessent de mjuger mais ne me connaissent pas Ils étaient où quand ma peine je purgeais ? Personne nétait la Je nen veux à personne, jmen prends quà moi-même Trop bon trop con touvres ton cur et cest tes fréros qui tla mettent Jveux quitter ce monde de fous jrêve de mourir à la Mecque Loin des médisants de tous ces gens qui souhaitent ta perte J'purifie mon cur quand j'écoute les frère qui font rappels Ils m'parlent de l'éternel des frissons mon cur s'apaise Le Diable pisse sur mon oreille j'entends pas l'Addhan je suis sourd Je sais ce dont mon cur a besoin j'ai la flemme j'me sens lourd Yeah y, j'me sens lourd J'me suis saouler pour tout oublier J'ai fumé pour m'anesthésier J'ai chanter pour mextérioriser J'me suis jamais senti aussi bien que lorsque j'ai prier J'me suis saouler pour tout oublier J'ai fumer pour anesthésier J'ai chanter pour extérioriser J'me suis jamais senti aussi bien que lorsque j'ai prier Une pelletée de terre s'en est fini On finira tous sous terre x4You might also like1</t>
+          <t>2 heures et demi du matin Pleine gamberge, plein dtruc qui tpassent par la tête Tu khemem, tu tremets en question tu voyages dans tes pensées Tu tposes plein dquestions sur la vie Ou tu vas ? Ou tu en es ? Tu ne sais même pas ou tu en seras demain Si ça strouve cest peut-être même les derniers mots qujécris Enfin Sais-tu ce que cest de se sentir souillé Sale jusquà la moelle baignant dans une marre de pêchers Jai pieds mais jme noie toute ma vie jai fait que tricher Trimer pour des billets, lenvie de tout piller Jen oubliais même de prier On scroit tout puissant, adolescent inachevé On scroit invulnérable un simple virus peut nous achever Toute ma vie jai triché Trimer pour des billets, lenvie de tout piller Jen oubliais de prier Jfais lbilan et jvois qujai rien fait Jai fait dlargent mais jen ai rien fait Ya que tes actes qui restent Ta descendance que tu laisses Tout ce qui sélève se rabaisse Au final mon frère jfais lbilan et jvois qujai rien fait Dans cmonde de barge jme sens prisonnier Jfais lbilan et jvois qujai rien fait Yeah y x2 Les faux amis ne cessent de mjuger mais ne me connaissent pas Ils étaient où quand ma peine je purgeais ? Personne nétait la Je nen veux à personne, jmen prends quà moi-même Trop bon trop con touvres ton cur et cest tes fréros qui tla mettent Jveux quitter ce monde de fous jrêve de mourir à la Mecque Loin des médisants de tous ces gens qui souhaitent ta perte J'purifie mon cur quand j'écoute les frère qui font rappels Ils m'parlent de l'éternel des frissons mon cur s'apaise Le Diable pisse sur mon oreille j'entends pas l'Addhan je suis sourd Je sais ce dont mon cur a besoin j'ai la flemme j'me sens lourd Yeah y, j'me sens lourd J'me suis saouler pour tout oublier J'ai fumé pour m'anesthésier J'ai chanter pour mextérioriser J'me suis jamais senti aussi bien que lorsque j'ai prier J'me suis saouler pour tout oublier J'ai fumer pour anesthésier J'ai chanter pour extérioriser J'me suis jamais senti aussi bien que lorsque j'ai prier Une pelletée de terre s'en est fini On finira tous sous terre x41</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Une petite dominicana, elle kiffe la 'sique à Santana Mademoiselle faut pas stresser, j'pourrais changer d'avis, j'suis refait, eh La classe internationale, rhay Zinédine Zidane J'vais pas tarder à m'barrer, t'façon il fait plus chaud à Alger, eh Appel, Universal, un contrat, du champagne On va remettre la banane, c't'année on sort des tubes en pagaille Liasse de billets violets Mets le plein d'essence n'oublie pas les feuilles à rouler Tu sais pas qui je suis, tu as qu'à me Shazamer Bébé j'vais t'faire rêver comme jamais J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala La selaa vient d'Espagne, le bolide vient d'Allemagne Cette année j'me suis gavé, anamanamanimananéné J'suis trop loin nhar sheitan, j'suis dans l'cockpit je plane Toi tu dois rien emmener, t'façon mon ami tu as coulé, eh La miss me fait du charme, j'préfère mon compte épargne Un barrage, des gendarmes, on va leur faire la guerra comme Pablo You might also like Liasse de billets violets Mets le plein d'essence n'oublie pas les feuilles à rouler Tu sais pas qui je suis, tu as qu'à me Shazamer Bébé j'vais t'faire rêver comme jamais J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala</t>
+          <t>Une petite dominicana, elle kiffe la 'sique à Santana Mademoiselle faut pas stresser, j'pourrais changer d'avis, j'suis refait, eh La classe internationale, rhay Zinédine Zidane J'vais pas tarder à m'barrer, t'façon il fait plus chaud à Alger, eh Appel, Universal, un contrat, du champagne On va remettre la banane, c't'année on sort des tubes en pagaille Liasse de billets violets Mets le plein d'essence n'oublie pas les feuilles à rouler Tu sais pas qui je suis, tu as qu'à me Shazamer Bébé j'vais t'faire rêver comme jamais J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala La selaa vient d'Espagne, le bolide vient d'Allemagne Cette année j'me suis gavé, anamanamanimananéné J'suis trop loin nhar sheitan, j'suis dans l'cockpit je plane Toi tu dois rien emmener, t'façon mon ami tu as coulé, eh La miss me fait du charme, j'préfère mon compte épargne Un barrage, des gendarmes, on va leur faire la guerra comme Pablo Liasse de billets violets Mets le plein d'essence n'oublie pas les feuilles à rouler Tu sais pas qui je suis, tu as qu'à me Shazamer Bébé j'vais t'faire rêver comme jamais J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala J'ai la classe à Many, stoppe tes manies, mi a', mi amor J'vais t'sortir du barrio, j'vais te marier, mi a', mi amor Vas-y, prends ma mano, je t'emmène, mi a', mi amor Yeah, lalalalala, lalalalala, lalalalalala</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout se complique quand t'deviens adolescent Faut du zeille et j'suis pris entre deux feux incandescent Tout s'accélère j'ai des problèmes scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussiras jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tous ces battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelques-uns comme quand tu jettes des cartons au rani J'fume des joints en cours de phylo Rien à foutre de Pythagore j'décortiquais les phases de Luciano A mes heures perdues j'tape sur un ballon De baston en baston ma reput' prends du gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la tune You might also likeAlors je vole vole je vole vole je vole vole je vole Alors je vole rien de grave des p'tits larsins Ya des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou elle croit quje parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tous ces battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon frère On me calculait pas quand j'étais plus bas quterre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais étais envieux j'attendais mon heure J'attendais patiemment qula vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort et j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lèves toi et bat toi jeune garnement Je me surpasse et me transcendre Nique les pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lèves toi et bat toi jeune garnement Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Allo maman bobo bobo allo maman bobo bobo</t>
+          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout se complique quand t'deviens adolescent Faut du zeille et j'suis pris entre deux feux incandescent Tout s'accélère j'ai des problèmes scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussiras jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tous ces battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelques-uns comme quand tu jettes des cartons au rani J'fume des joints en cours de phylo Rien à foutre de Pythagore j'décortiquais les phases de Luciano A mes heures perdues j'tape sur un ballon De baston en baston ma reput' prends du gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la tune Alors je vole vole je vole vole je vole vole je vole Alors je vole rien de grave des p'tits larsins Ya des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou elle croit quje parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tous ces battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon frère On me calculait pas quand j'étais plus bas quterre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais étais envieux j'attendais mon heure J'attendais patiemment qula vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort et j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lèves toi et bat toi jeune garnement Je me surpasse et me transcendre Nique les pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lèves toi et bat toi jeune garnement Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sens si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Allo maman bobo bobo allo maman bobo bobo</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 C'est sous le ciel étoilé Nos regards se sont croisés J'sais pas comment te dire mais Il s'rais temps de concrétiser Tu m'as relevé quand j'agonisais Le temps s'est arrêtés Nos curs synchronisés Je veux m'envoler Le sablier s'est brisé Dans tes yeux que je veux m'évader Antalya et Bodrum Seni seviyorum Bebegim bebegim Je t'aime en Kardeim y a pas de problème On s'est pas où la vie nous mènera Quoi qu'il arrive je te veux dans mes bras Bebegim bebegim Je t'aime en Kardeim y a pas de problème You might also like Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni seni seni seviyorum Seni seni seni istiyorum Préparez le ruban rouge C'est elle que je veux prendre comme épouse Elle veut pas ton bonheur ma douce Les écoutes pas c'est des jalouses Les écoutes pas c'est des jaloux Ils veulent nous voire sombrer Comme on sombrait leur couple Ils font semblant d'être heureux mais y'a walou Nos moments faut qu'on les savoure C'est sur une autre planète que j'veux t'emmener C'est sur une autre planète qu'on va s'en aller Vaz'y grimpe sur mes ailes on va s'envoler Moi je veux ton amour quitte à te le voler Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum2</t>
+          <t>Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 C'est sous le ciel étoilé Nos regards se sont croisés J'sais pas comment te dire mais Il s'rais temps de concrétiser Tu m'as relevé quand j'agonisais Le temps s'est arrêtés Nos curs synchronisés Je veux m'envoler Le sablier s'est brisé Dans tes yeux que je veux m'évader Antalya et Bodrum Seni seviyorum Bebegim bebegim Je t'aime en Kardeim y a pas de problème On s'est pas où la vie nous mènera Quoi qu'il arrive je te veux dans mes bras Bebegim bebegim Je t'aime en Kardeim y a pas de problème Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni seni seni seviyorum Seni seni seni istiyorum Préparez le ruban rouge C'est elle que je veux prendre comme épouse Elle veut pas ton bonheur ma douce Les écoutes pas c'est des jalouses Les écoutes pas c'est des jaloux Ils veulent nous voire sombrer Comme on sombrait leur couple Ils font semblant d'être heureux mais y'a walou Nos moments faut qu'on les savoure C'est sur une autre planète que j'veux t'emmener C'est sur une autre planète qu'on va s'en aller Vaz'y grimpe sur mes ailes on va s'envoler Moi je veux ton amour quitte à te le voler Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Ay lelelelelele X4 Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum Seni Seni Seni seviyorum Seni Seni Seni istiyorum2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino Speciale melodié On est partis tle chercher en Roumanie celui-là Una, doa, trei Voi oameni bogati Hai sa va distrati Hai sa va distrati, o Ah le le le Ah le le le, le Sa cheltuim banii, banii, banii Fiindca ne trec anii, anii, anii Fiindca ne trec anii Of, ah lele, ah lelele You might also like Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Na ma Haide Tarara, tarara Haide Da haide Haide Viata de magnat Si de imparat Eu mereu mi-o fac da Ah lele, ah lelele Femeie regina Urca-te-n masina of o Sa-ti fac viata buna Ah lele, ah lelele Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez Voi oameni bogati Hai sa va distrati Hai sa va distrati Of, ah lele, ah lelele Sa cheltuim banii, banii, banii Fiindca ne trec anii, anii, anii Fiindca ne trec anii Of, ah lele, ah lelele Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Hai in vacante Pe la Saint Tropez Ia si nevasta da ia si amanta Ca-i frumoasa viata</t>
+          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino Speciale melodié On est partis tle chercher en Roumanie celui-là Una, doa, trei Voi oameni bogati Hai sa va distrati Hai sa va distrati, o Ah le le le Ah le le le, le Sa cheltuim banii, banii, banii Fiindca ne trec anii, anii, anii Fiindca ne trec anii Of, ah lele, ah lelele Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Na ma Haide Tarara, tarara Haide Da haide Haide Viata de magnat Si de imparat Eu mereu mi-o fac da Ah lele, ah lelele Femeie regina Urca-te-n masina of o Sa-ti fac viata buna Ah lele, ah lelele Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez Voi oameni bogati Hai sa va distrati Hai sa va distrati Of, ah lele, ah lelele Sa cheltuim banii, banii, banii Fiindca ne trec anii, anii, anii Fiindca ne trec anii Of, ah lele, ah lelele Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Hai in vacante Pe la Saint Tropez Ia si nevasta da ia si amanta Ca-i frumoasa viata</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ouyalay, ouyalay Ouyalay, ouyalay Ouyalay, ouyalay Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros My body go dunco lolo E ti veq pin ma se s'jena na mo Your ego siempe el lolo S'mun me pranu ti që na nuk jem mo Yeah, la première fois, tu m'as dit No, no, no, no La deuxième fois, tu m'as dit No, no, no, no J'ai toute suite compris qu'j'allais t'passer l'anneau Monte dans le Benzo, faut qu'tu m'follo-lo-low, yeah Kom thonë qa ke hup ti ki me pa Moti s'jem pa, s'di as vetë s sa E ke dit që s'ka pas si na Po kurrë si unë ti nuk ki me pa Yeah, arrêt de douter, j'suis le mec qui t'faut J'te sens pas trop, mi amor, qu'est-ce qui t'choque? Moi, j'suis trop jaloux quand je donne du love J'te rappelle dans deux millions, faut qu'j'me sauve You might also like Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Prej që nuk t'foli Ca t'dush bon ti, I wine pon it slowly Ti ke ik kështu që tjetri tash doli And I just wine pon it slowly, wine pon it slowly J'suis dans l'casino, j'mise à la roulette Mucho cariño, on fera le tour de la planète N'écoute pas les gens, c'est des jaloux, rien qu'ils chantent Nous deux, c'est un hit, on rentrera dans la légende Wine, vas-y, slow les, aïe, putain qu'on est classe sans déconner Ouais, tu sais que j'assume, tu m'connais Yeah, alors, baby, wine, vas-y, slow les, wine, vas-y, slow les Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros You could offer me the world, not impressed by it I could offer you my heart, no, you can't buy it My third eye is not blind, you can't lie to it I'ma just give you a river, hey you can cry it Yeah, yeah, yeah On a tout vécu ensemble, c'était presque magique Arrête donc tes simagrées car tu me stresses, ma vie Y a plus d'magie, j'sais que tu détestes ma vie Tu voudrais que j'change ta vie mais tu détestes ma 'sique Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros1</t>
+          <t>Ouyalay, ouyalay Ouyalay, ouyalay Ouyalay, ouyalay Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros My body go dunco lolo E ti veq pin ma se s'jena na mo Your ego siempe el lolo S'mun me pranu ti që na nuk jem mo Yeah, la première fois, tu m'as dit No, no, no, no La deuxième fois, tu m'as dit No, no, no, no J'ai toute suite compris qu'j'allais t'passer l'anneau Monte dans le Benzo, faut qu'tu m'follo-lo-low, yeah Kom thonë qa ke hup ti ki me pa Moti s'jem pa, s'di as vetë s sa E ke dit që s'ka pas si na Po kurrë si unë ti nuk ki me pa Yeah, arrêt de douter, j'suis le mec qui t'faut J'te sens pas trop, mi amor, qu'est-ce qui t'choque? Moi, j'suis trop jaloux quand je donne du love J'te rappelle dans deux millions, faut qu'j'me sauve Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Prej që nuk t'foli Ca t'dush bon ti, I wine pon it slowly Ti ke ik kështu që tjetri tash doli And I just wine pon it slowly, wine pon it slowly J'suis dans l'casino, j'mise à la roulette Mucho cariño, on fera le tour de la planète N'écoute pas les gens, c'est des jaloux, rien qu'ils chantent Nous deux, c'est un hit, on rentrera dans la légende Wine, vas-y, slow les, aïe, putain qu'on est classe sans déconner Ouais, tu sais que j'assume, tu m'connais Yeah, alors, baby, wine, vas-y, slow les, wine, vas-y, slow les Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros You could offer me the world, not impressed by it I could offer you my heart, no, you can't buy it My third eye is not blind, you can't lie to it I'ma just give you a river, hey you can cry it Yeah, yeah, yeah On a tout vécu ensemble, c'était presque magique Arrête donc tes simagrées car tu me stresses, ma vie Y a plus d'magie, j'sais que tu détestes ma vie Tu voudrais que j'change ta vie mais tu détestes ma 'sique Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros Jem nda, që sa, jem nda, nuk kthehna najher jo Moona, busa, pour toi, j'te laisse tous mes dineros1</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack, broeder, fuck m'n ex Fuck it Ik kan niet hangen meer met de putain Hah Ik kom van de streets en daar is het warm Bitch, ik nam de benen, ik ben niet meer arm Ben nu miljonair, het heeft tijd gekost Tijd Ik weet wat ik wil, ik zie jij twijfelt nog Hahaha Kom uit Saint-Denis, dat zijn buitenwijken Ghetto En voor police moest ik buiten wijken Loesoe Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef You might also like Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik kief die hiya, hiya Hij laat je vliegen, vliegen Ik ben met zina's, zina's Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos1</t>
+          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack, broeder, fuck m'n ex Fuck it Ik kan niet hangen meer met de putain Hah Ik kom van de streets en daar is het warm Bitch, ik nam de benen, ik ben niet meer arm Ben nu miljonair, het heeft tijd gekost Tijd Ik weet wat ik wil, ik zie jij twijfelt nog Hahaha Kom uit Saint-Denis, dat zijn buitenwijken Ghetto En voor police moest ik buiten wijken Loesoe Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik kief die hiya, hiya Hij laat je vliegen, vliegen Ik ben met zina's, zina's Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×2 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser D'après les circonstances étant donner Que tu ma toujours fait galérer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. You might also like Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×2</t>
+          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×2 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser D'après les circonstances étant donner Que tu ma toujours fait galérer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×2</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>x2 Dana dana hay dalali hbibi wellali Dana dana hay dalali madjatch ge3 fi bali Omri omri galbah kbir Omri omri yassthal ghir l khir Le soir jai rien à faire, je traîne Jsais pas où la vie me mène Un petit fond de raï dans la caisse je plane Jévacue le stress et le mal de crâne Moi jai rien dexceptionnel Écoute pas les gens Dquoi ils se mêlent ? On a traversé tempêtes, vents et marées Et j'ai commis des erreurs Mais jreste l'homme delaiyi x2 Haya haya w nmout 3la omri Haya haya yaw khalouli chéri x2 Dana dana hay dalali Hbibi wellali Dana dana hay dalali madjatch ge3 fi bali Houwa houwa galbi w rouhi Ya m3ah m3ah nel9a rouhi Hiya hiya Galbi w rouhi Ghir m3aha nel9a rouhi La vie est trop courte Et on sprend la tête Tout le monde est à nos genoux On scomporte comme des jnouns Tu mparles soucis, tu mparles de problèmes Yen a qui connaissent même pas lamour Mais nous on saime On sait cque lon perd On sait jamais cque lon gagne Sais-tu que pour toi il soulèverait des montagnes Amour charnel, ou sac Chanel Saimer dans le hlel aux yeux de léternel x2 Haya haya w nmout 3la omri Haya haya yaw khalouli chéri x4 Dana dana hay dallali Hbibi wellali Dana dana hay dallali madjabtch ge3 fi bali Houwa houwa galbi w rouhi Ya m3ah m3ah nel9a rouhi Hiya hiya Galbi w rouhi Ghir m3aha nel9a rouhi LAlgérino, Sihem Oriental DreamYou might also like</t>
+          <t>x2 Dana dana hay dalali hbibi wellali Dana dana hay dalali madjatch ge3 fi bali Omri omri galbah kbir Omri omri yassthal ghir l khir Le soir jai rien à faire, je traîne Jsais pas où la vie me mène Un petit fond de raï dans la caisse je plane Jévacue le stress et le mal de crâne Moi jai rien dexceptionnel Écoute pas les gens Dquoi ils se mêlent ? On a traversé tempêtes, vents et marées Et j'ai commis des erreurs Mais jreste l'homme delaiyi x2 Haya haya w nmout 3la omri Haya haya yaw khalouli chéri x2 Dana dana hay dalali Hbibi wellali Dana dana hay dalali madjatch ge3 fi bali Houwa houwa galbi w rouhi Ya m3ah m3ah nel9a rouhi Hiya hiya Galbi w rouhi Ghir m3aha nel9a rouhi La vie est trop courte Et on sprend la tête Tout le monde est à nos genoux On scomporte comme des jnouns Tu mparles soucis, tu mparles de problèmes Yen a qui connaissent même pas lamour Mais nous on saime On sait cque lon perd On sait jamais cque lon gagne Sais-tu que pour toi il soulèverait des montagnes Amour charnel, ou sac Chanel Saimer dans le hlel aux yeux de léternel x2 Haya haya w nmout 3la omri Haya haya yaw khalouli chéri x4 Dana dana hay dallali Hbibi wellali Dana dana hay dallali madjabtch ge3 fi bali Houwa houwa galbi w rouhi Ya m3ah m3ah nel9a rouhi Hiya hiya Galbi w rouhi Ghir m3aha nel9a rouhi LAlgérino, Sihem Oriental Dream</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yahyaw ga3 shab l'aller-retour À la corniche, la la la la lay lay, allez ! Yallah goulou ga3 m3aya Et oui, Belloumi, c'est la Dream Tiiw Allez, allez, allez, allez, allez L'Algé Allez, allez, allez, allez, allez espèce de conne Ha ! Yaw toubi toubi, yn3el Chalghoumi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Fi la corniche yfrimi w f lghorba ygrati Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa J'ai changé mes euros en dirhams Rien donné au douanier, rien qu'il râle Des aller-retours sur le boulevard Font crié les 6.3, attirent les regards J'suis à Kech, j'fume la kush J'ai la pêche, j'bois des fraîches J'veux du soleil toute l'année La belle vie, les palmiers You might also like T'as fait l'aller-retour, tu te crois en Amérique T'as fait v'là les délits pour sortir les illets-bi Ta poche est pleine, tu veux impressionner Monica Alors, toute l'année, on te prend pour un laud-sa T'as beau parler, t'as beau jacter, khey, t'es fini Elle a kiffé sur la team Tiiw à l'infini Bientôt, j'me barre au bled, lghorba, khay, c'est fini Maroc, Algérie, Tunisie, toujours dans nos têtes Ha ! Chiki chiki w jibha khawi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Tbghi Louboutin, t3cheq Philipp Plein Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa W ya démarri, w ha diri première W ya démarri, diri deuxième w wah, wah W ya démarri, ma hchemti ma hessiti Ouais ouais, Belloumi Belloumi W ya démarri, ha w Chalghoumi Espèce de conne Lève-toi du milieu, j'suis avec la team Tiiw Tiiw Sers-moi un revé dans les yeux, ma chérie, tchin tchin Appelle-moi en showcase, gros, ta soirée, je la pimp pimp Corniche, aller-retour, moi, j'suis dans ma piscine Yeah, fais pas ta belle, on t'jette l3in 3in Bouffée de chaleur dans la rue, j'fais mettre la clim clim J'suis avec Blanka à Casa, c'est la Dream Tiiw Ça fume du taga en pagaille, ça nous kill bill Ha ! Nhdi w nhdik, 3aynik fi 3ayni Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Chiki chiki w jibha khawi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ayayayay, DJ Mourad, DJ Med, ooooh ! Hi hi hi hi hi, hi hi hi hi hi Édition Cosmos Ha ha ha ha ha, ha ha ha ha ha Bruxelles Hi hi hi hi hi, hi hi hi hi hi3</t>
+          <t>Yahyaw ga3 shab l'aller-retour À la corniche, la la la la lay lay, allez ! Yallah goulou ga3 m3aya Et oui, Belloumi, c'est la Dream Tiiw Allez, allez, allez, allez, allez L'Algé Allez, allez, allez, allez, allez espèce de conne Ha ! Yaw toubi toubi, yn3el Chalghoumi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Fi la corniche yfrimi w f lghorba ygrati Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa J'ai changé mes euros en dirhams Rien donné au douanier, rien qu'il râle Des aller-retours sur le boulevard Font crié les 6.3, attirent les regards J'suis à Kech, j'fume la kush J'ai la pêche, j'bois des fraîches J'veux du soleil toute l'année La belle vie, les palmiers T'as fait l'aller-retour, tu te crois en Amérique T'as fait v'là les délits pour sortir les illets-bi Ta poche est pleine, tu veux impressionner Monica Alors, toute l'année, on te prend pour un laud-sa T'as beau parler, t'as beau jacter, khey, t'es fini Elle a kiffé sur la team Tiiw à l'infini Bientôt, j'me barre au bled, lghorba, khay, c'est fini Maroc, Algérie, Tunisie, toujours dans nos têtes Ha ! Chiki chiki w jibha khawi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Tbghi Louboutin, t3cheq Philipp Plein Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa W ya démarri, w ha diri première W ya démarri, diri deuxième w wah, wah W ya démarri, ma hchemti ma hessiti Ouais ouais, Belloumi Belloumi W ya démarri, ha w Chalghoumi Espèce de conne Lève-toi du milieu, j'suis avec la team Tiiw Tiiw Sers-moi un revé dans les yeux, ma chérie, tchin tchin Appelle-moi en showcase, gros, ta soirée, je la pimp pimp Corniche, aller-retour, moi, j'suis dans ma piscine Yeah, fais pas ta belle, on t'jette l3in 3in Bouffée de chaleur dans la rue, j'fais mettre la clim clim J'suis avec Blanka à Casa, c'est la Dream Tiiw Ça fume du taga en pagaille, ça nous kill bill Ha ! Nhdi w nhdik, 3aynik fi 3ayni Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ha ! Chiki chiki w jibha khawi Ki kounti w hayayaya, ki welliti w hawawawa Ki kounti w hayayaya, ki welliti w hawawawa Ayayayay, DJ Mourad, DJ Med, ooooh ! Hi hi hi hi hi, hi hi hi hi hi Édition Cosmos Ha ha ha ha ha, ha ha ha ha ha Bruxelles Hi hi hi hi hi, hi hi hi hi hi3</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes chaouis, mes harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un ChaouiYou might also like</t>
+          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes chaouis, mes harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la Et je me laisse aller, amore, monte avec moi Andalé andalé, où tu voudras, on ira Pour toi, je tue comme un sicarios Après l'amour, j'fume un cigarrillo La mala suerte, bye bye, adiós J'ai compte en Suisse et baraque à Rio J'aime ton côté vida loca T'aime mon caractère de laud-sa Suis-moi, le reste, on verra Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi You might also like J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la Si tu roules avec moi, à deux, on ira plus loin J'te sors de ta favela, n'attends plus la chance, viens, on y va Yeah ! Tu te tues pour des miettes et le salaire ne suffit pas Tu te tue pour ton proche et c'est ton proche qui te tuera Le temps te fait du mal, si je pouvais, j'le laisserais pas Toi et moi, pas à pas, y a qu'la mort qui nous sépare T'as tellement souffert, bambina T'as perdu le goût d'la vida Fuyons la mizeriya Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la1</t>
+          <t>Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la Et je me laisse aller, amore, monte avec moi Andalé andalé, où tu voudras, on ira Pour toi, je tue comme un sicarios Après l'amour, j'fume un cigarrillo La mala suerte, bye bye, adiós J'ai compte en Suisse et baraque à Rio J'aime ton côté vida loca T'aime mon caractère de laud-sa Suis-moi, le reste, on verra Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la Si tu roules avec moi, à deux, on ira plus loin J'te sors de ta favela, n'attends plus la chance, viens, on y va Yeah ! Tu te tues pour des miettes et le salaire ne suffit pas Tu te tue pour ton proche et c'est ton proche qui te tuera Le temps te fait du mal, si je pouvais, j'le laisserais pas Toi et moi, pas à pas, y a qu'la mort qui nous sépare T'as tellement souffert, bambina T'as perdu le goût d'la vida Fuyons la mizeriya Si j'dois m'en aller, je l'ferais pas sans toi Ça fait tant d'années que t'attends que j'te sorte de là Laisse-les donc parler, l'histoire, ils la connaissent pas Je ferai d'toi ma reine et tu feras de moi un roi J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la J'vais t'faire quitter l'barrio, partir sans dire adiós J'vais t'faire quitter l'barrio, partir sans dire adiós La la la la la la, la la la la la la la La la la la la la la la, la la la la la la la1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Maudit soit ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout d'suite ouvert mon cur Un cur dur à prendre car par habitude d'être froid Piqué par le venin d'l'amour c'était la première fois Y'avait rien à reprocher malgré son passé douteux Dur à accepter j'avais même failli la quitter Mais elle est tombée dans mes bras en lâchant des larmes Me regardant droit dans les yeux je te veux je t'aurais Sam J'ai pardonné tout le monde fait des erreurs, j'en ai fait J'l'ai prise comme elle était j'lui ai rendu sa dignité Elle m'présente à sa mère et j'la présente à la mienne La mienne me suggère directement de faire un mariage halal J'avais 21 ans pas un rond, pas de situation J'ai pris mon courage à deux mains j'suis parti au charbon Ma sur un an de stress, un an de galère, demande à mes potes j'pensais qu'à ça Il m'fallait d'l'argent, j'en dormais pas En plus de ça le doute me ronge Le fait que j'sois pas son premier mec me pourrit mes songes Et j'fais des rêves bizarres et j'vois flou dans ce blizzard Et j'en perds les cheveux peut-être un signe de mauvais présage Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas You might also like Clôture dans le cerveau j'en deviens paranoïaque Le sommeil troublé par des sentiments contradictoire amour haine et jalousie C'était la seule personne après mes proches pour qui j'aurais pu donner ma vie Les mois sont passés, le temps m'a assagi Mais sans m'douter que j'rentrais dans un sommeil léthargique L'amour rend aveugle, j'ai aimé sans compter, donné sans compter mon amour mon énergie J'lui ai fait vivre un conte de fée Un mariage digne d'une reine, tout ce dont petite elle a rêvé Elle a grandi sans père, quand elle en parlait, elle pleurait, ça me touchait J'ai voulu donner tout ce dont elle a manqué, c'était mon côté hnine Le jour du mariage, j'avais une rose rouge à la main, j'suis venu la chercher avec une limousine Tout le monde était content pour moi Mais il s'doutait pas que pour lui offrir tout ça j'ai craché pendant des mois De l'or, de la soie elle était sur un trône dorée, les gens bouche-bée J'ai fait ça bien car chez moi on s'marie qu'une fois Enfin c'est c'que j'croyais et j'me doutais pas qu'cette fleur était pleine d'épines et que le pire allait m'arriver Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas Mon amour était tel que même si elle pouvait plus enfanter Jlaurais gardé, même si elle était stérile des mômes on aurait adoptés Même dans une chaise roulante sur ma vie j'l'aurais jamais lâchée Cest fou comme on peut tout gâcher Elle a commis l'irréparable la pire chose qu'on peut faire à un homme Et qu'un homme fier ne peut pardonner J'vais pas tout dévoiler par pudeur, par respect Mais sache que cette ne s'est même pas respectée Corps sali, corps souillé elle a tout perdu Gagné une réputation de fille qui donne facilement son chut Elle se retrouve seule à pleurer sur son sort, j'peux rien y faire On se retrouve tellement seul face à ses torts Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas Tout l'mal qu'il y'a en moi prie pour que Dieu la maudisse Et le bien qu'il y'a en moi prie pour que Dieu la guide Le mal qu'il y'a en moi prie pour que Dieu la maudisse Et le bien qu'il y'a en moi prie pour que Dieu la guide Une pensée aux femmes qui s'respecte, aux hommes qui les respectent Quand on commet le pire, c'est trop tard on regrette4</t>
+          <t>Maudit soit ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout d'suite ouvert mon cur Un cur dur à prendre car par habitude d'être froid Piqué par le venin d'l'amour c'était la première fois Y'avait rien à reprocher malgré son passé douteux Dur à accepter j'avais même failli la quitter Mais elle est tombée dans mes bras en lâchant des larmes Me regardant droit dans les yeux je te veux je t'aurais Sam J'ai pardonné tout le monde fait des erreurs, j'en ai fait J'l'ai prise comme elle était j'lui ai rendu sa dignité Elle m'présente à sa mère et j'la présente à la mienne La mienne me suggère directement de faire un mariage halal J'avais 21 ans pas un rond, pas de situation J'ai pris mon courage à deux mains j'suis parti au charbon Ma sur un an de stress, un an de galère, demande à mes potes j'pensais qu'à ça Il m'fallait d'l'argent, j'en dormais pas En plus de ça le doute me ronge Le fait que j'sois pas son premier mec me pourrit mes songes Et j'fais des rêves bizarres et j'vois flou dans ce blizzard Et j'en perds les cheveux peut-être un signe de mauvais présage Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas Clôture dans le cerveau j'en deviens paranoïaque Le sommeil troublé par des sentiments contradictoire amour haine et jalousie C'était la seule personne après mes proches pour qui j'aurais pu donner ma vie Les mois sont passés, le temps m'a assagi Mais sans m'douter que j'rentrais dans un sommeil léthargique L'amour rend aveugle, j'ai aimé sans compter, donné sans compter mon amour mon énergie J'lui ai fait vivre un conte de fée Un mariage digne d'une reine, tout ce dont petite elle a rêvé Elle a grandi sans père, quand elle en parlait, elle pleurait, ça me touchait J'ai voulu donner tout ce dont elle a manqué, c'était mon côté hnine Le jour du mariage, j'avais une rose rouge à la main, j'suis venu la chercher avec une limousine Tout le monde était content pour moi Mais il s'doutait pas que pour lui offrir tout ça j'ai craché pendant des mois De l'or, de la soie elle était sur un trône dorée, les gens bouche-bée J'ai fait ça bien car chez moi on s'marie qu'une fois Enfin c'est c'que j'croyais et j'me doutais pas qu'cette fleur était pleine d'épines et que le pire allait m'arriver Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas Mon amour était tel que même si elle pouvait plus enfanter Jlaurais gardé, même si elle était stérile des mômes on aurait adoptés Même dans une chaise roulante sur ma vie j'l'aurais jamais lâchée Cest fou comme on peut tout gâcher Elle a commis l'irréparable la pire chose qu'on peut faire à un homme Et qu'un homme fier ne peut pardonner J'vais pas tout dévoiler par pudeur, par respect Mais sache que cette ne s'est même pas respectée Corps sali, corps souillé elle a tout perdu Gagné une réputation de fille qui donne facilement son chut Elle se retrouve seule à pleurer sur son sort, j'peux rien y faire On se retrouve tellement seul face à ses torts Fleur fanée Maudit sois ce jour où j'ai cueilli cette putain de fleur Pensant faire le bon choix j'ai tout de suite ouvert mon cur Fleur fanée Naturellement tu ouvres ton cur sans savoir pourquoi Des émotions des sentiments que tu ne contrôles pas Tout l'mal qu'il y'a en moi prie pour que Dieu la maudisse Et le bien qu'il y'a en moi prie pour que Dieu la guide Le mal qu'il y'a en moi prie pour que Dieu la maudisse Et le bien qu'il y'a en moi prie pour que Dieu la guide Une pensée aux femmes qui s'respecte, aux hommes qui les respectent Quand on commet le pire, c'est trop tard on regrette4</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Apprendre a être libre Cur et poing serrés Se sentir considéré Pour réapprendre a vivre Manifestations tempérées C'est loin d'être possible Quand le peuple est pris pour cible Y'a pas d'révolutions modérées Oui ils marchent pour leurs intérêts L'Etat compte les sinistres Oui, ils font couler le sang Et Ont la mort pour ministre Arabia triste bilan Va du Maroc a l'Iran L'espoir remplit des cercueils Et porte le deuil des tyrans Le drapeau blanc est taché Ce n'était qu'une histoire d'oseille Le peuple lutte jour et nuit Crédit dans le sommeil L'échec n'était pas palpable Révolution morale L.E.C.K rend hommage Pour les disparus j'fais une doha Arabia You might also like Un nuage d'innocence plane sur le peuple Bombarder son histoire c'est tuer ses propres fleurs La réflexion heurte la raison Regarde il pleut des pierres Au final il ne restera que la prière Yeah x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia On achète pas notre liberté On donnera notre vie pour l'acquérir Que Dieu bénisse les frères qui sont morts en martyrs Tu peux tirer sur le peuple mais le peuple se relèvera Tahia edawla el arabia ! Imagine ton immeuble soufflé par une roquette On traîne nos vies d'thug On marche avec le peuple On crève avec le peuple Qui veut la paix prépare la guerre On est courageux et fiers On fait reculer les tanks avec des pierres Ici le peuple est sur la paillasse Le père se tient la tête Quand tu n'as rien t'as rien à perdre C'est les kalashs contre les caillasses J'espère que ça va suffire Encore combien de frères vont nous laisser Parce que l'histoire plutôt l'écrire que de la subir Le Printemps Beur est dans les charts Comme les soldats dans les chars Je t'ai dans la chair, Monde arabe Ta démocratie se télécharge oh ! Rien ne sert d'agiter l'épouvantail La crise est inévitable On n'chasse pas l'brouillard à l'éventail x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Une poudrière finit forcément par s'embraser Il suffit d'une étincelle Le feu s'propage et rien n'pourra l'entraver La vraie question à se poser c'est quelle issue ? Quel futur ? Reconstruire, envisager l'avenir après cette rupture Depuis le temps que je patiente Dans cette chambre noire J'entends les surveillants qui chantent Au fond du couloir J'repense à toutes ces bombes qui tombent Un peu partout sur nos terres Darwah pour venger mes frères J'fumerais bien Bush comme un zdeh Frère faut pas être expert en finances Pour se douter qu'ils mentent La supercherie est immense Ils ont su nous faire faire taire taire Vaillant soit le monde arabe Quand le peuple gronde Bombe le torse les têtes tombent tombent Pensée pour ceux qui ont laissé un vide Enfin, à tous ceux qui seront mort pour que nous on vive Rebeus, fiers et révolutionnaires Représentent comme les frères de S.N.I.P.E.R En hommage à tous les civils qui sont tombés sous les balles Qui se sont battus pour être libres Qui se sont battus contre un système totalitaire Et qui pour changer leur histoire y ont laissé des êtres chers x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia2</t>
+          <t>Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Apprendre a être libre Cur et poing serrés Se sentir considéré Pour réapprendre a vivre Manifestations tempérées C'est loin d'être possible Quand le peuple est pris pour cible Y'a pas d'révolutions modérées Oui ils marchent pour leurs intérêts L'Etat compte les sinistres Oui, ils font couler le sang Et Ont la mort pour ministre Arabia triste bilan Va du Maroc a l'Iran L'espoir remplit des cercueils Et porte le deuil des tyrans Le drapeau blanc est taché Ce n'était qu'une histoire d'oseille Le peuple lutte jour et nuit Crédit dans le sommeil L'échec n'était pas palpable Révolution morale L.E.C.K rend hommage Pour les disparus j'fais une doha Arabia Un nuage d'innocence plane sur le peuple Bombarder son histoire c'est tuer ses propres fleurs La réflexion heurte la raison Regarde il pleut des pierres Au final il ne restera que la prière Yeah x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia On achète pas notre liberté On donnera notre vie pour l'acquérir Que Dieu bénisse les frères qui sont morts en martyrs Tu peux tirer sur le peuple mais le peuple se relèvera Tahia edawla el arabia ! Imagine ton immeuble soufflé par une roquette On traîne nos vies d'thug On marche avec le peuple On crève avec le peuple Qui veut la paix prépare la guerre On est courageux et fiers On fait reculer les tanks avec des pierres Ici le peuple est sur la paillasse Le père se tient la tête Quand tu n'as rien t'as rien à perdre C'est les kalashs contre les caillasses J'espère que ça va suffire Encore combien de frères vont nous laisser Parce que l'histoire plutôt l'écrire que de la subir Le Printemps Beur est dans les charts Comme les soldats dans les chars Je t'ai dans la chair, Monde arabe Ta démocratie se télécharge oh ! Rien ne sert d'agiter l'épouvantail La crise est inévitable On n'chasse pas l'brouillard à l'éventail x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Une poudrière finit forcément par s'embraser Il suffit d'une étincelle Le feu s'propage et rien n'pourra l'entraver La vraie question à se poser c'est quelle issue ? Quel futur ? Reconstruire, envisager l'avenir après cette rupture Depuis le temps que je patiente Dans cette chambre noire J'entends les surveillants qui chantent Au fond du couloir J'repense à toutes ces bombes qui tombent Un peu partout sur nos terres Darwah pour venger mes frères J'fumerais bien Bush comme un zdeh Frère faut pas être expert en finances Pour se douter qu'ils mentent La supercherie est immense Ils ont su nous faire faire taire taire Vaillant soit le monde arabe Quand le peuple gronde Bombe le torse les têtes tombent tombent Pensée pour ceux qui ont laissé un vide Enfin, à tous ceux qui seront mort pour que nous on vive Rebeus, fiers et révolutionnaires Représentent comme les frères de S.N.I.P.E.R En hommage à tous les civils qui sont tombés sous les balles Qui se sont battus pour être libres Qui se sont battus contre un système totalitaire Et qui pour changer leur histoire y ont laissé des êtres chers x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia2</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux You might also like J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
+          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Andale, andale Gros j'allais t'en parler J'ai fait le pain toute l'année J'hésite entre l'Aston Martin ou la Bentley Pas d'nouvelles, bonne nouvelle J't'enverrais un email J'suis calé, petit rosé J'suis refais, j'vais t'montrer comment on fait Petit polo Gabbana J'ai mon cigare Havana I L'algé Montana J'ai cassé la marche arrière Et ta gadji qu'est ce qu'elle a? Elle croit qu'elle a bon avec moi J'ai planté le Panamera Arrête de me jeter l'oeil Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya You might also likeBonne année, bonne santé Fait péter le Dom Pé' C'est pesé, emballé Dans l'enveloppe le cachet J'ai la flemme de compter J'suis posé a Marseille Eclaté sous le soleil Je gamberge en féfé J'me demande ou j'vais passer l'été Petit polo Gabbana J'ai mon cigare Havana I L'algé Montana J'ai cassé la marche arrière Et ta gadji qu'est ce qu'elle a? Elle croit qu'elle a bon avec moi J'ai planté le Panamera Arrête de me jeter l'oeil Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya x2 Ehh ma bella, ça fait la belle en GLA Elle m'a sortit sont tralalala Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya A 200 sur la côte, j'conduis comme Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya1</t>
+          <t>Andale, andale Gros j'allais t'en parler J'ai fait le pain toute l'année J'hésite entre l'Aston Martin ou la Bentley Pas d'nouvelles, bonne nouvelle J't'enverrais un email J'suis calé, petit rosé J'suis refais, j'vais t'montrer comment on fait Petit polo Gabbana J'ai mon cigare Havana I L'algé Montana J'ai cassé la marche arrière Et ta gadji qu'est ce qu'elle a? Elle croit qu'elle a bon avec moi J'ai planté le Panamera Arrête de me jeter l'oeil Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Bonne année, bonne santé Fait péter le Dom Pé' C'est pesé, emballé Dans l'enveloppe le cachet J'ai la flemme de compter J'suis posé a Marseille Eclaté sous le soleil Je gamberge en féfé J'me demande ou j'vais passer l'été Petit polo Gabbana J'ai mon cigare Havana I L'algé Montana J'ai cassé la marche arrière Et ta gadji qu'est ce qu'elle a? Elle croit qu'elle a bon avec moi J'ai planté le Panamera Arrête de me jeter l'oeil Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya x2 Ehh ma bella, ça fait la belle en GLA Elle m'a sortit sont tralalala Quand on est pas jolie, cousine on reste polie Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya Elle a faim la cousine, elle me branche Henneni Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya A 200 sur la côte, j'conduis comme Lalalilila ya, Lalalilila ya, Lalalilila ya, Lalalilila ya1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Je mpose plein de questions Ai-je été honnête ? Les années défilent trop À lallure dune comète Jtai demandé le temps Jsuis pas dceux qui promettent La Lune quand je vois Tes larmes sur tes pommettes On nvit quune fois Éloigne-toi de moi On saime mais on saigne Cest dla haine que lon sème Des montagnes dor Recouvrir ton corps À quoi bon sert Doffrir tous ces trésors ? Cette fois cest fini Je men vais, je pars Mieux vaut quon soublie Jveux tourner la page Je vivrai ma vie Quen mettant les voiles Mieux vaut quon soublie Non je nsuis pas fait pour toi I leave you, I leave you I let you do, I let you When I leave it for you Jai voulu y croire Jai voulu tfaire rêver Cest dans la nuit noire Qunos rêves sont partis en fumée Jai croisé ton chemin Tu mas tendu la main En espérant de meilleurs lendemains Jsuis pas fait pour toi Éloigne-toi de moi Rimmel et larmes se mélangent Et jsuis ton meilleur ennemi On sfait trop de mal Jvais mettre les voiles Tu seras malheureuse Même si je toffre une étoile Cette fois cest fini Je men vais, je pars Mieux vaut quon soublie Jveux tourner la page Je vivrai ma vie Quen mettant les voiles Mieux vaut quon soublie Non je nsuis pas fait pour toi x2 I leave you, I leave you I let you do, I let you When I leave it for youYou might also like</t>
+          <t>Je mpose plein de questions Ai-je été honnête ? Les années défilent trop À lallure dune comète Jtai demandé le temps Jsuis pas dceux qui promettent La Lune quand je vois Tes larmes sur tes pommettes On nvit quune fois Éloigne-toi de moi On saime mais on saigne Cest dla haine que lon sème Des montagnes dor Recouvrir ton corps À quoi bon sert Doffrir tous ces trésors ? Cette fois cest fini Je men vais, je pars Mieux vaut quon soublie Jveux tourner la page Je vivrai ma vie Quen mettant les voiles Mieux vaut quon soublie Non je nsuis pas fait pour toi I leave you, I leave you I let you do, I let you When I leave it for you Jai voulu y croire Jai voulu tfaire rêver Cest dans la nuit noire Qunos rêves sont partis en fumée Jai croisé ton chemin Tu mas tendu la main En espérant de meilleurs lendemains Jsuis pas fait pour toi Éloigne-toi de moi Rimmel et larmes se mélangent Et jsuis ton meilleur ennemi On sfait trop de mal Jvais mettre les voiles Tu seras malheureuse Même si je toffre une étoile Cette fois cest fini Je men vais, je pars Mieux vaut quon soublie Jveux tourner la page Je vivrai ma vie Quen mettant les voiles Mieux vaut quon soublie Non je nsuis pas fait pour toi x2 I leave you, I leave you I let you do, I let you When I leave it for you</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? You might also like Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
+          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nkhaf 3lik ya bladi wallah mani hanni Je pense à toi toutes les nuits, mon pays, ma famille L'Algerie ma patrie pour qui je donnerai ma vie On écrira l'histoire comme nos héros, nos martyrs Nkhaf 3lik ya bladi ahhh men 3adiani Nesma7 fik jamais haka bouya wesani Bladi 3ziza 3lia ndirha fi 3inia Ana weldek ntia ya manish berani 3la bladi ghebnouni derouni 3inani Soufirt, melit, meguani, khelouni Je baisserai jamais les bras Je garderai toujours la foi, moi Comment te dire tout simplement je t'aime Algérie mi amor, on t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor, Algérie mi amor Algérie mi amor On t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor Nghir 3lik ya bladi, hkili wesh rah sari T'as toujours été forte, tu n'as jamais faili Ils t'ont jamais compris, mais tu as toujours souri Algérie pour la vie, 3lik nmed hyati Atass ebghir amdinigh, di yemma ykmoufikh Tessndiyi thamazigh talwith kan imevghir Dzair fellam erghigh amkeni our oufigh Anda telid eligh kemi kan tssamourthiw You might also like 3la bladi ghebnouni derouni 3inani Soufrit, melit, meguani, khelouni Je baisserai jamais les bras Je garderai toujours la foi moi Comment te dire tout simplement je t'aime Algerie mi amor, on t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor mi amor, mi amor Algérie mi amor Algerie mi amor On t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor mi amor, mi amor1</t>
+          <t>Nkhaf 3lik ya bladi wallah mani hanni Je pense à toi toutes les nuits, mon pays, ma famille L'Algerie ma patrie pour qui je donnerai ma vie On écrira l'histoire comme nos héros, nos martyrs Nkhaf 3lik ya bladi ahhh men 3adiani Nesma7 fik jamais haka bouya wesani Bladi 3ziza 3lia ndirha fi 3inia Ana weldek ntia ya manish berani 3la bladi ghebnouni derouni 3inani Soufirt, melit, meguani, khelouni Je baisserai jamais les bras Je garderai toujours la foi, moi Comment te dire tout simplement je t'aime Algérie mi amor, on t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor, Algérie mi amor Algérie mi amor On t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor Nghir 3lik ya bladi, hkili wesh rah sari T'as toujours été forte, tu n'as jamais faili Ils t'ont jamais compris, mais tu as toujours souri Algérie pour la vie, 3lik nmed hyati Atass ebghir amdinigh, di yemma ykmoufikh Tessndiyi thamazigh talwith kan imevghir Dzair fellam erghigh amkeni our oufigh Anda telid eligh kemi kan tssamourthiw 3la bladi ghebnouni derouni 3inani Soufrit, melit, meguani, khelouni Je baisserai jamais les bras Je garderai toujours la foi moi Comment te dire tout simplement je t'aime Algerie mi amor, on t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor mi amor, mi amor Algérie mi amor Algerie mi amor On t'aime à la vie à la mort Le peuple te portera encore Algérie mi amor mi amor, mi amor1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hajabtili Nti L'Algé' Hajabtili Nti Cheb Ghazel Hajabtili Nti Bibi Maestro Hajabtou anti Ou Mani mani mani mani 3ajabtini Nti Ou had zine koania 3ajabtini Nti 3achaktek w kolita 3ajabtini Nti Ou ça y'est décidit Hey Mani mani mani mani 3ajabtini Nti Hey had zine koania 3ajabtini Nti Habitek w kolita 3ajabtini Nti E Yaw lioum nouit Elle veut la dote, elle veut les millions Hajabtili Nti Parures en or et sacs Louis Vuitton Hajabtili Nti Le Range-Rover et la belle maison Hajabtili Nti Changer de pays chaque saison Hajabou anti Elle rêve de Mercedes et de beaux mecs célèbres On te dit trop que t'es fraîche Tu veux mon num' c'est dead Ma chérie reste au chaud j'suis busy j'ai du boulot T'inquiètes j'te rappelle dans 2 Millions d'uros You might also like Serutti Gucci Cortège en hélicoptère Fais tes protections y'a tout le monde qui nous observent Y'aura des hauts y'a des bas, t'façon j'ai connu la hass Et en temps de crise je serre la ceinture Hermes Cha3l n'bri9 ya bent nas C'est vrai que t'es trop fraîche Si tu fais des manies j'te dirais garde la pèche J'suis fou j'suis Chaoui dans ma tête c'est WayWay Okhty reste classe ou je te dirai Bye-Bye Hey a3tini numéro Ou bech nfaraghlek galbi Ou hobek kol youm yzid Ya el 3alem biya rabi x2 Hey menin t3adi mena Ya khoti 3ainiha mlah Nabda ne7lem w netmana Ndirha w nertah x22</t>
+          <t>Hajabtili Nti L'Algé' Hajabtili Nti Cheb Ghazel Hajabtili Nti Bibi Maestro Hajabtou anti Ou Mani mani mani mani 3ajabtini Nti Ou had zine koania 3ajabtini Nti 3achaktek w kolita 3ajabtini Nti Ou ça y'est décidit Hey Mani mani mani mani 3ajabtini Nti Hey had zine koania 3ajabtini Nti Habitek w kolita 3ajabtini Nti E Yaw lioum nouit Elle veut la dote, elle veut les millions Hajabtili Nti Parures en or et sacs Louis Vuitton Hajabtili Nti Le Range-Rover et la belle maison Hajabtili Nti Changer de pays chaque saison Hajabou anti Elle rêve de Mercedes et de beaux mecs célèbres On te dit trop que t'es fraîche Tu veux mon num' c'est dead Ma chérie reste au chaud j'suis busy j'ai du boulot T'inquiètes j'te rappelle dans 2 Millions d'uros Serutti Gucci Cortège en hélicoptère Fais tes protections y'a tout le monde qui nous observent Y'aura des hauts y'a des bas, t'façon j'ai connu la hass Et en temps de crise je serre la ceinture Hermes Cha3l n'bri9 ya bent nas C'est vrai que t'es trop fraîche Si tu fais des manies j'te dirais garde la pèche J'suis fou j'suis Chaoui dans ma tête c'est WayWay Okhty reste classe ou je te dirai Bye-Bye Hey a3tini numéro Ou bech nfaraghlek galbi Ou hobek kol youm yzid Ya el 3alem biya rabi x2 Hey menin t3adi mena Ya khoti 3ainiha mlah Nabda ne7lem w netmana Ndirha w nertah x22</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ouh, ah Yeah, la vie est belle quand tu souris T'es dans ma tête comme une mélodie euh Voilà, voilà, voilà, je ne suis plus un voleur Je n'ai volé que ton cur car il a trop de valeur Tous mes s'habs, c'est des mafios ouh, ah C'est pour ça que tu es méfiante 3iniya, fais-moi confiance ouh, ah 3iniya, tu n'es plus une fillette Mon bébé, ich liebe dich, wallah Ensemble, on va faire beaucoup de moula ah, la-la Ich liebe dich, wallah Ensemble, on va faire beaucoup de loux-ja Piccola, sei la mia piccola c'est ma petite Piccola, sei la mia piccola c'est ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you You might also like Oh, j'en ai assez Si tu n'as pas l'intention de changer, laisse tomber-ber-ber-ber Oh toi tu vas tout gâcher Tu m'fais tourner en rond, toi tu m'rends te-bê-bê-bê-bê C'est tout droit Toi tu n'tiens pas la route, dis-moi pourquoi ? pourquoi ? Et je suis coupable d'avoir été si naïve, ça me foudroie Mamamia, j'traine qu'avec des bandits, ah Sicarios, traqué par la CIA C'est l'argent d'la musique, demande à Rosalía On est là pour la somme et Buenos días Pa-pa-parait que y a de l'or dans l'sac Khapta et fiesta jusqu'à demain Elle, elle m'dit Mi amor, stop ça J'ai son cur et une kichta dans mes deux mains Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Follow me cariño, t'inquiète le compte est chargé J'suis dans les airs, jet lagué, il m'faut la 7G Sors la kichta si tu veux nous ressembler Il te faut un Smic pour acheter la chemise à L'Algé' breh Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla Sors tes plus beaux talons, c'est ta fiesta, pétard après la sieste, ah 10K, fais pas mal à la cabeza Prends ton sac et retourne dans ta classe A han-han-han Mi amor mi amor, danse pour moi jusqu'à l'aube Danse pour moi toute la night, oh mami que calor Ma baby si tu m'cherches, j'suis dans la ville toute la noche babe Ta vie j'la rend belle, à mes bras il faut t'accrocher Oui tu es celle qu'a mon cur, t'as tout empoché Pour toi j'pars en guerre, rien à foutre, j'vais tout amocher Business, j'fais d'la monnaie monnaie, elle refait, je touche à tout T'es mon bébé, ma moitié, me gustas tu Te faire sourire, tu m'connais, c'est mon atout T'es mon bébé, ma moitié, me gustas tu, no Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla1</t>
+          <t>Ouh, ah Yeah, la vie est belle quand tu souris T'es dans ma tête comme une mélodie euh Voilà, voilà, voilà, je ne suis plus un voleur Je n'ai volé que ton cur car il a trop de valeur Tous mes s'habs, c'est des mafios ouh, ah C'est pour ça que tu es méfiante 3iniya, fais-moi confiance ouh, ah 3iniya, tu n'es plus une fillette Mon bébé, ich liebe dich, wallah Ensemble, on va faire beaucoup de moula ah, la-la Ich liebe dich, wallah Ensemble, on va faire beaucoup de loux-ja Piccola, sei la mia piccola c'est ma petite Piccola, sei la mia piccola c'est ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Oh, j'en ai assez Si tu n'as pas l'intention de changer, laisse tomber-ber-ber-ber Oh toi tu vas tout gâcher Tu m'fais tourner en rond, toi tu m'rends te-bê-bê-bê-bê C'est tout droit Toi tu n'tiens pas la route, dis-moi pourquoi ? pourquoi ? Et je suis coupable d'avoir été si naïve, ça me foudroie Mamamia, j'traine qu'avec des bandits, ah Sicarios, traqué par la CIA C'est l'argent d'la musique, demande à Rosalía On est là pour la somme et Buenos días Pa-pa-parait que y a de l'or dans l'sac Khapta et fiesta jusqu'à demain Elle, elle m'dit Mi amor, stop ça J'ai son cur et une kichta dans mes deux mains Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Follow me cariño, t'inquiète le compte est chargé J'suis dans les airs, jet lagué, il m'faut la 7G Sors la kichta si tu veux nous ressembler Il te faut un Smic pour acheter la chemise à L'Algé' breh Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla Sors tes plus beaux talons, c'est ta fiesta, pétard après la sieste, ah 10K, fais pas mal à la cabeza Prends ton sac et retourne dans ta classe A han-han-han Mi amor mi amor, danse pour moi jusqu'à l'aube Danse pour moi toute la night, oh mami que calor Ma baby si tu m'cherches, j'suis dans la ville toute la noche babe Ta vie j'la rend belle, à mes bras il faut t'accrocher Oui tu es celle qu'a mon cur, t'as tout empoché Pour toi j'pars en guerre, rien à foutre, j'vais tout amocher Business, j'fais d'la monnaie monnaie, elle refait, je touche à tout T'es mon bébé, ma moitié, me gustas tu Te faire sourire, tu m'connais, c'est mon atout T'es mon bébé, ma moitié, me gustas tu, no Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yeah, quand j'suis seul j'regarde les étoiles J'pense aux millions que j'ai fait J'pense aux millions que j'vais faire Même si j'vais rien emporter On a toujours fait du sale mais ils ont toujours nié Rien à foutre de leur gueule y a qu'devant Dieu que j'm'agenouille L'Afrique saigne, ils l'on pillée, on vient juste récupérer Le sang, la sueur de nos ancêtres on l'a jamais oublié Elle t'a dit je t'aime mon cur ces belles paroles que t'as gobé Elle s'est fait prendre en leuleu, quand y a plus rien dans l'porte-monnaie Pourquoi tu cherches à savoir ce que j'ai fait, ce que j'ai pas fait? Sur ma mère que des commères, pour vivre heureux, vivons cachés Avant, nous calculaient pas, maintenant on peut tout s'acheter Ils m'ont recalé devant leur boîte maintenant ils me payent pour y chanter T'es mon ami tu parles sur moi, non tu changeras jamais J't'ai ouvert mon cur, t'as tenté d'me manipuler tu sais Tu peux toujours faire des grands gestes Moi, j'ai jamais retourné ma veste Ici, on manque d'air On manque d'oxygène On a du mal a respirer A force de courir, j'finis par m'épuiser Ici, on manque d'air On manque d'oxygène Ils savent pas comme j'reviens de loin Ouais, j'reviens de loin Rien qu'tu fais parler, t'étais ou quand j'avais rien You might also like Passe trop vite, et j'perds mon temps, y a pleins de choses que j'ai raté Y a plein de choses que je vais oublier, plein de choses que je veux rattraper J'ai trop couru après l'argent, j'me suis essoufflé Du mal à écrire ce couplet, j'en ai le souffle coupé La gloire, le succès m'a pas changé, c'est eux qui ont changé On a grandi ensemble, ils me voient comme un étranger J'préfère marcher seul, j'aime pas me mélanger C'est de tes amis pas de tes ennemis que viendra le danger Ils ont tenté de me faire douter Ils m'ont négligé, ils ont même comploté Khoya, j'les calcule pas, j'leur fais la Panenka Y a qu'la famille qui compte demande à Tu manqueras de rien Sonia, j'te construis l'Hacienda Eux ils ont le nez dans la Bayda Moi j'vis que pour Dibou et Aliyah Moi j'vis que pour Dibou et Aliyah Ici, on manque d'air On manque d'oxygène On a du mal a respirer A force de courir, j'finis par m'épuiser Ici, on manque d'air On manque d'oxygène Ils savent pas comme j'reviens de loin Ouais, j'reviens de loin Rien qu'tu fais parler, t'étais ou quand j'avais rien Si tu savais yema J'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima Comme j'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima J'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima Comme j'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima1</t>
+          <t>Yeah, quand j'suis seul j'regarde les étoiles J'pense aux millions que j'ai fait J'pense aux millions que j'vais faire Même si j'vais rien emporter On a toujours fait du sale mais ils ont toujours nié Rien à foutre de leur gueule y a qu'devant Dieu que j'm'agenouille L'Afrique saigne, ils l'on pillée, on vient juste récupérer Le sang, la sueur de nos ancêtres on l'a jamais oublié Elle t'a dit je t'aime mon cur ces belles paroles que t'as gobé Elle s'est fait prendre en leuleu, quand y a plus rien dans l'porte-monnaie Pourquoi tu cherches à savoir ce que j'ai fait, ce que j'ai pas fait? Sur ma mère que des commères, pour vivre heureux, vivons cachés Avant, nous calculaient pas, maintenant on peut tout s'acheter Ils m'ont recalé devant leur boîte maintenant ils me payent pour y chanter T'es mon ami tu parles sur moi, non tu changeras jamais J't'ai ouvert mon cur, t'as tenté d'me manipuler tu sais Tu peux toujours faire des grands gestes Moi, j'ai jamais retourné ma veste Ici, on manque d'air On manque d'oxygène On a du mal a respirer A force de courir, j'finis par m'épuiser Ici, on manque d'air On manque d'oxygène Ils savent pas comme j'reviens de loin Ouais, j'reviens de loin Rien qu'tu fais parler, t'étais ou quand j'avais rien Passe trop vite, et j'perds mon temps, y a pleins de choses que j'ai raté Y a plein de choses que je vais oublier, plein de choses que je veux rattraper J'ai trop couru après l'argent, j'me suis essoufflé Du mal à écrire ce couplet, j'en ai le souffle coupé La gloire, le succès m'a pas changé, c'est eux qui ont changé On a grandi ensemble, ils me voient comme un étranger J'préfère marcher seul, j'aime pas me mélanger C'est de tes amis pas de tes ennemis que viendra le danger Ils ont tenté de me faire douter Ils m'ont négligé, ils ont même comploté Khoya, j'les calcule pas, j'leur fais la Panenka Y a qu'la famille qui compte demande à Tu manqueras de rien Sonia, j'te construis l'Hacienda Eux ils ont le nez dans la Bayda Moi j'vis que pour Dibou et Aliyah Moi j'vis que pour Dibou et Aliyah Ici, on manque d'air On manque d'oxygène On a du mal a respirer A force de courir, j'finis par m'épuiser Ici, on manque d'air On manque d'oxygène Ils savent pas comme j'reviens de loin Ouais, j'reviens de loin Rien qu'tu fais parler, t'étais ou quand j'avais rien Si tu savais yema J'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima Comme j'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima J'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima Si tu savais ima Comme j'ai galéré ima Si tu savais ima Y'a trop d'gens mauvais ima1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ya que des têtes brûlées, tu ferais mieux de reculer Le style est S.U.D., Q.N. matriculé Deux-trois rafales, fourre le mic, négro je vais postuler Dans la salle ou dans la cabine jprovoque trop de buée Jattire la racaille, la flicaille, quils aillent se faire enculer Le style est sale comme mon hall où jai débuté On vient faire terre brûlée à l'instinct gros tout peut basculer Jredonne dla force aux miens, jsuis à lancienne pas comme ces fumiers Ya pas de star, je plaisante pas comme toi, je sors dun trou à rats Pas daffolement si tu vois que tes mou, tas quà transpirer F.A.H.A.R. PAM ! Maintenant tas de quoi tinspirer Un rap hors-la-loi adressé à toutes ces familles opprimées x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Yeah, yeah Chez nous cest pollen, Paul Shark Paul Shark ! À larme de guerre les frères se charclent Dis-leur ! Autour du coup, ni croix ni câble Wouuu À la recherche dune gadji niquable Les ptits shmetas à jamais en règle du cycle Ouais ! Toujours en retard pour pointer à la Spip 50 lamour, 40 euros la pipe Parle pas doccase nous on veut que du jdid Fait à la speed, braquage à la Heat, aliens On senvole, vol à litalienne Ra-ta-ta-tah ! Monte au premier, ya la Bac à létage Wouuuf ! Alonz mappelle, cest pour un braquage You might also like Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant Jdébarque avec ma ptite équipe, wAllah, penses-tu que jsuis riche ? Mon pote a le calibre sous le bras, veux-tu être ma biche ? Quartier nord ya du haschich, on sort tout droit de Greenwich Khamsa fi ainik tu chouf mal chouf mal Bitch On les switch, on les, on les switch Alonzitovich De la bouche, jenvoie des cartouches, tous tes morts se couchent Stylé en Jordan ou en Hogan, à la Damon Dash Toi tas une dégaine de tuple dance, en mode mort aux vaches Quil se cache, dis-moi qui nous cherche, nous on danse sur Lil Bow Wow sur Lil Bow Wow ! Dans la-dans la piste, trop de libido, Zé Pequeno Fais briller le cash, ça sagite, vite, coupe pleine Jsuis la tête daffiche, et jmen fiche ! x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ya comme une odeur droussis, latmosphère pue la défaite Parlons peu, parlons bien, khey, venons-en au fait Largent cest lnerf de la guerre, jveux mettre à labri père, mère Jsuis presque refait, jquitterais la France pour la terre-mère Jsuis à Bab El Oued ouled lhoumatar sah Tahia lDjazaïr, écartez-vous, ledle khar Habidi décapotable, ya omri tah bidtili drahni Rani menich 9oued, demande à Fouhed de la hitadi Muaah On est là, les ptites shmetas pendez-les Chaoui tah sah trop déterminé, khoya, on est là, on est là Whop Whop ! Offshore à Pattaya Jsuis avec des guirris, des harbis, gamina ndzaya x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ok, yeah Arrache le cordon ombilical, prend la cavalière MC lyrical Marseille senflamme, mets lessence dans le jerricane Ya plus dchéri calme, maintnant cest le rap, cest le véritable Batox branche la came, on les dég-dégommes, on se déguise pas M.O.H, poids lourd, surcharge pondérale Jcrois pas aux médias, jcrois pas à Mohamed Merah Le regard rouge, dissimulé sous la New Era On sait qui nous fait naître, on sait pas qui nous enterra On combat lautorité, David contre Goliath Alonz, on sait plus qui est qui, on devient paranoïaque M.O.Hache de guerre, comme Chantal Goya Aya, jmets le faya pour mes khouyas débrouillards Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant2</t>
+          <t>Ya que des têtes brûlées, tu ferais mieux de reculer Le style est S.U.D., Q.N. matriculé Deux-trois rafales, fourre le mic, négro je vais postuler Dans la salle ou dans la cabine jprovoque trop de buée Jattire la racaille, la flicaille, quils aillent se faire enculer Le style est sale comme mon hall où jai débuté On vient faire terre brûlée à l'instinct gros tout peut basculer Jredonne dla force aux miens, jsuis à lancienne pas comme ces fumiers Ya pas de star, je plaisante pas comme toi, je sors dun trou à rats Pas daffolement si tu vois que tes mou, tas quà transpirer F.A.H.A.R. PAM ! Maintenant tas de quoi tinspirer Un rap hors-la-loi adressé à toutes ces familles opprimées x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Yeah, yeah Chez nous cest pollen, Paul Shark Paul Shark ! À larme de guerre les frères se charclent Dis-leur ! Autour du coup, ni croix ni câble Wouuu À la recherche dune gadji niquable Les ptits shmetas à jamais en règle du cycle Ouais ! Toujours en retard pour pointer à la Spip 50 lamour, 40 euros la pipe Parle pas doccase nous on veut que du jdid Fait à la speed, braquage à la Heat, aliens On senvole, vol à litalienne Ra-ta-ta-tah ! Monte au premier, ya la Bac à létage Wouuuf ! Alonz mappelle, cest pour un braquage Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant Jdébarque avec ma ptite équipe, wAllah, penses-tu que jsuis riche ? Mon pote a le calibre sous le bras, veux-tu être ma biche ? Quartier nord ya du haschich, on sort tout droit de Greenwich Khamsa fi ainik tu chouf mal chouf mal Bitch On les switch, on les, on les switch Alonzitovich De la bouche, jenvoie des cartouches, tous tes morts se couchent Stylé en Jordan ou en Hogan, à la Damon Dash Toi tas une dégaine de tuple dance, en mode mort aux vaches Quil se cache, dis-moi qui nous cherche, nous on danse sur Lil Bow Wow sur Lil Bow Wow ! Dans la-dans la piste, trop de libido, Zé Pequeno Fais briller le cash, ça sagite, vite, coupe pleine Jsuis la tête daffiche, et jmen fiche ! x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ya comme une odeur droussis, latmosphère pue la défaite Parlons peu, parlons bien, khey, venons-en au fait Largent cest lnerf de la guerre, jveux mettre à labri père, mère Jsuis presque refait, jquitterais la France pour la terre-mère Jsuis à Bab El Oued ouled lhoumatar sah Tahia lDjazaïr, écartez-vous, ledle khar Habidi décapotable, ya omri tah bidtili drahni Rani menich 9oued, demande à Fouhed de la hitadi Muaah On est là, les ptites shmetas pendez-les Chaoui tah sah trop déterminé, khoya, on est là, on est là Whop Whop ! Offshore à Pattaya Jsuis avec des guirris, des harbis, gamina ndzaya x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ok, yeah Arrache le cordon ombilical, prend la cavalière MC lyrical Marseille senflamme, mets lessence dans le jerricane Ya plus dchéri calme, maintnant cest le rap, cest le véritable Batox branche la came, on les dég-dégommes, on se déguise pas M.O.H, poids lourd, surcharge pondérale Jcrois pas aux médias, jcrois pas à Mohamed Merah Le regard rouge, dissimulé sous la New Era On sait qui nous fait naître, on sait pas qui nous enterra On combat lautorité, David contre Goliath Alonz, on sait plus qui est qui, on devient paranoïaque M.O.Hache de guerre, comme Chantal Goya Aya, jmets le faya pour mes khouyas débrouillards Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant2</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa On a d'la mala, d'la mala, mala, mala Les p'tites, ça les rend malades, tu devrais tenir ta nana On tiendra jusqu'à mañana, en fumette dans le van Sur la tête à pépé, c't'année, on va tout péter Et Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ouais, Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa You might also like J'suis dans la zone, d'la frappe dans les Airpods La cke-bla dans la poche, d'la moula dans la sacoche Le frérot qui sort de taule, ramène-lui deux-trois folles Ouais, frérot, c'est carré, ce soir, on va tout casser Elle t'a quitté, c'est dommage, trop de pigeonnage Il a rayé sa Rolex, il s'est mangé en T-MAX Ouais, Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa1</t>
+          <t>Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa On a d'la mala, d'la mala, mala, mala Les p'tites, ça les rend malades, tu devrais tenir ta nana On tiendra jusqu'à mañana, en fumette dans le van Sur la tête à pépé, c't'année, on va tout péter Et Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ouais, Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa J'suis dans la zone, d'la frappe dans les Airpods La cke-bla dans la poche, d'la moula dans la sacoche Le frérot qui sort de taule, ramène-lui deux-trois folles Ouais, frérot, c'est carré, ce soir, on va tout casser Elle t'a quitté, c'est dommage, trop de pigeonnage Il a rayé sa Rolex, il s'est mangé en T-MAX Ouais, Soso a eu son bac, psartek la Famax Sors-lui un violet, un survêt', une paire d'Air Max Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa Ça charbonne toute l'année, faut faire d'la moula Frérot, c'est carré, swag tah Little Havana Gros, j'suis mal garé, c'est la rue à baba À 200 sur l'Jarret, on s'donne rendez-vous chez Wawa1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oriental dream Yeah, LAlgérino Oriental dream x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, petite cannette Sweety En 4x4 ou en Mini cest lAlgérino habibti Jpose à la heneni trop de swag hamsa fehenik Écartez vous du milieu jsuis avec le prince tminik Jsuis charmant ma chérie, jsuis un très bon parti Jles fais toutes rêver, elles veulent faire le hlel et la mairie Dans ma tête cest lAmérique, lève toi quand jatterris Et diggy, diggy, diggy, jvais tfaire danser comme un Chaoui x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Cortège de gros bolides, rien quça klaxonne Audi R8, Lamborghini, Aston Tas zyeuté une mignonne, ta loc tu la cartonnes Dis au revoir à ta caution, khoya cest pour ta pomme Wech lark baby baby hebi tflexi flexi wili wili hebltini chefti woujek fi la tili Jsuis posé en Kabylie, jveux faire des millis, millis Willy, Willy, easy, easy, jte fais danser x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Et jveux voir toutes les mains en lair Et diggy, diggy, digsa mère x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beliYou might also like</t>
+          <t>Oriental dream Yeah, LAlgérino Oriental dream x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, petite cannette Sweety En 4x4 ou en Mini cest lAlgérino habibti Jpose à la heneni trop de swag hamsa fehenik Écartez vous du milieu jsuis avec le prince tminik Jsuis charmant ma chérie, jsuis un très bon parti Jles fais toutes rêver, elles veulent faire le hlel et la mairie Dans ma tête cest lAmérique, lève toi quand jatterris Et diggy, diggy, diggy, jvais tfaire danser comme un Chaoui x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Cortège de gros bolides, rien quça klaxonne Audi R8, Lamborghini, Aston Tas zyeuté une mignonne, ta loc tu la cartonnes Dis au revoir à ta caution, khoya cest pour ta pomme Wech lark baby baby hebi tflexi flexi wili wili hebltini chefti woujek fi la tili Jsuis posé en Kabylie, jveux faire des millis, millis Willy, Willy, easy, easy, jte fais danser x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Et jveux voir toutes les mains en lair Et diggy, diggy, digsa mère x2 Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli Eh diggy, diggy, diggy, ya delali Eh diggy, diggy, diggy, ti fi beli</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Je te sens bizarre, qu'est-ce qui t'arrive ? Pourquoi tu me fais cette tête denterrement ? Suis mon regarde, pourquoi tu m'esquives ? Toi qui disait m'aimer tellement Tu me dévisages comme un inconnu A croire que tu n'as plus de sentiment A mes messages tu ne réponds plus Mais qu'est-ce que sa veux dire ? Et on sétait promis la belle vie, ya omri Je te suis, toi tu me fuis C'est comme si, il n'y avait plus de magie Elle ma laissé tomber x5 Mais je vais me relevé J'ai des images quand je pense à cette fille J'ai l'impression de mettre mis dedans Elle me rends fou je l'avait sentis.. Que ce nétait pas la bonne Mon ami m'avait dit, pas cette fille Faut que tu oublies Elle fait plein de manis, des chichis, ta gadji Tu cavales les gucci, buscemi, la grande vie Je comprends plus cette fille, c'est fini Et tant pis You might also like Elle ma laissé tomber x5 Mais je vais me relevé x2 Oh waye waye waye waye yedi Oh waye waye waye waye yedi Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Elle ma laissé tomber x6 Mais je vais me relevé Elle ma laissé tomber Je vais la zaper Je vais l'oublié J'ai mes millions de côté Elle ma laissé tomber Mais je vais me relevé</t>
+          <t>Je te sens bizarre, qu'est-ce qui t'arrive ? Pourquoi tu me fais cette tête denterrement ? Suis mon regarde, pourquoi tu m'esquives ? Toi qui disait m'aimer tellement Tu me dévisages comme un inconnu A croire que tu n'as plus de sentiment A mes messages tu ne réponds plus Mais qu'est-ce que sa veux dire ? Et on sétait promis la belle vie, ya omri Je te suis, toi tu me fuis C'est comme si, il n'y avait plus de magie Elle ma laissé tomber x5 Mais je vais me relevé J'ai des images quand je pense à cette fille J'ai l'impression de mettre mis dedans Elle me rends fou je l'avait sentis.. Que ce nétait pas la bonne Mon ami m'avait dit, pas cette fille Faut que tu oublies Elle fait plein de manis, des chichis, ta gadji Tu cavales les gucci, buscemi, la grande vie Je comprends plus cette fille, c'est fini Et tant pis Elle ma laissé tomber x5 Mais je vais me relevé x2 Oh waye waye waye waye yedi Oh waye waye waye waye yedi Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Elle ma laissé tomber x6 Mais je vais me relevé Elle ma laissé tomber Je vais la zaper Je vais l'oublié J'ai mes millions de côté Elle ma laissé tomber Mais je vais me relevé</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Tireur de Coup franc spécialisé enveloppé dans la lucarne Le pied gauche à Adriano et le pied droit à Beckham Raconte pas tes histoires, cesse de mitonner Tout le monde te connais t'es cramé tes crochets sont téléphonés! yeahhh Zerma tu baises t'as du pèse ? Tu roules en grosse Ferrari tu oublies qu'on t'as prêté la caisse ! Tu vis au crochet du grand frère, lui il fait des sous! Détends-toi, reste sur terre, toi tu ne vaux pas un clou ! Zerma t'es gros, zerma tu vends le chit en gros Mais ça fait plus de 10 mois que tu me dois 50 euros ! Zerma tu es chaud, et tu fais le vaillant, la dernière fois qu'il y avait embrouille tu t'es taillé en cavalant ! tafiole! Zerma tu es frais, tu es fluide, et tu as beaucoup de ronds! Mais tu tu bébébéguéguaye quand il faut payer l'addition ! Zerma tu dis à tout le monde que tu es sorti avec elle, tu l'as même pas touché tu lui fais une réputation de chienne !!! You might also likeREFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Et yo ! Zerma tu rappes, tu soulèves des altères ! Les minots te font la misère, balayette à coup de pied par terre ! A la télé tu fais le fier Dans le ter-ter tu n'es qu'une autruche ! Tête baissée, froc baissé, avec un micro dans l'anus ! Zerma tu fais la fille bien, hallal W, il sort la liasse tu mouilles direct le cuir du BMW ! Rien que tu te fais soulever, dans tous les quartiers t'es cramé ! Tu veux cacher tes dossiers pour essayer d'te marier Zerma tu sappes la race mais tu ne fais que coffrer Dernière sappe, les poches vides, pas de quoi payer un café Au resto tu part aux toilettes, quand il s'agit de payer ! T'as oublié ton porte-monnaie, ouais tout le monde l'a connait ! Elle a 25 ans, méchant appartement, zerma c'est la fille la plus côté du département! Lunettes Prada, Smart, Casa, woula de la bombe khoya Je l'ai rencontré au Dallas gros ! Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Zerma tu es plein de connaissances et tu es plein d'affaires! Tu as vendus 2-3 portables tu te prends pour un homme d'affaires! Parait que tu connais du monde, tu connais un tel et un tel ! Tu es devenu tout rouge, t'as bégayé quand je t'ai passé au tel ! Ohhh il est où Hamou ? Il est parti aux Etats-Unis, avec deux-trois potos à lui, sous le soleil de Miami ! Putain, arrête tes mitos ! J'ai sonné chez lui, sa mère m'a ditHa Samir , wouldi il est parti en kabylie hein! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Espèce de tireur de coup franc ! Tu es un gros mythomane tu crois qu'on le sais pas ça ou quoi? Ahhh on sait que tu te reconnais quand tu écoutes ce morceau la famille ! Ca raconte les histoires, ahh les histoires ! Toujours, toujours ! Ce soir les rappeurs qui disent que c'est des voyous ! Les politiciens. On attend toujours le pouvoir d'achat...moins cher ! Ce soir les mecs, les filles, dans la vie normale, il y a toujours des gros mythomanes, des gros tireurs de coups francs ! L'Algérino! Marseille !</t>
+          <t>Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Tireur de Coup franc spécialisé enveloppé dans la lucarne Le pied gauche à Adriano et le pied droit à Beckham Raconte pas tes histoires, cesse de mitonner Tout le monde te connais t'es cramé tes crochets sont téléphonés! yeahhh Zerma tu baises t'as du pèse ? Tu roules en grosse Ferrari tu oublies qu'on t'as prêté la caisse ! Tu vis au crochet du grand frère, lui il fait des sous! Détends-toi, reste sur terre, toi tu ne vaux pas un clou ! Zerma t'es gros, zerma tu vends le chit en gros Mais ça fait plus de 10 mois que tu me dois 50 euros ! Zerma tu es chaud, et tu fais le vaillant, la dernière fois qu'il y avait embrouille tu t'es taillé en cavalant ! tafiole! Zerma tu es frais, tu es fluide, et tu as beaucoup de ronds! Mais tu tu bébébéguéguaye quand il faut payer l'addition ! Zerma tu dis à tout le monde que tu es sorti avec elle, tu l'as même pas touché tu lui fais une réputation de chienne !!! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Et yo ! Zerma tu rappes, tu soulèves des altères ! Les minots te font la misère, balayette à coup de pied par terre ! A la télé tu fais le fier Dans le ter-ter tu n'es qu'une autruche ! Tête baissée, froc baissé, avec un micro dans l'anus ! Zerma tu fais la fille bien, hallal W, il sort la liasse tu mouilles direct le cuir du BMW ! Rien que tu te fais soulever, dans tous les quartiers t'es cramé ! Tu veux cacher tes dossiers pour essayer d'te marier Zerma tu sappes la race mais tu ne fais que coffrer Dernière sappe, les poches vides, pas de quoi payer un café Au resto tu part aux toilettes, quand il s'agit de payer ! T'as oublié ton porte-monnaie, ouais tout le monde l'a connait ! Elle a 25 ans, méchant appartement, zerma c'est la fille la plus côté du département! Lunettes Prada, Smart, Casa, woula de la bombe khoya Je l'ai rencontré au Dallas gros ! Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Zerma tu es plein de connaissances et tu es plein d'affaires! Tu as vendus 2-3 portables tu te prends pour un homme d'affaires! Parait que tu connais du monde, tu connais un tel et un tel ! Tu es devenu tout rouge, t'as bégayé quand je t'ai passé au tel ! Ohhh il est où Hamou ? Il est parti aux Etats-Unis, avec deux-trois potos à lui, sous le soleil de Miami ! Putain, arrête tes mitos ! J'ai sonné chez lui, sa mère m'a ditHa Samir , wouldi il est parti en kabylie hein! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Espèce de tireur de coup franc ! Tu es un gros mythomane tu crois qu'on le sais pas ça ou quoi? Ahhh on sait que tu te reconnais quand tu écoutes ce morceau la famille ! Ca raconte les histoires, ahh les histoires ! Toujours, toujours ! Ce soir les rappeurs qui disent que c'est des voyous ! Les politiciens. On attend toujours le pouvoir d'achat...moins cher ! Ce soir les mecs, les filles, dans la vie normale, il y a toujours des gros mythomanes, des gros tireurs de coups francs ! L'Algérino! Marseille !</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Sur la tête de ma mère Yéhéhé Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Ah Salamalékoum mes frères et mes sistah Toujours le sourire non ne plie pas, ne casse pas On nous bassine trop avec Sarko et Carla Pendant que l'Afrique saigne d'un sang rouge écarlate Yéhéhé on vit une saleté d'époque Ca saigne dans les 4 coins du globe Donc j'lève mon verre à la santé d'la Terre Mon Dieu que le monde souffre sur la tête de ma mère Mon frère faut de l'or, ma soeur faut de l'or Ils nous voient comme d'la chair, il pleut des obus dehors La liberté un trésor, reggae dans la golf Le poing serré et fier comme dit bob one love You might also like Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Je demande trois minutes de reggae, pour les frères disparus Pour la jeunesse du monde qui manifeste dans la rue Le combat continue et il s'annonce terrible Le diable nous charme et prend la forme de Katy Perry Comme ça tue un arbi qui chante du reggae Ca c'est pour les frangins enfermés de Marseille a Paname La Terre tremble peut-être la tectonique des plaques Peut-être le châtiment pour avoir oppressé mes frères blacks Oh Marine, on aura ta peau On formera un seul coeur, un seul corps un seul drapeau Message de la France d'en bas pour la France d'en haut Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir2</t>
+          <t>Yeah, yeah, yeah Sur la tête de ma mère Yéhéhé Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Ah Salamalékoum mes frères et mes sistah Toujours le sourire non ne plie pas, ne casse pas On nous bassine trop avec Sarko et Carla Pendant que l'Afrique saigne d'un sang rouge écarlate Yéhéhé on vit une saleté d'époque Ca saigne dans les 4 coins du globe Donc j'lève mon verre à la santé d'la Terre Mon Dieu que le monde souffre sur la tête de ma mère Mon frère faut de l'or, ma soeur faut de l'or Ils nous voient comme d'la chair, il pleut des obus dehors La liberté un trésor, reggae dans la golf Le poing serré et fier comme dit bob one love Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Je demande trois minutes de reggae, pour les frères disparus Pour la jeunesse du monde qui manifeste dans la rue Le combat continue et il s'annonce terrible Le diable nous charme et prend la forme de Katy Perry Comme ça tue un arbi qui chante du reggae Ca c'est pour les frangins enfermés de Marseille a Paname La Terre tremble peut-être la tectonique des plaques Peut-être le châtiment pour avoir oppressé mes frères blacks Oh Marine, on aura ta peau On formera un seul coeur, un seul corps un seul drapeau Message de la France d'en bas pour la France d'en haut Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir2</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Elle est celle qui m'a porté neuf mois dans ses entrailles La seule femme qui porte pour moi un amour sans failles Celle qui m'a vu pleurer pour la première fois Celle qui m'a couvé, changé les couches, couvert quand j'avais froid Celle qui m'a vu faire mes premiers pas Celle qui a entendu le premier mot sortir de ma bouche Yama Aucune phrase ne peut définir une créature aussi belle Son regard est plus étincelant qu'une étoile dans le ciel Celle qui surgit tel un oasis dans le désert Rien n'est plus confortable que le cur d'une mère La chair de ma chair, celle qu'est fière quand je réussis Le paradis est à ses pied, la combler sera ma réussite Dire que je t'ai causé tant de tracas, tant de soucis Puisse Dieu, pardonner ton fils omri L'amour d'une mère, l'ingratitude d'un enfant Parait que je connaitrai ta valeur que quand j'aurais des enfants Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère You might also likeElle est celle qui me conseille malgré son jeune âge J'ai lu dans son regard, aujourd'hui c'est devenu une femme Celle pour qui je donnerais ma vie et vice versa Je t'ai vue dans un berceau, je t'ai même cajolée dans mes bras Je t'ai même changé les couches, c'est fou comme le temps passe Celle qui me console quand mon cur était dans l'impasse Dur fut ton combat, tu portes le hijab de ton plein gré Ni père ni mère, t'a obligé à le porter Celle qui a la télé entrée tard à limer Je t'ai vue souffrir, partir en courant, lever le foulard le cur serré Celle qui me dit grand frère, surveille tes écrits Les petits frères t'écoutent en boucle, soigne ton langage et tes dires Ma sur, je te dédie ses quelques mesures Je sais que tu partiras un jour te marier à ton tour J'espère que tu tomberas sur l'homme qui te mérite J'en suis déjà jaloux Ton futur mari sera tombé sur un bijou Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Elle est celle qui a su me comprendre, qui a su m'accepter Malgré mes milliards de défauts, elle voit qu'en moi des qualités Des femmes, j'ai été écuré, j'ai sombré dans la haine C'est celle qui m'a ouvert son cur et j'ai réappris à aimer Celle qui m'a fait comprendre que les fleurs sont pas qu'à faner Le meilleur compromis entre l'amour et l'amitié Celle qui est ma moitié, sur celle sur qui je peux compter Celle qui est folle de Samir et qui en a rien à foutre de L'Alger' Celle qui me donnerait tout sans attendre rien en retour Mon rayon de soleil quand je suis dans les ténèbres en bas des tours Celle que j'appelle et qui est déjà en train de m'appeler Moi est ma belle m'amène, on s'aiment doublement en double appel Le mariage, c'est la moitié de la foi Parait qu'on peut être heureux en couple sans or et cent fois Sanctuaire de la procréation Tu portes peut-être mon enfant dans tes entrailles, j'en ai déjà des frissons Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Trinité</t>
+          <t>Elle est celle qui m'a porté neuf mois dans ses entrailles La seule femme qui porte pour moi un amour sans failles Celle qui m'a vu pleurer pour la première fois Celle qui m'a couvé, changé les couches, couvert quand j'avais froid Celle qui m'a vu faire mes premiers pas Celle qui a entendu le premier mot sortir de ma bouche Yama Aucune phrase ne peut définir une créature aussi belle Son regard est plus étincelant qu'une étoile dans le ciel Celle qui surgit tel un oasis dans le désert Rien n'est plus confortable que le cur d'une mère La chair de ma chair, celle qu'est fière quand je réussis Le paradis est à ses pied, la combler sera ma réussite Dire que je t'ai causé tant de tracas, tant de soucis Puisse Dieu, pardonner ton fils omri L'amour d'une mère, l'ingratitude d'un enfant Parait que je connaitrai ta valeur que quand j'aurais des enfants Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Elle est celle qui me conseille malgré son jeune âge J'ai lu dans son regard, aujourd'hui c'est devenu une femme Celle pour qui je donnerais ma vie et vice versa Je t'ai vue dans un berceau, je t'ai même cajolée dans mes bras Je t'ai même changé les couches, c'est fou comme le temps passe Celle qui me console quand mon cur était dans l'impasse Dur fut ton combat, tu portes le hijab de ton plein gré Ni père ni mère, t'a obligé à le porter Celle qui a la télé entrée tard à limer Je t'ai vue souffrir, partir en courant, lever le foulard le cur serré Celle qui me dit grand frère, surveille tes écrits Les petits frères t'écoutent en boucle, soigne ton langage et tes dires Ma sur, je te dédie ses quelques mesures Je sais que tu partiras un jour te marier à ton tour J'espère que tu tomberas sur l'homme qui te mérite J'en suis déjà jaloux Ton futur mari sera tombé sur un bijou Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Elle est celle qui a su me comprendre, qui a su m'accepter Malgré mes milliards de défauts, elle voit qu'en moi des qualités Des femmes, j'ai été écuré, j'ai sombré dans la haine C'est celle qui m'a ouvert son cur et j'ai réappris à aimer Celle qui m'a fait comprendre que les fleurs sont pas qu'à faner Le meilleur compromis entre l'amour et l'amitié Celle qui est ma moitié, sur celle sur qui je peux compter Celle qui est folle de Samir et qui en a rien à foutre de L'Alger' Celle qui me donnerait tout sans attendre rien en retour Mon rayon de soleil quand je suis dans les ténèbres en bas des tours Celle que j'appelle et qui est déjà en train de m'appeler Moi est ma belle m'amène, on s'aiment doublement en double appel Le mariage, c'est la moitié de la foi Parait qu'on peut être heureux en couple sans or et cent fois Sanctuaire de la procréation Tu portes peut-être mon enfant dans tes entrailles, j'en ai déjà des frissons Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Trinité</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La vie cest marche ou crève Blasé je marche seul Ton amitié dans un sac poubelle Touche à ma famille je te baise Une seule femme que jaime Une autre femme qui saime Une qui ma donné le sein Lautre qui pleure pour son sac à main Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Mama ma éduquée, la rue ma égarée Je traine avec des têtes cramés Si jétais un enculé ça se saurait Jai envie de menvoler, mais je porte le poids de mes pêchés Jai peur du retour de flamme Mama je suis pas le fils dont tas rêvé Mama je sais plus ou aller Mama je suis perdu je sais plus à qui me confier Mama je parle tout seul ils me prennent pour un taré Jai rêvé que le paradis était sous tes pieds You might also like Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Hey, désolé mama Hey, désolé mama Hey, désolé mama Hey, désolé mama Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes1</t>
+          <t>La vie cest marche ou crève Blasé je marche seul Ton amitié dans un sac poubelle Touche à ma famille je te baise Une seule femme que jaime Une autre femme qui saime Une qui ma donné le sein Lautre qui pleure pour son sac à main Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Mama ma éduquée, la rue ma égarée Je traine avec des têtes cramés Si jétais un enculé ça se saurait Jai envie de menvoler, mais je porte le poids de mes pêchés Jai peur du retour de flamme Mama je suis pas le fils dont tas rêvé Mama je sais plus ou aller Mama je suis perdu je sais plus à qui me confier Mama je parle tout seul ils me prennent pour un taré Jai rêvé que le paradis était sous tes pieds Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Hey, désolé mama Hey, désolé mama Hey, désolé mama Hey, désolé mama Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Les gens me parle de la rue Moi j'y ai vécu et j'ai tout perdu Chaque jour que Dieu fait Je me lève avec pleins de regrets Et je porte cette trace Que même le temps ne pourra effacer J'ai fait souffrir ma mère Que Dieu me pardonne, elle a vieilli avant l'age C'est vrai j'ai fait de l'argent Mais à quel prix j'ai fait couler le sang La prison c'est la merde Et dehors c'est la mort Crois moi la rue ça a rien de glorieux mon frère L'an dernier j'ai même enterré mon petit frère Que Dieu nous pardonne et nous guide Tu as tout juste 15 ans, tu es dans une famille nombreuse Tu vois le daron bosser dur pour remplir le frigo Tu as grandi dans un quartier Pour toi c'est les mêmes saisons Tu ne vois que du béton des grands roulés des bédos Tu as rien à foutre de l'école pourtant pas plus con qu'un autre Collectionne les heures de colles au lieu de ramener des bonnes notes La daronne s'fait du souci Elle a déjà vu ton grand frère tomber pour des conneries Vendre des barrettes de shit Peur de voir le même schéma se reproduire Elle te fait la morale jour et nuit pour t'éviter le pire Mais toi tu as la tête dure, tu dis maman t'inquiètes pas J'ai intérêt de marcher droit, j'ai peur des roustes de Papa Tu traines avec tes amis d'enfance comme tes frangins Tu as de l'intérêt que pour le foot et les gros engins Tu fais la prière et tu as peur du bon Dieu Tu es un jeune sans histoire et tu as le respect des grands frères Mais les grands frères se font des sous et les sous ça rend fou Toi aussi il te faut du flouze pour t'acheter les dernières shoes Tu t'mets à faire des p'tis coups, des p'tis trucs de p'tit con Des arrachés de sac à des vieilles qui n'ont que 6 sous Des vieilles qui peuvent être ta mère, ça tu n'en as rien à braire Tu fumes ta première cigarette et bois ta première bière Tu as arrêter la prière, tu commences à faire le fier Tu te mets à tenir les blocs, le quartier devient ton fief 18 piges tu commences à avoir des pulsions Attiré par les gazelles et les gazelles te trouvent mignon Fashion, tu as la crête, gel sur la tête Tu travailles les pecs la famille, le fameux bsahtek Ton répertoire est plein de gadji des biens, des khemja Tu fais plus la différence entre les filles biens et les filles d'joie Manque de peau, tu tombes sur une fille qui a beaucoup de vice Au lit c'est l'extase te fait gouter aux premiers délices T'enchaines les délits, tu veux la mettre à l'aise ELLE Tu pars au charbon et comme Laouni tu tombais pour elle Premier séjour en prison, le père au parloir Tu en as des frissons, tu gamberges, tu en dors plus le soir T'enchaines les pétards, anesthésie mentale Tu ressors de cage comme un zombie Les yeux rouges et les doigts jaunis You might also likeRetour à la case départ Retour à la casa Atmosphère électrique c'est la guerre comme à Gaza Tu respectes plus ton père, tu cries sur ta mère Sur ta sur dehors ta dulcinée te fait la misère La daronne ne dort plus, elle a des ulcères Ce mal qu'elle intériorise se transforme même en cancer Premier choc tu la vois à l'hosto sous chimiothérapie Tu as de la peine et tu en veux à la vie Même sur son lit d'hôpital elle pense à toi Soucieuse de ton futur et de ce que tu adviendras Épreuves sur épreuves même ton père perd son boulot Plus de fric à la baraque et tu veux écouler des kilos de shit En équipe, ça s'organise en réseau Rencontre un gros caïd qui t'avancera du liquide Survet', sacoche Lacoste, et paire de requin Tu es qu'un petit poisson dans un milieu de requins Arme à la main tu fais le voyou Mais tu es que le tapin d'un gros voyou Tu as beaucoup de fric mais aussi beaucoup de jaloux Les premiers à baiser ta femme quand tu te fais écrouer Les mêmes qui déboulent en moto cagoulés pour te fumer C'est la loi du métier d'ailleurs dans une fusillade Tu perds ton meilleur ami et tu te mets à gamberger Tu penses à te retirer mais la fierté te retient Recherché tu pars en Espagne avec le butin Tu vis la vie de rêve, les belles villas à Marbella Tu te vides sur les belles signora de la Jonchera De temps en temps tu prends des nouvelles de ta famille Le grand frère s'est rangé et taffe, et ta mère en est ravie Il a même embrassé l'Islam et porte la Sunna Veut envoyer les parents à la Mecque et à Médina Dès que t'entends ça c'est le déclic ton cur s'ouvre Marre de ce vice tu te rends compte que tu souffres Tu repars à Marseille les accueillir à leur retour Aéroport de Marignane, les anges sont de retour Les pèlerins sont vêtus de blanc, visages illuminés Ta mère te sert dans ses bras, tu ressens de la piété Tu as des frissons dans le corps, tu as des regrets dans le cur Tu demandes pardon à ton père et tu embrasses ta petite sur Tu regardes ton frangin tu dis qu'est-ce qu'il a changé, c'est devenu un mec bien Tu as envie de lui ressembler, stopper cette vie malsaine, tu fais le bilan La cavale ça coute cher et tu as claqué tout ton argent Toutes ces années de charbon, de risques, de pression Est-ce que ça valait le coup donc tu te remets en question Tu as envie de changer, tu décides de te ranger Mais des mecs avec qui tu as eu des litiges veulent se venger Mais le temps passe les gens te voient plus de la même façon Les rancunes s'effacent, Dieu guide qui il veut de toute façon Et ouais l'Algé tu as raison mon frère Y'a toujours une issue Moi j'ai fait de la prison J'ai pas supporté j'ai pété les plombs 12 ans d'hôpital psychiatrique Pour avoir été mal compris Mais hamdoullah aujourd'hui je m'y remets petit à petit Tant qu'y a de la vie y' a de l'espoir Et tant qui y' a de l'espoir Il y est toujours possible de sortir de ce trou noir PEACE1</t>
+          <t>Les gens me parle de la rue Moi j'y ai vécu et j'ai tout perdu Chaque jour que Dieu fait Je me lève avec pleins de regrets Et je porte cette trace Que même le temps ne pourra effacer J'ai fait souffrir ma mère Que Dieu me pardonne, elle a vieilli avant l'age C'est vrai j'ai fait de l'argent Mais à quel prix j'ai fait couler le sang La prison c'est la merde Et dehors c'est la mort Crois moi la rue ça a rien de glorieux mon frère L'an dernier j'ai même enterré mon petit frère Que Dieu nous pardonne et nous guide Tu as tout juste 15 ans, tu es dans une famille nombreuse Tu vois le daron bosser dur pour remplir le frigo Tu as grandi dans un quartier Pour toi c'est les mêmes saisons Tu ne vois que du béton des grands roulés des bédos Tu as rien à foutre de l'école pourtant pas plus con qu'un autre Collectionne les heures de colles au lieu de ramener des bonnes notes La daronne s'fait du souci Elle a déjà vu ton grand frère tomber pour des conneries Vendre des barrettes de shit Peur de voir le même schéma se reproduire Elle te fait la morale jour et nuit pour t'éviter le pire Mais toi tu as la tête dure, tu dis maman t'inquiètes pas J'ai intérêt de marcher droit, j'ai peur des roustes de Papa Tu traines avec tes amis d'enfance comme tes frangins Tu as de l'intérêt que pour le foot et les gros engins Tu fais la prière et tu as peur du bon Dieu Tu es un jeune sans histoire et tu as le respect des grands frères Mais les grands frères se font des sous et les sous ça rend fou Toi aussi il te faut du flouze pour t'acheter les dernières shoes Tu t'mets à faire des p'tis coups, des p'tis trucs de p'tit con Des arrachés de sac à des vieilles qui n'ont que 6 sous Des vieilles qui peuvent être ta mère, ça tu n'en as rien à braire Tu fumes ta première cigarette et bois ta première bière Tu as arrêter la prière, tu commences à faire le fier Tu te mets à tenir les blocs, le quartier devient ton fief 18 piges tu commences à avoir des pulsions Attiré par les gazelles et les gazelles te trouvent mignon Fashion, tu as la crête, gel sur la tête Tu travailles les pecs la famille, le fameux bsahtek Ton répertoire est plein de gadji des biens, des khemja Tu fais plus la différence entre les filles biens et les filles d'joie Manque de peau, tu tombes sur une fille qui a beaucoup de vice Au lit c'est l'extase te fait gouter aux premiers délices T'enchaines les délits, tu veux la mettre à l'aise ELLE Tu pars au charbon et comme Laouni tu tombais pour elle Premier séjour en prison, le père au parloir Tu en as des frissons, tu gamberges, tu en dors plus le soir T'enchaines les pétards, anesthésie mentale Tu ressors de cage comme un zombie Les yeux rouges et les doigts jaunis Retour à la case départ Retour à la casa Atmosphère électrique c'est la guerre comme à Gaza Tu respectes plus ton père, tu cries sur ta mère Sur ta sur dehors ta dulcinée te fait la misère La daronne ne dort plus, elle a des ulcères Ce mal qu'elle intériorise se transforme même en cancer Premier choc tu la vois à l'hosto sous chimiothérapie Tu as de la peine et tu en veux à la vie Même sur son lit d'hôpital elle pense à toi Soucieuse de ton futur et de ce que tu adviendras Épreuves sur épreuves même ton père perd son boulot Plus de fric à la baraque et tu veux écouler des kilos de shit En équipe, ça s'organise en réseau Rencontre un gros caïd qui t'avancera du liquide Survet', sacoche Lacoste, et paire de requin Tu es qu'un petit poisson dans un milieu de requins Arme à la main tu fais le voyou Mais tu es que le tapin d'un gros voyou Tu as beaucoup de fric mais aussi beaucoup de jaloux Les premiers à baiser ta femme quand tu te fais écrouer Les mêmes qui déboulent en moto cagoulés pour te fumer C'est la loi du métier d'ailleurs dans une fusillade Tu perds ton meilleur ami et tu te mets à gamberger Tu penses à te retirer mais la fierté te retient Recherché tu pars en Espagne avec le butin Tu vis la vie de rêve, les belles villas à Marbella Tu te vides sur les belles signora de la Jonchera De temps en temps tu prends des nouvelles de ta famille Le grand frère s'est rangé et taffe, et ta mère en est ravie Il a même embrassé l'Islam et porte la Sunna Veut envoyer les parents à la Mecque et à Médina Dès que t'entends ça c'est le déclic ton cur s'ouvre Marre de ce vice tu te rends compte que tu souffres Tu repars à Marseille les accueillir à leur retour Aéroport de Marignane, les anges sont de retour Les pèlerins sont vêtus de blanc, visages illuminés Ta mère te sert dans ses bras, tu ressens de la piété Tu as des frissons dans le corps, tu as des regrets dans le cur Tu demandes pardon à ton père et tu embrasses ta petite sur Tu regardes ton frangin tu dis qu'est-ce qu'il a changé, c'est devenu un mec bien Tu as envie de lui ressembler, stopper cette vie malsaine, tu fais le bilan La cavale ça coute cher et tu as claqué tout ton argent Toutes ces années de charbon, de risques, de pression Est-ce que ça valait le coup donc tu te remets en question Tu as envie de changer, tu décides de te ranger Mais des mecs avec qui tu as eu des litiges veulent se venger Mais le temps passe les gens te voient plus de la même façon Les rancunes s'effacent, Dieu guide qui il veut de toute façon Et ouais l'Algé tu as raison mon frère Y'a toujours une issue Moi j'ai fait de la prison J'ai pas supporté j'ai pété les plombs 12 ans d'hôpital psychiatrique Pour avoir été mal compris Mais hamdoullah aujourd'hui je m'y remets petit à petit Tant qu'y a de la vie y' a de l'espoir Et tant qui y' a de l'espoir Il y est toujours possible de sortir de ce trou noir PEACE1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>- Eh, mira, mira, mira, tu passes à côté de quelque chose là ! Tu louches ou quoi ? - Donne-moi une blonde, le sang - Oyé, Sapapaya, ça vous dirait un icecream avec mon ami et moi ? Les gros illégaux, RS6, kilos d'coke au port, autonome Calibré dans l'carré, sa mère un biopic C'est la street, enculé, comme une R19 sur la tirette du Crédit Agricole On fait des millions, pas d'patron, les frères avocats ou narco' On baise les juges et les matons, on fait du biff, on parle pas trop Les cartes, on les mélange dans les cartons Le son des marioles, de la Savine à la Cayolle BM M4, quatre sons de voyous dans la bagnole Ça sort le FAMAS pour la famax C'est Johnny Hama, équipé comme le Hamas À l'époque, le visio' nous avait pointé On a racheté la boîte evidamente Et ouais, ma race, on a le son qui arrache Tu veux jouer à la vache, mets pas ton nez dans la mâche Dans l'son, j'arrive comme Omar dans The Wire On veut la Champion's League comme l'OM et le Bayern Mon son dans le Cayenne S, j'suis avec le L et le S Mode S, il percute, Ali Boumayé Ça veut des Lambo, des Rolex, des T-Max, des follax, des parlux aux Baumettes Un peu d'haine comme Polak, les problèmes on connaît Ter-ter abonné, on menace pas, on promet, à jamais les premiers You might also like Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Cagoulé comme dans Heat Heat, prêt si y a un convoi espagnol, y a des écuries dans les bagnoles RS3, la bandite, le son d'l'arrière boutique, ça fait danser les schmitts Appels de phares sur la voix d'gauche, à la recherche d'un riche Monégasque Extorsion d'fond, les espoirs sont au fond du sac dans l'fourgon, on vit à trois cent pour cent, Class A C'est Marseille, c'est pas Miami, on s'en bat les couilles d'Tony et Manny Millionnaire mais j'traîne à l'alim', flow de Qatari, j'fais des safaris, ouais, on est refait depuis l'époque de l'Atari Ça fait des doublettes comme en Thaïlande, j'suis à Phuket, Johnny Island Petite coupette, champagne, petite choupette, on est sous pét', oui ma choupette, force pas tout en souplesse Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night Ça fume la frappe, ça fume la frappe C'est incroyable, mec Alors Guy, alors Ça fume la frappe, ça fume la frappe Incroyable, mec, ah, ah, ah, ah, ah Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça dit quoi dans la zone, zone, zone ? Eh, eh L'Algé', SCH, Ju-Ju-JuL, Skalpovich1</t>
+          <t>- Eh, mira, mira, mira, tu passes à côté de quelque chose là ! Tu louches ou quoi ? - Donne-moi une blonde, le sang - Oyé, Sapapaya, ça vous dirait un icecream avec mon ami et moi ? Les gros illégaux, RS6, kilos d'coke au port, autonome Calibré dans l'carré, sa mère un biopic C'est la street, enculé, comme une R19 sur la tirette du Crédit Agricole On fait des millions, pas d'patron, les frères avocats ou narco' On baise les juges et les matons, on fait du biff, on parle pas trop Les cartes, on les mélange dans les cartons Le son des marioles, de la Savine à la Cayolle BM M4, quatre sons de voyous dans la bagnole Ça sort le FAMAS pour la famax C'est Johnny Hama, équipé comme le Hamas À l'époque, le visio' nous avait pointé On a racheté la boîte evidamente Et ouais, ma race, on a le son qui arrache Tu veux jouer à la vache, mets pas ton nez dans la mâche Dans l'son, j'arrive comme Omar dans The Wire On veut la Champion's League comme l'OM et le Bayern Mon son dans le Cayenne S, j'suis avec le L et le S Mode S, il percute, Ali Boumayé Ça veut des Lambo, des Rolex, des T-Max, des follax, des parlux aux Baumettes Un peu d'haine comme Polak, les problèmes on connaît Ter-ter abonné, on menace pas, on promet, à jamais les premiers Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Cagoulé comme dans Heat Heat, prêt si y a un convoi espagnol, y a des écuries dans les bagnoles RS3, la bandite, le son d'l'arrière boutique, ça fait danser les schmitts Appels de phares sur la voix d'gauche, à la recherche d'un riche Monégasque Extorsion d'fond, les espoirs sont au fond du sac dans l'fourgon, on vit à trois cent pour cent, Class A C'est Marseille, c'est pas Miami, on s'en bat les couilles d'Tony et Manny Millionnaire mais j'traîne à l'alim', flow de Qatari, j'fais des safaris, ouais, on est refait depuis l'époque de l'Atari Ça fait des doublettes comme en Thaïlande, j'suis à Phuket, Johnny Island Petite coupette, champagne, petite choupette, on est sous pét', oui ma choupette, force pas tout en souplesse Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night Ça fume la frappe, ça fume la frappe C'est incroyable, mec Alors Guy, alors Ça fume la frappe, ça fume la frappe Incroyable, mec, ah, ah, ah, ah, ah Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça dit quoi dans la zone, zone, zone ? Eh, eh L'Algé', SCH, Ju-Ju-JuL, Skalpovich1</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah You might also like Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
+          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'comprend pas, tout a changé On s'comporte tous les deux comme deux étrangers Fini le temps où on échangeait Amour et haine se sont mélangés Sèches tes larmes, essuie ton rimmel Puisque notre amour est éternel Donnons un sens à nos rêves Tes lèvres sur mes lèvres jusqu'à ce que le soleil se lève x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'veux rentrer dans tes rêves, hanter tes nuits Jusqu'à ce que ma vie s'achève J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves You might also like x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main Tends-moi la main...</t>
+          <t>x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'comprend pas, tout a changé On s'comporte tous les deux comme deux étrangers Fini le temps où on échangeait Amour et haine se sont mélangés Sèches tes larmes, essuie ton rimmel Puisque notre amour est éternel Donnons un sens à nos rêves Tes lèvres sur mes lèvres jusqu'à ce que le soleil se lève x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'veux rentrer dans tes rêves, hanter tes nuits Jusqu'à ce que ma vie s'achève J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main Tends-moi la main...</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah You might also like Yeah, j'ferais des miracles pour éclairer tes nuits Toi tu es mon ange les diable notre ennemi Ils sont jaloux de nous veulent nous jeter des sorts On va les rendre jalouses pas besoins d'attendre les soldes Refait toi les ongles pour compter mes liasses de billet Tu manqueras de rien même la tapisserie seras en jaune et violet J'veut une hlel pas une folle caractère de fauve Vient on se sauve j'ai fait de l'oseille j'ai juste besoin de love Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, la vie est courte baby pourquoi ce prendre la tête J'veux juste me poser avec toi j'en est marre de faire la fête N'écoute pas les ragots qui circules sur moi Surement des meufs qui me court après machiavélique et sournoise Prend ma couronne ma reine on rode sur le front de mer C'est la pleine lune j'entend les loups j'entend les commères J'te donne les codes de ma black donne moi les codes de ton cur Prend les clés de ma Maybach sur l'autoroute du bonheur Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'te donnerais que du love J'te demande que du love J'te donnerais que du love J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah6</t>
+          <t>Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, j'ferais des miracles pour éclairer tes nuits Toi tu es mon ange les diable notre ennemi Ils sont jaloux de nous veulent nous jeter des sorts On va les rendre jalouses pas besoins d'attendre les soldes Refait toi les ongles pour compter mes liasses de billet Tu manqueras de rien même la tapisserie seras en jaune et violet J'veut une hlel pas une folle caractère de fauve Vient on se sauve j'ai fait de l'oseille j'ai juste besoin de love Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, la vie est courte baby pourquoi ce prendre la tête J'veux juste me poser avec toi j'en est marre de faire la fête N'écoute pas les ragots qui circules sur moi Surement des meufs qui me court après machiavélique et sournoise Prend ma couronne ma reine on rode sur le front de mer C'est la pleine lune j'entend les loups j'entend les commères J'te donne les codes de ma black donne moi les codes de ton cur Prend les clés de ma Maybach sur l'autoroute du bonheur Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'te donnerais que du love J'te demande que du love J'te donnerais que du love J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah6</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Si tu étais un rêve il s'est réalisé Si tu étais un souhait Dieu l'a exaucé Si tu étais un paysage je t'aurais contemplé Si tu étais le temps je t'aurais arrêté Joue pas avec mon coeur tu finis par le brûlé Si tu étais un feu je t'aurais attisé C'est ton amour qui m'a libéré Si t'es un crime je prends perpétuité Je manquais d'air tu m'as oxygène Dans le doute tu m'as rassuré Quand j'avais pas un rond tu m'as assumée C'est ton odeur qui m'a parfumé Dans tes bras je me suis réfugié C'est dans tes courbes que mon destin c'est dessiné Mes deux anges tu as porté Si tu es un texte t'es mon plus beau couplet Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Lalolay lolay lolay Lalolay lolay Jusqu'aux bouts du monde suis moi Jusqu'aux bouts du monde oui Lalolay lolay lolay Lalolay lolay You might also like Ma chérie vient on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Viens on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak</t>
+          <t>Si tu étais un rêve il s'est réalisé Si tu étais un souhait Dieu l'a exaucé Si tu étais un paysage je t'aurais contemplé Si tu étais le temps je t'aurais arrêté Joue pas avec mon coeur tu finis par le brûlé Si tu étais un feu je t'aurais attisé C'est ton amour qui m'a libéré Si t'es un crime je prends perpétuité Je manquais d'air tu m'as oxygène Dans le doute tu m'as rassuré Quand j'avais pas un rond tu m'as assumée C'est ton odeur qui m'a parfumé Dans tes bras je me suis réfugié C'est dans tes courbes que mon destin c'est dessiné Mes deux anges tu as porté Si tu es un texte t'es mon plus beau couplet Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Lalolay lolay lolay Lalolay lolay Jusqu'aux bouts du monde suis moi Jusqu'aux bouts du monde oui Lalolay lolay lolay Lalolay lolay Ma chérie vient on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Viens on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Oriental Dream LAlgérino Oriental Dream Cheb Khalass Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya Viens faire un tour à Marrakech Wahran, Alger, Tunis Beau gosse même en qamis Khamssa ou khmiss Pompe sous le matelas Jai pas de compte en Suisse Ne mfais pas la bise Ourti si tas trop dvice Elle est belle, elle est jolie Le teint doré benthe bledi Tas sorti les Versace, eh ouais beloumi Fi ratel lmagreb general XXX Journée bronzette, le soir au 555 On a de la fraiche on fait pas blehni Jfais ltour du Maghreb en Panamera Veux-tu être ma hlel ena nebrik a viee Lessentiel est de couleur harbi x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya LV, Hermès, on a de lespèce Omri eh benthe nésse On va tsortir de la tess Jai connu la hess Même la sècheresse Elle croit qujsuis un 3akoun La cousine jai un bac S Elle est belle, elle est XXX Tunsia ou alors Djezaïra Jsuis un magicien sur du raï Jfais danser le mia Mhek ntia zine l'3albiya x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiyaYou might also like</t>
+          <t>Oriental Dream LAlgérino Oriental Dream Cheb Khalass Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya Viens faire un tour à Marrakech Wahran, Alger, Tunis Beau gosse même en qamis Khamssa ou khmiss Pompe sous le matelas Jai pas de compte en Suisse Ne mfais pas la bise Ourti si tas trop dvice Elle est belle, elle est jolie Le teint doré benthe bledi Tas sorti les Versace, eh ouais beloumi Fi ratel lmagreb general XXX Journée bronzette, le soir au 555 On a de la fraiche on fait pas blehni Jfais ltour du Maghreb en Panamera Veux-tu être ma hlel ena nebrik a viee Lessentiel est de couleur harbi x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya LV, Hermès, on a de lespèce Omri eh benthe nésse On va tsortir de la tess Jai connu la hess Même la sècheresse Elle croit qujsuis un 3akoun La cousine jai un bac S Elle est belle, elle est XXX Tunsia ou alors Djezaïra Jsuis un magicien sur du raï Jfais danser le mia Mhek ntia zine l'3albiya x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore Je me sens seule, je me sens mal J'ai proprement fini au sol Oui j'ai le seum, faut qu'je me calme Pourquoi j'ai cru à tes belles paroles ? Tout allait que dans ton sens, donc j'ai fini par me perdre Je marchais droit, t'étais bancal, me dis jamais qu'on faisait la paire J'ai foncé dans l'mur, j'ai fait un crash J'pensais qu't'étais l'copilote, moi j'aurais pu t'prendre sur mon dos Et faire le tour de c'foutu globe J'ai dû m'noyer dans mes larmes pour essayer d'me consoler Maint'nant qu'l'orage est passé, personne pourra m'déboussoler À cause de toi, non, grâce à toi, maint'nant j'sais qui je suis, hey Les gens comme toi, non, ils sont méchants, méchants You might also like Quand je donne c'est pour de vrai, prêt à tout pour un re-frè Combien de fois j'ai sacrifié mes ailes pour te voir voler ? Jamais fait les choses à moitié, en amour moi j'suis entier De mon cur t'avais les clés, toi t'es rentré t'as tout pillé On m'avait dit de me méfier, que t'étais là par intérêt Mais avec des beaux discours, toi t'as nourri ma naïveté Aujourd'hui j'suis vacciné, tu pourras plus m'contaminer Grâce à tes mythos, ma parano a mis mes Je t'aime sous-scellés Dans mon cur tu es rentré, t'as tout laissé en chantier T'étais clairement ma moitié, pour toi, moi j'aurais tué Mais le quartier et le rrain-té, pour toi c'est c'qui comptait Tu voulais l'monde entier, moi, c'est nous que je voulais On avait tout pour être heureux, mais tu voulais juste faire plus d'euros Tu voulais jouer un jeu dangereux, tu m'as perdue et t'as fini solo Tu me tej', tu reviens mais c'est plus la peine, solo Tu dis qu'tu m'aimes, tu reviens mais j't'ai déjà tej' J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore J'suis tombée dans le vide, fallait pas me cher-la C'est dans le pire que j'ai vu ton visage Tu vas me manquer mais je n'vais plus te voir Le soleil vient toujours après l'orage Comme dans un livre ouvert, je t'ai laissé me lire J'voulais qu'on mette les voiles mais toi, t'as fait couler l'navire Déception, déception, j'ai r'tenu la leçon À présent si je donne, je donne en faisant attention, ouais Tombée dans le vide, tombée, tombée dans le vide Tombée dans le vide, yeah Ils sont méchants J'parle pas d'eux, ils m'en veulent, ils aiment pas t'voir avancer Ouh, ils sont méchants Ouais, j'le sens que j'suis pas seul mais j'suis pas du genre à me lasser Oh, ils sont blessants M'en fous des gens, besoin de dégâts même sur les jantes Ils sont bon qu'à créer des légendes ils sont méchants Faut être intelligent, à la 'son faut ramener l'argent Faut djober dur pour avoir ta chance Avec moi j'ai fait la paix, j'ai retourné la terre Les mains dans la boue, tu m'aides ou tu m'enterres J'connais beaucoup de gens qu'ont fait du mal, et qu'en ont pas l'air en arabe Brisaouni quelbi bel' mous wa fehmou wa hlach ? J'me suis donné mais plus qu'il n'en fallait, jusqu'à dev'nir folle Besoin d'm'isoler, des fois c'est bizarre Je n'réponds plus au phone, pense qu'à moi désormais, tout c'qu'il me fallait J'ai fait mes valises, c'est l'heure du voyage Quand j'réalise, tu n'étais pas là Alors j'vais faire comme toi, pardon, j'suis désolée J'vais faire comme ci parce que t'as fait comme ça J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore</t>
+          <t>J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore Je me sens seule, je me sens mal J'ai proprement fini au sol Oui j'ai le seum, faut qu'je me calme Pourquoi j'ai cru à tes belles paroles ? Tout allait que dans ton sens, donc j'ai fini par me perdre Je marchais droit, t'étais bancal, me dis jamais qu'on faisait la paire J'ai foncé dans l'mur, j'ai fait un crash J'pensais qu't'étais l'copilote, moi j'aurais pu t'prendre sur mon dos Et faire le tour de c'foutu globe J'ai dû m'noyer dans mes larmes pour essayer d'me consoler Maint'nant qu'l'orage est passé, personne pourra m'déboussoler À cause de toi, non, grâce à toi, maint'nant j'sais qui je suis, hey Les gens comme toi, non, ils sont méchants, méchants Quand je donne c'est pour de vrai, prêt à tout pour un re-frè Combien de fois j'ai sacrifié mes ailes pour te voir voler ? Jamais fait les choses à moitié, en amour moi j'suis entier De mon cur t'avais les clés, toi t'es rentré t'as tout pillé On m'avait dit de me méfier, que t'étais là par intérêt Mais avec des beaux discours, toi t'as nourri ma naïveté Aujourd'hui j'suis vacciné, tu pourras plus m'contaminer Grâce à tes mythos, ma parano a mis mes Je t'aime sous-scellés Dans mon cur tu es rentré, t'as tout laissé en chantier T'étais clairement ma moitié, pour toi, moi j'aurais tué Mais le quartier et le rrain-té, pour toi c'est c'qui comptait Tu voulais l'monde entier, moi, c'est nous que je voulais On avait tout pour être heureux, mais tu voulais juste faire plus d'euros Tu voulais jouer un jeu dangereux, tu m'as perdue et t'as fini solo Tu me tej', tu reviens mais c'est plus la peine, solo Tu dis qu'tu m'aimes, tu reviens mais j't'ai déjà tej' J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore J'suis tombée dans le vide, fallait pas me cher-la C'est dans le pire que j'ai vu ton visage Tu vas me manquer mais je n'vais plus te voir Le soleil vient toujours après l'orage Comme dans un livre ouvert, je t'ai laissé me lire J'voulais qu'on mette les voiles mais toi, t'as fait couler l'navire Déception, déception, j'ai r'tenu la leçon À présent si je donne, je donne en faisant attention, ouais Tombée dans le vide, tombée, tombée dans le vide Tombée dans le vide, yeah Ils sont méchants J'parle pas d'eux, ils m'en veulent, ils aiment pas t'voir avancer Ouh, ils sont méchants Ouais, j'le sens que j'suis pas seul mais j'suis pas du genre à me lasser Oh, ils sont blessants M'en fous des gens, besoin de dégâts même sur les jantes Ils sont bon qu'à créer des légendes ils sont méchants Faut être intelligent, à la 'son faut ramener l'argent Faut djober dur pour avoir ta chance Avec moi j'ai fait la paix, j'ai retourné la terre Les mains dans la boue, tu m'aides ou tu m'enterres J'connais beaucoup de gens qu'ont fait du mal, et qu'en ont pas l'air en arabe Brisaouni quelbi bel' mous wa fehmou wa hlach ? J'me suis donné mais plus qu'il n'en fallait, jusqu'à dev'nir folle Besoin d'm'isoler, des fois c'est bizarre Je n'réponds plus au phone, pense qu'à moi désormais, tout c'qu'il me fallait J'ai fait mes valises, c'est l'heure du voyage Quand j'réalise, tu n'étais pas là Alors j'vais faire comme toi, pardon, j'suis désolée J'vais faire comme ci parce que t'as fait comme ça J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Amor que cosa fare Donne ta main, j'vais te marier Il serait temps qu'on s'en aille J'ai rechargé le barillet Ma chérie sèche tes larmes tu sais Je vois ton avenir ensoleillé De toute façon pour être honnête Tu n'as pas d'autre choix que m'aimer Les mots ne sont que des mots Les actes on peut les nier Mon amour sous les barreaux Cette amour que tu as libéré Il serait temps qu'on s'envole D'arrêter de se cacher C'est ne sont pas que des paroles J'ai rempli la valise de billets je t'emmene Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer You might also like Et je vois tout ton mal être Quand je regarde tes yeux Ma chérie sèches tes larmes La vie seras plus belle à deux Je prendrais toutes tes peines Regarde moi dans les yeux Je ferais de toi ma reine Je te le jure devant Dieu Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce</t>
+          <t>Amor que cosa fare Donne ta main, j'vais te marier Il serait temps qu'on s'en aille J'ai rechargé le barillet Ma chérie sèche tes larmes tu sais Je vois ton avenir ensoleillé De toute façon pour être honnête Tu n'as pas d'autre choix que m'aimer Les mots ne sont que des mots Les actes on peut les nier Mon amour sous les barreaux Cette amour que tu as libéré Il serait temps qu'on s'envole D'arrêter de se cacher C'est ne sont pas que des paroles J'ai rempli la valise de billets je t'emmene Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Et je vois tout ton mal être Quand je regarde tes yeux Ma chérie sèches tes larmes La vie seras plus belle à deux Je prendrais toutes tes peines Regarde moi dans les yeux Je ferais de toi ma reine Je te le jure devant Dieu Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort You might also like À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
+          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Oriental Dream x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Oui malgré les incidences Jassume et jencaisse en silence Jtai choisi comme confidente Fais moi confiance, jtai dans lsang Tu attends seule, je ne rentre pas Jte fais vivre un cauchemar Tu parles, jentends mais jécoute pas Écoute-moi, pardonne-moi Jveux revoir létincelle Jveux que nous deux fassions quun seul On sait toujours ce que lon perd Jamais ce que lon gagne, dis-toi que x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Jveux qutu redeviennes mon amie Quon retrouve cette magie Quon arrête de se faire du mal On sétait dit pour la vie Jveux quon fonde une famille Mais pourquoi on se fait du mal ? Donne-moi ton cur, donne-moi ton corps Trop dchoses à dire, mais lsilence est dor Lis dans mes yeux mon amour vaut plus que de lor Sceller la boite de Pandore Quitte pas celui qutaime pour celui qui te plaît Tarrêtes pas de douter, jte sens pas trop Tu veux pas en parler Tu ressens un manque pourquoi tu veux te barrer ? x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort x2 La vie est belle La vie est belle La vie est belle Oui, la vie est belleYou might also like</t>
+          <t>Oriental Dream x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Oui malgré les incidences Jassume et jencaisse en silence Jtai choisi comme confidente Fais moi confiance, jtai dans lsang Tu attends seule, je ne rentre pas Jte fais vivre un cauchemar Tu parles, jentends mais jécoute pas Écoute-moi, pardonne-moi Jveux revoir létincelle Jveux que nous deux fassions quun seul On sait toujours ce que lon perd Jamais ce que lon gagne, dis-toi que x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Jveux qutu redeviennes mon amie Quon retrouve cette magie Quon arrête de se faire du mal On sétait dit pour la vie Jveux quon fonde une famille Mais pourquoi on se fait du mal ? Donne-moi ton cur, donne-moi ton corps Trop dchoses à dire, mais lsilence est dor Lis dans mes yeux mon amour vaut plus que de lor Sceller la boite de Pandore Quitte pas celui qutaime pour celui qui te plaît Tarrêtes pas de douter, jte sens pas trop Tu veux pas en parler Tu ressens un manque pourquoi tu veux te barrer ? x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort x2 La vie est belle La vie est belle La vie est belle Oui, la vie est belle</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui cest Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Je démarre le monstre démarre le monstr Je regarde ma montr regarde ma montre Elle est trop 3ennen, la petite, elle veut quj'la démonte qu'j'la démonte Sous vo'-vo', faut pas m'parler, j'suis sous vo-vo, faut pas m'parler Wesh, mon frère, concentre-toi, fais bien les comptes, billets couleur pistache Jai vu qu'tu as changé d'visage, respecté dans l'secteur, ma sur mais certains msouhaitent le coulage Avec JuL, L'Algé', c'est le hold up, c'est le hold up, c'est le zbeul, zbeul Calibré, casqué, sur le bum-bum, arrache-toi, y a le bruit du ra-ta, ra-ta, ra-ta Y a les mwanas, faut d'la plata, mon fils sur une roue, sur un quatre temps Pas d'galère, wAllah, y a papa si dans la zone, y a des bâtards Pour le po-po-pop, ça t'as pris ton boss, tu repars en stop Pour le po-po-pop, c'était fait pour toi, que tu prends la coke You might also like Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est C'est quoi ta nationalité, bébé ? Dans mon business, j'suis PDG Ton boule est validé, bébé, on va t'signer en CDD Ouais, bébé, ouais, bébé, on fait même dans le BTP C'est d'la frappa, d'la CBD, on tape pas dans la CBB On a l'son qui arrache ok, tu rayes ma caisse, pas grave yeah N'écoute pas, igaro-F nan, il risque de s'faire marave yeah J'suis posé dans la loge, sous rosé, p'tit polo Lacoste yeah La p'tite, elle veut sa to-ph' et j'parle au patron, j'vise ses loves Diga, diga, mais j'nique tout cette année chica, ouais J'bois mon p'tit kawa, j'pense à c'p'tit pédé, il m'en doit Rien qu'j'lui cours après, j'passe pour un enculé, j'ai pas l'choix Si t'es pas carré, on est préparé, bra-bra-bra Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Grr, hold up, hold up hold up, j'fais des murders, murders murders J'te fais danser comme ça mmh, mmh, la caisse, elle coûte 100 bâtons bâtons Tu es à l'affût comme un maton maton, casse pas la tête pour moi Dans l'game, j'suis en jet-ski comme Macron Cache la beuh avant la douane la douane, dans les curs comme Balavoine 'lavoine Dans les tieks, c'est pas la joie la joie, depuis quand tu as une Kalash' toi ? L'OVNI au mic' pa-pa-pah, L'Algé', Alonzo pa-pa-pah Hold up sur hold up pa-pa-pah, BG sur l'teum-teum pa-pa-pah Gants, arme, roof, au tieks, ça veut soulever la coupe Les schmitts te suivent à la loupe pendant qu'les traîtres crachent dans la soupe, soupe Puta, fais pas la bise, ah, puta, fais pas la bise, ah Puta, fais pas la bise, ah, puta, fais pas la bise, ah Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est</t>
+          <t>Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui cest Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Je démarre le monstre démarre le monstr Je regarde ma montr regarde ma montre Elle est trop 3ennen, la petite, elle veut quj'la démonte qu'j'la démonte Sous vo'-vo', faut pas m'parler, j'suis sous vo-vo, faut pas m'parler Wesh, mon frère, concentre-toi, fais bien les comptes, billets couleur pistache Jai vu qu'tu as changé d'visage, respecté dans l'secteur, ma sur mais certains msouhaitent le coulage Avec JuL, L'Algé', c'est le hold up, c'est le hold up, c'est le zbeul, zbeul Calibré, casqué, sur le bum-bum, arrache-toi, y a le bruit du ra-ta, ra-ta, ra-ta Y a les mwanas, faut d'la plata, mon fils sur une roue, sur un quatre temps Pas d'galère, wAllah, y a papa si dans la zone, y a des bâtards Pour le po-po-pop, ça t'as pris ton boss, tu repars en stop Pour le po-po-pop, c'était fait pour toi, que tu prends la coke Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est C'est quoi ta nationalité, bébé ? Dans mon business, j'suis PDG Ton boule est validé, bébé, on va t'signer en CDD Ouais, bébé, ouais, bébé, on fait même dans le BTP C'est d'la frappa, d'la CBD, on tape pas dans la CBB On a l'son qui arrache ok, tu rayes ma caisse, pas grave yeah N'écoute pas, igaro-F nan, il risque de s'faire marave yeah J'suis posé dans la loge, sous rosé, p'tit polo Lacoste yeah La p'tite, elle veut sa to-ph' et j'parle au patron, j'vise ses loves Diga, diga, mais j'nique tout cette année chica, ouais J'bois mon p'tit kawa, j'pense à c'p'tit pédé, il m'en doit Rien qu'j'lui cours après, j'passe pour un enculé, j'ai pas l'choix Si t'es pas carré, on est préparé, bra-bra-bra Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Grr, hold up, hold up hold up, j'fais des murders, murders murders J'te fais danser comme ça mmh, mmh, la caisse, elle coûte 100 bâtons bâtons Tu es à l'affût comme un maton maton, casse pas la tête pour moi Dans l'game, j'suis en jet-ski comme Macron Cache la beuh avant la douane la douane, dans les curs comme Balavoine 'lavoine Dans les tieks, c'est pas la joie la joie, depuis quand tu as une Kalash' toi ? L'OVNI au mic' pa-pa-pah, L'Algé', Alonzo pa-pa-pah Hold up sur hold up pa-pa-pah, BG sur l'teum-teum pa-pa-pah Gants, arme, roof, au tieks, ça veut soulever la coupe Les schmitts te suivent à la loupe pendant qu'les traîtres crachent dans la soupe, soupe Puta, fais pas la bise, ah, puta, fais pas la bise, ah Puta, fais pas la bise, ah, puta, fais pas la bise, ah Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Je monte dans la voiture, j'passe la première et j'avance J'prends l'autoroute de la vie à pleine vitesse et je pense J'sais pas où ça me mènera une chose est sûre j'prends le volant Attendant l'heure où mon âme s'envolera J'aperçois un auto-stoppeur, c'est une femme J'm'arrête sur la bande d'arrêt d'urgence et j'me cale Que fais-tu là toute seule ? Qui tu es ? Où tu vas ? J'sais pas pourquoi j'm'arrête j'ressens un truc au fond de moi Elle me répond moi j'suis ta femme celle qui te chérira toute ta vie Ensemble on va construire un empire J'te dois le respect comme toi tu me le dois On va fonder un foyer fait moi confiance tu verras ! Vas-y grimpe, et je continue mon chemin J'sais pas y'a quelque chose qui a changé, j'me sens bien Prêt a croquer la vie à pleines dents Derrière chaque grand homme s'cache une femme Peut-être est-ce la mère de mes enfants J'roule et j'aperçois deux gosses au loin Leurs visages me rappellent quelqu'un Je ralentis, j'm'arrête, peut-être qu'ils ont besoin d'aide qui vous-êtes ? Nous on est tes enfants, ta descendance Tes dignes héritiers, ta fierté on est ton sang Prends-nous dans tes bras, serre-nous contre toi On dit que la vie est dure on veut faire d'la route avec toi ! Allez-y grimper mes p'tits, et mettez votre ceinture Le chemin est parsemé d'embuches c'est vrai que la vie est dure Votre grand-père m'a appris le sens de la droiture Votre mère vous couvera son amour sera une toiture Plus j'avance plus j'ai l'impression de prendre de l'âge J'm'arrête a chaque péage, des rides sur mon visage J'ai une femme et deux gosses dans la 'ture Des panneaux apparaissent et m'font signe de ralentir J'lève le pied de l'accélérateur J'le fait surtout quand je vois le reflet de mes gosses sur le rétroviseur intérieur Faut que j'les assume, que je subvienne a leur besoin Bon Dieu j'ai besoin d'aide, faites qu'il ne manquent de rien La main sur le volant, ma femme est souriante J'allume une clope et un signal clignote sur le tableau de bord J'ai presque plus d'essence, il me reste peu d'argent Il faut du carburant, il y a une station à quelque bornes J'prend la voie de ralentissement, j'décélère j'freine doucement Vu que la chaussée est glissante J'arrive à la station j'mets le plein de carburant J'm'apprête à monter dans mon break et repartir quand Un gars pose sa main sur mon épaule, il m'dit attend Veut que j'lui accorde un instant Il était sapé classe, costard cravate, mocassins noirs Attaché-case, le regard traversant ses lunettes noires, il me dit Moi j'suis l'Euro le Dollar En somme j'suis toute les richesses que ce bas-monde comporte Tout c'que je touche devient de l'or tu n'auras plus de soucis d'argent Tu rayonneras au zénith comme un diamant Regarde toi, t'en a pas marre de cette vie ? Sors ta famille de la misère j'te propose d'être riche Regarde-moi ça tes enfants font de la peine à voir Crois moi j'te propose la richesse et la gloire J'sais pas c'type j'le sens pas trop... Il dit qu'il peut changer ma vie Mais en même temps j'ai plus d'fric J'hésite un peu mais j'ai pas d'autre choix, vas-y grimpe Bizarrement mon break se transforme en berline Et ma Swatch se transforme en Breitling Mon alliance en argent s'transforme en or Ce type avait raison, l'argent contribue au bonheur L'humeur est joviale, tout le monde est souriant Mais bizarrement, je stresse et j'm'énerve bêtement J'm'embrouille avec ma femme, ce type à l'air ravi À cet instant précis j'ai compris qu'il me manquait un truc dans ma vie La route s'assombrit, mon regard se noircit Un nuage noir au-dessus d'ma tête, j'enchaîne les cigarettes En fait j'suis à coté du Diable et je le sais même pas Je vois son regard bizarre, quand une lumière apparait là-bas J'me dirige vers cette lueur, il m'dit change de chemin Mais j'm'accroche au volant fermement avec mes deux mains Un vieux vêtu de blanc se tient sous cette lueur J'm'arrête curieux d'savoir qui dégage tant de lumière Et la je sors de la voiture, j'me rapproche du vieil homme Et d'un ton calme et rassurant il m'dit J'suis les principes et les valeurs Sache que le matériel ne contribue jamais au bonheur Ce type qui se tient à coté de toi est faux et malsain Il causera ta perte, il t'égarera en chemin Moi je conseille le Bien et je déconseille le Mal Je sens que ton cur est tâché, que ton âme va mal On m'appelle aussi la Foi celle qui calme tes frayeurs Je n'ai pas d'argent à t'offrir, juste la tranquillité du cur C'est bien beau ce que tu racontes mais j'ai tout ce dont j'ai besoin Une femme, des gosses et de l'argent, en gros je manque de rien T'as l'air d'être quelqu'un de bon, mais y'a plus de place dans la tire J'reviendrai peut-être te chercher mais là je dois partir J'remonte dans la caisse avec un semblant de regret J'accélère, j'suis de plus en plus stressé J'accélère, et un colosse me barre la route J'l'évite de justesse, mais j'perds le contrôle de ma caisse Merde j'frappe contre la rambarde de sécurité Ma tête brise le pare-brise, j'ai le visage ensanglanté J'entend les sanglots de ma femme et de mes mômes Assommé j'sors de la voiture, mais qui est cette homme? Moi je suis l'ange de la mort, je suis venu récupérer ton âme Si tu as le vieil homme avec toi, je t'ouvre les portes du Paradis, sinon, c'est l'Enfer Tu t'es accroché aux choses éphémères et matérielles de ce bas-monde Mais on n'emporte rien avec soi, on emporte que ses uvres et sa FoiYou might also like1</t>
+          <t>Je monte dans la voiture, j'passe la première et j'avance J'prends l'autoroute de la vie à pleine vitesse et je pense J'sais pas où ça me mènera une chose est sûre j'prends le volant Attendant l'heure où mon âme s'envolera J'aperçois un auto-stoppeur, c'est une femme J'm'arrête sur la bande d'arrêt d'urgence et j'me cale Que fais-tu là toute seule ? Qui tu es ? Où tu vas ? J'sais pas pourquoi j'm'arrête j'ressens un truc au fond de moi Elle me répond moi j'suis ta femme celle qui te chérira toute ta vie Ensemble on va construire un empire J'te dois le respect comme toi tu me le dois On va fonder un foyer fait moi confiance tu verras ! Vas-y grimpe, et je continue mon chemin J'sais pas y'a quelque chose qui a changé, j'me sens bien Prêt a croquer la vie à pleines dents Derrière chaque grand homme s'cache une femme Peut-être est-ce la mère de mes enfants J'roule et j'aperçois deux gosses au loin Leurs visages me rappellent quelqu'un Je ralentis, j'm'arrête, peut-être qu'ils ont besoin d'aide qui vous-êtes ? Nous on est tes enfants, ta descendance Tes dignes héritiers, ta fierté on est ton sang Prends-nous dans tes bras, serre-nous contre toi On dit que la vie est dure on veut faire d'la route avec toi ! Allez-y grimper mes p'tits, et mettez votre ceinture Le chemin est parsemé d'embuches c'est vrai que la vie est dure Votre grand-père m'a appris le sens de la droiture Votre mère vous couvera son amour sera une toiture Plus j'avance plus j'ai l'impression de prendre de l'âge J'm'arrête a chaque péage, des rides sur mon visage J'ai une femme et deux gosses dans la 'ture Des panneaux apparaissent et m'font signe de ralentir J'lève le pied de l'accélérateur J'le fait surtout quand je vois le reflet de mes gosses sur le rétroviseur intérieur Faut que j'les assume, que je subvienne a leur besoin Bon Dieu j'ai besoin d'aide, faites qu'il ne manquent de rien La main sur le volant, ma femme est souriante J'allume une clope et un signal clignote sur le tableau de bord J'ai presque plus d'essence, il me reste peu d'argent Il faut du carburant, il y a une station à quelque bornes J'prend la voie de ralentissement, j'décélère j'freine doucement Vu que la chaussée est glissante J'arrive à la station j'mets le plein de carburant J'm'apprête à monter dans mon break et repartir quand Un gars pose sa main sur mon épaule, il m'dit attend Veut que j'lui accorde un instant Il était sapé classe, costard cravate, mocassins noirs Attaché-case, le regard traversant ses lunettes noires, il me dit Moi j'suis l'Euro le Dollar En somme j'suis toute les richesses que ce bas-monde comporte Tout c'que je touche devient de l'or tu n'auras plus de soucis d'argent Tu rayonneras au zénith comme un diamant Regarde toi, t'en a pas marre de cette vie ? Sors ta famille de la misère j'te propose d'être riche Regarde-moi ça tes enfants font de la peine à voir Crois moi j'te propose la richesse et la gloire J'sais pas c'type j'le sens pas trop... Il dit qu'il peut changer ma vie Mais en même temps j'ai plus d'fric J'hésite un peu mais j'ai pas d'autre choix, vas-y grimpe Bizarrement mon break se transforme en berline Et ma Swatch se transforme en Breitling Mon alliance en argent s'transforme en or Ce type avait raison, l'argent contribue au bonheur L'humeur est joviale, tout le monde est souriant Mais bizarrement, je stresse et j'm'énerve bêtement J'm'embrouille avec ma femme, ce type à l'air ravi À cet instant précis j'ai compris qu'il me manquait un truc dans ma vie La route s'assombrit, mon regard se noircit Un nuage noir au-dessus d'ma tête, j'enchaîne les cigarettes En fait j'suis à coté du Diable et je le sais même pas Je vois son regard bizarre, quand une lumière apparait là-bas J'me dirige vers cette lueur, il m'dit change de chemin Mais j'm'accroche au volant fermement avec mes deux mains Un vieux vêtu de blanc se tient sous cette lueur J'm'arrête curieux d'savoir qui dégage tant de lumière Et la je sors de la voiture, j'me rapproche du vieil homme Et d'un ton calme et rassurant il m'dit J'suis les principes et les valeurs Sache que le matériel ne contribue jamais au bonheur Ce type qui se tient à coté de toi est faux et malsain Il causera ta perte, il t'égarera en chemin Moi je conseille le Bien et je déconseille le Mal Je sens que ton cur est tâché, que ton âme va mal On m'appelle aussi la Foi celle qui calme tes frayeurs Je n'ai pas d'argent à t'offrir, juste la tranquillité du cur C'est bien beau ce que tu racontes mais j'ai tout ce dont j'ai besoin Une femme, des gosses et de l'argent, en gros je manque de rien T'as l'air d'être quelqu'un de bon, mais y'a plus de place dans la tire J'reviendrai peut-être te chercher mais là je dois partir J'remonte dans la caisse avec un semblant de regret J'accélère, j'suis de plus en plus stressé J'accélère, et un colosse me barre la route J'l'évite de justesse, mais j'perds le contrôle de ma caisse Merde j'frappe contre la rambarde de sécurité Ma tête brise le pare-brise, j'ai le visage ensanglanté J'entend les sanglots de ma femme et de mes mômes Assommé j'sors de la voiture, mais qui est cette homme? Moi je suis l'ange de la mort, je suis venu récupérer ton âme Si tu as le vieil homme avec toi, je t'ouvre les portes du Paradis, sinon, c'est l'Enfer Tu t'es accroché aux choses éphémères et matérielles de ce bas-monde Mais on n'emporte rien avec soi, on emporte que ses uvres et sa Foi1</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fils d'immigré , de la cité Phocéenne Grandi dans le partage , ouais , de la rage et de la haine Mélange et métissage , le plus grand héritage Je laisse parler mon coeur Je chante et je prend le large Ils veulent nous diviser , nous parlent d'insécurité Mais le réel problème , c'est la précarité Ils s'en foutent du peuple , ils ne pensent qu'à leur siège Les bergers qui prèchent , les moutons qui tombent dans leur pièges One love ! Et si on menais le même combat Et si ont chantais tous d'une seule voix Considérés que lorsqu'on vote , on braque les urnes , retiens ces normes Alors je leur chante Amane Amane x10 x2 Soeur on est des hommes Pour nos discours nous payons Et on fait des erreurs , donc y'à une gomme au bout de chaque crayons Grande gueule , et en feat y'à Samir , frère algérien Seul, on va plus vite Mais ensemble on va plus loin Serré le poing , on à la foi pour briller Tu es l'enfant d'un roi et non un fils d'ouvrier Le genou plié on sait pas le faire , couz' c'est dead Ils nous ont grillés , ont pillés les ressources de nos bleds C'est les mêmes qu'on montre du doigt , les mêmes que l'ont persecutent Pactisent avec Belzebuth , les mêmes qui se prennent pour des rois Mondial , nouvel ordre accroche-toi Les caisses pleines , tiennent les rennes Les mêmes qui portent les chaînes Et c'est les mêmes qui purgent de grosses peines Au-dessus des lois , ils se croient tout permis Les riches s'enrichissent , le peuple vit la 'sère-mi Ils nous prennent pour des cons Que la jeunesse se lève et combatte en chanson You might also like Je rêvais d'être astronaute et toucher les étoiles Je voulais rien d'autre qu'un parcours idéal Et moi et mes Khoro , à trop squatter la Dar J'ai eu une paire de menottes , avant de remplir des salles. x2 Alors je chante Amane Amane Alors tu chantes Amane Amane Alors on chante Amane Amane x2 Amane Amane x3 Capitaine de mon navire , y'à tous nos frères à bord On à toujours su s'en sortir , avec les moyens du bord Alors on chante , Tunisan' , L'algérino Alors on chante , alors on chante1</t>
+          <t>Fils d'immigré , de la cité Phocéenne Grandi dans le partage , ouais , de la rage et de la haine Mélange et métissage , le plus grand héritage Je laisse parler mon coeur Je chante et je prend le large Ils veulent nous diviser , nous parlent d'insécurité Mais le réel problème , c'est la précarité Ils s'en foutent du peuple , ils ne pensent qu'à leur siège Les bergers qui prèchent , les moutons qui tombent dans leur pièges One love ! Et si on menais le même combat Et si ont chantais tous d'une seule voix Considérés que lorsqu'on vote , on braque les urnes , retiens ces normes Alors je leur chante Amane Amane x10 x2 Soeur on est des hommes Pour nos discours nous payons Et on fait des erreurs , donc y'à une gomme au bout de chaque crayons Grande gueule , et en feat y'à Samir , frère algérien Seul, on va plus vite Mais ensemble on va plus loin Serré le poing , on à la foi pour briller Tu es l'enfant d'un roi et non un fils d'ouvrier Le genou plié on sait pas le faire , couz' c'est dead Ils nous ont grillés , ont pillés les ressources de nos bleds C'est les mêmes qu'on montre du doigt , les mêmes que l'ont persecutent Pactisent avec Belzebuth , les mêmes qui se prennent pour des rois Mondial , nouvel ordre accroche-toi Les caisses pleines , tiennent les rennes Les mêmes qui portent les chaînes Et c'est les mêmes qui purgent de grosses peines Au-dessus des lois , ils se croient tout permis Les riches s'enrichissent , le peuple vit la 'sère-mi Ils nous prennent pour des cons Que la jeunesse se lève et combatte en chanson Je rêvais d'être astronaute et toucher les étoiles Je voulais rien d'autre qu'un parcours idéal Et moi et mes Khoro , à trop squatter la Dar J'ai eu une paire de menottes , avant de remplir des salles. x2 Alors je chante Amane Amane Alors tu chantes Amane Amane Alors on chante Amane Amane x2 Amane Amane x3 Capitaine de mon navire , y'à tous nos frères à bord On à toujours su s'en sortir , avec les moyens du bord Alors on chante , Tunisan' , L'algérino Alors on chante , alors on chante1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mais qu'est tu veux que j'dise à ma fille quand elle s'ra grande Désolé papa était underground, merde à la zermi, loin d'être verni Moi j'ai fais des tubes, mais j'rap comme c'est pas permis Mon art est sur scène Il s'adresse a tout l'monde J'suis né à Marseille j'aurais pu naitre à Vitry-Sur-Seine J'ai rien d'un génie, c'est l'amour de la musique, l'amour de la rue, celle que beaucoup d'gens dénigrent On a fait ça par passion, on a fait ça aussi pour le fric c'est vrai On vient reprendre ce qu'on nous as pris en Afrique Parcours aléatoire, destin pré-écrit, la rue m'a contaminer j'suis un rat d'laboratoire moi J'ai fais le tour du monde, ça m'a ouvert l'esprit Bizarre comme trois notes de musiques peuvent changer une vie Je chantais l'espoir, je chantais l'amour Mais ils veulent la guerre, un calibre c'est devenu glamour Depuis la capitale, ils entendent des rafales De kalash, des mères pleurent, ils savent même pas de quoi ils parlent Ils vendent de la haine, de la violence payante Et ils s'étonnent que les p'tits frères pressent des détentes De l'entertainment garder l'esprit, mais l'rap c'est pas ma religion c'est que du nezbi Soit, tu fais des sous, soit tu t'arrête au succés d'estime Ya pas d'prison dans mon CV, que des véritées dans mon CD J'aurai pu te parler d'armes et coke pour vendre plus de CD J'aurais pu t'parler d'pute et d'fric Moi, j'suis fidèle a mon éthique Moi, pour ce coté de la street j'ai jamais plaidé Petit j'viens pas t'incité Hram haliya, trop de mes frères sont déjà décédés La fois m'as guidée Dans la zik' j'me suis vidé Loin de moi l'envie de trahir mes idées A l'époque j'm'inquitais, j'avais pas de lovés Seul dans ma cave, les maisons d'disques me snobaient J'avais besoin d'cache, je cherchais le plan B Je fais de la musique et j'vois les potes tous tomber J'me suis rendu crazy a écrire d'la qualité Me comparez pas aux autres ils font que d'la quantité J'vais tout niquer, vous avez pas idées J'suis Johny de mon bled, j'suis Johnny Hallyday On m'as tellement rabaissé yemma Un jour je lâcherai la musique, rien a foutre de cette Dounia Au fond de moi, j'ai, jamais été heureux Même avec les euros, j'rêve de mourir miséreux Même avec les euros, j'rêve de mourir miséreux L'algé! You might also likeJ'écris pas pour inciter la jeunesse a faire du mal J'fais pas fantasmer les p'tits a parler de drogue, de prison A te parler d'armes A Marseille c'est l'KO J'ai perdu des amis, des frères, j'ai vu trop de mère en larmes Fuck tout ces rappeurs qui font l'apologie du crime, d'leur kalash a deux balles Ils savent même pas d'quoi ils parlent Et oui l'Algé, c'est pas des hommes Pour moi les hommes c'est ceux qui se lèvent le matin pour aller travailler, charbonner, pour nourrir leurs enfants et assumer leur famille Le haram, ça ne paye pas, la hagra, ça se paye tôt ou tard, alors, réveillez vous les frères, réveillez vous avant qu'il ne soit trop tard2</t>
+          <t>Mais qu'est tu veux que j'dise à ma fille quand elle s'ra grande Désolé papa était underground, merde à la zermi, loin d'être verni Moi j'ai fais des tubes, mais j'rap comme c'est pas permis Mon art est sur scène Il s'adresse a tout l'monde J'suis né à Marseille j'aurais pu naitre à Vitry-Sur-Seine J'ai rien d'un génie, c'est l'amour de la musique, l'amour de la rue, celle que beaucoup d'gens dénigrent On a fait ça par passion, on a fait ça aussi pour le fric c'est vrai On vient reprendre ce qu'on nous as pris en Afrique Parcours aléatoire, destin pré-écrit, la rue m'a contaminer j'suis un rat d'laboratoire moi J'ai fais le tour du monde, ça m'a ouvert l'esprit Bizarre comme trois notes de musiques peuvent changer une vie Je chantais l'espoir, je chantais l'amour Mais ils veulent la guerre, un calibre c'est devenu glamour Depuis la capitale, ils entendent des rafales De kalash, des mères pleurent, ils savent même pas de quoi ils parlent Ils vendent de la haine, de la violence payante Et ils s'étonnent que les p'tits frères pressent des détentes De l'entertainment garder l'esprit, mais l'rap c'est pas ma religion c'est que du nezbi Soit, tu fais des sous, soit tu t'arrête au succés d'estime Ya pas d'prison dans mon CV, que des véritées dans mon CD J'aurai pu te parler d'armes et coke pour vendre plus de CD J'aurais pu t'parler d'pute et d'fric Moi, j'suis fidèle a mon éthique Moi, pour ce coté de la street j'ai jamais plaidé Petit j'viens pas t'incité Hram haliya, trop de mes frères sont déjà décédés La fois m'as guidée Dans la zik' j'me suis vidé Loin de moi l'envie de trahir mes idées A l'époque j'm'inquitais, j'avais pas de lovés Seul dans ma cave, les maisons d'disques me snobaient J'avais besoin d'cache, je cherchais le plan B Je fais de la musique et j'vois les potes tous tomber J'me suis rendu crazy a écrire d'la qualité Me comparez pas aux autres ils font que d'la quantité J'vais tout niquer, vous avez pas idées J'suis Johny de mon bled, j'suis Johnny Hallyday On m'as tellement rabaissé yemma Un jour je lâcherai la musique, rien a foutre de cette Dounia Au fond de moi, j'ai, jamais été heureux Même avec les euros, j'rêve de mourir miséreux Même avec les euros, j'rêve de mourir miséreux L'algé! J'écris pas pour inciter la jeunesse a faire du mal J'fais pas fantasmer les p'tits a parler de drogue, de prison A te parler d'armes A Marseille c'est l'KO J'ai perdu des amis, des frères, j'ai vu trop de mère en larmes Fuck tout ces rappeurs qui font l'apologie du crime, d'leur kalash a deux balles Ils savent même pas d'quoi ils parlent Et oui l'Algé, c'est pas des hommes Pour moi les hommes c'est ceux qui se lèvent le matin pour aller travailler, charbonner, pour nourrir leurs enfants et assumer leur famille Le haram, ça ne paye pas, la hagra, ça se paye tôt ou tard, alors, réveillez vous les frères, réveillez vous avant qu'il ne soit trop tard2</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale You might also like J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
+          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Halla grosse kichta de malade, gros pétard de salade J'filtre les appels t'inquiète ma belle Marseille on se balade Elle veut son gâté, elle veut son régalo Ils font les tarés nous on fait les taros Une soirée barrée t'es derrière les barreaux Toi tu nous dis que t'as 45, des rafales tout chargées gantées Ouais t'as sorti le A45 mais le videur te laisse pas rentrer Y'a l guetteur qui crie akha, y'a l guetteur qui crie ouh oh J'ai calé moula avant le barrage, y'a la douane y'a les pollos Je remonte la costa rebeu lacosté j'fais crier le Golf 8R J'vise pas le sommet j'suis au stah ça roule des gros zder avec ou sans mis-per J'suis en Nike LV j'écouterai Elvi 80 zetré zone à risque LV2 anglais LV1 money B.E.N.A.B Dracarys C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne J'fume la beuh d'hollanda, vodka et Miranda, tu peux compter sur moi fidèle comme Mandanda Y'en a eu des descentes et j'parle pas de police, ils en ont vu de toutes les couleurs ouais les jeunes ils s'alcoolisent Je sens que ça chante et je parle pas de choristes M'en fout de la vue sur la mer tant que les miens m'aiment à la folie En T-Max au cortège on escorte la Rolls Royce, on bloque la L2 c'est le mariage à Baby Boy You might also like C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite Ah ah j'suis dans ma folie J'ai pas récolté ce que j'ai semé, fais du bien avant que l'heure sonne Je t'ai fait confiance mais j'ai déconné je compte jamais ce que je donne Fin de soirée je fais les comptes, je mélange pas bébé et les potes C'est pas sur moi que tu vas te faire les dents Marseille Paris c'est élégant C'est la folie Y a des choses dans le cur qui nous lâchent pas, qui sont gravées J'en ai vu sourire pendant que mon cas s'aggravait Tourmenté, le combat est quotidien et mouvementé Tout tenter, la mentale on cherche pas à se montrer Si tu savais Boli des fois je pense que je suis maudit je n'oublie pas tout ce que tu m'as dit, ça quitte pas ma tête depuis jeudi Si tu savais Boli ce qui nous éloigne c'est les non-dits au milieu même pas y'a un radis, Moubzer a la haine depuis mardi Y'a pas que le temps qui a marqué nos visages De temps en temps j'gamberge et j'envisage Depuis le temps je vois clair dans tes messages Là il est temps de vite tourner la page Je suis toujours là pour un max, calypso bleu je suis pas de la police Paire de Air max sur un petit T-Max on viendra calmer aucun comique Papapa c'est qu'on est déjà en kappa, ça te rattrapera cette fois-ci on te loupera pas Elle fait pas la passe, elle vient des West Indies, gros c'est Paris qui a la marchandise Faut pas écouter les choses qui se disent entre deux perfs on se claque une bise La vie de Nasser, flow qataris, la Marseillaise est récitée C'est le flow qui a piqué, félicité par la cité C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite J'ai visé l'mille, je rallume mon pétard Y'a pas de covid ce soir on va se péter le tête Ramssa fehenik gros tu chouf mal Baisse le regard si tu vois que je lui tiens la mano Bénéfice everyday j'encaisse j'encaisse Mapesses mapesses y'a la police qui piste ma puce Elle veut partir en week-end j'aime trop la tess j'encaisse j'encaisse et je réserve la plus belle des suites J'suis titulaire indiscutable comme CR7 batistuta Sur écoute je peux pas discuter puce les barra téléphone jetable Tu n'es pas comme nous petit fils de putain t'as pas les codes C'est pas parce que je t'es déjà dit bonjour que t'es mon pote Ca vend la cannabis la weed en bas du bloc J'ai mis le kalenji Asics j'esquive les porcs Coup de lacrymogène on a bicrave des produits hallucinogènes Faudra leur faire du le-sa que que la vie soit belle On fait la guerre pas la paix fuck le prix Nobel Il me faut des billets pour que la vie soit belle vert et violet pour que la vie soit belle Grosse baraque avec vue sur la mer Ok c'est carré je suis dans le VIP et je repars avec deux missiles Me dis pas là t'es pas d'ici, ouais j'suis parisien comme Messi C'est galère à la cité mais ça t'allume sans hésiter Si demain j'arrête la zik, y'a les barrettes et la zipette</t>
+          <t>Halla grosse kichta de malade, gros pétard de salade J'filtre les appels t'inquiète ma belle Marseille on se balade Elle veut son gâté, elle veut son régalo Ils font les tarés nous on fait les taros Une soirée barrée t'es derrière les barreaux Toi tu nous dis que t'as 45, des rafales tout chargées gantées Ouais t'as sorti le A45 mais le videur te laisse pas rentrer Y'a l guetteur qui crie akha, y'a l guetteur qui crie ouh oh J'ai calé moula avant le barrage, y'a la douane y'a les pollos Je remonte la costa rebeu lacosté j'fais crier le Golf 8R J'vise pas le sommet j'suis au stah ça roule des gros zder avec ou sans mis-per J'suis en Nike LV j'écouterai Elvi 80 zetré zone à risque LV2 anglais LV1 money B.E.N.A.B Dracarys C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne J'fume la beuh d'hollanda, vodka et Miranda, tu peux compter sur moi fidèle comme Mandanda Y'en a eu des descentes et j'parle pas de police, ils en ont vu de toutes les couleurs ouais les jeunes ils s'alcoolisent Je sens que ça chante et je parle pas de choristes M'en fout de la vue sur la mer tant que les miens m'aiment à la folie En T-Max au cortège on escorte la Rolls Royce, on bloque la L2 c'est le mariage à Baby Boy C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite Ah ah j'suis dans ma folie J'ai pas récolté ce que j'ai semé, fais du bien avant que l'heure sonne Je t'ai fait confiance mais j'ai déconné je compte jamais ce que je donne Fin de soirée je fais les comptes, je mélange pas bébé et les potes C'est pas sur moi que tu vas te faire les dents Marseille Paris c'est élégant C'est la folie Y a des choses dans le cur qui nous lâchent pas, qui sont gravées J'en ai vu sourire pendant que mon cas s'aggravait Tourmenté, le combat est quotidien et mouvementé Tout tenter, la mentale on cherche pas à se montrer Si tu savais Boli des fois je pense que je suis maudit je n'oublie pas tout ce que tu m'as dit, ça quitte pas ma tête depuis jeudi Si tu savais Boli ce qui nous éloigne c'est les non-dits au milieu même pas y'a un radis, Moubzer a la haine depuis mardi Y'a pas que le temps qui a marqué nos visages De temps en temps j'gamberge et j'envisage Depuis le temps je vois clair dans tes messages Là il est temps de vite tourner la page Je suis toujours là pour un max, calypso bleu je suis pas de la police Paire de Air max sur un petit T-Max on viendra calmer aucun comique Papapa c'est qu'on est déjà en kappa, ça te rattrapera cette fois-ci on te loupera pas Elle fait pas la passe, elle vient des West Indies, gros c'est Paris qui a la marchandise Faut pas écouter les choses qui se disent entre deux perfs on se claque une bise La vie de Nasser, flow qataris, la Marseillaise est récitée C'est le flow qui a piqué, félicité par la cité C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite J'ai visé l'mille, je rallume mon pétard Y'a pas de covid ce soir on va se péter le tête Ramssa fehenik gros tu chouf mal Baisse le regard si tu vois que je lui tiens la mano Bénéfice everyday j'encaisse j'encaisse Mapesses mapesses y'a la police qui piste ma puce Elle veut partir en week-end j'aime trop la tess j'encaisse j'encaisse et je réserve la plus belle des suites J'suis titulaire indiscutable comme CR7 batistuta Sur écoute je peux pas discuter puce les barra téléphone jetable Tu n'es pas comme nous petit fils de putain t'as pas les codes C'est pas parce que je t'es déjà dit bonjour que t'es mon pote Ca vend la cannabis la weed en bas du bloc J'ai mis le kalenji Asics j'esquive les porcs Coup de lacrymogène on a bicrave des produits hallucinogènes Faudra leur faire du le-sa que que la vie soit belle On fait la guerre pas la paix fuck le prix Nobel Il me faut des billets pour que la vie soit belle vert et violet pour que la vie soit belle Grosse baraque avec vue sur la mer Ok c'est carré je suis dans le VIP et je repars avec deux missiles Me dis pas là t'es pas d'ici, ouais j'suis parisien comme Messi C'est galère à la cité mais ça t'allume sans hésiter Si demain j'arrête la zik, y'a les barrettes et la zipette</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cousin les années passent, je peux plus rester en place Je vois les gens construire leurs vie, moi je fais du surplace Jai jamais vu le marchand de sable Je dors plus la nuit , jai envie de faire du sale La vie est belle, mon cul ma belle Pour être heureux, faut plus que de loseille Elle me rend fou, elle me rend dingo Pour lassumer faudra gagner au loto Je suis en stress mon Dieu quand est-ce que le bonheur va me sourire, je suis HS Je me dis tout les jours, je bois sans cesse Jattends que le soleil se lève Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3 Pas attendu quon maide, pas attendu quon maime Fils dindigène, les chances ne sont pas les mêmes Pourquoi jai limpression de tomber dans le vide Jaurai tout donné pour pouvoir une autre vie On me regarde étrangement, je fais peur même à maman Dans ce monde matérialiste on te respecte quand tas de largent Elle lit dans mon visage elle sait quand je mens Ya toujours le cordon cest comme si elle mangeait quand je mange You might also like Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3</t>
+          <t>Cousin les années passent, je peux plus rester en place Je vois les gens construire leurs vie, moi je fais du surplace Jai jamais vu le marchand de sable Je dors plus la nuit , jai envie de faire du sale La vie est belle, mon cul ma belle Pour être heureux, faut plus que de loseille Elle me rend fou, elle me rend dingo Pour lassumer faudra gagner au loto Je suis en stress mon Dieu quand est-ce que le bonheur va me sourire, je suis HS Je me dis tout les jours, je bois sans cesse Jattends que le soleil se lève Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3 Pas attendu quon maide, pas attendu quon maime Fils dindigène, les chances ne sont pas les mêmes Pourquoi jai limpression de tomber dans le vide Jaurai tout donné pour pouvoir une autre vie On me regarde étrangement, je fais peur même à maman Dans ce monde matérialiste on te respecte quand tas de largent Elle lit dans mon visage elle sait quand je mens Ya toujours le cordon cest comme si elle mangeait quand je mange Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tahya el jazayar Lih glab aahh Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra Lalgérie tahya l'a3lama Nadjma wa hlala Nadjma wa hlala 3lik ya bladi el jazayer ndir el mouhala Dans les quatre coins du monde Je représente quoi quil arrive frère Cest l'Algérino de la wilaya de Marseille Je suis un peu partout comme le drapeau de lAlgérie Bladi ou ma tssalouliche Ou halalalalala Wesh lAlger j'suis en direct de Blida c'est la hella Jentends les minots chanter Sur la tête de ma mère 3ami el commissaire el youm ma tahkamniche Sur la tête de ma mère Nakhraj nafrah ou nazha El youm ma tssalouliche Sur la tête de ma mère Sur la tête de ma mère You might also like Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra El jazayar tahya la3lama Nadjma wa hlal Nadjma wa hlal M3akia ya blade El jazayar dima fidèle Je fais la fierté de mon pays Escorte militaire Sortez les drapeaux et les fusils Ce soir cest la guerre On est tellement fière quon envahit le stade même quand on perd Sur la tête de ton père Ou Halalalalala M3ak ya el khadra Ou Halalalalala Viva lAlgérie Khamssa wa khmousse 3la bladi Moutou ya el ghiyarine Yeah Cest lAlgerino2</t>
+          <t>Tahya el jazayar Lih glab aahh Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra Lalgérie tahya l'a3lama Nadjma wa hlala Nadjma wa hlala 3lik ya bladi el jazayer ndir el mouhala Dans les quatre coins du monde Je représente quoi quil arrive frère Cest l'Algérino de la wilaya de Marseille Je suis un peu partout comme le drapeau de lAlgérie Bladi ou ma tssalouliche Ou halalalalala Wesh lAlger j'suis en direct de Blida c'est la hella Jentends les minots chanter Sur la tête de ma mère 3ami el commissaire el youm ma tahkamniche Sur la tête de ma mère Nakhraj nafrah ou nazha El youm ma tssalouliche Sur la tête de ma mère Sur la tête de ma mère Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra El jazayar tahya la3lama Nadjma wa hlal Nadjma wa hlal M3akia ya blade El jazayar dima fidèle Je fais la fierté de mon pays Escorte militaire Sortez les drapeaux et les fusils Ce soir cest la guerre On est tellement fière quon envahit le stade même quand on perd Sur la tête de ton père Ou Halalalalala M3ak ya el khadra Ou Halalalalala Viva lAlgérie Khamssa wa khmousse 3la bladi Moutou ya el ghiyarine Yeah Cest lAlgerino2</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oh na na, oh na na, yeah Oh na na, oh na na Mon iPhone sonne 10h du mat' J'ai la tête dans le cul J'crois que c'est la mèche qui me fait une blague J'descend de mon bloc J'allume une clope le soleil tape Le charbon Et dit wesh l'Alger j'ai de la frappe Bsahtek la famille elles sont toutes à fond sur toi Y'a plein de jaloux, t'en balec les calcule pas Rien qu'ils parlent de moi, tous les jours ils me font la biz' Il bande sur une folle et il s'lâche quand il est sous tize Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2 Fais gaffe à qui tu te confie Mieux vaux un ennemi que la moitié d'un ami Des fois tu te lâche avec lui, ce fils de raconte ta vie Le dos tourné il est capable de brancher ta gadji Tous des enculés, les vrais y'en a pas beaucoup Fait ton calcul qui était là quand tu étais dans le trou Que des mec fragiles qui s'affolent devant un cul C'est la plus grande des chiennes, pour elle ils l'envoient toute en cul You might also like Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2</t>
+          <t>Oh na na, oh na na, yeah Oh na na, oh na na Mon iPhone sonne 10h du mat' J'ai la tête dans le cul J'crois que c'est la mèche qui me fait une blague J'descend de mon bloc J'allume une clope le soleil tape Le charbon Et dit wesh l'Alger j'ai de la frappe Bsahtek la famille elles sont toutes à fond sur toi Y'a plein de jaloux, t'en balec les calcule pas Rien qu'ils parlent de moi, tous les jours ils me font la biz' Il bande sur une folle et il s'lâche quand il est sous tize Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2 Fais gaffe à qui tu te confie Mieux vaux un ennemi que la moitié d'un ami Des fois tu te lâche avec lui, ce fils de raconte ta vie Le dos tourné il est capable de brancher ta gadji Tous des enculés, les vrais y'en a pas beaucoup Fait ton calcul qui était là quand tu étais dans le trou Que des mec fragiles qui s'affolent devant un cul C'est la plus grande des chiennes, pour elle ils l'envoient toute en cul Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué à le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié aux Hommes qui ont combattu pour la paix Parce que jai voulu dire des choses, réunir des Hommes de cultures différentes Parce que jai prôné le dialogue et prêché lamour, prêché la vraie parole Réunir des peuples de religions opposées Allergiques au bien, à lHomme, à la nausée Jmappelle Gandhi jsuis mort Parce quon préfère la guerre à la paix, les armes au dialogue Jsuis mort dun cancer dla haine généralisé dans tout lglobe Mort parce que lHomme ne se sert pas de ses deux lobes cérébraux Jsuis mort parce que jcombattais lrascisme aux Etats-Unis Le noir nétait pas welcome, trop dhaine Jmappelle Malcom X, homme libre, homme ivre dégalité, dfraternité La couleur nest pas une frontière certes Trop desprits étroits Trop dconservateurs dmauvaise graine Je msuis fait buter, les balles ont fusé La haine est montée en fusée, je msuis envolé Comme mon discours et mon papier aussi jsuis mort Dans les montagnes dAfghanistan dorigine Pachtoune On ma dit dservir ton pays mais pas touche Je msuis fait exporter par la CIA pour vaincre lUnion Soviétique Jmappelle Massoud Je msuis fait piéger par une caméra, mon peuple a pleuré pour moi Avec du recul, ils cherchaient à construire un oléoduc pour faire transiter lor noir Leur putain dpétrole qui dirigent toutes leurs boussoles Ils sont même allés en Irak fouiller les sous-sols You might also like Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala... Le vent slève, un courant dair frais, une brise caresse la flore Dessine les trajectoires que suivent les pétales qui tombent sur le sol Les feuilles mortes tombent, les arbres se dénudent Il tombe des pluies, comme si sannonçait le déluge Non il tombe des obus, frappes au mortier Jsuis vêtu dun uniforme kaki, soldat du 15eme régiment dinfanterie Dlarmée des USA dans les forêts du Vietnam Jsuis mort pour la soi-disant fierté de mon pays Moi jmappelle X, personne inconnue à qui une balle a transpercé lcur Tirée par un serial killer du Ku Klux Klan Aujourdhui jsuis rien dautre quune célèbre victime dun crime contre lhumanité Parce que je nai pas la peau blanche Moi jétais dans un bureau du 70e étage dune tour Un avion sest écrasé dessus Ptêtre par accident Ou ptêtre à cause des gens qui mêlent politique et religion Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué a le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié à ceux qui ont combattus pour la paix Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala...</t>
+          <t>Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué à le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié aux Hommes qui ont combattu pour la paix Parce que jai voulu dire des choses, réunir des Hommes de cultures différentes Parce que jai prôné le dialogue et prêché lamour, prêché la vraie parole Réunir des peuples de religions opposées Allergiques au bien, à lHomme, à la nausée Jmappelle Gandhi jsuis mort Parce quon préfère la guerre à la paix, les armes au dialogue Jsuis mort dun cancer dla haine généralisé dans tout lglobe Mort parce que lHomme ne se sert pas de ses deux lobes cérébraux Jsuis mort parce que jcombattais lrascisme aux Etats-Unis Le noir nétait pas welcome, trop dhaine Jmappelle Malcom X, homme libre, homme ivre dégalité, dfraternité La couleur nest pas une frontière certes Trop desprits étroits Trop dconservateurs dmauvaise graine Je msuis fait buter, les balles ont fusé La haine est montée en fusée, je msuis envolé Comme mon discours et mon papier aussi jsuis mort Dans les montagnes dAfghanistan dorigine Pachtoune On ma dit dservir ton pays mais pas touche Je msuis fait exporter par la CIA pour vaincre lUnion Soviétique Jmappelle Massoud Je msuis fait piéger par une caméra, mon peuple a pleuré pour moi Avec du recul, ils cherchaient à construire un oléoduc pour faire transiter lor noir Leur putain dpétrole qui dirigent toutes leurs boussoles Ils sont même allés en Irak fouiller les sous-sols Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala... Le vent slève, un courant dair frais, une brise caresse la flore Dessine les trajectoires que suivent les pétales qui tombent sur le sol Les feuilles mortes tombent, les arbres se dénudent Il tombe des pluies, comme si sannonçait le déluge Non il tombe des obus, frappes au mortier Jsuis vêtu dun uniforme kaki, soldat du 15eme régiment dinfanterie Dlarmée des USA dans les forêts du Vietnam Jsuis mort pour la soi-disant fierté de mon pays Moi jmappelle X, personne inconnue à qui une balle a transpercé lcur Tirée par un serial killer du Ku Klux Klan Aujourdhui jsuis rien dautre quune célèbre victime dun crime contre lhumanité Parce que je nai pas la peau blanche Moi jétais dans un bureau du 70e étage dune tour Un avion sest écrasé dessus Ptêtre par accident Ou ptêtre à cause des gens qui mêlent politique et religion Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué a le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié à ceux qui ont combattus pour la paix Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala...</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Par les charmes de la vie j'suis tenté J'vois le monde qui part en couilles, roule moi un gros joint d'amné Poto y a rien de grave tu sais, tant qu'on a la santé Y a la madré qui m'appelle, le p'tit frère qui vient d'tomber On n'sait pas où la vie nous mène Y a qu'Dieu qui peut m'juger Pardon si j't'ai fait d'la peine, tu sais qu'sur moi tu peux compter Arrête de me faire le beau, tu t'es pris pour un narco Pas à l'abris d't'faire fumer par un zemel comme Patcho Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous You might also like Tu m'as donné ta parole et tu m'as dis j'ai pas le temps J'habite chez la daronne, elle a mis l'platine au salon Tu m'as fait plaiz' la 'zine et vas-y ressert moi un verre Tu m'as vu dans Voici, t'hallucines j'suis sortir d'la 'zère Et oui mon ami, j'suis au bord d'la mer J'suis dans la musique, j'suis encore en vie et qu'est-ce tu peux faire ? J'sais qu'elle est maline, qu'elle veut me la faire 13ème art à l'usine, showcase à Madrid, j'fais le tour d'la terre Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Lève ton verre à ma santé La daronne n'est plus endettée Le passé ne m'a pas épargné Pourtant je souris comme jamais Chez moi on n'sait pas plier On carbure à la fierté On fait la guerre à la vie même si les munitions sont épuisées Le quartier ne m'a pas tué Combien de frères sont tombés ? En hommage à leur mémoire je continue de rafaler le succès, oh Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Léwé dans l'club, dans l'VIP on m'installe J'suis dans leurs viseurs J'vais mourir jeune à force de faire du sale J'traine dans mon secteur Que du sale Treize, Marseille c'est l'bled Le rap se fait soulever par le raid Ici toutes les balances sont wanted Pum pum au feu rouge Que du sale Me parle pas et fais ta folle Elle voit déjà le voyage de noces On est là mais la fête est fausse La tête dans les billets on fait Que du sale Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous1</t>
+          <t>Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Par les charmes de la vie j'suis tenté J'vois le monde qui part en couilles, roule moi un gros joint d'amné Poto y a rien de grave tu sais, tant qu'on a la santé Y a la madré qui m'appelle, le p'tit frère qui vient d'tomber On n'sait pas où la vie nous mène Y a qu'Dieu qui peut m'juger Pardon si j't'ai fait d'la peine, tu sais qu'sur moi tu peux compter Arrête de me faire le beau, tu t'es pris pour un narco Pas à l'abris d't'faire fumer par un zemel comme Patcho Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Tu m'as donné ta parole et tu m'as dis j'ai pas le temps J'habite chez la daronne, elle a mis l'platine au salon Tu m'as fait plaiz' la 'zine et vas-y ressert moi un verre Tu m'as vu dans Voici, t'hallucines j'suis sortir d'la 'zère Et oui mon ami, j'suis au bord d'la mer J'suis dans la musique, j'suis encore en vie et qu'est-ce tu peux faire ? J'sais qu'elle est maline, qu'elle veut me la faire 13ème art à l'usine, showcase à Madrid, j'fais le tour d'la terre Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Lève ton verre à ma santé La daronne n'est plus endettée Le passé ne m'a pas épargné Pourtant je souris comme jamais Chez moi on n'sait pas plier On carbure à la fierté On fait la guerre à la vie même si les munitions sont épuisées Le quartier ne m'a pas tué Combien de frères sont tombés ? En hommage à leur mémoire je continue de rafaler le succès, oh Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Léwé dans l'club, dans l'VIP on m'installe J'suis dans leurs viseurs J'vais mourir jeune à force de faire du sale J'traine dans mon secteur Que du sale Treize, Marseille c'est l'bled Le rap se fait soulever par le raid Ici toutes les balances sont wanted Pum pum au feu rouge Que du sale Me parle pas et fais ta folle Elle voit déjà le voyage de noces On est là mais la fête est fausse La tête dans les billets on fait Que du sale Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21 fois 365 jours, 21 fois la Terre a tourné autour Du soleil depuis qu'j'ai vu l'jour 21 piges en conclusion 21 années A squatter ces blocs fanés 21 moins 3, années scolaires à comprendre Que Liberté, Egalité, Fraternité cest d'la théorie Dont on essaie de mettre ça en pratique, situation critique Trop rigide est l'être humain et son esprit 21 façons non, mille et une façons de dire les choses Une, deux, trois sont valables et franchise sincérité et tact Une, deux, trois façons de dire ses 4 vérités soit 21 fois 365 fois 24 heures Ça donne 138 960 heures Juste le temps d'acquérir un bac et un deug d'accord Juste le temps de s'armer et d'affronter cette vie hardcore 21 balais toujours gringalé déshydraté Trop soif parce que trop peu gâté 21 fois de fêtes de l'aîd par année Rassemblement familial à constater qu'les proches y'a qu'ça d'vrai Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne You might also like 21 fois la Terre a tourné Minimum 21 fois à penser à tout r'tourner Pensées malsaines qui poussent le mal couronné Nous poussent à tout renier mais j'croupe les liens familiaux 81 mois ma mère a porté 9 enfants 81 mois De grossesse en tout pourtant tout un poids Toute une descendance en soi Toute une famille toute une progéniture 81 mois A nous couver bien au chaud 21 baffes Entre celles des parents et celles de la vie le manque de taff Soif mil et un fleuve rassasie notre soif Certains sont empoisonnés il faut croire 21 étés passés au bled On sait où l'on va sachant d'où l'on vient en fait 21 hivers passés à Marseille tempéré dans l'climat Mais froid dans le cur c'est toujours le même panorama 21 ans de vie à observer tant d'injustices Depuis j'ai rien compris 21 années à comprendre quon a des devoirs et des droits Qu'la loi est la même pour tout l'monde même si certains ne lappliquent pas Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne</t>
+          <t>21 fois 365 jours, 21 fois la Terre a tourné autour Du soleil depuis qu'j'ai vu l'jour 21 piges en conclusion 21 années A squatter ces blocs fanés 21 moins 3, années scolaires à comprendre Que Liberté, Egalité, Fraternité cest d'la théorie Dont on essaie de mettre ça en pratique, situation critique Trop rigide est l'être humain et son esprit 21 façons non, mille et une façons de dire les choses Une, deux, trois sont valables et franchise sincérité et tact Une, deux, trois façons de dire ses 4 vérités soit 21 fois 365 fois 24 heures Ça donne 138 960 heures Juste le temps d'acquérir un bac et un deug d'accord Juste le temps de s'armer et d'affronter cette vie hardcore 21 balais toujours gringalé déshydraté Trop soif parce que trop peu gâté 21 fois de fêtes de l'aîd par année Rassemblement familial à constater qu'les proches y'a qu'ça d'vrai Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne 21 fois la Terre a tourné Minimum 21 fois à penser à tout r'tourner Pensées malsaines qui poussent le mal couronné Nous poussent à tout renier mais j'croupe les liens familiaux 81 mois ma mère a porté 9 enfants 81 mois De grossesse en tout pourtant tout un poids Toute une descendance en soi Toute une famille toute une progéniture 81 mois A nous couver bien au chaud 21 baffes Entre celles des parents et celles de la vie le manque de taff Soif mil et un fleuve rassasie notre soif Certains sont empoisonnés il faut croire 21 étés passés au bled On sait où l'on va sachant d'où l'on vient en fait 21 hivers passés à Marseille tempéré dans l'climat Mais froid dans le cur c'est toujours le même panorama 21 ans de vie à observer tant d'injustices Depuis j'ai rien compris 21 années à comprendre quon a des devoirs et des droits Qu'la loi est la même pour tout l'monde même si certains ne lappliquent pas Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rim's on the beat En promenade, j'fume le Cohiba Taureau sur le capot, c'est la corrida Inspire-toi mais ne copie pas Comme parrain de Palerme, dans les cheveux, j'ai mis la gomina Born in France, made in DZ Ma Patek Philippe est à l'heure du bled T'as millions d'abonnés, j'ai millions d'euros J'suis résident fiscal à Alger, ils ont le fuego J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes You might also like Jeune trafiquant, je connais tous les taros combien ? Eh fais-toi un garrot avec ma Ferragamo J'ai fait TP dans le bloc, j'ai vendu la puro Marseille te laisse sur le carreau, crie akha, j'ai vu les gyros Ma beauté, je suis coté Cette année, Soso Maness, il joue la montée Tahya bladna, 02 gang, Chlef, rray tlef Comme Belloumi, j'fais J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes</t>
+          <t>Rim's on the beat En promenade, j'fume le Cohiba Taureau sur le capot, c'est la corrida Inspire-toi mais ne copie pas Comme parrain de Palerme, dans les cheveux, j'ai mis la gomina Born in France, made in DZ Ma Patek Philippe est à l'heure du bled T'as millions d'abonnés, j'ai millions d'euros J'suis résident fiscal à Alger, ils ont le fuego J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Jeune trafiquant, je connais tous les taros combien ? Eh fais-toi un garrot avec ma Ferragamo J'ai fait TP dans le bloc, j'ai vendu la puro Marseille te laisse sur le carreau, crie akha, j'ai vu les gyros Ma beauté, je suis coté Cette année, Soso Maness, il joue la montée Tahya bladna, 02 gang, Chlef, rray tlef Comme Belloumi, j'fais J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ils font , les armes à Manny, ils ont pas l'fascicule Algérien comme Benze', j'suis dans la Benzo, tu connais l'véhicule Oh la 'sine est trop charmée, elle veut son gâté, elle a vu l'attitude Monte à bord de l'avion, j'ai pris des ronds, on va prendre l'altitude Les p'tits charbonnent pour du Balmain, il pleut des balles même quand c'est la canicule Y l'mauvais il qui m'harcèle, bébé, c'est Marseille, tu connais l'matricule Quand je vais mal, ils sont ravis, poto, c'st la vie, ouais, j'ai pris l'habitude Quartier, quatr saisons, j'ai mes raisons si j'ai b'soin d'solitude Mama, j'suis fier comme baba, jamais j'passerais aux aveux Et pour mévader là bas, j'mélange le shit et la beuh Tête de 3arbi comme Salah, on en a fait du sale Mais avec les yeux, on triche pas, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat You might also like Elle, c'qui l'intéresse, c'est l'Audi RS, c'est remplir la pellicule J'connais par cur l'ATS, j'ai les K, le S, prends mon Snap', fais ta pub' Quartiers Nord, Sud et Carter, menotté par terre devant tout l'quartier Audemars, Philippe Patek, dis-moi bsahtek si j'ai fait du papier J'suis ralenti, j'ai les palettes, sur du Cheb Hasni, j'ai fait le tour La bécane frotte la bavette, y a kichta, barrettes, tout dans le four Et madame voulait Bali, j'demande sa mano, j'arrêtais pas d'zoner J'sais pas combien d'gens m'ont trahi, j'deviens parano, comment les pardonner ? Oui, les petits ont grandi, sur le terrain comme Manny C'est la mélo' des bandits, guitarisé comme Johnny Elle veut Gucci et le Fendi, mano sur l'doigt et la Audi Elle est chargée comme ma kichta, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait</t>
+          <t>Ils font , les armes à Manny, ils ont pas l'fascicule Algérien comme Benze', j'suis dans la Benzo, tu connais l'véhicule Oh la 'sine est trop charmée, elle veut son gâté, elle a vu l'attitude Monte à bord de l'avion, j'ai pris des ronds, on va prendre l'altitude Les p'tits charbonnent pour du Balmain, il pleut des balles même quand c'est la canicule Y l'mauvais il qui m'harcèle, bébé, c'est Marseille, tu connais l'matricule Quand je vais mal, ils sont ravis, poto, c'st la vie, ouais, j'ai pris l'habitude Quartier, quatr saisons, j'ai mes raisons si j'ai b'soin d'solitude Mama, j'suis fier comme baba, jamais j'passerais aux aveux Et pour mévader là bas, j'mélange le shit et la beuh Tête de 3arbi comme Salah, on en a fait du sale Mais avec les yeux, on triche pas, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat Elle, c'qui l'intéresse, c'est l'Audi RS, c'est remplir la pellicule J'connais par cur l'ATS, j'ai les K, le S, prends mon Snap', fais ta pub' Quartiers Nord, Sud et Carter, menotté par terre devant tout l'quartier Audemars, Philippe Patek, dis-moi bsahtek si j'ai fait du papier J'suis ralenti, j'ai les palettes, sur du Cheb Hasni, j'ai fait le tour La bécane frotte la bavette, y a kichta, barrettes, tout dans le four Et madame voulait Bali, j'demande sa mano, j'arrêtais pas d'zoner J'sais pas combien d'gens m'ont trahi, j'deviens parano, comment les pardonner ? Oui, les petits ont grandi, sur le terrain comme Manny C'est la mélo' des bandits, guitarisé comme Johnny Elle veut Gucci et le Fendi, mano sur l'doigt et la Audi Elle est chargée comme ma kichta, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Oriental Dream Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Wesh beloumi on sfait une virée ? Paraît quau Cristal ya un gros DJ Ça a même pas commencé Tes déjà déchiré Oriental Dream Amor jsuis trop inspiré Art spécialité folie Elle est jolie comme une Ferrari Aywa Mais jsuis pas ton pigeon ma chérie Demande à Abdullah la famille Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Ambiance électrique, khouya tricité Jsuis à Alger, jfais que piloter Jai pas ltemps, jai une Audemars Piguet Je finirai mes jours là-bas sans hésiter Mais dabord faut qujfasse une pakita Deux-trois millions deuros Cest la retraite là-bas Cousin jai pas ltemps Découter tes blablablas Jsuis bien XXX djellaba Ya Nebri Rythme Hami Ri Jdid W L'boom L'mosica Fi Demi Lila Lilat Lyoum Ambiance de feu Ya Radi Nglebha Non Stop W Yhala Cha Radi Yahbesha x2 Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam AyniyaYou might also like1</t>
+          <t>Oriental Dream Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Wesh beloumi on sfait une virée ? Paraît quau Cristal ya un gros DJ Ça a même pas commencé Tes déjà déchiré Oriental Dream Amor jsuis trop inspiré Art spécialité folie Elle est jolie comme une Ferrari Aywa Mais jsuis pas ton pigeon ma chérie Demande à Abdullah la famille Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Ambiance électrique, khouya tricité Jsuis à Alger, jfais que piloter Jai pas ltemps, jai une Audemars Piguet Je finirai mes jours là-bas sans hésiter Mais dabord faut qujfasse une pakita Deux-trois millions deuros Cest la retraite là-bas Cousin jai pas ltemps Découter tes blablablas Jsuis bien XXX djellaba Ya Nebri Rythme Hami Ri Jdid W L'boom L'mosica Fi Demi Lila Lilat Lyoum Ambiance de feu Ya Radi Nglebha Non Stop W Yhala Cha Radi Yahbesha x2 Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya1</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout ce complique quand t'deviens adolescent Faut que zeille et j'suis pris en deux feux incandescent Tout s'accélère j'ai des problème scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussira jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelque-uns comme quand tu jète des cartons Au rani J'fume des joints en cours de phylo rien a foutre de Pythagore J'décortiquais les phases de Luciano à mes heures perdues J'tape sur un ballon de baston en baston ma reput' prends du Gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la Thunes You might also likeAlors je vole je vole je vole je vole Alors je vole rien de grave des p'tits lartins Y a des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a fait éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou Elle crois que j'parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon Frère On me calculait pas quand j'étais plus bas que terre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais état envieux j'attendais mon heure J'attendais patiemment que la vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lève toi et bat toi jeune garnement Je me surpasse et j'vais me mettre en centre Y a que des pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lève toi et bat toi jeune garnements Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi</t>
+          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout ce complique quand t'deviens adolescent Faut que zeille et j'suis pris en deux feux incandescent Tout s'accélère j'ai des problème scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussira jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelque-uns comme quand tu jète des cartons Au rani J'fume des joints en cours de phylo rien a foutre de Pythagore J'décortiquais les phases de Luciano à mes heures perdues J'tape sur un ballon de baston en baston ma reput' prends du Gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la Thunes Alors je vole je vole je vole je vole Alors je vole rien de grave des p'tits lartins Y a des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a fait éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou Elle crois que j'parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon Frère On me calculait pas quand j'étais plus bas que terre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais état envieux j'attendais mon heure J'attendais patiemment que la vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lève toi et bat toi jeune garnement Je me surpasse et j'vais me mettre en centre Y a que des pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lève toi et bat toi jeune garnements Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>- Oh, Hassan, ça va ou quoi ? - Ça va, tranquille et quoi toi, frère? - Ça va, tranquille, tranquille, tranquille - Tu rebois un truc ? - Ouais, remets-moi la même s'te-plaît. Ah, t'as entendu pour l'autre ? - Ouais, j'ai entendu, c'est un truc de fou, eh - Eh ouais, à Marseille c'est devenu le bordel, eh J'suis à Marseille, y a des hauts, des bas, y a des gros débats Au départ, tous anti-État, RS4 illégal Tu connais l'hkayet, à c'qui p', c'est un chaud Fais gaffe à ton co', dis pas qu't'es libérable, il va t'donner en go C'est les ténèbres de Marseille à Paris Le Diable est devenu célèbre, les michtonneuses font de la sorcellerie Faut décrypter maintenant dans les stories, ça envoie des subli' Il fait l'chaud, Glock dans la bouche et après, il t'supplie Caisse pliée, cur brisé, gaspillé l'temps, j'fais l'niya, j'laisse filer, qu'est-ce qu'il est con Mes rêves d'hier, j'veux les vivre parce qu'il est temps et j'ai jamais fait le fier, hein Passe si tu veux t'loger, mange si tu veux manger Ma daronne c'est la mienne, c'est la tienne, on a tout partagé Parano, tu sais plus si c'est les schmitts qui t'ont filoché Tu l'as raté dehors, ils vont pas t'rater au bâtiment C surveillant You might also like J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves Moi j'étais pas là, 'sin, quand les p'tits ont pété ton magasin Pris ton réseau, les schmitts sont planqués dans la caravane J'ai mes raisons, tu as tes raisons, moi j'me mélange pas J'ai plus d'réseau, ça vient cagoulé comme mère Teresa J'fume la résine, en bas résille, ouais, elle fait sa folle Dans l'carré VIP, il claque la paye, néglige la daronne Y a pas d'répit, ça veut tes sous, ça veut ta gadji Eh ouais l'ami, ça peut t'fumer juste par jalousie Recherché en Andalousie, ça charbonne comme à l'usine Ça planque le magot dans une île, poto, t'hallucines On parle pas, on agit, l'inspiration vient comme par magie, demande à la machine Prends pas la machin, y a la Kalash' à l'achat Le shit est coté en bourse, c'est la fusée d'la NASA Tout dans la massa, rien dans la mama, poto, qué pasa? Tu veux quoi ? Eh, va niquer tes morts en Alaska J'suis au Cavalli, Olivia Valère, ouais J'suis aux Caraïbes, le teint caramel, ouais Beauté maladive, elle t'a mis à terre, hein ? Il est trop fragile, un homme à la mer, ouais J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves</t>
+          <t>- Oh, Hassan, ça va ou quoi ? - Ça va, tranquille et quoi toi, frère? - Ça va, tranquille, tranquille, tranquille - Tu rebois un truc ? - Ouais, remets-moi la même s'te-plaît. Ah, t'as entendu pour l'autre ? - Ouais, j'ai entendu, c'est un truc de fou, eh - Eh ouais, à Marseille c'est devenu le bordel, eh J'suis à Marseille, y a des hauts, des bas, y a des gros débats Au départ, tous anti-État, RS4 illégal Tu connais l'hkayet, à c'qui p', c'est un chaud Fais gaffe à ton co', dis pas qu't'es libérable, il va t'donner en go C'est les ténèbres de Marseille à Paris Le Diable est devenu célèbre, les michtonneuses font de la sorcellerie Faut décrypter maintenant dans les stories, ça envoie des subli' Il fait l'chaud, Glock dans la bouche et après, il t'supplie Caisse pliée, cur brisé, gaspillé l'temps, j'fais l'niya, j'laisse filer, qu'est-ce qu'il est con Mes rêves d'hier, j'veux les vivre parce qu'il est temps et j'ai jamais fait le fier, hein Passe si tu veux t'loger, mange si tu veux manger Ma daronne c'est la mienne, c'est la tienne, on a tout partagé Parano, tu sais plus si c'est les schmitts qui t'ont filoché Tu l'as raté dehors, ils vont pas t'rater au bâtiment C surveillant J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves Moi j'étais pas là, 'sin, quand les p'tits ont pété ton magasin Pris ton réseau, les schmitts sont planqués dans la caravane J'ai mes raisons, tu as tes raisons, moi j'me mélange pas J'ai plus d'réseau, ça vient cagoulé comme mère Teresa J'fume la résine, en bas résille, ouais, elle fait sa folle Dans l'carré VIP, il claque la paye, néglige la daronne Y a pas d'répit, ça veut tes sous, ça veut ta gadji Eh ouais l'ami, ça peut t'fumer juste par jalousie Recherché en Andalousie, ça charbonne comme à l'usine Ça planque le magot dans une île, poto, t'hallucines On parle pas, on agit, l'inspiration vient comme par magie, demande à la machine Prends pas la machin, y a la Kalash' à l'achat Le shit est coté en bourse, c'est la fusée d'la NASA Tout dans la massa, rien dans la mama, poto, qué pasa? Tu veux quoi ? Eh, va niquer tes morts en Alaska J'suis au Cavalli, Olivia Valère, ouais J'suis aux Caraïbes, le teint caramel, ouais Beauté maladive, elle t'a mis à terre, hein ? Il est trop fragile, un homme à la mer, ouais J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Avant de partir j'ai tant de chose à dire à mon public, aux miens A tous ces gens qui m'ont vu grandir J'aimerai dire avant tout que c'est la sincérité qui m'retient Le peu d'gens qui mécoutent, je trouve la force dans leur soutien Avant d'avoir le corps recouvert par un linceul Prenez cette chanson c'est comme un testament à elle seule J'ai pris conscience de mes responsabilitées Mes paroles peuvent faire du bien comme elles peuvent égarer Y'a 666 chemins pour faire du mal Un seul chemin pour faire partie des hommes de bien Créateur de toutes les créatures pardonne mes impostures Si la mort frappe à cet instant je serais en mauvaise posture J'aimerais dire aux frères gardez l'espoir Sachez que le bonheur ne se trouve pas dans les squares Se soûler le soir ne retarde que l'échéance La réalité frappe quand l'alcool redescend, tu recouvres tes sens Mon frère la vie est trop brève c'est maintenant ou jamais Soit tu flanches soit tu t'releves Si tu es dans l'illicite sache que ton fric a une sale odeur Il vaut pas le centième de l'argent gagné à la sueur Avant de partir j'aimerai dire aux petites soeurs Ne perdez pas votre fierté, votre imen est quelque chose de sacré T'as commis des erreurs Laisse pas les gens te juger Dieu a fait rentrer au paradis des ex-prostituées Avant de partir j'aimerais dire Yemma pardonne moi Pour les tracas que j't'ai causé, les larmes que tu as versé Tu as passé des nuits blanches à m'attendre devant mon lit Soucieuse de voir ton fils marié à la nuit Avant de rendre l'âme j'aimerais dire à ma femme Merci pour ta patience tu t'es dévoué corps et âme Tu as fait de moi un homme que serait Adam sans Ève Derrière chaque grand homme se cache une femme avec un grand air Avant de m'éteindre si j'vivais mes dernières heures J'aimerais les passer le front sur un tapis de prière Le cul entre 2 chaises dont une est électrique Condamné à périr la Loi Divine est irréversible Avant de partir j'aimerais dire j'ai tout sacrifié pour la musique J'ai tout donner pour la musique j'ai vu, manger, penser musique J'me rappelle au lycée le peu d'argent que j'avais J'achetais pas les sappes, Y'avait les séances studio à payer Avant de quitter c'monde Bon Dieu j'ai un souhait J'aimerais voir les enfants d'Isaac et dIsmaël vivrent en paix J'reviens de Palestine mon coeur en est criblé J'ai vu à Jérusalem que l'on peut tous se mélanger Avant de méteindre j'demande pardon à tous ceux que j'ai froissé Mon meilleur pote a rendu l'âme on s'est quitté sans s'parler merde Quand la mort frappe c'est trop tard les regrets rongent J'en est des larmes à chaque fois qu'il me visite dans mes songes Pas besoin de parcourir la Terre pour savoir qu'on est désuni Dans nos quartiers on se déchire en période de pénurie On se jalouse entre nous au lieu de se motiver Ton pote a réussit qu'est ce t'attends pour le féliciter Avant de m'éteindre j'aimerais dire à ma famille à quel point je les aimes Pour eux j'aurais pu donner ma vie Si j'pars avant vous à mon insu j'en suis désolé J'vous laisse ma descendance si ça peut vous consoler Désolé d'ne pas avoir témoigné mon amour autrement Mais j'ai trop d'pudeur et j'me lâche qu'à travers mes chansons Rien n'est plus important que les liens du sang Touche à ma famille et je ferais couler le sang J'aimerais aussi dire au public Qu'aux yeux des maisons de disque vous nêtes que du chiffre Que la plupart des artistes sont tous des hypocrites S'inventent des vies, Vendent leur misère pour du fricYou might also like</t>
+          <t>Avant de partir j'ai tant de chose à dire à mon public, aux miens A tous ces gens qui m'ont vu grandir J'aimerai dire avant tout que c'est la sincérité qui m'retient Le peu d'gens qui mécoutent, je trouve la force dans leur soutien Avant d'avoir le corps recouvert par un linceul Prenez cette chanson c'est comme un testament à elle seule J'ai pris conscience de mes responsabilitées Mes paroles peuvent faire du bien comme elles peuvent égarer Y'a 666 chemins pour faire du mal Un seul chemin pour faire partie des hommes de bien Créateur de toutes les créatures pardonne mes impostures Si la mort frappe à cet instant je serais en mauvaise posture J'aimerais dire aux frères gardez l'espoir Sachez que le bonheur ne se trouve pas dans les squares Se soûler le soir ne retarde que l'échéance La réalité frappe quand l'alcool redescend, tu recouvres tes sens Mon frère la vie est trop brève c'est maintenant ou jamais Soit tu flanches soit tu t'releves Si tu es dans l'illicite sache que ton fric a une sale odeur Il vaut pas le centième de l'argent gagné à la sueur Avant de partir j'aimerai dire aux petites soeurs Ne perdez pas votre fierté, votre imen est quelque chose de sacré T'as commis des erreurs Laisse pas les gens te juger Dieu a fait rentrer au paradis des ex-prostituées Avant de partir j'aimerais dire Yemma pardonne moi Pour les tracas que j't'ai causé, les larmes que tu as versé Tu as passé des nuits blanches à m'attendre devant mon lit Soucieuse de voir ton fils marié à la nuit Avant de rendre l'âme j'aimerais dire à ma femme Merci pour ta patience tu t'es dévoué corps et âme Tu as fait de moi un homme que serait Adam sans Ève Derrière chaque grand homme se cache une femme avec un grand air Avant de m'éteindre si j'vivais mes dernières heures J'aimerais les passer le front sur un tapis de prière Le cul entre 2 chaises dont une est électrique Condamné à périr la Loi Divine est irréversible Avant de partir j'aimerais dire j'ai tout sacrifié pour la musique J'ai tout donner pour la musique j'ai vu, manger, penser musique J'me rappelle au lycée le peu d'argent que j'avais J'achetais pas les sappes, Y'avait les séances studio à payer Avant de quitter c'monde Bon Dieu j'ai un souhait J'aimerais voir les enfants d'Isaac et dIsmaël vivrent en paix J'reviens de Palestine mon coeur en est criblé J'ai vu à Jérusalem que l'on peut tous se mélanger Avant de méteindre j'demande pardon à tous ceux que j'ai froissé Mon meilleur pote a rendu l'âme on s'est quitté sans s'parler merde Quand la mort frappe c'est trop tard les regrets rongent J'en est des larmes à chaque fois qu'il me visite dans mes songes Pas besoin de parcourir la Terre pour savoir qu'on est désuni Dans nos quartiers on se déchire en période de pénurie On se jalouse entre nous au lieu de se motiver Ton pote a réussit qu'est ce t'attends pour le féliciter Avant de m'éteindre j'aimerais dire à ma famille à quel point je les aimes Pour eux j'aurais pu donner ma vie Si j'pars avant vous à mon insu j'en suis désolé J'vous laisse ma descendance si ça peut vous consoler Désolé d'ne pas avoir témoigné mon amour autrement Mais j'ai trop d'pudeur et j'me lâche qu'à travers mes chansons Rien n'est plus important que les liens du sang Touche à ma famille et je ferais couler le sang J'aimerais aussi dire au public Qu'aux yeux des maisons de disque vous nêtes que du chiffre Que la plupart des artistes sont tous des hypocrites S'inventent des vies, Vendent leur misère pour du fric</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Donne-moi la main demain on fera le tour du globe N'écoute pas tes copines qui disent que je suis mauvais Je repars demain au show jai fait le tour du globe J'achète des montres j'ai pas le temps de compter mes love Jai pas le temps j'ai pas le temps je veux mailler Dans l'avion j'ai la wifi petit verre de baileys Je vais pas passer par 4 chemins pour te parler Tu es maléfique et magnifiquement taillé Je fais le tour de la zone je fais crier le Panamera Un dos tres je fais danser la macarena Qu'est-ce que tu as à ma cousine Tu me fais la crise t'es pas ma nana Ramène tes copines on tourne un clip et hola hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo tes dégouté, elle ta quitté ayo Ayé ayo elle t'a piqué, elle ta piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ha tu m'as critiqué mais ty es fada Pense qu'à faire des tubes que la manana Busca vroom vroom redémarage J'pilote j'fais la mala truc de malade Chemise dans les îles on met les voiles J'ai tout mis sur ether et solana Le wallet est chargé Millionnaire en cryptomonnaie Ils ont mis ma tête à prix en NFT hé hé hé You might also like Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Tu me dis qu't'es la famille mais tu parles mal mal mal À trop se mélanger ça finit mal mal mal Je cherche une destination faut que je me taille taille taille Ils ont cramés Phuket maintenant Dubaï, bai, bai On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque Habibi, habibi, ana kifek habibi Si j'te prends dans mes bras ne trahis pas la family On a un truc à dire on le dit 3aynani Qui t'as dit que j'étais fini aller bye bye Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Skalpovich</t>
+          <t>Donne-moi la main demain on fera le tour du globe N'écoute pas tes copines qui disent que je suis mauvais Je repars demain au show jai fait le tour du globe J'achète des montres j'ai pas le temps de compter mes love Jai pas le temps j'ai pas le temps je veux mailler Dans l'avion j'ai la wifi petit verre de baileys Je vais pas passer par 4 chemins pour te parler Tu es maléfique et magnifiquement taillé Je fais le tour de la zone je fais crier le Panamera Un dos tres je fais danser la macarena Qu'est-ce que tu as à ma cousine Tu me fais la crise t'es pas ma nana Ramène tes copines on tourne un clip et hola hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo tes dégouté, elle ta quitté ayo Ayé ayo elle t'a piqué, elle ta piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ha tu m'as critiqué mais ty es fada Pense qu'à faire des tubes que la manana Busca vroom vroom redémarage J'pilote j'fais la mala truc de malade Chemise dans les îles on met les voiles J'ai tout mis sur ether et solana Le wallet est chargé Millionnaire en cryptomonnaie Ils ont mis ma tête à prix en NFT hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Tu me dis qu't'es la famille mais tu parles mal mal mal À trop se mélanger ça finit mal mal mal Je cherche une destination faut que je me taille taille taille Ils ont cramés Phuket maintenant Dubaï, bai, bai On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque Habibi, habibi, ana kifek habibi Si j'te prends dans mes bras ne trahis pas la family On a un truc à dire on le dit 3aynani Qui t'as dit que j'étais fini aller bye bye Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Skalpovich</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes Chlaouis, mes Harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Eh, jrentre dans la boite de nuit Ma gueule tu connais les DZ Tu veux faire la guerre Avec tes bouteilles ? Mon pote on va vider la réserve Ce soir tout lmonde est beau Ils dansent les bras écartés Ya les michtos qui cambrent Qui font tout pour que vous les regardiez Lacrim, LAlgé On veut des lovés, des lovés On na rien à prouver Gros quils sont mauvais Quils rêvent de me crever Danse comme un Chaoui Danse comme un Kabyle Danse comme un Oranais À la fin dla soirée cest celui Qui a bu le plus qui veut vous ramener Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un ChaouiYou might also like</t>
+          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes Chlaouis, mes Harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Eh, jrentre dans la boite de nuit Ma gueule tu connais les DZ Tu veux faire la guerre Avec tes bouteilles ? Mon pote on va vider la réserve Ce soir tout lmonde est beau Ils dansent les bras écartés Ya les michtos qui cambrent Qui font tout pour que vous les regardiez Lacrim, LAlgé On veut des lovés, des lovés On na rien à prouver Gros quils sont mauvais Quils rêvent de me crever Danse comme un Chaoui Danse comme un Kabyle Danse comme un Oranais À la fin dla soirée cest celui Qui a bu le plus qui veut vous ramener Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya Ou bayna bayna Hiya hbibti hiya ghzali Bayna bayna Ana w yak ya dalali Bonsoir mesdames et messieurs Cortège de bestiaux, métaux précieux Kheye on est classieux Beauté, poto, aïe ça s'annonce chaud Tu galères à l'entrée, envoies un texto Wesh poto, wesh cousine Orthi, on a sorti le dernier smoking En GP, en GT , Audi TT Frais de chez frais en hiver comme en été J'te fais danser jusqu'à Beyrouth Ma voix résonne de Marseille à Paris Karim en en en envoies la chicha D'la chair et d'la chahma bien sur on aime ça Tu connais la gimmick ti ti ti li titi Marseille pas de clinique Dans tous les cortèges ça crie Ti ti ti li titi You might also likeNtiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Tu t'es fait recaler en boite mahlich y a le mariage à Mokhtar Costard cravate sortis du placard Prépare l'enveloppe billet de 500 Dans la piste que des Pénélope et des Kardashian Polopopolop Algérie polopopopolop Maroc Tunisie Polopopolop L'Algé opopop j'suis au Bled avec des marques j'accoste Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya Bayna banyna ana w yak ya dalali La ceinture LV ça débarque en Bentley T'as du style t'as du swagg t'es parti faire les UV Plaqué DG pas trop BCBG Faut pas forcer on fait ça léger léger Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya X2</t>
+          <t>Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya Ou bayna bayna Hiya hbibti hiya ghzali Bayna bayna Ana w yak ya dalali Bonsoir mesdames et messieurs Cortège de bestiaux, métaux précieux Kheye on est classieux Beauté, poto, aïe ça s'annonce chaud Tu galères à l'entrée, envoies un texto Wesh poto, wesh cousine Orthi, on a sorti le dernier smoking En GP, en GT , Audi TT Frais de chez frais en hiver comme en été J'te fais danser jusqu'à Beyrouth Ma voix résonne de Marseille à Paris Karim en en en envoies la chicha D'la chair et d'la chahma bien sur on aime ça Tu connais la gimmick ti ti ti li titi Marseille pas de clinique Dans tous les cortèges ça crie Ti ti ti li titi Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Tu t'es fait recaler en boite mahlich y a le mariage à Mokhtar Costard cravate sortis du placard Prépare l'enveloppe billet de 500 Dans la piste que des Pénélope et des Kardashian Polopopolop Algérie polopopopolop Maroc Tunisie Polopopolop L'Algé opopop j'suis au Bled avec des marques j'accoste Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya Bayna banyna ana w yak ya dalali La ceinture LV ça débarque en Bentley T'as du style t'as du swagg t'es parti faire les UV Plaqué DG pas trop BCBG Faut pas forcer on fait ça léger léger Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya X2</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Le Salam à ceux qui voulaient briser mes rêves Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Masta exclusive Trois heures du mat', j'traîne dans l'viano, elle m'dit ti amo L'bruit des guitares, pas celui des pianos, ici ça tire à mort Et j'ai dû nager près des piranhas J'regarde en arrière, ça sera jamais comme avant Jamais pire qu'avant ma race Si seulement tu savais, seulement tu savais La tête en l'air, les deux pieds dans l'pavé Et l'cur en travaux Avec le temps y a plus beaucoup d'braves Et y en a qui portent l'il au lieu d'me dire bravo Ce soir j'fais l'tour de Marseille Rien que j'gamberge, et j'parle seul Ils veulent rien, à part le 'seille T'sais qu'mon sang t'y es pas l'seul, sinon, quoi d'neuf à part ça? À part ça J'te vois, rien qu'tu enchaînes les persos persos Et tu vois qu'dehors y a personne Ils ont tous fait leur vie, mais t'sais qu'on fait pas la guerre seul Tu recomptes tes ennuis Petit frère, le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves You might also like La vie nous a séparés, pour moi t'étais comme un frère Ta mère c'était ma mère, le sang ton père c'était mon père Et à quoi bon s'attacher? T'façon tout l'monde veut sa part Ouais, t'façon, un jour, tout l'monde part J'faisais le tour d'la ville à pied, aujourd'hui dans la Benzo P't-être que j'suis trop fier ma race, tu sais, DZ comme Benze' Plus jeune j'voulais pleins d'sous Une mère pleure son fils dans un bain d'sang Et t'sais qu'le 1-3 c'est criminel Descente du raid finit mal Coup d'Kalach', pas d'opinel Ça s'arrête jamais au final Ils ont perdu la tête, mis le nez dans la mâche Au milieu des requins, j'suis sortis à la nage J'aurai pas dû leur faire confiance, j'étais trop nia La madré m'avait prévenu, ça date pas d'hier T'sais que le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulait briser mes rêves Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait, qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves</t>
+          <t>Le Salam à ceux qui voulaient briser mes rêves Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Masta exclusive Trois heures du mat', j'traîne dans l'viano, elle m'dit ti amo L'bruit des guitares, pas celui des pianos, ici ça tire à mort Et j'ai dû nager près des piranhas J'regarde en arrière, ça sera jamais comme avant Jamais pire qu'avant ma race Si seulement tu savais, seulement tu savais La tête en l'air, les deux pieds dans l'pavé Et l'cur en travaux Avec le temps y a plus beaucoup d'braves Et y en a qui portent l'il au lieu d'me dire bravo Ce soir j'fais l'tour de Marseille Rien que j'gamberge, et j'parle seul Ils veulent rien, à part le 'seille T'sais qu'mon sang t'y es pas l'seul, sinon, quoi d'neuf à part ça? À part ça J'te vois, rien qu'tu enchaînes les persos persos Et tu vois qu'dehors y a personne Ils ont tous fait leur vie, mais t'sais qu'on fait pas la guerre seul Tu recomptes tes ennuis Petit frère, le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves La vie nous a séparés, pour moi t'étais comme un frère Ta mère c'était ma mère, le sang ton père c'était mon père Et à quoi bon s'attacher? T'façon tout l'monde veut sa part Ouais, t'façon, un jour, tout l'monde part J'faisais le tour d'la ville à pied, aujourd'hui dans la Benzo P't-être que j'suis trop fier ma race, tu sais, DZ comme Benze' Plus jeune j'voulais pleins d'sous Une mère pleure son fils dans un bain d'sang Et t'sais qu'le 1-3 c'est criminel Descente du raid finit mal Coup d'Kalach', pas d'opinel Ça s'arrête jamais au final Ils ont perdu la tête, mis le nez dans la mâche Au milieu des requins, j'suis sortis à la nage J'aurai pas dû leur faire confiance, j'étais trop nia La madré m'avait prévenu, ça date pas d'hier T'sais que le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulait briser mes rêves Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait, qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Refrain Ya rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino L'algé dans la caisse cousine remue tes fesses On fait dans la musique mieux que de faire dans la cess J'suis avec des chaouis j'suis avec des bylkus Y'a ceux qui roulent en gamos et ceux qui prennent le bus Je cherche la p'tite bête pour sortir ce soir Faut qu'j'm'embrouille avec ma meuf Faut qu'j'invente une histoire Y'a Ryad qui m'attend ça fait plus d'une heure Raconte pas tes problèmes de cur j'suis pas d'humeur ok Oh oh njik a domicile Oh oh n3ichou bleqlil Oh oh 3amri tranquille Oh oh ça fais zizir x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi You might also like Wesh wesh khey on est en mode rai Un peu de soleil j'te remet en mode fly La solution makanch il parait que c'est la crise Il parait que t'es un kheda3 ne me fais pas la bise On traine en lambo ou souvent en clio On veut des filles hnin fuck les bimbos Tetetête de bico avec un gros nazo Tu fais que baver cousine ton sac Louis Vuitton c'est un faux ok Oh oh allo docteur Oh oh dawi mon coeur Oh oh allo docteur Oh oh dawi mon coeur Refrain Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino Oh oh 3tini l'occasion Oh oh ndirou évasion Oh oh n3ichou la belle vie Oh oh blastek résevé X2 C'est comme ça Aman aman . cheb l'algérino.on est la Solo Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Kader japonais Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Oh.oh ngik a domicile Oh.oh n3ichou bleqlil Oh.oh 3amri tranquille Oh.oh ça fais zizil</t>
+          <t>x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Refrain Ya rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino L'algé dans la caisse cousine remue tes fesses On fait dans la musique mieux que de faire dans la cess J'suis avec des chaouis j'suis avec des bylkus Y'a ceux qui roulent en gamos et ceux qui prennent le bus Je cherche la p'tite bête pour sortir ce soir Faut qu'j'm'embrouille avec ma meuf Faut qu'j'invente une histoire Y'a Ryad qui m'attend ça fait plus d'une heure Raconte pas tes problèmes de cur j'suis pas d'humeur ok Oh oh njik a domicile Oh oh n3ichou bleqlil Oh oh 3amri tranquille Oh oh ça fais zizir x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Wesh wesh khey on est en mode rai Un peu de soleil j'te remet en mode fly La solution makanch il parait que c'est la crise Il parait que t'es un kheda3 ne me fais pas la bise On traine en lambo ou souvent en clio On veut des filles hnin fuck les bimbos Tetetête de bico avec un gros nazo Tu fais que baver cousine ton sac Louis Vuitton c'est un faux ok Oh oh allo docteur Oh oh dawi mon coeur Oh oh allo docteur Oh oh dawi mon coeur Refrain Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino Oh oh 3tini l'occasion Oh oh ndirou évasion Oh oh n3ichou la belle vie Oh oh blastek résevé X2 C'est comme ça Aman aman . cheb l'algérino.on est la Solo Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Kader japonais Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Oh.oh ngik a domicile Oh.oh n3ichou bleqlil Oh.oh 3amri tranquille Oh.oh ça fais zizil</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Lalalalalah Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte J'vois ma vie dans le noir, sous le ciel étoilé J'pense à toi, j'perds le Nord, j'cogite à mort si tu savais Ici, on s'tue pour de l'or, de quoi tu veux m'parler ? Mon cur est dans un coffre sous scellé, j'ai jeté la clé J'arrive plus à planer, regarde la vie qu'on avait On fait que s'déchirer et j'entends le Diable ricaner Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte You might also like Sachets d'billets dans le coffre, tous mes morceaux dans le top Mais quand j'allume ma clope, j'ai l'impression de reculer J'aurais pu tout claquer par égoïsme ou par lâcheté Est-ce que l'bonheur, on peut s'l'acheter ? T'as volé mon cur à l'arraché J'gamberge dans ma suite, j'dors plus, j'me rends malade Gravé sous la brique, mon nom sonnait comme une balade Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé</t>
+          <t>Eh, eh, eh Lalalalalah Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte J'vois ma vie dans le noir, sous le ciel étoilé J'pense à toi, j'perds le Nord, j'cogite à mort si tu savais Ici, on s'tue pour de l'or, de quoi tu veux m'parler ? Mon cur est dans un coffre sous scellé, j'ai jeté la clé J'arrive plus à planer, regarde la vie qu'on avait On fait que s'déchirer et j'entends le Diable ricaner Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Sachets d'billets dans le coffre, tous mes morceaux dans le top Mais quand j'allume ma clope, j'ai l'impression de reculer J'aurais pu tout claquer par égoïsme ou par lâcheté Est-ce que l'bonheur, on peut s'l'acheter ? T'as volé mon cur à l'arraché J'gamberge dans ma suite, j'dors plus, j'me rends malade Gravé sous la brique, mon nom sonnait comme une balade Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Moi j'veut croquer la vie Moi je n'fait que rêver Moi je n'ai pas un sous j'suis riche à en crever Moi j'fait mes prières mais moi j'blasphème chaque jours Moi j'veut me caser mais j'leurs fait toutes la cour Moi je veut être un roi mais j'suis qu'un esclave Moi j'ai perdu la foi je n'suis plus qu'un lâche J'ai demander pardon j'n'excuse personne Moi je te haît en faite je n'aime que ma propre personne Moi j'ai les idées claire moi j'me noie dans l'alcool Moi mes amis me sont cher mais je ne pense qu'au pactole Moi j'aime ma mère mais j'la fais souffrir Moi j'ai peur de la perdre mais moi je ne fais que courir Moi j'dit qui y a des filles bien mais elle me la faites à l'envers Moi je souffre dans mon paradis je vis un véritable enfers Mon dieu que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué You might also like Moi j'ai peur de rien en faite j'ai peur de moi même Sa fait du bien de faire du mal aux personnes qu'on aime Moi j't'ai tout donner et toi tu ma trahis Moi j't'ai fait confiance et par derrière tu me salis Moi j'ai un bon fond mais des fois je suis mauvais Torture psychologique j'veux me barrer, j'veux me sauver Moi j'ai aimer la rue la plus grosse garce que j'ai connue J'écrit des poèmes pour elle me traite comme un inconnu Dans les yeux de mon père j'ai vu de la joie j'ai vue de la tristesse Au lieu de rester au près de lui j'cour derrière ce foutu bisness J'suis une star pour mes fans connaissent le décors pas l'envers Moi je souffre dans mon paradis je vis un véritable enfers On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Yeah Yeah Yeah J'dit que Dieu soit loué Yeah Yeah Yeah J'dit que Dieu soit loué On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman te fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué</t>
+          <t>Moi j'veut croquer la vie Moi je n'fait que rêver Moi je n'ai pas un sous j'suis riche à en crever Moi j'fait mes prières mais moi j'blasphème chaque jours Moi j'veut me caser mais j'leurs fait toutes la cour Moi je veut être un roi mais j'suis qu'un esclave Moi j'ai perdu la foi je n'suis plus qu'un lâche J'ai demander pardon j'n'excuse personne Moi je te haît en faite je n'aime que ma propre personne Moi j'ai les idées claire moi j'me noie dans l'alcool Moi mes amis me sont cher mais je ne pense qu'au pactole Moi j'aime ma mère mais j'la fais souffrir Moi j'ai peur de la perdre mais moi je ne fais que courir Moi j'dit qui y a des filles bien mais elle me la faites à l'envers Moi je souffre dans mon paradis je vis un véritable enfers Mon dieu que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Moi j'ai peur de rien en faite j'ai peur de moi même Sa fait du bien de faire du mal aux personnes qu'on aime Moi j't'ai tout donner et toi tu ma trahis Moi j't'ai fait confiance et par derrière tu me salis Moi j'ai un bon fond mais des fois je suis mauvais Torture psychologique j'veux me barrer, j'veux me sauver Moi j'ai aimer la rue la plus grosse garce que j'ai connue J'écrit des poèmes pour elle me traite comme un inconnu Dans les yeux de mon père j'ai vu de la joie j'ai vue de la tristesse Au lieu de rester au près de lui j'cour derrière ce foutu bisness J'suis une star pour mes fans connaissent le décors pas l'envers Moi je souffre dans mon paradis je vis un véritable enfers On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Yeah Yeah Yeah J'dit que Dieu soit loué Yeah Yeah Yeah J'dit que Dieu soit loué On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman te fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal Olalalah, barra chica me trouve guapo J'ai 510 chevaux bien dressés sous le capot On en a marre du tieks, wAllah, on zone en bateau J'suis détr', cette année, j'vais mangr tout le gâteau J'lui sers une vodka pomme, elle m'demande une granita Vu qu'elle est bonne, elle est capricieuse la pépita Léwé sous jaune, j'ai les yeux rouges sous mes Ditta AK-4.7, rrah, c'est la guitare Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? You might also like Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller T'es pas fiable et t'aimes trop les bandiyas J'sais qu'tu t'prends pour Mendosa quand t'es toute seule dans la villa Moi, j'suis pas le meilleur, me fais pas tes manières Tu as vu le bolide et les billets, là tu fais la biatch J'le chante et je le vis, wAllah, wAllah J'voulais changer ta vie, t'as fait la follasse J'allais tout te donner, habi, wAllah J'ai tout abandonner, j'me barre de là, ah, ah Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller Hola chica, deux milliards de vues dans mon capital Prends ma carte black, c'est ta carte vitale Le compte au Costa Rica, j'sirote un déca' à l'arabica 600 chevaux, j'fais coucou à la flicaille Sous conseil d'mes avocats, j'ai assuré ton boule, mamacita J'ai assuré ton boule, mamacita J'suis habillé pour 10K, j'compte pas la montre, c'est qu'un détail J'tuerai comme La Kika pour toi, chica, chica chica Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal</t>
+          <t>On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal Olalalah, barra chica me trouve guapo J'ai 510 chevaux bien dressés sous le capot On en a marre du tieks, wAllah, on zone en bateau J'suis détr', cette année, j'vais mangr tout le gâteau J'lui sers une vodka pomme, elle m'demande une granita Vu qu'elle est bonne, elle est capricieuse la pépita Léwé sous jaune, j'ai les yeux rouges sous mes Ditta AK-4.7, rrah, c'est la guitare Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller T'es pas fiable et t'aimes trop les bandiyas J'sais qu'tu t'prends pour Mendosa quand t'es toute seule dans la villa Moi, j'suis pas le meilleur, me fais pas tes manières Tu as vu le bolide et les billets, là tu fais la biatch J'le chante et je le vis, wAllah, wAllah J'voulais changer ta vie, t'as fait la follasse J'allais tout te donner, habi, wAllah J'ai tout abandonner, j'me barre de là, ah, ah Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller Hola chica, deux milliards de vues dans mon capital Prends ma carte black, c'est ta carte vitale Le compte au Costa Rica, j'sirote un déca' à l'arabica 600 chevaux, j'fais coucou à la flicaille Sous conseil d'mes avocats, j'ai assuré ton boule, mamacita J'ai assuré ton boule, mamacita J'suis habillé pour 10K, j'compte pas la montre, c'est qu'un détail J'tuerai comme La Kika pour toi, chica, chica chica Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Y'a qu'des pensées malsaines qui me traquent, cette misère qui me drague Trop de contradictions dans ma tête, la détresse qui me braque Ce bas-monde qui m'attire, ces femmes qui me tentent Ce fric qui m'échappe et ces euros qui partent trop vite Ce luxe qui m'éblouit à en perdre la vue,l'ouïe Cet ami qui me trahit que je finis par haïr Et ce bonheur que je convoite qui finit par me fuir Ce shit qui nous endort, cette cigarette qui veut me détruire Ce cur qui se glace, ce cur qui s'encrasse Cette prière que je délaisse et tous les pêchés que j'entasse Cette mort qui me fait flipper parce que je n'ai pas assez uvré Mes bagages sont encore chargés de pêchés Ma famille qui m'appuie, ma famille qui me chérit Tous ces faux amis qui te salissent avec le sourire Mes surs qui sont ma poutre, mes frères qui sont mes bras Qui seraient prêts à tuer pour moi, à faire chanter la poudre Mes amis qui me soutiennent et y'a ce public qui me supporte Y'a ces potes qui changent pas même quand les sous viennent Ce Colt à portée de main, tenté de presser la détente Car trop déçu mais Dieu est juste et je patiente Ces études que j'ai lâché, ma mère me dit que je vais regretter Parce que toutes les stars s'éteignent juste après avoir brillé Ce rap qui m'exaspère, ces mêmes thèmes, ces mêmes mc Te parlent de zonz' pour faire décoller leurs ventes Ce flic qui me regarde mal et qui a plein de préjugés sur moi Cette société pourrie qui me casse les noix Ces élus auxquels il est dur de croire Cette justice, cette France, frère qui me comprend pas You might also like J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Ces femmes infidèles, ces hommes complexés Elles cherchent l'or et quand y'en a plus, elles cherchent à se barrer Cet or que je n'aurais jamais car l'Homme est un loup pour l'Homme La plupart du temps pour être riche faut voler l'argent des pauvres Cette mère que j'néglige, chaque minutes sont comptées Je passe plus de temps à courir au lieu de rester à son chevet Ce père modeste comme modèle, droit comme la justice Malgré la colonne vertébrale courbée Ce tapis rouge qu'on me déroule, cette modestie que je perds Cet orgueil que je combats, ce combat qu'il faut pas que je perde Cet ennemi qu'est moi-même, la face cachée de ma personne Que Dieu m'en éloigne jusqu'à c'que mon heure sonne Ces gros cubes, ces cercueils roulant J'ai perdu un ami, Ryad, que Dieu donne du courage à ta famille Cette mort qui prévient personne Que Dieu donne du courage à la famille du petit Naïm Ce destin que j'contrôle pas Cette histoire qui suit son cours et cette fin que j'connais pas Tous ces gens que j'aime et tous ces gens que j'aime pas Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Que j'assure ma descendance avant que la mort ne m'agresse J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Contradictoire est ma vie, mon destin est écrit Y faut croire qu'j'ai pris la mauvaise trajectoire À ma mort ils diront tous qu'j'étais un brave type En fait écoute ce texte et tu sauras qui je suis</t>
+          <t>Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Y'a qu'des pensées malsaines qui me traquent, cette misère qui me drague Trop de contradictions dans ma tête, la détresse qui me braque Ce bas-monde qui m'attire, ces femmes qui me tentent Ce fric qui m'échappe et ces euros qui partent trop vite Ce luxe qui m'éblouit à en perdre la vue,l'ouïe Cet ami qui me trahit que je finis par haïr Et ce bonheur que je convoite qui finit par me fuir Ce shit qui nous endort, cette cigarette qui veut me détruire Ce cur qui se glace, ce cur qui s'encrasse Cette prière que je délaisse et tous les pêchés que j'entasse Cette mort qui me fait flipper parce que je n'ai pas assez uvré Mes bagages sont encore chargés de pêchés Ma famille qui m'appuie, ma famille qui me chérit Tous ces faux amis qui te salissent avec le sourire Mes surs qui sont ma poutre, mes frères qui sont mes bras Qui seraient prêts à tuer pour moi, à faire chanter la poudre Mes amis qui me soutiennent et y'a ce public qui me supporte Y'a ces potes qui changent pas même quand les sous viennent Ce Colt à portée de main, tenté de presser la détente Car trop déçu mais Dieu est juste et je patiente Ces études que j'ai lâché, ma mère me dit que je vais regretter Parce que toutes les stars s'éteignent juste après avoir brillé Ce rap qui m'exaspère, ces mêmes thèmes, ces mêmes mc Te parlent de zonz' pour faire décoller leurs ventes Ce flic qui me regarde mal et qui a plein de préjugés sur moi Cette société pourrie qui me casse les noix Ces élus auxquels il est dur de croire Cette justice, cette France, frère qui me comprend pas J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Ces femmes infidèles, ces hommes complexés Elles cherchent l'or et quand y'en a plus, elles cherchent à se barrer Cet or que je n'aurais jamais car l'Homme est un loup pour l'Homme La plupart du temps pour être riche faut voler l'argent des pauvres Cette mère que j'néglige, chaque minutes sont comptées Je passe plus de temps à courir au lieu de rester à son chevet Ce père modeste comme modèle, droit comme la justice Malgré la colonne vertébrale courbée Ce tapis rouge qu'on me déroule, cette modestie que je perds Cet orgueil que je combats, ce combat qu'il faut pas que je perde Cet ennemi qu'est moi-même, la face cachée de ma personne Que Dieu m'en éloigne jusqu'à c'que mon heure sonne Ces gros cubes, ces cercueils roulant J'ai perdu un ami, Ryad, que Dieu donne du courage à ta famille Cette mort qui prévient personne Que Dieu donne du courage à la famille du petit Naïm Ce destin que j'contrôle pas Cette histoire qui suit son cours et cette fin que j'connais pas Tous ces gens que j'aime et tous ces gens que j'aime pas Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Que j'assure ma descendance avant que la mort ne m'agresse J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Contradictoire est ma vie, mon destin est écrit Y faut croire qu'j'ai pris la mauvaise trajectoire À ma mort ils diront tous qu'j'étais un brave type En fait écoute ce texte et tu sauras qui je suis</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Amené à avoir des émotions, toutes sortes d'états qui te mettent hors de toi M'as-tu vu manger des pierres, des creux dans l'estomac ? Pourtant loin d'être pauvre, mais l'homme se rassasie que lorsqu'il bouffe un autre homme Est-ce que tu m'as vu pleurer, lâcher des larmes lorsque j'avais mal et après me relever ? Le combat continue, donc, j'me relève en paix Est-ce que tu m'as vu les tripes et les douleurs au corps ? Ma rage triple et mon cur n'accouche de pensées rageuses qu'en sextuplés Ça vexe, s'appeler Samir, c'est dur même quand on est bien sapés Que penser de mon pays censé s'occuper de moi ? Mais ne font que décréter des lois et se trompent de combat S'ils savaient ce qu'on ressent à force de nous taxer sans emploi Est-ce que tu m'as vu me taire quand ce prof me disait mon petit, t'iras pas loin ? Et est-ce que tu m'as vu revenir avec le sourire, dire à ma mère j'ai eu un bac S ? Mon père et mes frères fiers Maman, c'est fou, y en a qui me croient pas Est-ce que tu m'as vu étudier pendant que certains festoient ? Et remettre tout sur moi-même pendant que certains sont en train de briller Est-ce que tu m'as vu prier, tête baissée ? Recherchant ce que les gens ont perdu l'humilité Est-ce que tu m'as vu demander pardon, me laver de mes péchés ? Mais le courant m'emporte et mes bonnes actions sont effacées Trop de fiction disperse Est-ce que tu m'as vu bercer mon petit frère ? Pourvu qu'il perce Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir You might also like Est-ce que tu m'as vu faire la manche ou réclamer l'aumône ? Non, trop fier, j'préfère faire ma vision du monde Sans mentir aux mômes, leur dire qu'la vie n'est pas que jolie Mais c'est pas la merde non plus quand les liens familiaux ne sont pas rompus Est-ce que tu m'as vu insulter un Juif en shabbat ? Vu que c'est pas de sa faute ce qui s'est passé à Sabra et Chatila Est-ce que tu m'as vu sombrer dans la parano ? J'ai l'impression que tout le monde m'en veut alors que c'est moi qui me renferme tout seul Est-ce que tu m'as vu ? Petit gars timide, tchatcheur fébrile Qui tremble quand une fille le regarde Est-ce que tu m'as vu rêver ? Garçon ambitieux, avant de me réveiller à 20 ans, tombé dans une flaque de contentieux Est-ce que tu m'as vu trimer, me sentir opprimé ? Soi-disant poète, en attendant qu'la vie me donne ce que je souhaite Me donne la gloire, m'asseoir sur la célébrité Mais tout ça rime avec fébrilité Est-ce que tu m'as vu révolté du système ? Quand j'allume la télé, personne me ressemble Au Parlement, personne me représente Quand on parle de mes semblables, c'est que des braqueurs On ferme les yeux sur eux quand ils sont professeurs Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir</t>
+          <t>Amené à avoir des émotions, toutes sortes d'états qui te mettent hors de toi M'as-tu vu manger des pierres, des creux dans l'estomac ? Pourtant loin d'être pauvre, mais l'homme se rassasie que lorsqu'il bouffe un autre homme Est-ce que tu m'as vu pleurer, lâcher des larmes lorsque j'avais mal et après me relever ? Le combat continue, donc, j'me relève en paix Est-ce que tu m'as vu les tripes et les douleurs au corps ? Ma rage triple et mon cur n'accouche de pensées rageuses qu'en sextuplés Ça vexe, s'appeler Samir, c'est dur même quand on est bien sapés Que penser de mon pays censé s'occuper de moi ? Mais ne font que décréter des lois et se trompent de combat S'ils savaient ce qu'on ressent à force de nous taxer sans emploi Est-ce que tu m'as vu me taire quand ce prof me disait mon petit, t'iras pas loin ? Et est-ce que tu m'as vu revenir avec le sourire, dire à ma mère j'ai eu un bac S ? Mon père et mes frères fiers Maman, c'est fou, y en a qui me croient pas Est-ce que tu m'as vu étudier pendant que certains festoient ? Et remettre tout sur moi-même pendant que certains sont en train de briller Est-ce que tu m'as vu prier, tête baissée ? Recherchant ce que les gens ont perdu l'humilité Est-ce que tu m'as vu demander pardon, me laver de mes péchés ? Mais le courant m'emporte et mes bonnes actions sont effacées Trop de fiction disperse Est-ce que tu m'as vu bercer mon petit frère ? Pourvu qu'il perce Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Est-ce que tu m'as vu faire la manche ou réclamer l'aumône ? Non, trop fier, j'préfère faire ma vision du monde Sans mentir aux mômes, leur dire qu'la vie n'est pas que jolie Mais c'est pas la merde non plus quand les liens familiaux ne sont pas rompus Est-ce que tu m'as vu insulter un Juif en shabbat ? Vu que c'est pas de sa faute ce qui s'est passé à Sabra et Chatila Est-ce que tu m'as vu sombrer dans la parano ? J'ai l'impression que tout le monde m'en veut alors que c'est moi qui me renferme tout seul Est-ce que tu m'as vu ? Petit gars timide, tchatcheur fébrile Qui tremble quand une fille le regarde Est-ce que tu m'as vu rêver ? Garçon ambitieux, avant de me réveiller à 20 ans, tombé dans une flaque de contentieux Est-ce que tu m'as vu trimer, me sentir opprimé ? Soi-disant poète, en attendant qu'la vie me donne ce que je souhaite Me donne la gloire, m'asseoir sur la célébrité Mais tout ça rime avec fébrilité Est-ce que tu m'as vu révolté du système ? Quand j'allume la télé, personne me ressemble Au Parlement, personne me représente Quand on parle de mes semblables, c'est que des braqueurs On ferme les yeux sur eux quand ils sont professeurs Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Shish Mmh, mmh Yeah Ouh L'Algé' Let's get it Oui, ma mujer, j'suis dans l'même hôtel, chambre 304 ouh J'suis khabat, soirée arrosée, j'sors d'une partie d'carte ouh Ouais ma belle, on a la mallette, on est dans les chart ouh Dans les boîtes, le cachet d'la veille posé sur la table, yeah Tu connais les hommes oui, j'suis pas comme les autres non J'vais te mettre au top, 300 000 euros la dote yeah Ta baby mama m'connaît depuis L'Algé' on est là c'est moi Elle me reconnaît même capuché, quand je porte le masque Baby c'est le faya, ah hi yeah ouh, ton corps, c'est la folie, ah hi yeah baby Tu voulais cette vie-là, on y est oh yeah, Gucci, Fendi, Prada, j'suis habillé bling Gros billets oui, mon bébé cash Tu voulais cette vie-là, on y est ouh, oh, si j'réponds pas, nan, faut pas t'inquiéter allô ? J'suis dans la ville, pour nous, je fais d'la money skurt Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt This is what I need what you need ?, baby let's go, c'est ma vie You might also like Yeah, elle est fraîche, elle est malade malade Appelle tes copines, dis-leur qu't'es pas là pas là Dangereuse comme la pure du Guatemala 'mala Elle t'a mis les menottes, elle te balade mmh Son regard, c'est une Kalash' Gros, tu connais, j'suis dans la son-mai, j'suis , yeah Oyé, des soirées olé, gros bonnets Vers l'étranger, on peut s'envoler let's go À mes côtés, il n'y aura pas de danger Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt, hey This is what I need what you need ?, baby let's go, c'est ma vie Verre, jaune, rouge, bleu, kichta dans la banane ouais Brune, blonde, rousse, latine, internationale okay Un, trois, sept, cinq, six, neuf et la, la, la ouh J'en ai une dans toutes les villes eh Et moi, j'ai vert, jaune, rouge, bleu, kichta dans la banane Brune, blonde, rousse, latine, internationale Un, trois, sept, cinq, six, neuf et la, la, la J'en ai une dans toutes les villes, yeah, yeah Ouh, ouh, ouh hey Ouh, ouh, ouh hey Ouh, ouh, ouh, ouh han Ouh, ouh hey, hey Ouh, ouh hey Ouh, ouh, ouh let's go, let's go, hey Ouh, ouh what you need ? Ouh, ouh, ouh owh Ouh, ouh, ouh, ouh yeah, yeah Ouh, ouh, ouh L'Algé' Let's get it</t>
+          <t>Shish Mmh, mmh Yeah Ouh L'Algé' Let's get it Oui, ma mujer, j'suis dans l'même hôtel, chambre 304 ouh J'suis khabat, soirée arrosée, j'sors d'une partie d'carte ouh Ouais ma belle, on a la mallette, on est dans les chart ouh Dans les boîtes, le cachet d'la veille posé sur la table, yeah Tu connais les hommes oui, j'suis pas comme les autres non J'vais te mettre au top, 300 000 euros la dote yeah Ta baby mama m'connaît depuis L'Algé' on est là c'est moi Elle me reconnaît même capuché, quand je porte le masque Baby c'est le faya, ah hi yeah ouh, ton corps, c'est la folie, ah hi yeah baby Tu voulais cette vie-là, on y est oh yeah, Gucci, Fendi, Prada, j'suis habillé bling Gros billets oui, mon bébé cash Tu voulais cette vie-là, on y est ouh, oh, si j'réponds pas, nan, faut pas t'inquiéter allô ? J'suis dans la ville, pour nous, je fais d'la money skurt Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt This is what I need what you need ?, baby let's go, c'est ma vie Yeah, elle est fraîche, elle est malade malade Appelle tes copines, dis-leur qu't'es pas là pas là Dangereuse comme la pure du Guatemala 'mala Elle t'a mis les menottes, elle te balade mmh Son regard, c'est une Kalash' Gros, tu connais, j'suis dans la son-mai, j'suis , yeah Oyé, des soirées olé, gros bonnets Vers l'étranger, on peut s'envoler let's go À mes côtés, il n'y aura pas de danger Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt, hey This is what I need what you need ?, baby let's go, c'est ma vie Verre, jaune, rouge, bleu, kichta dans la banane ouais Brune, blonde, rousse, latine, internationale okay Un, trois, sept, cinq, six, neuf et la, la, la ouh J'en ai une dans toutes les villes eh Et moi, j'ai vert, jaune, rouge, bleu, kichta dans la banane Brune, blonde, rousse, latine, internationale Un, trois, sept, cinq, six, neuf et la, la, la J'en ai une dans toutes les villes, yeah, yeah Ouh, ouh, ouh hey Ouh, ouh, ouh hey Ouh, ouh, ouh, ouh han Ouh, ouh hey, hey Ouh, ouh hey Ouh, ouh, ouh let's go, let's go, hey Ouh, ouh what you need ? Ouh, ouh, ouh owh Ouh, ouh, ouh, ouh yeah, yeah Ouh, ouh, ouh L'Algé' Let's get it</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hein Keny Arkana, L'algérino Faibles hommes que les passions torturent La vie influe sur nos comportements Ambiance malsaine sur la défensive que le ciel nous préserve de l'emportement Trop de maladresse et ça se ressent dans mes agissements Trop émotif, mes actes sont dictés par mes émotions Comment garder son sang-froid quand elles prennnt le contrôle ? Quand la raison part en éclat, voudrait rnverser ce que l'on prône Et comment garder son sang-froid malgré le mal que les gens prônent Iblis portant sa couronne et se pavanant sur son trône D'un air paisible pointant sa fourche prenant un sale plaisir Lorsque la colère nous aveugle comme amadoué par ses cils Mon visage porte trop de marques, dur d'apparence à l'extérieur Gratte l'écorce et tu verras un homme qui se détruit de l'intérieur Déchirée au plus profond de mon être J'fuis, j'cours des larmes plein la gorge car impossible de crier au secours Ce que subit mon âme un tas de trucs, bien ou mal j'm'agrippe La raison balafrée, trop facile de basculer Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes You might also like Chaque jour est un combat, un combat contre moi-même Qui me malmène, qui veut ma mort car je me bats contre ma haine Toutes ces pensées autodestructrices qui m'emmènent à ma perte Ces doutes et ces sales résidus de ma mémoire qui me font mal à la tête Ce monde est terne, me blesse, je ne peux le voir qu'avec haine La rage est comme ma soeur peut être parce que j'ai grandi avec elle Peut-on sortir des ronces sans séquelle cicatricée je ne sais guère Si on s'égare, c'est peut être parce que la vérité s'est fait voler ses terres A fleur de peau donc non venez pas me secouer Je cherche la paix, j'ai peur car que ça se finisse en guerre ça se pourrait Je suis ma propre ennemie, alors j'essaye de me détacher Avant que cette corde autour du cou tout comme mes nerfs finissent par lâcher Comme un vieux démon qui me hante oh seigneur aide-moi à vivre Le présent sans arrière goût, sans attache entièrement libre J'aimerais donner de la force aux miens pour la force de la plume Quand le coeur parle avec amour pour essayer de dissiper la brume Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes J'ai le sourire au coins des larmes, sentiment contradictoire Une main posée sur le coeur, une autre posée sur une arme Les pensées changent selon l'humeur, le goût de la vie, le moral Des fois, tu as la rage et la niaque des fois la misère te dévisage Des fois tu penses halal, des fois tu penses haram, que Dieu nous garde Des fois je me comporte mal et par mégarde Et ça me rend dingue et ça me torture, ça me ronge le cerveau Un tas de choses qui me font mal et ça me rend nerveux Entre les soi-disant potes qui clashent dans les moments difficiles J'ai vu la misère me convoiter, mes soi-disant frères insensibles J'ai compris que c'était chacun sa merde, j'aurais pu craquer J'ai failli sombrer dans la haine, j'ai réappris à aimer Responsabilité de narrateur de la vie Si tu savais combien je contrôle mes émotions, mes dires quand je rappe Tant de choses malsaines me taraudent, j'essaie de prendre le large Parler de choses saines mais j'suis attiré par les émeraudes Et y'a cet orgueil, ce regard arrogant qui ressort J'essaie de le camoufler dans un manteau d'humilité mais c'est plus fort On m'a tant rabaissé, traité comme de la merde Maintenant on me considère mais si ils savaient que tout ce qui s'élève se rabaisse Et y'a ces gens qui salissent ton nom mais d'abord que savent-ils de moi Etaient ils là quand je passais des fins de mois difficiles Atmosphère glacée, coeur froid, regard noir mais regarde-moi J'ai croqué un peu de flouze et j'en veux encore plus Et j'en deviens malade, mon âme est torturée La vie, les gens, la rue risquent fort de me changer Mon propre ami c'est moi même faut pas que je flanche Je contiens mes émotions dans une feuille blanche, l'Algérino Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes</t>
+          <t>Hein Keny Arkana, L'algérino Faibles hommes que les passions torturent La vie influe sur nos comportements Ambiance malsaine sur la défensive que le ciel nous préserve de l'emportement Trop de maladresse et ça se ressent dans mes agissements Trop émotif, mes actes sont dictés par mes émotions Comment garder son sang-froid quand elles prennnt le contrôle ? Quand la raison part en éclat, voudrait rnverser ce que l'on prône Et comment garder son sang-froid malgré le mal que les gens prônent Iblis portant sa couronne et se pavanant sur son trône D'un air paisible pointant sa fourche prenant un sale plaisir Lorsque la colère nous aveugle comme amadoué par ses cils Mon visage porte trop de marques, dur d'apparence à l'extérieur Gratte l'écorce et tu verras un homme qui se détruit de l'intérieur Déchirée au plus profond de mon être J'fuis, j'cours des larmes plein la gorge car impossible de crier au secours Ce que subit mon âme un tas de trucs, bien ou mal j'm'agrippe La raison balafrée, trop facile de basculer Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes Chaque jour est un combat, un combat contre moi-même Qui me malmène, qui veut ma mort car je me bats contre ma haine Toutes ces pensées autodestructrices qui m'emmènent à ma perte Ces doutes et ces sales résidus de ma mémoire qui me font mal à la tête Ce monde est terne, me blesse, je ne peux le voir qu'avec haine La rage est comme ma soeur peut être parce que j'ai grandi avec elle Peut-on sortir des ronces sans séquelle cicatricée je ne sais guère Si on s'égare, c'est peut être parce que la vérité s'est fait voler ses terres A fleur de peau donc non venez pas me secouer Je cherche la paix, j'ai peur car que ça se finisse en guerre ça se pourrait Je suis ma propre ennemie, alors j'essaye de me détacher Avant que cette corde autour du cou tout comme mes nerfs finissent par lâcher Comme un vieux démon qui me hante oh seigneur aide-moi à vivre Le présent sans arrière goût, sans attache entièrement libre J'aimerais donner de la force aux miens pour la force de la plume Quand le coeur parle avec amour pour essayer de dissiper la brume Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes J'ai le sourire au coins des larmes, sentiment contradictoire Une main posée sur le coeur, une autre posée sur une arme Les pensées changent selon l'humeur, le goût de la vie, le moral Des fois, tu as la rage et la niaque des fois la misère te dévisage Des fois tu penses halal, des fois tu penses haram, que Dieu nous garde Des fois je me comporte mal et par mégarde Et ça me rend dingue et ça me torture, ça me ronge le cerveau Un tas de choses qui me font mal et ça me rend nerveux Entre les soi-disant potes qui clashent dans les moments difficiles J'ai vu la misère me convoiter, mes soi-disant frères insensibles J'ai compris que c'était chacun sa merde, j'aurais pu craquer J'ai failli sombrer dans la haine, j'ai réappris à aimer Responsabilité de narrateur de la vie Si tu savais combien je contrôle mes émotions, mes dires quand je rappe Tant de choses malsaines me taraudent, j'essaie de prendre le large Parler de choses saines mais j'suis attiré par les émeraudes Et y'a cet orgueil, ce regard arrogant qui ressort J'essaie de le camoufler dans un manteau d'humilité mais c'est plus fort On m'a tant rabaissé, traité comme de la merde Maintenant on me considère mais si ils savaient que tout ce qui s'élève se rabaisse Et y'a ces gens qui salissent ton nom mais d'abord que savent-ils de moi Etaient ils là quand je passais des fins de mois difficiles Atmosphère glacée, coeur froid, regard noir mais regarde-moi J'ai croqué un peu de flouze et j'en veux encore plus Et j'en deviens malade, mon âme est torturée La vie, les gens, la rue risquent fort de me changer Mon propre ami c'est moi même faut pas que je flanche Je contiens mes émotions dans une feuille blanche, l'Algérino Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>On a la dalle, ouais, on a faim d'Europe On a la dalle, ouais, on a faim d'Europe Les vaillants font trembler le Vélodrome Appelle un Uber Eats, baba, on va les mettre en i, fada On va les mettre en i, malade, on va retourner la ville, 1.3 Comme dans Heat pa-pah, on veut voir que des machines pava Comme dans Heat pa-pah, on veut voir que des machines pava Bleu et blanc est le sang, t'inquiète, on est nsembles Tu regards les étoiles, on l'a sur le maillot Ça pète les écrans, va le dire à Momo Le club est légendaire, va le dire aux minots Qu'est-ce tu as ? Écoute bien Rends pas fou, t'façon tu as rien compris Commande à boire, laisse un pourboire, y a la petite, n'oublie pas les sushis bleh On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'EuropeYou might also like</t>
+          <t>On a la dalle, ouais, on a faim d'Europe On a la dalle, ouais, on a faim d'Europe Les vaillants font trembler le Vélodrome Appelle un Uber Eats, baba, on va les mettre en i, fada On va les mettre en i, malade, on va retourner la ville, 1.3 Comme dans Heat pa-pah, on veut voir que des machines pava Comme dans Heat pa-pah, on veut voir que des machines pava Bleu et blanc est le sang, t'inquiète, on est nsembles Tu regards les étoiles, on l'a sur le maillot Ça pète les écrans, va le dire à Momo Le club est légendaire, va le dire aux minots Qu'est-ce tu as ? Écoute bien Rends pas fou, t'façon tu as rien compris Commande à boire, laisse un pourboire, y a la petite, n'oublie pas les sushis bleh On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jprends la vie comme elle vient Wesh le zin, nouveau classique Cest ma zik, mets-toi bien 200 à lheure sur lautoroute Je sais où jvais, doù jviens Tekass pas le couz, écoute bien Autoroute du soleil, Malaga Ya ceux qui vont bronzer Ceux qui vont chercher le taga Mais tu es fada ? Dla minch en pagaille Pago ananas, chapeau dpaille, un peu draï On va tfaire swinger Même si tes flingué Fraichement fringué, Audemars Piguet Zanotti-ti, shab la Titi All night long à la Lionel Richie Jai toujours ma canette Sweety Tellement de tubes Que je sais même plus comment switcher Jsuis un extra-terrestre comme E.T Jserai une légende comme Cheb Khaled XXX Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Que toutes les ladies dans la place Avec classe acclament mon audace Et lprix dmes gaudasses Il est bien loin lmarché dMontreuil Maintenant les petites me voient dun autre il À part les hits jsuis comme un autre Ya ce quon est et ce quon montre Le temps passe vite et jai pas dmontre Tu veux tailler ? Moi jsuis pas contre À chaque album jjoue à dix contre un Pour ça quje nsigne pas leurs contrats Jenvoie du lourd, jenvoie du concret Cest inné, ya pas de secret Jsuis avec LAlgé, posé au calme Cocktail frais, la beuh est locale On chante la mélodie dla vida loca La vida loca, la vida loca Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste babyYou might also like</t>
+          <t>x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jprends la vie comme elle vient Wesh le zin, nouveau classique Cest ma zik, mets-toi bien 200 à lheure sur lautoroute Je sais où jvais, doù jviens Tekass pas le couz, écoute bien Autoroute du soleil, Malaga Ya ceux qui vont bronzer Ceux qui vont chercher le taga Mais tu es fada ? Dla minch en pagaille Pago ananas, chapeau dpaille, un peu draï On va tfaire swinger Même si tes flingué Fraichement fringué, Audemars Piguet Zanotti-ti, shab la Titi All night long à la Lionel Richie Jai toujours ma canette Sweety Tellement de tubes Que je sais même plus comment switcher Jsuis un extra-terrestre comme E.T Jserai une légende comme Cheb Khaled XXX Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Que toutes les ladies dans la place Avec classe acclament mon audace Et lprix dmes gaudasses Il est bien loin lmarché dMontreuil Maintenant les petites me voient dun autre il À part les hits jsuis comme un autre Ya ce quon est et ce quon montre Le temps passe vite et jai pas dmontre Tu veux tailler ? Moi jsuis pas contre À chaque album jjoue à dix contre un Pour ça quje nsigne pas leurs contrats Jenvoie du lourd, jenvoie du concret Cest inné, ya pas de secret Jsuis avec LAlgé, posé au calme Cocktail frais, la beuh est locale On chante la mélodie dla vida loca La vida loca, la vida loca Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile You might also likeMademoiselle monte dans le bolide Viens testeur le siège massant Tu sais j'suis polyglotte J'peux même t'charmer en Allemand J'vais t'faire rêver toute la nuit Tu vas t'en souvenir toute ta vie Remplis mon coeur d'amour J'vais vider le barillet À trop trainer dans le four J'en deviens fou à lier On a tout le temps Donne moi ton coeur et promet J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové</t>
+          <t>J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Mademoiselle monte dans le bolide Viens testeur le siège massant Tu sais j'suis polyglotte J'peux même t'charmer en Allemand J'vais t'faire rêver toute la nuit Tu vas t'en souvenir toute ta vie Remplis mon coeur d'amour J'vais vider le barillet À trop trainer dans le four J'en deviens fou à lier On a tout le temps Donne moi ton coeur et promet J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Elle slève à 4 heures, le bébé qui pleure Prépare le biberon change la couche il est l'heure Elle a dormi d'un il, le sommeil léger Pense aux factures et au loyer qu'elle doit payer Son mari l'a quitté pour une amie à elle Le genre d'homme qui ont des maitresses à la pelle Elle se retrouve seule dans un taudis, trois enfants à nourrir Elle pleure en cachette mais devant eux elle garde le sourire Elle accumule des petits boulots pour des petites sommes Y'a pas de sous-métier quand il s'agit de nourrir son môme Elle est à la fois femme de ménage et caissière Femme soldat affronte la vie avec une serpillère Elle slève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dure même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari la quittée il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes, elle puise sa force dans le sourire de ses enfants You might also like Elle ne se plaint jamais elle vit sa vie toute seule Même sous la pluie elle porte les courses toute seule Elle croise dans la rue des couples qui ont l'air heureux Mais elle n'envie personne c'est tant mieux pour eux Elle fait des économies pour gâter les petits Quils aient un peu de marque à l'école devant leurs amis Les enfants peuvent-êtres cruels Quand ils charrient la chair de sa chair Ses enfants c'est toute sa vie Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes L'ainé à 15ans traumatisé Il entend souvent sa mère pleurée Au milieu de la nuit pour la consoler Il dort avec elle, Tinquiète maman tout va s'arranger.. Oublie quil est môme n'a plus la moyenne Une fois sur deux à l'école il redouble sa 3ème La lâcheté d'un homme, la bravoure d'une femme Qui affronte la vie femme soldat Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari l'a quitté il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes Elle puise sa force dans le sourire de ses enfants</t>
+          <t>Elle slève à 4 heures, le bébé qui pleure Prépare le biberon change la couche il est l'heure Elle a dormi d'un il, le sommeil léger Pense aux factures et au loyer qu'elle doit payer Son mari l'a quitté pour une amie à elle Le genre d'homme qui ont des maitresses à la pelle Elle se retrouve seule dans un taudis, trois enfants à nourrir Elle pleure en cachette mais devant eux elle garde le sourire Elle accumule des petits boulots pour des petites sommes Y'a pas de sous-métier quand il s'agit de nourrir son môme Elle est à la fois femme de ménage et caissière Femme soldat affronte la vie avec une serpillère Elle slève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dure même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari la quittée il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes, elle puise sa force dans le sourire de ses enfants Elle ne se plaint jamais elle vit sa vie toute seule Même sous la pluie elle porte les courses toute seule Elle croise dans la rue des couples qui ont l'air heureux Mais elle n'envie personne c'est tant mieux pour eux Elle fait des économies pour gâter les petits Quils aient un peu de marque à l'école devant leurs amis Les enfants peuvent-êtres cruels Quand ils charrient la chair de sa chair Ses enfants c'est toute sa vie Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes L'ainé à 15ans traumatisé Il entend souvent sa mère pleurée Au milieu de la nuit pour la consoler Il dort avec elle, Tinquiète maman tout va s'arranger.. Oublie quil est môme n'a plus la moyenne Une fois sur deux à l'école il redouble sa 3ème La lâcheté d'un homme, la bravoure d'une femme Qui affronte la vie femme soldat Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari l'a quitté il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes Elle puise sa force dans le sourire de ses enfants</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Au début, c'était pas le top On a prit le taureau par les cornes On a fait ça pour la forme On voulait juste que ça sonne Ça commence par des rimes qui voulaient pas dire grand chose Puis on a raconté nos vies sans penser à toucher des sommes Tu m'vois comme la relève, ça fait 10 ans qu'on est là Moi j'suis pas dans ton game, j'suis trop loin j'ai pris le large On sen foutait davoir des gows, faire des sous, d'la mala Maintenant ça donne des Go, ça s'entretue comme des malades On a transformé l'essai, casser la lucarne Le froc jamais baissé, j'ai trop de fierté tu le sais J'vais pas te dire qu'j'ai du vécu mais on connait la rue Celle des vrais, pas celle des gens qui prennent l'amitié comme du PQ Prisonnier d'ce monde, me reste t-il assez de pécule ? Et ils sont beaux avec leur sécu Élever par mon père, pas par Tony Montana La rue on la vénère pas, la mash on la consomme pas Tu fais , on te connais pas Tu vas mordre la poussière, petit frère à quoi bon sert d'être le plus riche du cimetière ? La vie, c'est pas Game of Thrones, fuck ta Khaleesi Trop d'chacals ici, bientôt tous la calvitie On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette Tu es qu'un effet de mode, on te fait trop d'éloge Faudra savoir durer, putain que la route est longue Profite de ta folle, de ta Porshe, mais ne t'affole pas Tout ce qui s'élève, se rabaisse, rhey c'est inévitable La jeunesse est sous C, les parents qui s'étouffent Les curs sont sous scellés, c'est le temps qui nous étouffe C'est la vie qui nous éprouve, bientôt l'heure de faire des comptes Comme le gérant d'un four devant sa feuille de compteYou might also like</t>
+          <t>Au début, c'était pas le top On a prit le taureau par les cornes On a fait ça pour la forme On voulait juste que ça sonne Ça commence par des rimes qui voulaient pas dire grand chose Puis on a raconté nos vies sans penser à toucher des sommes Tu m'vois comme la relève, ça fait 10 ans qu'on est là Moi j'suis pas dans ton game, j'suis trop loin j'ai pris le large On sen foutait davoir des gows, faire des sous, d'la mala Maintenant ça donne des Go, ça s'entretue comme des malades On a transformé l'essai, casser la lucarne Le froc jamais baissé, j'ai trop de fierté tu le sais J'vais pas te dire qu'j'ai du vécu mais on connait la rue Celle des vrais, pas celle des gens qui prennent l'amitié comme du PQ Prisonnier d'ce monde, me reste t-il assez de pécule ? Et ils sont beaux avec leur sécu Élever par mon père, pas par Tony Montana La rue on la vénère pas, la mash on la consomme pas Tu fais , on te connais pas Tu vas mordre la poussière, petit frère à quoi bon sert d'être le plus riche du cimetière ? La vie, c'est pas Game of Thrones, fuck ta Khaleesi Trop d'chacals ici, bientôt tous la calvitie On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette Tu es qu'un effet de mode, on te fait trop d'éloge Faudra savoir durer, putain que la route est longue Profite de ta folle, de ta Porshe, mais ne t'affole pas Tout ce qui s'élève, se rabaisse, rhey c'est inévitable La jeunesse est sous C, les parents qui s'étouffent Les curs sont sous scellés, c'est le temps qui nous étouffe C'est la vie qui nous éprouve, bientôt l'heure de faire des comptes Comme le gérant d'un four devant sa feuille de compte</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur la route de la vie sur mon fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Sorti du ventre de ma mère à environ 6 mois et demi, prématurément Dès la naissance, une épreuve se met en scène J'ai à peine vu le jour et je souffre déjà d'un manque d'oxygène Erreur médicale ou destin pré-écrit En tout cas, les médecins parlent d'une totale paralysie Réalité implacable, dur d'accepter ce que je suis Je recherche un coupable, en vain parce qu'il en est ainsi Quand t'es petit tu demandes, pourquoi c'est tombé sur moi Pourquoi moi ? Pourquoi la vie me foudroie ? Tant de questions sans réponses mais l'évidence est là Je ne marcherai sûrement jamais dans ce monde-là Mais parents souffrent immensément en silence Tentent de le cacher mais dans leurs yeux de la tristesse, de l'impuissance Malheureux de me voir marié à un fauteuil roulant, quand j'y repense Les voir malheureux, c'est peut-être ma plus grande souffrance Je leur dois tout, tant de sacrifices Ils ont bâti leur vie autour de l'handicap de leur fils J'ai l'impression d'être un toit pour eux, ils sont tout pour moi Ils m'ont gardé avec eux, refuser de me mettre dans un internat Mon quotidien, c'est des journées interminables Passées devant la télé, des heures à gamberger À se demander qui voudra bien m'amener pour aller chier Ou qui m'aidera à faire des choses simples comme boire ou manger M'habiller, me déshabiller même dans la nudité Je suis toujours accompagné, je n'ai pas de jardin secret Les miens sont solidaires, je vis mes épreuves en solitaire Besoin de moments de solitude, la dépendance à l'autre me tue Ce qui me tue le plus, c'est la façon dont on me regarde Le miroir de la vie, c'est les gens et l'image qu'ils me renvoient Celle de Salim l'handicapé qui fait de la peine S'ils savaient comme je déteste ce regard empreint de peine You might also like Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Dieu m'a doté d'un handicap si je puis dire M'a donné aussi la force inébranlable de vouloir construire Fonder un foyer, me marier comme une personne valide Voyez-moi, handicap n'est pas une fatalité Les yeux vers le ciel, je rêve d'aimer, d'être aimé Mais on ne me voit jamais comme un petit ami potentiel Pas grave, l'espoir fait vivre et le rêve le fait durer Impossible et jamais, des mots que je ne prononce jamais J'ai aimé une fille, je l'ai dit à personne même pas à elle J'ai pas voulu lui faire porter le poids de ma personne Ma puce si tu te reconnais, je t'aime, je compte plus les fois Où tu m'as fait oublier mon handicap et mes problèmes Je t'inviterais bien à me suivre, viens avec moi, affronter la vie Ses épreuves et ses péripéties En plus, regarde le bon côté des choses, beauté J'aurais d'énormes difficultés à te tromper Fermons les yeux, laissons nos curs dialoguer Au-delà des apparences, j'ai tant d'amour à te donner Si par malheur tu les ouvrais C'est que tu ne m'étais pas destinée, en aucun cas je t'en voudrais Sachez, cette chanson n'est pas des larmes Rangez vos mouchoirs, cette chanson n'est pas des larmes Je relate juste des faits, je relate ce que je suis Mon but, c'est que vous m'acceptiez comme je suis Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important</t>
+          <t>Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur la route de la vie sur mon fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Sorti du ventre de ma mère à environ 6 mois et demi, prématurément Dès la naissance, une épreuve se met en scène J'ai à peine vu le jour et je souffre déjà d'un manque d'oxygène Erreur médicale ou destin pré-écrit En tout cas, les médecins parlent d'une totale paralysie Réalité implacable, dur d'accepter ce que je suis Je recherche un coupable, en vain parce qu'il en est ainsi Quand t'es petit tu demandes, pourquoi c'est tombé sur moi Pourquoi moi ? Pourquoi la vie me foudroie ? Tant de questions sans réponses mais l'évidence est là Je ne marcherai sûrement jamais dans ce monde-là Mais parents souffrent immensément en silence Tentent de le cacher mais dans leurs yeux de la tristesse, de l'impuissance Malheureux de me voir marié à un fauteuil roulant, quand j'y repense Les voir malheureux, c'est peut-être ma plus grande souffrance Je leur dois tout, tant de sacrifices Ils ont bâti leur vie autour de l'handicap de leur fils J'ai l'impression d'être un toit pour eux, ils sont tout pour moi Ils m'ont gardé avec eux, refuser de me mettre dans un internat Mon quotidien, c'est des journées interminables Passées devant la télé, des heures à gamberger À se demander qui voudra bien m'amener pour aller chier Ou qui m'aidera à faire des choses simples comme boire ou manger M'habiller, me déshabiller même dans la nudité Je suis toujours accompagné, je n'ai pas de jardin secret Les miens sont solidaires, je vis mes épreuves en solitaire Besoin de moments de solitude, la dépendance à l'autre me tue Ce qui me tue le plus, c'est la façon dont on me regarde Le miroir de la vie, c'est les gens et l'image qu'ils me renvoient Celle de Salim l'handicapé qui fait de la peine S'ils savaient comme je déteste ce regard empreint de peine Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Dieu m'a doté d'un handicap si je puis dire M'a donné aussi la force inébranlable de vouloir construire Fonder un foyer, me marier comme une personne valide Voyez-moi, handicap n'est pas une fatalité Les yeux vers le ciel, je rêve d'aimer, d'être aimé Mais on ne me voit jamais comme un petit ami potentiel Pas grave, l'espoir fait vivre et le rêve le fait durer Impossible et jamais, des mots que je ne prononce jamais J'ai aimé une fille, je l'ai dit à personne même pas à elle J'ai pas voulu lui faire porter le poids de ma personne Ma puce si tu te reconnais, je t'aime, je compte plus les fois Où tu m'as fait oublier mon handicap et mes problèmes Je t'inviterais bien à me suivre, viens avec moi, affronter la vie Ses épreuves et ses péripéties En plus, regarde le bon côté des choses, beauté J'aurais d'énormes difficultés à te tromper Fermons les yeux, laissons nos curs dialoguer Au-delà des apparences, j'ai tant d'amour à te donner Si par malheur tu les ouvrais C'est que tu ne m'étais pas destinée, en aucun cas je t'en voudrais Sachez, cette chanson n'est pas des larmes Rangez vos mouchoirs, cette chanson n'est pas des larmes Je relate juste des faits, je relate ce que je suis Mon but, c'est que vous m'acceptiez comme je suis Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot You might also likeOn fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
+          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot On fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Vis par les armes, meurs par les armes Vis dans le haram, périra dans les flammes Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler La vie est dure, c'est sûr Y'a ceux qui se lèvent le cul, toi tu vends d'la pure T'enlèves des vies, t'enlèves des armes Tu crois plus en Dieu, tu crois qu'en ton âme Paranoïque, dépressif Cri sur la daronne addict à la coc', faut ta dose faut qu'tu sniff Un grand t'a mis une gifle, il t'a hagar Tu veux lui faire la peau, ce fils de bâtard Za3ma t'es un fou t'as des choses à prouver Attends-toi à tout, la rue vas t'éprouver Ca commence par le guet, ça finis par donner des go' Pour récupérer un terrain tu fumes ton amigo Comme si de rien n'étais tu assistes à son enterrement Tu pleures avec sa mère, tu mélanges les sentiments La prochaine qui vas pleurer c'est la tienne Attends-toi à un lourd châtiment ! You might also like Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler Brûler, brûler, brûler Gelek j'suis un homme, gelek gelek j'suis un vrai Brûler, brûler, brûler Brûler, brûler, brûler Tu flirtes avec le diable tu vas pas tarder à brûler Y'a plus de rahma dans les quartiers, la drogue tue dans les quartiers Le Sheitan nous a berné, plus d'échappatoire on est cerné Plus d'amour dans mon quartier, la haine pousse dans ton quartier Même ton ami d'enfance peut devenir ton ennemi juré Yema Yema, pris pour tes fils qui sont égarrés Yema Yema, même les anges ont fini par se barrer On a rien à y gagner, on emporte rien avec nous sous terre A quoi bon sert d'être le plus riche du cimetière ? Marseille c'est des drames, Marseille c'est des larmes La prison ou la mort, les corps calciné, mères en larmes On sait plus à qui parlé, parano j'commence à m'méfier Chaque jours sans savoir, j'fais la bise à des meurtriers Yema Yema, Yema Yema Que Dieu guide nos pas Yema Yema, Yema Yema Que Dieu guide nos pas</t>
+          <t>Vis par les armes, meurs par les armes Vis dans le haram, périra dans les flammes Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler La vie est dure, c'est sûr Y'a ceux qui se lèvent le cul, toi tu vends d'la pure T'enlèves des vies, t'enlèves des armes Tu crois plus en Dieu, tu crois qu'en ton âme Paranoïque, dépressif Cri sur la daronne addict à la coc', faut ta dose faut qu'tu sniff Un grand t'a mis une gifle, il t'a hagar Tu veux lui faire la peau, ce fils de bâtard Za3ma t'es un fou t'as des choses à prouver Attends-toi à tout, la rue vas t'éprouver Ca commence par le guet, ça finis par donner des go' Pour récupérer un terrain tu fumes ton amigo Comme si de rien n'étais tu assistes à son enterrement Tu pleures avec sa mère, tu mélanges les sentiments La prochaine qui vas pleurer c'est la tienne Attends-toi à un lourd châtiment ! Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler Brûler, brûler, brûler Gelek j'suis un homme, gelek gelek j'suis un vrai Brûler, brûler, brûler Brûler, brûler, brûler Tu flirtes avec le diable tu vas pas tarder à brûler Y'a plus de rahma dans les quartiers, la drogue tue dans les quartiers Le Sheitan nous a berné, plus d'échappatoire on est cerné Plus d'amour dans mon quartier, la haine pousse dans ton quartier Même ton ami d'enfance peut devenir ton ennemi juré Yema Yema, pris pour tes fils qui sont égarrés Yema Yema, même les anges ont fini par se barrer On a rien à y gagner, on emporte rien avec nous sous terre A quoi bon sert d'être le plus riche du cimetière ? Marseille c'est des drames, Marseille c'est des larmes La prison ou la mort, les corps calciné, mères en larmes On sait plus à qui parlé, parano j'commence à m'méfier Chaque jours sans savoir, j'fais la bise à des meurtriers Yema Yema, Yema Yema Que Dieu guide nos pas Yema Yema, Yema Yema Que Dieu guide nos pas</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Le rap c'est cette vielle qui va cracher le code de sa carte Ah Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle. Yeah Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo yo J'arrive là où on m'attend pas à l'improviste explose comme une bombe Dans un bus et c'est l'attentat Je débarque dans le rap suspect Comme un tchétchène fait son entrée dans une salle de cinéma Moi je rap et tu la ferme J'ai mis du temps à briller, l'algé ils ont voulu étouffer l'affaire Dis leur qu'il y a un gosse qui bosse à Marseille Bosse et leurs putain de pronostiques ils ont tout à refaire Parait que tu es le buzz du moment tu as le buzz J'ai le uzi je fais peur comme diam's fait peur à Suzie De la cave à l'usine pas de place pour mes sosies Le petit gars de la Savine qui représente à jamais sa ville Marseille Je veux le butin comme un carther au japon Un collet marseillais, un mic, il parait que y a bon Mes khô ont les corones pleines et les poches vides Je rentre dans leur boite parce que les videurs me reconnaissent You might also like Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo Yoyo Yo Plus rien a foutre j'ai les medias à mes trousses Si y a moyen de faire du fric je vais pas cracher dans la soupe Je m'en bats les couilles de la coupe Je veux du pèse du flouz ma poule sans se faire défoncer le boule ok Nouveau track, nouveau style, nouveau bac Que du sah dans le sas représente ces millions de macaques Gel sur la tête, le cul posé sur un vespa C'est le chant de la frime ma tune se donne en spectacle Les jeux sont faits, truqués depuis le début Je suis le carré d'AS, je prends le micro et c'est le déluge Enh Pleks mec de flex degande ménéyeux lefo mene kezenemek Haha yo même quand je dis n'importe quoi ça tue Ton style il pue du cul je ferais en sorte que tu ne l'utilise plus Je ferais en sorte que tu m'entendes plus Un album fait en 2 semaines histoire d'entretenir la forme je t'informe Si tu es sourd je t'en mets plein les yeux Le fond et la forme qu'est ce que tu veux je fais des envieux On ne m'a pas posé le succès sur un plateau Impertinent et fier je relève le col à la Kamo Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over 2007 Game over On a plus le temps de jouer Marseille L'Algerino Tout dans le flex Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle</t>
+          <t>Le rap c'est cette vielle qui va cracher le code de sa carte Ah Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle. Yeah Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo yo J'arrive là où on m'attend pas à l'improviste explose comme une bombe Dans un bus et c'est l'attentat Je débarque dans le rap suspect Comme un tchétchène fait son entrée dans une salle de cinéma Moi je rap et tu la ferme J'ai mis du temps à briller, l'algé ils ont voulu étouffer l'affaire Dis leur qu'il y a un gosse qui bosse à Marseille Bosse et leurs putain de pronostiques ils ont tout à refaire Parait que tu es le buzz du moment tu as le buzz J'ai le uzi je fais peur comme diam's fait peur à Suzie De la cave à l'usine pas de place pour mes sosies Le petit gars de la Savine qui représente à jamais sa ville Marseille Je veux le butin comme un carther au japon Un collet marseillais, un mic, il parait que y a bon Mes khô ont les corones pleines et les poches vides Je rentre dans leur boite parce que les videurs me reconnaissent Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo Yoyo Yo Plus rien a foutre j'ai les medias à mes trousses Si y a moyen de faire du fric je vais pas cracher dans la soupe Je m'en bats les couilles de la coupe Je veux du pèse du flouz ma poule sans se faire défoncer le boule ok Nouveau track, nouveau style, nouveau bac Que du sah dans le sas représente ces millions de macaques Gel sur la tête, le cul posé sur un vespa C'est le chant de la frime ma tune se donne en spectacle Les jeux sont faits, truqués depuis le début Je suis le carré d'AS, je prends le micro et c'est le déluge Enh Pleks mec de flex degande ménéyeux lefo mene kezenemek Haha yo même quand je dis n'importe quoi ça tue Ton style il pue du cul je ferais en sorte que tu ne l'utilise plus Je ferais en sorte que tu m'entendes plus Un album fait en 2 semaines histoire d'entretenir la forme je t'informe Si tu es sourd je t'en mets plein les yeux Le fond et la forme qu'est ce que tu veux je fais des envieux On ne m'a pas posé le succès sur un plateau Impertinent et fier je relève le col à la Kamo Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over 2007 Game over On a plus le temps de jouer Marseille L'Algerino Tout dans le flex Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>On veut briller Quelle que soit la fin du game les jeunes sont mouillés Capable du pire pour une poignée d'billets On représente pour la génération no limit On veut briller Quelle que soit la fin du game les jeunes sont mouillés Écartes-toi c'est chaud on y est ! On représente pour la génération no limit Les jeunes n'ont plus d'limites Limite les grands sont plus timides Limite ils baisent après ils font la bise Plus de limites, plus de morale Leur demande pas ce qu'ils veulent Ils veulent de l'argent sale Ils veulent te fermer ta gueule Arabe blanc black black berry berry Very very good chérie Ça s'fera dans un parking dans la périphérie Laisses pas traîner ta fille si tu veux pas qu'elle glisse Les rues de ma ville sont sales Elles ont comme une odeur de pisse Ok leur demande pas d'voter ils veulent du cah Se payent un bout de rêve, 100 euros sur Côté Match Côté coeur c'est la déch Dans les caisses, côté trash Ils veulent que de la marque Leur parle pas du côté fatch Côté rap ils ne savent plus ce qu'ils écoutent Paraît qu'ce rappeur est à la mode donc ils l'écoutent en boucle Leur parle pas d'artistique Ils veulent ce qui s'fait d'plus chaud Sexe, drogue, rap, ils baisent la France à Sarko You might also like Eh yo Alonzo Alonzo Alonzo Yeaah Au cachot, au réseau, dans les cellulaires C'est le nouvel air, man l'amour la guerre Comoria en Gabbana j'arrache sa mère J'me prends pas pour Zépé J'préfère Béné J'préfère rapper la vengeance des aînés A la masse j'suis mêlé L'époque est animée L'euro c'est la matière première On frappe au bulldozer J'ai vu des gosses se perdre Noyés dans le vice, les problèmes, les larmes Bidons d'essence, allumettes Il suffit d'une étincelle pour qu'une vie s'enflamme Pour ma jeunesse oubliée, A.L.O.N, Nassi, l'Algé viennent chanter Ça vient du fond de nos âmes Et tu sais comme on dégomme sa a-a-a-a On a du kérosène dans le corps On est des avions d'chasse faut qu'on décolle on a la mort Tu veux du, Tu veux du Tu veux du rêve ? Dors encore ! Wallah on est trop speed dans les Quartiers Nord x2 Ils veulent faire de la prison-prison parce que ça fait fresh Tu leur dis que Dieu te guide Ils te disent de garder la pêche Ils veulent ton 06 6 6 n3el satan Traînes pas dans le secteur cousine, tu sais c'qui t'attends Génération no limit Aujourd'hui les p'tits frères veulent devenir ce qu'ils imitent Tu le sais, y'a l'Algé, y'a Papé Génération no limit Aujourd'hui les p'tits frères veulent prendre plus que c'qu'ils méritent Tu le sais, y'a l'Algé, y'a Papé eh eh eh ..</t>
+          <t>On veut briller Quelle que soit la fin du game les jeunes sont mouillés Capable du pire pour une poignée d'billets On représente pour la génération no limit On veut briller Quelle que soit la fin du game les jeunes sont mouillés Écartes-toi c'est chaud on y est ! On représente pour la génération no limit Les jeunes n'ont plus d'limites Limite les grands sont plus timides Limite ils baisent après ils font la bise Plus de limites, plus de morale Leur demande pas ce qu'ils veulent Ils veulent de l'argent sale Ils veulent te fermer ta gueule Arabe blanc black black berry berry Very very good chérie Ça s'fera dans un parking dans la périphérie Laisses pas traîner ta fille si tu veux pas qu'elle glisse Les rues de ma ville sont sales Elles ont comme une odeur de pisse Ok leur demande pas d'voter ils veulent du cah Se payent un bout de rêve, 100 euros sur Côté Match Côté coeur c'est la déch Dans les caisses, côté trash Ils veulent que de la marque Leur parle pas du côté fatch Côté rap ils ne savent plus ce qu'ils écoutent Paraît qu'ce rappeur est à la mode donc ils l'écoutent en boucle Leur parle pas d'artistique Ils veulent ce qui s'fait d'plus chaud Sexe, drogue, rap, ils baisent la France à Sarko Eh yo Alonzo Alonzo Alonzo Yeaah Au cachot, au réseau, dans les cellulaires C'est le nouvel air, man l'amour la guerre Comoria en Gabbana j'arrache sa mère J'me prends pas pour Zépé J'préfère Béné J'préfère rapper la vengeance des aînés A la masse j'suis mêlé L'époque est animée L'euro c'est la matière première On frappe au bulldozer J'ai vu des gosses se perdre Noyés dans le vice, les problèmes, les larmes Bidons d'essence, allumettes Il suffit d'une étincelle pour qu'une vie s'enflamme Pour ma jeunesse oubliée, A.L.O.N, Nassi, l'Algé viennent chanter Ça vient du fond de nos âmes Et tu sais comme on dégomme sa a-a-a-a On a du kérosène dans le corps On est des avions d'chasse faut qu'on décolle on a la mort Tu veux du, Tu veux du Tu veux du rêve ? Dors encore ! Wallah on est trop speed dans les Quartiers Nord x2 Ils veulent faire de la prison-prison parce que ça fait fresh Tu leur dis que Dieu te guide Ils te disent de garder la pêche Ils veulent ton 06 6 6 n3el satan Traînes pas dans le secteur cousine, tu sais c'qui t'attends Génération no limit Aujourd'hui les p'tits frères veulent devenir ce qu'ils imitent Tu le sais, y'a l'Algé, y'a Papé Génération no limit Aujourd'hui les p'tits frères veulent prendre plus que c'qu'ils méritent Tu le sais, y'a l'Algé, y'a Papé eh eh eh ..</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux You might also like J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
+          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Moi jte parle de croquer la vie De laisser derrière soi La peine, les soucis Et la vie nous le rend bien Quand on veut bien voir Crois-moi Oriental Dream Wesh mon ami, comment ça va ? Ça fait des mois que jtai pas vu Cest vrai que ça date Et bois un coup cest pour moi Bsahtek la paire de Prada Wesh la famille, comment ça va ? Tu parles encore de ton ex Mais vas-y oublie-la Cousin faut tourner la page Et puis le reste on verra Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Seul le Ciel est la limite Tout va si vite Et tu nvois plus le temps qui passe Habibi, laisse-toi guider Et tu verras qucest pas si mal Habibi, rien nest fini Et puis regarde autour de toi Ce monde te sourit Et la vie te tend les bras Eh yo te casse pas la tête Le gros son qui pète Habibi maguali noum Habibi jtai dans la tête Passeoprt, bagages Liasses de billet dcinq cent Libre comme lair Jprends lavion quand ça mchante Suis-moi on va senjailler non-stop Oublier nos soucis jusquà laube Chante avec moi lady, lady, lady Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi LAlgérino, Nassi Oriental Dream mon ami On tfait voyager en 3min20 HabibiYou might also like</t>
+          <t>Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Moi jte parle de croquer la vie De laisser derrière soi La peine, les soucis Et la vie nous le rend bien Quand on veut bien voir Crois-moi Oriental Dream Wesh mon ami, comment ça va ? Ça fait des mois que jtai pas vu Cest vrai que ça date Et bois un coup cest pour moi Bsahtek la paire de Prada Wesh la famille, comment ça va ? Tu parles encore de ton ex Mais vas-y oublie-la Cousin faut tourner la page Et puis le reste on verra Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Seul le Ciel est la limite Tout va si vite Et tu nvois plus le temps qui passe Habibi, laisse-toi guider Et tu verras qucest pas si mal Habibi, rien nest fini Et puis regarde autour de toi Ce monde te sourit Et la vie te tend les bras Eh yo te casse pas la tête Le gros son qui pète Habibi maguali noum Habibi jtai dans la tête Passeoprt, bagages Liasses de billet dcinq cent Libre comme lair Jprends lavion quand ça mchante Suis-moi on va senjailler non-stop Oublier nos soucis jusquà laube Chante avec moi lady, lady, lady Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi LAlgérino, Nassi Oriental Dream mon ami On tfait voyager en 3min20 Habibi</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>KHALASS Ya lila nez'hou wen'rannou ahh Khalass wel algerino Dj Kore, Dj Belek L'Algerino, Marseille Fi khatar kore La médaille d'or khouya C'est la halla dans la caisse Ray Bane sur la tete Te casses pas la tete Viens on t'aprend comment on fait la fete Ça vient de S'tif Fait pas za3ma tu kiffes pas Le son chaoui le son qui fait bouger les cha'hma Ammar ammar Kho dawwar dawwar Jib l'appareil photo sawwar sawwar C'est la folie la famix La folie, quand on est pas joli, petite on reste poli Ça c'est pour les frères qui bizz' et qui n'ont pas le temps Ça c'est pour les soeurs qui trainent You might also like Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Lila n'dirou halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Tape des mains si tu sais pas dancer Les chawi vont t'ambiancer Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine</t>
+          <t>KHALASS Ya lila nez'hou wen'rannou ahh Khalass wel algerino Dj Kore, Dj Belek L'Algerino, Marseille Fi khatar kore La médaille d'or khouya C'est la halla dans la caisse Ray Bane sur la tete Te casses pas la tete Viens on t'aprend comment on fait la fete Ça vient de S'tif Fait pas za3ma tu kiffes pas Le son chaoui le son qui fait bouger les cha'hma Ammar ammar Kho dawwar dawwar Jib l'appareil photo sawwar sawwar C'est la folie la famix La folie, quand on est pas joli, petite on reste poli Ça c'est pour les frères qui bizz' et qui n'ont pas le temps Ça c'est pour les soeurs qui trainent Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Lila n'dirou halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Tape des mains si tu sais pas dancer Les chawi vont t'ambiancer Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack broeder, fuck m'n ex fuck it Ik kan niet hangen meer met de putain hahhhh Ik kom van de streets, en daar is het warm Bitch ik nam de benen, ik ben niet meer arm Ben nu millionair, het heeft tijd gekost tijd Ik weet wat ik wil, ik zie jij twijfelt nog hahaha Kom uit Saint Denis, dat zijn buitenwijken En voor police moest ik buiten wijken Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef! You might also like Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Papa m'a dit de préserver tous les liens Je l'aime et grâce à Dieu, je sais d'où je viens Le ciel et la Terre et dans les veines à vie J'veux m'sentir chez moi, dans mon bled ou dans le tien Quelques ignorants se chamaillent dans la cour La Terre est la même, le teint n'est pas raccord Les tiens comme les miens déçoivent chacun leur tour Y a qu'Kalash Criminel qui met tout l'monde d'accord Et de ce côté de moi, que diront-ils ? De l'autre côté de moi, que diront-ils ? J'suis pas un arabe, moi, pas un africain Un arabe d'Afrique, un Arafricain Fianso Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Heeft de hiya, hiya Hij laat je vliegen, vliegen Ik ben met zinas, zinas Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos</t>
+          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack broeder, fuck m'n ex fuck it Ik kan niet hangen meer met de putain hahhhh Ik kom van de streets, en daar is het warm Bitch ik nam de benen, ik ben niet meer arm Ben nu millionair, het heeft tijd gekost tijd Ik weet wat ik wil, ik zie jij twijfelt nog hahaha Kom uit Saint Denis, dat zijn buitenwijken En voor police moest ik buiten wijken Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef! Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Papa m'a dit de préserver tous les liens Je l'aime et grâce à Dieu, je sais d'où je viens Le ciel et la Terre et dans les veines à vie J'veux m'sentir chez moi, dans mon bled ou dans le tien Quelques ignorants se chamaillent dans la cour La Terre est la même, le teint n'est pas raccord Les tiens comme les miens déçoivent chacun leur tour Y a qu'Kalash Criminel qui met tout l'monde d'accord Et de ce côté de moi, que diront-ils ? De l'autre côté de moi, que diront-ils ? J'suis pas un arabe, moi, pas un africain Un arabe d'Afrique, un Arafricain Fianso Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Heeft de hiya, hiya Hij laat je vliegen, vliegen Ik ben met zinas, zinas Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Paraît que les temps sont durs À bout de nerfs, on reste forts Ce qui nous dirige, c'est la sincérité Rapper avec le cur tant qu'on entend ses battements Et si ça choque, c'est juste un bout de vérité lâché de plein fouet Mon souhait voir les frères soudés, accoudés sur des valeurs solides Loin de toute tractation, cinq piliers comme fondations Rester droit, telle est ma direction Aimer son frère quand y a plus d'amour Ça part dans tous les sens, dans toutes les directions Tous les chemins sont bons sauf les mauvais À toi d'interpréter ça dans tous les sens Trop de haine, ça a déstabilisé mes cinq sens Honneur et bravoure depuis l'époque juvénile On se battra tant qu'y a encore de l'eau dans le fleuve du Nil Le temps s'écoule et l'homme s'écroule, avertis la France Du haut de mes 22 piges, j'regarde le monde en gardant mes distances Petit, si je m'emporte, c'est le fruit de l'émotion Tant de sentiments et si peu de mots, si bien que tout se mélange dans ma tête Le désordre est proclamé, la folie se mêle à ma raison Et là, j'me lâche, j'me sens bien, ouais ! On marchera fiers sans sombrer dans l'orgueil, la vanité Putsch cérébral, abnégation, courage comme monture On prendra la place du calife, l'Algérino ! You might also like On me prendra sûrement pour un fou Un mec qui avait rien d'autre à foutre que de noircir ses feuilles blanches, raconter son vécu de merde Si tu savais, mon souhait réunir les consciences uvrer, éviter la pénitence, on aurait pu tomber Mais je me relève, tête haute, humble et simple J'aurais pu te parler de sexe et de shit, histoire de faire du chiffre Le pactole et les hits, bastos pour la frime Que j'mets un gilet pare-balles De peur de me faire allumer dans la street J'laisse ça aux mythomanes, j'clame ma différence haut et fort Parle fort, pense fort, rêve fort J'rêve que la roue tourne, quand elle vient à nous, on la crève Frère, on n'a pas le temps, la vie est brève Pour tous nos consorts, ceux que la vie a dépourvus de confort Pour ceux qui ont du blé et qui, simplement, se comportent Dédiée aux friqués qui pensent aux pauvres Et aux pauvres solidaires que la misère aurait pu diviser Unis dans la merde, unis dans la richesse Unis dans nos différences de teint, de classe sociale Le tout, c'est de respecter son prochain Aveuglés par le matos, on se marche dessus Nargués par Lucifer, le Malin On reste les mêmes survêt' Lacoste, Air Max De temps en temps, une veste en cuir pour briller On soigne notre langage pour pas se faire remarquer à la télé Jeune ambitieux qui veut s'en sortir Tous les moyens sont bons sauf les mauvais uvrer, s'éloigner du faux Tous frères malgré la différence de peau La vérité n'a pas d'étendard ni de drapeau Certains se repositionnent et d'autres s'égarent Pour se réveiller, il sera jamais trop tard Et si j'échoue, c'est juste que j'ai eu tort d'avoir eu raison trop tôt On reprendra mes phrases plus tard Libre songeur loin de toute tendance Tous les moyens sont bons sauf les mauvais</t>
+          <t>Paraît que les temps sont durs À bout de nerfs, on reste forts Ce qui nous dirige, c'est la sincérité Rapper avec le cur tant qu'on entend ses battements Et si ça choque, c'est juste un bout de vérité lâché de plein fouet Mon souhait voir les frères soudés, accoudés sur des valeurs solides Loin de toute tractation, cinq piliers comme fondations Rester droit, telle est ma direction Aimer son frère quand y a plus d'amour Ça part dans tous les sens, dans toutes les directions Tous les chemins sont bons sauf les mauvais À toi d'interpréter ça dans tous les sens Trop de haine, ça a déstabilisé mes cinq sens Honneur et bravoure depuis l'époque juvénile On se battra tant qu'y a encore de l'eau dans le fleuve du Nil Le temps s'écoule et l'homme s'écroule, avertis la France Du haut de mes 22 piges, j'regarde le monde en gardant mes distances Petit, si je m'emporte, c'est le fruit de l'émotion Tant de sentiments et si peu de mots, si bien que tout se mélange dans ma tête Le désordre est proclamé, la folie se mêle à ma raison Et là, j'me lâche, j'me sens bien, ouais ! On marchera fiers sans sombrer dans l'orgueil, la vanité Putsch cérébral, abnégation, courage comme monture On prendra la place du calife, l'Algérino ! On me prendra sûrement pour un fou Un mec qui avait rien d'autre à foutre que de noircir ses feuilles blanches, raconter son vécu de merde Si tu savais, mon souhait réunir les consciences uvrer, éviter la pénitence, on aurait pu tomber Mais je me relève, tête haute, humble et simple J'aurais pu te parler de sexe et de shit, histoire de faire du chiffre Le pactole et les hits, bastos pour la frime Que j'mets un gilet pare-balles De peur de me faire allumer dans la street J'laisse ça aux mythomanes, j'clame ma différence haut et fort Parle fort, pense fort, rêve fort J'rêve que la roue tourne, quand elle vient à nous, on la crève Frère, on n'a pas le temps, la vie est brève Pour tous nos consorts, ceux que la vie a dépourvus de confort Pour ceux qui ont du blé et qui, simplement, se comportent Dédiée aux friqués qui pensent aux pauvres Et aux pauvres solidaires que la misère aurait pu diviser Unis dans la merde, unis dans la richesse Unis dans nos différences de teint, de classe sociale Le tout, c'est de respecter son prochain Aveuglés par le matos, on se marche dessus Nargués par Lucifer, le Malin On reste les mêmes survêt' Lacoste, Air Max De temps en temps, une veste en cuir pour briller On soigne notre langage pour pas se faire remarquer à la télé Jeune ambitieux qui veut s'en sortir Tous les moyens sont bons sauf les mauvais uvrer, s'éloigner du faux Tous frères malgré la différence de peau La vérité n'a pas d'étendard ni de drapeau Certains se repositionnent et d'autres s'égarent Pour se réveiller, il sera jamais trop tard Et si j'échoue, c'est juste que j'ai eu tort d'avoir eu raison trop tôt On reprendra mes phrases plus tard Libre songeur loin de toute tendance Tous les moyens sont bons sauf les mauvais</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? You might also like Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
+          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A Marseille les vrais qui pèsent, ne parlent pas Ils font leurs sous illégalement mais ne s'en vantent pas Zarbi pète pas plus haut que ton cul Les jaloux te braquent, t'aurais du tourner ta langue sept fois dans ton cul Rap je l'encule sans vaseline Vu que la plupart des mc sont des pd calibrés que dans les magazines Dehors c'est l'asile frère t'as peur de te montrer Derrière un mic, tu joues les fiers et dans la rue tu marches la tête baissée Je fais des tubes, ???????????, des thunes en levant le majeur Faire plaisir aux frangins qu'ont l'humeur rageuse Je sors en boite pour faire profiter les potes en vrac Place aux bad boys de la Savine, je veux la meilleure table Punchliner, ça se passe sur la ligne 30 13.0015 Mars que des monstroplantes Mc on fait pas partie du même bateau En sortant du bazar, je t'ai vu tapiner sur ????? Tu fais la fille bien, ton mec est tombé Tu te fais défoncer par sont pote qui l'a balancé Une chienne reste une chienne, les chiens mangent les chiens Si t'es en chien tous les moyen sont bons sauf à enculer les siens A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres You might also like Zahef bézef, en bande tu chénef Mais tout seul tu trembles des lèvres Détend toi l'ami, si ta gadji me guette c'est qu'elle se respecte pas Si on sait qu'elle est maqué on respecte, on la touche pas Suspect devant un distributeur de billets Si tu vois un marseillais, fais gaffe à ta C.B Hoooo t'sais qu'on est toujours dispo J'représente mon bled d'où mon nom l'algérino Braquo vocal kho goutte c'est de la locale Fais péter le son t'as reconnu l'empreinte vocale 13 le code postal on veut peser comme Sossa ?????? tête dure demande à totta Rien à craindre rien à se reprocher Savine bâtiment D1 tu sais où me trouver J'suis chez moi partout en France, au bled ou aux Comores T'es pas content raciste, va niquer tes morts A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Frein à main voiture de location Regard de travers ma racaille effraie la nation On est là dans le poste je fais la fierté de ma ville Les pirates sont dans ta ville, ne laisses pas traîner ta fille Voyons vodka cul sec ??????? Q7 La famille tu vois flou t'es en train de brancher une pucelle A Marseille ça clashe pas, ça charcle Beaucoup de langue de pute mais y'a pas de voyou dans le rap 100 Rolloto, je traine avec Jonny Hamma Au bar Maeva ça nique le R.M.I au bingo Un coup d'espoir au Loto Marlboro Kawa Le temps se compte en mégot rêve de finir à Hawaï Les problèmes sous le k-way Tout va bien normal Marseille est pollué En plus de la construction du tramway Si les joueurs de l'O.M ne mouillent pas le maillot Les petits de la Savine iront Leur braquer le Cayenne x2 A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Je me sens chez moi en France au bled ou au Comores T'es pas content raciste, va niquer tes morts</t>
+          <t>A Marseille les vrais qui pèsent, ne parlent pas Ils font leurs sous illégalement mais ne s'en vantent pas Zarbi pète pas plus haut que ton cul Les jaloux te braquent, t'aurais du tourner ta langue sept fois dans ton cul Rap je l'encule sans vaseline Vu que la plupart des mc sont des pd calibrés que dans les magazines Dehors c'est l'asile frère t'as peur de te montrer Derrière un mic, tu joues les fiers et dans la rue tu marches la tête baissée Je fais des tubes, ???????????, des thunes en levant le majeur Faire plaisir aux frangins qu'ont l'humeur rageuse Je sors en boite pour faire profiter les potes en vrac Place aux bad boys de la Savine, je veux la meilleure table Punchliner, ça se passe sur la ligne 30 13.0015 Mars que des monstroplantes Mc on fait pas partie du même bateau En sortant du bazar, je t'ai vu tapiner sur ????? Tu fais la fille bien, ton mec est tombé Tu te fais défoncer par sont pote qui l'a balancé Une chienne reste une chienne, les chiens mangent les chiens Si t'es en chien tous les moyen sont bons sauf à enculer les siens A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Zahef bézef, en bande tu chénef Mais tout seul tu trembles des lèvres Détend toi l'ami, si ta gadji me guette c'est qu'elle se respecte pas Si on sait qu'elle est maqué on respecte, on la touche pas Suspect devant un distributeur de billets Si tu vois un marseillais, fais gaffe à ta C.B Hoooo t'sais qu'on est toujours dispo J'représente mon bled d'où mon nom l'algérino Braquo vocal kho goutte c'est de la locale Fais péter le son t'as reconnu l'empreinte vocale 13 le code postal on veut peser comme Sossa ?????? tête dure demande à totta Rien à craindre rien à se reprocher Savine bâtiment D1 tu sais où me trouver J'suis chez moi partout en France, au bled ou aux Comores T'es pas content raciste, va niquer tes morts A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Frein à main voiture de location Regard de travers ma racaille effraie la nation On est là dans le poste je fais la fierté de ma ville Les pirates sont dans ta ville, ne laisses pas traîner ta fille Voyons vodka cul sec ??????? Q7 La famille tu vois flou t'es en train de brancher une pucelle A Marseille ça clashe pas, ça charcle Beaucoup de langue de pute mais y'a pas de voyou dans le rap 100 Rolloto, je traine avec Jonny Hamma Au bar Maeva ça nique le R.M.I au bingo Un coup d'espoir au Loto Marlboro Kawa Le temps se compte en mégot rêve de finir à Hawaï Les problèmes sous le k-way Tout va bien normal Marseille est pollué En plus de la construction du tramway Si les joueurs de l'O.M ne mouillent pas le maillot Les petits de la Savine iront Leur braquer le Cayenne x2 A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Je me sens chez moi en France au bled ou au Comores T'es pas content raciste, va niquer tes morts</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Laissez-moi perdu j'mets les voiles Les pieds sur Terre J'ai rêvé que je touchais les étoiles Donc j'mets les voiles, j'mets les voiles Les soucis s'enchaînent La vie est faite d'épreuves et j'prends sur moi J'mets les voiles j'm'arrache en gros cube J'tire un trait sur l'passé Ne dis pas qu't'es mon ami Quand j'te voyais tu traçais Désormais c'est chacun sa vie Nos destins sont tracés Et poto si tu m'as trahi Sache que dans mon cur c'est amitié glacée J'mets les voiles ne pleure pas J'suis tellement loin qu'j'ai peur de plus revenir J'ai dit à la miss nan ne pars pas J'ai trop d'fierté pour te retenir Combien de fois la vie m'a marqué, taclé, char-clé ? La gloire, la réussite m'ont nargué, tardé Bloqué sur le quai j'voulais embarquer J'voyais ma daronne frotter le parquet On m'as dit de rester honnête Tu fais aussi despi qu'une commette J'traînais trop dehors j'rêvais d'or à tord J'aurais pu finir aux Baumettes yeah You might also like</t>
+          <t>Laissez-moi perdu j'mets les voiles Les pieds sur Terre J'ai rêvé que je touchais les étoiles Donc j'mets les voiles, j'mets les voiles Les soucis s'enchaînent La vie est faite d'épreuves et j'prends sur moi J'mets les voiles j'm'arrache en gros cube J'tire un trait sur l'passé Ne dis pas qu't'es mon ami Quand j'te voyais tu traçais Désormais c'est chacun sa vie Nos destins sont tracés Et poto si tu m'as trahi Sache que dans mon cur c'est amitié glacée J'mets les voiles ne pleure pas J'suis tellement loin qu'j'ai peur de plus revenir J'ai dit à la miss nan ne pars pas J'ai trop d'fierté pour te retenir Combien de fois la vie m'a marqué, taclé, char-clé ? La gloire, la réussite m'ont nargué, tardé Bloqué sur le quai j'voulais embarquer J'voyais ma daronne frotter le parquet On m'as dit de rester honnête Tu fais aussi despi qu'une commette J'traînais trop dehors j'rêvais d'or à tord J'aurais pu finir aux Baumettes yeah</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Joublie pas qui je suis, joublie pas doù je viens Joublie pas que jétais ce galérien qu'est parti de rien Joublie pas que pour beaucoup jétais voué à léchec Mais jai appris que dans la vie faut jamais lâcher le steak Joublie pas mes racines, fier de mes origines Joublie pas ce temps où mon compte en banque criait famine Joublie pas ces années à traîner dans les ruelles Entre la rue et lécole, petit voleur à Marseille Insouciant à lépoque, je voulais refaire le monde Un ballon de foot, un marqueur, je voulais croquer le monde Mais jai vu le fossé entre les rêves et la réalité La satiété de fric ne fait quempirer la société Le frigo est vide mais je manquais de rien Le daron se tue à la tâche pour quon mange à notre faim Y disent quon était pauvres, pour moi jétais millionnaire Une mère et un père, cest la plus grande des richesses sur Terre Jai connu les coups durs, maladies de la vie Le chemin est parsemé d'embûches sur lautoroute de la vie Entre le bien et le mal, entre la terre et les cieux Je lève les yeux vers le ciel et passe la confiance en Dieu À lheure où jécris ce texte, je suis garé dans un parking Les flics mont contrôlé nont trouvé que des mégots, des sticks Les gens me prennent pour un fou, quand je rappe mes textes au feu rouge Ça passe au vert, ça klaxonne, les vieux me regardent dun air louche You might also like Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai connu la routine, je lui ai même fait lamour Perdu mon temps, chaque jour à traîner en bas dune tour À se demander ce que le sort me réservera demain Fatigué de rien foutre, assommé par des joints Les yeux cernés, je perdais mon duel contre le sommeil 14 heures du mat', ce jour qui ressemble à celui de la veille Jai-j'ai rien à perdre, je sais ce que jai à faire Tente le tout pour le tout avant de finir 6 pieds sous terre Jai connu les nuits de doute, intéressé par les maisons de disques Les radios navaient pas de place pour moi dans leurs playlists Mais la rue a tranché, elle a fait de moi ce que je suis Y'a de la place dans la caisse, que ceux qui maiment me suive Jallume la radio, les frères inondent la F.M MashAllah je souhaite le bien, les jaloux puent la défaite Faut aimer pour son prochain, ce quon aime pour soi-même Continue à tout niquer, vas y mais reste toi-même Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai déjà 27 ans, jai vécu un quart de siècle Dans la vie y'a des chances qui se présentent, ils faut les saisir Rien à foutre de ceux qui mettent les bâtons dans les roues Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir</t>
+          <t>Joublie pas qui je suis, joublie pas doù je viens Joublie pas que jétais ce galérien qu'est parti de rien Joublie pas que pour beaucoup jétais voué à léchec Mais jai appris que dans la vie faut jamais lâcher le steak Joublie pas mes racines, fier de mes origines Joublie pas ce temps où mon compte en banque criait famine Joublie pas ces années à traîner dans les ruelles Entre la rue et lécole, petit voleur à Marseille Insouciant à lépoque, je voulais refaire le monde Un ballon de foot, un marqueur, je voulais croquer le monde Mais jai vu le fossé entre les rêves et la réalité La satiété de fric ne fait quempirer la société Le frigo est vide mais je manquais de rien Le daron se tue à la tâche pour quon mange à notre faim Y disent quon était pauvres, pour moi jétais millionnaire Une mère et un père, cest la plus grande des richesses sur Terre Jai connu les coups durs, maladies de la vie Le chemin est parsemé d'embûches sur lautoroute de la vie Entre le bien et le mal, entre la terre et les cieux Je lève les yeux vers le ciel et passe la confiance en Dieu À lheure où jécris ce texte, je suis garé dans un parking Les flics mont contrôlé nont trouvé que des mégots, des sticks Les gens me prennent pour un fou, quand je rappe mes textes au feu rouge Ça passe au vert, ça klaxonne, les vieux me regardent dun air louche Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai connu la routine, je lui ai même fait lamour Perdu mon temps, chaque jour à traîner en bas dune tour À se demander ce que le sort me réservera demain Fatigué de rien foutre, assommé par des joints Les yeux cernés, je perdais mon duel contre le sommeil 14 heures du mat', ce jour qui ressemble à celui de la veille Jai-j'ai rien à perdre, je sais ce que jai à faire Tente le tout pour le tout avant de finir 6 pieds sous terre Jai connu les nuits de doute, intéressé par les maisons de disques Les radios navaient pas de place pour moi dans leurs playlists Mais la rue a tranché, elle a fait de moi ce que je suis Y'a de la place dans la caisse, que ceux qui maiment me suive Jallume la radio, les frères inondent la F.M MashAllah je souhaite le bien, les jaloux puent la défaite Faut aimer pour son prochain, ce quon aime pour soi-même Continue à tout niquer, vas y mais reste toi-même Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai déjà 27 ans, jai vécu un quart de siècle Dans la vie y'a des chances qui se présentent, ils faut les saisir Rien à foutre de ceux qui mettent les bâtons dans les roues Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro You might also like Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
+          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro You might also like Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
+          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C'est correct ... L'algérino Jalal Hamdaoui, Maroc Algérie connection internationnal Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Apprécie ce son comme un Big Mac halal Bi bi big bass grosses caisses pour les rageurs L'algé Jalal hamdaoui Technique au micro comme Mounir El Hamdaoui Bouge tes fesses fesses ça vient de Mekness de Fes Fes Wesh wesh Panamera à Marrakech-kech !! Fais pas la hess On est VIP même rien dans les poches Tous des P.Diddy Ça flope au Es Saadi, à la Mamounia Je joue mon tapis, tu joue tes Puma Les frères en cavale khouya c'est hardcore Arrivé à la douane 20 euros dans le passeport You might also like Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Notre bled c'est l'Eldorado Évasion chicha Cristal, cocktail au Théatro Tapis rouge quand je débarque en Algérie Escorte militaire faites place le chaoui est de sortie On a les clés de l'aéroport de Batna J'bronze à Alger deux jours après je taille à Casa Khouya ça déchire d'être arbi La fierté dans le sang c'est le Maghreb uni J'suis avec Mourad dans le Chrysler Il y a des vaillants Consulte le Maghreb et toute sa ferveur Et que les touristes touchent pas à nos surs Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena</t>
+          <t>C'est correct ... L'algérino Jalal Hamdaoui, Maroc Algérie connection internationnal Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Apprécie ce son comme un Big Mac halal Bi bi big bass grosses caisses pour les rageurs L'algé Jalal hamdaoui Technique au micro comme Mounir El Hamdaoui Bouge tes fesses fesses ça vient de Mekness de Fes Fes Wesh wesh Panamera à Marrakech-kech !! Fais pas la hess On est VIP même rien dans les poches Tous des P.Diddy Ça flope au Es Saadi, à la Mamounia Je joue mon tapis, tu joue tes Puma Les frères en cavale khouya c'est hardcore Arrivé à la douane 20 euros dans le passeport Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Notre bled c'est l'Eldorado Évasion chicha Cristal, cocktail au Théatro Tapis rouge quand je débarque en Algérie Escorte militaire faites place le chaoui est de sortie On a les clés de l'aéroport de Batna J'bronze à Alger deux jours après je taille à Casa Khouya ça déchire d'être arbi La fierté dans le sang c'est le Maghreb uni J'suis avec Mourad dans le Chrysler Il y a des vaillants Consulte le Maghreb et toute sa ferveur Et que les touristes touchent pas à nos surs Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A-A AWA the mafia, my nigga Oyé, dame besos en la boca Mouah Uno de esos que a mí me provoca Hey Yo te tengo duro como roca Ouh Yo te tengo crazy, loca, loca Uh, uh, uh En la boca, la boca, la boca, la boca Hey Chica, chica, mami, salsa en la boca Hey Oyé papi, comment tu t'appelles ? Hey La gente hablando como loca Oh Millions, elle veut mes millions, la demoiselle me trouve mignon Ouais, ouais, ouais, l'argent, ça rend mignon Hey, hey Parle à mon agent, j'termine mon filet mignon En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh You might also like J'suis sorti ce soir, ne m'attnds pas Tu fais mal à la tête comme ma compta' Oh, oh J'suis posté, la suite au Méridin, ne m'attends pas Hey, oh, oh Chaque fois qu't'ouvres la bouche, c'est un attentat Hey Tú me gusta' porque tú me tocas como nadie Tes copines ont les yeux sur moi, c'est chaud à c'qui paraît Me quito la ropa que sea Gucci o Versace Chica, chica, rica, rica, j'vais te faire cantare La Boca, una loca locità Je donne ma langue au chat, elle parle plus qu'mon avocat Rrah, oh, oh, ah, ah, ah En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Oyé, dame besos en la boca Hey, hey, okay Uno de esos que a mí me provoca Hey, okay Yo te tengo duro como roca Hey, okay Yo te tengo crazy, loca, loca Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Bleh, bleh, bleh Cala boca Boca Eh, eh Oyé papi, comment tu t'appelles ?</t>
+          <t>A-A AWA the mafia, my nigga Oyé, dame besos en la boca Mouah Uno de esos que a mí me provoca Hey Yo te tengo duro como roca Ouh Yo te tengo crazy, loca, loca Uh, uh, uh En la boca, la boca, la boca, la boca Hey Chica, chica, mami, salsa en la boca Hey Oyé papi, comment tu t'appelles ? Hey La gente hablando como loca Oh Millions, elle veut mes millions, la demoiselle me trouve mignon Ouais, ouais, ouais, l'argent, ça rend mignon Hey, hey Parle à mon agent, j'termine mon filet mignon En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh J'suis sorti ce soir, ne m'attnds pas Tu fais mal à la tête comme ma compta' Oh, oh J'suis posté, la suite au Méridin, ne m'attends pas Hey, oh, oh Chaque fois qu't'ouvres la bouche, c'est un attentat Hey Tú me gusta' porque tú me tocas como nadie Tes copines ont les yeux sur moi, c'est chaud à c'qui paraît Me quito la ropa que sea Gucci o Versace Chica, chica, rica, rica, j'vais te faire cantare La Boca, una loca locità Je donne ma langue au chat, elle parle plus qu'mon avocat Rrah, oh, oh, ah, ah, ah En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Oyé, dame besos en la boca Hey, hey, okay Uno de esos que a mí me provoca Hey, okay Yo te tengo duro como roca Hey, okay Yo te tengo crazy, loca, loca Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Bleh, bleh, bleh Cala boca Boca Eh, eh Oyé papi, comment tu t'appelles ?</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>La vie c'est un contre poids entre la peine et la joie, c'est ça... La mélancolie de ce piano, L'algérino Soprano Tire ou lève le d'ma tempe, rapper à blanc ça sert à rien Quand tu es chargé ne soit sûr de rien Contemple le bien, mon putain d'sourire Comment c'est quoi qui sort d'mon texte ? C'est la fumée d'un flingue qui vient d'servir Normal qu'jsuis speed, l'an 2000 c'est hier Marre d'suivre la carotte maintenant faut que j'enlève ces oeillères A cheval sur la misère, voilà pourquoi j'vis sur la paille Il m'faut du liquide mais il n'y a qu'au McDo qu'ils donnent une paille Donc j'sors mon Mic, son cross Fais mon cross sur un son de grosse caisse, rends l'rap cardiaque comme William Ross Grosse caisse, qu'est ce qui s'passe ? T'appuis sur l'champignon C'est bien mais faut aussi savoir tenir l'guidon La bague d'une femme te feras pas éviter l'crash Au contraire elle demande comment qu'tu craches Du front, du Zgeg à la C.B T'en prend sur l'zgeg et elle le sait bien et si elle est assez bien, tu t'maris Mais là elle oublie la capote et tu vois pas mieux qu'Ingalls Marie Car tes projets s'habillent en noir comme ton taf qui lui habille ta femme en blanche Qui tire une taffe sur ta vie qui part en fumée Mais c'est la vie et la vie faut l'assumer Voilà pourquoi je suis pressé comme un nez sous un collant Dim L'Algé envoie le refrain j'ai usé toutes les pages de mon jean You might also like J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend J'ai atterri dans ce monde on n'sait comment Après mon frère, ma mère pouvait plus enfanter mais malgré tout j'ai atterri sur terre J'suis une fausse couche, échoué sur les rives de la vie Et voilà que j'arrive on m'a dit sans m'le dire Pousse parmi les mauvaises herbes, m'efforce de garder ma tige droite Qu'ils s'doigtent si mon franc parler les gêne Quoi tu gerbes? Certes j'ai le verbe qui heurte excuse c'est parti tout seul Sers, les yeux cernés c'est le beur à l'oeil bleu T'as cerné la thématique, logico-mathématique Click, j'ai la rime automatique Le coeur tousse, marre d'être sous l'effet des drogues douces Tous, pour le flouze couz,on secoue nos poches et on tousse Hélas si tu l'as cru, on a cru alors Mais on s'est réveillé à l'aube Sobre, mais ivre de rage toujours dans l'excès ya pas de limites Quand la fight nous propose une poignée de main Mais on évite comme toi d'ailleurs Chercher refuge chez les tailleurs en soie mais ici c'est chacun pour soi Et Dieu pour qui croit une ligne droite tendue par l'ironie du sort Soit, ainsi soit notre sort... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend Hey...Au lieu d'savoir qui des M.C est le premier sur du Timbaland premier Vois la gravité d'nos actes, j'te parle pas d'Newton et d'son pommier Ravitaille tes raps pour les gens qu'ont la couleur du damier de Walid à Damien Oyé Oyé Sopra noyé Entre encre et larmes d'encre et d'arme à la main le Mic l'ventre énorme Mais l'vide prend trop d'place, les crocs classes, des grosses crasses Qu'ont nourri mes grosses tass à cause des grosses barasses d'air On dirait qu'j'taff dans le vent, rien à foutre Tant qu'j'taff dans l'fond j'reste terre à terre On dit souvent qu'à Marseille on a des raps de chialeur Eh si on transpire des yeux chez nous c'est pas à cause d'la chaleur Chez nous, rage et joie et valeur Nos genoux à l'heure quand il s'agit de prier Quand il s'agit d'crier râleurs genoux Repars avec des ballerines pendant qu'l'Ange de la mort fait ses courses en Palestine Le rap c'est sérieux Comme quand l' Amérique apprend à ses Bonds à faire sur nos pays des sauts périlleux Click Click Bam et rend les S.O.S muets Muets d'la voix on peut pas dire que t'as grandi, muer Ruez vous sur la caillasse c'est c'qu'on nous dit depuis gosse Normal qu'ça casse et qu'mon Mic sorte souvent d'son cross L'Algérino faut qu'on s'taille d'ici et vite, vite... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend1</t>
+          <t>La vie c'est un contre poids entre la peine et la joie, c'est ça... La mélancolie de ce piano, L'algérino Soprano Tire ou lève le d'ma tempe, rapper à blanc ça sert à rien Quand tu es chargé ne soit sûr de rien Contemple le bien, mon putain d'sourire Comment c'est quoi qui sort d'mon texte ? C'est la fumée d'un flingue qui vient d'servir Normal qu'jsuis speed, l'an 2000 c'est hier Marre d'suivre la carotte maintenant faut que j'enlève ces oeillères A cheval sur la misère, voilà pourquoi j'vis sur la paille Il m'faut du liquide mais il n'y a qu'au McDo qu'ils donnent une paille Donc j'sors mon Mic, son cross Fais mon cross sur un son de grosse caisse, rends l'rap cardiaque comme William Ross Grosse caisse, qu'est ce qui s'passe ? T'appuis sur l'champignon C'est bien mais faut aussi savoir tenir l'guidon La bague d'une femme te feras pas éviter l'crash Au contraire elle demande comment qu'tu craches Du front, du Zgeg à la C.B T'en prend sur l'zgeg et elle le sait bien et si elle est assez bien, tu t'maris Mais là elle oublie la capote et tu vois pas mieux qu'Ingalls Marie Car tes projets s'habillent en noir comme ton taf qui lui habille ta femme en blanche Qui tire une taffe sur ta vie qui part en fumée Mais c'est la vie et la vie faut l'assumer Voilà pourquoi je suis pressé comme un nez sous un collant Dim L'Algé envoie le refrain j'ai usé toutes les pages de mon jean J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend J'ai atterri dans ce monde on n'sait comment Après mon frère, ma mère pouvait plus enfanter mais malgré tout j'ai atterri sur terre J'suis une fausse couche, échoué sur les rives de la vie Et voilà que j'arrive on m'a dit sans m'le dire Pousse parmi les mauvaises herbes, m'efforce de garder ma tige droite Qu'ils s'doigtent si mon franc parler les gêne Quoi tu gerbes? Certes j'ai le verbe qui heurte excuse c'est parti tout seul Sers, les yeux cernés c'est le beur à l'oeil bleu T'as cerné la thématique, logico-mathématique Click, j'ai la rime automatique Le coeur tousse, marre d'être sous l'effet des drogues douces Tous, pour le flouze couz,on secoue nos poches et on tousse Hélas si tu l'as cru, on a cru alors Mais on s'est réveillé à l'aube Sobre, mais ivre de rage toujours dans l'excès ya pas de limites Quand la fight nous propose une poignée de main Mais on évite comme toi d'ailleurs Chercher refuge chez les tailleurs en soie mais ici c'est chacun pour soi Et Dieu pour qui croit une ligne droite tendue par l'ironie du sort Soit, ainsi soit notre sort... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend Hey...Au lieu d'savoir qui des M.C est le premier sur du Timbaland premier Vois la gravité d'nos actes, j'te parle pas d'Newton et d'son pommier Ravitaille tes raps pour les gens qu'ont la couleur du damier de Walid à Damien Oyé Oyé Sopra noyé Entre encre et larmes d'encre et d'arme à la main le Mic l'ventre énorme Mais l'vide prend trop d'place, les crocs classes, des grosses crasses Qu'ont nourri mes grosses tass à cause des grosses barasses d'air On dirait qu'j'taff dans le vent, rien à foutre Tant qu'j'taff dans l'fond j'reste terre à terre On dit souvent qu'à Marseille on a des raps de chialeur Eh si on transpire des yeux chez nous c'est pas à cause d'la chaleur Chez nous, rage et joie et valeur Nos genoux à l'heure quand il s'agit de prier Quand il s'agit d'crier râleurs genoux Repars avec des ballerines pendant qu'l'Ange de la mort fait ses courses en Palestine Le rap c'est sérieux Comme quand l' Amérique apprend à ses Bonds à faire sur nos pays des sauts périlleux Click Click Bam et rend les S.O.S muets Muets d'la voix on peut pas dire que t'as grandi, muer Ruez vous sur la caillasse c'est c'qu'on nous dit depuis gosse Normal qu'ça casse et qu'mon Mic sorte souvent d'son cross L'Algérino faut qu'on s'taille d'ici et vite, vite... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend1</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ça bégaye pas, quand ça parle en billets On a la tchatche et on sait shabiller Tiens cest la frappe, fume elle va te quiller Nique sa mère, le feu on la grillé Cétait mon pote, mais il ma négligé gamberge Tavais la cote, toutes les gadjis te voulaient re-gamberge À qui la faute, si dun coup tas coulé ? Tas pris la coke, à cquil paraît tes jnouné Tes là tu rends fou, à la base javais pas beaucoup Mais, jreste fidèle au club comme Manchester et Rooney Fais pas tes feintes, petit PD on tconnaît Fier comme un DZ, tu peux demander à lAlgé On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu roue jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la You might also like Deux heures du mat, jpiste lÉquipe 21 Elle fait la mac, jai les nerfs jen fais un Mappelle pas au phone, tas les shmitts sur tes reins allô Arah ils sont derrière, fais-leur un cassage de reins Il a fait temps-plein, plein, plein, pour du Philippe Plein Pantalon Balmain, il a fait la pute, lui serre pas la main Elle le tient en laisse, que il sort des liasses La daronne en hess, sur K.B il fait le gros qui brasse Jsuis dans lThalys sur le quai ya les condés Gros cache le shit, la vodka, fais pas chauffer On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu rouge jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la</t>
+          <t>Ça bégaye pas, quand ça parle en billets On a la tchatche et on sait shabiller Tiens cest la frappe, fume elle va te quiller Nique sa mère, le feu on la grillé Cétait mon pote, mais il ma négligé gamberge Tavais la cote, toutes les gadjis te voulaient re-gamberge À qui la faute, si dun coup tas coulé ? Tas pris la coke, à cquil paraît tes jnouné Tes là tu rends fou, à la base javais pas beaucoup Mais, jreste fidèle au club comme Manchester et Rooney Fais pas tes feintes, petit PD on tconnaît Fier comme un DZ, tu peux demander à lAlgé On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu roue jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la Deux heures du mat, jpiste lÉquipe 21 Elle fait la mac, jai les nerfs jen fais un Mappelle pas au phone, tas les shmitts sur tes reins allô Arah ils sont derrière, fais-leur un cassage de reins Il a fait temps-plein, plein, plein, pour du Philippe Plein Pantalon Balmain, il a fait la pute, lui serre pas la main Elle le tient en laisse, que il sort des liasses La daronne en hess, sur K.B il fait le gros qui brasse Jsuis dans lThalys sur le quai ya les condés Gros cache le shit, la vodka, fais pas chauffer On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu rouge jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ouais frèro, le monde est a nous On a trimer, vous savez pas vous J'sais pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde, tout le monde perd ses valeurs On reviens de loin depuis ces années Même les genoux à terre, sur ma mère on s'est acharné J'ai pris le mic, t'étais pas né Ne fais pas l'ancien, même les plus crains se font caner Les petits bicrave dans le corner Va leur dire que l'argent ne fait pas le bonheur J'ai vu la madre galéré, 6h du mat le petit frère s'fait soulever Ça vend le shit, ça vend la C, 666 c'trop facile d'basculer Hé, hé, regarde moi J'voulais pas te faire du mal J'voulais juste ta part Hé, hé, regarde moi J'voulais pas te hagar J'voulais juste ??? J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène You might also like J'ai envie de m'arracher ailleurs Ici c'est la merde tout le monde perd ses valeurs Oui mon amor, faut que je taille C'est pas que je t'aime pas, j'étais mino faut que je maille Demande à Blanca on parle pas J'ai fait or, j'ai fait platine mais j'calcule pas J'ai la baraka d'la mama, le reste j'm'en fou si tu savais J'ai des frèros en or qui tuerais pour moi Dis moi avec qui tu traînes, je te dirais qui te tueras Chacun son destin, chacun ça chance mon cousin J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène</t>
+          <t>Ouais frèro, le monde est a nous On a trimer, vous savez pas vous J'sais pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde, tout le monde perd ses valeurs On reviens de loin depuis ces années Même les genoux à terre, sur ma mère on s'est acharné J'ai pris le mic, t'étais pas né Ne fais pas l'ancien, même les plus crains se font caner Les petits bicrave dans le corner Va leur dire que l'argent ne fait pas le bonheur J'ai vu la madre galéré, 6h du mat le petit frère s'fait soulever Ça vend le shit, ça vend la C, 666 c'trop facile d'basculer Hé, hé, regarde moi J'voulais pas te faire du mal J'voulais juste ta part Hé, hé, regarde moi J'voulais pas te hagar J'voulais juste ??? J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde tout le monde perd ses valeurs Oui mon amor, faut que je taille C'est pas que je t'aime pas, j'étais mino faut que je maille Demande à Blanca on parle pas J'ai fait or, j'ai fait platine mais j'calcule pas J'ai la baraka d'la mama, le reste j'm'en fou si tu savais J'ai des frèros en or qui tuerais pour moi Dis moi avec qui tu traînes, je te dirais qui te tueras Chacun son destin, chacun ça chance mon cousin J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L'Algérino, Sopra MBaba, la Vida Pull up Pied au plancher dans le Panamera J'fume un p'tit cigare, jsuis à Guantanamera Guantanamera On a grandi dans la favela On connait la rue, monte avec moi, morena Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Nla fais pas pleurer ou tu le paieras Jsuis dans la cabine, la concu', je la terrasse terrasse Jsuis venu tout péter, buona sera Pour toi, mi amor, je leur ferais la guerra Et c'est la vida C'est Dieu qui donne, c'est la vida Jsuis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida yeah Baba, yeah Baba, ba You might also like Eh, eh La vida, la vida Eh, eh, eh Hola, chica, cómo estás? Sin ti la vida no tiene gasolina J'fais des classiques ou d'la moula Pleins phares sur la corniche, boite automatique Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, et c'est la vida, eh Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida donnez-leur la vida, la vida</t>
+          <t>L'Algérino, Sopra MBaba, la Vida Pull up Pied au plancher dans le Panamera J'fume un p'tit cigare, jsuis à Guantanamera Guantanamera On a grandi dans la favela On connait la rue, monte avec moi, morena Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Nla fais pas pleurer ou tu le paieras Jsuis dans la cabine, la concu', je la terrasse terrasse Jsuis venu tout péter, buona sera Pour toi, mi amor, je leur ferais la guerra Et c'est la vida C'est Dieu qui donne, c'est la vida Jsuis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, eh, eh Hola, chica, cómo estás? Sin ti la vida no tiene gasolina J'fais des classiques ou d'la moula Pleins phares sur la corniche, boite automatique Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, et c'est la vida, eh Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida donnez-leur la vida, la vida</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Amigo j'suis dans ma lune, j'ai perdu le sommeil Perdu combien de plumes à vouloir toucher le soleil Y'avait pas grand-monde quand je touchais le fond de la bouteille Chez moi le diable sonne et me propose beaucoup d'oseille Il veut me couvrir d'or khey de la tête aux orteils La came de Tijuana ou rentrer dans la Sunna J'ai le cul entre deux chaises électriques Allah Yastorna Moi je veux pas cramer dans les flammes ad vitam æternam Depuis tout petit je veux percer à tout prix Homme de guerre au grand cur mais la rue m'a tout pris La violence est gratuite car les Kalashs sont pas chers Parole gratuite va la vie de ta mère au Karsher Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or J'ai jamais su dire je t'aime aux gens qui me sont chers On prend conscience de la valeur d'une personne que lorsquon la perd Marlboro dans les chicots quand je pense aux potes partis trop tôt J'ai plus de chance me faire rafaler que de gagner au loto, poto Je traîne avec une armée de kholoto, semi-automatique ça déboule cagoulé en moto Zahma tu es un fou raconte pas tes histoires à Toto Le seul gamos que t'as conduit, c'était au Salon de l'Auto, amou Calme tes ardeurs m'a dit Malo Dans la rue y'a que cowboys mais maken walou l'Eldorado Maquillé sur les plateaux une paire de lunette les bero Moi je fais des sous avec du rai un swag de clando You might also like Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or avec chercher de l'or1</t>
+          <t>Amigo j'suis dans ma lune, j'ai perdu le sommeil Perdu combien de plumes à vouloir toucher le soleil Y'avait pas grand-monde quand je touchais le fond de la bouteille Chez moi le diable sonne et me propose beaucoup d'oseille Il veut me couvrir d'or khey de la tête aux orteils La came de Tijuana ou rentrer dans la Sunna J'ai le cul entre deux chaises électriques Allah Yastorna Moi je veux pas cramer dans les flammes ad vitam æternam Depuis tout petit je veux percer à tout prix Homme de guerre au grand cur mais la rue m'a tout pris La violence est gratuite car les Kalashs sont pas chers Parole gratuite va la vie de ta mère au Karsher Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or J'ai jamais su dire je t'aime aux gens qui me sont chers On prend conscience de la valeur d'une personne que lorsquon la perd Marlboro dans les chicots quand je pense aux potes partis trop tôt J'ai plus de chance me faire rafaler que de gagner au loto, poto Je traîne avec une armée de kholoto, semi-automatique ça déboule cagoulé en moto Zahma tu es un fou raconte pas tes histoires à Toto Le seul gamos que t'as conduit, c'était au Salon de l'Auto, amou Calme tes ardeurs m'a dit Malo Dans la rue y'a que cowboys mais maken walou l'Eldorado Maquillé sur les plateaux une paire de lunette les bero Moi je fais des sous avec du rai un swag de clando Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or avec chercher de l'or1</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>La rue je la vénère pas Elle m'a causé plus de tort que de bien mais j'l'aime quand même Car j'oublie pas d'où je viens Je représente les voyous au grand cur et les gens biens Chacun ses défauts J'regarde que les qualités de mes frangins Dédié à ceux qui m'apprécient À ceux qui me détestent Dieu m'éprouve et me teste J'suis un homme et j'encaisse Je m'fais un plaisir de chanter pour ceux qui m'aime fort Les traitres je les baise ce qui ne tue pas rend plus fort J'parle la vrai rue les p'tits qu'ont rien à rayave Les smicards dépressifs et les darons qui prient dans les caves Monte le son dans le poste Si ça te touche c'est que tu as du cur , on a tous les mêmes galères, les mêmes épreuves Moi j'fais ça avec le cur sans négliger mon disque Pour les frères sont dans les ténèbres et partout le vice Tournent les surs dans le tourment recherche le prince charmant Victimes de leur faiblesse certaines finissent dans des tournantes Les mains sales comme Le Rat on va se les laver Les frontières qui nous séparent du bien on va les braver Les taver, écule des clichés qu'on va bouleverser Seul mon père j'y crois fort dis-moi si je suis en train de rêver C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage You might also like Rien à foutre de c'que les gens diront Quand j'étais seul y'avait personne à part mon sang J'ai puisé la force chez les miens Mes faiblesses, j'les ai puisé chez les autres À m'attacher bêtement à des putes qui ne valent pas grand-chose Prend pas cette rage pour de la haine j'ai d'l'amour à vendre Des amis et des frères à aimer Des ennemis à pendre J'ai gaspillé d'l'amour à le donner à n'importe qui Gaspiller d'l'amitié parce qu'en fait j'savais pas quiller Ma voix dans les baffes, j'décompresse un max Comment faire confiance aux gens, ils t'baisent pour une paire d'Air Max Nos pas ont pas de paix Je mène ma guerre pour le baise L'amour s'achète cher les putes en vitrines à Bucarest L'autre trace des liasses et je fais la sieste Il serait temps que je me bouge que j'aille à la conquête des cents Ils veulent tuer mes rêves mais ils savent pas la rage qui m'habite Si la misère me drague ouais je lui sortirai ma bite Les grosses liasses, tout ça me fascine Mon penchant pour ceux qui brillent fait de moi une proie facile Lève ton verre à ma santé Je m'régale à chanter ma vie de merde qui n'intéresse que les clebs Je rêve de lingots d'or On a cru à l'or Mais la merde dans les yeux je m'suis reveillé à l'aube Ils veulent que je plaise aux mômes j'suis pas là pour vendre du rêve mon pote Encore moins pour vendre aux pauvres C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage</t>
+          <t>La rue je la vénère pas Elle m'a causé plus de tort que de bien mais j'l'aime quand même Car j'oublie pas d'où je viens Je représente les voyous au grand cur et les gens biens Chacun ses défauts J'regarde que les qualités de mes frangins Dédié à ceux qui m'apprécient À ceux qui me détestent Dieu m'éprouve et me teste J'suis un homme et j'encaisse Je m'fais un plaisir de chanter pour ceux qui m'aime fort Les traitres je les baise ce qui ne tue pas rend plus fort J'parle la vrai rue les p'tits qu'ont rien à rayave Les smicards dépressifs et les darons qui prient dans les caves Monte le son dans le poste Si ça te touche c'est que tu as du cur , on a tous les mêmes galères, les mêmes épreuves Moi j'fais ça avec le cur sans négliger mon disque Pour les frères sont dans les ténèbres et partout le vice Tournent les surs dans le tourment recherche le prince charmant Victimes de leur faiblesse certaines finissent dans des tournantes Les mains sales comme Le Rat on va se les laver Les frontières qui nous séparent du bien on va les braver Les taver, écule des clichés qu'on va bouleverser Seul mon père j'y crois fort dis-moi si je suis en train de rêver C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage Rien à foutre de c'que les gens diront Quand j'étais seul y'avait personne à part mon sang J'ai puisé la force chez les miens Mes faiblesses, j'les ai puisé chez les autres À m'attacher bêtement à des putes qui ne valent pas grand-chose Prend pas cette rage pour de la haine j'ai d'l'amour à vendre Des amis et des frères à aimer Des ennemis à pendre J'ai gaspillé d'l'amour à le donner à n'importe qui Gaspiller d'l'amitié parce qu'en fait j'savais pas quiller Ma voix dans les baffes, j'décompresse un max Comment faire confiance aux gens, ils t'baisent pour une paire d'Air Max Nos pas ont pas de paix Je mène ma guerre pour le baise L'amour s'achète cher les putes en vitrines à Bucarest L'autre trace des liasses et je fais la sieste Il serait temps que je me bouge que j'aille à la conquête des cents Ils veulent tuer mes rêves mais ils savent pas la rage qui m'habite Si la misère me drague ouais je lui sortirai ma bite Les grosses liasses, tout ça me fascine Mon penchant pour ceux qui brillent fait de moi une proie facile Lève ton verre à ma santé Je m'régale à chanter ma vie de merde qui n'intéresse que les clebs Je rêve de lingots d'or On a cru à l'or Mais la merde dans les yeux je m'suis reveillé à l'aube Ils veulent que je plaise aux mômes j'suis pas là pour vendre du rêve mon pote Encore moins pour vendre aux pauvres C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Petit passe-moi le micro Jack Sparrow dans les ondes Préviens la France y'a mes pirates sont dans ta zone Le Black Pearl a hissé les voiles et fait son entrée Sur tous les murs de Marseille mon nom est placardé Malgré les tempêtes, on reste dans la lancée Monte le son dans le poste fatigué de ce rap français Place au gosse, hausse le level, grosse caisse, caisse claire Cause pour tous mes gosses, frangins est-ce clair ? Revendicateur depuis mon premier couplet J'me dois de représenter, mes pirates sont regroupés Normal que la foule m'acclame, quoi j'entends rien Lève ton putain de bras, c'est le chant des chacals qui n'ont rien Pour tous mes loup-garous en Subaru à l'aise en deux roues Cas de guette, quand les condés patrouillent, me parle pas de roubles Je veux des euros sans faire dans l'héro Chien de la classe, la rage à Ribéry au micro C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate You might also like Je suis dans la boîte avec mes locos, ambiance pirate Pleins de gadji qui en pincent sur ma bande de pirates Le matos sur la table entouré de sirènes Encerclé par mes khos qui ont la dalle et mauvaise haleine Succès soudain, parait que je pèse Les petits de mon quartier draguent et sur mon compte on baise Mets-toi à l'aise c'est l'Algé qui régale Des watts, des kilowatts à l'arrière de la Mégane C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je prends mon jet ski pirate, Hummer pirate Si tu as le sang chaud je t'invite dans mon bateau pirate Téléphone pirate, frère j'ai la puce pirate Les canons sont chargés, handek le premier qui râle J'suis passé d'un t-shirt sale au polo Gabbana J'ai rien d'extra à part ce putain de flow phénoménal Il me croyait bien, j'ai encore des douleurs abdominales J'ai encore faim de sous, c'est mentalité trop minable L'Algérino, flow lacrymo, primo rien à prouver dans ce milieu de merde que des putes en kilo Pour tous mes pirates l'Algé Jack Sparrow Paix à tous ceux qui m'aiment et qui me piratent À ceux qui me piratent QUOI ? Le CD saute Enfoiré tu l'as gravé, bas les pattes Sache que petit d'après le code des pirates On ne pirate jamais un pirate x2 C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate</t>
+          <t>C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Petit passe-moi le micro Jack Sparrow dans les ondes Préviens la France y'a mes pirates sont dans ta zone Le Black Pearl a hissé les voiles et fait son entrée Sur tous les murs de Marseille mon nom est placardé Malgré les tempêtes, on reste dans la lancée Monte le son dans le poste fatigué de ce rap français Place au gosse, hausse le level, grosse caisse, caisse claire Cause pour tous mes gosses, frangins est-ce clair ? Revendicateur depuis mon premier couplet J'me dois de représenter, mes pirates sont regroupés Normal que la foule m'acclame, quoi j'entends rien Lève ton putain de bras, c'est le chant des chacals qui n'ont rien Pour tous mes loup-garous en Subaru à l'aise en deux roues Cas de guette, quand les condés patrouillent, me parle pas de roubles Je veux des euros sans faire dans l'héro Chien de la classe, la rage à Ribéry au micro C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je suis dans la boîte avec mes locos, ambiance pirate Pleins de gadji qui en pincent sur ma bande de pirates Le matos sur la table entouré de sirènes Encerclé par mes khos qui ont la dalle et mauvaise haleine Succès soudain, parait que je pèse Les petits de mon quartier draguent et sur mon compte on baise Mets-toi à l'aise c'est l'Algé qui régale Des watts, des kilowatts à l'arrière de la Mégane C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je prends mon jet ski pirate, Hummer pirate Si tu as le sang chaud je t'invite dans mon bateau pirate Téléphone pirate, frère j'ai la puce pirate Les canons sont chargés, handek le premier qui râle J'suis passé d'un t-shirt sale au polo Gabbana J'ai rien d'extra à part ce putain de flow phénoménal Il me croyait bien, j'ai encore des douleurs abdominales J'ai encore faim de sous, c'est mentalité trop minable L'Algérino, flow lacrymo, primo rien à prouver dans ce milieu de merde que des putes en kilo Pour tous mes pirates l'Algé Jack Sparrow Paix à tous ceux qui m'aiment et qui me piratent À ceux qui me piratent QUOI ? Le CD saute Enfoiré tu l'as gravé, bas les pattes Sache que petit d'après le code des pirates On ne pirate jamais un pirate x2 C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas J'ai pleuré un beau jour, 9 heures du mat', 2 mai 81 Après mon frère, ma mère ne pouvait plus enfanter Grâce à Dieu j'atterris sur terre, mon premier cri poussé Mes premières larmes versées à la maternité d'la Belle de Mai Issu d'une famille des plus modestes À la rue Parmentier on était sept à vivre dans une pièce Mon père travaillait 15 heures par jour et jle voyais que le soir Le regard marqué par le ciment et la routine bref Après qautre ans passés dans ce taudis Forcé de déménager vu que la famille s'est agrandie 143 rue Félix Piat mon premier meilleur ami Nordine Nekka t'inquiète frère jamais je t'oublie T'étais le premier mec avec qui je volais Après la classe te casse, on dévalisait Intermarché Tablette de chocolat Crunch, blanco et marqueur La fine équipe de parc petit débrouillard et tagueurs, bagarreur Après le foot c'était la mosquée Basket à 4 bandes trouées on puait des pieds C'est comme ça que j'ai appris ma première sourate J'm'en rappelle comme hier c'était avec mon petit frère Morad Enfant de Marseille insouciant j'ai peur de rien Malgré les roustes à 8 ans j'allais au stade Vélodrome comme un grand La vie est rude dans les rues de ma ville Hamdoullah tant que t'as les tiens, écoute le récit de ma vie You might also like C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas J'débarque à la Savine en 1990 L'année où ma mère a accouché du petit dernier L'équipe est au complet j'ai 4 frères et 4 surs 2 grand frères, 2 grandes surs, 2 petits frères et 2 petites surs Au milieu de tout ce beau monde légèrement privilégié J'étais ni l'aîné ni le dernier Jtrainais avec Marco le Bagdad Ce genre de pirate qui revenait au quartier avec un poney ou un kart Du collège Valepin au lycée nord des Aminettes Les liens se tissent dès qu'on s'attache avec ivresse Perturbateur au fond du cours élève agité Mais bon toujours premier surtout quand il fallait casser les couilles Famille nombreuse où le grand frère était un exemple Juste et ferme, droit et dur, humble et fier Qualités héritées de mes parents émigrés J'les en remercie pour toutes les choses dont ils se sont privés Au fait j'allais zapper mes origines Algérien chaoui de hrenchla c'est pour ça que j'ai la tête dure d'origine C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Depuis petit j'suis un rêveur, j'observe et je ne parle pas trop Je passe mon temps à délirer, quand j'm'ennuie, je réfléchis trop C'est là que ça se gâte tu te poses pleins de questions existentielles D'autant plus que la puberté s'en mêle À l'école ils disent que j'ai des facilités Mais que j'suis pas sérieux que j'finirai par me gâcher Grâce au foot j'ai eu des potes un peu partout à Mars L'époque des tournois de foot qui réunissait les quartiers en masse Salam à la Gavotte, Malik au plan dAou J'rêve d'avoir une carrière comme l'enfant prodige dla Castellane Mais bon on nest pas nés sous la même étoile Donc j'fais mon chemin et des petits textes apparaissent dans mes toiles À La Savine j'kiffais le rap mais rien de sérieux La morvelle dans le nez j'prends le micro avec les plus vieux J'étais le seul arabe avec mes frères comoriens Abdou Karim Zé Marteau et d'autres lâchent rien Le déclic en 9-6 avec le 4-5 J'fais ma première rencontre avec Alonzo de Psy4 9-8 j'prends mon micro et mon glaive La rage au micro t'inquiète frère ça sentait la relève C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Entre le foot et l'école, le rap, la déconne Les mignonnes, les défilés de mode à Saint-Ferréol Les survêts Lacoste, la sape et la tchatche Les je danse le mia quon faisait péter dans le poste Yeah c'est ça ma vie, l'Algérino Marseille du parc à la Savine Dédicacé à toute ma famille Dédicacé à tous mes amis Ceux qui m'ont vu grandir Ceux qui m'ont côtoyé à l'époque Au parc, au centre-ville, à Valepin, au lycée nord tous les frères de la Savine Ceux qui me font des rappels quand j'pars un peu en bip Bilal, Sofiane, tous les frères de la Villette Tous les frères de La Savine Tous les mecs avec qui j'ai rappé à l'ancienne Le soutien que m'apporte mon cousin Ibrahim Et la confiance que me font Nabil et Karim L'algérino, le ptit smire la famille, Marseille ma ville</t>
+          <t>C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas J'ai pleuré un beau jour, 9 heures du mat', 2 mai 81 Après mon frère, ma mère ne pouvait plus enfanter Grâce à Dieu j'atterris sur terre, mon premier cri poussé Mes premières larmes versées à la maternité d'la Belle de Mai Issu d'une famille des plus modestes À la rue Parmentier on était sept à vivre dans une pièce Mon père travaillait 15 heures par jour et jle voyais que le soir Le regard marqué par le ciment et la routine bref Après qautre ans passés dans ce taudis Forcé de déménager vu que la famille s'est agrandie 143 rue Félix Piat mon premier meilleur ami Nordine Nekka t'inquiète frère jamais je t'oublie T'étais le premier mec avec qui je volais Après la classe te casse, on dévalisait Intermarché Tablette de chocolat Crunch, blanco et marqueur La fine équipe de parc petit débrouillard et tagueurs, bagarreur Après le foot c'était la mosquée Basket à 4 bandes trouées on puait des pieds C'est comme ça que j'ai appris ma première sourate J'm'en rappelle comme hier c'était avec mon petit frère Morad Enfant de Marseille insouciant j'ai peur de rien Malgré les roustes à 8 ans j'allais au stade Vélodrome comme un grand La vie est rude dans les rues de ma ville Hamdoullah tant que t'as les tiens, écoute le récit de ma vie C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas J'débarque à la Savine en 1990 L'année où ma mère a accouché du petit dernier L'équipe est au complet j'ai 4 frères et 4 surs 2 grand frères, 2 grandes surs, 2 petits frères et 2 petites surs Au milieu de tout ce beau monde légèrement privilégié J'étais ni l'aîné ni le dernier Jtrainais avec Marco le Bagdad Ce genre de pirate qui revenait au quartier avec un poney ou un kart Du collège Valepin au lycée nord des Aminettes Les liens se tissent dès qu'on s'attache avec ivresse Perturbateur au fond du cours élève agité Mais bon toujours premier surtout quand il fallait casser les couilles Famille nombreuse où le grand frère était un exemple Juste et ferme, droit et dur, humble et fier Qualités héritées de mes parents émigrés J'les en remercie pour toutes les choses dont ils se sont privés Au fait j'allais zapper mes origines Algérien chaoui de hrenchla c'est pour ça que j'ai la tête dure d'origine C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Depuis petit j'suis un rêveur, j'observe et je ne parle pas trop Je passe mon temps à délirer, quand j'm'ennuie, je réfléchis trop C'est là que ça se gâte tu te poses pleins de questions existentielles D'autant plus que la puberté s'en mêle À l'école ils disent que j'ai des facilités Mais que j'suis pas sérieux que j'finirai par me gâcher Grâce au foot j'ai eu des potes un peu partout à Mars L'époque des tournois de foot qui réunissait les quartiers en masse Salam à la Gavotte, Malik au plan dAou J'rêve d'avoir une carrière comme l'enfant prodige dla Castellane Mais bon on nest pas nés sous la même étoile Donc j'fais mon chemin et des petits textes apparaissent dans mes toiles À La Savine j'kiffais le rap mais rien de sérieux La morvelle dans le nez j'prends le micro avec les plus vieux J'étais le seul arabe avec mes frères comoriens Abdou Karim Zé Marteau et d'autres lâchent rien Le déclic en 9-6 avec le 4-5 J'fais ma première rencontre avec Alonzo de Psy4 9-8 j'prends mon micro et mon glaive La rage au micro t'inquiète frère ça sentait la relève C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Entre le foot et l'école, le rap, la déconne Les mignonnes, les défilés de mode à Saint-Ferréol Les survêts Lacoste, la sape et la tchatche Les je danse le mia quon faisait péter dans le poste Yeah c'est ça ma vie, l'Algérino Marseille du parc à la Savine Dédicacé à toute ma famille Dédicacé à tous mes amis Ceux qui m'ont vu grandir Ceux qui m'ont côtoyé à l'époque Au parc, au centre-ville, à Valepin, au lycée nord tous les frères de la Savine Ceux qui me font des rappels quand j'pars un peu en bip Bilal, Sofiane, tous les frères de la Villette Tous les frères de La Savine Tous les mecs avec qui j'ai rappé à l'ancienne Le soutien que m'apporte mon cousin Ibrahim Et la confiance que me font Nabil et Karim L'algérino, le ptit smire la famille, Marseille ma ville</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ok !! adressez à tous ceux qui ont l'envie de vaincre !! L'algérino !! Marseille !! Pour tous les quartiers de France ! Soit t'as la rage soit tu l'as pas, tu as reconnu la voix Celle qui fait trembler les baffes, une spéciale pour les mecs qui en bavent Lèves ton bras en l'air, c'est le chant de la révolte En attendant la récolte, fais cracher le Pioneer Les mains sales comme Luciano Dédicaces à ceux qui m'ont donné l'envie de prendre le micro La vie ça tient à rien, j'aurais pu flancher Plier pour des billets, mais j'ai préféré crier Tu entends pas ?? C'est la rue qui parle Du vécu dans les boomers, fais péter les watts J'passe la 5ème, le regard saillant Pas besoin de tes larmes, j'suis un vaillant C'est la jeunesse de France qui parle, ouais!! En direct live de la merde, horizon de béton HLM au bord de la mer nique sa mère x4 L'envie de vaincre ah! ah! ah! ah! ah J'suis dans la caisse avec mes potes, on refait le monde Crame une sèche pour le fun, rêve de croquer le monde J'ai la grinta, petite caille sous les projecteurs Lis dans mes yeux, y'a la rage pour tous mes frères et surs Ignorés par l'état, on se permet de briller Vu que 12 mois sur 12 le moral est dans un sale état Laisse parler ta rage ouais!!! J'en place une pour les frères enfermés en cage Cicatrices dans le cur, stigmates sur le corps On défoncera les portes, le caisson dans le coffre La voix de ceux qui soufrent, la voix de ceux qui morflent La voix de ceux qui portent leur poids sur leurs épaules La voix de ceux qu'en bavent, ça c'est le chant des braves La voix de ces darons qui prient dans leur cave La voix de toutes ces mères, soucieuses pour leurs gosses La voix de tous ces gosse qui ont l'envie de vaincre You might also like x4 L'envie de vaincre ah! ah! ah! ah! ah Cette flamme que j'ai dans les yeux, personne ne pourra l'éteindre Humble blessure de moi, y'a que Dieu qui peut m'atteindre J'ai la foi, je m'acroche à elle quand j'ai mal Prie le divin chaque jour de m'écarter du mal Tous faibles devant des liasses et des grosses caisses De l'or, des strass, des paillettes et des gros seins Chaque jour est un combat contre moi même Que je mène ma révolution dans les enceintes. Pouah! Classique, c'est ma zik, c'est magique, c'est ma vie C'est ta vie !! J'ai chargé l'automatique, t'as cerné la thématique C'est dur à trouver le son, cesse de rester statique La pratique est la même, 1 pour ma team Fais péter le son frère, 2 pour la frime 3 pour les traitres et les gens qui m'estiment. L'ALGERINO x4 L'envie de vaincre ah! ah! ah! ah! ah Okayy !! Dédié à ceux qui ont la grinta le moins, le monde Adresser à tous ceux qui ont l'envie de vaincre Pour tous les quartiers de France !!! L'a dit Jack Sparrow !! Nord, Sud, Est, Ouest !! L'ALGERINO!!</t>
+          <t>Ok !! adressez à tous ceux qui ont l'envie de vaincre !! L'algérino !! Marseille !! Pour tous les quartiers de France ! Soit t'as la rage soit tu l'as pas, tu as reconnu la voix Celle qui fait trembler les baffes, une spéciale pour les mecs qui en bavent Lèves ton bras en l'air, c'est le chant de la révolte En attendant la récolte, fais cracher le Pioneer Les mains sales comme Luciano Dédicaces à ceux qui m'ont donné l'envie de prendre le micro La vie ça tient à rien, j'aurais pu flancher Plier pour des billets, mais j'ai préféré crier Tu entends pas ?? C'est la rue qui parle Du vécu dans les boomers, fais péter les watts J'passe la 5ème, le regard saillant Pas besoin de tes larmes, j'suis un vaillant C'est la jeunesse de France qui parle, ouais!! En direct live de la merde, horizon de béton HLM au bord de la mer nique sa mère x4 L'envie de vaincre ah! ah! ah! ah! ah J'suis dans la caisse avec mes potes, on refait le monde Crame une sèche pour le fun, rêve de croquer le monde J'ai la grinta, petite caille sous les projecteurs Lis dans mes yeux, y'a la rage pour tous mes frères et surs Ignorés par l'état, on se permet de briller Vu que 12 mois sur 12 le moral est dans un sale état Laisse parler ta rage ouais!!! J'en place une pour les frères enfermés en cage Cicatrices dans le cur, stigmates sur le corps On défoncera les portes, le caisson dans le coffre La voix de ceux qui soufrent, la voix de ceux qui morflent La voix de ceux qui portent leur poids sur leurs épaules La voix de ceux qu'en bavent, ça c'est le chant des braves La voix de ces darons qui prient dans leur cave La voix de toutes ces mères, soucieuses pour leurs gosses La voix de tous ces gosse qui ont l'envie de vaincre x4 L'envie de vaincre ah! ah! ah! ah! ah Cette flamme que j'ai dans les yeux, personne ne pourra l'éteindre Humble blessure de moi, y'a que Dieu qui peut m'atteindre J'ai la foi, je m'acroche à elle quand j'ai mal Prie le divin chaque jour de m'écarter du mal Tous faibles devant des liasses et des grosses caisses De l'or, des strass, des paillettes et des gros seins Chaque jour est un combat contre moi même Que je mène ma révolution dans les enceintes. Pouah! Classique, c'est ma zik, c'est magique, c'est ma vie C'est ta vie !! J'ai chargé l'automatique, t'as cerné la thématique C'est dur à trouver le son, cesse de rester statique La pratique est la même, 1 pour ma team Fais péter le son frère, 2 pour la frime 3 pour les traitres et les gens qui m'estiment. L'ALGERINO x4 L'envie de vaincre ah! ah! ah! ah! ah Okayy !! Dédié à ceux qui ont la grinta le moins, le monde Adresser à tous ceux qui ont l'envie de vaincre Pour tous les quartiers de France !!! L'a dit Jack Sparrow !! Nord, Sud, Est, Ouest !! L'ALGERINO!!</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Je m'appelle Abdel Krim, j'habite à Alger, là-bas la blanche s'assombrit Et tout a son prix, exorbitant tous les jours je prie Dieu de me changer de cette vie routinière où tu restes ignare Chaque jour est un poignard en plein cagnard Illusion solaire sur la caseba, wallah sur la homa Mais je sens rien kho je suis comme dans un coma, trop mal Le chômage et les promesses de ces présidents Qui ne restent que quelques temps, juste pour ces belles résidences Yema je t'aime, je veux faire de toi une poupée Barbie Marre de tenir ses potos à des heures tardives La zone pétrolière attaque, brasse des millions Pendant que le peuple reçoit des coûts de matraque par milliers C'est la loi du taillon, j'suis diplômé, bac 6 Mais ici y a qu'des débouchés dans l'armée, ou dans la police L'Algérie c'est un pays d'avenir, mais vois ce qu'a fait de nous l'armée Un peuple islamique armée né pour mourir précocement Méhlich tous doucement, je vais faire de toi une princesse Que dieu exauce mon voeux, je connais un pays qui s'appelle la France Il paraît qu'il respecte les droits de l'homme J'pars pour t'élever sur un trône Yema, je vais faire de toi une princesse Je vais faire de toi une femme étincelante et pince moi si je rêve trop Yema, je pars, je laisse mon cur, mon corps part Mais ma conscience demeure, j'ai espoir pour demain Yema, embrasse mes frères et mes surs de ma part Dis leurs que je pars mais que je reviendrai riche Et que je les sortirai de cette friche Embrasse papa, merci pour la bonté que je sens en toi Pardon pour les soucis que je sème en toi You might also like Je prends mes jambes à mon cou J'embarque clandestinement dans un cargo Je me sens libre comme un pays qui sort d'un embargo Les larmes ruissèlent le long de mes paupières Pour aller s'écraser sur le sol poussiéreux A mesure que je quitte mes terres J'ai quelques fringues et les cigarettes que m'a passé ami hacli En attendant un miracle éclot j'en allume une Éclate mes souvenirs en cette pleine lune Ma mère hante mes pensées, la mer chante mes pensées Tant de souvenirs à relater, bons et mauvais Mais garde le sourire même avec cette mauvaise mine en ce mois de Mai Je me vois à Marseille faire mes affaires, satisfaire ma famille Fort de mon vécu, je ferai l'effort de faire des écus Je me réfugie dans un bateau de sauvetage Et j'entends qu'un passager clandestin est mort de froid dans une cale Des frissons dans le dos, mais le courage j'ai J'ai ... Dit à ma mère que j'avais des projets J'observe le soleil se lever, j'ai quitté le pays du soleil couchant Je me retrouve dans ce pays représentant l'occident C'est donc ça ? Le pays où y'a du boulot Le pays où rare sont les gens au bout du rouleau On débarque sur les ports de la Joliette Atmosphère musicale, chant des vagues et chant des mouettes Je souhaite faire ma vie ici a dire Ici la vie était d'or, c'est ce que j'ai entendu dire dehors C'est vrai le soleil est radieux Hamdoulilah je débarque saint et sauf et ce grâce à dieu J'évite les douaniers et la police, m'introduit dans la ville phocéenne Une envie de croquer monte soudaine Mais quelque chose m'intrigue, on me regarde bizarrement Quand je parle on se moque de mon accent Et c'est quelque part un peu vexant J'aperçois un de mes semblables en sanglot J'ai compris que la vie en France était loin de ce que j'imaginais la haut</t>
+          <t>Je m'appelle Abdel Krim, j'habite à Alger, là-bas la blanche s'assombrit Et tout a son prix, exorbitant tous les jours je prie Dieu de me changer de cette vie routinière où tu restes ignare Chaque jour est un poignard en plein cagnard Illusion solaire sur la caseba, wallah sur la homa Mais je sens rien kho je suis comme dans un coma, trop mal Le chômage et les promesses de ces présidents Qui ne restent que quelques temps, juste pour ces belles résidences Yema je t'aime, je veux faire de toi une poupée Barbie Marre de tenir ses potos à des heures tardives La zone pétrolière attaque, brasse des millions Pendant que le peuple reçoit des coûts de matraque par milliers C'est la loi du taillon, j'suis diplômé, bac 6 Mais ici y a qu'des débouchés dans l'armée, ou dans la police L'Algérie c'est un pays d'avenir, mais vois ce qu'a fait de nous l'armée Un peuple islamique armée né pour mourir précocement Méhlich tous doucement, je vais faire de toi une princesse Que dieu exauce mon voeux, je connais un pays qui s'appelle la France Il paraît qu'il respecte les droits de l'homme J'pars pour t'élever sur un trône Yema, je vais faire de toi une princesse Je vais faire de toi une femme étincelante et pince moi si je rêve trop Yema, je pars, je laisse mon cur, mon corps part Mais ma conscience demeure, j'ai espoir pour demain Yema, embrasse mes frères et mes surs de ma part Dis leurs que je pars mais que je reviendrai riche Et que je les sortirai de cette friche Embrasse papa, merci pour la bonté que je sens en toi Pardon pour les soucis que je sème en toi Je prends mes jambes à mon cou J'embarque clandestinement dans un cargo Je me sens libre comme un pays qui sort d'un embargo Les larmes ruissèlent le long de mes paupières Pour aller s'écraser sur le sol poussiéreux A mesure que je quitte mes terres J'ai quelques fringues et les cigarettes que m'a passé ami hacli En attendant un miracle éclot j'en allume une Éclate mes souvenirs en cette pleine lune Ma mère hante mes pensées, la mer chante mes pensées Tant de souvenirs à relater, bons et mauvais Mais garde le sourire même avec cette mauvaise mine en ce mois de Mai Je me vois à Marseille faire mes affaires, satisfaire ma famille Fort de mon vécu, je ferai l'effort de faire des écus Je me réfugie dans un bateau de sauvetage Et j'entends qu'un passager clandestin est mort de froid dans une cale Des frissons dans le dos, mais le courage j'ai J'ai ... Dit à ma mère que j'avais des projets J'observe le soleil se lever, j'ai quitté le pays du soleil couchant Je me retrouve dans ce pays représentant l'occident C'est donc ça ? Le pays où y'a du boulot Le pays où rare sont les gens au bout du rouleau On débarque sur les ports de la Joliette Atmosphère musicale, chant des vagues et chant des mouettes Je souhaite faire ma vie ici a dire Ici la vie était d'or, c'est ce que j'ai entendu dire dehors C'est vrai le soleil est radieux Hamdoulilah je débarque saint et sauf et ce grâce à dieu J'évite les douaniers et la police, m'introduit dans la ville phocéenne Une envie de croquer monte soudaine Mais quelque chose m'intrigue, on me regarde bizarrement Quand je parle on se moque de mon accent Et c'est quelque part un peu vexant J'aperçois un de mes semblables en sanglot J'ai compris que la vie en France était loin de ce que j'imaginais la haut</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hola amigo Les Bronzés font du biff Y'en aura pour tout le monde Yalla Les bronzés font du biff x4 Je vais sur la côte De Miami Beach Ma jolie j'ai la côte Applaudis les nouveaux riches On est calé dans le club Calé dans la piste Tranquille Armés jusqu'aux dents Reste tranquille En France c'est la crise On investit dans les lingots Bientôt on s'barre au bled, hasta luego Blingo pawawawoo Lève ton sky Je fais danser la France Même sur du raï Je compte les billets méticuleusement Comme un byle-ka Danse de l'épaule à la Cyril Hannouna Il va pleuvoir des billets Tu vas te déshabiller L'argent fait le bonheur Et je danse le MIA You might also likeFrais On est rasé de près Will Kingston Les Bronzés font du biff Gitan, rital, moi j'ai la black Et toi la carte vitale On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 On a les connections mieux que chez Alice Bronzé connection nous on fait des khalis On fait le casse du siècle Comme Spagiarri à Nice Je veux la mairie de Marseille Comme Samia Ghali La sape vient d'Italie C'est le hella décalé On est plein de manies J'aime bien quand j'suis calé La tchatch à la Mani Pour bien t'emboucaner Sapé Armani Rigatte Pene Okéééééé On pèse et on est là On est plein de billets Pas de tombola Des pièces en chocolat Tu pues le brocolis Y'a tous mes potos là J'attends un gros colis Prêt pour le décollage A bord d'un gros bolide J'achète tout ta ville Comme au Monopoly Nous on monopolise le game C'est la folie C'est le gang des Bronzés C'est pas Allô Police On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Bes3</t>
+          <t>Hola amigo Les Bronzés font du biff Y'en aura pour tout le monde Yalla Les bronzés font du biff x4 Je vais sur la côte De Miami Beach Ma jolie j'ai la côte Applaudis les nouveaux riches On est calé dans le club Calé dans la piste Tranquille Armés jusqu'aux dents Reste tranquille En France c'est la crise On investit dans les lingots Bientôt on s'barre au bled, hasta luego Blingo pawawawoo Lève ton sky Je fais danser la France Même sur du raï Je compte les billets méticuleusement Comme un byle-ka Danse de l'épaule à la Cyril Hannouna Il va pleuvoir des billets Tu vas te déshabiller L'argent fait le bonheur Et je danse le MIA Frais On est rasé de près Will Kingston Les Bronzés font du biff Gitan, rital, moi j'ai la black Et toi la carte vitale On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 On a les connections mieux que chez Alice Bronzé connection nous on fait des khalis On fait le casse du siècle Comme Spagiarri à Nice Je veux la mairie de Marseille Comme Samia Ghali La sape vient d'Italie C'est le hella décalé On est plein de manies J'aime bien quand j'suis calé La tchatch à la Mani Pour bien t'emboucaner Sapé Armani Rigatte Pene Okéééééé On pèse et on est là On est plein de billets Pas de tombola Des pièces en chocolat Tu pues le brocolis Y'a tous mes potos là J'attends un gros colis Prêt pour le décollage A bord d'un gros bolide J'achète tout ta ville Comme au Monopoly Nous on monopolise le game C'est la folie C'est le gang des Bronzés C'est pas Allô Police On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Bes3</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yeah Des fois on s'perd dans l'obscurité, et on recherche la lumière Une brèche, une voie, un chemin entre le ciel et la terre Dans c'monde de sourds et de muets, on écoute les étoiles chanter L'Algé, Tal J'ai voulu dormir, et j'ai fermé les yeux yeah Sans même voir que le ciel était bleu Je me suis réveillée sous un nouveau soleil Et depuis ce jour-là, rien n'est pareil Lumières des projecteurs qui réchauffent mon cur Tout au fond de moi je n'ai plus jamais peur J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah Je crois en mon destin, tout est écrit même la fin J'ai des rêves à réaliser, mon avenir entre mes mains D'mande à Tal, j'kiffe la life, j'pousse la chansonnette quand je fly J'ai des rêves à réaliser, et long sera le chemin Tal ! You might also like J'ai trouvé le sens de la raison qui m'entraîne yeah À chaque pas sur le devant de la scène a'ight J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah okay On sait où l'on va, on sait d'où l'on vient Fier de c'que j'suis, j'ai d'l'amour pour les miens Peu importe d'où tu viens, j'me sens bien J'suis à l'aise sur n'importe quel méridien Ils parlent de lover, j'ai besoin de love L'amour c'est de l'or, trop de larmes dehors Et des fois on se perd, on finit par terre La tête haute, ce qui ne tue pas rend plus fort Est-ce que tu m'as vu quand je me sentais perdu? Je errais dans la rue en rêvant de toucher la Lune Je cherchais ma voie, j'ai trouvé ma plume ai'ght! C'est pour ça que je chante, no! J'ai trouvé le sens de la raison qui m'entraîne ai'ght À chaque pas sur le devant de la scène mmh no J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime yeah! J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène Tal! J'ai trouvé le sens de la vie que je mène le sens de la vie que je mène Et je l'aime L'Algérino, Tal Une étoile est née mon ami, c'est correct Yeah, yeah, one love pour ceux qui se sentent seul La vie est dure, qu'est-c'tu veux ? Affronter tes peurs Une guitare, un piano, une voix qui s'élève, Tal ! Un nouveau jour se lève ! J'ai trouvé le sens de la raison qui m'entraîne yeah! À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime J'ai trouvé le sens de la raison qui m'entraîne yeah yeah yeah À chaque pas sur le devant de la scène le sens de la vie J'ai trouvé le sens de la vie que je mène Et je l'aime</t>
+          <t>Yeah Des fois on s'perd dans l'obscurité, et on recherche la lumière Une brèche, une voie, un chemin entre le ciel et la terre Dans c'monde de sourds et de muets, on écoute les étoiles chanter L'Algé, Tal J'ai voulu dormir, et j'ai fermé les yeux yeah Sans même voir que le ciel était bleu Je me suis réveillée sous un nouveau soleil Et depuis ce jour-là, rien n'est pareil Lumières des projecteurs qui réchauffent mon cur Tout au fond de moi je n'ai plus jamais peur J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah Je crois en mon destin, tout est écrit même la fin J'ai des rêves à réaliser, mon avenir entre mes mains D'mande à Tal, j'kiffe la life, j'pousse la chansonnette quand je fly J'ai des rêves à réaliser, et long sera le chemin Tal ! J'ai trouvé le sens de la raison qui m'entraîne yeah À chaque pas sur le devant de la scène a'ight J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah okay On sait où l'on va, on sait d'où l'on vient Fier de c'que j'suis, j'ai d'l'amour pour les miens Peu importe d'où tu viens, j'me sens bien J'suis à l'aise sur n'importe quel méridien Ils parlent de lover, j'ai besoin de love L'amour c'est de l'or, trop de larmes dehors Et des fois on se perd, on finit par terre La tête haute, ce qui ne tue pas rend plus fort Est-ce que tu m'as vu quand je me sentais perdu? Je errais dans la rue en rêvant de toucher la Lune Je cherchais ma voie, j'ai trouvé ma plume ai'ght! C'est pour ça que je chante, no! J'ai trouvé le sens de la raison qui m'entraîne ai'ght À chaque pas sur le devant de la scène mmh no J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime yeah! J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène Tal! J'ai trouvé le sens de la vie que je mène le sens de la vie que je mène Et je l'aime L'Algérino, Tal Une étoile est née mon ami, c'est correct Yeah, yeah, one love pour ceux qui se sentent seul La vie est dure, qu'est-c'tu veux ? Affronter tes peurs Une guitare, un piano, une voix qui s'élève, Tal ! Un nouveau jour se lève ! J'ai trouvé le sens de la raison qui m'entraîne yeah! À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime J'ai trouvé le sens de la raison qui m'entraîne yeah yeah yeah À chaque pas sur le devant de la scène le sens de la vie J'ai trouvé le sens de la vie que je mène Et je l'aime</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nassey on da Track J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants On connait la rue, on sait d'où l'on vient Tu vas tout péter m'ont dit les anciens Réussir ou pas, ça tient à rien On voulait juste mettre la mama bien Dans les rues de Marseille comme un galérien La prof m'a dit que je valais rien Mental forgé, acier valyrien On lâche rien, valeureux galérien, j'suis un algérien Hola chica, comment ça va ? Me dis pas Como te llamas ? T'y es à moi jusqu'à mañana Les clés de mon cur sont chez la mama On a réussi, ils ont échoué Des Baumettes à Fresnes, nous ont écroués Si Dieu nous aime, on s'ra éprouvé Si Dieu nous aime, on s'ra éprouvé You might also like J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Un lundi, faudra qu'on se réveille Faut qu'on prépare la vie d'après Qu'on réussisse tous c'qu'on essaye Qu'on réunisse la mif, la vraie Bannir à jamais tous ces moments S'éloigner plus loin de ces endroits Ré-écrire les fins de ces romans Faire mentir le mal que ces gens croient Un croc de talles, un verre de soif Combien de soirs j'ai tout perdu ? La rue t'avale, demain fait raf Matin, tout de regrets, vêtu Mon frère, c'est comment, oh, mon frère c'est comment ? Papa fait la guerre au monde, maman n'est pas là n'est pas là J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Là, c'est Paris là, c'est Paris sombre Marseille sombre Marseille Prince de ma ville prince de ma ville, j'suis dans le zbeul, ouais, ouais ouais, ouais, ouais</t>
+          <t>Nassey on da Track J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants On connait la rue, on sait d'où l'on vient Tu vas tout péter m'ont dit les anciens Réussir ou pas, ça tient à rien On voulait juste mettre la mama bien Dans les rues de Marseille comme un galérien La prof m'a dit que je valais rien Mental forgé, acier valyrien On lâche rien, valeureux galérien, j'suis un algérien Hola chica, comment ça va ? Me dis pas Como te llamas ? T'y es à moi jusqu'à mañana Les clés de mon cur sont chez la mama On a réussi, ils ont échoué Des Baumettes à Fresnes, nous ont écroués Si Dieu nous aime, on s'ra éprouvé Si Dieu nous aime, on s'ra éprouvé J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Un lundi, faudra qu'on se réveille Faut qu'on prépare la vie d'après Qu'on réussisse tous c'qu'on essaye Qu'on réunisse la mif, la vraie Bannir à jamais tous ces moments S'éloigner plus loin de ces endroits Ré-écrire les fins de ces romans Faire mentir le mal que ces gens croient Un croc de talles, un verre de soif Combien de soirs j'ai tout perdu ? La rue t'avale, demain fait raf Matin, tout de regrets, vêtu Mon frère, c'est comment, oh, mon frère c'est comment ? Papa fait la guerre au monde, maman n'est pas là n'est pas là J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Là, c'est Paris là, c'est Paris sombre Marseille sombre Marseille Prince de ma ville prince de ma ville, j'suis dans le zbeul, ouais, ouais ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Être dans l'ombre, combien de détenus on dénombre ? Moral plongé dans la pénombre Tuerie psychologique, destin de famille tragique Dans nos têtes ça cogite trop et les armes s'agitent On nous a découragé, on cherche à s'évader Moral fragilisé, radicalement islamisé Égaré, formation de kamikaze ou de braqueur De toutes façons, la société nous a méprisés Vie brisée, tisée dans les paillettes Rêve de péter une carte pour aller se saper à Lafayette Recherche de la malette, dans les quartiers la faillite Le sheitan nous appelle et combien de mes frères ont failli ? Gel sur la tête, carosse cabriolet Les petits dans les quartiers vont à l'école en voiture volée La morale n'est plus, le mot d'ordre chacun pour soi Pour peser au grand jour même les chacals se font sournois Noyés, la détresse nous a noyé Pour faire du fric même les ... sont déployés dans les foyers Y'a plus de respect que des mecs qui insultent leur mères Et dehors se font click click L'hypocrisie trahie par un sourire dans l'ascenseur Tu fais la bise à ton pote, tu rêves de baiser sa soeur Peu de mecs honorables, que des tafioles sans parole Sur ma vie que des tahanes qui papotent en chorale Succès soudain, paraît que je pèse Les petits de mon quartier draguent et sur mon compte ils baisent Mets toi à l'aise c'est Morro qui régale Des oids-d', des kilowatts à l'arrière de la Mégane Vendre un discours de haine C'est comme vendre de la cocaïne à un môme le regardant s'en mettre plein les veines Comprennent le sens de mon discours un seul combat Un seul homme l'Algérino y'a QUOI ? You might also like Bienvenue dans l'ombre, là où les hommes sont de vrais hommes Ne jactent jamais par derrière Être dans l'ombre, on cherche la lumière dans la foi On l'a pas trouvée dans la soie Bienvenue dans l'ombre, wesh la famille chez nous c'est la fierté On combat dans nos textes, on pleure pas Bienvenue dans l'ombre, j'affronte la vie question de fierté La vie ce n'est qu'une question de fierté Chez nous on pleure pas, on se lamente pas frère Vas-y envoie Et qu'on t'en donne, je rêve de faire des millions de dollars Mais je perds plus de temps à rêver qu'à en faire au final ...</t>
+          <t>Être dans l'ombre, combien de détenus on dénombre ? Moral plongé dans la pénombre Tuerie psychologique, destin de famille tragique Dans nos têtes ça cogite trop et les armes s'agitent On nous a découragé, on cherche à s'évader Moral fragilisé, radicalement islamisé Égaré, formation de kamikaze ou de braqueur De toutes façons, la société nous a méprisés Vie brisée, tisée dans les paillettes Rêve de péter une carte pour aller se saper à Lafayette Recherche de la malette, dans les quartiers la faillite Le sheitan nous appelle et combien de mes frères ont failli ? Gel sur la tête, carosse cabriolet Les petits dans les quartiers vont à l'école en voiture volée La morale n'est plus, le mot d'ordre chacun pour soi Pour peser au grand jour même les chacals se font sournois Noyés, la détresse nous a noyé Pour faire du fric même les ... sont déployés dans les foyers Y'a plus de respect que des mecs qui insultent leur mères Et dehors se font click click L'hypocrisie trahie par un sourire dans l'ascenseur Tu fais la bise à ton pote, tu rêves de baiser sa soeur Peu de mecs honorables, que des tafioles sans parole Sur ma vie que des tahanes qui papotent en chorale Succès soudain, paraît que je pèse Les petits de mon quartier draguent et sur mon compte ils baisent Mets toi à l'aise c'est Morro qui régale Des oids-d', des kilowatts à l'arrière de la Mégane Vendre un discours de haine C'est comme vendre de la cocaïne à un môme le regardant s'en mettre plein les veines Comprennent le sens de mon discours un seul combat Un seul homme l'Algérino y'a QUOI ? Bienvenue dans l'ombre, là où les hommes sont de vrais hommes Ne jactent jamais par derrière Être dans l'ombre, on cherche la lumière dans la foi On l'a pas trouvée dans la soie Bienvenue dans l'ombre, wesh la famille chez nous c'est la fierté On combat dans nos textes, on pleure pas Bienvenue dans l'ombre, j'affronte la vie question de fierté La vie ce n'est qu'une question de fierté Chez nous on pleure pas, on se lamente pas frère Vas-y envoie Et qu'on t'en donne, je rêve de faire des millions de dollars Mais je perds plus de temps à rêver qu'à en faire au final ...</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bring me to lifeYou might also like</t>
+          <t>Bring me to life</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Yeah Yeah On sait pas où la vie nous mène Dans mon royaume, j'ai mille problèmes On a fait tout ça par nous-mêmes J'veux partir, j'veux m'nachave, t'façon, on n'est qu'de passage J'enroule tous mes problèmes, mes joies, mes peines dans la massa Elles veulent la kichta, michtonnent pour un sac Chanel sac Chanel Elles veulent t'charmer, t'envoûter d'un plaisir charnel plaisir charnel Je m'suis perdu dans les rues sombres ds quartiers Nord quartiers Nord Tout va trop vite, ls regrets viennent après les torts après les torts J'ai appris qu'c'était la vie, qu'le monde est gore monde est gore J'veux prendre la mif, l'éloigner d'ce putain d'décor putain d'décor On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord You might also like On sait pas où la vie nous mène on sait pas où la vie nous mène On a fait tout ça par nous-mêmes on a fait tout ça par nous-mêmes Avant, on m'regardait bizarre quand j'étais à terre Maintenant, j'paye des impôts d'bâtard sur la vie d'ma mère J'suis dans l'M4 avec Ismet j'fais crier l'moteur dans l'tunnel J'me vois retraité en fumette j'me vois retraité en fumette Ça parle d'argent, de grosses kichtas toujours dans les affaires Mais on n'emporte rien plus tard On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord</t>
+          <t>Yeah Yeah On sait pas où la vie nous mène Dans mon royaume, j'ai mille problèmes On a fait tout ça par nous-mêmes J'veux partir, j'veux m'nachave, t'façon, on n'est qu'de passage J'enroule tous mes problèmes, mes joies, mes peines dans la massa Elles veulent la kichta, michtonnent pour un sac Chanel sac Chanel Elles veulent t'charmer, t'envoûter d'un plaisir charnel plaisir charnel Je m'suis perdu dans les rues sombres ds quartiers Nord quartiers Nord Tout va trop vite, ls regrets viennent après les torts après les torts J'ai appris qu'c'était la vie, qu'le monde est gore monde est gore J'veux prendre la mif, l'éloigner d'ce putain d'décor putain d'décor On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord On sait pas où la vie nous mène on sait pas où la vie nous mène On a fait tout ça par nous-mêmes on a fait tout ça par nous-mêmes Avant, on m'regardait bizarre quand j'étais à terre Maintenant, j'paye des impôts d'bâtard sur la vie d'ma mère J'suis dans l'M4 avec Ismet j'fais crier l'moteur dans l'tunnel J'me vois retraité en fumette j'me vois retraité en fumette Ça parle d'argent, de grosses kichtas toujours dans les affaires Mais on n'emporte rien plus tard On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Quand je vois mon fils et dire que je ne croyais plus en la vie Destin en dent de scie, je reviens de loin si tu savais je chante mes douleurs en DO-RÉ-MI-FA-SOL-LA-SI Petit j'étais futé, flaire affuté, sirène de police et je courrais comme un furet Pas grandis dans l'opulence, pas grandis dans la soie Entre l'Algérie et la France ? demande pas de faire un choix Citoyen du monde je me sens chez moi partout à l'aise dans mes baskets je traine mon faciès partout Je rêvais pas d'être célèbre,je rêvais pas d'être une star Même les étoiles s'éteignent pour devenir des trous noirs Ils ne connaissent rien de moi, ils ne voient que le décor Avant je signé des autographes sans avoir de quoi m'acheter des clops Dieu merci on se plaint pas, on avance avec ce que l'on a, je fais du rap ma mère aurait préférée que je sois avocat Même aujourd'hui elle me le dit Wouldi arrête tes conneries mais quand elle me voit à la télé je sais qu'elle sourit Rien ne sert de courir j'étais la pomme pourris, aujourd'hui je chante la misère avec un putin de sourire Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentu quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé Couplet 2 Parcours aléatoire, leur temple est solaire, je ne suis pas superstitieux car mon calendrier est lunaire Destin pré-écrit depuis la nuit des temps, je ne crois plus en l'Homme, je courbe l'échine que devant le tout puissant Mais l'être humain est ingrat et j'ai des mauvaises passes Le cur encrassé, fragile devant paillettes et strasses Des contradictions dans mon cerveau, des faiblesses, ce verre alcoolisé et cette prière que je délaisse Entre deux flammes je plane et me laisse aller en espérant que le jour du jugement l'addition ne soit pas salé Je les laisses parler, qui sont-ils pour me juger ? quand j'étais au fond du gouffre, personne pour me relever Quand j'aime je fais pas semblant, trop souvent trahis, ça siffle dans mes oreilles amis quand tu me salis De toute façon je trace ma route et je suis ma trajectoire, éternel solitaire depuis le réfectoire L'autoroute de la vie, petit bateau navigue, je repense aux proches partis trop tôt, c'est mon cur qui chavire Paix à leurs âmes, la vie suit son cours, on a séchés nos larmes et ils seront dans nos curs pour toujours You might also likeRefrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentus quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé</t>
+          <t>Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Quand je vois mon fils et dire que je ne croyais plus en la vie Destin en dent de scie, je reviens de loin si tu savais je chante mes douleurs en DO-RÉ-MI-FA-SOL-LA-SI Petit j'étais futé, flaire affuté, sirène de police et je courrais comme un furet Pas grandis dans l'opulence, pas grandis dans la soie Entre l'Algérie et la France ? demande pas de faire un choix Citoyen du monde je me sens chez moi partout à l'aise dans mes baskets je traine mon faciès partout Je rêvais pas d'être célèbre,je rêvais pas d'être une star Même les étoiles s'éteignent pour devenir des trous noirs Ils ne connaissent rien de moi, ils ne voient que le décor Avant je signé des autographes sans avoir de quoi m'acheter des clops Dieu merci on se plaint pas, on avance avec ce que l'on a, je fais du rap ma mère aurait préférée que je sois avocat Même aujourd'hui elle me le dit Wouldi arrête tes conneries mais quand elle me voit à la télé je sais qu'elle sourit Rien ne sert de courir j'étais la pomme pourris, aujourd'hui je chante la misère avec un putin de sourire Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentu quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé Couplet 2 Parcours aléatoire, leur temple est solaire, je ne suis pas superstitieux car mon calendrier est lunaire Destin pré-écrit depuis la nuit des temps, je ne crois plus en l'Homme, je courbe l'échine que devant le tout puissant Mais l'être humain est ingrat et j'ai des mauvaises passes Le cur encrassé, fragile devant paillettes et strasses Des contradictions dans mon cerveau, des faiblesses, ce verre alcoolisé et cette prière que je délaisse Entre deux flammes je plane et me laisse aller en espérant que le jour du jugement l'addition ne soit pas salé Je les laisses parler, qui sont-ils pour me juger ? quand j'étais au fond du gouffre, personne pour me relever Quand j'aime je fais pas semblant, trop souvent trahis, ça siffle dans mes oreilles amis quand tu me salis De toute façon je trace ma route et je suis ma trajectoire, éternel solitaire depuis le réfectoire L'autoroute de la vie, petit bateau navigue, je repense aux proches partis trop tôt, c'est mon cur qui chavire Paix à leurs âmes, la vie suit son cours, on a séchés nos larmes et ils seront dans nos curs pour toujours Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentus quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino On est partis tle chercher en Roumanie celui-là Uno, do, tres XXX x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et toi tu vis la vie de star Les soirées champagne Nous on sait samuser, comme ça On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez XXX On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum XXXYou might also like</t>
+          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino On est partis tle chercher en Roumanie celui-là Uno, do, tres XXX x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et toi tu vis la vie de star Les soirées champagne Nous on sait samuser, comme ça On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez XXX On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum XXX</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Eeeh Hed lila ou ch'hèle zina Ok yeah l'Algerino Scalpovitch Hèd lil ou hèd lila Nassi African tonic sahbi C'est correct Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi N'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini Tunisie tunisie tunise J'ai rien à rien à faire les clés posées sur la table Consulte les sms font saturer mon portable Près devant la glace, lunettes prada heywa Ca sent la fraîcheur beau gosse hamdoullah ça va Fait tournait la disquette orientale et magique magique La vague est africaine et tonic tonic Faites d'la place y a d'la classe Ce soir y vont te faire rêver les chiens d'la casse Short claquette trait sur la plaque mec Liasse dans la sacoche ça accoste dla belette Vespa jet ski les flics on les esquive Oh arah ya le ford mondéo sur le rétro Y a les vieux qui jouent au rami a la place d'Aix Y a les charbonneures qui flambent au casino d'Aix dè dè d'Aix Y a les manouche kahlouche 3arbouche Qui garde la pêche malgré la dèdèdèdèdèch You might also like Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dhobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x2 Les gros kaïd en x 6 les girls en fiat 500 Ce soir c'est détendu on évitera les bains de sang Marseille la nuit cest Alger Miami Tony et mani Johnny Hama et la compagnie Ambiance chicha segniorita 3arbiya Wesh bicka tu c'est qu'on on fait danser le Mia On danse le Mia Oh cousine paraît que la vie est belle et le destin est dans les cartes Farhen j'ai gagné au poker Jles ai rasé chez Idir Ce soir c'est moi qui pose la bouteille Casse pas la tête Bachir Rien dans le compte bancaire Tout est dans la poche arrière Du violet, du jaune, du beige pas d'bleu Casse pas la tête on pese lourd Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x4</t>
+          <t>Eeeh Hed lila ou ch'hèle zina Ok yeah l'Algerino Scalpovitch Hèd lil ou hèd lila Nassi African tonic sahbi C'est correct Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi N'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini Tunisie tunisie tunise J'ai rien à rien à faire les clés posées sur la table Consulte les sms font saturer mon portable Près devant la glace, lunettes prada heywa Ca sent la fraîcheur beau gosse hamdoullah ça va Fait tournait la disquette orientale et magique magique La vague est africaine et tonic tonic Faites d'la place y a d'la classe Ce soir y vont te faire rêver les chiens d'la casse Short claquette trait sur la plaque mec Liasse dans la sacoche ça accoste dla belette Vespa jet ski les flics on les esquive Oh arah ya le ford mondéo sur le rétro Y a les vieux qui jouent au rami a la place d'Aix Y a les charbonneures qui flambent au casino d'Aix dè dè d'Aix Y a les manouche kahlouche 3arbouche Qui garde la pêche malgré la dèdèdèdèdèch Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dhobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x2 Les gros kaïd en x 6 les girls en fiat 500 Ce soir c'est détendu on évitera les bains de sang Marseille la nuit cest Alger Miami Tony et mani Johnny Hama et la compagnie Ambiance chicha segniorita 3arbiya Wesh bicka tu c'est qu'on on fait danser le Mia On danse le Mia Oh cousine paraît que la vie est belle et le destin est dans les cartes Farhen j'ai gagné au poker Jles ai rasé chez Idir Ce soir c'est moi qui pose la bouteille Casse pas la tête Bachir Rien dans le compte bancaire Tout est dans la poche arrière Du violet, du jaune, du beige pas d'bleu Casse pas la tête on pese lourd Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x4</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir Dur de trouver le sommeil, j'fais un tour en gamos On cherche de l'oseille, Cendrillon recherche son carrosse Mais même lui a fumé, même lui a tisé Siège auto rabaissée, rêve de gros billets Les condés font que pister, rôder, sirènes, gyrophares Go fast, furious, A7, plein phares Drogue, trafic, cannabis, coca Sex, alcool, schit, vida loca Dans les PMU ça tente des coups de poker, les RMIstes misent leur fortune sur un tocard Faillites, dépressions, insomnies répressions Vieilles, arrachages de sacs vols à l'agression Règlements de compte, petits-frères en cavale Turlutes en pagaille, petites surs qui avalent Narelsheytan, jeunesse égarée, ça deal, ça prie y a que Dieu qui peut juger Baumettes, Fresnes, Nanterre, la Santé, cauchemar le soir maison d'arrêt, maison hantée Vie d'incompris, de calvaire, pas à labri d'finir à Édouard Toulouse, Saint-Anne ou Valvert Tapin, Rabatau, cinquante euros la passe, pédophile relaxé, j'en chope un j'lui nique sa race Mademoiselle charmante recherche des footeux, se case avant la trentaine le passé plus que douteux Russes, roumaines, familles à nourrir, procureurs contre clients les proxos ont le sourire Tu peux toujours courir, les jeunes ont le muermo, karaté karaté pickpocket hasta luego Farine dans les narines comme Diego, breliqué de morts, ils font des sous ils s'en prennent à ton réseau Petits, bourgeois, quartiers sud, Bazar, quartiers nord ça craint, écarte-toi c'est Gaza Beauté fatale, quand j'te vois je cavale, j'suis riche et tu m'veux même si j'suis vilain comme Chabal Le fric ça rend beau, monte dans ma Lambo, sous coke avec une arme on s'sent invincible comme Rambo Séquestrations, rançons, dix kilos de beuh ladrénaline monte au péage de Lançon Les hajas pleurent leurs fils défunts, les petits frères s'entretuent, triste destin La souffrance de nos géniteurs, on verra c'que nous réserve notre progéniture Bosser pour son futur, parce que l'passé fût dur, s'armer de savoir et être fier de sa culture Sahab daroua, les barbus font le rappel mais à Marseille, il pleut du sang comme à Whitechapel C'est mon époque, mon-é, mon-é, mon-é, mon époque Mon époque c'est tout pour la monnaie ! You might also like Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir</t>
+          <t>Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir Dur de trouver le sommeil, j'fais un tour en gamos On cherche de l'oseille, Cendrillon recherche son carrosse Mais même lui a fumé, même lui a tisé Siège auto rabaissée, rêve de gros billets Les condés font que pister, rôder, sirènes, gyrophares Go fast, furious, A7, plein phares Drogue, trafic, cannabis, coca Sex, alcool, schit, vida loca Dans les PMU ça tente des coups de poker, les RMIstes misent leur fortune sur un tocard Faillites, dépressions, insomnies répressions Vieilles, arrachages de sacs vols à l'agression Règlements de compte, petits-frères en cavale Turlutes en pagaille, petites surs qui avalent Narelsheytan, jeunesse égarée, ça deal, ça prie y a que Dieu qui peut juger Baumettes, Fresnes, Nanterre, la Santé, cauchemar le soir maison d'arrêt, maison hantée Vie d'incompris, de calvaire, pas à labri d'finir à Édouard Toulouse, Saint-Anne ou Valvert Tapin, Rabatau, cinquante euros la passe, pédophile relaxé, j'en chope un j'lui nique sa race Mademoiselle charmante recherche des footeux, se case avant la trentaine le passé plus que douteux Russes, roumaines, familles à nourrir, procureurs contre clients les proxos ont le sourire Tu peux toujours courir, les jeunes ont le muermo, karaté karaté pickpocket hasta luego Farine dans les narines comme Diego, breliqué de morts, ils font des sous ils s'en prennent à ton réseau Petits, bourgeois, quartiers sud, Bazar, quartiers nord ça craint, écarte-toi c'est Gaza Beauté fatale, quand j'te vois je cavale, j'suis riche et tu m'veux même si j'suis vilain comme Chabal Le fric ça rend beau, monte dans ma Lambo, sous coke avec une arme on s'sent invincible comme Rambo Séquestrations, rançons, dix kilos de beuh ladrénaline monte au péage de Lançon Les hajas pleurent leurs fils défunts, les petits frères s'entretuent, triste destin La souffrance de nos géniteurs, on verra c'que nous réserve notre progéniture Bosser pour son futur, parce que l'passé fût dur, s'armer de savoir et être fier de sa culture Sahab daroua, les barbus font le rappel mais à Marseille, il pleut du sang comme à Whitechapel C'est mon époque, mon-é, mon-é, mon-é, mon époque Mon époque c'est tout pour la monnaie ! Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×4 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser You might also likeD'après les circonstances étant donner Que tu ma toujours fait galerer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×41</t>
+          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×4 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser D'après les circonstances étant donner Que tu ma toujours fait galerer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×41</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ils connaissent pas mon histoire, ils connaissent rien de ma vie J'ai d'mandé à mon miroir, il m'a dit J'm'en fous de ta vie Grandi l'bendo, mon pote, ouais, j'en ai perdu des potes Y a personne pour t'prévenir quand la faucheuse frappe à ta porte Allô, frérot ? Tu m'as lâché, allô, frérot ? La roue tourne, tu réapparais Le succès, rien à foutre, moi j'l'ai jamais cherché Ils n'voient que les bons côtés, j'reviens de loin, j'vais t'raconter Mama nous a tout donné, papa nous a tout donné Ouais, ouais, j'dois rien à personne, y a qu'la madre à couronner Le prof m'a sous-estimé, j'ai changé ma destinée Le daron m'a inspiré, il savait même pas s'exprimer Sparrow, fais-en un, on va tout leur expliquer Avant, on avait pas un, maintenant, on va tout niquer Khouya, on revient d'loin, on l'dira jamais assez On avait pas d'quoi fumer mais on n'a jamais lâché On a toujours dit les choses, on a toujours assumé Tu m'as trahi, j't'ai pardonné mais j'ai pas oublié J'ai regardé mon destin, dans les yeux, j'l'ai menacé On est passé par la f'nêtre, les portes étaient cadenassées Les portes étaient cadenassées, la juge veut pas me lâcher Vas-y, enlève tes lacets, ton poto t'a balancé Dur de faire confiance à l'homme, à lui, à elle, à eux, à l'autre Le monde part en couille, le monde est jnouné mais à qui la faute ? Argent sale, ça fait pas d'nous des bonhommes Remplir l'frigo d'la daronne, c'est mieux que d'poser des Magnum Mon bello, tu veux ma bombe latine, elle te dit Mi amor mais tu es sa pompe à fric On fait or, platine, j'trouve ça fantastique, frangin, on vient tout prendre comme la Françafrique 'çafrique Argent haram, drop-top, la jeunesse égarée, tant qu'la BAC fait toc-toc , plus moyen d'se barrer T'as plus d'sous de côté, qui paiera l'avocat ? Khouya, c'est la hechma quand la haja vient au parloir La vie est dure mais on n'a rien lâché, pourvu qu'ça dure, fais douaa, faut pas rager Tu es dans la dure, frérot qu'est-ce qui s'est passé ? Les larmes aux yeux quand je repense au passé Enfoiré, tu veux ma peau, enfoiré, tu peux ma place Enfoiré, tu veux ma go, enfoiré, tu veux ma liasse Enfoiré, j'suis dans le monstre, enfoiré, tu l'as rayé Enfoiré, tu veux ma vie, mes sous mais t'auras pas ma classe Enfoiré, j'suis dans le bloc, enfoiré, j'suis dans le tieks Enfoiré, j'suis sur les ondes, enfoiré enfoiré, enfoiréYou might also like</t>
+          <t>Ils connaissent pas mon histoire, ils connaissent rien de ma vie J'ai d'mandé à mon miroir, il m'a dit J'm'en fous de ta vie Grandi l'bendo, mon pote, ouais, j'en ai perdu des potes Y a personne pour t'prévenir quand la faucheuse frappe à ta porte Allô, frérot ? Tu m'as lâché, allô, frérot ? La roue tourne, tu réapparais Le succès, rien à foutre, moi j'l'ai jamais cherché Ils n'voient que les bons côtés, j'reviens de loin, j'vais t'raconter Mama nous a tout donné, papa nous a tout donné Ouais, ouais, j'dois rien à personne, y a qu'la madre à couronner Le prof m'a sous-estimé, j'ai changé ma destinée Le daron m'a inspiré, il savait même pas s'exprimer Sparrow, fais-en un, on va tout leur expliquer Avant, on avait pas un, maintenant, on va tout niquer Khouya, on revient d'loin, on l'dira jamais assez On avait pas d'quoi fumer mais on n'a jamais lâché On a toujours dit les choses, on a toujours assumé Tu m'as trahi, j't'ai pardonné mais j'ai pas oublié J'ai regardé mon destin, dans les yeux, j'l'ai menacé On est passé par la f'nêtre, les portes étaient cadenassées Les portes étaient cadenassées, la juge veut pas me lâcher Vas-y, enlève tes lacets, ton poto t'a balancé Dur de faire confiance à l'homme, à lui, à elle, à eux, à l'autre Le monde part en couille, le monde est jnouné mais à qui la faute ? Argent sale, ça fait pas d'nous des bonhommes Remplir l'frigo d'la daronne, c'est mieux que d'poser des Magnum Mon bello, tu veux ma bombe latine, elle te dit Mi amor mais tu es sa pompe à fric On fait or, platine, j'trouve ça fantastique, frangin, on vient tout prendre comme la Françafrique 'çafrique Argent haram, drop-top, la jeunesse égarée, tant qu'la BAC fait toc-toc , plus moyen d'se barrer T'as plus d'sous de côté, qui paiera l'avocat ? Khouya, c'est la hechma quand la haja vient au parloir La vie est dure mais on n'a rien lâché, pourvu qu'ça dure, fais douaa, faut pas rager Tu es dans la dure, frérot qu'est-ce qui s'est passé ? Les larmes aux yeux quand je repense au passé Enfoiré, tu veux ma peau, enfoiré, tu peux ma place Enfoiré, tu veux ma go, enfoiré, tu veux ma liasse Enfoiré, j'suis dans le monstre, enfoiré, tu l'as rayé Enfoiré, tu veux ma vie, mes sous mais t'auras pas ma classe Enfoiré, j'suis dans le bloc, enfoiré, j'suis dans le tieks Enfoiré, j'suis sur les ondes, enfoiré enfoiré, enfoiré</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tout c'que j'ai vu dans ma life, t'en dormirais pas la night J'regarde les étoiles et j'pense à toutes leurs calomnies Plusieurs fois trahi, j'ai démasqué leurs félonies On s'dit bonjour, bonsoir, mais mon poto, j'oublie pas J'connais trop ta famille, la prochaine fois, j'te rate pas J'ai connu la faillite, la misère, cur à l'agonie En panne sur l'autoroute d'la vie, j'ai trouvé peu d'amis T'as retourné ta veste, ouais mon poto, j'oublie pas 6 heures du mat', j'rentre à la dalle, mon pote, j'vois la daronne qui prie J'suis en fumette, le cerveau en compote, j'suis perdu dans ma vie J'tourne dans la ville, putain, y a rien à faire à part deux-trois affaires Faut faire les sous mais qu'est-ce tu veux mon frère ? C'est le nerf de la guerre J'connais la rue, on va s'parler cru, y a beaucoup d'fils de putes Ça joue d'la flûte, ils t'salissent ta réput', que des histoires de stup' Élevé à la dure, baffes et coups d'ceinture, maman m'a dit Traîne pas trop dehors quand arrive la pleine lune Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares You might also like Et au quartier, y a rien qui a changé, hiver comme été À part les p'tits, ils ont arrêté l'foot pour aller guetter Matrixé, ça marche calibré, shit, feuilles à rouler À l'heure qu'il est, Nassim et Djadjo se sont fait péter J'perds le cap des fois quand je navigue, mon esprit chavire Les nerfs à vif, la fumée est nocive, la puta elle aussi Le Diable chuchote cette mélodie J'ai grillé l'stop mais putain, j'ai pété l'Audi, merde Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen On sera jamais comme eux, on fait ça henen Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen, on fait ça henen Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire croire, croire J'veux ma kichta et ma mifa près de moi Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Yeah, tout c'que j'ai vu dans ma life, t'en dormirais pas la night On refait le monde dans la gov' gov' Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi</t>
+          <t>Tout c'que j'ai vu dans ma life, t'en dormirais pas la night J'regarde les étoiles et j'pense à toutes leurs calomnies Plusieurs fois trahi, j'ai démasqué leurs félonies On s'dit bonjour, bonsoir, mais mon poto, j'oublie pas J'connais trop ta famille, la prochaine fois, j'te rate pas J'ai connu la faillite, la misère, cur à l'agonie En panne sur l'autoroute d'la vie, j'ai trouvé peu d'amis T'as retourné ta veste, ouais mon poto, j'oublie pas 6 heures du mat', j'rentre à la dalle, mon pote, j'vois la daronne qui prie J'suis en fumette, le cerveau en compote, j'suis perdu dans ma vie J'tourne dans la ville, putain, y a rien à faire à part deux-trois affaires Faut faire les sous mais qu'est-ce tu veux mon frère ? C'est le nerf de la guerre J'connais la rue, on va s'parler cru, y a beaucoup d'fils de putes Ça joue d'la flûte, ils t'salissent ta réput', que des histoires de stup' Élevé à la dure, baffes et coups d'ceinture, maman m'a dit Traîne pas trop dehors quand arrive la pleine lune Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Et au quartier, y a rien qui a changé, hiver comme été À part les p'tits, ils ont arrêté l'foot pour aller guetter Matrixé, ça marche calibré, shit, feuilles à rouler À l'heure qu'il est, Nassim et Djadjo se sont fait péter J'perds le cap des fois quand je navigue, mon esprit chavire Les nerfs à vif, la fumée est nocive, la puta elle aussi Le Diable chuchote cette mélodie J'ai grillé l'stop mais putain, j'ai pété l'Audi, merde Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen On sera jamais comme eux, on fait ça henen Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen, on fait ça henen Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire croire, croire J'veux ma kichta et ma mifa près de moi Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Yeah, tout c'que j'ai vu dans ma life, t'en dormirais pas la night On refait le monde dans la gov' gov' Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Oh mamacita, t'es ma number one Quoi qu'il arrive, t'es ma number one J't'ai vu arriver comme un tsunami, yeah Depuis, tu n'fais qu'éclairer toutes mes nuits Toute ma vie, j'ai été incompris, ah, ah, ah, ah T'es venue soigner toutes mes insomnies Quand j't'ai connu, j'avais pas un, je me sentais mal aimé Pour un oui, pour un non, j'étais tout l'temps mal luné J'voulais tout oublier, je pensais qu'à m'allumer Grâce à toi, mi amor, j'ai réappris à aimer oh, oh, oh T'as été ma boussole quand j'savais plus où aller J'ai ouvert les yeux, j'ai vu les étoiles s'aligner Tu m'as donné deux anges, liés pour l'éternité Grâce à toi, mi amor, j'ai réappris à aimer Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one You might also like T'es mon hirondelle, mon bébé eh, eh Je suis bien dans tes bras, il n'y a que toi qui peut m'aider oh, oh, oh, oh Je vais prendre les devants, y a que pour toi que j'ai cédé eh, eh Chérie à moi, sois près de moi, mon cur s'arrête eh, eh Broliques pour les gues-din gues-din, eh Ceux qui feront les malins ah, ah T'inquiète, je gère les manettes, je protège ton corps un peu comme Cody comme Cody Mon hirondelle, mon hirondelle, oui, tu noies mes peines, oui, tu noies mes peines ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es ma number one ah, ah, ah, ah Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui T'es ma number one, number one Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui1</t>
+          <t>Oh mamacita, t'es ma number one Quoi qu'il arrive, t'es ma number one J't'ai vu arriver comme un tsunami, yeah Depuis, tu n'fais qu'éclairer toutes mes nuits Toute ma vie, j'ai été incompris, ah, ah, ah, ah T'es venue soigner toutes mes insomnies Quand j't'ai connu, j'avais pas un, je me sentais mal aimé Pour un oui, pour un non, j'étais tout l'temps mal luné J'voulais tout oublier, je pensais qu'à m'allumer Grâce à toi, mi amor, j'ai réappris à aimer oh, oh, oh T'as été ma boussole quand j'savais plus où aller J'ai ouvert les yeux, j'ai vu les étoiles s'aligner Tu m'as donné deux anges, liés pour l'éternité Grâce à toi, mi amor, j'ai réappris à aimer Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es mon hirondelle, mon bébé eh, eh Je suis bien dans tes bras, il n'y a que toi qui peut m'aider oh, oh, oh, oh Je vais prendre les devants, y a que pour toi que j'ai cédé eh, eh Chérie à moi, sois près de moi, mon cur s'arrête eh, eh Broliques pour les gues-din gues-din, eh Ceux qui feront les malins ah, ah T'inquiète, je gère les manettes, je protège ton corps un peu comme Cody comme Cody Mon hirondelle, mon hirondelle, oui, tu noies mes peines, oui, tu noies mes peines ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es ma number one ah, ah, ah, ah Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui T'es ma number one, number one Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui1</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ta-ta-ta-ta Ta-la-ta-ta-ta Le silence est d'or et on trouve plus les mots Dehors, il pleut des cordes comme il pleut des textos J't'le dis pas souvent, ma fille, mais je t'aime trop Du mal à m'exprimer, parfois, j'ai pas les mots C'est fou comme t'as grandi, j'ai pas vu le temps passer Ton regard plein de larmes se noie dans les regrets J'suis peut-être pas le père que t'attendais Mais j'te jure sur ma vie, ma fille, que j'vais changer C'est que des paroles, oui, que des paroles J'irai t'chercher à l'école, je te donne ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant You might also like Maman, j'vais la surprendre, j'vais sortir le grand jeu Dis-lui d'me pardonner, j'ai trop été orgueilleux Tu sais, ta mère, je l'aime même si j'lui dis pas tout l'temps C'est vrai qu'on s'prend la tête, j'ai fait des promesses dans l'vent Tu sais, les grands sont bêtes, ils font les sourds et muets J'ai été aveuglé et j'voyais pas qu'elle souffrait J'voudrais une dernière chance, si tu savais comme j'm'en veux La seule chose qui m'importe, c'est de te rendre heureuse C'est que des paroles des paroles, oui, que des paroles des paroles J'irai t'chercher à l'école t'chercher à l'école, je te donne ma parole ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Ma vie, j'te jure, j'suis plus le même J'suis tombé de haut, j'm'accroche à notre anneau Ma vie vie, j'te jure, j'suis plus le même j'suis plus le même J'suis tombé de haut j'suis tombé de haut, j'm'accroche à notre anneau ah Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh</t>
+          <t>Ta-ta-ta-ta Ta-la-ta-ta-ta Le silence est d'or et on trouve plus les mots Dehors, il pleut des cordes comme il pleut des textos J't'le dis pas souvent, ma fille, mais je t'aime trop Du mal à m'exprimer, parfois, j'ai pas les mots C'est fou comme t'as grandi, j'ai pas vu le temps passer Ton regard plein de larmes se noie dans les regrets J'suis peut-être pas le père que t'attendais Mais j'te jure sur ma vie, ma fille, que j'vais changer C'est que des paroles, oui, que des paroles J'irai t'chercher à l'école, je te donne ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Maman, j'vais la surprendre, j'vais sortir le grand jeu Dis-lui d'me pardonner, j'ai trop été orgueilleux Tu sais, ta mère, je l'aime même si j'lui dis pas tout l'temps C'est vrai qu'on s'prend la tête, j'ai fait des promesses dans l'vent Tu sais, les grands sont bêtes, ils font les sourds et muets J'ai été aveuglé et j'voyais pas qu'elle souffrait J'voudrais une dernière chance, si tu savais comme j'm'en veux La seule chose qui m'importe, c'est de te rendre heureuse C'est que des paroles des paroles, oui, que des paroles des paroles J'irai t'chercher à l'école t'chercher à l'école, je te donne ma parole ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Ma vie, j'te jure, j'suis plus le même J'suis tombé de haut, j'm'accroche à notre anneau Ma vie vie, j'te jure, j'suis plus le même j'suis plus le même J'suis tombé de haut j'suis tombé de haut, j'm'accroche à notre anneau ah Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Elle a trouvé la gadji Mon tel au milieu du linge Hey, je memboucane j'suis toujours sous l'effet de la bringue J'ai beaucoup de choses en tête ma chérie adoré Le mal que je cause pour te saper désolé J'suis pas ton gadjo ouh J'sors d'une blessure comme Pajot ouh Doucement faut pas s'affoler lalala En quête, en course de plein de choses paw, paw Moi la zone, je la quitte, j'ai trop zoné Le 7.5 et le 13 c'est la son-mai Dans la poche tout le blé que j'ai semé Ma chérie devant toi t'as le illeur-mé Follow me leggo J'sors le gamos, baby let's go Devant son corps, je perds mes mots Et j'ai perdu ma langue devant la popo Pull up on est beaucoup, feu sur la capitale C'est le S, c'est Marseille, c'est ris-Pa Dans la calle comme des rital Tout est bon, tout est véritable Debout on fait la re-gué, sappé on va pas rentrer Ça part en couilles et personne pour séparer Tchiki Tchikita, j'ai ma Tchiki Tchikita J'ai la plus belle, je minquiète pas Que faire sans toi, je sais pas Que les best, les target, qui peut me stopper Kishta sur moi, je vais tout dépenser You might also like On arrive dans la boite, tu vois que des pyramides On t'a dis met la gomme, t'as répondu j'fais ma vie Maintenant c'est qui qui tape My negga c'est qui qui frappe Tout les rageux qui nous parlent, m'en bat lec' de leur avis Les canner, je n'ai plus le choix Donc je continue je vais tout droit Viens toucher la frappe qui te foudroie Ça sent la genja dans le couloir RS4 ils finissent stunt On s'en va salir mes chaussettes vrunk Finir la Polia' jusqu'à j'suis drunk Bébé a rallumé son blunt Des kilos, des tonnes et des kishta Qui tombent juste au son de la guitare Baby, le biff m'appelle Baby, maybe après je t'appelle, maybe Sachet bien dans mon jean Versace sur ma bitch A Paris j'suis le prince de la ville Aquarium gelato dans la Jeep Le pull de ma go est rempli de la thune Pas de soutien gorge, y'a que sa poitrine Ses tétons pointent comme la patrie Si elle me dit bébé sur le parking J'la técla direct, j'suis fais d'or et de platine J'suis dans l'auto j'suis dans l'auto Sur la moto sur la moto Les keufs sont relou les keufs sont relou Ils veulent des photos ils prennent des photos Yeah, Jok'air, y'a de la drogue, de l'alcool et des grosses keh Je laisse ces salopes jouer les gangster De Marseille à Paname ça vient du 13 Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Mademoiselle faut qu'on s'attrape Mais je vois c'est le Black Jack Chou chou reste tranquille J'suis dans la fast life La guerre en prime time Chargeur extensible On a retenu son snap On a retenu sa carte Ça parait trop facile Khapta en by night Une gari dans la Mannschaft Prévient les âmes sensibles Wigi, wigi, elle me dit que ce soir elle veut wigi Pété, pété, sous Mathu de boubou en féfé Prada violet Rolex volée Poto, j'suis frais comme un gratteur du CV Aller j't'emène dans la fusée Parle a ta minch faudra pas nous accuser Bébé j'arrive en Aventador, ouverture papillon Je veux qu'on fasse un tour juste avant que tu dormes Ce soir t'es ma Cendrillon Dis moi ce que tu veux, j'achète Gucci Chanel et depuis je ne suis plus salarié C'est moi qui distribue les payes Wesh, le J c'est comment dans le 13 J'arrive avec l'équipe du PSG J'suis pas Messi mais j'ai la barraca Deux-cent mille et je suis millionnaire J'ai coupé, j'ai visser Détaillé dans le block Mais depuis c'est trop bon la vie d'artiste Dès le matin je me fait lahssa par une timp' Et c'est jamais la même sa mère Des hauts, des bas, des fois c'est pas facile Mais c'est rien c'est la vie On se tape des barres, y'a la Skoda de l'état Ils font les macs quand ils baissent la vitre Grosse équipe dans le classe A En survêt en place Oh t'es bella ragazza Une balle ça vaut pas un hassa Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir T'es en buvette mon sancho laisse moi piloter Tu veux que je t'aide mais toi tu m'aide pas, tu es culotté Je me mélange pas, j'reste tout seul comme Salvataro et Conte Ma vie c'est un film j'ai plein de choses à raconter Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Un million de soucis, une grosse kishta sous le coussin Entre nous pas de jalousie, on est tous frères ou cousins Ouais j'ai trop zoné, j'ai trop donné Trop déconné, trop niah T façon j'suis solide, j'suis dans le bolide sur la côte vers Marbella Dans la quartier je tournais comme un fou Ouais je pilote comme un fou La cité, m'a incité, mamacita faut plein de sous T'expliques et c'est compliqué Les petits dans l'block sont plein de Tropico Dans les affaires tous impliqué Les condés te mettent à cause de ton bigo Lélé lélé lélé lélé Tu fais du muay- thai on s'en bat lélélé Lélé lélé lélé lélé Rafale de guitare je fais danser le malélé Champagne ça fait tchin, tchin, tchin Dans l'Aventador Les bijoux font gling, gling, gling J'suis devant ta porte On prendra la moto Amour commandité Gros salam dans l'trafic Bébé à peur a cause de la vitesse Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Elle veut quitter la zone avec un homme qui fait la diff' Cette go est chargée, elle pense qu'a faire du biff Pour la pilo, faut piloter Maserati Ah, t'inquiète pas, je ferais la diff J'veux pas finir solo solo solo solo Solo solo solo solo J'vais quitter le bendo bendo bendo bendo Bendo bendo bendo bendo J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau, bateau Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné</t>
+          <t>Elle a trouvé la gadji Mon tel au milieu du linge Hey, je memboucane j'suis toujours sous l'effet de la bringue J'ai beaucoup de choses en tête ma chérie adoré Le mal que je cause pour te saper désolé J'suis pas ton gadjo ouh J'sors d'une blessure comme Pajot ouh Doucement faut pas s'affoler lalala En quête, en course de plein de choses paw, paw Moi la zone, je la quitte, j'ai trop zoné Le 7.5 et le 13 c'est la son-mai Dans la poche tout le blé que j'ai semé Ma chérie devant toi t'as le illeur-mé Follow me leggo J'sors le gamos, baby let's go Devant son corps, je perds mes mots Et j'ai perdu ma langue devant la popo Pull up on est beaucoup, feu sur la capitale C'est le S, c'est Marseille, c'est ris-Pa Dans la calle comme des rital Tout est bon, tout est véritable Debout on fait la re-gué, sappé on va pas rentrer Ça part en couilles et personne pour séparer Tchiki Tchikita, j'ai ma Tchiki Tchikita J'ai la plus belle, je minquiète pas Que faire sans toi, je sais pas Que les best, les target, qui peut me stopper Kishta sur moi, je vais tout dépenser On arrive dans la boite, tu vois que des pyramides On t'a dis met la gomme, t'as répondu j'fais ma vie Maintenant c'est qui qui tape My negga c'est qui qui frappe Tout les rageux qui nous parlent, m'en bat lec' de leur avis Les canner, je n'ai plus le choix Donc je continue je vais tout droit Viens toucher la frappe qui te foudroie Ça sent la genja dans le couloir RS4 ils finissent stunt On s'en va salir mes chaussettes vrunk Finir la Polia' jusqu'à j'suis drunk Bébé a rallumé son blunt Des kilos, des tonnes et des kishta Qui tombent juste au son de la guitare Baby, le biff m'appelle Baby, maybe après je t'appelle, maybe Sachet bien dans mon jean Versace sur ma bitch A Paris j'suis le prince de la ville Aquarium gelato dans la Jeep Le pull de ma go est rempli de la thune Pas de soutien gorge, y'a que sa poitrine Ses tétons pointent comme la patrie Si elle me dit bébé sur le parking J'la técla direct, j'suis fais d'or et de platine J'suis dans l'auto j'suis dans l'auto Sur la moto sur la moto Les keufs sont relou les keufs sont relou Ils veulent des photos ils prennent des photos Yeah, Jok'air, y'a de la drogue, de l'alcool et des grosses keh Je laisse ces salopes jouer les gangster De Marseille à Paname ça vient du 13 Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Mademoiselle faut qu'on s'attrape Mais je vois c'est le Black Jack Chou chou reste tranquille J'suis dans la fast life La guerre en prime time Chargeur extensible On a retenu son snap On a retenu sa carte Ça parait trop facile Khapta en by night Une gari dans la Mannschaft Prévient les âmes sensibles Wigi, wigi, elle me dit que ce soir elle veut wigi Pété, pété, sous Mathu de boubou en féfé Prada violet Rolex volée Poto, j'suis frais comme un gratteur du CV Aller j't'emène dans la fusée Parle a ta minch faudra pas nous accuser Bébé j'arrive en Aventador, ouverture papillon Je veux qu'on fasse un tour juste avant que tu dormes Ce soir t'es ma Cendrillon Dis moi ce que tu veux, j'achète Gucci Chanel et depuis je ne suis plus salarié C'est moi qui distribue les payes Wesh, le J c'est comment dans le 13 J'arrive avec l'équipe du PSG J'suis pas Messi mais j'ai la barraca Deux-cent mille et je suis millionnaire J'ai coupé, j'ai visser Détaillé dans le block Mais depuis c'est trop bon la vie d'artiste Dès le matin je me fait lahssa par une timp' Et c'est jamais la même sa mère Des hauts, des bas, des fois c'est pas facile Mais c'est rien c'est la vie On se tape des barres, y'a la Skoda de l'état Ils font les macs quand ils baissent la vitre Grosse équipe dans le classe A En survêt en place Oh t'es bella ragazza Une balle ça vaut pas un hassa Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir T'es en buvette mon sancho laisse moi piloter Tu veux que je t'aide mais toi tu m'aide pas, tu es culotté Je me mélange pas, j'reste tout seul comme Salvataro et Conte Ma vie c'est un film j'ai plein de choses à raconter Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Un million de soucis, une grosse kishta sous le coussin Entre nous pas de jalousie, on est tous frères ou cousins Ouais j'ai trop zoné, j'ai trop donné Trop déconné, trop niah T façon j'suis solide, j'suis dans le bolide sur la côte vers Marbella Dans la quartier je tournais comme un fou Ouais je pilote comme un fou La cité, m'a incité, mamacita faut plein de sous T'expliques et c'est compliqué Les petits dans l'block sont plein de Tropico Dans les affaires tous impliqué Les condés te mettent à cause de ton bigo Lélé lélé lélé lélé Tu fais du muay- thai on s'en bat lélélé Lélé lélé lélé lélé Rafale de guitare je fais danser le malélé Champagne ça fait tchin, tchin, tchin Dans l'Aventador Les bijoux font gling, gling, gling J'suis devant ta porte On prendra la moto Amour commandité Gros salam dans l'trafic Bébé à peur a cause de la vitesse Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Elle veut quitter la zone avec un homme qui fait la diff' Cette go est chargée, elle pense qu'a faire du biff Pour la pilo, faut piloter Maserati Ah, t'inquiète pas, je ferais la diff J'veux pas finir solo solo solo solo Solo solo solo solo J'vais quitter le bendo bendo bendo bendo Bendo bendo bendo bendo J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau, bateau Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Et c'est un mec de plus qui pose, boum boum, c'est pour les frères Si tu as le sang chaud, lève ton bras en l'air C'est pour tous ces jeunes, dans ta caisse ou dans ta geôle Baisse ta vitre embuée, coco, et t'arrête pas de suer Oh là ! Ça rêve de grosses caisses, grosses fesses Trop se plaisent à ça, mec, fais péter la zarga Le phone sonne c'est A.L.O.N, ramène les gars de La Savine si y a la panique sur le Hé yo, classique, c'est ma zique, c'est magique , si t'as pas le délire, vite, vire de là Trop de merdes, là, tous bourrés, lève ton bras Tous leurrés par l'État, kho, j'ai mon Beretta, wow C'est chaud comme au Sahara, welcome ! 24 carats sur le thorax, c'est de la race Même si on a le blues mais c'est pas grave Les économies dans les shoes, on n'est pas des losers Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! You might also like Grosse caisse, bon son, Mercedes Laisse tourner, tous mes gars tenus en laisse, hein hein Prennent leur pied, rouler à 200, vroum vroum Ça mérite un coup de zoom, prépare les paquets de chtoune Ok, mec, mets le son, j'ai le flow, quoi tu as swingué ? Moi, j'fais péter les blocks-starting Y a de la sape dans les stands, y a les s'habs qui attendent C'est l'Algérino sur bande ! J'suis pas laxiste, passe à l'action La vie, mon assise, et j'suis là que pour la lessive Mets la en sourdine, t'es sourd, dis ? Laisse-toi bercer par le son, j'ai le flow qui assassine Lassé par cette vie, lâcher, c'est pas le moment Cracher le feu, j'en ai le penchant, même si moche est mon faciès Vois ce que j'amoche, ce que j'amorce Se lit dans ta ganache, j'lie ceux qu'ont le panache Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Rapper fort, vrai, c'est mon hobby Tendance à oublier d'où notre zique sort Envoie le son que j'le tords illico speed 1 sur ton BM ou ton hélico, 2, clic clac pour ma clique, kiffe ça Un bic, un mic, un mix à la hauteur DJ, fais péter ce putain de cross-fader, on fera aucune faveur Chic chic, loin d'être BCBG Baissez les bras, taisez-vous tous, écoutez, stop ! Allez, allume le poste on est là !, dans ta tire on est là ! J'vois déjà les CBR s'élever comme ma voix Marseille sous les projecteurs, ça résonne jusqu'à Paname Tchatcheur sans état d'âme et la guitare gronde Le son des fêtards, de la bourgeoise convoitée par le smicard De celui qui est sobre à celui qui se tue au Ricard Lève lève lève lève ton bras, lève, vaffanculo C'est l'Algérino, vado culo culo Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah !</t>
+          <t>Et c'est un mec de plus qui pose, boum boum, c'est pour les frères Si tu as le sang chaud, lève ton bras en l'air C'est pour tous ces jeunes, dans ta caisse ou dans ta geôle Baisse ta vitre embuée, coco, et t'arrête pas de suer Oh là ! Ça rêve de grosses caisses, grosses fesses Trop se plaisent à ça, mec, fais péter la zarga Le phone sonne c'est A.L.O.N, ramène les gars de La Savine si y a la panique sur le Hé yo, classique, c'est ma zique, c'est magique , si t'as pas le délire, vite, vire de là Trop de merdes, là, tous bourrés, lève ton bras Tous leurrés par l'État, kho, j'ai mon Beretta, wow C'est chaud comme au Sahara, welcome ! 24 carats sur le thorax, c'est de la race Même si on a le blues mais c'est pas grave Les économies dans les shoes, on n'est pas des losers Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Grosse caisse, bon son, Mercedes Laisse tourner, tous mes gars tenus en laisse, hein hein Prennent leur pied, rouler à 200, vroum vroum Ça mérite un coup de zoom, prépare les paquets de chtoune Ok, mec, mets le son, j'ai le flow, quoi tu as swingué ? Moi, j'fais péter les blocks-starting Y a de la sape dans les stands, y a les s'habs qui attendent C'est l'Algérino sur bande ! J'suis pas laxiste, passe à l'action La vie, mon assise, et j'suis là que pour la lessive Mets la en sourdine, t'es sourd, dis ? Laisse-toi bercer par le son, j'ai le flow qui assassine Lassé par cette vie, lâcher, c'est pas le moment Cracher le feu, j'en ai le penchant, même si moche est mon faciès Vois ce que j'amoche, ce que j'amorce Se lit dans ta ganache, j'lie ceux qu'ont le panache Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Rapper fort, vrai, c'est mon hobby Tendance à oublier d'où notre zique sort Envoie le son que j'le tords illico speed 1 sur ton BM ou ton hélico, 2, clic clac pour ma clique, kiffe ça Un bic, un mic, un mix à la hauteur DJ, fais péter ce putain de cross-fader, on fera aucune faveur Chic chic, loin d'être BCBG Baissez les bras, taisez-vous tous, écoutez, stop ! Allez, allume le poste on est là !, dans ta tire on est là ! J'vois déjà les CBR s'élever comme ma voix Marseille sous les projecteurs, ça résonne jusqu'à Paname Tchatcheur sans état d'âme et la guitare gronde Le son des fêtards, de la bourgeoise convoitée par le smicard De celui qui est sobre à celui qui se tue au Ricard Lève lève lève lève ton bras, lève, vaffanculo C'est l'Algérino, vado culo culo Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah !</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>On naît... Tout l'monde sait qu'le commencement d'un gosse, c'est la naissance Émotion, puis arrive le challenge dune mère, la patience J'suis pas né de la somme des parents aux gènes ivres Jai pas de carte de séjour on ma juste délivré un permis pour survivre Enfant avance à reculons au-devant dune impasse J'veux un futur honnête sans éboueur, un futur sans crasse Des petits cons, elle est là la race jeunesse, points de suture Bonheur en structure enfant dla lune, alignés comme des traits de couture Comme vous dites Nous navons pas les mêmes valeurs Juste j'rêve davoir un futur comme pour dire qu'nous navons pas les mêmes malheurs Parce que dirait ma mère, e suis pas meilleur que les autres Chaque jour être, faut que j'sois meilleur moi-même Rêver, quoi de mieux ? Quoi dautre ? Quand j'vois quon mapporte Quand j'vois qulamour dla famille vaut plus chère qulaction dune dote On grandit à contrecur, véritable votre est notre honneur Code comme Rohff, bonheur que joffre cest mon existence que jétoffe On loue à la vie, à quand la fin du bail ? Jregrette, jai pas assez vu ma mère au travail Jai fait lplus dur sortir du ventre et eu la vie comme récompense Jai juste ma mère comme mur contre les balles qui dansent Mon rap est un psychiatre, ma rime une thérapie Je créé plus vite quil ne recopie, mon rap est leur utopie Jrésume la vie à ceux qui est entre les doigts et le poignet Ce que Eve a mangé, ce qui pousse mes frères au danger You might also like On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On vit... Enfants d'la lune, on vient d'là où y'a trop d'brume Là où la route est floue, là où lespoir se consume Là où la vie est sourde, là où les anges nont pas dplumes Là où on snourrit drancune, là où on ncraint les coups Faut sfaire une raison, on veut tous cque lon voit, cque les autres ont, cest c'quon convoite Faut pas quon rate le pouvoir La richesse quon voit, nous attise, parait-il que toutes ces choses éphémères Qui met leau à la bouche sappelle la vie Focalise ce bas monde, adopte une méthode, faut quceux den bas monte Ça balise, adapte tes potes, faut que nos gars montrent Quon a les couilles et la hargne, on rouille depuis Normal quon smouille à des cartes Caisse dÉpargne Ok, ok la vie est faux-cul, tu veux dgros paquets Mais demande à la sortie si tu te retrouves avec des taquets, tac Cque tu mérites quand tas cd'idée préconçue Moi aussi jessaye de vivre ma vie, sans oublier celle qui ma conçue Car cest conflit, man Donne la trousse et jpousse ma douce raison de ne pas être confus, man Cest vrai quc'est confus cquon fait, confie pas ça à tes mômes, man En somme, on sommeille en attendant le réveil de glace, man Vise la dégaine vicelarde des mômes qui vivent lart de la rue Qui font les sujets de discussions des Jean-Luc Delarue De 0 à 15, de 15 à 25, toujours les mêmes dingues Toujours les mêmes flingues, toujours les mêmes scènes On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On meurt... À force dy croire fort comme le béton, jy suis resté Contrairement à tous les objectifs fixés, non détectés Bête, cest peut-être que lasphalte, ma terre, ou lorgueil mattire Sinvestir dans une conduite non respectée, khnet, mec, être Je cherchais pas une clairière ni le mur derrière, la condition dernière Jai la sécurité pour offre demploi, la cloque pour job La pute pour femme, cétait écrit 3.9.45 dans lhoroscope En trop, chauffe ça comme un fléau quand ça part en couille En 55, y a aucune exception, fait cquon nous colporte Sur mon sort jflippe, veux men sortir, les proches compris Mettre un pied devant lautre, de faits et actes A notre âge, nos cicatrices sont des rides Sur nos rétines des vies tristes se lisent, se brisent Nos rêves de donner des RIB aux prises Des regrets de navoir rien fait de nos vies À quoi on sconfie ? Drogue, alcool, tournée des filles Tous nos défis on fait quau block on est des loques Mince ou mastoc, tous des pantins sans ventriloque Une grosse fierté peut-être Mais à mon âge, faut qujarrête dfaire vibrer lcur dma mère Derrière cette fenêtre Jai promis un royaume où elle y serait la reine Mais ltaureau qujsuis voit rouge car la vie une arène Où toutes les promesses mont poignardées ldos Vie gâchée à force de baver sur cette Merco qua un A au dos On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure</t>
+          <t>On naît... Tout l'monde sait qu'le commencement d'un gosse, c'est la naissance Émotion, puis arrive le challenge dune mère, la patience J'suis pas né de la somme des parents aux gènes ivres Jai pas de carte de séjour on ma juste délivré un permis pour survivre Enfant avance à reculons au-devant dune impasse J'veux un futur honnête sans éboueur, un futur sans crasse Des petits cons, elle est là la race jeunesse, points de suture Bonheur en structure enfant dla lune, alignés comme des traits de couture Comme vous dites Nous navons pas les mêmes valeurs Juste j'rêve davoir un futur comme pour dire qu'nous navons pas les mêmes malheurs Parce que dirait ma mère, e suis pas meilleur que les autres Chaque jour être, faut que j'sois meilleur moi-même Rêver, quoi de mieux ? Quoi dautre ? Quand j'vois quon mapporte Quand j'vois qulamour dla famille vaut plus chère qulaction dune dote On grandit à contrecur, véritable votre est notre honneur Code comme Rohff, bonheur que joffre cest mon existence que jétoffe On loue à la vie, à quand la fin du bail ? Jregrette, jai pas assez vu ma mère au travail Jai fait lplus dur sortir du ventre et eu la vie comme récompense Jai juste ma mère comme mur contre les balles qui dansent Mon rap est un psychiatre, ma rime une thérapie Je créé plus vite quil ne recopie, mon rap est leur utopie Jrésume la vie à ceux qui est entre les doigts et le poignet Ce que Eve a mangé, ce qui pousse mes frères au danger On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On vit... Enfants d'la lune, on vient d'là où y'a trop d'brume Là où la route est floue, là où lespoir se consume Là où la vie est sourde, là où les anges nont pas dplumes Là où on snourrit drancune, là où on ncraint les coups Faut sfaire une raison, on veut tous cque lon voit, cque les autres ont, cest c'quon convoite Faut pas quon rate le pouvoir La richesse quon voit, nous attise, parait-il que toutes ces choses éphémères Qui met leau à la bouche sappelle la vie Focalise ce bas monde, adopte une méthode, faut quceux den bas monte Ça balise, adapte tes potes, faut que nos gars montrent Quon a les couilles et la hargne, on rouille depuis Normal quon smouille à des cartes Caisse dÉpargne Ok, ok la vie est faux-cul, tu veux dgros paquets Mais demande à la sortie si tu te retrouves avec des taquets, tac Cque tu mérites quand tas cd'idée préconçue Moi aussi jessaye de vivre ma vie, sans oublier celle qui ma conçue Car cest conflit, man Donne la trousse et jpousse ma douce raison de ne pas être confus, man Cest vrai quc'est confus cquon fait, confie pas ça à tes mômes, man En somme, on sommeille en attendant le réveil de glace, man Vise la dégaine vicelarde des mômes qui vivent lart de la rue Qui font les sujets de discussions des Jean-Luc Delarue De 0 à 15, de 15 à 25, toujours les mêmes dingues Toujours les mêmes flingues, toujours les mêmes scènes On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On meurt... À force dy croire fort comme le béton, jy suis resté Contrairement à tous les objectifs fixés, non détectés Bête, cest peut-être que lasphalte, ma terre, ou lorgueil mattire Sinvestir dans une conduite non respectée, khnet, mec, être Je cherchais pas une clairière ni le mur derrière, la condition dernière Jai la sécurité pour offre demploi, la cloque pour job La pute pour femme, cétait écrit 3.9.45 dans lhoroscope En trop, chauffe ça comme un fléau quand ça part en couille En 55, y a aucune exception, fait cquon nous colporte Sur mon sort jflippe, veux men sortir, les proches compris Mettre un pied devant lautre, de faits et actes A notre âge, nos cicatrices sont des rides Sur nos rétines des vies tristes se lisent, se brisent Nos rêves de donner des RIB aux prises Des regrets de navoir rien fait de nos vies À quoi on sconfie ? Drogue, alcool, tournée des filles Tous nos défis on fait quau block on est des loques Mince ou mastoc, tous des pantins sans ventriloque Une grosse fierté peut-être Mais à mon âge, faut qujarrête dfaire vibrer lcur dma mère Derrière cette fenêtre Jai promis un royaume où elle y serait la reine Mais ltaureau qujsuis voit rouge car la vie une arène Où toutes les promesses mont poignardées ldos Vie gâchée à force de baver sur cette Merco qua un A au dos On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L'Algé', Ju-Ju-JuL Ah, ah, ah On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là J'suis dans l'club, j'fais l'hama, ouais, j'fais l'hama Full Dolce Gabbana, ouais, j'fais l'hama Elle m'a vu, elle a louché, pourtant, dans l'club, j'étais capuché Les p'tits du quartier galèrent, j'leur laisse les clés de la féfé Encore un pote dans la merde ouais, plaisir sans galère ouais, ouais J'fais que ça toute la soirée, les mains dans les affaires ouais, ouais, ouais You might also like On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là Ce soir, j'suis dans le game, poto, ce soir, j'suis le binks ouh Gros popo dans la benz, poto, en plein son dans la genz ouh Et j'fume la moulagalaga, et j'ai toujours la dalle, la dalle J'donne mon amour amour à ma nana et j'ferais tout pour ma mama Ce soir, j'ai pris la route sous 50 de Bernex Habillé en DP, j'sens le Terre d'Hermès Fais gaffe, la rue c'est chaud, des fois, le ter-ter blesse Et quand l'inspecteur passe, bah je reste perplexe La, la, la, la, la Avec L'Algé', ce soir, on fait la mala La, la, la, la, la Tu nous cherches, ce soir, on est pas là On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là</t>
+          <t>L'Algé', Ju-Ju-JuL Ah, ah, ah On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là J'suis dans l'club, j'fais l'hama, ouais, j'fais l'hama Full Dolce Gabbana, ouais, j'fais l'hama Elle m'a vu, elle a louché, pourtant, dans l'club, j'étais capuché Les p'tits du quartier galèrent, j'leur laisse les clés de la féfé Encore un pote dans la merde ouais, plaisir sans galère ouais, ouais J'fais que ça toute la soirée, les mains dans les affaires ouais, ouais, ouais On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là Ce soir, j'suis dans le game, poto, ce soir, j'suis le binks ouh Gros popo dans la benz, poto, en plein son dans la genz ouh Et j'fume la moulagalaga, et j'ai toujours la dalle, la dalle J'donne mon amour amour à ma nana et j'ferais tout pour ma mama Ce soir, j'ai pris la route sous 50 de Bernex Habillé en DP, j'sens le Terre d'Hermès Fais gaffe, la rue c'est chaud, des fois, le ter-ter blesse Et quand l'inspecteur passe, bah je reste perplexe La, la, la, la, la Avec L'Algé', ce soir, on fait la mala La, la, la, la, la Tu nous cherches, ce soir, on est pas là On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ce serait prétentieux de dire qu'on sème l'espoir Ce à quoi chacun d'nous aspire Que l'homme soit digne de l'oxygène qu'il respire Malgré c'qui s'passe autour d'nous, on agit L'espoir un fleuve que les gens veulent tarir Si j'avais écouté l'chant doux des sirènes, j'serais pas là Sûrement sur une chaise, fonctionnaire dans un bureau J'en serais malade À porter le courrier dans les étags Mais l'histoire dit que l'papillon meurt nfermé en cage Accroché à mes rêves, trop d'mal à coller à tes règles Mes heures passées à stresser, adossé à des braises Fatalement les murs s'écroulent comme à Troie Qui parle de baisser les bras? Ça fait un bail qu'on y croit Parce que la rue nous facilite pas, lève ton putain d'bras On garde le sourire, même timide, on lâche pas please Droit dans nos choix vise Sûrs de nous même s'ils nous contredisent Faut qu'on s'batte, quoi qu'tu dises, quoi qu'tu fasses Quoi qu'il s'passe Parce que même les verres les plus solides se cassent Le mental solide, j'en profite, j'ai mis mon casque Parce que tout va trop vite Qu'on peut tout gâcher en un instant Parce que l'être humain est trop stupide You might also like Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé J'en veux au monde comme un rescapé des camps d'la mort à Auschwitz Qui voit ses économies s'faire racketter par une banque suisse Vois, on nous manipule, depuis l'époque on dort Faut qu'on s'révolte mais rares sont les hommes qui portent des testicules On sème mais on récolte peu Peut-être le manque de conviction Le travail faut qu'on l'fasse, tu peux toujours attendre la coalition La jeunesse dans tous ses états Dédié à ceux qu'ont oublié qu'les Arabes et les Noirs ont délivré la Corse Mais on reste frères même dans la discorde Message de paix d'un p'tit gamin qu'est rentré par la p'tite porte En évitant les miradors, une balle dans le bras droit Les jeunes sont des taureaux blessés, la France est le matador Ça fait un bail qu'on y croit fort, on court après c'qui nous échappe La France un casino, les croupiers ont truqué les cartes Vois comme on nous rabaisse On a beau flamber en Merco, on sera toujours en bas d'l'échelle tant qu'on se remuera pas l'derche Depuis l'époque on vogue, mate, on chavire Dur de garder l'cap quand tu vois la misère qui gravite Décor dans la merde, HLM au bord de la mer Nique sa mère, plus rien à foutre, on tentera tout vu qu'ça merde Une touche d'espoir derrière le calibre Les yeux braqués vers le ciel, on braquera tant qu'on se sent pas libre Messieurs les jurés, j'suis innocent J'crois pas en cette assise Mon sort sera scellé le jour du jugement On nous fait croire qu'on est d'la merde sans cervelle Qu'nos parents ramassaient la merde et qu'on fera pareil Dédié à tous les éboueurs d'Paris à Marseille Y a pas d'sous-métier pour ceux qui vivent en dessous d'la moyenne Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé La fausse gauche nous bassine avec leur Black Blanc Beur Nous on file droit dans la lignée des Black Panthers Intelligents et secs, taxés d'Antéchrist Direct à la crise, Mexico 70 Voix éraillées, teints glabres Entends, c'est du blues moderne Nos cris d'rage que ces looses modèrent Donne c'mic, c'est mon sabre, le tonnerre Une pierre deux coups, bâillonne tous ces fachos et ces commères Les tapes et les concerts, nos armes dissuasives Mais la soif de fric, la soif de gloire est bien plus persuasive Télévision lascive, dans ton yomp' tu t'lèves Avec des armes de destruction massive Face à ça, notre histoire se brade Les mômes matent et complexés, rêvent d'être Jennifer et Brad Une culture sans envergure, à trop mater l'cul des autres Faut être sûr De pouvoir laver sa figure Parce qu'on a perdu nos valeurs et tu en dis quoi Parce que l'on cultive trop de rancur et qu'est-ce tu crois Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé</t>
+          <t>Ce serait prétentieux de dire qu'on sème l'espoir Ce à quoi chacun d'nous aspire Que l'homme soit digne de l'oxygène qu'il respire Malgré c'qui s'passe autour d'nous, on agit L'espoir un fleuve que les gens veulent tarir Si j'avais écouté l'chant doux des sirènes, j'serais pas là Sûrement sur une chaise, fonctionnaire dans un bureau J'en serais malade À porter le courrier dans les étags Mais l'histoire dit que l'papillon meurt nfermé en cage Accroché à mes rêves, trop d'mal à coller à tes règles Mes heures passées à stresser, adossé à des braises Fatalement les murs s'écroulent comme à Troie Qui parle de baisser les bras? Ça fait un bail qu'on y croit Parce que la rue nous facilite pas, lève ton putain d'bras On garde le sourire, même timide, on lâche pas please Droit dans nos choix vise Sûrs de nous même s'ils nous contredisent Faut qu'on s'batte, quoi qu'tu dises, quoi qu'tu fasses Quoi qu'il s'passe Parce que même les verres les plus solides se cassent Le mental solide, j'en profite, j'ai mis mon casque Parce que tout va trop vite Qu'on peut tout gâcher en un instant Parce que l'être humain est trop stupide Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé J'en veux au monde comme un rescapé des camps d'la mort à Auschwitz Qui voit ses économies s'faire racketter par une banque suisse Vois, on nous manipule, depuis l'époque on dort Faut qu'on s'révolte mais rares sont les hommes qui portent des testicules On sème mais on récolte peu Peut-être le manque de conviction Le travail faut qu'on l'fasse, tu peux toujours attendre la coalition La jeunesse dans tous ses états Dédié à ceux qu'ont oublié qu'les Arabes et les Noirs ont délivré la Corse Mais on reste frères même dans la discorde Message de paix d'un p'tit gamin qu'est rentré par la p'tite porte En évitant les miradors, une balle dans le bras droit Les jeunes sont des taureaux blessés, la France est le matador Ça fait un bail qu'on y croit fort, on court après c'qui nous échappe La France un casino, les croupiers ont truqué les cartes Vois comme on nous rabaisse On a beau flamber en Merco, on sera toujours en bas d'l'échelle tant qu'on se remuera pas l'derche Depuis l'époque on vogue, mate, on chavire Dur de garder l'cap quand tu vois la misère qui gravite Décor dans la merde, HLM au bord de la mer Nique sa mère, plus rien à foutre, on tentera tout vu qu'ça merde Une touche d'espoir derrière le calibre Les yeux braqués vers le ciel, on braquera tant qu'on se sent pas libre Messieurs les jurés, j'suis innocent J'crois pas en cette assise Mon sort sera scellé le jour du jugement On nous fait croire qu'on est d'la merde sans cervelle Qu'nos parents ramassaient la merde et qu'on fera pareil Dédié à tous les éboueurs d'Paris à Marseille Y a pas d'sous-métier pour ceux qui vivent en dessous d'la moyenne Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé La fausse gauche nous bassine avec leur Black Blanc Beur Nous on file droit dans la lignée des Black Panthers Intelligents et secs, taxés d'Antéchrist Direct à la crise, Mexico 70 Voix éraillées, teints glabres Entends, c'est du blues moderne Nos cris d'rage que ces looses modèrent Donne c'mic, c'est mon sabre, le tonnerre Une pierre deux coups, bâillonne tous ces fachos et ces commères Les tapes et les concerts, nos armes dissuasives Mais la soif de fric, la soif de gloire est bien plus persuasive Télévision lascive, dans ton yomp' tu t'lèves Avec des armes de destruction massive Face à ça, notre histoire se brade Les mômes matent et complexés, rêvent d'être Jennifer et Brad Une culture sans envergure, à trop mater l'cul des autres Faut être sûr De pouvoir laver sa figure Parce qu'on a perdu nos valeurs et tu en dis quoi Parce que l'on cultive trop de rancur et qu'est-ce tu crois Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>YYou might also like</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ils ont pourri le monde fait en sorte que l'homme se dégrade Le temps s'écoule et l'homme s'écroule il devient de plus en plus con Ils n'ont plus de valeurs, les principes sont dans un tiroir Ils jurent que par l'argent et c'est la seule chose qui régit le monde Pourrissent les mômes avec leur discours à la con J'ai peur à l'idée qu'ils mangent leurs salades en même temps que les informations Ils ont pourri la Terre, les déchets toxiques, l'effet de serre On en a rien a foutre ça touchera les futures générations Ils redessinent le monde, des peuples déchirés pour des frontières C'était des anciennes colonisations Ils ont pillé l'Afrique, berceau de l'humanité Et quand y a génocide, c'est pas grave on n'est pas concerné Ils insultent les femmes, les prennent à coup de pierres C'est pas l'islam je vous rassure et là vous parle en tant que frère Foudroyés par l'ignorance homme du monde Ouvrons nos curs, acceptons-nous malgré nos différences On a perdu nos valeurs, un simple sourire peut changer la vie d'une personne que l'on croise On se tue à regarder nos défauts, nos qualités dans un cachot, on n'en sort que l'ego J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte You might also like Ils ont pourri l'espoir, ils ont noirci nos curs, on néglige nos amis nos frères On en prend conscience que lorsqu'on les perd On prend conscience de l'amour qu'on porte pour une personne que lorsqu'on la perd Profitons de nos pères, nos mères Ils nous aveuglent avec leur matériel, on oublie que tout est éphémère qu'on emportera rien avec nous sous terre Moi-même ils m'ont pourri je m'égare, le fric, les gros cigares, j'ai peur je m'écarte du vrai chemin J'ai peur Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Est-ce cela le prix à payer pour la paix ? On sera jugés pour notre passivité Films pornos, corps déchiquetés aux infos on a poussé notre voyeurisme et c'est sans se soucier de l'excès Ils parlent de voile comme soumission, que dire de ces pauvres femmes à poil objetisées à la télévision Elles méritent le respect mais se font marcher dessus, jeunes, vieux qui se masturbent devant Canal On était jeunes et cons, on le sera toujours d'ailleurs Que ceux qui n'ont jamais pêchés nous lancent leur première pierre Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Ils ont pillé l'Afrique, berceau de l'humanité et quand y a génocide c'est pas grave on est pas concerné Ils ont pourri la Terre, les déchets toxiques, l'effet de serre on en a rien a foutre ça touchera les futures générations Ils redessinent la Terre, des peuples déchirés pour des frontières, mon frère, c'était des anciennes colonisations Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Mec je reprends mes marques Navigue sur les eaux, m'accrochant a ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte on tourbillonne</t>
+          <t>Ils ont pourri le monde fait en sorte que l'homme se dégrade Le temps s'écoule et l'homme s'écroule il devient de plus en plus con Ils n'ont plus de valeurs, les principes sont dans un tiroir Ils jurent que par l'argent et c'est la seule chose qui régit le monde Pourrissent les mômes avec leur discours à la con J'ai peur à l'idée qu'ils mangent leurs salades en même temps que les informations Ils ont pourri la Terre, les déchets toxiques, l'effet de serre On en a rien a foutre ça touchera les futures générations Ils redessinent le monde, des peuples déchirés pour des frontières C'était des anciennes colonisations Ils ont pillé l'Afrique, berceau de l'humanité Et quand y a génocide, c'est pas grave on n'est pas concerné Ils insultent les femmes, les prennent à coup de pierres C'est pas l'islam je vous rassure et là vous parle en tant que frère Foudroyés par l'ignorance homme du monde Ouvrons nos curs, acceptons-nous malgré nos différences On a perdu nos valeurs, un simple sourire peut changer la vie d'une personne que l'on croise On se tue à regarder nos défauts, nos qualités dans un cachot, on n'en sort que l'ego J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte Ils ont pourri l'espoir, ils ont noirci nos curs, on néglige nos amis nos frères On en prend conscience que lorsqu'on les perd On prend conscience de l'amour qu'on porte pour une personne que lorsqu'on la perd Profitons de nos pères, nos mères Ils nous aveuglent avec leur matériel, on oublie que tout est éphémère qu'on emportera rien avec nous sous terre Moi-même ils m'ont pourri je m'égare, le fric, les gros cigares, j'ai peur je m'écarte du vrai chemin J'ai peur Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Est-ce cela le prix à payer pour la paix ? On sera jugés pour notre passivité Films pornos, corps déchiquetés aux infos on a poussé notre voyeurisme et c'est sans se soucier de l'excès Ils parlent de voile comme soumission, que dire de ces pauvres femmes à poil objetisées à la télévision Elles méritent le respect mais se font marcher dessus, jeunes, vieux qui se masturbent devant Canal On était jeunes et cons, on le sera toujours d'ailleurs Que ceux qui n'ont jamais pêchés nous lancent leur première pierre Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Ils ont pillé l'Afrique, berceau de l'humanité et quand y a génocide c'est pas grave on est pas concerné Ils ont pourri la Terre, les déchets toxiques, l'effet de serre on en a rien a foutre ça touchera les futures générations Ils redessinent la Terre, des peuples déchirés pour des frontières, mon frère, c'était des anciennes colonisations Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Mec je reprends mes marques Navigue sur les eaux, m'accrochant a ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte on tourbillonne</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'vais en cours avec la peur au ventre J'ai même pas fait mes devoirs Coupure de courant c'est dur d'réviser dans le noir Toujours un truc à me reprocher Quand je voit les contrôleurs Je stresse même quand j'ai mon ticket Des rêves pleins le cerveau j'me voit pilote de F1 On est 7 dans un D1, est ce que tu vois le topo Comme tous le monde je suis un footeux Fouteur de merde, fougueux J'avais peur de rien, sauf de mes parents et du bon Dieu Rien ne m'effraies J'traîne dans les rue des ma ville J'voit les grand qui dealent J'ai comprit que la rue c'est l'asile Moi j'veux m'en sortir M'acheter les dernières sapes J'fait du rap les grands me disent ne lâche pas p'tit Sam Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne You might also like J'traine les vêtements que j'avais mis la veille Petit dormeur j'trouve pas le sommeil L'école je m'en fou j'ai taillé toute la semaine Dans mon quartier j'entends le chant des sirènes J'suis perdu là-bas dans la brume J'ai même plus d'encre pour tremper ma plume Je cherche refuge en cherchant des thunes La route est longue pour décrocher la lune J'veux m'évader et prendre le large Les grands sont cons j'trouve qu'ils sont tous barges Laissez-moi vivre je croit en ma destinée Mon petit Sam il est l'heure d'aller se coucher Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne4</t>
+          <t>J'vais en cours avec la peur au ventre J'ai même pas fait mes devoirs Coupure de courant c'est dur d'réviser dans le noir Toujours un truc à me reprocher Quand je voit les contrôleurs Je stresse même quand j'ai mon ticket Des rêves pleins le cerveau j'me voit pilote de F1 On est 7 dans un D1, est ce que tu vois le topo Comme tous le monde je suis un footeux Fouteur de merde, fougueux J'avais peur de rien, sauf de mes parents et du bon Dieu Rien ne m'effraies J'traîne dans les rue des ma ville J'voit les grand qui dealent J'ai comprit que la rue c'est l'asile Moi j'veux m'en sortir M'acheter les dernières sapes J'fait du rap les grands me disent ne lâche pas p'tit Sam Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne J'traine les vêtements que j'avais mis la veille Petit dormeur j'trouve pas le sommeil L'école je m'en fou j'ai taillé toute la semaine Dans mon quartier j'entends le chant des sirènes J'suis perdu là-bas dans la brume J'ai même plus d'encre pour tremper ma plume Je cherche refuge en cherchant des thunes La route est longue pour décrocher la lune J'veux m'évader et prendre le large Les grands sont cons j'trouve qu'ils sont tous barges Laissez-moi vivre je croit en ma destinée Mon petit Sam il est l'heure d'aller se coucher Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne4</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>S.I.N.I.K 2007 L'Algérino Six-O-Nine Bah ouais Pendant qu'les Arabes et les Corses se font la guerre Bienvenue à Mars, on cessera jamais d'représenter la Terre mère Là où les gros voyous deviennent des agents Rackettent les joueurs d'foot, c'est ça ou une balle dans la jambe On te salue en arabe et on t'insulte en gitan L'atmosphère est mafieuse, on a grandi avec des Ritals, des Corses et des Gitans Mais quand ça s'corse y a qu'des Arabes et des Khels, dans les quartiers quand ça chauffe On a l'air de fainéants, mais doués dans le bizness On t'achète on te vend, on te pique avec notre accent Le soleil est écrasant, la tristesse sous les Rayban La jeunesse en détresse rêve de liasses en se rasant C'est la merde, HLM au bord d'la mer Les Harbis montent en puissance, concurrencent la brise de mer Niveau rap, ça rappe dans dans tout les sens Arabes, Blancs, Noirs, on nique la musique de France À Mars on s'en bat les couilles du crunk Du clash, de ton cash, ça fume de la skunk sur un son de funk Les courses au marché soleil, les daronnes et les p'tites surs Dans les mariages des cortèges de Q7 et de vipers Ça claque trente-mille euros, ça divorce dans la foulée Jeunes mariés-divorcés se font frotter au millet Nos pères en pèlerinage, la jeunesse perd ses repères Charmés par les Roumaines au jarret en plein tapinage La mère qui fait le ménage, le fils qui perd les méninges Millionnaire en euros qui touche le RMI et l'chômage Les frères qui font le rappel, barbu ex-braqueur Qui pige que le dîn ça paye plus que dêtre gratteur Marseille, les carters, les dealers, les dockers Dans les parties de cartes ça perd des villas au poker Marseille c'est Zidane et Berbachi Quand on gagne contre Paris, ça relance l'économie You might also like À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Bienvenue dans l'ombre C'est Paris rap de qualité, la guerre et la rivalité Nike Air, baggy Marithé Ambiance bad boys, alcool, flash-ball Fat Joe, hardcore, bastos, pactole Diplômé pour faire la banque en moto C'est pas Voici mais les voisins qui veulent nous prendre en photo Le tier-quar, la famille, les amis, l'Algérie On étouffe car on est tous des Samy Naceri, man On a le style, on est toujours au goût des femmes On met des wesh, des gros et des ma gueule au bout des phrases Enfants des barricades, y a ceux qui crèvent et ceux qui parient cash Y a ceux qui partent et ceux qui restent à Paris-plage On devient délinquants, turbulents, trafiquants de l'ombre Futurs clients des fabriquant de tombes Chienne de vie alors on part au casse-pipe Du 9.1 au 9.5 des vies entières se gaspillent À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Yeah De la Savine aux Ulis De Paris à Marseille, c'est la même S.I.N.I.K L'Algérino Jack Sparrow Pour tous les quartiers d'France, Six-O-Nine Peu importe d'où tu viens Représente et fais ça bien Six-O-Nine</t>
+          <t>S.I.N.I.K 2007 L'Algérino Six-O-Nine Bah ouais Pendant qu'les Arabes et les Corses se font la guerre Bienvenue à Mars, on cessera jamais d'représenter la Terre mère Là où les gros voyous deviennent des agents Rackettent les joueurs d'foot, c'est ça ou une balle dans la jambe On te salue en arabe et on t'insulte en gitan L'atmosphère est mafieuse, on a grandi avec des Ritals, des Corses et des Gitans Mais quand ça s'corse y a qu'des Arabes et des Khels, dans les quartiers quand ça chauffe On a l'air de fainéants, mais doués dans le bizness On t'achète on te vend, on te pique avec notre accent Le soleil est écrasant, la tristesse sous les Rayban La jeunesse en détresse rêve de liasses en se rasant C'est la merde, HLM au bord d'la mer Les Harbis montent en puissance, concurrencent la brise de mer Niveau rap, ça rappe dans dans tout les sens Arabes, Blancs, Noirs, on nique la musique de France À Mars on s'en bat les couilles du crunk Du clash, de ton cash, ça fume de la skunk sur un son de funk Les courses au marché soleil, les daronnes et les p'tites surs Dans les mariages des cortèges de Q7 et de vipers Ça claque trente-mille euros, ça divorce dans la foulée Jeunes mariés-divorcés se font frotter au millet Nos pères en pèlerinage, la jeunesse perd ses repères Charmés par les Roumaines au jarret en plein tapinage La mère qui fait le ménage, le fils qui perd les méninges Millionnaire en euros qui touche le RMI et l'chômage Les frères qui font le rappel, barbu ex-braqueur Qui pige que le dîn ça paye plus que dêtre gratteur Marseille, les carters, les dealers, les dockers Dans les parties de cartes ça perd des villas au poker Marseille c'est Zidane et Berbachi Quand on gagne contre Paris, ça relance l'économie À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Bienvenue dans l'ombre C'est Paris rap de qualité, la guerre et la rivalité Nike Air, baggy Marithé Ambiance bad boys, alcool, flash-ball Fat Joe, hardcore, bastos, pactole Diplômé pour faire la banque en moto C'est pas Voici mais les voisins qui veulent nous prendre en photo Le tier-quar, la famille, les amis, l'Algérie On étouffe car on est tous des Samy Naceri, man On a le style, on est toujours au goût des femmes On met des wesh, des gros et des ma gueule au bout des phrases Enfants des barricades, y a ceux qui crèvent et ceux qui parient cash Y a ceux qui partent et ceux qui restent à Paris-plage On devient délinquants, turbulents, trafiquants de l'ombre Futurs clients des fabriquant de tombes Chienne de vie alors on part au casse-pipe Du 9.1 au 9.5 des vies entières se gaspillent À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Yeah De la Savine aux Ulis De Paris à Marseille, c'est la même S.I.N.I.K L'Algérino Jack Sparrow Pour tous les quartiers d'France, Six-O-Nine Peu importe d'où tu viens Représente et fais ça bien Six-O-Nine</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dis leur! L'algérino, Léa, El nino Trafic Music Tu sais qui sont les vrais! Ok... Tu sais qui sont les vrais, tu sais Tout le monde crient Oh oh oh x2 Les rêves c'est pour les faibles, j'vais vivre mes fantasmes La vie est une table de poker et j'ai ma paire d'as Profiter de mon fils qu'il profite de son père On prend conscience de la valeur d'une personne que lorsqu'on la perd Fallait cacher ma vie, j'ai relevé la tête Ce son c'est pour les braves forts qui n'ont plus rien à perdre Ils voient que le décor mais ne savent rien de ce que j'ai vécu Mon frère si tu savais combien de fois la vie ma déçu On se nourrit d'espoir mais l'espoir coûte cher Combien d'échec en se disant t'inquiète ca va le faire Une spéciale dédicasse pour nos proches, pour nos pères, pour nos mères On sait ou l'on va en sachant garder nos repères You might also like</t>
+          <t>Dis leur! L'algérino, Léa, El nino Trafic Music Tu sais qui sont les vrais! Ok... Tu sais qui sont les vrais, tu sais Tout le monde crient Oh oh oh x2 Les rêves c'est pour les faibles, j'vais vivre mes fantasmes La vie est une table de poker et j'ai ma paire d'as Profiter de mon fils qu'il profite de son père On prend conscience de la valeur d'une personne que lorsqu'on la perd Fallait cacher ma vie, j'ai relevé la tête Ce son c'est pour les braves forts qui n'ont plus rien à perdre Ils voient que le décor mais ne savent rien de ce que j'ai vécu Mon frère si tu savais combien de fois la vie ma déçu On se nourrit d'espoir mais l'espoir coûte cher Combien d'échec en se disant t'inquiète ca va le faire Une spéciale dédicasse pour nos proches, pour nos pères, pour nos mères On sait ou l'on va en sachant garder nos repères</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Yeah Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Ça fait du bien de revenir dans la bergerie Je sème le trouble y a plus de réseau dans les BlackBerry Petite n'achète pas mes CD pour mes beaux yeux J'ai du vécu j'ai des choses à dire dédicace à gros yeux Gominé comme un rital mais mentalité 12 becs Issu des zones à risques ici si tu parles trop on te clou le bec Depuis l'euro c'est rude dans la rue les jeunes s'entretuent Les petits lâchent les études et comme Béné ils veulent de la thune 13 015 matricule tends l'oreille quand j'articule OH Nouvelle sensation le son qui te pète les clavicules Yeah Si tu nous cherches pas on te cherche pas Regarde pas à travers si tu demandes qu'on te rate pas on fait pas de hagra Éduqués dans le respect Joue pas avec la rue ou tu risques d'y rester Faire un peu de fric sans le flamber au casino J'ai vu des jeunes millionnaires tout perdre dans les jeux péter les plombs repartir à zéro Ça vient de la Savine oh ça vient du Plan D'aou oh Ça vient de La Castellane de Fond-Vert et de la Busserine Ça vient de la Cayole pour tout les mecs à Payol Pour tout les secteurs de Marseille interdit aux tafioles Ça vient de Lyon Vaulx-en-Velin - Vénissieux Miss l'Ariane comme la beau gars pour tous les petits vicieux Toulouse Bordeaux Lille toutes les banlieues de Paris Toutes les actes donnant à Besac les petits rappeurs qui arrivent You might also like On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas morfler, ok Ça faisait longtemps j'me suis fais un peu discret Enfermé dans un bunker j'te lâche ce petit extrait Avant-goût de la bombe sans prétention Entre quatre murs j'écris des textes comme en détention Mon inspiration entre deux parties de poker Quand toi tu demandes le changement faites entrer le Joker Ça vient du 1.4.3 du Centre Ville de La Soli À la Gavote ça tchek ça jette des caillasses sur la police Petit harbi mental de chaoui casse pas les cléoui J'ai rien à craindre mon avocat c'est Karim Machoui C'est pour mes bicots karlouche toi et tes hétanos Mental à faire forger tellement que j'ai chopé le tétanos Le monde appartient à ceux qui se lèvent tôt j'fais des nuits blanches Ça roule en bolides brolic on mène pas une vie d'ange Des Baumettes à Fresnes ça stresse nos vies sont des go fast Ça bombarde Tanger à Mars sans laisser de traces x2 1 3 sur la plaque on repart à l'attaque Pousse les watts ça vient de Mars déconseillé aux cardiaques Nouveaux tracks nouveaux styles nouvelles claques Février 2009 j'fête ma sortie dans les bacs On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas m'emporter, ok ?1</t>
+          <t>Yeah Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Ça fait du bien de revenir dans la bergerie Je sème le trouble y a plus de réseau dans les BlackBerry Petite n'achète pas mes CD pour mes beaux yeux J'ai du vécu j'ai des choses à dire dédicace à gros yeux Gominé comme un rital mais mentalité 12 becs Issu des zones à risques ici si tu parles trop on te clou le bec Depuis l'euro c'est rude dans la rue les jeunes s'entretuent Les petits lâchent les études et comme Béné ils veulent de la thune 13 015 matricule tends l'oreille quand j'articule OH Nouvelle sensation le son qui te pète les clavicules Yeah Si tu nous cherches pas on te cherche pas Regarde pas à travers si tu demandes qu'on te rate pas on fait pas de hagra Éduqués dans le respect Joue pas avec la rue ou tu risques d'y rester Faire un peu de fric sans le flamber au casino J'ai vu des jeunes millionnaires tout perdre dans les jeux péter les plombs repartir à zéro Ça vient de la Savine oh ça vient du Plan D'aou oh Ça vient de La Castellane de Fond-Vert et de la Busserine Ça vient de la Cayole pour tout les mecs à Payol Pour tout les secteurs de Marseille interdit aux tafioles Ça vient de Lyon Vaulx-en-Velin - Vénissieux Miss l'Ariane comme la beau gars pour tous les petits vicieux Toulouse Bordeaux Lille toutes les banlieues de Paris Toutes les actes donnant à Besac les petits rappeurs qui arrivent On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas morfler, ok Ça faisait longtemps j'me suis fais un peu discret Enfermé dans un bunker j'te lâche ce petit extrait Avant-goût de la bombe sans prétention Entre quatre murs j'écris des textes comme en détention Mon inspiration entre deux parties de poker Quand toi tu demandes le changement faites entrer le Joker Ça vient du 1.4.3 du Centre Ville de La Soli À la Gavote ça tchek ça jette des caillasses sur la police Petit harbi mental de chaoui casse pas les cléoui J'ai rien à craindre mon avocat c'est Karim Machoui C'est pour mes bicots karlouche toi et tes hétanos Mental à faire forger tellement que j'ai chopé le tétanos Le monde appartient à ceux qui se lèvent tôt j'fais des nuits blanches Ça roule en bolides brolic on mène pas une vie d'ange Des Baumettes à Fresnes ça stresse nos vies sont des go fast Ça bombarde Tanger à Mars sans laisser de traces x2 1 3 sur la plaque on repart à l'attaque Pousse les watts ça vient de Mars déconseillé aux cardiaques Nouveaux tracks nouveaux styles nouvelles claques Février 2009 j'fête ma sortie dans les bacs On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas m'emporter, ok ?1</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Marseille N'essaye pas d'ignorer signore Ici c'est Mars, étang et eau de mer Tous veulent la Audemars au pied de la Bonne Mère Une prod sale et on démarre, comme d'hab j'creuse l'écart Rien à foutre de leurs standards Ici pas d'monarque, juste moi et mon art Regarde ma poésie trouer les murs, choquer les sourds Regarde ma feuille, elle et moi on rêve de péter leurs tours Au départ tout c'qu'on voulait, c'était péter l'score Et au final, j'm'en sers encore pour briser le sort J'rappe, rimes sanguinolentes jetées comme des lames Parfois ça pose les armes, ouais, ma ville a du charme Fière jusqu'à l'indécence, les mains parlent souvent Mais on s'calme avec un sss et l'soleil couchant Faut revenir à la faute ou j'vais niquer la prod' Mentir à la proc', c'est pas réciproque Ils s'en foutent des nôtres, juré, j'suis en mode 1-3 j'suis en or, pour eux, j'suis un nègre Le papier j'l'aime en mauve et quand je vole j'suis un aigle J'meurs ici, entre les missiles Fin d'mois difficiles, pas loin d'la Sicile Tu connais l'récit, j'ai fait le tour du monde mais je suis revenu à la mise à l'eau J'crame un pét', j'plonge dans les étoiles en immersion Dans le 4Motion j'sors les armes J'ai failli frapper deux fois depuis qu'ils ont fait les travaux Job plein temps, je m'suis écarté de plein d'gens Tu crois qu'j'suis ton collègue, j'ai plus vingt ans You might also like Nous revoilà, y a quoi là, longue vie à la Squala Comme un flic et cent-quarante dans l'ancienne Vite caché derrière d'beaux habits, ça Pas l'temps d'être au bout d'sa vie Ça va vite comme GP d'Abu-Dhabi Un deux, aïe aïe, die die bénef spots bleus En bref, 1-3 rien d'neuf devant R9, fric-frac dans tes Rap Marseille, poids lourd, intenable flow kung-fu kick Cantona Mieux crever que vivre à genoux, rien d'new L'monde après nous, ric-pfou, ils n'auront d'nous J'suis pas un ancien, j'suis une légende Ici y a que les Carlos Mozer qui visent les jambes J'suis un putain d'sale rappeur, quoi que disent les gens Si j'veux j'leur roule tous dessus mais j'veux pas salir mes jantes Ici les jeunes disjonctent, déjeunent en fumant le jaune Fume les gens même en période de jeûne Marie-Jeanne offre plus d'emplois que Marianne Quand tu fais le tour de France t'as plus de gilets jaunes que de maillots jaunes Si t'as les gènes un peu trop bronzés, tu les gênes Le monde est cheum, bientôt des collégiennes pleines de collagène C'est la jungle, manifestations, fumigènes Femmes seules armées de bombes lacrymogènes Entre égotrip et social, j'viens rapper 13 Organisé Avec les du rap marseillais Le gang des postiches, des royalties de ces quarante dernières années Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra DZ égérie, ma chérie Marseille la nouvelle wilaya d'Algérie Harraga, Annabi, Ouarlani, Kabylie chaoui Ça s'mord la langue comme Imane Khelif Quartiers sous CR, les p'tits au bord de mer c'est l'enfer Mais qu'est-ce tu veux que j'dise aux p'tits frères ? T'façon l'État les a laissés d'côté Les darons prient dans les caves, ils veulent fermer les mosquées Marseille, ça parle en crypté, paye en crypto Le cur effrité, les frères qui partent tôt, les mères attristées Ils voulaient que j'porte la flamme olympique J'préfère lever le drapeau d'la Palestine J'monte sur scène dents serrées, vaillant Micro saillant sans dessins Plus Payet que Payot ou Payan Dans c'carré où les vandales ont brisé les vitrines Le parquet requiert un an pour deux pantalons J'rappe pour que les gominés crient go minot Et qu'les sales pédos tombent comme Lego et dominos Mon cahier d'rimes soulevé au comico Parce que les de Géronimo Anti-colon, l'aigle c'est ma colombe Bref, sur feuille volante, j'n'écoute pas leurs violons Leur paix est violente, j'emplis mon cur de l'air et l'art de Bali J'ferme sacs et valises, j'leur laisse l'or du Mali Joue pas l'voyou dans les clips, j'éteins comme une éclipse À dire qu'à dix minutes d'chez moi ça s'fait la guerre un peu comme les Bloods et les Crips J'trahis pas mon équipe, j'connais les codes, j'connais les kids J'suis pas l'genre de mec qui va coller les kings Nouvelle école la série gold pour moi ça reste la même, et toi Si pour toi les sous ils tombent du ciel c'est qu'on n'est pas né sous la même étoile J'ai remis d'l'eau dans l'vase, la fleur était fanée J'ai pas vu l'soleil, j'étais au stud toute l'année J'aimerais m'balader normi mais ma tête est cramée Dans l'RS3 j'écoute les rappeurs de ma ville pour planer Sur une autre planète, j'mise jamais sur l'paraître J'passe les flics me suivent, m'prennent pour un vendeur d'barrettes C'est Marseille, c'est PACA, c'est bouillant, c'est pas calme C'est bruyant, c'est l'vacarme, c'est violent, c'est macabre Les les AK, les brancards, les braquages J'fais plus cas, c'est banal, c'est vaillant, c'est pas grave C'est ça l'drame, j'ai fini par m'y habituer Décroche le portable, apprends qu'un ami s'est fait tuer Devant les yeux de sa fille, l'ont délesté de sa vie J'sais plus si j'dois aimer ou bien détester ma ville Si je dois la quitter, lui rester fidèle Dois-je écouter mon cur ou ma raison qui se méfie d'elle ? Aussi vraie que ma ville est dure, ma ville est belle La vie est dure mais la vie est belle Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra Marseille Signore</t>
+          <t>Marseille N'essaye pas d'ignorer signore Ici c'est Mars, étang et eau de mer Tous veulent la Audemars au pied de la Bonne Mère Une prod sale et on démarre, comme d'hab j'creuse l'écart Rien à foutre de leurs standards Ici pas d'monarque, juste moi et mon art Regarde ma poésie trouer les murs, choquer les sourds Regarde ma feuille, elle et moi on rêve de péter leurs tours Au départ tout c'qu'on voulait, c'était péter l'score Et au final, j'm'en sers encore pour briser le sort J'rappe, rimes sanguinolentes jetées comme des lames Parfois ça pose les armes, ouais, ma ville a du charme Fière jusqu'à l'indécence, les mains parlent souvent Mais on s'calme avec un sss et l'soleil couchant Faut revenir à la faute ou j'vais niquer la prod' Mentir à la proc', c'est pas réciproque Ils s'en foutent des nôtres, juré, j'suis en mode 1-3 j'suis en or, pour eux, j'suis un nègre Le papier j'l'aime en mauve et quand je vole j'suis un aigle J'meurs ici, entre les missiles Fin d'mois difficiles, pas loin d'la Sicile Tu connais l'récit, j'ai fait le tour du monde mais je suis revenu à la mise à l'eau J'crame un pét', j'plonge dans les étoiles en immersion Dans le 4Motion j'sors les armes J'ai failli frapper deux fois depuis qu'ils ont fait les travaux Job plein temps, je m'suis écarté de plein d'gens Tu crois qu'j'suis ton collègue, j'ai plus vingt ans Nous revoilà, y a quoi là, longue vie à la Squala Comme un flic et cent-quarante dans l'ancienne Vite caché derrière d'beaux habits, ça Pas l'temps d'être au bout d'sa vie Ça va vite comme GP d'Abu-Dhabi Un deux, aïe aïe, die die bénef spots bleus En bref, 1-3 rien d'neuf devant R9, fric-frac dans tes Rap Marseille, poids lourd, intenable flow kung-fu kick Cantona Mieux crever que vivre à genoux, rien d'new L'monde après nous, ric-pfou, ils n'auront d'nous J'suis pas un ancien, j'suis une légende Ici y a que les Carlos Mozer qui visent les jambes J'suis un putain d'sale rappeur, quoi que disent les gens Si j'veux j'leur roule tous dessus mais j'veux pas salir mes jantes Ici les jeunes disjonctent, déjeunent en fumant le jaune Fume les gens même en période de jeûne Marie-Jeanne offre plus d'emplois que Marianne Quand tu fais le tour de France t'as plus de gilets jaunes que de maillots jaunes Si t'as les gènes un peu trop bronzés, tu les gênes Le monde est cheum, bientôt des collégiennes pleines de collagène C'est la jungle, manifestations, fumigènes Femmes seules armées de bombes lacrymogènes Entre égotrip et social, j'viens rapper 13 Organisé Avec les du rap marseillais Le gang des postiches, des royalties de ces quarante dernières années Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra DZ égérie, ma chérie Marseille la nouvelle wilaya d'Algérie Harraga, Annabi, Ouarlani, Kabylie chaoui Ça s'mord la langue comme Imane Khelif Quartiers sous CR, les p'tits au bord de mer c'est l'enfer Mais qu'est-ce tu veux que j'dise aux p'tits frères ? T'façon l'État les a laissés d'côté Les darons prient dans les caves, ils veulent fermer les mosquées Marseille, ça parle en crypté, paye en crypto Le cur effrité, les frères qui partent tôt, les mères attristées Ils voulaient que j'porte la flamme olympique J'préfère lever le drapeau d'la Palestine J'monte sur scène dents serrées, vaillant Micro saillant sans dessins Plus Payet que Payot ou Payan Dans c'carré où les vandales ont brisé les vitrines Le parquet requiert un an pour deux pantalons J'rappe pour que les gominés crient go minot Et qu'les sales pédos tombent comme Lego et dominos Mon cahier d'rimes soulevé au comico Parce que les de Géronimo Anti-colon, l'aigle c'est ma colombe Bref, sur feuille volante, j'n'écoute pas leurs violons Leur paix est violente, j'emplis mon cur de l'air et l'art de Bali J'ferme sacs et valises, j'leur laisse l'or du Mali Joue pas l'voyou dans les clips, j'éteins comme une éclipse À dire qu'à dix minutes d'chez moi ça s'fait la guerre un peu comme les Bloods et les Crips J'trahis pas mon équipe, j'connais les codes, j'connais les kids J'suis pas l'genre de mec qui va coller les kings Nouvelle école la série gold pour moi ça reste la même, et toi Si pour toi les sous ils tombent du ciel c'est qu'on n'est pas né sous la même étoile J'ai remis d'l'eau dans l'vase, la fleur était fanée J'ai pas vu l'soleil, j'étais au stud toute l'année J'aimerais m'balader normi mais ma tête est cramée Dans l'RS3 j'écoute les rappeurs de ma ville pour planer Sur une autre planète, j'mise jamais sur l'paraître J'passe les flics me suivent, m'prennent pour un vendeur d'barrettes C'est Marseille, c'est PACA, c'est bouillant, c'est pas calme C'est bruyant, c'est l'vacarme, c'est violent, c'est macabre Les les AK, les brancards, les braquages J'fais plus cas, c'est banal, c'est vaillant, c'est pas grave C'est ça l'drame, j'ai fini par m'y habituer Décroche le portable, apprends qu'un ami s'est fait tuer Devant les yeux de sa fille, l'ont délesté de sa vie J'sais plus si j'dois aimer ou bien détester ma ville Si je dois la quitter, lui rester fidèle Dois-je écouter mon cur ou ma raison qui se méfie d'elle ? Aussi vraie que ma ville est dure, ma ville est belle La vie est dure mais la vie est belle Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra Marseille Signore</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>- Pooo olalalala oh elle fracasse cette instru - Oh putain oh c'est un challenge là - Ouais franchement c'est un challenge mais qu'est-ce que tu verrais dessus ? Qu'est-ce tu ferais ? - Franchement j'sais pas mais c'qui est sur c'est qu'j'vais donner des rimes sévères Yeah, yeah Black offside, mec de ces blocks sales Traine quand c'est rode crade Mec rétrograde, écoute ce style grave Ça sent le gaz et moi j'm'enflamme à chaque rime trash Ici c'est dark et les types débarquent en Clarks Mon rap plonge dans la sueur et les marques nos stigmates Dehors les flics mattent car les beaufs flippent gravent Méchante selection et les frères trippent grave C'est du gros son, caisson, sors au balcon Tension, friction, rien dans l'fourgon Ça c'est mon territoire, moyen d'exécutoire Problème d'échappatoire dans cette life dérisoire Sale con, sale son qui sort des catacombes C'est la cata qui tombe sur le charme de ces combes Toi tu veux boycotter mon show Apocalyptique rap mystique font partie de mon glossaire Fait pas ça bêtement, technique vierge, nouveau flow Naturel à base, mec sans pierre ni coco Vrai sur les photos, mon texte une savonnette si t'aimes pas d'paix J'rappe pour le bourg ou roloto Meneur CB, tout contact d'l'extérieur Block party, branche tes cables sur l'compteur Pour nos patries, brûle le hash' chef dis-leur, yeah Brûle les sacs Greg Killer J'dynamite l'assistance avec un ah chef, une pièce en plastoc Fastoche y'a pas d'pastiche que du flow mastoc Pete plastique, s'crack sonne sur platine si c'est l'cur presse pas stop You might also like Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Allons voir si la merde est partie sous mes s'melles J'suis l'même, ogive dans mes s'nemes, bouffe saine, svelte J'ai mis du piment dans mes semaines Y'a pas d'mal et tu crois chez eux y tombe tous la même, tu captes Apprécie l'son, apprécie les rares sourires et les rares soupires Les rares souv'nirs, moi j'kiffe dans l'fond Et Alonzo, y'a la merde qui squatte au mic c'est à toi allez Nettoie ça comme Bronzo J'ai des rimes au gros ou en détaillé, du style en vrac et Du flow embrasé, mais tu restes censé Je reste offensé, j'ramène ta gaieté, à mes soucis fermés Oh franchement bien le style le flow et tout mais à qui tu t'adresse là ? Ces mangeurs de gaieté, majeurs endettés, mineurs en TD Aime en été, et c'est la tuile et... La foule en délire, tu la vois bien dans tous ses états Chaleur Hip-Hop et si t'as goûté range ton Beretta crues tapent, retiens ton souffle, on n'saute pas les étapes, stop Fais moi un break que je reparte Style L'Algérino, Alonzo pas du rap à Zonzo Range ton conzé fais pas une flaque c'est que du rap propre Rap pro, rappeur d'élite, rapport d'acolyte Prévention te saoule pas, à notre son électrolyte Ce soir c'est la furie, 3, 6, 1, écurie Pas d'Pierre et Marie Curie, tuerie seulement parce qu'on est puriste Surine, échappé des murs sales et des flaques d'urine J'réclame ma part du rythme, rime j'en torture une Ecarte tu t'écartes du rythme V'nir danser, fête pourrie, pleine cave où l'équipe burine Pour l'heure ici c'est l'faya Si M.O.B était dans l'spot il crierait Faya J't'amène mon crayon sur un beat lourd type du ghetto Du bic surhumain, préviens ton réseau, dis-leur qu'au mic y'a trois assassins 2001, tu veux un big name Donc tu vois les MC Kung Fu, t'auras mon big nem Sur l'disque embargo total, la crise du rap total Un manque de sens Total Recall T'sais la d'où j'viens que des têtes bizarres Des têtes cramées par ces quartiers chauds, des mecs à part recall Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers</t>
+          <t>- Pooo olalalala oh elle fracasse cette instru - Oh putain oh c'est un challenge là - Ouais franchement c'est un challenge mais qu'est-ce que tu verrais dessus ? Qu'est-ce tu ferais ? - Franchement j'sais pas mais c'qui est sur c'est qu'j'vais donner des rimes sévères Yeah, yeah Black offside, mec de ces blocks sales Traine quand c'est rode crade Mec rétrograde, écoute ce style grave Ça sent le gaz et moi j'm'enflamme à chaque rime trash Ici c'est dark et les types débarquent en Clarks Mon rap plonge dans la sueur et les marques nos stigmates Dehors les flics mattent car les beaufs flippent gravent Méchante selection et les frères trippent grave C'est du gros son, caisson, sors au balcon Tension, friction, rien dans l'fourgon Ça c'est mon territoire, moyen d'exécutoire Problème d'échappatoire dans cette life dérisoire Sale con, sale son qui sort des catacombes C'est la cata qui tombe sur le charme de ces combes Toi tu veux boycotter mon show Apocalyptique rap mystique font partie de mon glossaire Fait pas ça bêtement, technique vierge, nouveau flow Naturel à base, mec sans pierre ni coco Vrai sur les photos, mon texte une savonnette si t'aimes pas d'paix J'rappe pour le bourg ou roloto Meneur CB, tout contact d'l'extérieur Block party, branche tes cables sur l'compteur Pour nos patries, brûle le hash' chef dis-leur, yeah Brûle les sacs Greg Killer J'dynamite l'assistance avec un ah chef, une pièce en plastoc Fastoche y'a pas d'pastiche que du flow mastoc Pete plastique, s'crack sonne sur platine si c'est l'cur presse pas stop Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Allons voir si la merde est partie sous mes s'melles J'suis l'même, ogive dans mes s'nemes, bouffe saine, svelte J'ai mis du piment dans mes semaines Y'a pas d'mal et tu crois chez eux y tombe tous la même, tu captes Apprécie l'son, apprécie les rares sourires et les rares soupires Les rares souv'nirs, moi j'kiffe dans l'fond Et Alonzo, y'a la merde qui squatte au mic c'est à toi allez Nettoie ça comme Bronzo J'ai des rimes au gros ou en détaillé, du style en vrac et Du flow embrasé, mais tu restes censé Je reste offensé, j'ramène ta gaieté, à mes soucis fermés Oh franchement bien le style le flow et tout mais à qui tu t'adresse là ? Ces mangeurs de gaieté, majeurs endettés, mineurs en TD Aime en été, et c'est la tuile et... La foule en délire, tu la vois bien dans tous ses états Chaleur Hip-Hop et si t'as goûté range ton Beretta crues tapent, retiens ton souffle, on n'saute pas les étapes, stop Fais moi un break que je reparte Style L'Algérino, Alonzo pas du rap à Zonzo Range ton conzé fais pas une flaque c'est que du rap propre Rap pro, rappeur d'élite, rapport d'acolyte Prévention te saoule pas, à notre son électrolyte Ce soir c'est la furie, 3, 6, 1, écurie Pas d'Pierre et Marie Curie, tuerie seulement parce qu'on est puriste Surine, échappé des murs sales et des flaques d'urine J'réclame ma part du rythme, rime j'en torture une Ecarte tu t'écartes du rythme V'nir danser, fête pourrie, pleine cave où l'équipe burine Pour l'heure ici c'est l'faya Si M.O.B était dans l'spot il crierait Faya J't'amène mon crayon sur un beat lourd type du ghetto Du bic surhumain, préviens ton réseau, dis-leur qu'au mic y'a trois assassins 2001, tu veux un big name Donc tu vois les MC Kung Fu, t'auras mon big nem Sur l'disque embargo total, la crise du rap total Un manque de sens Total Recall T'sais la d'où j'viens que des têtes bizarres Des têtes cramées par ces quartiers chauds, des mecs à part recall Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ALprod Casque Arai, Rolex présidentielle Pour des kichtas comme ça, j'ai vu des hnin devenir cruelles J'maitrise l'essentiel, j'la fais swipe up au septième ciel Elle est trop belle au naturel, elle est pas superficielle J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides Que d'la quali', l'cerveau il fume, je job, j'sors plus, j'étouffe gros J'étouffe gros J'raconte ma vie, c'qui s'passe, les joies, les peines, les bons, les putos Les putos J'suis-j'suis-j'suis bon qu'à faire du sale, à remplir des salles Y a du monde, mais j'suis seul, tu veux mon bien, ouais c'est ça En c'moment c'est bandite, j'ai que d'la beuh, j'ai plus d'shit On fait danser ta p'tite, elle a le cur qui palpite Comme full DP, c'est classique Ah, Ju-Ju-JuL c'est magique Ah Paralysé sous statique Ah, t'as l'cerveau qui te fait des bogues Acteur, menteur, jackteur, bandeur, y a que des suceurs Ils entendent le moteur, ils ont peur, tu meurs Qui peut le faire à part nous ? On a tous les sous, les joujoux Quelques frangins à Morgiou, des bijoux que pour les grands jours Ok, comment ça s'fait qu'il parle mal de moi devant toi Tu dis qu'tu m'aimes que sous commission rogatoire Faudrait qu'tu tej', j'entends qu't'aimes faire d'la balançoire En soi, j'm'en bats les couilles, boulette sur ma chemise en soie Haha You might also like Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple À 210 sur le tableau d'bord, même à pied, on a fait des bornes Demi-tour la gadji est bonne Bonne, bonne, bonne Sous le soleil, j'ai mes hublots, du kérosène dans le turbo Fais l'oseille beaucoup plus tôt, à Marseille la ville est au plus haut Vérifie tous les angles morts quand tu roules dans les quartiers nord Les mains faites pour les disques d'or D'or, d'or, d'or On m'appelle pour un big show, sur le yacht y a des bimbos Verre de champagne en cristaux, pas de garde du corps à l'akimbo Je suis seul, mais j'suis pas tout seul, de bonne humeur, j'arrive en douceur Si t'es bourré, ne vient pas me deuh Deuh, deuh, deuh Merco', ça finit tard pour les histoires Très tard, y a la guitare Tapis j'm'arrache ma race, j'ai la paire d'As Elle veut Hermès, terrasse, Audi RS et un sac d'os Tu parles trop quand t'es pété Pété Un verre d'trop, tu vas regretter 'gretter Dans le rétro', j'les vois m'guetter J'ai fais les euros yemma, faut plus t'inquiéter Et m'raconte pas qui a fait ci, qui a fait ça Même si moi j't'apprécie, parle pas d'tout ça Marseille, ouais faut tout prendre avant d'tout perdre Good bye genre à Dubaï, gros tudo bem Pour le bon, fallait bosser fissa Trop nia, j'ai trop cédé pour ça C'est pas grave, moi j'les aimais pourtant On s'la donne si on s'croise, ça c'est sûr Et j'm'évade quand j'fais bénéf' au max' En soum soum, c'est moi sur l'T-Max J'm'habitue, j'ai mal, mais j'avance J'm'habitue, j'ai mal, mais j'avance Quand on y est, on y est, faut toujours en découdre et pas lâcher le morceau Oubliez, oubliez, oubliez-moi le jour où je claque la porte Paroles, encore des paroles J'sais que m'vider comme ça, j'ai jamais parlé dehors Nan, nan, nan, nan Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple J'suis parti en bandite ma petite À la base, j'avais les mains dans le shit Akha la C, RS8 J'passe devant la Castellane en V8 Crapuleux sous moula, des jets-ski, la playa Premier DP, la paye tout droit, c'est Marseille - Jonquera Minuit sur la Ro'-Ro' Oh, oh, gros mélange de Vo'-Vo' Oh, oh Ta gadji me trouve beau, elle danse joga, joga bonito Oh, oh, ah, ah, ah J'suis dans l'bédo, bédo, les rentes, pas dans l'détail J'suis dans Paris, j'suis dans l'tel-hô, négro, on fait tourner l'bétail C'est la rue C'est la rue, représenter toute la caillé toute l'année Me retrouver sur la playa, plus jamais J'roule un teh, j'bois mon thé, j'ai même plus besoin d'pénav C'est la rue, c'est la vraie, en I, ça me té-ma Souvent matrixé et peiné, j'vois plus les choses comme avant Peut-être qu'hier, oui on s'aimait, mais là c'est plus comme avant Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple</t>
+          <t>ALprod Casque Arai, Rolex présidentielle Pour des kichtas comme ça, j'ai vu des hnin devenir cruelles J'maitrise l'essentiel, j'la fais swipe up au septième ciel Elle est trop belle au naturel, elle est pas superficielle J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides Que d'la quali', l'cerveau il fume, je job, j'sors plus, j'étouffe gros J'étouffe gros J'raconte ma vie, c'qui s'passe, les joies, les peines, les bons, les putos Les putos J'suis-j'suis-j'suis bon qu'à faire du sale, à remplir des salles Y a du monde, mais j'suis seul, tu veux mon bien, ouais c'est ça En c'moment c'est bandite, j'ai que d'la beuh, j'ai plus d'shit On fait danser ta p'tite, elle a le cur qui palpite Comme full DP, c'est classique Ah, Ju-Ju-JuL c'est magique Ah Paralysé sous statique Ah, t'as l'cerveau qui te fait des bogues Acteur, menteur, jackteur, bandeur, y a que des suceurs Ils entendent le moteur, ils ont peur, tu meurs Qui peut le faire à part nous ? On a tous les sous, les joujoux Quelques frangins à Morgiou, des bijoux que pour les grands jours Ok, comment ça s'fait qu'il parle mal de moi devant toi Tu dis qu'tu m'aimes que sous commission rogatoire Faudrait qu'tu tej', j'entends qu't'aimes faire d'la balançoire En soi, j'm'en bats les couilles, boulette sur ma chemise en soie Haha Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple À 210 sur le tableau d'bord, même à pied, on a fait des bornes Demi-tour la gadji est bonne Bonne, bonne, bonne Sous le soleil, j'ai mes hublots, du kérosène dans le turbo Fais l'oseille beaucoup plus tôt, à Marseille la ville est au plus haut Vérifie tous les angles morts quand tu roules dans les quartiers nord Les mains faites pour les disques d'or D'or, d'or, d'or On m'appelle pour un big show, sur le yacht y a des bimbos Verre de champagne en cristaux, pas de garde du corps à l'akimbo Je suis seul, mais j'suis pas tout seul, de bonne humeur, j'arrive en douceur Si t'es bourré, ne vient pas me deuh Deuh, deuh, deuh Merco', ça finit tard pour les histoires Très tard, y a la guitare Tapis j'm'arrache ma race, j'ai la paire d'As Elle veut Hermès, terrasse, Audi RS et un sac d'os Tu parles trop quand t'es pété Pété Un verre d'trop, tu vas regretter 'gretter Dans le rétro', j'les vois m'guetter J'ai fais les euros yemma, faut plus t'inquiéter Et m'raconte pas qui a fait ci, qui a fait ça Même si moi j't'apprécie, parle pas d'tout ça Marseille, ouais faut tout prendre avant d'tout perdre Good bye genre à Dubaï, gros tudo bem Pour le bon, fallait bosser fissa Trop nia, j'ai trop cédé pour ça C'est pas grave, moi j'les aimais pourtant On s'la donne si on s'croise, ça c'est sûr Et j'm'évade quand j'fais bénéf' au max' En soum soum, c'est moi sur l'T-Max J'm'habitue, j'ai mal, mais j'avance J'm'habitue, j'ai mal, mais j'avance Quand on y est, on y est, faut toujours en découdre et pas lâcher le morceau Oubliez, oubliez, oubliez-moi le jour où je claque la porte Paroles, encore des paroles J'sais que m'vider comme ça, j'ai jamais parlé dehors Nan, nan, nan, nan Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple J'suis parti en bandite ma petite À la base, j'avais les mains dans le shit Akha la C, RS8 J'passe devant la Castellane en V8 Crapuleux sous moula, des jets-ski, la playa Premier DP, la paye tout droit, c'est Marseille - Jonquera Minuit sur la Ro'-Ro' Oh, oh, gros mélange de Vo'-Vo' Oh, oh Ta gadji me trouve beau, elle danse joga, joga bonito Oh, oh, ah, ah, ah J'suis dans l'bédo, bédo, les rentes, pas dans l'détail J'suis dans Paris, j'suis dans l'tel-hô, négro, on fait tourner l'bétail C'est la rue C'est la rue, représenter toute la caillé toute l'année Me retrouver sur la playa, plus jamais J'roule un teh, j'bois mon thé, j'ai même plus besoin d'pénav C'est la rue, c'est la vraie, en I, ça me té-ma Souvent matrixé et peiné, j'vois plus les choses comme avant Peut-être qu'hier, oui on s'aimait, mais là c'est plus comme avant Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nass Brans Ma chérie coco, ah Eh ma chérie coco Boh Laisse-moi juste un moment Elle m'connaît un peu trop J'peux même plus faire semblant J'sais pas où je s'rais demain Mais là j'veux toucher l'summum J'suis pas son sac à main Poh Elle veut me prendre au mot Boh En c'moment, j'suis partagé Entre l'oseille et son hmm Mademoiselle s'est attachée Moi j'suis parti, j'reviens plus Ouh Je réponds plus aux appels Elle est comme mon passé, j'l'ai zappé Viens on fait des affaires Hey Pour l'instant mon cur est cassé Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer You might also like Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ma chérie coco J'les ai toutes unfollow Depuis l'début j'te voulais Elle a tous les codes, elle est à la mode, elle les fait tous serrer Serrer Elle m'appelle devant des potes mais nous deux c'est mort, elle est sur la sellette Elle m'a jeté un sort, j'reconnais mes torts, comme un fou j'ai suivi Elle me fait perdre le nord, je l'ai dans mais faut que j'en finisse Elle veut prendre tout mon liquide Elle me prend pour le kéké des kékés Que de mauvaises habitudes Elle commence et elle sait plus s'arrêter Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Coco, loco, loco Coco, loco, loco</t>
+          <t>Nass Brans Ma chérie coco, ah Eh ma chérie coco Boh Laisse-moi juste un moment Elle m'connaît un peu trop J'peux même plus faire semblant J'sais pas où je s'rais demain Mais là j'veux toucher l'summum J'suis pas son sac à main Poh Elle veut me prendre au mot Boh En c'moment, j'suis partagé Entre l'oseille et son hmm Mademoiselle s'est attachée Moi j'suis parti, j'reviens plus Ouh Je réponds plus aux appels Elle est comme mon passé, j'l'ai zappé Viens on fait des affaires Hey Pour l'instant mon cur est cassé Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ma chérie coco J'les ai toutes unfollow Depuis l'début j'te voulais Elle a tous les codes, elle est à la mode, elle les fait tous serrer Serrer Elle m'appelle devant des potes mais nous deux c'est mort, elle est sur la sellette Elle m'a jeté un sort, j'reconnais mes torts, comme un fou j'ai suivi Elle me fait perdre le nord, je l'ai dans mais faut que j'en finisse Elle veut prendre tout mon liquide Elle me prend pour le kéké des kékés Que de mauvaises habitudes Elle commence et elle sait plus s'arrêter Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Coco, loco, loco Coco, loco, loco</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>One Love One Blood One Love Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Enfant de la terre , qui n'a pas connu la misère Morales ou matérielles on ressent les mêmes douleurs On a pas la même couleur du peau mais le sang est le même Nos pères sont des rois et nos mères sont des reines Nos pères sont des rois et nos mères sont des reines x2 Nos frères sont des Lions, se battent pour la paix Sommes-nous prêts à donner nos vies pour un brin de liberté ? Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... You might also like Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh L'amour n'a pas de couleur, ni de religion Il agit avec le cur il ne se pose pas de questions Il tapprend que le bonheur n'est pas dans les millions Mais plutôt dans les valeurs humaines que nous partageons Ils veulent nous diviser j'te parle d'unité La plus grande des richesse c'est la diversité Ils veulent nous diviser j'te parle d'unité Dans la diversité nous sommes tous liés oui J'vous dis Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh</t>
+          <t>One Love One Blood One Love Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Enfant de la terre , qui n'a pas connu la misère Morales ou matérielles on ressent les mêmes douleurs On a pas la même couleur du peau mais le sang est le même Nos pères sont des rois et nos mères sont des reines Nos pères sont des rois et nos mères sont des reines x2 Nos frères sont des Lions, se battent pour la paix Sommes-nous prêts à donner nos vies pour un brin de liberté ? Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh L'amour n'a pas de couleur, ni de religion Il agit avec le cur il ne se pose pas de questions Il tapprend que le bonheur n'est pas dans les millions Mais plutôt dans les valeurs humaines que nous partageons Ils veulent nous diviser j'te parle d'unité La plus grande des richesse c'est la diversité Ils veulent nous diviser j'te parle d'unité Dans la diversité nous sommes tous liés oui J'vous dis Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ouais belloumi, c'est fini l'hibernation, la congélation Noxious C'est les sensations, baba L'Algé' Les p'tits dans l'Porsche, sans permis, dans la cité T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Rndez-vous dans l'bar d'à-côté, madame veut papotr Ça sent l'bullrun bébé, j'recharge en USDT Force pas sur la vodka, mets-toi sur l'bas-côté Non, c'est pas l'Dakota, c'est Marseille, ma beauté Ma beauté Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé You might also like A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night Mais t'inquiète pas, mi amor, pour toi, j'donnerai mia vida J'finis derrière l'mirador, y a les stup' dans la Skoda Guetteur a donné l'alerte, un soir de plus sous la luna Pour oublier, j'fume d'la verte là T'façon, on a rien à perdre, faut la baraque vers la mer Dans la merde, y avait que ma mère Alors ma race ? Tu t'rappelles de moi ? Ouais, personne m'a fait la passe, ils préfèrent tirer d'loin Mais c'est pas d'ma faute à moi, y a trop d'sheitanas Et j'respecte pas la loi, j'respecte la mama La mama Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night</t>
+          <t>Ouais belloumi, c'est fini l'hibernation, la congélation Noxious C'est les sensations, baba L'Algé' Les p'tits dans l'Porsche, sans permis, dans la cité T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Rndez-vous dans l'bar d'à-côté, madame veut papotr Ça sent l'bullrun bébé, j'recharge en USDT Force pas sur la vodka, mets-toi sur l'bas-côté Non, c'est pas l'Dakota, c'est Marseille, ma beauté Ma beauté Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night Mais t'inquiète pas, mi amor, pour toi, j'donnerai mia vida J'finis derrière l'mirador, y a les stup' dans la Skoda Guetteur a donné l'alerte, un soir de plus sous la luna Pour oublier, j'fume d'la verte là T'façon, on a rien à perdre, faut la baraque vers la mer Dans la merde, y avait que ma mère Alors ma race ? Tu t'rappelles de moi ? Ouais, personne m'a fait la passe, ils préfèrent tirer d'loin Mais c'est pas d'ma faute à moi, y a trop d'sheitanas Et j'respecte pas la loi, j'respecte la mama La mama Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pour des raisons que j'ai pas à vous donner, jcontinuerai de chanter et danser Oui, je suis tombée pour mieux me relever, je suis bornée donc j'continue d'rêver Jpeux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant J'peux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps Jme sens tellement bien quand je chante Comme si jétais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Eh, jsuis ivre sur les Champs, je pense à rien, tout est écrit, j'pense plus à demain Qui tente rien n'a rien, ils étaient où quand je galérais ? Elle m'a pas faite dcadeau, la vie, rare sont les amis, les amis Ils danseront sur ma tombe à ma mort et moi, je souris, je souris Ils ont fait du mal à ton fils, mama, on s'en remettra, j'dis toujours Hamdou', ça va J'pars dans tous les sens, je tourne, je cours, j'ai l'temps d'rien Mi amor, prends ma mano, sourire, ça fait du bien You might also like Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Sur les Champs, ouais, sur les Champs Je me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs</t>
+          <t>Pour des raisons que j'ai pas à vous donner, jcontinuerai de chanter et danser Oui, je suis tombée pour mieux me relever, je suis bornée donc j'continue d'rêver Jpeux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant J'peux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps Jme sens tellement bien quand je chante Comme si jétais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Eh, jsuis ivre sur les Champs, je pense à rien, tout est écrit, j'pense plus à demain Qui tente rien n'a rien, ils étaient où quand je galérais ? Elle m'a pas faite dcadeau, la vie, rare sont les amis, les amis Ils danseront sur ma tombe à ma mort et moi, je souris, je souris Ils ont fait du mal à ton fils, mama, on s'en remettra, j'dis toujours Hamdou', ça va J'pars dans tous les sens, je tourne, je cours, j'ai l'temps d'rien Mi amor, prends ma mano, sourire, ça fait du bien Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Sur les Champs, ouais, sur les Champs Je me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bella j'ai sortit la Rolls Royce Je t'offrirais pleins de roses roses Au vélodrome j'ai ma loge loge J'préfère des yeux que tes fesses LOL Quitter le secteur, quitter le quartier En sécurité, le cash il est J'suis loin d'la fortune de Bolloré Mais j'ai de quoi te faire rêver On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer J'ai des euros, pas des bitcoins Tu m'trouves mignon, j'te trouve mignonne J'aime beaucoup tes aires de petites connes On se parle qu'en emoticones Les ecoutes pas, s'est des fatigués Toute la nuit, j'suis pas fatigué Billets violets, billets mauves Oui ma chérie j'suis refais You might also like Elle a taper dans le mille On s'taillera dans une île Y'a plus personnes au bout du fil Laisse un message après le bip Tilit, tilit x2 On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer1</t>
+          <t>Bella j'ai sortit la Rolls Royce Je t'offrirais pleins de roses roses Au vélodrome j'ai ma loge loge J'préfère des yeux que tes fesses LOL Quitter le secteur, quitter le quartier En sécurité, le cash il est J'suis loin d'la fortune de Bolloré Mais j'ai de quoi te faire rêver On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer J'ai des euros, pas des bitcoins Tu m'trouves mignon, j'te trouve mignonne J'aime beaucoup tes aires de petites connes On se parle qu'en emoticones Les ecoutes pas, s'est des fatigués Toute la nuit, j'suis pas fatigué Billets violets, billets mauves Oui ma chérie j'suis refais Elle a taper dans le mille On s'taillera dans une île Y'a plus personnes au bout du fil Laisse un message après le bip Tilit, tilit x2 On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer1</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ca commence par un salut, ça finit par un j't'encule Ca commence par un j't'emmerde, ça finit par un j'te fumme Au début on est des frères, plus tard on s'fera la guerre Ca commence par un je t'aime, ça finit par un j't'enterre Ca commence gentillement On fume, on boit, on fait les 400 coups Plus tard on s'tire dessus, y a plus de sentiments Ca commence à l'école primaire Ça finit au parloir Pour d'autres dans un cimetière Ca commence par un regard Ça finit par une lame Face au hagal, Ça finit par des armes Bon Dieu, écarte mes frères de la déchéance! On a baigné dans le dîn et on a finit dans la mécréance Ca commence par un coup de coeur, ça finit par un coup de pute Une caresse, un je t'aime pour ton fric, un coup de flûte Yeah! Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi You might also likeCa commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans le bien, ça finit dans le mal La rue nous a pourri, j'essaye d'lutter tant bien qu'mal La course aux armements, rhey, la ruée vers l'or Ca commence par un litron, et ça écoule des tonnes Ca papote, ça crapote le premier paquet de cloppes Ca commence dans le chite, et ça finit dans la coke Ca commence par un bisou, ça finit par une pipe Plus de bisous, un strip pour des bijoux, des girls qui ce la joue Yeah! Monde pourri, tout pour les capitaux Partouse de notables à l'Elisée devant les chapitaux Ils ne jurent que par l'argent et le pétrole, zeubi Ca commence par l'Irak et ça finit par la Libye Rappeur qui a la dale, lâche pas l'affaire Ca commence dans une cave et ça remplie des salles de concerts Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi</t>
+          <t>Ca commence par un salut, ça finit par un j't'encule Ca commence par un j't'emmerde, ça finit par un j'te fumme Au début on est des frères, plus tard on s'fera la guerre Ca commence par un je t'aime, ça finit par un j't'enterre Ca commence gentillement On fume, on boit, on fait les 400 coups Plus tard on s'tire dessus, y a plus de sentiments Ca commence à l'école primaire Ça finit au parloir Pour d'autres dans un cimetière Ca commence par un regard Ça finit par une lame Face au hagal, Ça finit par des armes Bon Dieu, écarte mes frères de la déchéance! On a baigné dans le dîn et on a finit dans la mécréance Ca commence par un coup de coeur, ça finit par un coup de pute Une caresse, un je t'aime pour ton fric, un coup de flûte Yeah! Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans le bien, ça finit dans le mal La rue nous a pourri, j'essaye d'lutter tant bien qu'mal La course aux armements, rhey, la ruée vers l'or Ca commence par un litron, et ça écoule des tonnes Ca papote, ça crapote le premier paquet de cloppes Ca commence dans le chite, et ça finit dans la coke Ca commence par un bisou, ça finit par une pipe Plus de bisous, un strip pour des bijoux, des girls qui ce la joue Yeah! Monde pourri, tout pour les capitaux Partouse de notables à l'Elisée devant les chapitaux Ils ne jurent que par l'argent et le pétrole, zeubi Ca commence par l'Irak et ça finit par la Libye Rappeur qui a la dale, lâche pas l'affaire Ca commence dans une cave et ça remplie des salles de concerts Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes Dans les rues d'la vie, j'suis en pilotage, alcoolisé, mauvais ballotage Mon cur est noir, mon âme n otage et j'gamberg de fou dans le carénage Gardez vos couronnes, moi j'ai passé l'âge, pour percer dans l'jeu, pas b'soin d'parrainage On remplit des dômes et des Arena, toi tu es démodé comme les Carrera Trois millions poto par an, ça m'ira, j't'éclate les neurones comme la sativa Ça casse des verres comme dans barmitsva, une belle Morena, j'fume un Cohiba Elle est loin d'l'époque de la Córdoba, j'suis sur la corniche en Panamera Tu m'vois pas beaucoup, j'suis un diamant rare, j'suis un diamant rare, j'suis une uvre d'art J'éblouis ta route, j'ai les phares xénons, une question taraude mais c'est quoi ton nom ? Personne te connaît dans mon giron, tu es devant la roulette mais tu as pas d'jetons On a bon cur, on sait pas dire non, fais pas l'malin, prends pas pour un con À la base, poto, j'avais pas un rond, on a fait c'qu'il fallait dans la chanson You might also like On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre Enfoiré, j'peux plus t'encadrer, tu m'as trahi, tu as trop parlé J'aime bien kicker pour la forme, tu seras piqué comme à Fortnite J'vois sur ton front, y a la corne, tu es un courant d'air, j'suis une tornade Tu sors la guitare pour les charmé, gros on dirait un attardé Tu racontes trop de sornettes, tu sais même pas c'que c'est un Charley J'fais pas le mec bien, j'ai mes démons, tu fais la fille hlel, tout l'monde t'as té-mon À mort les traîtres, à mort les félons, j'ai la rage, mon regard en dit long On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes J'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre</t>
+          <t>On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes Dans les rues d'la vie, j'suis en pilotage, alcoolisé, mauvais ballotage Mon cur est noir, mon âme n otage et j'gamberg de fou dans le carénage Gardez vos couronnes, moi j'ai passé l'âge, pour percer dans l'jeu, pas b'soin d'parrainage On remplit des dômes et des Arena, toi tu es démodé comme les Carrera Trois millions poto par an, ça m'ira, j't'éclate les neurones comme la sativa Ça casse des verres comme dans barmitsva, une belle Morena, j'fume un Cohiba Elle est loin d'l'époque de la Córdoba, j'suis sur la corniche en Panamera Tu m'vois pas beaucoup, j'suis un diamant rare, j'suis un diamant rare, j'suis une uvre d'art J'éblouis ta route, j'ai les phares xénons, une question taraude mais c'est quoi ton nom ? Personne te connaît dans mon giron, tu es devant la roulette mais tu as pas d'jetons On a bon cur, on sait pas dire non, fais pas l'malin, prends pas pour un con À la base, poto, j'avais pas un rond, on a fait c'qu'il fallait dans la chanson On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre Enfoiré, j'peux plus t'encadrer, tu m'as trahi, tu as trop parlé J'aime bien kicker pour la forme, tu seras piqué comme à Fortnite J'vois sur ton front, y a la corne, tu es un courant d'air, j'suis une tornade Tu sors la guitare pour les charmé, gros on dirait un attardé Tu racontes trop de sornettes, tu sais même pas c'que c'est un Charley J'fais pas le mec bien, j'ai mes démons, tu fais la fille hlel, tout l'monde t'as té-mon À mort les traîtres, à mort les félons, j'ai la rage, mon regard en dit long On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes J'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>L'algérino - Un Sourrire Cache Une Larme Samedi soir, pleine lune les loups sortent de leur tanière Les louves se font belles s'habillent de la plus belle des manières Une semaine de labeur c'est comme un rituel Sortir le samedi soir pour évacuer le stress habituel Je suis pas d'humeur à m'amuser, mes potes mon tirer de mon bloc J'avais du mal à noircir les pages de mon bloc-note Je monte dans la caisse de manière nonchalante Mon esprit est ailleurs mon corps et bel est bien dans la calandre Je ferme les yeux quand je les ouvres je me retrouve en boite Aveuglé par les spots naturellement je crame une clope Ce soir je n'ai pas la tête à faire la fête les femelles se déhanchent Et les males dominant remuent leur crête J'gamberge et j'observe je fait les caméras isolées Je tombe sur une fille qui avait sans doute trop picolé Je zoom son visage m'est pas inconnu c'est la soeur à un tel elle a tourné la Tête quand elle m'a reconnue Elle se dirige vers les toilettes un mec la suit, pas besoin de faire un dessin On devine facilement la suite Et dire qu'elle devait se fiancé mais son mec la trompé depuis elle est tombé En dépression elle ne sait plus ce qu'elle fait Sexe, drogue, alcool, farine dans les narines la petite Carine est devenue accro À la cocaïne On apprendra plus tard qu'elle s'est suicidée dans sa baignoire Elle s'est taillée les veines, la drogue à tué tout ses espoirs You might also likeRefrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Mon champ de vision s'élargit je les vois tous éclatés l'oseille, ça danse Ça s'éclate, ça rit et ça se parle dans l'oreille Une serveuse se rapproche de moi et me propose un cigare bizarre elle me rappelle Quelqu'un donc je zoom sur son visage Ex-tentatrice victime de la matrice, la télé réalité tue les rêves ma Chérie la gloire est brève Elle était adulée les mois sont passés, se voyait star de cinéma mais elle a Sombré dans l'anonymat Dans ce monde d'illusion je prend du recul sur les choses Une fille me reconnait me demande une photo je tape une pose Je sort de mon corps je me vois dans ce foutu décor Parce qu'elle m'a vue à la télé elle me propose son corps Je suis là sans être là ! Observe ce que les gens ne voient pas Constate qu'il y a beaucoup de gens qui font semblant d'être ce qu'ils ne sont Pas Pour épater la galerie une mec gaspille en une soirée ce qu'un africain ne Gagnera jamais en toute une vie 5 bouteilles de Laurent Perrier, combien de gens en France vivent en dessous du Seuil de pauvreté ??!! Les gens se un collier de fleur sur le coup il branche la femme de son Meilleur pote juste pour tirer son coup Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Ok 3h du mat. l'ambiance est à son comble la chaleur m'étouffe je sort dans le Patio fumé une blonde Soudain y'a une embrouille mouvement de foule dans la salle les gens se Dispersent la tension monte et les verres claquent, bouteille de champ. dans la Tête Tête ! les videurs se pointent guettent un mec et le mettent à terre le gaz et Le ruine parterre le sortent direct de la boite et pour finir lui font danser la Tecktonik au chant du taser Mais ce soir ils sont tombés sur un chaud de la cuite revient calibré tire Pendant que les gens queue -Et la ça fait toujours les zorros ? Dire que les videurs risquent leur vie chaque soir pour 80 euros Bref ! Un mec me tape dans l'épaule me dit - Qu'est ce tu fou là ? Comment ça va gros ? Ça fait un bail, bois un coup C'est pour moi ! - Merci ! Et toi comment tu te porte ? - Ça pourrait aller mieux, ça fait un mois que ma femme m'a foutu à la porte Ça fait 10mois et je n'ai même plus de job, regarde mon RMI au fond de cette Bouteille de rhum, mon fils n'a même pas vu le jours qu'il a déjà un nouveau Père, j'ai l'aire heureux mais je noie mon chagrin dans les pacs de bière Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme 5h du mat. je rentre à l'heure ou le daron prie hachma je sens la clope, les Yeux rouges il a bien compris Je me dirige vers ma chambre et je m'allonge sur mon lit, j'allume une dernière Clope et je gamberge à cette vie</t>
+          <t>L'algérino - Un Sourrire Cache Une Larme Samedi soir, pleine lune les loups sortent de leur tanière Les louves se font belles s'habillent de la plus belle des manières Une semaine de labeur c'est comme un rituel Sortir le samedi soir pour évacuer le stress habituel Je suis pas d'humeur à m'amuser, mes potes mon tirer de mon bloc J'avais du mal à noircir les pages de mon bloc-note Je monte dans la caisse de manière nonchalante Mon esprit est ailleurs mon corps et bel est bien dans la calandre Je ferme les yeux quand je les ouvres je me retrouve en boite Aveuglé par les spots naturellement je crame une clope Ce soir je n'ai pas la tête à faire la fête les femelles se déhanchent Et les males dominant remuent leur crête J'gamberge et j'observe je fait les caméras isolées Je tombe sur une fille qui avait sans doute trop picolé Je zoom son visage m'est pas inconnu c'est la soeur à un tel elle a tourné la Tête quand elle m'a reconnue Elle se dirige vers les toilettes un mec la suit, pas besoin de faire un dessin On devine facilement la suite Et dire qu'elle devait se fiancé mais son mec la trompé depuis elle est tombé En dépression elle ne sait plus ce qu'elle fait Sexe, drogue, alcool, farine dans les narines la petite Carine est devenue accro À la cocaïne On apprendra plus tard qu'elle s'est suicidée dans sa baignoire Elle s'est taillée les veines, la drogue à tué tout ses espoirs Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Mon champ de vision s'élargit je les vois tous éclatés l'oseille, ça danse Ça s'éclate, ça rit et ça se parle dans l'oreille Une serveuse se rapproche de moi et me propose un cigare bizarre elle me rappelle Quelqu'un donc je zoom sur son visage Ex-tentatrice victime de la matrice, la télé réalité tue les rêves ma Chérie la gloire est brève Elle était adulée les mois sont passés, se voyait star de cinéma mais elle a Sombré dans l'anonymat Dans ce monde d'illusion je prend du recul sur les choses Une fille me reconnait me demande une photo je tape une pose Je sort de mon corps je me vois dans ce foutu décor Parce qu'elle m'a vue à la télé elle me propose son corps Je suis là sans être là ! Observe ce que les gens ne voient pas Constate qu'il y a beaucoup de gens qui font semblant d'être ce qu'ils ne sont Pas Pour épater la galerie une mec gaspille en une soirée ce qu'un africain ne Gagnera jamais en toute une vie 5 bouteilles de Laurent Perrier, combien de gens en France vivent en dessous du Seuil de pauvreté ??!! Les gens se un collier de fleur sur le coup il branche la femme de son Meilleur pote juste pour tirer son coup Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Ok 3h du mat. l'ambiance est à son comble la chaleur m'étouffe je sort dans le Patio fumé une blonde Soudain y'a une embrouille mouvement de foule dans la salle les gens se Dispersent la tension monte et les verres claquent, bouteille de champ. dans la Tête Tête ! les videurs se pointent guettent un mec et le mettent à terre le gaz et Le ruine parterre le sortent direct de la boite et pour finir lui font danser la Tecktonik au chant du taser Mais ce soir ils sont tombés sur un chaud de la cuite revient calibré tire Pendant que les gens queue -Et la ça fait toujours les zorros ? Dire que les videurs risquent leur vie chaque soir pour 80 euros Bref ! Un mec me tape dans l'épaule me dit - Qu'est ce tu fou là ? Comment ça va gros ? Ça fait un bail, bois un coup C'est pour moi ! - Merci ! Et toi comment tu te porte ? - Ça pourrait aller mieux, ça fait un mois que ma femme m'a foutu à la porte Ça fait 10mois et je n'ai même plus de job, regarde mon RMI au fond de cette Bouteille de rhum, mon fils n'a même pas vu le jours qu'il a déjà un nouveau Père, j'ai l'aire heureux mais je noie mon chagrin dans les pacs de bière Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme 5h du mat. je rentre à l'heure ou le daron prie hachma je sens la clope, les Yeux rouges il a bien compris Je me dirige vers ma chambre et je m'allonge sur mon lit, j'allume une dernière Clope et je gamberge à cette vie</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Yeah J'ai rien à foutre de la gloire j'veux mon pze et me tailler J'ai grandi dans la rue appelle-moi Hombre de la calle Short Quiksilver, maillot de l'OM, claquettes Sous le soleil à Mars fais péter la canette mec Clope au bec on fait les mias Dix mois de l'année à Mars, deux mois Vitres baissées, lunettes Ray Ban, chemise Temps des Cerises Petite liasse qui dépasse de mon jeans Levis J'apprécie la vie tout doucement Prends ton temps, détends-toi, j'te fais voyager en trois minutes trente Dans la caisse avec Kassim en train d'fumer, d'écouter du raï À l'arrière de la tire y a Aishwarya Rai Pleins phares sur la Corniche, j'rêve de tout et de rien Avec la ferme intention de mettre à l'abri les miens Une pensée a tous les galériens qui gambergent trop La vie est belle kho, prends-la comme elle vient kho You might also like Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua J'ai été élevé par une femme, j'suis marié à une femme J'ai procréé une femme, je suis leur premier fan J'suis prêt à liquider le poids d'un gosse en shit Pour qu'elles manquent de rien le jour où je rendrai l'âme Je doute de savoir bien les aimer J'suis le quartier, j'ai des mauvais repères, L'Algé J'suis néparano, j'veux voir la kikette à l'écho J'suis pas macho mais j'me connais trop Quand on refait le monde dans l'arrière de la caisse mec Chacun s'inquiète mais chacun encaisse mec On remet la peur à demain cousin Deux en un, j'ai les mains moites, je tiens le volant d'mon destin Moi j'y vois même sans phares xénon J'dois ramener la famille à l'autre bout L'or n'a pas remplacé l'pain J'suis comorien, la diaspora en Diadora sur l'terrain Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Entre les voyous dans les crimes, les tchatcheurs dans la frime Vingt-quatre années à Marseille, kho attaché a ma ville Croquer la vie à pleines dents en savourant chaque instant Les plus belles filles de ma ville y trainent à canipelle dans ? Wesh la famille, ça flex tranquille Pousse le son dans la gove, encaisse Envoie la caillasse qu'on s'mette à l'aise, papa Wesh faut que ça paga Tête cramée en Maserati et en costume Prada Yemma te fais plus de soucis pour ton fils Tenté par le vice, j'ai préféré vendre des disques Et si j'pars, retenez mes textes conscients Des fois j'm'égare à laisser parler la haine dans mes chansons Dis-leur, on laissera que le bon à nos familles l'Algé Incha'Allah frère Yeah... Vas-y Détends-toi ha ha ha Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua</t>
+          <t>Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Yeah J'ai rien à foutre de la gloire j'veux mon pze et me tailler J'ai grandi dans la rue appelle-moi Hombre de la calle Short Quiksilver, maillot de l'OM, claquettes Sous le soleil à Mars fais péter la canette mec Clope au bec on fait les mias Dix mois de l'année à Mars, deux mois Vitres baissées, lunettes Ray Ban, chemise Temps des Cerises Petite liasse qui dépasse de mon jeans Levis J'apprécie la vie tout doucement Prends ton temps, détends-toi, j'te fais voyager en trois minutes trente Dans la caisse avec Kassim en train d'fumer, d'écouter du raï À l'arrière de la tire y a Aishwarya Rai Pleins phares sur la Corniche, j'rêve de tout et de rien Avec la ferme intention de mettre à l'abri les miens Une pensée a tous les galériens qui gambergent trop La vie est belle kho, prends-la comme elle vient kho Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua J'ai été élevé par une femme, j'suis marié à une femme J'ai procréé une femme, je suis leur premier fan J'suis prêt à liquider le poids d'un gosse en shit Pour qu'elles manquent de rien le jour où je rendrai l'âme Je doute de savoir bien les aimer J'suis le quartier, j'ai des mauvais repères, L'Algé J'suis néparano, j'veux voir la kikette à l'écho J'suis pas macho mais j'me connais trop Quand on refait le monde dans l'arrière de la caisse mec Chacun s'inquiète mais chacun encaisse mec On remet la peur à demain cousin Deux en un, j'ai les mains moites, je tiens le volant d'mon destin Moi j'y vois même sans phares xénon J'dois ramener la famille à l'autre bout L'or n'a pas remplacé l'pain J'suis comorien, la diaspora en Diadora sur l'terrain Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Entre les voyous dans les crimes, les tchatcheurs dans la frime Vingt-quatre années à Marseille, kho attaché a ma ville Croquer la vie à pleines dents en savourant chaque instant Les plus belles filles de ma ville y trainent à canipelle dans ? Wesh la famille, ça flex tranquille Pousse le son dans la gove, encaisse Envoie la caillasse qu'on s'mette à l'aise, papa Wesh faut que ça paga Tête cramée en Maserati et en costume Prada Yemma te fais plus de soucis pour ton fils Tenté par le vice, j'ai préféré vendre des disques Et si j'pars, retenez mes textes conscients Des fois j'm'égare à laisser parler la haine dans mes chansons Dis-leur, on laissera que le bon à nos familles l'Algé Incha'Allah frère Yeah... Vas-y Détends-toi ha ha ha Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ma berline est allemande, ma sape vient d'Italie Prend pas d'cocaïne, on est bourrés de vitamines Frérot, à qui la faute? C'est ton pote qui t'la mise Posté devant le bloc, les p'tits en C.P. Company hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'prends le rap en otage, c'est la vida loca J'prends l'oseille et j'nachave, on s'rappelle à l'occas' Y a la BAC à l'étage, prépare bien le paquetage Frère, on est dans l'partage, j'fais chanter le virage J'suis en harmonie, j'fais de l'art money Ma chérie, viens que j't'armanise, te Louis vuittoner Du charisme, le flow est carré, ils ont beau me carrer J'suis pas cain-ri, non j'fais pas crari, Jerry quand c'est taré, non Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Okay Change les tarifs, zino, change les tarifs okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey You might also like Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'apparais comme par magie, par magie, on parle peu nous, on agit, on agit Parce que j'ai trop mal agi, mal agi, le fric, c'est trop maladif, maladif hey J'fais la diff' depuis qu'j'suis né, la fumée est inhalée Trois barres, je fais mon année, à faire des sous, j'suis condamné Le bolide est piloté, la brune côté passager, les p'tits du quartier la vendent et toi, tu t'la fous dans le nez, oui bébé Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Hey Change les tarifs, zino change les tarifs Okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company</t>
+          <t>Ma berline est allemande, ma sape vient d'Italie Prend pas d'cocaïne, on est bourrés de vitamines Frérot, à qui la faute? C'est ton pote qui t'la mise Posté devant le bloc, les p'tits en C.P. Company hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'prends le rap en otage, c'est la vida loca J'prends l'oseille et j'nachave, on s'rappelle à l'occas' Y a la BAC à l'étage, prépare bien le paquetage Frère, on est dans l'partage, j'fais chanter le virage J'suis en harmonie, j'fais de l'art money Ma chérie, viens que j't'armanise, te Louis vuittoner Du charisme, le flow est carré, ils ont beau me carrer J'suis pas cain-ri, non j'fais pas crari, Jerry quand c'est taré, non Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Okay Change les tarifs, zino, change les tarifs okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'apparais comme par magie, par magie, on parle peu nous, on agit, on agit Parce que j'ai trop mal agi, mal agi, le fric, c'est trop maladif, maladif hey J'fais la diff' depuis qu'j'suis né, la fumée est inhalée Trois barres, je fais mon année, à faire des sous, j'suis condamné Le bolide est piloté, la brune côté passager, les p'tits du quartier la vendent et toi, tu t'la fous dans le nez, oui bébé Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Hey Change les tarifs, zino change les tarifs Okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yeah, l'Algérino J'réside à MARSEILLE J'suis frais toute la semaine Lunettes Carrera J'traine les morceaux d'MC sous ma semelle On veut du cash monnaie Il y a des billets violets Poto c'est la crise Trop de flob ds ce bins Que dis-je On veut tout contrôler J'm'en fous du rap game Ma vie c'est du cash game Une paire d'as J'termine en full 10 000 la semaine Ils savent plus quoi rapper Mentalité carnassier Petit harbi veut tout niquer en France Mais comment t'expliquer Ma race fait peur à la nation Génération Mauvais garçon Warrior sorti des bastons Faut faut putain voir les dragons J'traverse les pâturages Moi j'accélère toi tu rames Passez-moi le micro Trop de mythos Dans les quartiers de France J'rallume la flamme You might also like 1.3 warrior Attitude warriorz Mentalité warrior MARSEILLE que des warriorX2 Est-ce que mes gars sont là ohh X3 MARSEILLE que des warrior Est-ce que mes gars sont là ohh X2 MARSEILLE que des warrior 100 kilos dans le A4 Pleins gaz sur la A7 N'essaie pas de nous mettre À l'amende on te découpe à la machette Grosse équipe de rageurs Pas de Audi S line On a le sang chaud Frère on a grandi sous le sunshine Si t'as plus la cote Tes ventes s'écroulent comme un château de cartes Tu t'écartes Pour ma part chui à fond Je défonce les portes Par tout les moyens il me faudra ma part Tu fait ton buzz sur Facebook J'fais mon buzz en concert À chaque fois qu'on m'invite les têtes de l'affiche ont le cul par terre Cme drive, j'reste fidèle au poste Appelle-moi M. le boss Patron d'une équipe de K-SOS Chaque fois que j't'entends c'est les bastos Dire que ces trous du cul représentent ma ville J'suis Marseille en personne de la Cayole à la Savine M.A.R.S one C'est la c'est la c'est les waouh C'est les techniques waouh J'fais qu'mon boulot Cogno ciao Qui t'as dit qu'j'étais dead Jack Sparrow on remet ça Niker vos mères patron des mers J'navigue en jet star 13000 cordes à mon arc Facile Je maîtrise mon art Trop d'style Je pète les radars Arrêtez de jacter fils de bâtard L'Algé baise l'état ta ta ta ta flow Beretta Est-ce que mes gars sont là que les quartiers d'France lèvent les bras</t>
+          <t>Yeah, l'Algérino J'réside à MARSEILLE J'suis frais toute la semaine Lunettes Carrera J'traine les morceaux d'MC sous ma semelle On veut du cash monnaie Il y a des billets violets Poto c'est la crise Trop de flob ds ce bins Que dis-je On veut tout contrôler J'm'en fous du rap game Ma vie c'est du cash game Une paire d'as J'termine en full 10 000 la semaine Ils savent plus quoi rapper Mentalité carnassier Petit harbi veut tout niquer en France Mais comment t'expliquer Ma race fait peur à la nation Génération Mauvais garçon Warrior sorti des bastons Faut faut putain voir les dragons J'traverse les pâturages Moi j'accélère toi tu rames Passez-moi le micro Trop de mythos Dans les quartiers de France J'rallume la flamme 1.3 warrior Attitude warriorz Mentalité warrior MARSEILLE que des warriorX2 Est-ce que mes gars sont là ohh X3 MARSEILLE que des warrior Est-ce que mes gars sont là ohh X2 MARSEILLE que des warrior 100 kilos dans le A4 Pleins gaz sur la A7 N'essaie pas de nous mettre À l'amende on te découpe à la machette Grosse équipe de rageurs Pas de Audi S line On a le sang chaud Frère on a grandi sous le sunshine Si t'as plus la cote Tes ventes s'écroulent comme un château de cartes Tu t'écartes Pour ma part chui à fond Je défonce les portes Par tout les moyens il me faudra ma part Tu fait ton buzz sur Facebook J'fais mon buzz en concert À chaque fois qu'on m'invite les têtes de l'affiche ont le cul par terre Cme drive, j'reste fidèle au poste Appelle-moi M. le boss Patron d'une équipe de K-SOS Chaque fois que j't'entends c'est les bastos Dire que ces trous du cul représentent ma ville J'suis Marseille en personne de la Cayole à la Savine M.A.R.S one C'est la c'est la c'est les waouh C'est les techniques waouh J'fais qu'mon boulot Cogno ciao Qui t'as dit qu'j'étais dead Jack Sparrow on remet ça Niker vos mères patron des mers J'navigue en jet star 13000 cordes à mon arc Facile Je maîtrise mon art Trop d'style Je pète les radars Arrêtez de jacter fils de bâtard L'Algé baise l'état ta ta ta ta flow Beretta Est-ce que mes gars sont là que les quartiers d'France lèvent les bras</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces le son du mariage contre les gens Banals les racas haine anti Cousine tu me cherche je suis au cabaret de l est ta vu ma location lacte et recta tu vu le henna et les menottes et on lui fait voir toute la couleur l'aminode met toi free ce soir je sors dormirai cher un pote ci elle m'ouvre pas la porte Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces pour mes peros de lyon a paname je suis a Marseille on vous passe le salem Ce soir je suis invité a Floride a palace je vais au hammame pour me mettrer je suis un halaf un petit degrader je suis un gros pub soucette sur la prada sur le prad'homme bloque les tubes et les fadas Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 You might also likeOn chante tous ensemble allez ho ho ho a chtah a chtah hya hya</t>
+          <t>Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces le son du mariage contre les gens Banals les racas haine anti Cousine tu me cherche je suis au cabaret de l est ta vu ma location lacte et recta tu vu le henna et les menottes et on lui fait voir toute la couleur l'aminode met toi free ce soir je sors dormirai cher un pote ci elle m'ouvre pas la porte Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces pour mes peros de lyon a paname je suis a Marseille on vous passe le salem Ce soir je suis invité a Floride a palace je vais au hammame pour me mettrer je suis un halaf un petit degrader je suis un gros pub soucette sur la prada sur le prad'homme bloque les tubes et les fadas Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 On chante tous ensemble allez ho ho ho a chtah a chtah hya hya</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Le charbon, le chantier, la pelle et marteau piqueur Y'en a marre on veut le million, ouais on veut des millions Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche J'fais des euros que des heureux cesse de déconner On grandit dans le besoin depuis qu'on a la hanouna pendue au nez Mais dit moi de quoi tu me parles ? L'argent fait pas le bonheur, oh taré On se lève la vie pour le fric faut la villa de mama sous les palmiers palmiers Quitte à écouler des kilos de pillons On est des tonnes à rechercher le filon Roh j'ai la dalle mon r'gard en dit long Tu me crois riche ? Tu me trouves mignon ? You might also like On veut tous s'échapper de la meeeerde J'rêvais d'une belle villa au bord de la mer J'ai pas les loves Faut du faut du faut du fric fric faut du blé faut de la monnaie x2 Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche A gauche un demi million à droite la carabine Tu m'as bien regardé ? J'ai la tête à faire du lèche-vitrine Faut faire du pognon Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche Refrain Faut des euros pour vivre Faut des euros pour kiffer Factures, huissiers, forfaits bloqués Wesh Wesh Rhey faut de la fraîche Rhey Je connais la dalle ah Faut d'l'oseille Pour les lovés y'a la famille qui se mord les lèvres Mord les lèvres Salamalikoum on a la dalle on part vivre nos rêves Vivre nos rêves Putain d'époque j'ai du mal à trouver le sommeil Obsédés jour et nuit on jure plus que par l'oseille T'inquiète mon pote c'est sur on les aura Hara y'a la BAC qui tourne cache la Selha</t>
+          <t>Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Le charbon, le chantier, la pelle et marteau piqueur Y'en a marre on veut le million, ouais on veut des millions Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche J'fais des euros que des heureux cesse de déconner On grandit dans le besoin depuis qu'on a la hanouna pendue au nez Mais dit moi de quoi tu me parles ? L'argent fait pas le bonheur, oh taré On se lève la vie pour le fric faut la villa de mama sous les palmiers palmiers Quitte à écouler des kilos de pillons On est des tonnes à rechercher le filon Roh j'ai la dalle mon r'gard en dit long Tu me crois riche ? Tu me trouves mignon ? On veut tous s'échapper de la meeeerde J'rêvais d'une belle villa au bord de la mer J'ai pas les loves Faut du faut du faut du fric fric faut du blé faut de la monnaie x2 Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche A gauche un demi million à droite la carabine Tu m'as bien regardé ? J'ai la tête à faire du lèche-vitrine Faut faire du pognon Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche Refrain Faut des euros pour vivre Faut des euros pour kiffer Factures, huissiers, forfaits bloqués Wesh Wesh Rhey faut de la fraîche Rhey Je connais la dalle ah Faut d'l'oseille Pour les lovés y'a la famille qui se mord les lèvres Mord les lèvres Salamalikoum on a la dalle on part vivre nos rêves Vivre nos rêves Putain d'époque j'ai du mal à trouver le sommeil Obsédés jour et nuit on jure plus que par l'oseille T'inquiète mon pote c'est sur on les aura Hara y'a la BAC qui tourne cache la Selha</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi Qui arrive en guerre, repart en paix Jette l'ancre quand mon cur chavire Mes sentiments en forme de fleur T'es le canon j'suis la cible Pour toi j'me mets le monde à dos J'te jure sur un sol la fa mi ré do Et comme l'a fait Hallyday On s'enterra sous le mirado Quand certaines choses ne vont pas Tu m'reproches le fait que j'parle pas Trop d'choses à dire mais j'peux pas Avec le temps ça passera Les mots sont censurés par fierté Oui oui j'pense dès que c'est par fierté J't'offrirai la lune pour t'épater Embrasse-moi en évitant les blablabla You might also like Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi</t>
+          <t>C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi Qui arrive en guerre, repart en paix Jette l'ancre quand mon cur chavire Mes sentiments en forme de fleur T'es le canon j'suis la cible Pour toi j'me mets le monde à dos J'te jure sur un sol la fa mi ré do Et comme l'a fait Hallyday On s'enterra sous le mirado Quand certaines choses ne vont pas Tu m'reproches le fait que j'parle pas Trop d'choses à dire mais j'peux pas Avec le temps ça passera Les mots sont censurés par fierté Oui oui j'pense dès que c'est par fierté J't'offrirai la lune pour t'épater Embrasse-moi en évitant les blablabla Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Jsai pas jtaime pas tu maime pas bravo bref faut faire du bif on a interet donc parlons zeille oh lalaYou might also like</t>
+          <t>Jsai pas jtaime pas tu maime pas bravo bref faut faire du bif on a interet donc parlons zeille oh lala</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Même chargé, ça contrôle le pilotage On aimerait tous se marier, laisser un bel héritage Pour pas mourir dans la calle, faudra poser l'étalage Beaucoup de frères ont serré, j'te jure, souhaite-nous du courage Yma, yema, yema, yema, yma, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Au fond, on est les mêmes, on fait les sourds quand on entend l'Eden On fait les sourds quand on entend l'Eden, calé dans la Volkswagen On d'mande pardon que quand c'est trop la merde, on d'mande pardon que quand c'est trop la merde Ouais, dans la masa, j'ai fumé ma peine, dans la masa, j'ai fumé ma haine Fais-moi les pinces, gros, j'ai l'morale en panne, y a que des poussettes, que des BDH Tu peux finir dans un coffre ou cribler de balles sur l'A7 Et ouais, Sam sur la mnzaze, au lieu d's'occuper d'la daronne, on fait qu'zigzaguer Ça pense qu'à faire du papier pour du tissu Versace Dehors, c'est la merde, les p'tits vendent la mort en p'tits sachets You might also like On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Ah, laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Na, da, da, da, da Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema yema La rue ne pardonne pas La rue ne pardonne pas</t>
+          <t>On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Même chargé, ça contrôle le pilotage On aimerait tous se marier, laisser un bel héritage Pour pas mourir dans la calle, faudra poser l'étalage Beaucoup de frères ont serré, j'te jure, souhaite-nous du courage Yma, yema, yema, yema, yma, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Au fond, on est les mêmes, on fait les sourds quand on entend l'Eden On fait les sourds quand on entend l'Eden, calé dans la Volkswagen On d'mande pardon que quand c'est trop la merde, on d'mande pardon que quand c'est trop la merde Ouais, dans la masa, j'ai fumé ma peine, dans la masa, j'ai fumé ma haine Fais-moi les pinces, gros, j'ai l'morale en panne, y a que des poussettes, que des BDH Tu peux finir dans un coffre ou cribler de balles sur l'A7 Et ouais, Sam sur la mnzaze, au lieu d's'occuper d'la daronne, on fait qu'zigzaguer Ça pense qu'à faire du papier pour du tissu Versace Dehors, c'est la merde, les p'tits vendent la mort en p'tits sachets On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Ah, laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Na, da, da, da, da Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema yema La rue ne pardonne pas La rue ne pardonne pas</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_LAlgérino_songs.xlsx
+++ b/data/02_intermediate/cleaned_LAlgérino_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>À la vie à l’amour</t>
+          <t>Laissé tomber</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sorties de janvierDry - Tant pis ft. Dadju Eddy de Pretto - Random Vald - Désaccordé Sofiane - Lundi Sofiane - Longue vie ft. Ninho Hornet la Frappe Soolking - Milano Vegedream - Marchand de sable part. 4 Du saal Sorties de févrierLartiste - Mafiosa ft. Caroliina Lorenzo - Bizarre ft. Vald Lorenzo - Tu le C Marwa Lourd - Bad boy Marwa Loud - Billet Moha la Squale - Bandolero Naps - Recherché SKG - Casa de papel Soolking - Guerilla Vald - Dragon ft. Sofiane Vald - Gris Sorties de marsBooba - Gotham Damso - Tieksvie Djadja Dinaz - J'souris DJ Kayz - Jour J ft. Wassila Scridge Gims - Corazón ft. French Montana Lil Wayne Gims - La même ft. Vianney Gims - Le pire Gims - Loup Garou ft. Sofiane Gims - Tu ne le vois pas ft. Dadju L'Algérino - Va bene Marwa Loud - Qu'est-ce que t'as ? Naps - Favela ft. Soolking Ninho - 44 ft. Yaro Ninho - Bavard Ninho - Boîte auto Ninho - Coffrer Ninho - Fendi Ninho - Mama No Cry Ninho - M.I.L.S 2.0 Ninho - Pavé Ninho - Un poco Ninho - Vrais Timal - Arrivant Vald - Eurotrap Sorties d'avrilAlonzo - Santana Aya Nakamura - Djadja Keblack - Complètement sonné Damso - Ipséité Lefa - Paradise ft. Lomepal Niska - Country RK - Tierquar Timal - Maria 4Keus - Mignon Garçon ft. Naza Dry Vald - Megadose Lacrim - Intocable Sorties de maiDosseh - Habitué Koba LaD - Ténébreux 1 Moha La Squale - Luna Naestro - Bella ciao ft. Gims, Slimane, Vitaa Dadju Naza - Ptain de mrde S.Pri Noir - Juste pour voir ft. Nekfeu Yaro - Bucci Night ft. Ninho Sorties de juin4Keus Gang - Midi dans le ghetto ft. Ninho Bigflo Oli x Petit Biscuit - Demain Damso - 60 années Damso - Baltringue Damso - Dix leurres Damso - Feu de bois Damso - Julien Damso - Silence ft. Angèle Damso - Smog DJ Babs - Tout est bon ft. 4 Keus JuL - Bwo JuL - Toto et Ninetta Koba LaD - Train de vie L'Algérino - Adios ft. Soolking PNL - À l'ammoniaque Vegedream - Mama he Sorties de juilletColumbine - Cache-Cache Dadju - Christina Dosseh - À chaque jour... Hornet la frappe - Taga KPoint - Ma 6t a craqué ft. Ninho Maes - Billets verts MHD - Bella ft. Wizkid Sofiane - Woah ft. Vald, Mac Tyer, Sadek, Soolking, Heuss L'enfoiré, Kalash Criminel Rim'K - Air Max ft. Ninho Still Fresh - Elle m'a dit ft. Haristone Sorties d'août4Keus Gang - Le temps passe Aya Nakamura - Copines Koba LaD - La C Niska - W.L.G PNL - 91's SCH - Otto Sorties de septembreColumbine - Adieu bientôt Hornet la frappe - Rolls ft. Lacrim Hornet la frappe - Sheitana ft. Ninho Josman - J'aime bien! Josman - XS Koba LaD - Chambre 122 Lomepal - 1000C ft. Roméo Elvis MHD - Bébé ft. Dadju RK - Bae Soolking - Dalida Soprano - À la vie à l'amour Suprême NTM - Sur le drapeau ft. Sofiane Sorties d'octobreBooba - BB Dadju - Jaloux Dadju - Trouvez-la moi ft. Keblack Fally Ipupa Maes - Madrina ft. Booba Maes - Avenue Montaigne PLK - Hier ft. SCH PLK - Monégasque SCH - Le code SCH - Prêt à partir ft. Ninho Zola - Ouais ouais Sorties de novembreAya Nakamura - Pookie Aya Nakamura - La dot Aya Nakamura - Whine Up Bigflo Oli - Plus tard Bigflo Oli - Sur la lune Bramsito - Sale mood ft. Booba GLK - Mauvais ft. Ninho Heuss L'enfoiré - L'enfoiré Imen Es - Attentat Maes - Mama Médine - KYLL ft. Booba OrelSan - Rêves bizarres ft. Damso Soprano - Le coach ft. Vincenzo Thérapie Taxi - Salope Sorties de décembreHeuss L'enfoiré - Les méchants JuL - Ma che beauté Lomepal - Beau la folie Lomepal - Évidemment Lomepal - La vérité ft. OrelSan Lomepal - Le vrai moi Lomepal - Ma cousin Lomepal - Mômes Lomepal - Ne me ramène pas Lomepal - Plus de larmes Lomepal - Trop beau Lomepal - X-Men ft. JeanJass</t>
+          <t>Je te sens bizarre, qu'est-ce qui t'arrive ? Pourquoi tu me fais cette tête denterrement ? Suis mon regarde, pourquoi tu m'esquives ? Toi qui disait m'aimer tellement Tu me dévisages comme un inconnu A croire que tu n'as plus de sentiment A mes messages tu ne réponds plus Mais qu'est-ce que sa veux dire ? Et on sétait promis la belle vie, ya omri Je te suis, toi tu me fuis C'est comme si, il n'y avait plus de magie Elle ma laissé tomber x5 Mais je vais me relevé J'ai des images quand je pense à cette fille J'ai l'impression de mettre mis dedans Elle me rends fou je l'avait sentis.. Que ce nétait pas la bonne Mon ami m'avait dit, pas cette fille Faut que tu oublies Elle fait plein de manis, des chichis, ta gadji Tu cavales les gucci, buscemi, la grande vie Je comprends plus cette fille, c'est fini Et tant pis Elle ma laissé tomber x5 Mais je vais me relevé x2 Oh waye waye waye waye yedi Oh waye waye waye waye yedi Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Elle ma laissé tomber x6 Mais je vais me relevé Elle ma laissé tomber Je vais la zaper Je vais l'oublié J'ai mes millions de côté Elle ma laissé tomber Mais je vais me relevé</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Laissé tomber</t>
+          <t>Tireur de coup franc</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Je te sens bizarre, qu'est-ce qui t'arrive ? Pourquoi tu me fais cette tête denterrement ? Suis mon regarde, pourquoi tu m'esquives ? Toi qui disait m'aimer tellement Tu me dévisages comme un inconnu A croire que tu n'as plus de sentiment A mes messages tu ne réponds plus Mais qu'est-ce que sa veux dire ? Et on sétait promis la belle vie, ya omri Je te suis, toi tu me fuis C'est comme si, il n'y avait plus de magie Elle ma laissé tomber x5 Mais je vais me relevé J'ai des images quand je pense à cette fille J'ai l'impression de mettre mis dedans Elle me rends fou je l'avait sentis.. Que ce nétait pas la bonne Mon ami m'avait dit, pas cette fille Faut que tu oublies Elle fait plein de manis, des chichis, ta gadji Tu cavales les gucci, buscemi, la grande vie Je comprends plus cette fille, c'est fini Et tant pis Elle ma laissé tomber x5 Mais je vais me relevé x2 Oh waye waye waye waye yedi Oh waye waye waye waye yedi Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Oh Elle ma laissé tomber x6 Mais je vais me relevé Elle ma laissé tomber Je vais la zaper Je vais l'oublié J'ai mes millions de côté Elle ma laissé tomber Mais je vais me relevé</t>
+          <t>Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Tireur de Coup franc spécialisé enveloppé dans la lucarne Le pied gauche à Adriano et le pied droit à Beckham Raconte pas tes histoires, cesse de mitonner Tout le monde te connais t'es cramé tes crochets sont téléphonés! yeahhh Zerma tu baises t'as du pèse ? Tu roules en grosse Ferrari tu oublies qu'on t'as prêté la caisse ! Tu vis au crochet du grand frère, lui il fait des sous! Détends-toi, reste sur terre, toi tu ne vaux pas un clou ! Zerma t'es gros, zerma tu vends le chit en gros Mais ça fait plus de 10 mois que tu me dois 50 euros ! Zerma tu es chaud, et tu fais le vaillant, la dernière fois qu'il y avait embrouille tu t'es taillé en cavalant ! tafiole! Zerma tu es frais, tu es fluide, et tu as beaucoup de ronds! Mais tu tu bébébéguéguaye quand il faut payer l'addition ! Zerma tu dis à tout le monde que tu es sorti avec elle, tu l'as même pas touché tu lui fais une réputation de chienne !!! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Et yo ! Zerma tu rappes, tu soulèves des altères ! Les minots te font la misère, balayette à coup de pied par terre ! A la télé tu fais le fier Dans le ter-ter tu n'es qu'une autruche ! Tête baissée, froc baissé, avec un micro dans l'anus ! Zerma tu fais la fille bien, hallal W, il sort la liasse tu mouilles direct le cuir du BMW ! Rien que tu te fais soulever, dans tous les quartiers t'es cramé ! Tu veux cacher tes dossiers pour essayer d'te marier Zerma tu sappes la race mais tu ne fais que coffrer Dernière sappe, les poches vides, pas de quoi payer un café Au resto tu part aux toilettes, quand il s'agit de payer ! T'as oublié ton porte-monnaie, ouais tout le monde l'a connait ! Elle a 25 ans, méchant appartement, zerma c'est la fille la plus côté du département! Lunettes Prada, Smart, Casa, woula de la bombe khoya Je l'ai rencontré au Dallas gros ! Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Zerma tu es plein de connaissances et tu es plein d'affaires! Tu as vendus 2-3 portables tu te prends pour un homme d'affaires! Parait que tu connais du monde, tu connais un tel et un tel ! Tu es devenu tout rouge, t'as bégayé quand je t'ai passé au tel ! Ohhh il est où Hamou ? Il est parti aux Etats-Unis, avec deux-trois potos à lui, sous le soleil de Miami ! Putain, arrête tes mitos ! J'ai sonné chez lui, sa mère m'a ditHa Samir , wouldi il est parti en kabylie hein! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Espèce de tireur de coup franc ! Tu es un gros mythomane tu crois qu'on le sais pas ça ou quoi? Ahhh on sait que tu te reconnais quand tu écoutes ce morceau la famille ! Ca raconte les histoires, ahh les histoires ! Toujours, toujours ! Ce soir les rappeurs qui disent que c'est des voyous ! Les politiciens. On attend toujours le pouvoir d'achat...moins cher ! Ce soir les mecs, les filles, dans la vie normale, il y a toujours des gros mythomanes, des gros tireurs de coups francs ! L'Algérino! Marseille !</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tireur de coup franc</t>
+          <t>Avec le sourire</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Tireur de Coup franc spécialisé enveloppé dans la lucarne Le pied gauche à Adriano et le pied droit à Beckham Raconte pas tes histoires, cesse de mitonner Tout le monde te connais t'es cramé tes crochets sont téléphonés! yeahhh Zerma tu baises t'as du pèse ? Tu roules en grosse Ferrari tu oublies qu'on t'as prêté la caisse ! Tu vis au crochet du grand frère, lui il fait des sous! Détends-toi, reste sur terre, toi tu ne vaux pas un clou ! Zerma t'es gros, zerma tu vends le chit en gros Mais ça fait plus de 10 mois que tu me dois 50 euros ! Zerma tu es chaud, et tu fais le vaillant, la dernière fois qu'il y avait embrouille tu t'es taillé en cavalant ! tafiole! Zerma tu es frais, tu es fluide, et tu as beaucoup de ronds! Mais tu tu bébébéguéguaye quand il faut payer l'addition ! Zerma tu dis à tout le monde que tu es sorti avec elle, tu l'as même pas touché tu lui fais une réputation de chienne !!! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Et yo ! Zerma tu rappes, tu soulèves des altères ! Les minots te font la misère, balayette à coup de pied par terre ! A la télé tu fais le fier Dans le ter-ter tu n'es qu'une autruche ! Tête baissée, froc baissé, avec un micro dans l'anus ! Zerma tu fais la fille bien, hallal W, il sort la liasse tu mouilles direct le cuir du BMW ! Rien que tu te fais soulever, dans tous les quartiers t'es cramé ! Tu veux cacher tes dossiers pour essayer d'te marier Zerma tu sappes la race mais tu ne fais que coffrer Dernière sappe, les poches vides, pas de quoi payer un café Au resto tu part aux toilettes, quand il s'agit de payer ! T'as oublié ton porte-monnaie, ouais tout le monde l'a connait ! Elle a 25 ans, méchant appartement, zerma c'est la fille la plus côté du département! Lunettes Prada, Smart, Casa, woula de la bombe khoya Je l'ai rencontré au Dallas gros ! Ouais ouais c'est ça ! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Zerma tu es plein de connaissances et tu es plein d'affaires! Tu as vendus 2-3 portables tu te prends pour un homme d'affaires! Parait que tu connais du monde, tu connais un tel et un tel ! Tu es devenu tout rouge, t'as bégayé quand je t'ai passé au tel ! Ohhh il est où Hamou ? Il est parti aux Etats-Unis, avec deux-trois potos à lui, sous le soleil de Miami ! Putain, arrête tes mitos ! J'ai sonné chez lui, sa mère m'a ditHa Samir , wouldi il est parti en kabylie hein! REFRAIN Paraît que tu baises qu't'as du pèse !Ouais ouais c'est ça ! Tu as encore oublié ta carte bleue! Ouais ouais c'est ça ! Tu dis que t'es sorti avec elle Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Paraît que tu baises qu't'as du pèse ! Ouais ouais c'est ça ! Paraît que t'es un gros voyouOuais ouais c'est ça ! Tu es une fille bien et tu m'aimes Ouais ouais c'est ça ! Tout le monde te connais t'es cramé tes crochets sont téléphonés! Espèce de tireur de coup franc ! Tu es un gros mythomane tu crois qu'on le sais pas ça ou quoi? Ahhh on sait que tu te reconnais quand tu écoutes ce morceau la famille ! Ca raconte les histoires, ahh les histoires ! Toujours, toujours ! Ce soir les rappeurs qui disent que c'est des voyous ! Les politiciens. On attend toujours le pouvoir d'achat...moins cher ! Ce soir les mecs, les filles, dans la vie normale, il y a toujours des gros mythomanes, des gros tireurs de coups francs ! L'Algérino! Marseille !</t>
+          <t>Yeah, yeah, yeah Sur la tête de ma mère Yéhéhé Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Ah Salamalékoum mes frères et mes sistah Toujours le sourire non ne plie pas, ne casse pas On nous bassine trop avec Sarko et Carla Pendant que l'Afrique saigne d'un sang rouge écarlate Yéhéhé on vit une saleté d'époque Ca saigne dans les 4 coins du globe Donc j'lève mon verre à la santé d'la Terre Mon Dieu que le monde souffre sur la tête de ma mère Mon frère faut de l'or, ma soeur faut de l'or Ils nous voient comme d'la chair, il pleut des obus dehors La liberté un trésor, reggae dans la golf Le poing serré et fier comme dit bob one love Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Je demande trois minutes de reggae, pour les frères disparus Pour la jeunesse du monde qui manifeste dans la rue Le combat continue et il s'annonce terrible Le diable nous charme et prend la forme de Katy Perry Comme ça tue un arbi qui chante du reggae Ca c'est pour les frangins enfermés de Marseille a Paname La Terre tremble peut-être la tectonique des plaques Peut-être le châtiment pour avoir oppressé mes frères blacks Oh Marine, on aura ta peau On formera un seul coeur, un seul corps un seul drapeau Message de la France d'en bas pour la France d'en haut Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir2</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Avec le sourire</t>
+          <t>Trinité</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Sur la tête de ma mère Yéhéhé Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Ah Salamalékoum mes frères et mes sistah Toujours le sourire non ne plie pas, ne casse pas On nous bassine trop avec Sarko et Carla Pendant que l'Afrique saigne d'un sang rouge écarlate Yéhéhé on vit une saleté d'époque Ca saigne dans les 4 coins du globe Donc j'lève mon verre à la santé d'la Terre Mon Dieu que le monde souffre sur la tête de ma mère Mon frère faut de l'or, ma soeur faut de l'or Ils nous voient comme d'la chair, il pleut des obus dehors La liberté un trésor, reggae dans la golf Le poing serré et fier comme dit bob one love Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Je demande trois minutes de reggae, pour les frères disparus Pour la jeunesse du monde qui manifeste dans la rue Le combat continue et il s'annonce terrible Le diable nous charme et prend la forme de Katy Perry Comme ça tue un arbi qui chante du reggae Ca c'est pour les frangins enfermés de Marseille a Paname La Terre tremble peut-être la tectonique des plaques Peut-être le châtiment pour avoir oppressé mes frères blacks Oh Marine, on aura ta peau On formera un seul coeur, un seul corps un seul drapeau Message de la France d'en bas pour la France d'en haut Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Rien ne sert de courir Je chante la misère avec le sourire On passe du rire aux larmes, égarés dans les flammes Vu qu'la politique se fout de c'qui s'passe sur l'macadam Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Yéhéhé wohoho Rien ne sert de courir2</t>
+          <t>Elle est celle qui m'a porté neuf mois dans ses entrailles La seule femme qui porte pour moi un amour sans failles Celle qui m'a vu pleurer pour la première fois Celle qui m'a couvé, changé les couches, couvert quand j'avais froid Celle qui m'a vu faire mes premiers pas Celle qui a entendu le premier mot sortir de ma bouche Yama Aucune phrase ne peut définir une créature aussi belle Son regard est plus étincelant qu'une étoile dans le ciel Celle qui surgit tel un oasis dans le désert Rien n'est plus confortable que le cur d'une mère La chair de ma chair, celle qu'est fière quand je réussis Le paradis est à ses pied, la combler sera ma réussite Dire que je t'ai causé tant de tracas, tant de soucis Puisse Dieu, pardonner ton fils omri L'amour d'une mère, l'ingratitude d'un enfant Parait que je connaitrai ta valeur que quand j'aurais des enfants Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Elle est celle qui me conseille malgré son jeune âge J'ai lu dans son regard, aujourd'hui c'est devenu une femme Celle pour qui je donnerais ma vie et vice versa Je t'ai vue dans un berceau, je t'ai même cajolée dans mes bras Je t'ai même changé les couches, c'est fou comme le temps passe Celle qui me console quand mon cur était dans l'impasse Dur fut ton combat, tu portes le hijab de ton plein gré Ni père ni mère, t'a obligé à le porter Celle qui a la télé entrée tard à limer Je t'ai vue souffrir, partir en courant, lever le foulard le cur serré Celle qui me dit grand frère, surveille tes écrits Les petits frères t'écoutent en boucle, soigne ton langage et tes dires Ma sur, je te dédie ses quelques mesures Je sais que tu partiras un jour te marier à ton tour J'espère que tu tomberas sur l'homme qui te mérite J'en suis déjà jaloux Ton futur mari sera tombé sur un bijou Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Elle est celle qui a su me comprendre, qui a su m'accepter Malgré mes milliards de défauts, elle voit qu'en moi des qualités Des femmes, j'ai été écuré, j'ai sombré dans la haine C'est celle qui m'a ouvert son cur et j'ai réappris à aimer Celle qui m'a fait comprendre que les fleurs sont pas qu'à faner Le meilleur compromis entre l'amour et l'amitié Celle qui est ma moitié, sur celle sur qui je peux compter Celle qui est folle de Samir et qui en a rien à foutre de L'Alger' Celle qui me donnerait tout sans attendre rien en retour Mon rayon de soleil quand je suis dans les ténèbres en bas des tours Celle que j'appelle et qui est déjà en train de m'appeler Moi est ma belle m'amène, on s'aiment doublement en double appel Le mariage, c'est la moitié de la foi Parait qu'on peut être heureux en couple sans or et cent fois Sanctuaire de la procréation Tu portes peut-être mon enfant dans tes entrailles, j'en ai déjà des frissons Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Trinité</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Trinité</t>
+          <t>Désolé mama</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Elle est celle qui m'a porté neuf mois dans ses entrailles La seule femme qui porte pour moi un amour sans failles Celle qui m'a vu pleurer pour la première fois Celle qui m'a couvé, changé les couches, couvert quand j'avais froid Celle qui m'a vu faire mes premiers pas Celle qui a entendu le premier mot sortir de ma bouche Yama Aucune phrase ne peut définir une créature aussi belle Son regard est plus étincelant qu'une étoile dans le ciel Celle qui surgit tel un oasis dans le désert Rien n'est plus confortable que le cur d'une mère La chair de ma chair, celle qu'est fière quand je réussis Le paradis est à ses pied, la combler sera ma réussite Dire que je t'ai causé tant de tracas, tant de soucis Puisse Dieu, pardonner ton fils omri L'amour d'une mère, l'ingratitude d'un enfant Parait que je connaitrai ta valeur que quand j'aurais des enfants Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une mère Elle est celle qui me conseille malgré son jeune âge J'ai lu dans son regard, aujourd'hui c'est devenu une femme Celle pour qui je donnerais ma vie et vice versa Je t'ai vue dans un berceau, je t'ai même cajolée dans mes bras Je t'ai même changé les couches, c'est fou comme le temps passe Celle qui me console quand mon cur était dans l'impasse Dur fut ton combat, tu portes le hijab de ton plein gré Ni père ni mère, t'a obligé à le porter Celle qui a la télé entrée tard à limer Je t'ai vue souffrir, partir en courant, lever le foulard le cur serré Celle qui me dit grand frère, surveille tes écrits Les petits frères t'écoutent en boucle, soigne ton langage et tes dires Ma sur, je te dédie ses quelques mesures Je sais que tu partiras un jour te marier à ton tour J'espère que tu tomberas sur l'homme qui te mérite J'en suis déjà jaloux Ton futur mari sera tombé sur un bijou Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une sur Elle est celle qui a su me comprendre, qui a su m'accepter Malgré mes milliards de défauts, elle voit qu'en moi des qualités Des femmes, j'ai été écuré, j'ai sombré dans la haine C'est celle qui m'a ouvert son cur et j'ai réappris à aimer Celle qui m'a fait comprendre que les fleurs sont pas qu'à faner Le meilleur compromis entre l'amour et l'amitié Celle qui est ma moitié, sur celle sur qui je peux compter Celle qui est folle de Samir et qui en a rien à foutre de L'Alger' Celle qui me donnerait tout sans attendre rien en retour Mon rayon de soleil quand je suis dans les ténèbres en bas des tours Celle que j'appelle et qui est déjà en train de m'appeler Moi est ma belle m'amène, on s'aiment doublement en double appel Le mariage, c'est la moitié de la foi Parait qu'on peut être heureux en couple sans or et cent fois Sanctuaire de la procréation Tu portes peut-être mon enfant dans tes entrailles, j'en ai déjà des frissons Refrain Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Gardien de mon cur, garant de mon bonheur Tu es forte et courageuse et tu marches fière Rien n'est plus confortable que le cur d'une femme Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Princesse de ce monde, princesse de mon royaume Garant de mon bonheur Rien n'est plus confortable que le cur D'une mère, d'une femme, d'une sur Trinité</t>
+          <t>La vie cest marche ou crève Blasé je marche seul Ton amitié dans un sac poubelle Touche à ma famille je te baise Une seule femme que jaime Une autre femme qui saime Une qui ma donné le sein Lautre qui pleure pour son sac à main Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Mama ma éduquée, la rue ma égarée Je traine avec des têtes cramés Si jétais un enculé ça se saurait Jai envie de menvoler, mais je porte le poids de mes pêchés Jai peur du retour de flamme Mama je suis pas le fils dont tas rêvé Mama je sais plus ou aller Mama je suis perdu je sais plus à qui me confier Mama je parle tout seul ils me prennent pour un taré Jai rêvé que le paradis était sous tes pieds Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Hey, désolé mama Hey, désolé mama Hey, désolé mama Hey, désolé mama Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes1</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Désolé mama</t>
+          <t>Dérapage contrôlé</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La vie cest marche ou crève Blasé je marche seul Ton amitié dans un sac poubelle Touche à ma famille je te baise Une seule femme que jaime Une autre femme qui saime Une qui ma donné le sein Lautre qui pleure pour son sac à main Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Mama ma éduquée, la rue ma égarée Je traine avec des têtes cramés Si jétais un enculé ça se saurait Jai envie de menvoler, mais je porte le poids de mes pêchés Jai peur du retour de flamme Mama je suis pas le fils dont tas rêvé Mama je sais plus ou aller Mama je suis perdu je sais plus à qui me confier Mama je parle tout seul ils me prennent pour un taré Jai rêvé que le paradis était sous tes pieds Poto, je tai cerné Tu mas trahi quand je tai aidé La vie ma épuisé, si seulement je lavais écouté Désolé mama Je tourne et je tourne et je fais les cents pas, hey Désolé mama Je cours et cours mais je fais du surplace, hey Désolé mama Je sais pas tout ces gens, moi je les sens pas, hey Désolé mama Tu as raison, cette vie nest pas faite pour moi Hey, désolé mama Hey, désolé mama Hey, désolé mama Hey, désolé mama Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes Petit ça va aller Cest la vie, cest le monde, cest les hommes Cest la vie, cest le monde, cest les hommes1</t>
+          <t>Les gens me parle de la rue Moi j'y ai vécu et j'ai tout perdu Chaque jour que Dieu fait Je me lève avec pleins de regrets Et je porte cette trace Que même le temps ne pourra effacer J'ai fait souffrir ma mère Que Dieu me pardonne, elle a vieilli avant l'age C'est vrai j'ai fait de l'argent Mais à quel prix j'ai fait couler le sang La prison c'est la merde Et dehors c'est la mort Crois moi la rue ça a rien de glorieux mon frère L'an dernier j'ai même enterré mon petit frère Que Dieu nous pardonne et nous guide Tu as tout juste 15 ans, tu es dans une famille nombreuse Tu vois le daron bosser dur pour remplir le frigo Tu as grandi dans un quartier Pour toi c'est les mêmes saisons Tu ne vois que du béton des grands roulés des bédos Tu as rien à foutre de l'école pourtant pas plus con qu'un autre Collectionne les heures de colles au lieu de ramener des bonnes notes La daronne s'fait du souci Elle a déjà vu ton grand frère tomber pour des conneries Vendre des barrettes de shit Peur de voir le même schéma se reproduire Elle te fait la morale jour et nuit pour t'éviter le pire Mais toi tu as la tête dure, tu dis maman t'inquiètes pas J'ai intérêt de marcher droit, j'ai peur des roustes de Papa Tu traines avec tes amis d'enfance comme tes frangins Tu as de l'intérêt que pour le foot et les gros engins Tu fais la prière et tu as peur du bon Dieu Tu es un jeune sans histoire et tu as le respect des grands frères Mais les grands frères se font des sous et les sous ça rend fou Toi aussi il te faut du flouze pour t'acheter les dernières shoes Tu t'mets à faire des p'tis coups, des p'tis trucs de p'tit con Des arrachés de sac à des vieilles qui n'ont que 6 sous Des vieilles qui peuvent être ta mère, ça tu n'en as rien à braire Tu fumes ta première cigarette et bois ta première bière Tu as arrêter la prière, tu commences à faire le fier Tu te mets à tenir les blocs, le quartier devient ton fief 18 piges tu commences à avoir des pulsions Attiré par les gazelles et les gazelles te trouvent mignon Fashion, tu as la crête, gel sur la tête Tu travailles les pecs la famille, le fameux bsahtek Ton répertoire est plein de gadji des biens, des khemja Tu fais plus la différence entre les filles biens et les filles d'joie Manque de peau, tu tombes sur une fille qui a beaucoup de vice Au lit c'est l'extase te fait gouter aux premiers délices T'enchaines les délits, tu veux la mettre à l'aise ELLE Tu pars au charbon et comme Laouni tu tombais pour elle Premier séjour en prison, le père au parloir Tu en as des frissons, tu gamberges, tu en dors plus le soir T'enchaines les pétards, anesthésie mentale Tu ressors de cage comme un zombie Les yeux rouges et les doigts jaunis Retour à la case départ Retour à la casa Atmosphère électrique c'est la guerre comme à Gaza Tu respectes plus ton père, tu cries sur ta mère Sur ta sur dehors ta dulcinée te fait la misère La daronne ne dort plus, elle a des ulcères Ce mal qu'elle intériorise se transforme même en cancer Premier choc tu la vois à l'hosto sous chimiothérapie Tu as de la peine et tu en veux à la vie Même sur son lit d'hôpital elle pense à toi Soucieuse de ton futur et de ce que tu adviendras Épreuves sur épreuves même ton père perd son boulot Plus de fric à la baraque et tu veux écouler des kilos de shit En équipe, ça s'organise en réseau Rencontre un gros caïd qui t'avancera du liquide Survet', sacoche Lacoste, et paire de requin Tu es qu'un petit poisson dans un milieu de requins Arme à la main tu fais le voyou Mais tu es que le tapin d'un gros voyou Tu as beaucoup de fric mais aussi beaucoup de jaloux Les premiers à baiser ta femme quand tu te fais écrouer Les mêmes qui déboulent en moto cagoulés pour te fumer C'est la loi du métier d'ailleurs dans une fusillade Tu perds ton meilleur ami et tu te mets à gamberger Tu penses à te retirer mais la fierté te retient Recherché tu pars en Espagne avec le butin Tu vis la vie de rêve, les belles villas à Marbella Tu te vides sur les belles signora de la Jonchera De temps en temps tu prends des nouvelles de ta famille Le grand frère s'est rangé et taffe, et ta mère en est ravie Il a même embrassé l'Islam et porte la Sunna Veut envoyer les parents à la Mecque et à Médina Dès que t'entends ça c'est le déclic ton cur s'ouvre Marre de ce vice tu te rends compte que tu souffres Tu repars à Marseille les accueillir à leur retour Aéroport de Marignane, les anges sont de retour Les pèlerins sont vêtus de blanc, visages illuminés Ta mère te sert dans ses bras, tu ressens de la piété Tu as des frissons dans le corps, tu as des regrets dans le cur Tu demandes pardon à ton père et tu embrasses ta petite sur Tu regardes ton frangin tu dis qu'est-ce qu'il a changé, c'est devenu un mec bien Tu as envie de lui ressembler, stopper cette vie malsaine, tu fais le bilan La cavale ça coute cher et tu as claqué tout ton argent Toutes ces années de charbon, de risques, de pression Est-ce que ça valait le coup donc tu te remets en question Tu as envie de changer, tu décides de te ranger Mais des mecs avec qui tu as eu des litiges veulent se venger Mais le temps passe les gens te voient plus de la même façon Les rancunes s'effacent, Dieu guide qui il veut de toute façon Et ouais l'Algé tu as raison mon frère Y'a toujours une issue Moi j'ai fait de la prison J'ai pas supporté j'ai pété les plombs 12 ans d'hôpital psychiatrique Pour avoir été mal compris Mais hamdoullah aujourd'hui je m'y remets petit à petit Tant qu'y a de la vie y' a de l'espoir Et tant qui y' a de l'espoir Il y est toujours possible de sortir de ce trou noir PEACE1</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dérapage contrôlé</t>
+          <t>Sapapaya</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Les gens me parle de la rue Moi j'y ai vécu et j'ai tout perdu Chaque jour que Dieu fait Je me lève avec pleins de regrets Et je porte cette trace Que même le temps ne pourra effacer J'ai fait souffrir ma mère Que Dieu me pardonne, elle a vieilli avant l'age C'est vrai j'ai fait de l'argent Mais à quel prix j'ai fait couler le sang La prison c'est la merde Et dehors c'est la mort Crois moi la rue ça a rien de glorieux mon frère L'an dernier j'ai même enterré mon petit frère Que Dieu nous pardonne et nous guide Tu as tout juste 15 ans, tu es dans une famille nombreuse Tu vois le daron bosser dur pour remplir le frigo Tu as grandi dans un quartier Pour toi c'est les mêmes saisons Tu ne vois que du béton des grands roulés des bédos Tu as rien à foutre de l'école pourtant pas plus con qu'un autre Collectionne les heures de colles au lieu de ramener des bonnes notes La daronne s'fait du souci Elle a déjà vu ton grand frère tomber pour des conneries Vendre des barrettes de shit Peur de voir le même schéma se reproduire Elle te fait la morale jour et nuit pour t'éviter le pire Mais toi tu as la tête dure, tu dis maman t'inquiètes pas J'ai intérêt de marcher droit, j'ai peur des roustes de Papa Tu traines avec tes amis d'enfance comme tes frangins Tu as de l'intérêt que pour le foot et les gros engins Tu fais la prière et tu as peur du bon Dieu Tu es un jeune sans histoire et tu as le respect des grands frères Mais les grands frères se font des sous et les sous ça rend fou Toi aussi il te faut du flouze pour t'acheter les dernières shoes Tu t'mets à faire des p'tis coups, des p'tis trucs de p'tit con Des arrachés de sac à des vieilles qui n'ont que 6 sous Des vieilles qui peuvent être ta mère, ça tu n'en as rien à braire Tu fumes ta première cigarette et bois ta première bière Tu as arrêter la prière, tu commences à faire le fier Tu te mets à tenir les blocs, le quartier devient ton fief 18 piges tu commences à avoir des pulsions Attiré par les gazelles et les gazelles te trouvent mignon Fashion, tu as la crête, gel sur la tête Tu travailles les pecs la famille, le fameux bsahtek Ton répertoire est plein de gadji des biens, des khemja Tu fais plus la différence entre les filles biens et les filles d'joie Manque de peau, tu tombes sur une fille qui a beaucoup de vice Au lit c'est l'extase te fait gouter aux premiers délices T'enchaines les délits, tu veux la mettre à l'aise ELLE Tu pars au charbon et comme Laouni tu tombais pour elle Premier séjour en prison, le père au parloir Tu en as des frissons, tu gamberges, tu en dors plus le soir T'enchaines les pétards, anesthésie mentale Tu ressors de cage comme un zombie Les yeux rouges et les doigts jaunis Retour à la case départ Retour à la casa Atmosphère électrique c'est la guerre comme à Gaza Tu respectes plus ton père, tu cries sur ta mère Sur ta sur dehors ta dulcinée te fait la misère La daronne ne dort plus, elle a des ulcères Ce mal qu'elle intériorise se transforme même en cancer Premier choc tu la vois à l'hosto sous chimiothérapie Tu as de la peine et tu en veux à la vie Même sur son lit d'hôpital elle pense à toi Soucieuse de ton futur et de ce que tu adviendras Épreuves sur épreuves même ton père perd son boulot Plus de fric à la baraque et tu veux écouler des kilos de shit En équipe, ça s'organise en réseau Rencontre un gros caïd qui t'avancera du liquide Survet', sacoche Lacoste, et paire de requin Tu es qu'un petit poisson dans un milieu de requins Arme à la main tu fais le voyou Mais tu es que le tapin d'un gros voyou Tu as beaucoup de fric mais aussi beaucoup de jaloux Les premiers à baiser ta femme quand tu te fais écrouer Les mêmes qui déboulent en moto cagoulés pour te fumer C'est la loi du métier d'ailleurs dans une fusillade Tu perds ton meilleur ami et tu te mets à gamberger Tu penses à te retirer mais la fierté te retient Recherché tu pars en Espagne avec le butin Tu vis la vie de rêve, les belles villas à Marbella Tu te vides sur les belles signora de la Jonchera De temps en temps tu prends des nouvelles de ta famille Le grand frère s'est rangé et taffe, et ta mère en est ravie Il a même embrassé l'Islam et porte la Sunna Veut envoyer les parents à la Mecque et à Médina Dès que t'entends ça c'est le déclic ton cur s'ouvre Marre de ce vice tu te rends compte que tu souffres Tu repars à Marseille les accueillir à leur retour Aéroport de Marignane, les anges sont de retour Les pèlerins sont vêtus de blanc, visages illuminés Ta mère te sert dans ses bras, tu ressens de la piété Tu as des frissons dans le corps, tu as des regrets dans le cur Tu demandes pardon à ton père et tu embrasses ta petite sur Tu regardes ton frangin tu dis qu'est-ce qu'il a changé, c'est devenu un mec bien Tu as envie de lui ressembler, stopper cette vie malsaine, tu fais le bilan La cavale ça coute cher et tu as claqué tout ton argent Toutes ces années de charbon, de risques, de pression Est-ce que ça valait le coup donc tu te remets en question Tu as envie de changer, tu décides de te ranger Mais des mecs avec qui tu as eu des litiges veulent se venger Mais le temps passe les gens te voient plus de la même façon Les rancunes s'effacent, Dieu guide qui il veut de toute façon Et ouais l'Algé tu as raison mon frère Y'a toujours une issue Moi j'ai fait de la prison J'ai pas supporté j'ai pété les plombs 12 ans d'hôpital psychiatrique Pour avoir été mal compris Mais hamdoullah aujourd'hui je m'y remets petit à petit Tant qu'y a de la vie y' a de l'espoir Et tant qui y' a de l'espoir Il y est toujours possible de sortir de ce trou noir PEACE1</t>
+          <t>- Eh, mira, mira, mira, tu passes à côté de quelque chose là ! Tu louches ou quoi ? - Donne-moi une blonde, le sang - Oyé, Sapapaya, ça vous dirait un icecream avec mon ami et moi ? Les gros illégaux, RS6, kilos d'coke au port, autonome Calibré dans l'carré, sa mère un biopic C'est la street, enculé, comme une R19 sur la tirette du Crédit Agricole On fait des millions, pas d'patron, les frères avocats ou narco' On baise les juges et les matons, on fait du biff, on parle pas trop Les cartes, on les mélange dans les cartons Le son des marioles, de la Savine à la Cayolle BM M4, quatre sons de voyous dans la bagnole Ça sort le FAMAS pour la famax C'est Johnny Hama, équipé comme le Hamas À l'époque, le visio' nous avait pointé On a racheté la boîte evidamente Et ouais, ma race, on a le son qui arrache Tu veux jouer à la vache, mets pas ton nez dans la mâche Dans l'son, j'arrive comme Omar dans The Wire On veut la Champion's League comme l'OM et le Bayern Mon son dans le Cayenne S, j'suis avec le L et le S Mode S, il percute, Ali Boumayé Ça veut des Lambo, des Rolex, des T-Max, des follax, des parlux aux Baumettes Un peu d'haine comme Polak, les problèmes on connaît Ter-ter abonné, on menace pas, on promet, à jamais les premiers Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Cagoulé comme dans Heat Heat, prêt si y a un convoi espagnol, y a des écuries dans les bagnoles RS3, la bandite, le son d'l'arrière boutique, ça fait danser les schmitts Appels de phares sur la voix d'gauche, à la recherche d'un riche Monégasque Extorsion d'fond, les espoirs sont au fond du sac dans l'fourgon, on vit à trois cent pour cent, Class A C'est Marseille, c'est pas Miami, on s'en bat les couilles d'Tony et Manny Millionnaire mais j'traîne à l'alim', flow de Qatari, j'fais des safaris, ouais, on est refait depuis l'époque de l'Atari Ça fait des doublettes comme en Thaïlande, j'suis à Phuket, Johnny Island Petite coupette, champagne, petite choupette, on est sous pét', oui ma choupette, force pas tout en souplesse Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night Ça fume la frappe, ça fume la frappe C'est incroyable, mec Alors Guy, alors Ça fume la frappe, ça fume la frappe Incroyable, mec, ah, ah, ah, ah, ah Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça dit quoi dans la zone, zone, zone ? Eh, eh L'Algé', SCH, Ju-Ju-JuL, Skalpovich1</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sapapaya</t>
+          <t>À la rue marié</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>- Eh, mira, mira, mira, tu passes à côté de quelque chose là ! Tu louches ou quoi ? - Donne-moi une blonde, le sang - Oyé, Sapapaya, ça vous dirait un icecream avec mon ami et moi ? Les gros illégaux, RS6, kilos d'coke au port, autonome Calibré dans l'carré, sa mère un biopic C'est la street, enculé, comme une R19 sur la tirette du Crédit Agricole On fait des millions, pas d'patron, les frères avocats ou narco' On baise les juges et les matons, on fait du biff, on parle pas trop Les cartes, on les mélange dans les cartons Le son des marioles, de la Savine à la Cayolle BM M4, quatre sons de voyous dans la bagnole Ça sort le FAMAS pour la famax C'est Johnny Hama, équipé comme le Hamas À l'époque, le visio' nous avait pointé On a racheté la boîte evidamente Et ouais, ma race, on a le son qui arrache Tu veux jouer à la vache, mets pas ton nez dans la mâche Dans l'son, j'arrive comme Omar dans The Wire On veut la Champion's League comme l'OM et le Bayern Mon son dans le Cayenne S, j'suis avec le L et le S Mode S, il percute, Ali Boumayé Ça veut des Lambo, des Rolex, des T-Max, des follax, des parlux aux Baumettes Un peu d'haine comme Polak, les problèmes on connaît Ter-ter abonné, on menace pas, on promet, à jamais les premiers Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Cagoulé comme dans Heat Heat, prêt si y a un convoi espagnol, y a des écuries dans les bagnoles RS3, la bandite, le son d'l'arrière boutique, ça fait danser les schmitts Appels de phares sur la voix d'gauche, à la recherche d'un riche Monégasque Extorsion d'fond, les espoirs sont au fond du sac dans l'fourgon, on vit à trois cent pour cent, Class A C'est Marseille, c'est pas Miami, on s'en bat les couilles d'Tony et Manny Millionnaire mais j'traîne à l'alim', flow de Qatari, j'fais des safaris, ouais, on est refait depuis l'époque de l'Atari Ça fait des doublettes comme en Thaïlande, j'suis à Phuket, Johnny Island Petite coupette, champagne, petite choupette, on est sous pét', oui ma choupette, force pas tout en souplesse Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Et quand ça sort la night, ça boit des flashs et ça fume la frappe Embrouille, ça sort le nine, un tracker, une moto et poto, good bye Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Ça tourne dans la zone Toujours serein dans l'équipe, ça fait des loves Ça fait des loves, ça fait des loves Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night, yeah Capuché tard la night, tard la night, tard la night Ça fume la frappe, ça fume la frappe C'est incroyable, mec Alors Guy, alors Ça fume la frappe, ça fume la frappe Incroyable, mec, ah, ah, ah, ah, ah Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça fume la frappe, ça fume la frappe Ça dit quoi dans la zone, zone, zone ? Eh, eh L'Algé', SCH, Ju-Ju-JuL, Skalpovich1</t>
+          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>À la rue marié</t>
+          <t>Le reste on verra</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
+          <t>x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'comprend pas, tout a changé On s'comporte tous les deux comme deux étrangers Fini le temps où on échangeait Amour et haine se sont mélangés Sèches tes larmes, essuie ton rimmel Puisque notre amour est éternel Donnons un sens à nos rêves Tes lèvres sur mes lèvres jusqu'à ce que le soleil se lève x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'veux rentrer dans tes rêves, hanter tes nuits Jusqu'à ce que ma vie s'achève J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main Tends-moi la main...</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Le reste on verra</t>
+          <t>Ma Hlel</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'comprend pas, tout a changé On s'comporte tous les deux comme deux étrangers Fini le temps où on échangeait Amour et haine se sont mélangés Sèches tes larmes, essuie ton rimmel Puisque notre amour est éternel Donnons un sens à nos rêves Tes lèvres sur mes lèvres jusqu'à ce que le soleil se lève x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main J'veux rentrer dans tes rêves, hanter tes nuits Jusqu'à ce que ma vie s'achève J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves J'te dis cette mélodie, j'aime quand tu sourie T'es ma my lady, si on conjuguait nos vies ? J'veux rentrer dans tes rêves, j'veux rentrer dans tes rêves J'veux rentrer dans tes rêves, m'inviter dans tes rêves x2 Monte avec moi je t'emmène là où les autres ne vont pas Ferme les yeux, ouvre ton cur le reste on verra Ne pense plus à demain quand t'es avec moi tends-moi la main Tends-moi la main...</t>
+          <t>Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, j'ferais des miracles pour éclairer tes nuits Toi tu es mon ange les diable notre ennemi Ils sont jaloux de nous veulent nous jeter des sorts On va les rendre jalouses pas besoins d'attendre les soldes Refait toi les ongles pour compter mes liasses de billet Tu manqueras de rien même la tapisserie seras en jaune et violet J'veut une hlel pas une folle caractère de fauve Vient on se sauve j'ai fait de l'oseille j'ai juste besoin de love Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, la vie est courte baby pourquoi ce prendre la tête J'veux juste me poser avec toi j'en est marre de faire la fête N'écoute pas les ragots qui circules sur moi Surement des meufs qui me court après machiavélique et sournoise Prend ma couronne ma reine on rode sur le front de mer C'est la pleine lune j'entend les loups j'entend les commères J'te donne les codes de ma black donne moi les codes de ton cur Prend les clés de ma Maybach sur l'autoroute du bonheur Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'te donnerais que du love J'te demande que du love J'te donnerais que du love J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah6</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ma Hlel</t>
+          <t>Dini</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, j'ferais des miracles pour éclairer tes nuits Toi tu es mon ange les diable notre ennemi Ils sont jaloux de nous veulent nous jeter des sorts On va les rendre jalouses pas besoins d'attendre les soldes Refait toi les ongles pour compter mes liasses de billet Tu manqueras de rien même la tapisserie seras en jaune et violet J'veut une hlel pas une folle caractère de fauve Vient on se sauve j'ai fait de l'oseille j'ai juste besoin de love Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah Yeah, la vie est courte baby pourquoi ce prendre la tête J'veux juste me poser avec toi j'en est marre de faire la fête N'écoute pas les ragots qui circules sur moi Surement des meufs qui me court après machiavélique et sournoise Prend ma couronne ma reine on rode sur le front de mer C'est la pleine lune j'entend les loups j'entend les commères J'te donne les codes de ma black donne moi les codes de ton cur Prend les clés de ma Maybach sur l'autoroute du bonheur Serait tu prête à éclairer toutes mes nuits J'ai fait de l'oseille maintenant j'veut du love N'écoute pas les gens, n'écoute pas les on dit J'te donnerais tout donne moi juste du love Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel Veut tu être ma hlel Veut tu être ma hlel Veut tu être ma hlel J't'emmène en lune de miel J'te donnerais que du love J'te demande que du love J'te donnerais que du love J'ai connu des meufs sheïtana Le cur Dolce Gabbana Qui rêve d'un Tony Montana Des diamants comme Rihanna Elles finissent tout le temps seules, yeah Elles finissent tout le temps seules, yeah Dans les plages Copacabana Piscines et cigares Havana 430, joggings Armani On braque sur les plages comme Manny Mon dieu que j'me sent seul, yeaah Mon dieu que j'me sent seul, yeaah6</t>
+          <t>Si tu étais un rêve il s'est réalisé Si tu étais un souhait Dieu l'a exaucé Si tu étais un paysage je t'aurais contemplé Si tu étais le temps je t'aurais arrêté Joue pas avec mon coeur tu finis par le brûlé Si tu étais un feu je t'aurais attisé C'est ton amour qui m'a libéré Si t'es un crime je prends perpétuité Je manquais d'air tu m'as oxygène Dans le doute tu m'as rassuré Quand j'avais pas un rond tu m'as assumée C'est ton odeur qui m'a parfumé Dans tes bras je me suis réfugié C'est dans tes courbes que mon destin c'est dessiné Mes deux anges tu as porté Si tu es un texte t'es mon plus beau couplet Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Lalolay lolay lolay Lalolay lolay Jusqu'aux bouts du monde suis moi Jusqu'aux bouts du monde oui Lalolay lolay lolay Lalolay lolay Ma chérie vient on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Viens on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dini</t>
+          <t>L’essentiel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Si tu étais un rêve il s'est réalisé Si tu étais un souhait Dieu l'a exaucé Si tu étais un paysage je t'aurais contemplé Si tu étais le temps je t'aurais arrêté Joue pas avec mon coeur tu finis par le brûlé Si tu étais un feu je t'aurais attisé C'est ton amour qui m'a libéré Si t'es un crime je prends perpétuité Je manquais d'air tu m'as oxygène Dans le doute tu m'as rassuré Quand j'avais pas un rond tu m'as assumée C'est ton odeur qui m'a parfumé Dans tes bras je me suis réfugié C'est dans tes courbes que mon destin c'est dessiné Mes deux anges tu as porté Si tu es un texte t'es mon plus beau couplet Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Lalolay lolay lolay Lalolay lolay Jusqu'aux bouts du monde suis moi Jusqu'aux bouts du monde oui Lalolay lolay lolay Lalolay lolay Ma chérie vient on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Viens on va s'en aller Jusqu'à toucher les étoiles Viens on va s'envoler Il serait temps de toucher les voiles Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak Ahaaaaaaaaa Guetli omri dini ma'ak dini ma'ak</t>
+          <t>Oriental Dream LAlgérino Oriental Dream Cheb Khalass Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya Viens faire un tour à Marrakech Wahran, Alger, Tunis Beau gosse même en qamis Khamssa ou khmiss Pompe sous le matelas Jai pas de compte en Suisse Ne mfais pas la bise Ourti si tas trop dvice Elle est belle, elle est jolie Le teint doré benthe bledi Tas sorti les Versace, eh ouais beloumi Fi ratel lmagreb general XXX Journée bronzette, le soir au 555 On a de la fraiche on fait pas blehni Jfais ltour du Maghreb en Panamera Veux-tu être ma hlel ena nebrik a viee Lessentiel est de couleur harbi x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya LV, Hermès, on a de lespèce Omri eh benthe nésse On va tsortir de la tess Jai connu la hess Même la sècheresse Elle croit qujsuis un 3akoun La cousine jai un bac S Elle est belle, elle est XXX Tunsia ou alors Djezaïra Jsuis un magicien sur du raï Jfais danser le mia Mhek ntia zine l'3albiya x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>L’essentiel</t>
+          <t>Je me sens seul</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Oriental Dream LAlgérino Oriental Dream Cheb Khalass Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya Viens faire un tour à Marrakech Wahran, Alger, Tunis Beau gosse même en qamis Khamssa ou khmiss Pompe sous le matelas Jai pas de compte en Suisse Ne mfais pas la bise Ourti si tas trop dvice Elle est belle, elle est jolie Le teint doré benthe bledi Tas sorti les Versace, eh ouais beloumi Fi ratel lmagreb general XXX Journée bronzette, le soir au 555 On a de la fraiche on fait pas blehni Jfais ltour du Maghreb en Panamera Veux-tu être ma hlel ena nebrik a viee Lessentiel est de couleur harbi x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya LV, Hermès, on a de lespèce Omri eh benthe nésse On va tsortir de la tess Jai connu la hess Même la sècheresse Elle croit qujsuis un 3akoun La cousine jai un bac S Elle est belle, elle est XXX Tunsia ou alors Djezaïra Jsuis un magicien sur du raï Jfais danser le mia Mhek ntia zine l'3albiya x2 Wehda metehjebni ya rel hiya hiya Willi willi ena, jibouli rel 3albiya Tunsi ou Marocaine ouleh Djezaïria Willi willi ena, l'issentiel tkoune 3albiya</t>
+          <t>J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore Je me sens seule, je me sens mal J'ai proprement fini au sol Oui j'ai le seum, faut qu'je me calme Pourquoi j'ai cru à tes belles paroles ? Tout allait que dans ton sens, donc j'ai fini par me perdre Je marchais droit, t'étais bancal, me dis jamais qu'on faisait la paire J'ai foncé dans l'mur, j'ai fait un crash J'pensais qu't'étais l'copilote, moi j'aurais pu t'prendre sur mon dos Et faire le tour de c'foutu globe J'ai dû m'noyer dans mes larmes pour essayer d'me consoler Maint'nant qu'l'orage est passé, personne pourra m'déboussoler À cause de toi, non, grâce à toi, maint'nant j'sais qui je suis, hey Les gens comme toi, non, ils sont méchants, méchants Quand je donne c'est pour de vrai, prêt à tout pour un re-frè Combien de fois j'ai sacrifié mes ailes pour te voir voler ? Jamais fait les choses à moitié, en amour moi j'suis entier De mon cur t'avais les clés, toi t'es rentré t'as tout pillé On m'avait dit de me méfier, que t'étais là par intérêt Mais avec des beaux discours, toi t'as nourri ma naïveté Aujourd'hui j'suis vacciné, tu pourras plus m'contaminer Grâce à tes mythos, ma parano a mis mes Je t'aime sous-scellés Dans mon cur tu es rentré, t'as tout laissé en chantier T'étais clairement ma moitié, pour toi, moi j'aurais tué Mais le quartier et le rrain-té, pour toi c'est c'qui comptait Tu voulais l'monde entier, moi, c'est nous que je voulais On avait tout pour être heureux, mais tu voulais juste faire plus d'euros Tu voulais jouer un jeu dangereux, tu m'as perdue et t'as fini solo Tu me tej', tu reviens mais c'est plus la peine, solo Tu dis qu'tu m'aimes, tu reviens mais j't'ai déjà tej' J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore J'suis tombée dans le vide, fallait pas me cher-la C'est dans le pire que j'ai vu ton visage Tu vas me manquer mais je n'vais plus te voir Le soleil vient toujours après l'orage Comme dans un livre ouvert, je t'ai laissé me lire J'voulais qu'on mette les voiles mais toi, t'as fait couler l'navire Déception, déception, j'ai r'tenu la leçon À présent si je donne, je donne en faisant attention, ouais Tombée dans le vide, tombée, tombée dans le vide Tombée dans le vide, yeah Ils sont méchants J'parle pas d'eux, ils m'en veulent, ils aiment pas t'voir avancer Ouh, ils sont méchants Ouais, j'le sens que j'suis pas seul mais j'suis pas du genre à me lasser Oh, ils sont blessants M'en fous des gens, besoin de dégâts même sur les jantes Ils sont bon qu'à créer des légendes ils sont méchants Faut être intelligent, à la 'son faut ramener l'argent Faut djober dur pour avoir ta chance Avec moi j'ai fait la paix, j'ai retourné la terre Les mains dans la boue, tu m'aides ou tu m'enterres J'connais beaucoup de gens qu'ont fait du mal, et qu'en ont pas l'air en arabe Brisaouni quelbi bel' mous wa fehmou wa hlach ? J'me suis donné mais plus qu'il n'en fallait, jusqu'à dev'nir folle Besoin d'm'isoler, des fois c'est bizarre Je n'réponds plus au phone, pense qu'à moi désormais, tout c'qu'il me fallait J'ai fait mes valises, c'est l'heure du voyage Quand j'réalise, tu n'étais pas là Alors j'vais faire comme toi, pardon, j'suis désolée J'vais faire comme ci parce que t'as fait comme ça J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Je me sens seul</t>
+          <t>Bambina</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore Je me sens seule, je me sens mal J'ai proprement fini au sol Oui j'ai le seum, faut qu'je me calme Pourquoi j'ai cru à tes belles paroles ? Tout allait que dans ton sens, donc j'ai fini par me perdre Je marchais droit, t'étais bancal, me dis jamais qu'on faisait la paire J'ai foncé dans l'mur, j'ai fait un crash J'pensais qu't'étais l'copilote, moi j'aurais pu t'prendre sur mon dos Et faire le tour de c'foutu globe J'ai dû m'noyer dans mes larmes pour essayer d'me consoler Maint'nant qu'l'orage est passé, personne pourra m'déboussoler À cause de toi, non, grâce à toi, maint'nant j'sais qui je suis, hey Les gens comme toi, non, ils sont méchants, méchants Quand je donne c'est pour de vrai, prêt à tout pour un re-frè Combien de fois j'ai sacrifié mes ailes pour te voir voler ? Jamais fait les choses à moitié, en amour moi j'suis entier De mon cur t'avais les clés, toi t'es rentré t'as tout pillé On m'avait dit de me méfier, que t'étais là par intérêt Mais avec des beaux discours, toi t'as nourri ma naïveté Aujourd'hui j'suis vacciné, tu pourras plus m'contaminer Grâce à tes mythos, ma parano a mis mes Je t'aime sous-scellés Dans mon cur tu es rentré, t'as tout laissé en chantier T'étais clairement ma moitié, pour toi, moi j'aurais tué Mais le quartier et le rrain-té, pour toi c'est c'qui comptait Tu voulais l'monde entier, moi, c'est nous que je voulais On avait tout pour être heureux, mais tu voulais juste faire plus d'euros Tu voulais jouer un jeu dangereux, tu m'as perdue et t'as fini solo Tu me tej', tu reviens mais c'est plus la peine, solo Tu dis qu'tu m'aimes, tu reviens mais j't'ai déjà tej' J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore J'suis tombée dans le vide, fallait pas me cher-la C'est dans le pire que j'ai vu ton visage Tu vas me manquer mais je n'vais plus te voir Le soleil vient toujours après l'orage Comme dans un livre ouvert, je t'ai laissé me lire J'voulais qu'on mette les voiles mais toi, t'as fait couler l'navire Déception, déception, j'ai r'tenu la leçon À présent si je donne, je donne en faisant attention, ouais Tombée dans le vide, tombée, tombée dans le vide Tombée dans le vide, yeah Ils sont méchants J'parle pas d'eux, ils m'en veulent, ils aiment pas t'voir avancer Ouh, ils sont méchants Ouais, j'le sens que j'suis pas seul mais j'suis pas du genre à me lasser Oh, ils sont blessants M'en fous des gens, besoin de dégâts même sur les jantes Ils sont bon qu'à créer des légendes ils sont méchants Faut être intelligent, à la 'son faut ramener l'argent Faut djober dur pour avoir ta chance Avec moi j'ai fait la paix, j'ai retourné la terre Les mains dans la boue, tu m'aides ou tu m'enterres J'connais beaucoup de gens qu'ont fait du mal, et qu'en ont pas l'air en arabe Brisaouni quelbi bel' mous wa fehmou wa hlach ? J'me suis donné mais plus qu'il n'en fallait, jusqu'à dev'nir folle Besoin d'm'isoler, des fois c'est bizarre Je n'réponds plus au phone, pense qu'à moi désormais, tout c'qu'il me fallait J'ai fait mes valises, c'est l'heure du voyage Quand j'réalise, tu n'étais pas là Alors j'vais faire comme toi, pardon, j'suis désolée J'vais faire comme ci parce que t'as fait comme ça J'me sens seul comme au tribunal J'm'endors comme un criminel Où sont passés mes rêves d'ado ? Et j'vois les jeunes en Huracan Ils veulent la kichta, vendre la came Quitte à finir comme Pablo Et tu sais j'ai trop donné, volé, trop déconné, tourné, zoné, moi Et j'm'enfumais pour m'envoler, voler, voler, faut des lovés, mais J'sais qu'personne va m'sauver, ils viendront tous, mauvais, pour plein d'billets mauves Bitume, les plages dorés, attends, mi amore, faut qu'j'charbonne encore</t>
+          <t>Amor que cosa fare Donne ta main, j'vais te marier Il serait temps qu'on s'en aille J'ai rechargé le barillet Ma chérie sèche tes larmes tu sais Je vois ton avenir ensoleillé De toute façon pour être honnête Tu n'as pas d'autre choix que m'aimer Les mots ne sont que des mots Les actes on peut les nier Mon amour sous les barreaux Cette amour que tu as libéré Il serait temps qu'on s'envole D'arrêter de se cacher C'est ne sont pas que des paroles J'ai rempli la valise de billets je t'emmene Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Et je vois tout ton mal être Quand je regarde tes yeux Ma chérie sèches tes larmes La vie seras plus belle à deux Je prendrais toutes tes peines Regarde moi dans les yeux Je ferais de toi ma reine Je te le jure devant Dieu Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bambina</t>
+          <t>Sous le soleil</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Amor que cosa fare Donne ta main, j'vais te marier Il serait temps qu'on s'en aille J'ai rechargé le barillet Ma chérie sèche tes larmes tu sais Je vois ton avenir ensoleillé De toute façon pour être honnête Tu n'as pas d'autre choix que m'aimer Les mots ne sont que des mots Les actes on peut les nier Mon amour sous les barreaux Cette amour que tu as libéré Il serait temps qu'on s'envole D'arrêter de se cacher C'est ne sont pas que des paroles J'ai rempli la valise de billets je t'emmene Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Et je vois tout ton mal être Quand je regarde tes yeux Ma chérie sèches tes larmes La vie seras plus belle à deux Je prendrais toutes tes peines Regarde moi dans les yeux Je ferais de toi ma reine Je te le jure devant Dieu Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce On traversera les flancs Avancer sans se brûler Je prendrais tous tes problèmes Je serais ton bouclier Ne regarde plus en arrière Non, oublions le passé Je te le dis, je te laisserais pas d'autres choix que de m'aimer Bambina, tu as les yeux bander J't'emmène loin de là, regarde moi je saurais t'aimer Pourquoi tu t'égards, moi je veux ton bonheur, je veux te combler Sous le ciel étoilés, la vida loca, que bella noce</t>
+          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sous le soleil</t>
+          <t>La Vie Est Belle</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
+          <t>Oriental Dream x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Oui malgré les incidences Jassume et jencaisse en silence Jtai choisi comme confidente Fais moi confiance, jtai dans lsang Tu attends seule, je ne rentre pas Jte fais vivre un cauchemar Tu parles, jentends mais jécoute pas Écoute-moi, pardonne-moi Jveux revoir létincelle Jveux que nous deux fassions quun seul On sait toujours ce que lon perd Jamais ce que lon gagne, dis-toi que x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Jveux qutu redeviennes mon amie Quon retrouve cette magie Quon arrête de se faire du mal On sétait dit pour la vie Jveux quon fonde une famille Mais pourquoi on se fait du mal ? Donne-moi ton cur, donne-moi ton corps Trop dchoses à dire, mais lsilence est dor Lis dans mes yeux mon amour vaut plus que de lor Sceller la boite de Pandore Quitte pas celui qutaime pour celui qui te plaît Tarrêtes pas de douter, jte sens pas trop Tu veux pas en parler Tu ressens un manque pourquoi tu veux te barrer ? x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort x2 La vie est belle La vie est belle La vie est belle Oui, la vie est belle</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>La Vie Est Belle</t>
+          <t>Hold-Up</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Oriental Dream x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Oui malgré les incidences Jassume et jencaisse en silence Jtai choisi comme confidente Fais moi confiance, jtai dans lsang Tu attends seule, je ne rentre pas Jte fais vivre un cauchemar Tu parles, jentends mais jécoute pas Écoute-moi, pardonne-moi Jveux revoir létincelle Jveux que nous deux fassions quun seul On sait toujours ce que lon perd Jamais ce que lon gagne, dis-toi que x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort La vie est belle La vie est belle La vie est belle Oui, la vie est belle Jveux qutu redeviennes mon amie Quon retrouve cette magie Quon arrête de se faire du mal On sétait dit pour la vie Jveux quon fonde une famille Mais pourquoi on se fait du mal ? Donne-moi ton cur, donne-moi ton corps Trop dchoses à dire, mais lsilence est dor Lis dans mes yeux mon amour vaut plus que de lor Sceller la boite de Pandore Quitte pas celui qutaime pour celui qui te plaît Tarrêtes pas de douter, jte sens pas trop Tu veux pas en parler Tu ressens un manque pourquoi tu veux te barrer ? x2 La vie est belle Jrespire encore Pense plus à rien Omri notre amour vaut de lor Des fois jme perds Des fois j'ai tord ana ou'yek Omri à la vie à la mort x2 La vie est belle La vie est belle La vie est belle Oui, la vie est belle</t>
+          <t>Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui cest Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Je démarre le monstre démarre le monstr Je regarde ma montr regarde ma montre Elle est trop 3ennen, la petite, elle veut quj'la démonte qu'j'la démonte Sous vo'-vo', faut pas m'parler, j'suis sous vo-vo, faut pas m'parler Wesh, mon frère, concentre-toi, fais bien les comptes, billets couleur pistache Jai vu qu'tu as changé d'visage, respecté dans l'secteur, ma sur mais certains msouhaitent le coulage Avec JuL, L'Algé', c'est le hold up, c'est le hold up, c'est le zbeul, zbeul Calibré, casqué, sur le bum-bum, arrache-toi, y a le bruit du ra-ta, ra-ta, ra-ta Y a les mwanas, faut d'la plata, mon fils sur une roue, sur un quatre temps Pas d'galère, wAllah, y a papa si dans la zone, y a des bâtards Pour le po-po-pop, ça t'as pris ton boss, tu repars en stop Pour le po-po-pop, c'était fait pour toi, que tu prends la coke Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est C'est quoi ta nationalité, bébé ? Dans mon business, j'suis PDG Ton boule est validé, bébé, on va t'signer en CDD Ouais, bébé, ouais, bébé, on fait même dans le BTP C'est d'la frappa, d'la CBD, on tape pas dans la CBB On a l'son qui arrache ok, tu rayes ma caisse, pas grave yeah N'écoute pas, igaro-F nan, il risque de s'faire marave yeah J'suis posé dans la loge, sous rosé, p'tit polo Lacoste yeah La p'tite, elle veut sa to-ph' et j'parle au patron, j'vise ses loves Diga, diga, mais j'nique tout cette année chica, ouais J'bois mon p'tit kawa, j'pense à c'p'tit pédé, il m'en doit Rien qu'j'lui cours après, j'passe pour un enculé, j'ai pas l'choix Si t'es pas carré, on est préparé, bra-bra-bra Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Grr, hold up, hold up hold up, j'fais des murders, murders murders J'te fais danser comme ça mmh, mmh, la caisse, elle coûte 100 bâtons bâtons Tu es à l'affût comme un maton maton, casse pas la tête pour moi Dans l'game, j'suis en jet-ski comme Macron Cache la beuh avant la douane la douane, dans les curs comme Balavoine 'lavoine Dans les tieks, c'est pas la joie la joie, depuis quand tu as une Kalash' toi ? L'OVNI au mic' pa-pa-pah, L'Algé', Alonzo pa-pa-pah Hold up sur hold up pa-pa-pah, BG sur l'teum-teum pa-pa-pah Gants, arme, roof, au tieks, ça veut soulever la coupe Les schmitts te suivent à la loupe pendant qu'les traîtres crachent dans la soupe, soupe Puta, fais pas la bise, ah, puta, fais pas la bise, ah Puta, fais pas la bise, ah, puta, fais pas la bise, ah Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hold-Up</t>
+          <t>L’autoroute de la vie</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui cest Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Je démarre le monstre démarre le monstr Je regarde ma montr regarde ma montre Elle est trop 3ennen, la petite, elle veut quj'la démonte qu'j'la démonte Sous vo'-vo', faut pas m'parler, j'suis sous vo-vo, faut pas m'parler Wesh, mon frère, concentre-toi, fais bien les comptes, billets couleur pistache Jai vu qu'tu as changé d'visage, respecté dans l'secteur, ma sur mais certains msouhaitent le coulage Avec JuL, L'Algé', c'est le hold up, c'est le hold up, c'est le zbeul, zbeul Calibré, casqué, sur le bum-bum, arrache-toi, y a le bruit du ra-ta, ra-ta, ra-ta Y a les mwanas, faut d'la plata, mon fils sur une roue, sur un quatre temps Pas d'galère, wAllah, y a papa si dans la zone, y a des bâtards Pour le po-po-pop, ça t'as pris ton boss, tu repars en stop Pour le po-po-pop, c'était fait pour toi, que tu prends la coke Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est C'est quoi ta nationalité, bébé ? Dans mon business, j'suis PDG Ton boule est validé, bébé, on va t'signer en CDD Ouais, bébé, ouais, bébé, on fait même dans le BTP C'est d'la frappa, d'la CBD, on tape pas dans la CBB On a l'son qui arrache ok, tu rayes ma caisse, pas grave yeah N'écoute pas, igaro-F nan, il risque de s'faire marave yeah J'suis posé dans la loge, sous rosé, p'tit polo Lacoste yeah La p'tite, elle veut sa to-ph' et j'parle au patron, j'vise ses loves Diga, diga, mais j'nique tout cette année chica, ouais J'bois mon p'tit kawa, j'pense à c'p'tit pédé, il m'en doit Rien qu'j'lui cours après, j'passe pour un enculé, j'ai pas l'choix Si t'es pas carré, on est préparé, bra-bra-bra Hold up, c'est un hold up Les hommes, la zone Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Grr, hold up, hold up hold up, j'fais des murders, murders murders J'te fais danser comme ça mmh, mmh, la caisse, elle coûte 100 bâtons bâtons Tu es à l'affût comme un maton maton, casse pas la tête pour moi Dans l'game, j'suis en jet-ski comme Macron Cache la beuh avant la douane la douane, dans les curs comme Balavoine 'lavoine Dans les tieks, c'est pas la joie la joie, depuis quand tu as une Kalash' toi ? L'OVNI au mic' pa-pa-pah, L'Algé', Alonzo pa-pa-pah Hold up sur hold up pa-pa-pah, BG sur l'teum-teum pa-pa-pah Gants, arme, roof, au tieks, ça veut soulever la coupe Les schmitts te suivent à la loupe pendant qu'les traîtres crachent dans la soupe, soupe Puta, fais pas la bise, ah, puta, fais pas la bise, ah Puta, fais pas la bise, ah, puta, fais pas la bise, ah Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est Et au béton, ça sait viser, on a les dents aiguisées Toujours la bande organisée, et ouais, maintenant, tu sais qui c'est</t>
+          <t>Je monte dans la voiture, j'passe la première et j'avance J'prends l'autoroute de la vie à pleine vitesse et je pense J'sais pas où ça me mènera une chose est sûre j'prends le volant Attendant l'heure où mon âme s'envolera J'aperçois un auto-stoppeur, c'est une femme J'm'arrête sur la bande d'arrêt d'urgence et j'me cale Que fais-tu là toute seule ? Qui tu es ? Où tu vas ? J'sais pas pourquoi j'm'arrête j'ressens un truc au fond de moi Elle me répond moi j'suis ta femme celle qui te chérira toute ta vie Ensemble on va construire un empire J'te dois le respect comme toi tu me le dois On va fonder un foyer fait moi confiance tu verras ! Vas-y grimpe, et je continue mon chemin J'sais pas y'a quelque chose qui a changé, j'me sens bien Prêt a croquer la vie à pleines dents Derrière chaque grand homme s'cache une femme Peut-être est-ce la mère de mes enfants J'roule et j'aperçois deux gosses au loin Leurs visages me rappellent quelqu'un Je ralentis, j'm'arrête, peut-être qu'ils ont besoin d'aide qui vous-êtes ? Nous on est tes enfants, ta descendance Tes dignes héritiers, ta fierté on est ton sang Prends-nous dans tes bras, serre-nous contre toi On dit que la vie est dure on veut faire d'la route avec toi ! Allez-y grimper mes p'tits, et mettez votre ceinture Le chemin est parsemé d'embuches c'est vrai que la vie est dure Votre grand-père m'a appris le sens de la droiture Votre mère vous couvera son amour sera une toiture Plus j'avance plus j'ai l'impression de prendre de l'âge J'm'arrête a chaque péage, des rides sur mon visage J'ai une femme et deux gosses dans la 'ture Des panneaux apparaissent et m'font signe de ralentir J'lève le pied de l'accélérateur J'le fait surtout quand je vois le reflet de mes gosses sur le rétroviseur intérieur Faut que j'les assume, que je subvienne a leur besoin Bon Dieu j'ai besoin d'aide, faites qu'il ne manquent de rien La main sur le volant, ma femme est souriante J'allume une clope et un signal clignote sur le tableau de bord J'ai presque plus d'essence, il me reste peu d'argent Il faut du carburant, il y a une station à quelque bornes J'prend la voie de ralentissement, j'décélère j'freine doucement Vu que la chaussée est glissante J'arrive à la station j'mets le plein de carburant J'm'apprête à monter dans mon break et repartir quand Un gars pose sa main sur mon épaule, il m'dit attend Veut que j'lui accorde un instant Il était sapé classe, costard cravate, mocassins noirs Attaché-case, le regard traversant ses lunettes noires, il me dit Moi j'suis l'Euro le Dollar En somme j'suis toute les richesses que ce bas-monde comporte Tout c'que je touche devient de l'or tu n'auras plus de soucis d'argent Tu rayonneras au zénith comme un diamant Regarde toi, t'en a pas marre de cette vie ? Sors ta famille de la misère j'te propose d'être riche Regarde-moi ça tes enfants font de la peine à voir Crois moi j'te propose la richesse et la gloire J'sais pas c'type j'le sens pas trop... Il dit qu'il peut changer ma vie Mais en même temps j'ai plus d'fric J'hésite un peu mais j'ai pas d'autre choix, vas-y grimpe Bizarrement mon break se transforme en berline Et ma Swatch se transforme en Breitling Mon alliance en argent s'transforme en or Ce type avait raison, l'argent contribue au bonheur L'humeur est joviale, tout le monde est souriant Mais bizarrement, je stresse et j'm'énerve bêtement J'm'embrouille avec ma femme, ce type à l'air ravi À cet instant précis j'ai compris qu'il me manquait un truc dans ma vie La route s'assombrit, mon regard se noircit Un nuage noir au-dessus d'ma tête, j'enchaîne les cigarettes En fait j'suis à coté du Diable et je le sais même pas Je vois son regard bizarre, quand une lumière apparait là-bas J'me dirige vers cette lueur, il m'dit change de chemin Mais j'm'accroche au volant fermement avec mes deux mains Un vieux vêtu de blanc se tient sous cette lueur J'm'arrête curieux d'savoir qui dégage tant de lumière Et la je sors de la voiture, j'me rapproche du vieil homme Et d'un ton calme et rassurant il m'dit J'suis les principes et les valeurs Sache que le matériel ne contribue jamais au bonheur Ce type qui se tient à coté de toi est faux et malsain Il causera ta perte, il t'égarera en chemin Moi je conseille le Bien et je déconseille le Mal Je sens que ton cur est tâché, que ton âme va mal On m'appelle aussi la Foi celle qui calme tes frayeurs Je n'ai pas d'argent à t'offrir, juste la tranquillité du cur C'est bien beau ce que tu racontes mais j'ai tout ce dont j'ai besoin Une femme, des gosses et de l'argent, en gros je manque de rien T'as l'air d'être quelqu'un de bon, mais y'a plus de place dans la tire J'reviendrai peut-être te chercher mais là je dois partir J'remonte dans la caisse avec un semblant de regret J'accélère, j'suis de plus en plus stressé J'accélère, et un colosse me barre la route J'l'évite de justesse, mais j'perds le contrôle de ma caisse Merde j'frappe contre la rambarde de sécurité Ma tête brise le pare-brise, j'ai le visage ensanglanté J'entend les sanglots de ma femme et de mes mômes Assommé j'sors de la voiture, mais qui est cette homme? Moi je suis l'ange de la mort, je suis venu récupérer ton âme Si tu as le vieil homme avec toi, je t'ouvre les portes du Paradis, sinon, c'est l'Enfer Tu t'es accroché aux choses éphémères et matérielles de ce bas-monde Mais on n'emporte rien avec soi, on emporte que ses uvres et sa Foi1</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>L’autoroute de la vie</t>
+          <t>Amane Amane</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Je monte dans la voiture, j'passe la première et j'avance J'prends l'autoroute de la vie à pleine vitesse et je pense J'sais pas où ça me mènera une chose est sûre j'prends le volant Attendant l'heure où mon âme s'envolera J'aperçois un auto-stoppeur, c'est une femme J'm'arrête sur la bande d'arrêt d'urgence et j'me cale Que fais-tu là toute seule ? Qui tu es ? Où tu vas ? J'sais pas pourquoi j'm'arrête j'ressens un truc au fond de moi Elle me répond moi j'suis ta femme celle qui te chérira toute ta vie Ensemble on va construire un empire J'te dois le respect comme toi tu me le dois On va fonder un foyer fait moi confiance tu verras ! Vas-y grimpe, et je continue mon chemin J'sais pas y'a quelque chose qui a changé, j'me sens bien Prêt a croquer la vie à pleines dents Derrière chaque grand homme s'cache une femme Peut-être est-ce la mère de mes enfants J'roule et j'aperçois deux gosses au loin Leurs visages me rappellent quelqu'un Je ralentis, j'm'arrête, peut-être qu'ils ont besoin d'aide qui vous-êtes ? Nous on est tes enfants, ta descendance Tes dignes héritiers, ta fierté on est ton sang Prends-nous dans tes bras, serre-nous contre toi On dit que la vie est dure on veut faire d'la route avec toi ! Allez-y grimper mes p'tits, et mettez votre ceinture Le chemin est parsemé d'embuches c'est vrai que la vie est dure Votre grand-père m'a appris le sens de la droiture Votre mère vous couvera son amour sera une toiture Plus j'avance plus j'ai l'impression de prendre de l'âge J'm'arrête a chaque péage, des rides sur mon visage J'ai une femme et deux gosses dans la 'ture Des panneaux apparaissent et m'font signe de ralentir J'lève le pied de l'accélérateur J'le fait surtout quand je vois le reflet de mes gosses sur le rétroviseur intérieur Faut que j'les assume, que je subvienne a leur besoin Bon Dieu j'ai besoin d'aide, faites qu'il ne manquent de rien La main sur le volant, ma femme est souriante J'allume une clope et un signal clignote sur le tableau de bord J'ai presque plus d'essence, il me reste peu d'argent Il faut du carburant, il y a une station à quelque bornes J'prend la voie de ralentissement, j'décélère j'freine doucement Vu que la chaussée est glissante J'arrive à la station j'mets le plein de carburant J'm'apprête à monter dans mon break et repartir quand Un gars pose sa main sur mon épaule, il m'dit attend Veut que j'lui accorde un instant Il était sapé classe, costard cravate, mocassins noirs Attaché-case, le regard traversant ses lunettes noires, il me dit Moi j'suis l'Euro le Dollar En somme j'suis toute les richesses que ce bas-monde comporte Tout c'que je touche devient de l'or tu n'auras plus de soucis d'argent Tu rayonneras au zénith comme un diamant Regarde toi, t'en a pas marre de cette vie ? Sors ta famille de la misère j'te propose d'être riche Regarde-moi ça tes enfants font de la peine à voir Crois moi j'te propose la richesse et la gloire J'sais pas c'type j'le sens pas trop... Il dit qu'il peut changer ma vie Mais en même temps j'ai plus d'fric J'hésite un peu mais j'ai pas d'autre choix, vas-y grimpe Bizarrement mon break se transforme en berline Et ma Swatch se transforme en Breitling Mon alliance en argent s'transforme en or Ce type avait raison, l'argent contribue au bonheur L'humeur est joviale, tout le monde est souriant Mais bizarrement, je stresse et j'm'énerve bêtement J'm'embrouille avec ma femme, ce type à l'air ravi À cet instant précis j'ai compris qu'il me manquait un truc dans ma vie La route s'assombrit, mon regard se noircit Un nuage noir au-dessus d'ma tête, j'enchaîne les cigarettes En fait j'suis à coté du Diable et je le sais même pas Je vois son regard bizarre, quand une lumière apparait là-bas J'me dirige vers cette lueur, il m'dit change de chemin Mais j'm'accroche au volant fermement avec mes deux mains Un vieux vêtu de blanc se tient sous cette lueur J'm'arrête curieux d'savoir qui dégage tant de lumière Et la je sors de la voiture, j'me rapproche du vieil homme Et d'un ton calme et rassurant il m'dit J'suis les principes et les valeurs Sache que le matériel ne contribue jamais au bonheur Ce type qui se tient à coté de toi est faux et malsain Il causera ta perte, il t'égarera en chemin Moi je conseille le Bien et je déconseille le Mal Je sens que ton cur est tâché, que ton âme va mal On m'appelle aussi la Foi celle qui calme tes frayeurs Je n'ai pas d'argent à t'offrir, juste la tranquillité du cur C'est bien beau ce que tu racontes mais j'ai tout ce dont j'ai besoin Une femme, des gosses et de l'argent, en gros je manque de rien T'as l'air d'être quelqu'un de bon, mais y'a plus de place dans la tire J'reviendrai peut-être te chercher mais là je dois partir J'remonte dans la caisse avec un semblant de regret J'accélère, j'suis de plus en plus stressé J'accélère, et un colosse me barre la route J'l'évite de justesse, mais j'perds le contrôle de ma caisse Merde j'frappe contre la rambarde de sécurité Ma tête brise le pare-brise, j'ai le visage ensanglanté J'entend les sanglots de ma femme et de mes mômes Assommé j'sors de la voiture, mais qui est cette homme? Moi je suis l'ange de la mort, je suis venu récupérer ton âme Si tu as le vieil homme avec toi, je t'ouvre les portes du Paradis, sinon, c'est l'Enfer Tu t'es accroché aux choses éphémères et matérielles de ce bas-monde Mais on n'emporte rien avec soi, on emporte que ses uvres et sa Foi1</t>
+          <t>Fils d'immigré , de la cité Phocéenne Grandi dans le partage , ouais , de la rage et de la haine Mélange et métissage , le plus grand héritage Je laisse parler mon coeur Je chante et je prend le large Ils veulent nous diviser , nous parlent d'insécurité Mais le réel problème , c'est la précarité Ils s'en foutent du peuple , ils ne pensent qu'à leur siège Les bergers qui prèchent , les moutons qui tombent dans leur pièges One love ! Et si on menais le même combat Et si ont chantais tous d'une seule voix Considérés que lorsqu'on vote , on braque les urnes , retiens ces normes Alors je leur chante Amane Amane x10 x2 Soeur on est des hommes Pour nos discours nous payons Et on fait des erreurs , donc y'à une gomme au bout de chaque crayons Grande gueule , et en feat y'à Samir , frère algérien Seul, on va plus vite Mais ensemble on va plus loin Serré le poing , on à la foi pour briller Tu es l'enfant d'un roi et non un fils d'ouvrier Le genou plié on sait pas le faire , couz' c'est dead Ils nous ont grillés , ont pillés les ressources de nos bleds C'est les mêmes qu'on montre du doigt , les mêmes que l'ont persecutent Pactisent avec Belzebuth , les mêmes qui se prennent pour des rois Mondial , nouvel ordre accroche-toi Les caisses pleines , tiennent les rennes Les mêmes qui portent les chaînes Et c'est les mêmes qui purgent de grosses peines Au-dessus des lois , ils se croient tout permis Les riches s'enrichissent , le peuple vit la 'sère-mi Ils nous prennent pour des cons Que la jeunesse se lève et combatte en chanson Je rêvais d'être astronaute et toucher les étoiles Je voulais rien d'autre qu'un parcours idéal Et moi et mes Khoro , à trop squatter la Dar J'ai eu une paire de menottes , avant de remplir des salles. x2 Alors je chante Amane Amane Alors tu chantes Amane Amane Alors on chante Amane Amane x2 Amane Amane x3 Capitaine de mon navire , y'à tous nos frères à bord On à toujours su s'en sortir , avec les moyens du bord Alors on chante , Tunisan' , L'algérino Alors on chante , alors on chante1</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Amane Amane</t>
+          <t>Humeur d’Un Jour</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fils d'immigré , de la cité Phocéenne Grandi dans le partage , ouais , de la rage et de la haine Mélange et métissage , le plus grand héritage Je laisse parler mon coeur Je chante et je prend le large Ils veulent nous diviser , nous parlent d'insécurité Mais le réel problème , c'est la précarité Ils s'en foutent du peuple , ils ne pensent qu'à leur siège Les bergers qui prèchent , les moutons qui tombent dans leur pièges One love ! Et si on menais le même combat Et si ont chantais tous d'une seule voix Considérés que lorsqu'on vote , on braque les urnes , retiens ces normes Alors je leur chante Amane Amane x10 x2 Soeur on est des hommes Pour nos discours nous payons Et on fait des erreurs , donc y'à une gomme au bout de chaque crayons Grande gueule , et en feat y'à Samir , frère algérien Seul, on va plus vite Mais ensemble on va plus loin Serré le poing , on à la foi pour briller Tu es l'enfant d'un roi et non un fils d'ouvrier Le genou plié on sait pas le faire , couz' c'est dead Ils nous ont grillés , ont pillés les ressources de nos bleds C'est les mêmes qu'on montre du doigt , les mêmes que l'ont persecutent Pactisent avec Belzebuth , les mêmes qui se prennent pour des rois Mondial , nouvel ordre accroche-toi Les caisses pleines , tiennent les rennes Les mêmes qui portent les chaînes Et c'est les mêmes qui purgent de grosses peines Au-dessus des lois , ils se croient tout permis Les riches s'enrichissent , le peuple vit la 'sère-mi Ils nous prennent pour des cons Que la jeunesse se lève et combatte en chanson Je rêvais d'être astronaute et toucher les étoiles Je voulais rien d'autre qu'un parcours idéal Et moi et mes Khoro , à trop squatter la Dar J'ai eu une paire de menottes , avant de remplir des salles. x2 Alors je chante Amane Amane Alors tu chantes Amane Amane Alors on chante Amane Amane x2 Amane Amane x3 Capitaine de mon navire , y'à tous nos frères à bord On à toujours su s'en sortir , avec les moyens du bord Alors on chante , Tunisan' , L'algérino Alors on chante , alors on chante1</t>
+          <t>Mais qu'est tu veux que j'dise à ma fille quand elle s'ra grande Désolé papa était underground, merde à la zermi, loin d'être verni Moi j'ai fais des tubes, mais j'rap comme c'est pas permis Mon art est sur scène Il s'adresse a tout l'monde J'suis né à Marseille j'aurais pu naitre à Vitry-Sur-Seine J'ai rien d'un génie, c'est l'amour de la musique, l'amour de la rue, celle que beaucoup d'gens dénigrent On a fait ça par passion, on a fait ça aussi pour le fric c'est vrai On vient reprendre ce qu'on nous as pris en Afrique Parcours aléatoire, destin pré-écrit, la rue m'a contaminer j'suis un rat d'laboratoire moi J'ai fais le tour du monde, ça m'a ouvert l'esprit Bizarre comme trois notes de musiques peuvent changer une vie Je chantais l'espoir, je chantais l'amour Mais ils veulent la guerre, un calibre c'est devenu glamour Depuis la capitale, ils entendent des rafales De kalash, des mères pleurent, ils savent même pas de quoi ils parlent Ils vendent de la haine, de la violence payante Et ils s'étonnent que les p'tits frères pressent des détentes De l'entertainment garder l'esprit, mais l'rap c'est pas ma religion c'est que du nezbi Soit, tu fais des sous, soit tu t'arrête au succés d'estime Ya pas d'prison dans mon CV, que des véritées dans mon CD J'aurai pu te parler d'armes et coke pour vendre plus de CD J'aurais pu t'parler d'pute et d'fric Moi, j'suis fidèle a mon éthique Moi, pour ce coté de la street j'ai jamais plaidé Petit j'viens pas t'incité Hram haliya, trop de mes frères sont déjà décédés La fois m'as guidée Dans la zik' j'me suis vidé Loin de moi l'envie de trahir mes idées A l'époque j'm'inquitais, j'avais pas de lovés Seul dans ma cave, les maisons d'disques me snobaient J'avais besoin d'cache, je cherchais le plan B Je fais de la musique et j'vois les potes tous tomber J'me suis rendu crazy a écrire d'la qualité Me comparez pas aux autres ils font que d'la quantité J'vais tout niquer, vous avez pas idées J'suis Johny de mon bled, j'suis Johnny Hallyday On m'as tellement rabaissé yemma Un jour je lâcherai la musique, rien a foutre de cette Dounia Au fond de moi, j'ai, jamais été heureux Même avec les euros, j'rêve de mourir miséreux Même avec les euros, j'rêve de mourir miséreux L'algé! J'écris pas pour inciter la jeunesse a faire du mal J'fais pas fantasmer les p'tits a parler de drogue, de prison A te parler d'armes A Marseille c'est l'KO J'ai perdu des amis, des frères, j'ai vu trop de mère en larmes Fuck tout ces rappeurs qui font l'apologie du crime, d'leur kalash a deux balles Ils savent même pas d'quoi ils parlent Et oui l'Algé, c'est pas des hommes Pour moi les hommes c'est ceux qui se lèvent le matin pour aller travailler, charbonner, pour nourrir leurs enfants et assumer leur famille Le haram, ça ne paye pas, la hagra, ça se paye tôt ou tard, alors, réveillez vous les frères, réveillez vous avant qu'il ne soit trop tard2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Humeur d’Un Jour</t>
+          <t>Moula Max</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mais qu'est tu veux que j'dise à ma fille quand elle s'ra grande Désolé papa était underground, merde à la zermi, loin d'être verni Moi j'ai fais des tubes, mais j'rap comme c'est pas permis Mon art est sur scène Il s'adresse a tout l'monde J'suis né à Marseille j'aurais pu naitre à Vitry-Sur-Seine J'ai rien d'un génie, c'est l'amour de la musique, l'amour de la rue, celle que beaucoup d'gens dénigrent On a fait ça par passion, on a fait ça aussi pour le fric c'est vrai On vient reprendre ce qu'on nous as pris en Afrique Parcours aléatoire, destin pré-écrit, la rue m'a contaminer j'suis un rat d'laboratoire moi J'ai fais le tour du monde, ça m'a ouvert l'esprit Bizarre comme trois notes de musiques peuvent changer une vie Je chantais l'espoir, je chantais l'amour Mais ils veulent la guerre, un calibre c'est devenu glamour Depuis la capitale, ils entendent des rafales De kalash, des mères pleurent, ils savent même pas de quoi ils parlent Ils vendent de la haine, de la violence payante Et ils s'étonnent que les p'tits frères pressent des détentes De l'entertainment garder l'esprit, mais l'rap c'est pas ma religion c'est que du nezbi Soit, tu fais des sous, soit tu t'arrête au succés d'estime Ya pas d'prison dans mon CV, que des véritées dans mon CD J'aurai pu te parler d'armes et coke pour vendre plus de CD J'aurais pu t'parler d'pute et d'fric Moi, j'suis fidèle a mon éthique Moi, pour ce coté de la street j'ai jamais plaidé Petit j'viens pas t'incité Hram haliya, trop de mes frères sont déjà décédés La fois m'as guidée Dans la zik' j'me suis vidé Loin de moi l'envie de trahir mes idées A l'époque j'm'inquitais, j'avais pas de lovés Seul dans ma cave, les maisons d'disques me snobaient J'avais besoin d'cache, je cherchais le plan B Je fais de la musique et j'vois les potes tous tomber J'me suis rendu crazy a écrire d'la qualité Me comparez pas aux autres ils font que d'la quantité J'vais tout niquer, vous avez pas idées J'suis Johny de mon bled, j'suis Johnny Hallyday On m'as tellement rabaissé yemma Un jour je lâcherai la musique, rien a foutre de cette Dounia Au fond de moi, j'ai, jamais été heureux Même avec les euros, j'rêve de mourir miséreux Même avec les euros, j'rêve de mourir miséreux L'algé! J'écris pas pour inciter la jeunesse a faire du mal J'fais pas fantasmer les p'tits a parler de drogue, de prison A te parler d'armes A Marseille c'est l'KO J'ai perdu des amis, des frères, j'ai vu trop de mère en larmes Fuck tout ces rappeurs qui font l'apologie du crime, d'leur kalash a deux balles Ils savent même pas d'quoi ils parlent Et oui l'Algé, c'est pas des hommes Pour moi les hommes c'est ceux qui se lèvent le matin pour aller travailler, charbonner, pour nourrir leurs enfants et assumer leur famille Le haram, ça ne paye pas, la hagra, ça se paye tôt ou tard, alors, réveillez vous les frères, réveillez vous avant qu'il ne soit trop tard2</t>
+          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Moula Max</t>
+          <t>L’élégance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
+          <t>Halla grosse kichta de malade, gros pétard de salade J'filtre les appels t'inquiète ma belle Marseille on se balade Elle veut son gâté, elle veut son régalo Ils font les tarés nous on fait les taros Une soirée barrée t'es derrière les barreaux Toi tu nous dis que t'as 45, des rafales tout chargées gantées Ouais t'as sorti le A45 mais le videur te laisse pas rentrer Y'a l guetteur qui crie akha, y'a l guetteur qui crie ouh oh J'ai calé moula avant le barrage, y'a la douane y'a les pollos Je remonte la costa rebeu lacosté j'fais crier le Golf 8R J'vise pas le sommet j'suis au stah ça roule des gros zder avec ou sans mis-per J'suis en Nike LV j'écouterai Elvi 80 zetré zone à risque LV2 anglais LV1 money B.E.N.A.B Dracarys C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne J'fume la beuh d'hollanda, vodka et Miranda, tu peux compter sur moi fidèle comme Mandanda Y'en a eu des descentes et j'parle pas de police, ils en ont vu de toutes les couleurs ouais les jeunes ils s'alcoolisent Je sens que ça chante et je parle pas de choristes M'en fout de la vue sur la mer tant que les miens m'aiment à la folie En T-Max au cortège on escorte la Rolls Royce, on bloque la L2 c'est le mariage à Baby Boy C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite Ah ah j'suis dans ma folie J'ai pas récolté ce que j'ai semé, fais du bien avant que l'heure sonne Je t'ai fait confiance mais j'ai déconné je compte jamais ce que je donne Fin de soirée je fais les comptes, je mélange pas bébé et les potes C'est pas sur moi que tu vas te faire les dents Marseille Paris c'est élégant C'est la folie Y a des choses dans le cur qui nous lâchent pas, qui sont gravées J'en ai vu sourire pendant que mon cas s'aggravait Tourmenté, le combat est quotidien et mouvementé Tout tenter, la mentale on cherche pas à se montrer Si tu savais Boli des fois je pense que je suis maudit je n'oublie pas tout ce que tu m'as dit, ça quitte pas ma tête depuis jeudi Si tu savais Boli ce qui nous éloigne c'est les non-dits au milieu même pas y'a un radis, Moubzer a la haine depuis mardi Y'a pas que le temps qui a marqué nos visages De temps en temps j'gamberge et j'envisage Depuis le temps je vois clair dans tes messages Là il est temps de vite tourner la page Je suis toujours là pour un max, calypso bleu je suis pas de la police Paire de Air max sur un petit T-Max on viendra calmer aucun comique Papapa c'est qu'on est déjà en kappa, ça te rattrapera cette fois-ci on te loupera pas Elle fait pas la passe, elle vient des West Indies, gros c'est Paris qui a la marchandise Faut pas écouter les choses qui se disent entre deux perfs on se claque une bise La vie de Nasser, flow qataris, la Marseillaise est récitée C'est le flow qui a piqué, félicité par la cité C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite J'ai visé l'mille, je rallume mon pétard Y'a pas de covid ce soir on va se péter le tête Ramssa fehenik gros tu chouf mal Baisse le regard si tu vois que je lui tiens la mano Bénéfice everyday j'encaisse j'encaisse Mapesses mapesses y'a la police qui piste ma puce Elle veut partir en week-end j'aime trop la tess j'encaisse j'encaisse et je réserve la plus belle des suites J'suis titulaire indiscutable comme CR7 batistuta Sur écoute je peux pas discuter puce les barra téléphone jetable Tu n'es pas comme nous petit fils de putain t'as pas les codes C'est pas parce que je t'es déjà dit bonjour que t'es mon pote Ca vend la cannabis la weed en bas du bloc J'ai mis le kalenji Asics j'esquive les porcs Coup de lacrymogène on a bicrave des produits hallucinogènes Faudra leur faire du le-sa que que la vie soit belle On fait la guerre pas la paix fuck le prix Nobel Il me faut des billets pour que la vie soit belle vert et violet pour que la vie soit belle Grosse baraque avec vue sur la mer Ok c'est carré je suis dans le VIP et je repars avec deux missiles Me dis pas là t'es pas d'ici, ouais j'suis parisien comme Messi C'est galère à la cité mais ça t'allume sans hésiter Si demain j'arrête la zik, y'a les barrettes et la zipette</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L’élégance</t>
+          <t>Je m’oublie</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Halla grosse kichta de malade, gros pétard de salade J'filtre les appels t'inquiète ma belle Marseille on se balade Elle veut son gâté, elle veut son régalo Ils font les tarés nous on fait les taros Une soirée barrée t'es derrière les barreaux Toi tu nous dis que t'as 45, des rafales tout chargées gantées Ouais t'as sorti le A45 mais le videur te laisse pas rentrer Y'a l guetteur qui crie akha, y'a l guetteur qui crie ouh oh J'ai calé moula avant le barrage, y'a la douane y'a les pollos Je remonte la costa rebeu lacosté j'fais crier le Golf 8R J'vise pas le sommet j'suis au stah ça roule des gros zder avec ou sans mis-per J'suis en Nike LV j'écouterai Elvi 80 zetré zone à risque LV2 anglais LV1 money B.E.N.A.B Dracarys C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne C'est miné au quartier musique à fond devant la banal' La mélodie des cités fait danser Marion et Marianne J'fume la beuh d'hollanda, vodka et Miranda, tu peux compter sur moi fidèle comme Mandanda Y'en a eu des descentes et j'parle pas de police, ils en ont vu de toutes les couleurs ouais les jeunes ils s'alcoolisent Je sens que ça chante et je parle pas de choristes M'en fout de la vue sur la mer tant que les miens m'aiment à la folie En T-Max au cortège on escorte la Rolls Royce, on bloque la L2 c'est le mariage à Baby Boy C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite Ah ah j'suis dans ma folie J'ai pas récolté ce que j'ai semé, fais du bien avant que l'heure sonne Je t'ai fait confiance mais j'ai déconné je compte jamais ce que je donne Fin de soirée je fais les comptes, je mélange pas bébé et les potes C'est pas sur moi que tu vas te faire les dents Marseille Paris c'est élégant C'est la folie Y a des choses dans le cur qui nous lâchent pas, qui sont gravées J'en ai vu sourire pendant que mon cas s'aggravait Tourmenté, le combat est quotidien et mouvementé Tout tenter, la mentale on cherche pas à se montrer Si tu savais Boli des fois je pense que je suis maudit je n'oublie pas tout ce que tu m'as dit, ça quitte pas ma tête depuis jeudi Si tu savais Boli ce qui nous éloigne c'est les non-dits au milieu même pas y'a un radis, Moubzer a la haine depuis mardi Y'a pas que le temps qui a marqué nos visages De temps en temps j'gamberge et j'envisage Depuis le temps je vois clair dans tes messages Là il est temps de vite tourner la page Je suis toujours là pour un max, calypso bleu je suis pas de la police Paire de Air max sur un petit T-Max on viendra calmer aucun comique Papapa c'est qu'on est déjà en kappa, ça te rattrapera cette fois-ci on te loupera pas Elle fait pas la passe, elle vient des West Indies, gros c'est Paris qui a la marchandise Faut pas écouter les choses qui se disent entre deux perfs on se claque une bise La vie de Nasser, flow qataris, la Marseillaise est récitée C'est le flow qui a piqué, félicité par la cité C'est Paname, Marseille, la vitesse on maîtrise Une cachette des pépettes, gros Classico grosse conduite C'est Paname, Marseille, la vitesse on maitrise Une cachette des pépettes, gros Classico grosse conduite J'ai visé l'mille, je rallume mon pétard Y'a pas de covid ce soir on va se péter le tête Ramssa fehenik gros tu chouf mal Baisse le regard si tu vois que je lui tiens la mano Bénéfice everyday j'encaisse j'encaisse Mapesses mapesses y'a la police qui piste ma puce Elle veut partir en week-end j'aime trop la tess j'encaisse j'encaisse et je réserve la plus belle des suites J'suis titulaire indiscutable comme CR7 batistuta Sur écoute je peux pas discuter puce les barra téléphone jetable Tu n'es pas comme nous petit fils de putain t'as pas les codes C'est pas parce que je t'es déjà dit bonjour que t'es mon pote Ca vend la cannabis la weed en bas du bloc J'ai mis le kalenji Asics j'esquive les porcs Coup de lacrymogène on a bicrave des produits hallucinogènes Faudra leur faire du le-sa que que la vie soit belle On fait la guerre pas la paix fuck le prix Nobel Il me faut des billets pour que la vie soit belle vert et violet pour que la vie soit belle Grosse baraque avec vue sur la mer Ok c'est carré je suis dans le VIP et je repars avec deux missiles Me dis pas là t'es pas d'ici, ouais j'suis parisien comme Messi C'est galère à la cité mais ça t'allume sans hésiter Si demain j'arrête la zik, y'a les barrettes et la zipette</t>
+          <t>Cousin les années passent, je peux plus rester en place Je vois les gens construire leurs vie, moi je fais du surplace Jai jamais vu le marchand de sable Je dors plus la nuit , jai envie de faire du sale La vie est belle, mon cul ma belle Pour être heureux, faut plus que de loseille Elle me rend fou, elle me rend dingo Pour lassumer faudra gagner au loto Je suis en stress mon Dieu quand est-ce que le bonheur va me sourire, je suis HS Je me dis tout les jours, je bois sans cesse Jattends que le soleil se lève Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3 Pas attendu quon maide, pas attendu quon maime Fils dindigène, les chances ne sont pas les mêmes Pourquoi jai limpression de tomber dans le vide Jaurai tout donné pour pouvoir une autre vie On me regarde étrangement, je fais peur même à maman Dans ce monde matérialiste on te respecte quand tas de largent Elle lit dans mon visage elle sait quand je mens Ya toujours le cordon cest comme si elle mangeait quand je mange Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Je m’oublie</t>
+          <t>Les Dz à Rio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cousin les années passent, je peux plus rester en place Je vois les gens construire leurs vie, moi je fais du surplace Jai jamais vu le marchand de sable Je dors plus la nuit , jai envie de faire du sale La vie est belle, mon cul ma belle Pour être heureux, faut plus que de loseille Elle me rend fou, elle me rend dingo Pour lassumer faudra gagner au loto Je suis en stress mon Dieu quand est-ce que le bonheur va me sourire, je suis HS Je me dis tout les jours, je bois sans cesse Jattends que le soleil se lève Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3 Pas attendu quon maide, pas attendu quon maime Fils dindigène, les chances ne sont pas les mêmes Pourquoi jai limpression de tomber dans le vide Jaurai tout donné pour pouvoir une autre vie On me regarde étrangement, je fais peur même à maman Dans ce monde matérialiste on te respecte quand tas de largent Elle lit dans mon visage elle sait quand je mens Ya toujours le cordon cest comme si elle mangeait quand je mange Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie Faut que je prenne le large Jai envie de tout niqué retiens-moi, s'il te plait Jai juste envie de mévader Ce soir, je moublie x3</t>
+          <t>Tahya el jazayar Lih glab aahh Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra Lalgérie tahya l'a3lama Nadjma wa hlala Nadjma wa hlala 3lik ya bladi el jazayer ndir el mouhala Dans les quatre coins du monde Je représente quoi quil arrive frère Cest l'Algérino de la wilaya de Marseille Je suis un peu partout comme le drapeau de lAlgérie Bladi ou ma tssalouliche Ou halalalalala Wesh lAlger j'suis en direct de Blida c'est la hella Jentends les minots chanter Sur la tête de ma mère 3ami el commissaire el youm ma tahkamniche Sur la tête de ma mère Nakhraj nafrah ou nazha El youm ma tssalouliche Sur la tête de ma mère Sur la tête de ma mère Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra El jazayar tahya la3lama Nadjma wa hlal Nadjma wa hlal M3akia ya blade El jazayar dima fidèle Je fais la fierté de mon pays Escorte militaire Sortez les drapeaux et les fusils Ce soir cest la guerre On est tellement fière quon envahit le stade même quand on perd Sur la tête de ton père Ou Halalalalala M3ak ya el khadra Ou Halalalalala Viva lAlgérie Khamssa wa khmousse 3la bladi Moutou ya el ghiyarine Yeah Cest lAlgerino2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Les Dz à Rio</t>
+          <t>Tié plus mon poto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tahya el jazayar Lih glab aahh Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra Lalgérie tahya l'a3lama Nadjma wa hlala Nadjma wa hlala 3lik ya bladi el jazayer ndir el mouhala Dans les quatre coins du monde Je représente quoi quil arrive frère Cest l'Algérino de la wilaya de Marseille Je suis un peu partout comme le drapeau de lAlgérie Bladi ou ma tssalouliche Ou halalalalala Wesh lAlger j'suis en direct de Blida c'est la hella Jentends les minots chanter Sur la tête de ma mère 3ami el commissaire el youm ma tahkamniche Sur la tête de ma mère Nakhraj nafrah ou nazha El youm ma tssalouliche Sur la tête de ma mère Sur la tête de ma mère Nadjma wa hlal Nadjma wa hlal M3ak ya el khadra El jazayar tahya la3lama Nadjma wa hlal Nadjma wa hlal M3akia ya blade El jazayar dima fidèle Je fais la fierté de mon pays Escorte militaire Sortez les drapeaux et les fusils Ce soir cest la guerre On est tellement fière quon envahit le stade même quand on perd Sur la tête de ton père Ou Halalalalala M3ak ya el khadra Ou Halalalalala Viva lAlgérie Khamssa wa khmousse 3la bladi Moutou ya el ghiyarine Yeah Cest lAlgerino2</t>
+          <t>Oh na na, oh na na, yeah Oh na na, oh na na Mon iPhone sonne 10h du mat' J'ai la tête dans le cul J'crois que c'est la mèche qui me fait une blague J'descend de mon bloc J'allume une clope le soleil tape Le charbon Et dit wesh l'Alger j'ai de la frappe Bsahtek la famille elles sont toutes à fond sur toi Y'a plein de jaloux, t'en balec les calcule pas Rien qu'ils parlent de moi, tous les jours ils me font la biz' Il bande sur une folle et il s'lâche quand il est sous tize Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2 Fais gaffe à qui tu te confie Mieux vaux un ennemi que la moitié d'un ami Des fois tu te lâche avec lui, ce fils de raconte ta vie Le dos tourné il est capable de brancher ta gadji Tous des enculés, les vrais y'en a pas beaucoup Fait ton calcul qui était là quand tu étais dans le trou Que des mec fragiles qui s'affolent devant un cul C'est la plus grande des chiennes, pour elle ils l'envoient toute en cul Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tié plus mon poto</t>
+          <t>Étoile d’un Jour</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oh na na, oh na na, yeah Oh na na, oh na na Mon iPhone sonne 10h du mat' J'ai la tête dans le cul J'crois que c'est la mèche qui me fait une blague J'descend de mon bloc J'allume une clope le soleil tape Le charbon Et dit wesh l'Alger j'ai de la frappe Bsahtek la famille elles sont toutes à fond sur toi Y'a plein de jaloux, t'en balec les calcule pas Rien qu'ils parlent de moi, tous les jours ils me font la biz' Il bande sur une folle et il s'lâche quand il est sous tize Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2 Fais gaffe à qui tu te confie Mieux vaux un ennemi que la moitié d'un ami Des fois tu te lâche avec lui, ce fils de raconte ta vie Le dos tourné il est capable de brancher ta gadji Tous des enculés, les vrais y'en a pas beaucoup Fait ton calcul qui était là quand tu étais dans le trou Que des mec fragiles qui s'affolent devant un cul C'est la plus grande des chiennes, pour elle ils l'envoient toute en cul Tié plus mon poto nonononononono x4 Tu me l'a faite à l'envers, il me l'a faite à l'envers Tu as trop la boco, sur ma mère tu fous les nerfs Tié plus mon poto nonononononono x2</t>
+          <t>Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué à le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié aux Hommes qui ont combattu pour la paix Parce que jai voulu dire des choses, réunir des Hommes de cultures différentes Parce que jai prôné le dialogue et prêché lamour, prêché la vraie parole Réunir des peuples de religions opposées Allergiques au bien, à lHomme, à la nausée Jmappelle Gandhi jsuis mort Parce quon préfère la guerre à la paix, les armes au dialogue Jsuis mort dun cancer dla haine généralisé dans tout lglobe Mort parce que lHomme ne se sert pas de ses deux lobes cérébraux Jsuis mort parce que jcombattais lrascisme aux Etats-Unis Le noir nétait pas welcome, trop dhaine Jmappelle Malcom X, homme libre, homme ivre dégalité, dfraternité La couleur nest pas une frontière certes Trop desprits étroits Trop dconservateurs dmauvaise graine Je msuis fait buter, les balles ont fusé La haine est montée en fusée, je msuis envolé Comme mon discours et mon papier aussi jsuis mort Dans les montagnes dAfghanistan dorigine Pachtoune On ma dit dservir ton pays mais pas touche Je msuis fait exporter par la CIA pour vaincre lUnion Soviétique Jmappelle Massoud Je msuis fait piéger par une caméra, mon peuple a pleuré pour moi Avec du recul, ils cherchaient à construire un oléoduc pour faire transiter lor noir Leur putain dpétrole qui dirigent toutes leurs boussoles Ils sont même allés en Irak fouiller les sous-sols Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala... Le vent slève, un courant dair frais, une brise caresse la flore Dessine les trajectoires que suivent les pétales qui tombent sur le sol Les feuilles mortes tombent, les arbres se dénudent Il tombe des pluies, comme si sannonçait le déluge Non il tombe des obus, frappes au mortier Jsuis vêtu dun uniforme kaki, soldat du 15eme régiment dinfanterie Dlarmée des USA dans les forêts du Vietnam Jsuis mort pour la soi-disant fierté de mon pays Moi jmappelle X, personne inconnue à qui une balle a transpercé lcur Tirée par un serial killer du Ku Klux Klan Aujourdhui jsuis rien dautre quune célèbre victime dun crime contre lhumanité Parce que je nai pas la peau blanche Moi jétais dans un bureau du 70e étage dune tour Un avion sest écrasé dessus Ptêtre par accident Ou ptêtre à cause des gens qui mêlent politique et religion Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué a le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié à ceux qui ont combattus pour la paix Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala...</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Étoile d’un Jour</t>
+          <t>Les 4 Fantastiques</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué à le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié aux Hommes qui ont combattu pour la paix Parce que jai voulu dire des choses, réunir des Hommes de cultures différentes Parce que jai prôné le dialogue et prêché lamour, prêché la vraie parole Réunir des peuples de religions opposées Allergiques au bien, à lHomme, à la nausée Jmappelle Gandhi jsuis mort Parce quon préfère la guerre à la paix, les armes au dialogue Jsuis mort dun cancer dla haine généralisé dans tout lglobe Mort parce que lHomme ne se sert pas de ses deux lobes cérébraux Jsuis mort parce que jcombattais lrascisme aux Etats-Unis Le noir nétait pas welcome, trop dhaine Jmappelle Malcom X, homme libre, homme ivre dégalité, dfraternité La couleur nest pas une frontière certes Trop desprits étroits Trop dconservateurs dmauvaise graine Je msuis fait buter, les balles ont fusé La haine est montée en fusée, je msuis envolé Comme mon discours et mon papier aussi jsuis mort Dans les montagnes dAfghanistan dorigine Pachtoune On ma dit dservir ton pays mais pas touche Je msuis fait exporter par la CIA pour vaincre lUnion Soviétique Jmappelle Massoud Je msuis fait piéger par une caméra, mon peuple a pleuré pour moi Avec du recul, ils cherchaient à construire un oléoduc pour faire transiter lor noir Leur putain dpétrole qui dirigent toutes leurs boussoles Ils sont même allés en Irak fouiller les sous-sols Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala... Le vent slève, un courant dair frais, une brise caresse la flore Dessine les trajectoires que suivent les pétales qui tombent sur le sol Les feuilles mortes tombent, les arbres se dénudent Il tombe des pluies, comme si sannonçait le déluge Non il tombe des obus, frappes au mortier Jsuis vêtu dun uniforme kaki, soldat du 15eme régiment dinfanterie Dlarmée des USA dans les forêts du Vietnam Jsuis mort pour la soi-disant fierté de mon pays Moi jmappelle X, personne inconnue à qui une balle a transpercé lcur Tirée par un serial killer du Ku Klux Klan Aujourdhui jsuis rien dautre quune célèbre victime dun crime contre lhumanité Parce que je nai pas la peau blanche Moi jétais dans un bureau du 70e étage dune tour Un avion sest écrasé dessus Ptêtre par accident Ou ptêtre à cause des gens qui mêlent politique et religion Dans cmonde ya trop dsang qui coule parce quon est différent Et notre point commun reste notre indifférence Universelle est la race Humaine, originel est notre pêché Mais de saimer on ne peut pas sempêcher Cohabiter on est voué a le faire de force ou de gré Même si différent est notre pedigree Les intérêts mettent lamour de coté Dédié à ceux qui ont combattus pour la paix Ooh Pour nos frères là haut Qui se sont envolés trop tôt Comme une feuille dautomne Ooh Ooh Pour nos frères là haut On se reverra tous bientôt Mon cur une rose sur vos tombes Ooh Pour nos stars, lalala... Pour toutes nos stars, lalala... Jai dit nos vraies stars nos vraies stars, lalala... Pour toutes nos vraies stars, lalala...</t>
+          <t>Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Par les charmes de la vie j'suis tenté J'vois le monde qui part en couilles, roule moi un gros joint d'amné Poto y a rien de grave tu sais, tant qu'on a la santé Y a la madré qui m'appelle, le p'tit frère qui vient d'tomber On n'sait pas où la vie nous mène Y a qu'Dieu qui peut m'juger Pardon si j't'ai fait d'la peine, tu sais qu'sur moi tu peux compter Arrête de me faire le beau, tu t'es pris pour un narco Pas à l'abris d't'faire fumer par un zemel comme Patcho Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Tu m'as donné ta parole et tu m'as dis j'ai pas le temps J'habite chez la daronne, elle a mis l'platine au salon Tu m'as fait plaiz' la 'zine et vas-y ressert moi un verre Tu m'as vu dans Voici, t'hallucines j'suis sortir d'la 'zère Et oui mon ami, j'suis au bord d'la mer J'suis dans la musique, j'suis encore en vie et qu'est-ce tu peux faire ? J'sais qu'elle est maline, qu'elle veut me la faire 13ème art à l'usine, showcase à Madrid, j'fais le tour d'la terre Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Lève ton verre à ma santé La daronne n'est plus endettée Le passé ne m'a pas épargné Pourtant je souris comme jamais Chez moi on n'sait pas plier On carbure à la fierté On fait la guerre à la vie même si les munitions sont épuisées Le quartier ne m'a pas tué Combien de frères sont tombés ? En hommage à leur mémoire je continue de rafaler le succès, oh Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Léwé dans l'club, dans l'VIP on m'installe J'suis dans leurs viseurs J'vais mourir jeune à force de faire du sale J'traine dans mon secteur Que du sale Treize, Marseille c'est l'bled Le rap se fait soulever par le raid Ici toutes les balances sont wanted Pum pum au feu rouge Que du sale Me parle pas et fais ta folle Elle voit déjà le voyage de noces On est là mais la fête est fausse La tête dans les billets on fait Que du sale Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous1</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Les 4 Fantastiques</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Par les charmes de la vie j'suis tenté J'vois le monde qui part en couilles, roule moi un gros joint d'amné Poto y a rien de grave tu sais, tant qu'on a la santé Y a la madré qui m'appelle, le p'tit frère qui vient d'tomber On n'sait pas où la vie nous mène Y a qu'Dieu qui peut m'juger Pardon si j't'ai fait d'la peine, tu sais qu'sur moi tu peux compter Arrête de me faire le beau, tu t'es pris pour un narco Pas à l'abris d't'faire fumer par un zemel comme Patcho Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Tu m'as donné ta parole et tu m'as dis j'ai pas le temps J'habite chez la daronne, elle a mis l'platine au salon Tu m'as fait plaiz' la 'zine et vas-y ressert moi un verre Tu m'as vu dans Voici, t'hallucines j'suis sortir d'la 'zère Et oui mon ami, j'suis au bord d'la mer J'suis dans la musique, j'suis encore en vie et qu'est-ce tu peux faire ? J'sais qu'elle est maline, qu'elle veut me la faire 13ème art à l'usine, showcase à Madrid, j'fais le tour d'la terre Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Lève ton verre à ma santé La daronne n'est plus endettée Le passé ne m'a pas épargné Pourtant je souris comme jamais Chez moi on n'sait pas plier On carbure à la fierté On fait la guerre à la vie même si les munitions sont épuisées Le quartier ne m'a pas tué Combien de frères sont tombés ? En hommage à leur mémoire je continue de rafaler le succès, oh Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Léwé dans l'club, dans l'VIP on m'installe J'suis dans leurs viseurs J'vais mourir jeune à force de faire du sale J'traine dans mon secteur Que du sale Treize, Marseille c'est l'bled Le rap se fait soulever par le raid Ici toutes les balances sont wanted Pum pum au feu rouge Que du sale Me parle pas et fais ta folle Elle voit déjà le voyage de noces On est là mais la fête est fausse La tête dans les billets on fait Que du sale Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coup si y a les schmit rends les fous Faut faire des sous On s'en balec on prend tout On tient le coups si y a les schmit rends les fous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous Ouh-ouh-ouh-ouh Y a les schmitts rends-les fous Bats les couilles des jaloux Nous on sait faire des sous1</t>
+          <t>21 fois 365 jours, 21 fois la Terre a tourné autour Du soleil depuis qu'j'ai vu l'jour 21 piges en conclusion 21 années A squatter ces blocs fanés 21 moins 3, années scolaires à comprendre Que Liberté, Egalité, Fraternité cest d'la théorie Dont on essaie de mettre ça en pratique, situation critique Trop rigide est l'être humain et son esprit 21 façons non, mille et une façons de dire les choses Une, deux, trois sont valables et franchise sincérité et tact Une, deux, trois façons de dire ses 4 vérités soit 21 fois 365 fois 24 heures Ça donne 138 960 heures Juste le temps d'acquérir un bac et un deug d'accord Juste le temps de s'armer et d'affronter cette vie hardcore 21 balais toujours gringalé déshydraté Trop soif parce que trop peu gâté 21 fois de fêtes de l'aîd par année Rassemblement familial à constater qu'les proches y'a qu'ça d'vrai Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne 21 fois la Terre a tourné Minimum 21 fois à penser à tout r'tourner Pensées malsaines qui poussent le mal couronné Nous poussent à tout renier mais j'croupe les liens familiaux 81 mois ma mère a porté 9 enfants 81 mois De grossesse en tout pourtant tout un poids Toute une descendance en soi Toute une famille toute une progéniture 81 mois A nous couver bien au chaud 21 baffes Entre celles des parents et celles de la vie le manque de taff Soif mil et un fleuve rassasie notre soif Certains sont empoisonnés il faut croire 21 étés passés au bled On sait où l'on va sachant d'où l'on vient en fait 21 hivers passés à Marseille tempéré dans l'climat Mais froid dans le cur c'est toujours le même panorama 21 ans de vie à observer tant d'injustices Depuis j'ai rien compris 21 années à comprendre quon a des devoirs et des droits Qu'la loi est la même pour tout l'monde même si certains ne lappliquent pas Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>À la muerte</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21 fois 365 jours, 21 fois la Terre a tourné autour Du soleil depuis qu'j'ai vu l'jour 21 piges en conclusion 21 années A squatter ces blocs fanés 21 moins 3, années scolaires à comprendre Que Liberté, Egalité, Fraternité cest d'la théorie Dont on essaie de mettre ça en pratique, situation critique Trop rigide est l'être humain et son esprit 21 façons non, mille et une façons de dire les choses Une, deux, trois sont valables et franchise sincérité et tact Une, deux, trois façons de dire ses 4 vérités soit 21 fois 365 fois 24 heures Ça donne 138 960 heures Juste le temps d'acquérir un bac et un deug d'accord Juste le temps de s'armer et d'affronter cette vie hardcore 21 balais toujours gringalé déshydraté Trop soif parce que trop peu gâté 21 fois de fêtes de l'aîd par année Rassemblement familial à constater qu'les proches y'a qu'ça d'vrai Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caner mille et une fois Le temps coule en attendant que mon heure sonne 21 fois la Terre a tourné Minimum 21 fois à penser à tout r'tourner Pensées malsaines qui poussent le mal couronné Nous poussent à tout renier mais j'croupe les liens familiaux 81 mois ma mère a porté 9 enfants 81 mois De grossesse en tout pourtant tout un poids Toute une descendance en soi Toute une famille toute une progéniture 81 mois A nous couver bien au chaud 21 baffes Entre celles des parents et celles de la vie le manque de taff Soif mil et un fleuve rassasie notre soif Certains sont empoisonnés il faut croire 21 étés passés au bled On sait où l'on va sachant d'où l'on vient en fait 21 hivers passés à Marseille tempéré dans l'climat Mais froid dans le cur c'est toujours le même panorama 21 ans de vie à observer tant d'injustices Depuis j'ai rien compris 21 années à comprendre quon a des devoirs et des droits Qu'la loi est la même pour tout l'monde même si certains ne lappliquent pas Conseiller le bien déconseiller le mal 21 plus X c'est le temps qu'il me reste à vivre La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne La Terre a tourné 21 fois 21 fois Chaque jour que Dieu fait j'aurai pu caler mille et une fois Le temps coule en attendant que mon heure sonne</t>
+          <t>Rim's on the beat En promenade, j'fume le Cohiba Taureau sur le capot, c'est la corrida Inspire-toi mais ne copie pas Comme parrain de Palerme, dans les cheveux, j'ai mis la gomina Born in France, made in DZ Ma Patek Philippe est à l'heure du bled T'as millions d'abonnés, j'ai millions d'euros J'suis résident fiscal à Alger, ils ont le fuego J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Jeune trafiquant, je connais tous les taros combien ? Eh fais-toi un garrot avec ma Ferragamo J'ai fait TP dans le bloc, j'ai vendu la puro Marseille te laisse sur le carreau, crie akha, j'ai vu les gyros Ma beauté, je suis coté Cette année, Soso Maness, il joue la montée Tahya bladna, 02 gang, Chlef, rray tlef Comme Belloumi, j'fais J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>À la muerte</t>
+          <t>ALG 63</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rim's on the beat En promenade, j'fume le Cohiba Taureau sur le capot, c'est la corrida Inspire-toi mais ne copie pas Comme parrain de Palerme, dans les cheveux, j'ai mis la gomina Born in France, made in DZ Ma Patek Philippe est à l'heure du bled T'as millions d'abonnés, j'ai millions d'euros J'suis résident fiscal à Alger, ils ont le fuego J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Jeune trafiquant, je connais tous les taros combien ? Eh fais-toi un garrot avec ma Ferragamo J'ai fait TP dans le bloc, j'ai vendu la puro Marseille te laisse sur le carreau, crie akha, j'ai vu les gyros Ma beauté, je suis coté Cette année, Soso Maness, il joue la montée Tahya bladna, 02 gang, Chlef, rray tlef Comme Belloumi, j'fais J'suis DZ à la muerte Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte On a fait les comptes, crie akha au talkie J'suis DZ, KB Nueve Paraît qu'tu m'cherches, poto, estoy aquí Clic boom, buena suerte Uno, uno, dos, tres, cuatro Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Dale duro, papi! Dale más duro! Tra-, tra-, tra-, tra- Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes Traficante ! Tout pour le cartel Traficante à la muerte, nous, on trinque et, toi, tu payes</t>
+          <t>Ils font , les armes à Manny, ils ont pas l'fascicule Algérien comme Benze', j'suis dans la Benzo, tu connais l'véhicule Oh la 'sine est trop charmée, elle veut son gâté, elle a vu l'attitude Monte à bord de l'avion, j'ai pris des ronds, on va prendre l'altitude Les p'tits charbonnent pour du Balmain, il pleut des balles même quand c'est la canicule Y l'mauvais il qui m'harcèle, bébé, c'est Marseille, tu connais l'matricule Quand je vais mal, ils sont ravis, poto, c'st la vie, ouais, j'ai pris l'habitude Quartier, quatr saisons, j'ai mes raisons si j'ai b'soin d'solitude Mama, j'suis fier comme baba, jamais j'passerais aux aveux Et pour mévader là bas, j'mélange le shit et la beuh Tête de 3arbi comme Salah, on en a fait du sale Mais avec les yeux, on triche pas, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat Elle, c'qui l'intéresse, c'est l'Audi RS, c'est remplir la pellicule J'connais par cur l'ATS, j'ai les K, le S, prends mon Snap', fais ta pub' Quartiers Nord, Sud et Carter, menotté par terre devant tout l'quartier Audemars, Philippe Patek, dis-moi bsahtek si j'ai fait du papier J'suis ralenti, j'ai les palettes, sur du Cheb Hasni, j'ai fait le tour La bécane frotte la bavette, y a kichta, barrettes, tout dans le four Et madame voulait Bali, j'demande sa mano, j'arrêtais pas d'zoner J'sais pas combien d'gens m'ont trahi, j'deviens parano, comment les pardonner ? Oui, les petits ont grandi, sur le terrain comme Manny C'est la mélo' des bandits, guitarisé comme Johnny Elle veut Gucci et le Fendi, mano sur l'doigt et la Audi Elle est chargée comme ma kichta, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ALG 63</t>
+          <t>Alger By Night</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ils font , les armes à Manny, ils ont pas l'fascicule Algérien comme Benze', j'suis dans la Benzo, tu connais l'véhicule Oh la 'sine est trop charmée, elle veut son gâté, elle a vu l'attitude Monte à bord de l'avion, j'ai pris des ronds, on va prendre l'altitude Les p'tits charbonnent pour du Balmain, il pleut des balles même quand c'est la canicule Y l'mauvais il qui m'harcèle, bébé, c'est Marseille, tu connais l'matricule Quand je vais mal, ils sont ravis, poto, c'st la vie, ouais, j'ai pris l'habitude Quartier, quatr saisons, j'ai mes raisons si j'ai b'soin d'solitude Mama, j'suis fier comme baba, jamais j'passerais aux aveux Et pour mévader là bas, j'mélange le shit et la beuh Tête de 3arbi comme Salah, on en a fait du sale Mais avec les yeux, on triche pas, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat Elle, c'qui l'intéresse, c'est l'Audi RS, c'est remplir la pellicule J'connais par cur l'ATS, j'ai les K, le S, prends mon Snap', fais ta pub' Quartiers Nord, Sud et Carter, menotté par terre devant tout l'quartier Audemars, Philippe Patek, dis-moi bsahtek si j'ai fait du papier J'suis ralenti, j'ai les palettes, sur du Cheb Hasni, j'ai fait le tour La bécane frotte la bavette, y a kichta, barrettes, tout dans le four Et madame voulait Bali, j'demande sa mano, j'arrêtais pas d'zoner J'sais pas combien d'gens m'ont trahi, j'deviens parano, comment les pardonner ? Oui, les petits ont grandi, sur le terrain comme Manny C'est la mélo' des bandits, guitarisé comme Johnny Elle veut Gucci et le Fendi, mano sur l'doigt et la Audi Elle est chargée comme ma kichta, c'est cette vie sinon quelle vie ? On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score On a les disques d'or, on a du Gucci, Dior On rentabilise, rentabilise, on a pété l'score J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait, un billet sur le côté T'inquiète pas pour la mama, pour le p'tit frère, l'avocat J'suis rentré d'show, j'suis refait</t>
+          <t>Oriental Dream Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Wesh beloumi on sfait une virée ? Paraît quau Cristal ya un gros DJ Ça a même pas commencé Tes déjà déchiré Oriental Dream Amor jsuis trop inspiré Art spécialité folie Elle est jolie comme une Ferrari Aywa Mais jsuis pas ton pigeon ma chérie Demande à Abdullah la famille Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Ambiance électrique, khouya tricité Jsuis à Alger, jfais que piloter Jai pas ltemps, jai une Audemars Piguet Je finirai mes jours là-bas sans hésiter Mais dabord faut qujfasse une pakita Deux-trois millions deuros Cest la retraite là-bas Cousin jai pas ltemps Découter tes blablablas Jsuis bien XXX djellaba Ya Nebri Rythme Hami Ri Jdid W L'boom L'mosica Fi Demi Lila Lilat Lyoum Ambiance de feu Ya Radi Nglebha Non Stop W Yhala Cha Radi Yahbesha x2 Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya1</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Alger By Night</t>
+          <t>Allo maman</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Oriental Dream Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Wesh beloumi on sfait une virée ? Paraît quau Cristal ya un gros DJ Ça a même pas commencé Tes déjà déchiré Oriental Dream Amor jsuis trop inspiré Art spécialité folie Elle est jolie comme une Ferrari Aywa Mais jsuis pas ton pigeon ma chérie Demande à Abdullah la famille Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya Ambiance électrique, khouya tricité Jsuis à Alger, jfais que piloter Jai pas ltemps, jai une Audemars Piguet Je finirai mes jours là-bas sans hésiter Mais dabord faut qujfasse une pakita Deux-trois millions deuros Cest la retraite là-bas Cousin jai pas ltemps Découter tes blablablas Jsuis bien XXX djellaba Ya Nebri Rythme Hami Ri Jdid W L'boom L'mosica Fi Demi Lila Lilat Lyoum Ambiance de feu Ya Radi Nglebha Non Stop W Yhala Cha Radi Yahbesha x2 Oh Ho Ya Dj Zid Volume W Ali Rani Jay Lila Special Ndéfoulée Oh Ho Ya Dj Bari Deneya Tvibrée Alya Raha Mkhalta Bari Ntlag Hbali Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Ghir Top Ghir Top Aya Godam Ayniya Yaw Ghir Zid Ghir Zid Ghir Zid Aya Dayer Biya Ghir Top Godam Ayniya1</t>
+          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout ce complique quand t'deviens adolescent Faut que zeille et j'suis pris en deux feux incandescent Tout s'accélère j'ai des problème scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussira jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelque-uns comme quand tu jète des cartons Au rani J'fume des joints en cours de phylo rien a foutre de Pythagore J'décortiquais les phases de Luciano à mes heures perdues J'tape sur un ballon de baston en baston ma reput' prends du Gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la Thunes Alors je vole je vole je vole je vole Alors je vole rien de grave des p'tits lartins Y a des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a fait éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou Elle crois que j'parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon Frère On me calculait pas quand j'étais plus bas que terre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais état envieux j'attendais mon heure J'attendais patiemment que la vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lève toi et bat toi jeune garnement Je me surpasse et j'vais me mettre en centre Y a que des pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lève toi et bat toi jeune garnements Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Allo maman</t>
+          <t>À Marseille</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Les souvenirs intacts, je me souviens j'étais heureux Petit garçon timide j'en ai rien à foutre des Euros Mais tout ce complique quand t'deviens adolescent Faut que zeille et j'suis pris en deux feux incandescent Tout s'accélère j'ai des problème scolaire Pas parce que j'suis con mais parce qu'il m'faut un salaire La France est un pays ou les ambitieux se meurent Mon prof m'a dit tu réussira jamais jeune beurre Alors je fume, alors je bois Je traine de hall en hall maman s'inquiète pour moi Fuck l'école alcool et cannabis J'perds mon temps j'me saoule et j'me tue a l'hotel iblis Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi J'doute sur ma vie, J'doute sur mes amis Trahis changé quelque-uns comme quand tu jète des cartons Au rani J'fume des joints en cours de phylo rien a foutre de Pythagore J'décortiquais les phases de Luciano à mes heures perdues J'tape sur un ballon de baston en baston ma reput' prends du Gallon Les anciens rêvaient d'marcher sur la lune Aujourd'hui nous les jeunes ont pensent qu'a d'faire d'la Thunes Alors je vole je vole je vole je vole Alors je vole rien de grave des p'tits lartins Y a des potos qui tombe j'ai eu plus de chance que certains Le R.A.P m'a fait éviter de déraper Sur un bout de papier je m'évade du quartier Mama m'prends pour un fou Elle crois que j'parle tout seul Elle prie pour son fils pendant qu'elle frotte le sol Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi Hamdoullah aujourd'hui j'ai un putain d'salaire Rien vu rien entendu sur la tête de ma mère Les gens ne savent pas ce qui s'passe dans ma tête mon Frère On me calculait pas quand j'étais plus bas que terre Dis leurs Malo combien j'ai trimé Je bossais jour et nuit pendant qu'certains priaient J'ai jamais état envieux j'attendais mon heure J'attendais patiemment que la vie me fasse une fleur J'attendais mon heure pas de place pour les pleures oui oui oui de la rage et du cur J'suis jeune et fort j'y mets tout mon cur Le son qui donne de l'espoir aux jeunes garnements Lève toi et bat toi jeune garnement Je me surpasse et j'vais me mettre en centre Y a que des pétasse j'ai pas peur d'finir en sang Tu m'as trahie je t'ai hais Mehlich mon ami on va tous finir ensemble en cendre Lève toi et bat toi jeune garnements Allo maman bobo bobo allo maman bobo bobo J'remplis mes salles de concerts mais j'me sent si seul J'suis dans mon brouillard j'ai perdu ma boussole Allo maman bobo bobo allo maman bobo bobo Pour tout ses battement d'cur rien que pour toi Pardon pour les soucis que tu te fais pour moi</t>
+          <t>- Oh, Hassan, ça va ou quoi ? - Ça va, tranquille et quoi toi, frère? - Ça va, tranquille, tranquille, tranquille - Tu rebois un truc ? - Ouais, remets-moi la même s'te-plaît. Ah, t'as entendu pour l'autre ? - Ouais, j'ai entendu, c'est un truc de fou, eh - Eh ouais, à Marseille c'est devenu le bordel, eh J'suis à Marseille, y a des hauts, des bas, y a des gros débats Au départ, tous anti-État, RS4 illégal Tu connais l'hkayet, à c'qui p', c'est un chaud Fais gaffe à ton co', dis pas qu't'es libérable, il va t'donner en go C'est les ténèbres de Marseille à Paris Le Diable est devenu célèbre, les michtonneuses font de la sorcellerie Faut décrypter maintenant dans les stories, ça envoie des subli' Il fait l'chaud, Glock dans la bouche et après, il t'supplie Caisse pliée, cur brisé, gaspillé l'temps, j'fais l'niya, j'laisse filer, qu'est-ce qu'il est con Mes rêves d'hier, j'veux les vivre parce qu'il est temps et j'ai jamais fait le fier, hein Passe si tu veux t'loger, mange si tu veux manger Ma daronne c'est la mienne, c'est la tienne, on a tout partagé Parano, tu sais plus si c'est les schmitts qui t'ont filoché Tu l'as raté dehors, ils vont pas t'rater au bâtiment C surveillant J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves Moi j'étais pas là, 'sin, quand les p'tits ont pété ton magasin Pris ton réseau, les schmitts sont planqués dans la caravane J'ai mes raisons, tu as tes raisons, moi j'me mélange pas J'ai plus d'réseau, ça vient cagoulé comme mère Teresa J'fume la résine, en bas résille, ouais, elle fait sa folle Dans l'carré VIP, il claque la paye, néglige la daronne Y a pas d'répit, ça veut tes sous, ça veut ta gadji Eh ouais l'ami, ça peut t'fumer juste par jalousie Recherché en Andalousie, ça charbonne comme à l'usine Ça planque le magot dans une île, poto, t'hallucines On parle pas, on agit, l'inspiration vient comme par magie, demande à la machine Prends pas la machin, y a la Kalash' à l'achat Le shit est coté en bourse, c'est la fusée d'la NASA Tout dans la massa, rien dans la mama, poto, qué pasa? Tu veux quoi ? Eh, va niquer tes morts en Alaska J'suis au Cavalli, Olivia Valère, ouais J'suis aux Caraïbes, le teint caramel, ouais Beauté maladive, elle t'a mis à terre, hein ? Il est trop fragile, un homme à la mer, ouais J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>À Marseille</t>
+          <t>Avant de partir</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>- Oh, Hassan, ça va ou quoi ? - Ça va, tranquille et quoi toi, frère? - Ça va, tranquille, tranquille, tranquille - Tu rebois un truc ? - Ouais, remets-moi la même s'te-plaît. Ah, t'as entendu pour l'autre ? - Ouais, j'ai entendu, c'est un truc de fou, eh - Eh ouais, à Marseille c'est devenu le bordel, eh J'suis à Marseille, y a des hauts, des bas, y a des gros débats Au départ, tous anti-État, RS4 illégal Tu connais l'hkayet, à c'qui p', c'est un chaud Fais gaffe à ton co', dis pas qu't'es libérable, il va t'donner en go C'est les ténèbres de Marseille à Paris Le Diable est devenu célèbre, les michtonneuses font de la sorcellerie Faut décrypter maintenant dans les stories, ça envoie des subli' Il fait l'chaud, Glock dans la bouche et après, il t'supplie Caisse pliée, cur brisé, gaspillé l'temps, j'fais l'niya, j'laisse filer, qu'est-ce qu'il est con Mes rêves d'hier, j'veux les vivre parce qu'il est temps et j'ai jamais fait le fier, hein Passe si tu veux t'loger, mange si tu veux manger Ma daronne c'est la mienne, c'est la tienne, on a tout partagé Parano, tu sais plus si c'est les schmitts qui t'ont filoché Tu l'as raté dehors, ils vont pas t'rater au bâtiment C surveillant J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves Moi j'étais pas là, 'sin, quand les p'tits ont pété ton magasin Pris ton réseau, les schmitts sont planqués dans la caravane J'ai mes raisons, tu as tes raisons, moi j'me mélange pas J'ai plus d'réseau, ça vient cagoulé comme mère Teresa J'fume la résine, en bas résille, ouais, elle fait sa folle Dans l'carré VIP, il claque la paye, néglige la daronne Y a pas d'répit, ça veut tes sous, ça veut ta gadji Eh ouais l'ami, ça peut t'fumer juste par jalousie Recherché en Andalousie, ça charbonne comme à l'usine Ça planque le magot dans une île, poto, t'hallucines On parle pas, on agit, l'inspiration vient comme par magie, demande à la machine Prends pas la machin, y a la Kalash' à l'achat Le shit est coté en bourse, c'est la fusée d'la NASA Tout dans la massa, rien dans la mama, poto, qué pasa? Tu veux quoi ? Eh, va niquer tes morts en Alaska J'suis au Cavalli, Olivia Valère, ouais J'suis aux Caraïbes, le teint caramel, ouais Beauté maladive, elle t'a mis à terre, hein ? Il est trop fragile, un homme à la mer, ouais J'voulais décrocher les étoiles J'veux plus rêver, moi je vis mes rêves On traîne à quatre dans le S3 Mais j'suis solo quand le soleil se lève J'veux plus te voir pleurer, yema yema J'vais te sortir de là, yema yema J'irai décrocher les étoiles J'veux plus rêver, moi je vis mes rêves</t>
+          <t>Avant de partir j'ai tant de chose à dire à mon public, aux miens A tous ces gens qui m'ont vu grandir J'aimerai dire avant tout que c'est la sincérité qui m'retient Le peu d'gens qui mécoutent, je trouve la force dans leur soutien Avant d'avoir le corps recouvert par un linceul Prenez cette chanson c'est comme un testament à elle seule J'ai pris conscience de mes responsabilitées Mes paroles peuvent faire du bien comme elles peuvent égarer Y'a 666 chemins pour faire du mal Un seul chemin pour faire partie des hommes de bien Créateur de toutes les créatures pardonne mes impostures Si la mort frappe à cet instant je serais en mauvaise posture J'aimerais dire aux frères gardez l'espoir Sachez que le bonheur ne se trouve pas dans les squares Se soûler le soir ne retarde que l'échéance La réalité frappe quand l'alcool redescend, tu recouvres tes sens Mon frère la vie est trop brève c'est maintenant ou jamais Soit tu flanches soit tu t'releves Si tu es dans l'illicite sache que ton fric a une sale odeur Il vaut pas le centième de l'argent gagné à la sueur Avant de partir j'aimerai dire aux petites soeurs Ne perdez pas votre fierté, votre imen est quelque chose de sacré T'as commis des erreurs Laisse pas les gens te juger Dieu a fait rentrer au paradis des ex-prostituées Avant de partir j'aimerais dire Yemma pardonne moi Pour les tracas que j't'ai causé, les larmes que tu as versé Tu as passé des nuits blanches à m'attendre devant mon lit Soucieuse de voir ton fils marié à la nuit Avant de rendre l'âme j'aimerais dire à ma femme Merci pour ta patience tu t'es dévoué corps et âme Tu as fait de moi un homme que serait Adam sans Ève Derrière chaque grand homme se cache une femme avec un grand air Avant de m'éteindre si j'vivais mes dernières heures J'aimerais les passer le front sur un tapis de prière Le cul entre 2 chaises dont une est électrique Condamné à périr la Loi Divine est irréversible Avant de partir j'aimerais dire j'ai tout sacrifié pour la musique J'ai tout donner pour la musique j'ai vu, manger, penser musique J'me rappelle au lycée le peu d'argent que j'avais J'achetais pas les sappes, Y'avait les séances studio à payer Avant de quitter c'monde Bon Dieu j'ai un souhait J'aimerais voir les enfants d'Isaac et dIsmaël vivrent en paix J'reviens de Palestine mon coeur en est criblé J'ai vu à Jérusalem que l'on peut tous se mélanger Avant de méteindre j'demande pardon à tous ceux que j'ai froissé Mon meilleur pote a rendu l'âme on s'est quitté sans s'parler merde Quand la mort frappe c'est trop tard les regrets rongent J'en est des larmes à chaque fois qu'il me visite dans mes songes Pas besoin de parcourir la Terre pour savoir qu'on est désuni Dans nos quartiers on se déchire en période de pénurie On se jalouse entre nous au lieu de se motiver Ton pote a réussit qu'est ce t'attends pour le féliciter Avant de m'éteindre j'aimerais dire à ma famille à quel point je les aimes Pour eux j'aurais pu donner ma vie Si j'pars avant vous à mon insu j'en suis désolé J'vous laisse ma descendance si ça peut vous consoler Désolé d'ne pas avoir témoigné mon amour autrement Mais j'ai trop d'pudeur et j'me lâche qu'à travers mes chansons Rien n'est plus important que les liens du sang Touche à ma famille et je ferais couler le sang J'aimerais aussi dire au public Qu'aux yeux des maisons de disque vous nêtes que du chiffre Que la plupart des artistes sont tous des hypocrites S'inventent des vies, Vendent leur misère pour du fric</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Avant de partir</t>
+          <t>AYÉ AYO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Avant de partir j'ai tant de chose à dire à mon public, aux miens A tous ces gens qui m'ont vu grandir J'aimerai dire avant tout que c'est la sincérité qui m'retient Le peu d'gens qui mécoutent, je trouve la force dans leur soutien Avant d'avoir le corps recouvert par un linceul Prenez cette chanson c'est comme un testament à elle seule J'ai pris conscience de mes responsabilitées Mes paroles peuvent faire du bien comme elles peuvent égarer Y'a 666 chemins pour faire du mal Un seul chemin pour faire partie des hommes de bien Créateur de toutes les créatures pardonne mes impostures Si la mort frappe à cet instant je serais en mauvaise posture J'aimerais dire aux frères gardez l'espoir Sachez que le bonheur ne se trouve pas dans les squares Se soûler le soir ne retarde que l'échéance La réalité frappe quand l'alcool redescend, tu recouvres tes sens Mon frère la vie est trop brève c'est maintenant ou jamais Soit tu flanches soit tu t'releves Si tu es dans l'illicite sache que ton fric a une sale odeur Il vaut pas le centième de l'argent gagné à la sueur Avant de partir j'aimerai dire aux petites soeurs Ne perdez pas votre fierté, votre imen est quelque chose de sacré T'as commis des erreurs Laisse pas les gens te juger Dieu a fait rentrer au paradis des ex-prostituées Avant de partir j'aimerais dire Yemma pardonne moi Pour les tracas que j't'ai causé, les larmes que tu as versé Tu as passé des nuits blanches à m'attendre devant mon lit Soucieuse de voir ton fils marié à la nuit Avant de rendre l'âme j'aimerais dire à ma femme Merci pour ta patience tu t'es dévoué corps et âme Tu as fait de moi un homme que serait Adam sans Ève Derrière chaque grand homme se cache une femme avec un grand air Avant de m'éteindre si j'vivais mes dernières heures J'aimerais les passer le front sur un tapis de prière Le cul entre 2 chaises dont une est électrique Condamné à périr la Loi Divine est irréversible Avant de partir j'aimerais dire j'ai tout sacrifié pour la musique J'ai tout donner pour la musique j'ai vu, manger, penser musique J'me rappelle au lycée le peu d'argent que j'avais J'achetais pas les sappes, Y'avait les séances studio à payer Avant de quitter c'monde Bon Dieu j'ai un souhait J'aimerais voir les enfants d'Isaac et dIsmaël vivrent en paix J'reviens de Palestine mon coeur en est criblé J'ai vu à Jérusalem que l'on peut tous se mélanger Avant de méteindre j'demande pardon à tous ceux que j'ai froissé Mon meilleur pote a rendu l'âme on s'est quitté sans s'parler merde Quand la mort frappe c'est trop tard les regrets rongent J'en est des larmes à chaque fois qu'il me visite dans mes songes Pas besoin de parcourir la Terre pour savoir qu'on est désuni Dans nos quartiers on se déchire en période de pénurie On se jalouse entre nous au lieu de se motiver Ton pote a réussit qu'est ce t'attends pour le féliciter Avant de m'éteindre j'aimerais dire à ma famille à quel point je les aimes Pour eux j'aurais pu donner ma vie Si j'pars avant vous à mon insu j'en suis désolé J'vous laisse ma descendance si ça peut vous consoler Désolé d'ne pas avoir témoigné mon amour autrement Mais j'ai trop d'pudeur et j'me lâche qu'à travers mes chansons Rien n'est plus important que les liens du sang Touche à ma famille et je ferais couler le sang J'aimerais aussi dire au public Qu'aux yeux des maisons de disque vous nêtes que du chiffre Que la plupart des artistes sont tous des hypocrites S'inventent des vies, Vendent leur misère pour du fric</t>
+          <t>Donne-moi la main demain on fera le tour du globe N'écoute pas tes copines qui disent que je suis mauvais Je repars demain au show jai fait le tour du globe J'achète des montres j'ai pas le temps de compter mes love Jai pas le temps j'ai pas le temps je veux mailler Dans l'avion j'ai la wifi petit verre de baileys Je vais pas passer par 4 chemins pour te parler Tu es maléfique et magnifiquement taillé Je fais le tour de la zone je fais crier le Panamera Un dos tres je fais danser la macarena Qu'est-ce que tu as à ma cousine Tu me fais la crise t'es pas ma nana Ramène tes copines on tourne un clip et hola hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo tes dégouté, elle ta quitté ayo Ayé ayo elle t'a piqué, elle ta piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ha tu m'as critiqué mais ty es fada Pense qu'à faire des tubes que la manana Busca vroom vroom redémarage J'pilote j'fais la mala truc de malade Chemise dans les îles on met les voiles J'ai tout mis sur ether et solana Le wallet est chargé Millionnaire en cryptomonnaie Ils ont mis ma tête à prix en NFT hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Tu me dis qu't'es la famille mais tu parles mal mal mal À trop se mélanger ça finit mal mal mal Je cherche une destination faut que je me taille taille taille Ils ont cramés Phuket maintenant Dubaï, bai, bai On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque Habibi, habibi, ana kifek habibi Si j'te prends dans mes bras ne trahis pas la family On a un truc à dire on le dit 3aynani Qui t'as dit que j'étais fini aller bye bye Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Skalpovich</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AYÉ AYO</t>
+          <t>Bawa (Remix)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Donne-moi la main demain on fera le tour du globe N'écoute pas tes copines qui disent que je suis mauvais Je repars demain au show jai fait le tour du globe J'achète des montres j'ai pas le temps de compter mes love Jai pas le temps j'ai pas le temps je veux mailler Dans l'avion j'ai la wifi petit verre de baileys Je vais pas passer par 4 chemins pour te parler Tu es maléfique et magnifiquement taillé Je fais le tour de la zone je fais crier le Panamera Un dos tres je fais danser la macarena Qu'est-ce que tu as à ma cousine Tu me fais la crise t'es pas ma nana Ramène tes copines on tourne un clip et hola hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo tes dégouté, elle ta quitté ayo Ayé ayo elle t'a piqué, elle ta piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ha tu m'as critiqué mais ty es fada Pense qu'à faire des tubes que la manana Busca vroom vroom redémarage J'pilote j'fais la mala truc de malade Chemise dans les îles on met les voiles J'ai tout mis sur ether et solana Le wallet est chargé Millionnaire en cryptomonnaie Ils ont mis ma tête à prix en NFT hé hé hé Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Ayé ayo elle t'a piqué, elle t'a piqué ayo Ayé ayo t'es dégouté, elle t'a quitté ayo Tu me dis qu't'es la famille mais tu parles mal mal mal À trop se mélanger ça finit mal mal mal Je cherche une destination faut que je me taille taille taille Ils ont cramés Phuket maintenant Dubaï, bai, bai On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque On encaisse on est max petit clin d'oeil en T-Max Elle a un corps de folie j'aimerai la voir sans le masque Habibi, habibi, ana kifek habibi Si j'te prends dans mes bras ne trahis pas la family On a un truc à dire on le dit 3aynani Qui t'as dit que j'étais fini aller bye bye Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Ce soir on fout le halla Elle veut Abu Dhabi, Marbella Elle sort du hamam en GLA Bsahtek le tatouage au henna Skalpovich</t>
+          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes Chlaouis, mes Harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Eh, jrentre dans la boite de nuit Ma gueule tu connais les DZ Tu veux faire la guerre Avec tes bouteilles ? Mon pote on va vider la réserve Ce soir tout lmonde est beau Ils dansent les bras écartés Ya les michtos qui cambrent Qui font tout pour que vous les regardiez Lacrim, LAlgé On veut des lovés, des lovés On na rien à prouver Gros quils sont mauvais Quils rêvent de me crever Danse comme un Chaoui Danse comme un Kabyle Danse comme un Oranais À la fin dla soirée cest celui Qui a bu le plus qui veut vous ramener Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Bawa (Remix)</t>
+          <t>Bayna</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Danse comme un Chaoui Billets violets 500 euros Feuilles à rouler Appelle les poulets Une équipe de Berbères Vient pour tout rafaler Les capos cest nous Ne viens pas te mêler Jpasse pas à la télé Tant qumes rebeus écoutent Jai rien à prouver Danse comme un Chaoui Mes Kbaylis, mes Rifis Mes Chlaouis, mes Harbis Maroc, Algérie, Tunisie, Maghreb uni Mes Berbères sont frais, Balenciaga Nique tout sur la piste Amène ta gow et tape du pied Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Eh, jrentre dans la boite de nuit Ma gueule tu connais les DZ Tu veux faire la guerre Avec tes bouteilles ? Mon pote on va vider la réserve Ce soir tout lmonde est beau Ils dansent les bras écartés Ya les michtos qui cambrent Qui font tout pour que vous les regardiez Lacrim, LAlgé On veut des lovés, des lovés On na rien à prouver Gros quils sont mauvais Quils rêvent de me crever Danse comme un Chaoui Danse comme un Kabyle Danse comme un Oranais À la fin dla soirée cest celui Qui a bu le plus qui veut vous ramener Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Rien quils parlent de nous Nous salissent dans les médias Jai repéré lennemi Cest seulement pour du pétrole Quils sont partis bombarder LIrak et la Lybie Imazighen, on lâche rien On trouvera lsommeil que Lorsquon libèrera le peuple Palestinien Danse comme un Chaoui Beloumi, beloumi Peuple dinsoumis, paire de Buscemi Berbère money, Arab money Cesse de la ramener Ramène ton corps sur la piste Et danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui Danse comme un Chaoui Beloumi, beloumi Danse comme un Chaoui</t>
+          <t>Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya Ou bayna bayna Hiya hbibti hiya ghzali Bayna bayna Ana w yak ya dalali Bonsoir mesdames et messieurs Cortège de bestiaux, métaux précieux Kheye on est classieux Beauté, poto, aïe ça s'annonce chaud Tu galères à l'entrée, envoies un texto Wesh poto, wesh cousine Orthi, on a sorti le dernier smoking En GP, en GT , Audi TT Frais de chez frais en hiver comme en été J'te fais danser jusqu'à Beyrouth Ma voix résonne de Marseille à Paris Karim en en en envoies la chicha D'la chair et d'la chahma bien sur on aime ça Tu connais la gimmick ti ti ti li titi Marseille pas de clinique Dans tous les cortèges ça crie Ti ti ti li titi Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Tu t'es fait recaler en boite mahlich y a le mariage à Mokhtar Costard cravate sortis du placard Prépare l'enveloppe billet de 500 Dans la piste que des Pénélope et des Kardashian Polopopolop Algérie polopopopolop Maroc Tunisie Polopopolop L'Algé opopop j'suis au Bled avec des marques j'accoste Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya Bayna banyna ana w yak ya dalali La ceinture LV ça débarque en Bentley T'as du style t'as du swagg t'es parti faire les UV Plaqué DG pas trop BCBG Faut pas forcer on fait ça léger léger Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya X2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bayna</t>
+          <t>Briser mes rêves</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya Ou bayna bayna Hiya hbibti hiya ghzali Bayna bayna Ana w yak ya dalali Bonsoir mesdames et messieurs Cortège de bestiaux, métaux précieux Kheye on est classieux Beauté, poto, aïe ça s'annonce chaud Tu galères à l'entrée, envoies un texto Wesh poto, wesh cousine Orthi, on a sorti le dernier smoking En GP, en GT , Audi TT Frais de chez frais en hiver comme en été J'te fais danser jusqu'à Beyrouth Ma voix résonne de Marseille à Paris Karim en en en envoies la chicha D'la chair et d'la chahma bien sur on aime ça Tu connais la gimmick ti ti ti li titi Marseille pas de clinique Dans tous les cortèges ça crie Ti ti ti li titi Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Ou bayna bayna hiya hbibti hiya ghzali Bayna banyna ana w yak ya dalali Tu t'es fait recaler en boite mahlich y a le mariage à Mokhtar Costard cravate sortis du placard Prépare l'enveloppe billet de 500 Dans la piste que des Pénélope et des Kardashian Polopopolop Algérie polopopopolop Maroc Tunisie Polopopolop L'Algé opopop j'suis au Bled avec des marques j'accoste Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya Bayna banyna ana w yak ya dalali La ceinture LV ça débarque en Bentley T'as du style t'as du swagg t'es parti faire les UV Plaqué DG pas trop BCBG Faut pas forcer on fait ça léger léger Ntiya hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltni haya... Ntia hobi lawal Nti li ditili galbi 3la hawji ana Nti habaltini haya X2</t>
+          <t>Le Salam à ceux qui voulaient briser mes rêves Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Masta exclusive Trois heures du mat', j'traîne dans l'viano, elle m'dit ti amo L'bruit des guitares, pas celui des pianos, ici ça tire à mort Et j'ai dû nager près des piranhas J'regarde en arrière, ça sera jamais comme avant Jamais pire qu'avant ma race Si seulement tu savais, seulement tu savais La tête en l'air, les deux pieds dans l'pavé Et l'cur en travaux Avec le temps y a plus beaucoup d'braves Et y en a qui portent l'il au lieu d'me dire bravo Ce soir j'fais l'tour de Marseille Rien que j'gamberge, et j'parle seul Ils veulent rien, à part le 'seille T'sais qu'mon sang t'y es pas l'seul, sinon, quoi d'neuf à part ça? À part ça J'te vois, rien qu'tu enchaînes les persos persos Et tu vois qu'dehors y a personne Ils ont tous fait leur vie, mais t'sais qu'on fait pas la guerre seul Tu recomptes tes ennuis Petit frère, le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves La vie nous a séparés, pour moi t'étais comme un frère Ta mère c'était ma mère, le sang ton père c'était mon père Et à quoi bon s'attacher? T'façon tout l'monde veut sa part Ouais, t'façon, un jour, tout l'monde part J'faisais le tour d'la ville à pied, aujourd'hui dans la Benzo P't-être que j'suis trop fier ma race, tu sais, DZ comme Benze' Plus jeune j'voulais pleins d'sous Une mère pleure son fils dans un bain d'sang Et t'sais qu'le 1-3 c'est criminel Descente du raid finit mal Coup d'Kalach', pas d'opinel Ça s'arrête jamais au final Ils ont perdu la tête, mis le nez dans la mâche Au milieu des requins, j'suis sortis à la nage J'aurai pas dû leur faire confiance, j'étais trop nia La madré m'avait prévenu, ça date pas d'hier T'sais que le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulait briser mes rêves Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait, qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Briser mes rêves</t>
+          <t>Classi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Le Salam à ceux qui voulaient briser mes rêves Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Masta exclusive Trois heures du mat', j'traîne dans l'viano, elle m'dit ti amo L'bruit des guitares, pas celui des pianos, ici ça tire à mort Et j'ai dû nager près des piranhas J'regarde en arrière, ça sera jamais comme avant Jamais pire qu'avant ma race Si seulement tu savais, seulement tu savais La tête en l'air, les deux pieds dans l'pavé Et l'cur en travaux Avec le temps y a plus beaucoup d'braves Et y en a qui portent l'il au lieu d'me dire bravo Ce soir j'fais l'tour de Marseille Rien que j'gamberge, et j'parle seul Ils veulent rien, à part le 'seille T'sais qu'mon sang t'y es pas l'seul, sinon, quoi d'neuf à part ça? À part ça J'te vois, rien qu'tu enchaînes les persos persos Et tu vois qu'dehors y a personne Ils ont tous fait leur vie, mais t'sais qu'on fait pas la guerre seul Tu recomptes tes ennuis Petit frère, le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas, fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves La vie nous a séparés, pour moi t'étais comme un frère Ta mère c'était ma mère, le sang ton père c'était mon père Et à quoi bon s'attacher? T'façon tout l'monde veut sa part Ouais, t'façon, un jour, tout l'monde part J'faisais le tour d'la ville à pied, aujourd'hui dans la Benzo P't-être que j'suis trop fier ma race, tu sais, DZ comme Benze' Plus jeune j'voulais pleins d'sous Une mère pleure son fils dans un bain d'sang Et t'sais qu'le 1-3 c'est criminel Descente du raid finit mal Coup d'Kalach', pas d'opinel Ça s'arrête jamais au final Ils ont perdu la tête, mis le nez dans la mâche Au milieu des requins, j'suis sortis à la nage J'aurai pas dû leur faire confiance, j'étais trop nia La madré m'avait prévenu, ça date pas d'hier T'sais que le chemin est long des quartiers nord au centre-ville Et j'repense à l'époque où on traînait le ventre vide Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves Briser mes rêves J'suis parti d'en bas fallait qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulait briser mes rêves Le Salam à ceux qui voulaient briser mes rêves J'suis parti d'en bas fallait, qu'on se relève Moi, j'voulais vivre mes rêves, tu pourras lire sur mes lèvres Salam à tous ceux qui voulaient briser mes rêves</t>
+          <t>x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Refrain Ya rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino L'algé dans la caisse cousine remue tes fesses On fait dans la musique mieux que de faire dans la cess J'suis avec des chaouis j'suis avec des bylkus Y'a ceux qui roulent en gamos et ceux qui prennent le bus Je cherche la p'tite bête pour sortir ce soir Faut qu'j'm'embrouille avec ma meuf Faut qu'j'invente une histoire Y'a Ryad qui m'attend ça fait plus d'une heure Raconte pas tes problèmes de cur j'suis pas d'humeur ok Oh oh njik a domicile Oh oh n3ichou bleqlil Oh oh 3amri tranquille Oh oh ça fais zizir x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Wesh wesh khey on est en mode rai Un peu de soleil j'te remet en mode fly La solution makanch il parait que c'est la crise Il parait que t'es un kheda3 ne me fais pas la bise On traine en lambo ou souvent en clio On veut des filles hnin fuck les bimbos Tetetête de bico avec un gros nazo Tu fais que baver cousine ton sac Louis Vuitton c'est un faux ok Oh oh allo docteur Oh oh dawi mon coeur Oh oh allo docteur Oh oh dawi mon coeur Refrain Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino Oh oh 3tini l'occasion Oh oh ndirou évasion Oh oh n3ichou la belle vie Oh oh blastek résevé X2 C'est comme ça Aman aman . cheb l'algérino.on est la Solo Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Kader japonais Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Oh.oh ngik a domicile Oh.oh n3ichou bleqlil Oh.oh 3amri tranquille Oh.oh ça fais zizil</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Classi</t>
+          <t>Cœur brisé</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Refrain Ya rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino L'algé dans la caisse cousine remue tes fesses On fait dans la musique mieux que de faire dans la cess J'suis avec des chaouis j'suis avec des bylkus Y'a ceux qui roulent en gamos et ceux qui prennent le bus Je cherche la p'tite bête pour sortir ce soir Faut qu'j'm'embrouille avec ma meuf Faut qu'j'invente une histoire Y'a Ryad qui m'attend ça fait plus d'une heure Raconte pas tes problèmes de cur j'suis pas d'humeur ok Oh oh njik a domicile Oh oh n3ichou bleqlil Oh oh 3amri tranquille Oh oh ça fais zizir x2 Ya rani baghi ndifouli Wou ndir cha y gouli rassi Ranni m3a haba jolie weli tekhda3 dossier classi Wesh wesh khey on est en mode rai Un peu de soleil j'te remet en mode fly La solution makanch il parait que c'est la crise Il parait que t'es un kheda3 ne me fais pas la bise On traine en lambo ou souvent en clio On veut des filles hnin fuck les bimbos Tetetête de bico avec un gros nazo Tu fais que baver cousine ton sac Louis Vuitton c'est un faux ok Oh oh allo docteur Oh oh dawi mon coeur Oh oh allo docteur Oh oh dawi mon coeur Refrain Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 L'algérino Oh oh 3tini l'occasion Oh oh ndirou évasion Oh oh n3ichou la belle vie Oh oh blastek résevé X2 C'est comme ça Aman aman . cheb l'algérino.on est la Solo Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Kader japonais Rani baghi ndifouli w endir cha ygouli rassi rassi m3a haba jolie weli tekhda3 dossier classi x2 Oh.oh ngik a domicile Oh.oh n3ichou bleqlil Oh.oh 3amri tranquille Oh.oh ça fais zizil</t>
+          <t>Eh, eh, eh Lalalalalah Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte J'vois ma vie dans le noir, sous le ciel étoilé J'pense à toi, j'perds le Nord, j'cogite à mort si tu savais Ici, on s'tue pour de l'or, de quoi tu veux m'parler ? Mon cur est dans un coffre sous scellé, j'ai jeté la clé J'arrive plus à planer, regarde la vie qu'on avait On fait que s'déchirer et j'entends le Diable ricaner Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Sachets d'billets dans le coffre, tous mes morceaux dans le top Mais quand j'allume ma clope, j'ai l'impression de reculer J'aurais pu tout claquer par égoïsme ou par lâcheté Est-ce que l'bonheur, on peut s'l'acheter ? T'as volé mon cur à l'arraché J'gamberge dans ma suite, j'dors plus, j'me rends malade Gravé sous la brique, mon nom sonnait comme une balade Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cœur brisé</t>
+          <t>Dieu soit loué</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Lalalalalah Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte J'vois ma vie dans le noir, sous le ciel étoilé J'pense à toi, j'perds le Nord, j'cogite à mort si tu savais Ici, on s'tue pour de l'or, de quoi tu veux m'parler ? Mon cur est dans un coffre sous scellé, j'ai jeté la clé J'arrive plus à planer, regarde la vie qu'on avait On fait que s'déchirer et j'entends le Diable ricaner Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Sachets d'billets dans le coffre, tous mes morceaux dans le top Mais quand j'allume ma clope, j'ai l'impression de reculer J'aurais pu tout claquer par égoïsme ou par lâcheté Est-ce que l'bonheur, on peut s'l'acheter ? T'as volé mon cur à l'arraché J'gamberge dans ma suite, j'dors plus, j'me rends malade Gravé sous la brique, mon nom sonnait comme une balade Pourquoi on s'fait du mal ? Pourquoi ça t'es égal ? J'pourrais te faire du sale mais j'vais t'laisser tout regretter Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé, j'repense à toi, mi amor J't'ai tout donné mais t'en voulais encore Souviens-toi ce jour où tu m'as fermé la porte Cur brisé dans l'Aventador Uzillé</t>
+          <t>Moi j'veut croquer la vie Moi je n'fait que rêver Moi je n'ai pas un sous j'suis riche à en crever Moi j'fait mes prières mais moi j'blasphème chaque jours Moi j'veut me caser mais j'leurs fait toutes la cour Moi je veut être un roi mais j'suis qu'un esclave Moi j'ai perdu la foi je n'suis plus qu'un lâche J'ai demander pardon j'n'excuse personne Moi je te haît en faite je n'aime que ma propre personne Moi j'ai les idées claire moi j'me noie dans l'alcool Moi mes amis me sont cher mais je ne pense qu'au pactole Moi j'aime ma mère mais j'la fais souffrir Moi j'ai peur de la perdre mais moi je ne fais que courir Moi j'dit qui y a des filles bien mais elle me la faites à l'envers Moi je souffre dans mon paradis je vis un véritable enfers Mon dieu que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Moi j'ai peur de rien en faite j'ai peur de moi même Sa fait du bien de faire du mal aux personnes qu'on aime Moi j't'ai tout donner et toi tu ma trahis Moi j't'ai fait confiance et par derrière tu me salis Moi j'ai un bon fond mais des fois je suis mauvais Torture psychologique j'veux me barrer, j'veux me sauver Moi j'ai aimer la rue la plus grosse garce que j'ai connue J'écrit des poèmes pour elle me traite comme un inconnu Dans les yeux de mon père j'ai vu de la joie j'ai vue de la tristesse Au lieu de rester au près de lui j'cour derrière ce foutu bisness J'suis une star pour mes fans connaissent le décors pas l'envers Moi je souffre dans mon paradis je vis un véritable enfers On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Yeah Yeah Yeah J'dit que Dieu soit loué Yeah Yeah Yeah J'dit que Dieu soit loué On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman te fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cosca Crew Party</t>
+          <t>Dinero</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal Olalalah, barra chica me trouve guapo J'ai 510 chevaux bien dressés sous le capot On en a marre du tieks, wAllah, on zone en bateau J'suis détr', cette année, j'vais mangr tout le gâteau J'lui sers une vodka pomme, elle m'demande une granita Vu qu'elle est bonne, elle est capricieuse la pépita Léwé sous jaune, j'ai les yeux rouges sous mes Ditta AK-4.7, rrah, c'est la guitare Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller T'es pas fiable et t'aimes trop les bandiyas J'sais qu'tu t'prends pour Mendosa quand t'es toute seule dans la villa Moi, j'suis pas le meilleur, me fais pas tes manières Tu as vu le bolide et les billets, là tu fais la biatch J'le chante et je le vis, wAllah, wAllah J'voulais changer ta vie, t'as fait la follasse J'allais tout te donner, habi, wAllah J'ai tout abandonner, j'me barre de là, ah, ah Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller Hola chica, deux milliards de vues dans mon capital Prends ma carte black, c'est ta carte vitale Le compte au Costa Rica, j'sirote un déca' à l'arabica 600 chevaux, j'fais coucou à la flicaille Sous conseil d'mes avocats, j'ai assuré ton boule, mamacita J'ai assuré ton boule, mamacita J'suis habillé pour 10K, j'compte pas la montre, c'est qu'un détail J'tuerai comme La Kika pour toi, chica, chica chica Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dieu soit loué</t>
+          <t>Entre 2 Flammes</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Moi j'veut croquer la vie Moi je n'fait que rêver Moi je n'ai pas un sous j'suis riche à en crever Moi j'fait mes prières mais moi j'blasphème chaque jours Moi j'veut me caser mais j'leurs fait toutes la cour Moi je veut être un roi mais j'suis qu'un esclave Moi j'ai perdu la foi je n'suis plus qu'un lâche J'ai demander pardon j'n'excuse personne Moi je te haît en faite je n'aime que ma propre personne Moi j'ai les idées claire moi j'me noie dans l'alcool Moi mes amis me sont cher mais je ne pense qu'au pactole Moi j'aime ma mère mais j'la fais souffrir Moi j'ai peur de la perdre mais moi je ne fais que courir Moi j'dit qui y a des filles bien mais elle me la faites à l'envers Moi je souffre dans mon paradis je vis un véritable enfers Mon dieu que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Moi j'ai peur de rien en faite j'ai peur de moi même Sa fait du bien de faire du mal aux personnes qu'on aime Moi j't'ai tout donner et toi tu ma trahis Moi j't'ai fait confiance et par derrière tu me salis Moi j'ai un bon fond mais des fois je suis mauvais Torture psychologique j'veux me barrer, j'veux me sauver Moi j'ai aimer la rue la plus grosse garce que j'ai connue J'écrit des poèmes pour elle me traite comme un inconnu Dans les yeux de mon père j'ai vu de la joie j'ai vue de la tristesse Au lieu de rester au près de lui j'cour derrière ce foutu bisness J'suis une star pour mes fans connaissent le décors pas l'envers Moi je souffre dans mon paradis je vis un véritable enfers On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman ne t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Yeah Yeah Yeah J'dit que Dieu soit loué Yeah Yeah Yeah J'dit que Dieu soit loué On dit que les épreuves de la vie font mal J'dit que Dieu soit Loué Maman te fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué Malgré tout ce que j'endure je montre pas de failles J'dit que Dieu soit Loué Maman t'fais pas de soucis sèche tes larmes J'dit que Dieu soit Loué</t>
+          <t>Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Y'a qu'des pensées malsaines qui me traquent, cette misère qui me drague Trop de contradictions dans ma tête, la détresse qui me braque Ce bas-monde qui m'attire, ces femmes qui me tentent Ce fric qui m'échappe et ces euros qui partent trop vite Ce luxe qui m'éblouit à en perdre la vue,l'ouïe Cet ami qui me trahit que je finis par haïr Et ce bonheur que je convoite qui finit par me fuir Ce shit qui nous endort, cette cigarette qui veut me détruire Ce cur qui se glace, ce cur qui s'encrasse Cette prière que je délaisse et tous les pêchés que j'entasse Cette mort qui me fait flipper parce que je n'ai pas assez uvré Mes bagages sont encore chargés de pêchés Ma famille qui m'appuie, ma famille qui me chérit Tous ces faux amis qui te salissent avec le sourire Mes surs qui sont ma poutre, mes frères qui sont mes bras Qui seraient prêts à tuer pour moi, à faire chanter la poudre Mes amis qui me soutiennent et y'a ce public qui me supporte Y'a ces potes qui changent pas même quand les sous viennent Ce Colt à portée de main, tenté de presser la détente Car trop déçu mais Dieu est juste et je patiente Ces études que j'ai lâché, ma mère me dit que je vais regretter Parce que toutes les stars s'éteignent juste après avoir brillé Ce rap qui m'exaspère, ces mêmes thèmes, ces mêmes mc Te parlent de zonz' pour faire décoller leurs ventes Ce flic qui me regarde mal et qui a plein de préjugés sur moi Cette société pourrie qui me casse les noix Ces élus auxquels il est dur de croire Cette justice, cette France, frère qui me comprend pas J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Ces femmes infidèles, ces hommes complexés Elles cherchent l'or et quand y'en a plus, elles cherchent à se barrer Cet or que je n'aurais jamais car l'Homme est un loup pour l'Homme La plupart du temps pour être riche faut voler l'argent des pauvres Cette mère que j'néglige, chaque minutes sont comptées Je passe plus de temps à courir au lieu de rester à son chevet Ce père modeste comme modèle, droit comme la justice Malgré la colonne vertébrale courbée Ce tapis rouge qu'on me déroule, cette modestie que je perds Cet orgueil que je combats, ce combat qu'il faut pas que je perde Cet ennemi qu'est moi-même, la face cachée de ma personne Que Dieu m'en éloigne jusqu'à c'que mon heure sonne Ces gros cubes, ces cercueils roulant J'ai perdu un ami, Ryad, que Dieu donne du courage à ta famille Cette mort qui prévient personne Que Dieu donne du courage à la famille du petit Naïm Ce destin que j'contrôle pas Cette histoire qui suit son cours et cette fin que j'connais pas Tous ces gens que j'aime et tous ces gens que j'aime pas Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Que j'assure ma descendance avant que la mort ne m'agresse J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Contradictoire est ma vie, mon destin est écrit Y faut croire qu'j'ai pris la mauvaise trajectoire À ma mort ils diront tous qu'j'étais un brave type En fait écoute ce texte et tu sauras qui je suis</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dinero</t>
+          <t>Est-ce que tu m’as vu ?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal Olalalah, barra chica me trouve guapo J'ai 510 chevaux bien dressés sous le capot On en a marre du tieks, wAllah, on zone en bateau J'suis détr', cette année, j'vais mangr tout le gâteau J'lui sers une vodka pomme, elle m'demande une granita Vu qu'elle est bonne, elle est capricieuse la pépita Léwé sous jaune, j'ai les yeux rouges sous mes Ditta AK-4.7, rrah, c'est la guitare Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller T'es pas fiable et t'aimes trop les bandiyas J'sais qu'tu t'prends pour Mendosa quand t'es toute seule dans la villa Moi, j'suis pas le meilleur, me fais pas tes manières Tu as vu le bolide et les billets, là tu fais la biatch J'le chante et je le vis, wAllah, wAllah J'voulais changer ta vie, t'as fait la follasse J'allais tout te donner, habi, wAllah J'ai tout abandonner, j'me barre de là, ah, ah Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller Hola chica, deux milliards de vues dans mon capital Prends ma carte black, c'est ta carte vitale Le compte au Costa Rica, j'sirote un déca' à l'arabica 600 chevaux, j'fais coucou à la flicaille Sous conseil d'mes avocats, j'ai assuré ton boule, mamacita J'ai assuré ton boule, mamacita J'suis habillé pour 10K, j'compte pas la montre, c'est qu'un détail J'tuerai comme La Kika pour toi, chica, chica chica Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal</t>
+          <t>Amené à avoir des émotions, toutes sortes d'états qui te mettent hors de toi M'as-tu vu manger des pierres, des creux dans l'estomac ? Pourtant loin d'être pauvre, mais l'homme se rassasie que lorsqu'il bouffe un autre homme Est-ce que tu m'as vu pleurer, lâcher des larmes lorsque j'avais mal et après me relever ? Le combat continue, donc, j'me relève en paix Est-ce que tu m'as vu les tripes et les douleurs au corps ? Ma rage triple et mon cur n'accouche de pensées rageuses qu'en sextuplés Ça vexe, s'appeler Samir, c'est dur même quand on est bien sapés Que penser de mon pays censé s'occuper de moi ? Mais ne font que décréter des lois et se trompent de combat S'ils savaient ce qu'on ressent à force de nous taxer sans emploi Est-ce que tu m'as vu me taire quand ce prof me disait mon petit, t'iras pas loin ? Et est-ce que tu m'as vu revenir avec le sourire, dire à ma mère j'ai eu un bac S ? Mon père et mes frères fiers Maman, c'est fou, y en a qui me croient pas Est-ce que tu m'as vu étudier pendant que certains festoient ? Et remettre tout sur moi-même pendant que certains sont en train de briller Est-ce que tu m'as vu prier, tête baissée ? Recherchant ce que les gens ont perdu l'humilité Est-ce que tu m'as vu demander pardon, me laver de mes péchés ? Mais le courant m'emporte et mes bonnes actions sont effacées Trop de fiction disperse Est-ce que tu m'as vu bercer mon petit frère ? Pourvu qu'il perce Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Est-ce que tu m'as vu faire la manche ou réclamer l'aumône ? Non, trop fier, j'préfère faire ma vision du monde Sans mentir aux mômes, leur dire qu'la vie n'est pas que jolie Mais c'est pas la merde non plus quand les liens familiaux ne sont pas rompus Est-ce que tu m'as vu insulter un Juif en shabbat ? Vu que c'est pas de sa faute ce qui s'est passé à Sabra et Chatila Est-ce que tu m'as vu sombrer dans la parano ? J'ai l'impression que tout le monde m'en veut alors que c'est moi qui me renferme tout seul Est-ce que tu m'as vu ? Petit gars timide, tchatcheur fébrile Qui tremble quand une fille le regarde Est-ce que tu m'as vu rêver ? Garçon ambitieux, avant de me réveiller à 20 ans, tombé dans une flaque de contentieux Est-ce que tu m'as vu trimer, me sentir opprimé ? Soi-disant poète, en attendant qu'la vie me donne ce que je souhaite Me donne la gloire, m'asseoir sur la célébrité Mais tout ça rime avec fébrilité Est-ce que tu m'as vu révolté du système ? Quand j'allume la télé, personne me ressemble Au Parlement, personne me représente Quand on parle de mes semblables, c'est que des braqueurs On ferme les yeux sur eux quand ils sont professeurs Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Entre 2 Flammes</t>
+          <t>Excuse My French</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Y'a qu'des pensées malsaines qui me traquent, cette misère qui me drague Trop de contradictions dans ma tête, la détresse qui me braque Ce bas-monde qui m'attire, ces femmes qui me tentent Ce fric qui m'échappe et ces euros qui partent trop vite Ce luxe qui m'éblouit à en perdre la vue,l'ouïe Cet ami qui me trahit que je finis par haïr Et ce bonheur que je convoite qui finit par me fuir Ce shit qui nous endort, cette cigarette qui veut me détruire Ce cur qui se glace, ce cur qui s'encrasse Cette prière que je délaisse et tous les pêchés que j'entasse Cette mort qui me fait flipper parce que je n'ai pas assez uvré Mes bagages sont encore chargés de pêchés Ma famille qui m'appuie, ma famille qui me chérit Tous ces faux amis qui te salissent avec le sourire Mes surs qui sont ma poutre, mes frères qui sont mes bras Qui seraient prêts à tuer pour moi, à faire chanter la poudre Mes amis qui me soutiennent et y'a ce public qui me supporte Y'a ces potes qui changent pas même quand les sous viennent Ce Colt à portée de main, tenté de presser la détente Car trop déçu mais Dieu est juste et je patiente Ces études que j'ai lâché, ma mère me dit que je vais regretter Parce que toutes les stars s'éteignent juste après avoir brillé Ce rap qui m'exaspère, ces mêmes thèmes, ces mêmes mc Te parlent de zonz' pour faire décoller leurs ventes Ce flic qui me regarde mal et qui a plein de préjugés sur moi Cette société pourrie qui me casse les noix Ces élus auxquels il est dur de croire Cette justice, cette France, frère qui me comprend pas J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Ces femmes infidèles, ces hommes complexés Elles cherchent l'or et quand y'en a plus, elles cherchent à se barrer Cet or que je n'aurais jamais car l'Homme est un loup pour l'Homme La plupart du temps pour être riche faut voler l'argent des pauvres Cette mère que j'néglige, chaque minutes sont comptées Je passe plus de temps à courir au lieu de rester à son chevet Ce père modeste comme modèle, droit comme la justice Malgré la colonne vertébrale courbée Ce tapis rouge qu'on me déroule, cette modestie que je perds Cet orgueil que je combats, ce combat qu'il faut pas que je perde Cet ennemi qu'est moi-même, la face cachée de ma personne Que Dieu m'en éloigne jusqu'à c'que mon heure sonne Ces gros cubes, ces cercueils roulant J'ai perdu un ami, Ryad, que Dieu donne du courage à ta famille Cette mort qui prévient personne Que Dieu donne du courage à la famille du petit Naïm Ce destin que j'contrôle pas Cette histoire qui suit son cours et cette fin que j'connais pas Tous ces gens que j'aime et tous ces gens que j'aime pas Ce temps qui défile trop vite, ces rides qui apparaissent Il le serait temps que j'fasse du pèze, que j'combatte ma paresse Il serait temps que j'fasse des mômes, que j'leur fasse plein de caresses Que j'assure ma descendance avant que la mort ne m'agresse J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage J'avance d'un pas ferme, le sourire au coin des larmes Une main posée sur le cur, une autre posée sur une arme Mes pensées changent selon l'humeur, le goût de la vie, le moral Des fois tu as la rage et la niaque, des fois la misère dévisage Contradictoire est ma vie, mon destin est écrit Y faut croire qu'j'ai pris la mauvaise trajectoire À ma mort ils diront tous qu'j'étais un brave type En fait écoute ce texte et tu sauras qui je suis</t>
+          <t>Shish Mmh, mmh Yeah Ouh L'Algé' Let's get it Oui, ma mujer, j'suis dans l'même hôtel, chambre 304 ouh J'suis khabat, soirée arrosée, j'sors d'une partie d'carte ouh Ouais ma belle, on a la mallette, on est dans les chart ouh Dans les boîtes, le cachet d'la veille posé sur la table, yeah Tu connais les hommes oui, j'suis pas comme les autres non J'vais te mettre au top, 300 000 euros la dote yeah Ta baby mama m'connaît depuis L'Algé' on est là c'est moi Elle me reconnaît même capuché, quand je porte le masque Baby c'est le faya, ah hi yeah ouh, ton corps, c'est la folie, ah hi yeah baby Tu voulais cette vie-là, on y est oh yeah, Gucci, Fendi, Prada, j'suis habillé bling Gros billets oui, mon bébé cash Tu voulais cette vie-là, on y est ouh, oh, si j'réponds pas, nan, faut pas t'inquiéter allô ? J'suis dans la ville, pour nous, je fais d'la money skurt Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt This is what I need what you need ?, baby let's go, c'est ma vie Yeah, elle est fraîche, elle est malade malade Appelle tes copines, dis-leur qu't'es pas là pas là Dangereuse comme la pure du Guatemala 'mala Elle t'a mis les menottes, elle te balade mmh Son regard, c'est une Kalash' Gros, tu connais, j'suis dans la son-mai, j'suis , yeah Oyé, des soirées olé, gros bonnets Vers l'étranger, on peut s'envoler let's go À mes côtés, il n'y aura pas de danger Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt, hey This is what I need what you need ?, baby let's go, c'est ma vie Verre, jaune, rouge, bleu, kichta dans la banane ouais Brune, blonde, rousse, latine, internationale okay Un, trois, sept, cinq, six, neuf et la, la, la ouh J'en ai une dans toutes les villes eh Et moi, j'ai vert, jaune, rouge, bleu, kichta dans la banane Brune, blonde, rousse, latine, internationale Un, trois, sept, cinq, six, neuf et la, la, la J'en ai une dans toutes les villes, yeah, yeah Ouh, ouh, ouh hey Ouh, ouh, ouh hey Ouh, ouh, ouh, ouh han Ouh, ouh hey, hey Ouh, ouh hey Ouh, ouh, ouh let's go, let's go, hey Ouh, ouh what you need ? Ouh, ouh, ouh owh Ouh, ouh, ouh, ouh yeah, yeah Ouh, ouh, ouh L'Algé' Let's get it</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Est-ce que tu m’as vu ?</t>
+          <t>Face aux passions</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Amené à avoir des émotions, toutes sortes d'états qui te mettent hors de toi M'as-tu vu manger des pierres, des creux dans l'estomac ? Pourtant loin d'être pauvre, mais l'homme se rassasie que lorsqu'il bouffe un autre homme Est-ce que tu m'as vu pleurer, lâcher des larmes lorsque j'avais mal et après me relever ? Le combat continue, donc, j'me relève en paix Est-ce que tu m'as vu les tripes et les douleurs au corps ? Ma rage triple et mon cur n'accouche de pensées rageuses qu'en sextuplés Ça vexe, s'appeler Samir, c'est dur même quand on est bien sapés Que penser de mon pays censé s'occuper de moi ? Mais ne font que décréter des lois et se trompent de combat S'ils savaient ce qu'on ressent à force de nous taxer sans emploi Est-ce que tu m'as vu me taire quand ce prof me disait mon petit, t'iras pas loin ? Et est-ce que tu m'as vu revenir avec le sourire, dire à ma mère j'ai eu un bac S ? Mon père et mes frères fiers Maman, c'est fou, y en a qui me croient pas Est-ce que tu m'as vu étudier pendant que certains festoient ? Et remettre tout sur moi-même pendant que certains sont en train de briller Est-ce que tu m'as vu prier, tête baissée ? Recherchant ce que les gens ont perdu l'humilité Est-ce que tu m'as vu demander pardon, me laver de mes péchés ? Mais le courant m'emporte et mes bonnes actions sont effacées Trop de fiction disperse Est-ce que tu m'as vu bercer mon petit frère ? Pourvu qu'il perce Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Est-ce que tu m'as vu faire la manche ou réclamer l'aumône ? Non, trop fier, j'préfère faire ma vision du monde Sans mentir aux mômes, leur dire qu'la vie n'est pas que jolie Mais c'est pas la merde non plus quand les liens familiaux ne sont pas rompus Est-ce que tu m'as vu insulter un Juif en shabbat ? Vu que c'est pas de sa faute ce qui s'est passé à Sabra et Chatila Est-ce que tu m'as vu sombrer dans la parano ? J'ai l'impression que tout le monde m'en veut alors que c'est moi qui me renferme tout seul Est-ce que tu m'as vu ? Petit gars timide, tchatcheur fébrile Qui tremble quand une fille le regarde Est-ce que tu m'as vu rêver ? Garçon ambitieux, avant de me réveiller à 20 ans, tombé dans une flaque de contentieux Est-ce que tu m'as vu trimer, me sentir opprimé ? Soi-disant poète, en attendant qu'la vie me donne ce que je souhaite Me donne la gloire, m'asseoir sur la célébrité Mais tout ça rime avec fébrilité Est-ce que tu m'as vu révolté du système ? Quand j'allume la télé, personne me ressemble Au Parlement, personne me représente Quand on parle de mes semblables, c'est que des braqueurs On ferme les yeux sur eux quand ils sont professeurs Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu sourire Un seul cur, un seul corps Une seule douleur, une seule âme, une seule flamme J'ai vu le jour un beau matin, une seule façon de se tenir droit Si seulement tu m'avais vu souffrir</t>
+          <t>Hein Keny Arkana, L'algérino Faibles hommes que les passions torturent La vie influe sur nos comportements Ambiance malsaine sur la défensive que le ciel nous préserve de l'emportement Trop de maladresse et ça se ressent dans mes agissements Trop émotif, mes actes sont dictés par mes émotions Comment garder son sang-froid quand elles prennnt le contrôle ? Quand la raison part en éclat, voudrait rnverser ce que l'on prône Et comment garder son sang-froid malgré le mal que les gens prônent Iblis portant sa couronne et se pavanant sur son trône D'un air paisible pointant sa fourche prenant un sale plaisir Lorsque la colère nous aveugle comme amadoué par ses cils Mon visage porte trop de marques, dur d'apparence à l'extérieur Gratte l'écorce et tu verras un homme qui se détruit de l'intérieur Déchirée au plus profond de mon être J'fuis, j'cours des larmes plein la gorge car impossible de crier au secours Ce que subit mon âme un tas de trucs, bien ou mal j'm'agrippe La raison balafrée, trop facile de basculer Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes Chaque jour est un combat, un combat contre moi-même Qui me malmène, qui veut ma mort car je me bats contre ma haine Toutes ces pensées autodestructrices qui m'emmènent à ma perte Ces doutes et ces sales résidus de ma mémoire qui me font mal à la tête Ce monde est terne, me blesse, je ne peux le voir qu'avec haine La rage est comme ma soeur peut être parce que j'ai grandi avec elle Peut-on sortir des ronces sans séquelle cicatricée je ne sais guère Si on s'égare, c'est peut être parce que la vérité s'est fait voler ses terres A fleur de peau donc non venez pas me secouer Je cherche la paix, j'ai peur car que ça se finisse en guerre ça se pourrait Je suis ma propre ennemie, alors j'essaye de me détacher Avant que cette corde autour du cou tout comme mes nerfs finissent par lâcher Comme un vieux démon qui me hante oh seigneur aide-moi à vivre Le présent sans arrière goût, sans attache entièrement libre J'aimerais donner de la force aux miens pour la force de la plume Quand le coeur parle avec amour pour essayer de dissiper la brume Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes J'ai le sourire au coins des larmes, sentiment contradictoire Une main posée sur le coeur, une autre posée sur une arme Les pensées changent selon l'humeur, le goût de la vie, le moral Des fois, tu as la rage et la niaque des fois la misère te dévisage Des fois tu penses halal, des fois tu penses haram, que Dieu nous garde Des fois je me comporte mal et par mégarde Et ça me rend dingue et ça me torture, ça me ronge le cerveau Un tas de choses qui me font mal et ça me rend nerveux Entre les soi-disant potes qui clashent dans les moments difficiles J'ai vu la misère me convoiter, mes soi-disant frères insensibles J'ai compris que c'était chacun sa merde, j'aurais pu craquer J'ai failli sombrer dans la haine, j'ai réappris à aimer Responsabilité de narrateur de la vie Si tu savais combien je contrôle mes émotions, mes dires quand je rappe Tant de choses malsaines me taraudent, j'essaie de prendre le large Parler de choses saines mais j'suis attiré par les émeraudes Et y'a cet orgueil, ce regard arrogant qui ressort J'essaie de le camoufler dans un manteau d'humilité mais c'est plus fort On m'a tant rabaissé, traité comme de la merde Maintenant on me considère mais si ils savaient que tout ce qui s'élève se rabaisse Et y'a ces gens qui salissent ton nom mais d'abord que savent-ils de moi Etaient ils là quand je passais des fins de mois difficiles Atmosphère glacée, coeur froid, regard noir mais regarde-moi J'ai croqué un peu de flouze et j'en veux encore plus Et j'en deviens malade, mon âme est torturée La vie, les gens, la rue risquent fort de me changer Mon propre ami c'est moi même faut pas que je flanche Je contiens mes émotions dans une feuille blanche, l'Algérino Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Excuse My French</t>
+          <t>Faim d’Europe</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Shish Mmh, mmh Yeah Ouh L'Algé' Let's get it Oui, ma mujer, j'suis dans l'même hôtel, chambre 304 ouh J'suis khabat, soirée arrosée, j'sors d'une partie d'carte ouh Ouais ma belle, on a la mallette, on est dans les chart ouh Dans les boîtes, le cachet d'la veille posé sur la table, yeah Tu connais les hommes oui, j'suis pas comme les autres non J'vais te mettre au top, 300 000 euros la dote yeah Ta baby mama m'connaît depuis L'Algé' on est là c'est moi Elle me reconnaît même capuché, quand je porte le masque Baby c'est le faya, ah hi yeah ouh, ton corps, c'est la folie, ah hi yeah baby Tu voulais cette vie-là, on y est oh yeah, Gucci, Fendi, Prada, j'suis habillé bling Gros billets oui, mon bébé cash Tu voulais cette vie-là, on y est ouh, oh, si j'réponds pas, nan, faut pas t'inquiéter allô ? J'suis dans la ville, pour nous, je fais d'la money skurt Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt This is what I need what you need ?, baby let's go, c'est ma vie Yeah, elle est fraîche, elle est malade malade Appelle tes copines, dis-leur qu't'es pas là pas là Dangereuse comme la pure du Guatemala 'mala Elle t'a mis les menottes, elle te balade mmh Son regard, c'est une Kalash' Gros, tu connais, j'suis dans la son-mai, j'suis , yeah Oyé, des soirées olé, gros bonnets Vers l'étranger, on peut s'envoler let's go À mes côtés, il n'y aura pas de danger Ma vie dans ma ville, dans ma ville, baby J'ai la plus belle gadji de toute la ville elle est belle, elle est belle, baby Je vais te faire danser toute la nuit let's dance Fouille pas dans mon tél', pas vu, pas pris no, no Omri let's get it Ma vie okay, okey, let's get it J'ai la plus belle gadji dans mon bolide shee, ma gadji, c'est une Bagdad Baby girl, suis-moi, on va danser toute la nuit oh, on va danser toute la nuit, baby J'suis dans l'building, baby, sur le côté skurt, hey This is what I need what you need ?, baby let's go, c'est ma vie Verre, jaune, rouge, bleu, kichta dans la banane ouais Brune, blonde, rousse, latine, internationale okay Un, trois, sept, cinq, six, neuf et la, la, la ouh J'en ai une dans toutes les villes eh Et moi, j'ai vert, jaune, rouge, bleu, kichta dans la banane Brune, blonde, rousse, latine, internationale Un, trois, sept, cinq, six, neuf et la, la, la J'en ai une dans toutes les villes, yeah, yeah Ouh, ouh, ouh hey Ouh, ouh, ouh hey Ouh, ouh, ouh, ouh han Ouh, ouh hey, hey Ouh, ouh hey Ouh, ouh, ouh let's go, let's go, hey Ouh, ouh what you need ? Ouh, ouh, ouh owh Ouh, ouh, ouh, ouh yeah, yeah Ouh, ouh, ouh L'Algé' Let's get it</t>
+          <t>On a la dalle, ouais, on a faim d'Europe On a la dalle, ouais, on a faim d'Europe Les vaillants font trembler le Vélodrome Appelle un Uber Eats, baba, on va les mettre en i, fada On va les mettre en i, malade, on va retourner la ville, 1.3 Comme dans Heat pa-pah, on veut voir que des machines pava Comme dans Heat pa-pah, on veut voir que des machines pava Bleu et blanc est le sang, t'inquiète, on est nsembles Tu regards les étoiles, on l'a sur le maillot Ça pète les écrans, va le dire à Momo Le club est légendaire, va le dire aux minots Qu'est-ce tu as ? Écoute bien Rends pas fou, t'façon tu as rien compris Commande à boire, laisse un pourboire, y a la petite, n'oublie pas les sushis bleh On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Face aux passions</t>
+          <t>Fais Tourner</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hein Keny Arkana, L'algérino Faibles hommes que les passions torturent La vie influe sur nos comportements Ambiance malsaine sur la défensive que le ciel nous préserve de l'emportement Trop de maladresse et ça se ressent dans mes agissements Trop émotif, mes actes sont dictés par mes émotions Comment garder son sang-froid quand elles prennnt le contrôle ? Quand la raison part en éclat, voudrait rnverser ce que l'on prône Et comment garder son sang-froid malgré le mal que les gens prônent Iblis portant sa couronne et se pavanant sur son trône D'un air paisible pointant sa fourche prenant un sale plaisir Lorsque la colère nous aveugle comme amadoué par ses cils Mon visage porte trop de marques, dur d'apparence à l'extérieur Gratte l'écorce et tu verras un homme qui se détruit de l'intérieur Déchirée au plus profond de mon être J'fuis, j'cours des larmes plein la gorge car impossible de crier au secours Ce que subit mon âme un tas de trucs, bien ou mal j'm'agrippe La raison balafrée, trop facile de basculer Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes Chaque jour est un combat, un combat contre moi-même Qui me malmène, qui veut ma mort car je me bats contre ma haine Toutes ces pensées autodestructrices qui m'emmènent à ma perte Ces doutes et ces sales résidus de ma mémoire qui me font mal à la tête Ce monde est terne, me blesse, je ne peux le voir qu'avec haine La rage est comme ma soeur peut être parce que j'ai grandi avec elle Peut-on sortir des ronces sans séquelle cicatricée je ne sais guère Si on s'égare, c'est peut être parce que la vérité s'est fait voler ses terres A fleur de peau donc non venez pas me secouer Je cherche la paix, j'ai peur car que ça se finisse en guerre ça se pourrait Je suis ma propre ennemie, alors j'essaye de me détacher Avant que cette corde autour du cou tout comme mes nerfs finissent par lâcher Comme un vieux démon qui me hante oh seigneur aide-moi à vivre Le présent sans arrière goût, sans attache entièrement libre J'aimerais donner de la force aux miens pour la force de la plume Quand le coeur parle avec amour pour essayer de dissiper la brume Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes J'ai le sourire au coins des larmes, sentiment contradictoire Une main posée sur le coeur, une autre posée sur une arme Les pensées changent selon l'humeur, le goût de la vie, le moral Des fois, tu as la rage et la niaque des fois la misère te dévisage Des fois tu penses halal, des fois tu penses haram, que Dieu nous garde Des fois je me comporte mal et par mégarde Et ça me rend dingue et ça me torture, ça me ronge le cerveau Un tas de choses qui me font mal et ça me rend nerveux Entre les soi-disant potes qui clashent dans les moments difficiles J'ai vu la misère me convoiter, mes soi-disant frères insensibles J'ai compris que c'était chacun sa merde, j'aurais pu craquer J'ai failli sombrer dans la haine, j'ai réappris à aimer Responsabilité de narrateur de la vie Si tu savais combien je contrôle mes émotions, mes dires quand je rappe Tant de choses malsaines me taraudent, j'essaie de prendre le large Parler de choses saines mais j'suis attiré par les émeraudes Et y'a cet orgueil, ce regard arrogant qui ressort J'essaie de le camoufler dans un manteau d'humilité mais c'est plus fort On m'a tant rabaissé, traité comme de la merde Maintenant on me considère mais si ils savaient que tout ce qui s'élève se rabaisse Et y'a ces gens qui salissent ton nom mais d'abord que savent-ils de moi Etaient ils là quand je passais des fins de mois difficiles Atmosphère glacée, coeur froid, regard noir mais regarde-moi J'ai croqué un peu de flouze et j'en veux encore plus Et j'en deviens malade, mon âme est torturée La vie, les gens, la rue risquent fort de me changer Mon propre ami c'est moi même faut pas que je flanche Je contiens mes émotions dans une feuille blanche, l'Algérino Si faible face aux passions, notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Les émotions prennent le pas sur la raison On se croit fort en fait on est trop faibles face aux passions Notre combat est perpétuel, on essaye de rester zen Mais la colère nous ramène dans nos tourments Pourquoi tant de hargne dans nos lettres, tant de mal dans nos textes Trop de crasse dans nos têtes</t>
+          <t>x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jprends la vie comme elle vient Wesh le zin, nouveau classique Cest ma zik, mets-toi bien 200 à lheure sur lautoroute Je sais où jvais, doù jviens Tekass pas le couz, écoute bien Autoroute du soleil, Malaga Ya ceux qui vont bronzer Ceux qui vont chercher le taga Mais tu es fada ? Dla minch en pagaille Pago ananas, chapeau dpaille, un peu draï On va tfaire swinger Même si tes flingué Fraichement fringué, Audemars Piguet Zanotti-ti, shab la Titi All night long à la Lionel Richie Jai toujours ma canette Sweety Tellement de tubes Que je sais même plus comment switcher Jsuis un extra-terrestre comme E.T Jserai une légende comme Cheb Khaled XXX Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Que toutes les ladies dans la place Avec classe acclament mon audace Et lprix dmes gaudasses Il est bien loin lmarché dMontreuil Maintenant les petites me voient dun autre il À part les hits jsuis comme un autre Ya ce quon est et ce quon montre Le temps passe vite et jai pas dmontre Tu veux tailler ? Moi jsuis pas contre À chaque album jjoue à dix contre un Pour ça quje nsigne pas leurs contrats Jenvoie du lourd, jenvoie du concret Cest inné, ya pas de secret Jsuis avec LAlgé, posé au calme Cocktail frais, la beuh est locale On chante la mélodie dla vida loca La vida loca, la vida loca Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Faim d’Europe</t>
+          <t>Féfé en double file</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>On a la dalle, ouais, on a faim d'Europe On a la dalle, ouais, on a faim d'Europe Les vaillants font trembler le Vélodrome Appelle un Uber Eats, baba, on va les mettre en i, fada On va les mettre en i, malade, on va retourner la ville, 1.3 Comme dans Heat pa-pah, on veut voir que des machines pava Comme dans Heat pa-pah, on veut voir que des machines pava Bleu et blanc est le sang, t'inquiète, on est nsembles Tu regards les étoiles, on l'a sur le maillot Ça pète les écrans, va le dire à Momo Le club est légendaire, va le dire aux minots Qu'est-ce tu as ? Écoute bien Rends pas fou, t'façon tu as rien compris Commande à boire, laisse un pourboire, y a la petite, n'oublie pas les sushis bleh On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe</t>
+          <t>J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Mademoiselle monte dans le bolide Viens testeur le siège massant Tu sais j'suis polyglotte J'peux même t'charmer en Allemand J'vais t'faire rêver toute la nuit Tu vas t'en souvenir toute ta vie Remplis mon coeur d'amour J'vais vider le barillet À trop trainer dans le four J'en deviens fou à lier On a tout le temps Donne moi ton coeur et promet J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fais Tourner</t>
+          <t>Femme Soldat</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jprends la vie comme elle vient Wesh le zin, nouveau classique Cest ma zik, mets-toi bien 200 à lheure sur lautoroute Je sais où jvais, doù jviens Tekass pas le couz, écoute bien Autoroute du soleil, Malaga Ya ceux qui vont bronzer Ceux qui vont chercher le taga Mais tu es fada ? Dla minch en pagaille Pago ananas, chapeau dpaille, un peu draï On va tfaire swinger Même si tes flingué Fraichement fringué, Audemars Piguet Zanotti-ti, shab la Titi All night long à la Lionel Richie Jai toujours ma canette Sweety Tellement de tubes Que je sais même plus comment switcher Jsuis un extra-terrestre comme E.T Jserai une légende comme Cheb Khaled XXX Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Que toutes les ladies dans la place Avec classe acclament mon audace Et lprix dmes gaudasses Il est bien loin lmarché dMontreuil Maintenant les petites me voient dun autre il À part les hits jsuis comme un autre Ya ce quon est et ce quon montre Le temps passe vite et jai pas dmontre Tu veux tailler ? Moi jsuis pas contre À chaque album jjoue à dix contre un Pour ça quje nsigne pas leurs contrats Jenvoie du lourd, jenvoie du concret Cest inné, ya pas de secret Jsuis avec LAlgé, posé au calme Cocktail frais, la beuh est locale On chante la mélodie dla vida loca La vida loca, la vida loca Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby Jai cette mélodie dans la tête Lalala lala, lalala lala Et toute la nuit, en fumette Lalala lala, lalala lala x2 Vas-y fais tourner LAlgé, Lartiste baby Vas-y fais tourner LAlgé, Lartiste baby</t>
+          <t>Elle slève à 4 heures, le bébé qui pleure Prépare le biberon change la couche il est l'heure Elle a dormi d'un il, le sommeil léger Pense aux factures et au loyer qu'elle doit payer Son mari l'a quitté pour une amie à elle Le genre d'homme qui ont des maitresses à la pelle Elle se retrouve seule dans un taudis, trois enfants à nourrir Elle pleure en cachette mais devant eux elle garde le sourire Elle accumule des petits boulots pour des petites sommes Y'a pas de sous-métier quand il s'agit de nourrir son môme Elle est à la fois femme de ménage et caissière Femme soldat affronte la vie avec une serpillère Elle slève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dure même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari la quittée il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes, elle puise sa force dans le sourire de ses enfants Elle ne se plaint jamais elle vit sa vie toute seule Même sous la pluie elle porte les courses toute seule Elle croise dans la rue des couples qui ont l'air heureux Mais elle n'envie personne c'est tant mieux pour eux Elle fait des économies pour gâter les petits Quils aient un peu de marque à l'école devant leurs amis Les enfants peuvent-êtres cruels Quand ils charrient la chair de sa chair Ses enfants c'est toute sa vie Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes L'ainé à 15ans traumatisé Il entend souvent sa mère pleurée Au milieu de la nuit pour la consoler Il dort avec elle, Tinquiète maman tout va s'arranger.. Oublie quil est môme n'a plus la moyenne Une fois sur deux à l'école il redouble sa 3ème La lâcheté d'un homme, la bravoure d'une femme Qui affronte la vie femme soldat Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari l'a quitté il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes Elle puise sa force dans le sourire de ses enfants</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Féfé en double file</t>
+          <t>Feuille de compte</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Mademoiselle monte dans le bolide Viens testeur le siège massant Tu sais j'suis polyglotte J'peux même t'charmer en Allemand J'vais t'faire rêver toute la nuit Tu vas t'en souvenir toute ta vie Remplis mon coeur d'amour J'vais vider le barillet À trop trainer dans le four J'en deviens fou à lier On a tout le temps Donne moi ton coeur et promet J'ai fait ma moula moula La moula moula moula Richard et le mille Féfé en double file Madame a vu l'osesille Elle m'a fait son numéro Zehma j'suis pas facile Mais moi j'suis pas tout difficile Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes Je t'ai vu arriver avant Toi et ton boule c'est comment Tu fais la meuf mais j'te vois rien qu'tu guettes Rien qu'tu guettes, rien qu'tu guettes On a tout le temps Donne moi ton coeur et prend mes lové</t>
+          <t>Au début, c'était pas le top On a prit le taureau par les cornes On a fait ça pour la forme On voulait juste que ça sonne Ça commence par des rimes qui voulaient pas dire grand chose Puis on a raconté nos vies sans penser à toucher des sommes Tu m'vois comme la relève, ça fait 10 ans qu'on est là Moi j'suis pas dans ton game, j'suis trop loin j'ai pris le large On sen foutait davoir des gows, faire des sous, d'la mala Maintenant ça donne des Go, ça s'entretue comme des malades On a transformé l'essai, casser la lucarne Le froc jamais baissé, j'ai trop de fierté tu le sais J'vais pas te dire qu'j'ai du vécu mais on connait la rue Celle des vrais, pas celle des gens qui prennent l'amitié comme du PQ Prisonnier d'ce monde, me reste t-il assez de pécule ? Et ils sont beaux avec leur sécu Élever par mon père, pas par Tony Montana La rue on la vénère pas, la mash on la consomme pas Tu fais , on te connais pas Tu vas mordre la poussière, petit frère à quoi bon sert d'être le plus riche du cimetière ? La vie, c'est pas Game of Thrones, fuck ta Khaleesi Trop d'chacals ici, bientôt tous la calvitie On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette Tu es qu'un effet de mode, on te fait trop d'éloge Faudra savoir durer, putain que la route est longue Profite de ta folle, de ta Porshe, mais ne t'affole pas Tout ce qui s'élève, se rabaisse, rhey c'est inévitable La jeunesse est sous C, les parents qui s'étouffent Les curs sont sous scellés, c'est le temps qui nous étouffe C'est la vie qui nous éprouve, bientôt l'heure de faire des comptes Comme le gérant d'un four devant sa feuille de compte</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Femme Soldat</t>
+          <t>Force et honneur</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Elle slève à 4 heures, le bébé qui pleure Prépare le biberon change la couche il est l'heure Elle a dormi d'un il, le sommeil léger Pense aux factures et au loyer qu'elle doit payer Son mari l'a quitté pour une amie à elle Le genre d'homme qui ont des maitresses à la pelle Elle se retrouve seule dans un taudis, trois enfants à nourrir Elle pleure en cachette mais devant eux elle garde le sourire Elle accumule des petits boulots pour des petites sommes Y'a pas de sous-métier quand il s'agit de nourrir son môme Elle est à la fois femme de ménage et caissière Femme soldat affronte la vie avec une serpillère Elle slève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dure même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari la quittée il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes, elle puise sa force dans le sourire de ses enfants Elle ne se plaint jamais elle vit sa vie toute seule Même sous la pluie elle porte les courses toute seule Elle croise dans la rue des couples qui ont l'air heureux Mais elle n'envie personne c'est tant mieux pour eux Elle fait des économies pour gâter les petits Quils aient un peu de marque à l'école devant leurs amis Les enfants peuvent-êtres cruels Quand ils charrient la chair de sa chair Ses enfants c'est toute sa vie Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne Courageuse et forte Elle accumule des petits boulots pour des petites sommes L'ainé à 15ans traumatisé Il entend souvent sa mère pleurée Au milieu de la nuit pour la consoler Il dort avec elle, Tinquiète maman tout va s'arranger.. Oublie quil est môme n'a plus la moyenne Une fois sur deux à l'école il redouble sa 3ème La lâcheté d'un homme, la bravoure d'une femme Qui affronte la vie femme soldat Elle se lève à 4 heures du mat' Réveillé par le petit qui pleure Change la couche fait le biberon La vie est dur même son regard en dit long Elle travaille toute la semaine Elle n'attend de l'aide de personne courageuse et forte Elle accumule des petits boulots pour des petites sommes Son mari l'a quitté il y a 4 ans La laisse toute seule avec ses tourments Écurée par les hommes Elle puise sa force dans le sourire de ses enfants</t>
+          <t>Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur la route de la vie sur mon fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Sorti du ventre de ma mère à environ 6 mois et demi, prématurément Dès la naissance, une épreuve se met en scène J'ai à peine vu le jour et je souffre déjà d'un manque d'oxygène Erreur médicale ou destin pré-écrit En tout cas, les médecins parlent d'une totale paralysie Réalité implacable, dur d'accepter ce que je suis Je recherche un coupable, en vain parce qu'il en est ainsi Quand t'es petit tu demandes, pourquoi c'est tombé sur moi Pourquoi moi ? Pourquoi la vie me foudroie ? Tant de questions sans réponses mais l'évidence est là Je ne marcherai sûrement jamais dans ce monde-là Mais parents souffrent immensément en silence Tentent de le cacher mais dans leurs yeux de la tristesse, de l'impuissance Malheureux de me voir marié à un fauteuil roulant, quand j'y repense Les voir malheureux, c'est peut-être ma plus grande souffrance Je leur dois tout, tant de sacrifices Ils ont bâti leur vie autour de l'handicap de leur fils J'ai l'impression d'être un toit pour eux, ils sont tout pour moi Ils m'ont gardé avec eux, refuser de me mettre dans un internat Mon quotidien, c'est des journées interminables Passées devant la télé, des heures à gamberger À se demander qui voudra bien m'amener pour aller chier Ou qui m'aidera à faire des choses simples comme boire ou manger M'habiller, me déshabiller même dans la nudité Je suis toujours accompagné, je n'ai pas de jardin secret Les miens sont solidaires, je vis mes épreuves en solitaire Besoin de moments de solitude, la dépendance à l'autre me tue Ce qui me tue le plus, c'est la façon dont on me regarde Le miroir de la vie, c'est les gens et l'image qu'ils me renvoient Celle de Salim l'handicapé qui fait de la peine S'ils savaient comme je déteste ce regard empreint de peine Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Dieu m'a doté d'un handicap si je puis dire M'a donné aussi la force inébranlable de vouloir construire Fonder un foyer, me marier comme une personne valide Voyez-moi, handicap n'est pas une fatalité Les yeux vers le ciel, je rêve d'aimer, d'être aimé Mais on ne me voit jamais comme un petit ami potentiel Pas grave, l'espoir fait vivre et le rêve le fait durer Impossible et jamais, des mots que je ne prononce jamais J'ai aimé une fille, je l'ai dit à personne même pas à elle J'ai pas voulu lui faire porter le poids de ma personne Ma puce si tu te reconnais, je t'aime, je compte plus les fois Où tu m'as fait oublier mon handicap et mes problèmes Je t'inviterais bien à me suivre, viens avec moi, affronter la vie Ses épreuves et ses péripéties En plus, regarde le bon côté des choses, beauté J'aurais d'énormes difficultés à te tromper Fermons les yeux, laissons nos curs dialoguer Au-delà des apparences, j'ai tant d'amour à te donner Si par malheur tu les ouvrais C'est que tu ne m'étais pas destinée, en aucun cas je t'en voudrais Sachez, cette chanson n'est pas des larmes Rangez vos mouchoirs, cette chanson n'est pas des larmes Je relate juste des faits, je relate ce que je suis Mon but, c'est que vous m'acceptiez comme je suis Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Feuille de compte</t>
+          <t>Freestyle 13 organisé 2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Au début, c'était pas le top On a prit le taureau par les cornes On a fait ça pour la forme On voulait juste que ça sonne Ça commence par des rimes qui voulaient pas dire grand chose Puis on a raconté nos vies sans penser à toucher des sommes Tu m'vois comme la relève, ça fait 10 ans qu'on est là Moi j'suis pas dans ton game, j'suis trop loin j'ai pris le large On sen foutait davoir des gows, faire des sous, d'la mala Maintenant ça donne des Go, ça s'entretue comme des malades On a transformé l'essai, casser la lucarne Le froc jamais baissé, j'ai trop de fierté tu le sais J'vais pas te dire qu'j'ai du vécu mais on connait la rue Celle des vrais, pas celle des gens qui prennent l'amitié comme du PQ Prisonnier d'ce monde, me reste t-il assez de pécule ? Et ils sont beaux avec leur sécu Élever par mon père, pas par Tony Montana La rue on la vénère pas, la mash on la consomme pas Tu fais , on te connais pas Tu vas mordre la poussière, petit frère à quoi bon sert d'être le plus riche du cimetière ? La vie, c'est pas Game of Thrones, fuck ta Khaleesi Trop d'chacals ici, bientôt tous la calvitie On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette On sait que la mort nous guette alors on cherche des hassannats Mais des fois je m'égare, roule un pet', paye ta canette Tu es qu'un effet de mode, on te fait trop d'éloge Faudra savoir durer, putain que la route est longue Profite de ta folle, de ta Porshe, mais ne t'affole pas Tout ce qui s'élève, se rabaisse, rhey c'est inévitable La jeunesse est sous C, les parents qui s'étouffent Les curs sont sous scellés, c'est le temps qui nous étouffe C'est la vie qui nous éprouve, bientôt l'heure de faire des comptes Comme le gérant d'un four devant sa feuille de compte</t>
+          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot On fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Force et honneur</t>
+          <t>Gamberge</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur la route de la vie sur mon fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Sorti du ventre de ma mère à environ 6 mois et demi, prématurément Dès la naissance, une épreuve se met en scène J'ai à peine vu le jour et je souffre déjà d'un manque d'oxygène Erreur médicale ou destin pré-écrit En tout cas, les médecins parlent d'une totale paralysie Réalité implacable, dur d'accepter ce que je suis Je recherche un coupable, en vain parce qu'il en est ainsi Quand t'es petit tu demandes, pourquoi c'est tombé sur moi Pourquoi moi ? Pourquoi la vie me foudroie ? Tant de questions sans réponses mais l'évidence est là Je ne marcherai sûrement jamais dans ce monde-là Mais parents souffrent immensément en silence Tentent de le cacher mais dans leurs yeux de la tristesse, de l'impuissance Malheureux de me voir marié à un fauteuil roulant, quand j'y repense Les voir malheureux, c'est peut-être ma plus grande souffrance Je leur dois tout, tant de sacrifices Ils ont bâti leur vie autour de l'handicap de leur fils J'ai l'impression d'être un toit pour eux, ils sont tout pour moi Ils m'ont gardé avec eux, refuser de me mettre dans un internat Mon quotidien, c'est des journées interminables Passées devant la télé, des heures à gamberger À se demander qui voudra bien m'amener pour aller chier Ou qui m'aidera à faire des choses simples comme boire ou manger M'habiller, me déshabiller même dans la nudité Je suis toujours accompagné, je n'ai pas de jardin secret Les miens sont solidaires, je vis mes épreuves en solitaire Besoin de moments de solitude, la dépendance à l'autre me tue Ce qui me tue le plus, c'est la façon dont on me regarde Le miroir de la vie, c'est les gens et l'image qu'ils me renvoient Celle de Salim l'handicapé qui fait de la peine S'ils savaient comme je déteste ce regard empreint de peine Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Dieu m'a doté d'un handicap si je puis dire M'a donné aussi la force inébranlable de vouloir construire Fonder un foyer, me marier comme une personne valide Voyez-moi, handicap n'est pas une fatalité Les yeux vers le ciel, je rêve d'aimer, d'être aimé Mais on ne me voit jamais comme un petit ami potentiel Pas grave, l'espoir fait vivre et le rêve le fait durer Impossible et jamais, des mots que je ne prononce jamais J'ai aimé une fille, je l'ai dit à personne même pas à elle J'ai pas voulu lui faire porter le poids de ma personne Ma puce si tu te reconnais, je t'aime, je compte plus les fois Où tu m'as fait oublier mon handicap et mes problèmes Je t'inviterais bien à me suivre, viens avec moi, affronter la vie Ses épreuves et ses péripéties En plus, regarde le bon côté des choses, beauté J'aurais d'énormes difficultés à te tromper Fermons les yeux, laissons nos curs dialoguer Au-delà des apparences, j'ai tant d'amour à te donner Si par malheur tu les ouvrais C'est que tu ne m'étais pas destinée, en aucun cas je t'en voudrais Sachez, cette chanson n'est pas des larmes Rangez vos mouchoirs, cette chanson n'est pas des larmes Je relate juste des faits, je relate ce que je suis Mon but, c'est que vous m'acceptiez comme je suis Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important Je m'appelle Salim et j'ai 21 ans Avec force et honneur, je roule sur les routes de la vie sur un fauteuil roulant Souvent les gens me regardent étrangement J'ai longtemps cru malheureusement que leur jugement est important</t>
+          <t>Vis par les armes, meurs par les armes Vis dans le haram, périra dans les flammes Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler La vie est dure, c'est sûr Y'a ceux qui se lèvent le cul, toi tu vends d'la pure T'enlèves des vies, t'enlèves des armes Tu crois plus en Dieu, tu crois qu'en ton âme Paranoïque, dépressif Cri sur la daronne addict à la coc', faut ta dose faut qu'tu sniff Un grand t'a mis une gifle, il t'a hagar Tu veux lui faire la peau, ce fils de bâtard Za3ma t'es un fou t'as des choses à prouver Attends-toi à tout, la rue vas t'éprouver Ca commence par le guet, ça finis par donner des go' Pour récupérer un terrain tu fumes ton amigo Comme si de rien n'étais tu assistes à son enterrement Tu pleures avec sa mère, tu mélanges les sentiments La prochaine qui vas pleurer c'est la tienne Attends-toi à un lourd châtiment ! Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler Brûler, brûler, brûler Gelek j'suis un homme, gelek gelek j'suis un vrai Brûler, brûler, brûler Brûler, brûler, brûler Tu flirtes avec le diable tu vas pas tarder à brûler Y'a plus de rahma dans les quartiers, la drogue tue dans les quartiers Le Sheitan nous a berné, plus d'échappatoire on est cerné Plus d'amour dans mon quartier, la haine pousse dans ton quartier Même ton ami d'enfance peut devenir ton ennemi juré Yema Yema, pris pour tes fils qui sont égarrés Yema Yema, même les anges ont fini par se barrer On a rien à y gagner, on emporte rien avec nous sous terre A quoi bon sert d'être le plus riche du cimetière ? Marseille c'est des drames, Marseille c'est des larmes La prison ou la mort, les corps calciné, mères en larmes On sait plus à qui parlé, parano j'commence à m'méfier Chaque jours sans savoir, j'fais la bise à des meurtriers Yema Yema, Yema Yema Que Dieu guide nos pas Yema Yema, Yema Yema Que Dieu guide nos pas</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Freestyle 13 organisé 2</t>
+          <t>Game Over</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot On fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
+          <t>Le rap c'est cette vielle qui va cracher le code de sa carte Ah Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle. Yeah Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo yo J'arrive là où on m'attend pas à l'improviste explose comme une bombe Dans un bus et c'est l'attentat Je débarque dans le rap suspect Comme un tchétchène fait son entrée dans une salle de cinéma Moi je rap et tu la ferme J'ai mis du temps à briller, l'algé ils ont voulu étouffer l'affaire Dis leur qu'il y a un gosse qui bosse à Marseille Bosse et leurs putain de pronostiques ils ont tout à refaire Parait que tu es le buzz du moment tu as le buzz J'ai le uzi je fais peur comme diam's fait peur à Suzie De la cave à l'usine pas de place pour mes sosies Le petit gars de la Savine qui représente à jamais sa ville Marseille Je veux le butin comme un carther au japon Un collet marseillais, un mic, il parait que y a bon Mes khô ont les corones pleines et les poches vides Je rentre dans leur boite parce que les videurs me reconnaissent Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo Yoyo Yo Plus rien a foutre j'ai les medias à mes trousses Si y a moyen de faire du fric je vais pas cracher dans la soupe Je m'en bats les couilles de la coupe Je veux du pèse du flouz ma poule sans se faire défoncer le boule ok Nouveau track, nouveau style, nouveau bac Que du sah dans le sas représente ces millions de macaques Gel sur la tête, le cul posé sur un vespa C'est le chant de la frime ma tune se donne en spectacle Les jeux sont faits, truqués depuis le début Je suis le carré d'AS, je prends le micro et c'est le déluge Enh Pleks mec de flex degande ménéyeux lefo mene kezenemek Haha yo même quand je dis n'importe quoi ça tue Ton style il pue du cul je ferais en sorte que tu ne l'utilise plus Je ferais en sorte que tu m'entendes plus Un album fait en 2 semaines histoire d'entretenir la forme je t'informe Si tu es sourd je t'en mets plein les yeux Le fond et la forme qu'est ce que tu veux je fais des envieux On ne m'a pas posé le succès sur un plateau Impertinent et fier je relève le col à la Kamo Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over 2007 Game over On a plus le temps de jouer Marseille L'Algerino Tout dans le flex Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gamberge</t>
+          <t>Génération No Limit</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Vis par les armes, meurs par les armes Vis dans le haram, périra dans les flammes Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler La vie est dure, c'est sûr Y'a ceux qui se lèvent le cul, toi tu vends d'la pure T'enlèves des vies, t'enlèves des armes Tu crois plus en Dieu, tu crois qu'en ton âme Paranoïque, dépressif Cri sur la daronne addict à la coc', faut ta dose faut qu'tu sniff Un grand t'a mis une gifle, il t'a hagar Tu veux lui faire la peau, ce fils de bâtard Za3ma t'es un fou t'as des choses à prouver Attends-toi à tout, la rue vas t'éprouver Ca commence par le guet, ça finis par donner des go' Pour récupérer un terrain tu fumes ton amigo Comme si de rien n'étais tu assistes à son enterrement Tu pleures avec sa mère, tu mélanges les sentiments La prochaine qui vas pleurer c'est la tienne Attends-toi à un lourd châtiment ! Tu tires un rail, avant d'le fumer Tu paranoïe, difficile d'assumer Gelek j'suis un homme, gelek gelek j'suis un vrai Tu flirtes avec le diable tu vas pas tarder à brûler Brûler, brûler, brûler Gelek j'suis un homme, gelek gelek j'suis un vrai Brûler, brûler, brûler Brûler, brûler, brûler Tu flirtes avec le diable tu vas pas tarder à brûler Y'a plus de rahma dans les quartiers, la drogue tue dans les quartiers Le Sheitan nous a berné, plus d'échappatoire on est cerné Plus d'amour dans mon quartier, la haine pousse dans ton quartier Même ton ami d'enfance peut devenir ton ennemi juré Yema Yema, pris pour tes fils qui sont égarrés Yema Yema, même les anges ont fini par se barrer On a rien à y gagner, on emporte rien avec nous sous terre A quoi bon sert d'être le plus riche du cimetière ? Marseille c'est des drames, Marseille c'est des larmes La prison ou la mort, les corps calciné, mères en larmes On sait plus à qui parlé, parano j'commence à m'méfier Chaque jours sans savoir, j'fais la bise à des meurtriers Yema Yema, Yema Yema Que Dieu guide nos pas Yema Yema, Yema Yema Que Dieu guide nos pas</t>
+          <t>On veut briller Quelle que soit la fin du game les jeunes sont mouillés Capable du pire pour une poignée d'billets On représente pour la génération no limit On veut briller Quelle que soit la fin du game les jeunes sont mouillés Écartes-toi c'est chaud on y est ! On représente pour la génération no limit Les jeunes n'ont plus d'limites Limite les grands sont plus timides Limite ils baisent après ils font la bise Plus de limites, plus de morale Leur demande pas ce qu'ils veulent Ils veulent de l'argent sale Ils veulent te fermer ta gueule Arabe blanc black black berry berry Very very good chérie Ça s'fera dans un parking dans la périphérie Laisses pas traîner ta fille si tu veux pas qu'elle glisse Les rues de ma ville sont sales Elles ont comme une odeur de pisse Ok leur demande pas d'voter ils veulent du cah Se payent un bout de rêve, 100 euros sur Côté Match Côté coeur c'est la déch Dans les caisses, côté trash Ils veulent que de la marque Leur parle pas du côté fatch Côté rap ils ne savent plus ce qu'ils écoutent Paraît qu'ce rappeur est à la mode donc ils l'écoutent en boucle Leur parle pas d'artistique Ils veulent ce qui s'fait d'plus chaud Sexe, drogue, rap, ils baisent la France à Sarko Eh yo Alonzo Alonzo Alonzo Yeaah Au cachot, au réseau, dans les cellulaires C'est le nouvel air, man l'amour la guerre Comoria en Gabbana j'arrache sa mère J'me prends pas pour Zépé J'préfère Béné J'préfère rapper la vengeance des aînés A la masse j'suis mêlé L'époque est animée L'euro c'est la matière première On frappe au bulldozer J'ai vu des gosses se perdre Noyés dans le vice, les problèmes, les larmes Bidons d'essence, allumettes Il suffit d'une étincelle pour qu'une vie s'enflamme Pour ma jeunesse oubliée, A.L.O.N, Nassi, l'Algé viennent chanter Ça vient du fond de nos âmes Et tu sais comme on dégomme sa a-a-a-a On a du kérosène dans le corps On est des avions d'chasse faut qu'on décolle on a la mort Tu veux du, Tu veux du Tu veux du rêve ? Dors encore ! Wallah on est trop speed dans les Quartiers Nord x2 Ils veulent faire de la prison-prison parce que ça fait fresh Tu leur dis que Dieu te guide Ils te disent de garder la pêche Ils veulent ton 06 6 6 n3el satan Traînes pas dans le secteur cousine, tu sais c'qui t'attends Génération no limit Aujourd'hui les p'tits frères veulent devenir ce qu'ils imitent Tu le sais, y'a l'Algé, y'a Papé Génération no limit Aujourd'hui les p'tits frères veulent prendre plus que c'qu'ils méritent Tu le sais, y'a l'Algé, y'a Papé eh eh eh ..</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Game Over</t>
+          <t>Grosse garde robe</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Le rap c'est cette vielle qui va cracher le code de sa carte Ah Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle. Yeah Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo yo J'arrive là où on m'attend pas à l'improviste explose comme une bombe Dans un bus et c'est l'attentat Je débarque dans le rap suspect Comme un tchétchène fait son entrée dans une salle de cinéma Moi je rap et tu la ferme J'ai mis du temps à briller, l'algé ils ont voulu étouffer l'affaire Dis leur qu'il y a un gosse qui bosse à Marseille Bosse et leurs putain de pronostiques ils ont tout à refaire Parait que tu es le buzz du moment tu as le buzz J'ai le uzi je fais peur comme diam's fait peur à Suzie De la cave à l'usine pas de place pour mes sosies Le petit gars de la Savine qui représente à jamais sa ville Marseille Je veux le butin comme un carther au japon Un collet marseillais, un mic, il parait que y a bon Mes khô ont les corones pleines et les poches vides Je rentre dans leur boite parce que les videurs me reconnaissent Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over Yo Yoyo Yo Plus rien a foutre j'ai les medias à mes trousses Si y a moyen de faire du fric je vais pas cracher dans la soupe Je m'en bats les couilles de la coupe Je veux du pèse du flouz ma poule sans se faire défoncer le boule ok Nouveau track, nouveau style, nouveau bac Que du sah dans le sas représente ces millions de macaques Gel sur la tête, le cul posé sur un vespa C'est le chant de la frime ma tune se donne en spectacle Les jeux sont faits, truqués depuis le début Je suis le carré d'AS, je prends le micro et c'est le déluge Enh Pleks mec de flex degande ménéyeux lefo mene kezenemek Haha yo même quand je dis n'importe quoi ça tue Ton style il pue du cul je ferais en sorte que tu ne l'utilise plus Je ferais en sorte que tu m'entendes plus Un album fait en 2 semaines histoire d'entretenir la forme je t'informe Si tu es sourd je t'en mets plein les yeux Le fond et la forme qu'est ce que tu veux je fais des envieux On ne m'a pas posé le succès sur un plateau Impertinent et fier je relève le col à la Kamo Monte le son, mets les watts game over Tu entend pas game over Ce qui nous arrive toujours la même game over La rage et la merde, fais tourner le son le reste on les emmerde game over Monte le son mets les watts game over Tu entends pas game over Le rap c'est cette vielle qui va cracher le code de sa carte game over 2007 Game over On a plus le temps de jouer Marseille L'Algerino Tout dans le flex Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Parait que j'ai la côte, les majors me font les yeux doux Ramène le contrat je vais pas cracher sur des gros sous Je vends des disques sans la FM, imagine si elle s'en mêle</t>
+          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Génération No Limit</t>
+          <t>Habibi</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>On veut briller Quelle que soit la fin du game les jeunes sont mouillés Capable du pire pour une poignée d'billets On représente pour la génération no limit On veut briller Quelle que soit la fin du game les jeunes sont mouillés Écartes-toi c'est chaud on y est ! On représente pour la génération no limit Les jeunes n'ont plus d'limites Limite les grands sont plus timides Limite ils baisent après ils font la bise Plus de limites, plus de morale Leur demande pas ce qu'ils veulent Ils veulent de l'argent sale Ils veulent te fermer ta gueule Arabe blanc black black berry berry Very very good chérie Ça s'fera dans un parking dans la périphérie Laisses pas traîner ta fille si tu veux pas qu'elle glisse Les rues de ma ville sont sales Elles ont comme une odeur de pisse Ok leur demande pas d'voter ils veulent du cah Se payent un bout de rêve, 100 euros sur Côté Match Côté coeur c'est la déch Dans les caisses, côté trash Ils veulent que de la marque Leur parle pas du côté fatch Côté rap ils ne savent plus ce qu'ils écoutent Paraît qu'ce rappeur est à la mode donc ils l'écoutent en boucle Leur parle pas d'artistique Ils veulent ce qui s'fait d'plus chaud Sexe, drogue, rap, ils baisent la France à Sarko Eh yo Alonzo Alonzo Alonzo Yeaah Au cachot, au réseau, dans les cellulaires C'est le nouvel air, man l'amour la guerre Comoria en Gabbana j'arrache sa mère J'me prends pas pour Zépé J'préfère Béné J'préfère rapper la vengeance des aînés A la masse j'suis mêlé L'époque est animée L'euro c'est la matière première On frappe au bulldozer J'ai vu des gosses se perdre Noyés dans le vice, les problèmes, les larmes Bidons d'essence, allumettes Il suffit d'une étincelle pour qu'une vie s'enflamme Pour ma jeunesse oubliée, A.L.O.N, Nassi, l'Algé viennent chanter Ça vient du fond de nos âmes Et tu sais comme on dégomme sa a-a-a-a On a du kérosène dans le corps On est des avions d'chasse faut qu'on décolle on a la mort Tu veux du, Tu veux du Tu veux du rêve ? Dors encore ! Wallah on est trop speed dans les Quartiers Nord x2 Ils veulent faire de la prison-prison parce que ça fait fresh Tu leur dis que Dieu te guide Ils te disent de garder la pêche Ils veulent ton 06 6 6 n3el satan Traînes pas dans le secteur cousine, tu sais c'qui t'attends Génération no limit Aujourd'hui les p'tits frères veulent devenir ce qu'ils imitent Tu le sais, y'a l'Algé, y'a Papé Génération no limit Aujourd'hui les p'tits frères veulent prendre plus que c'qu'ils méritent Tu le sais, y'a l'Algé, y'a Papé eh eh eh ..</t>
+          <t>Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Moi jte parle de croquer la vie De laisser derrière soi La peine, les soucis Et la vie nous le rend bien Quand on veut bien voir Crois-moi Oriental Dream Wesh mon ami, comment ça va ? Ça fait des mois que jtai pas vu Cest vrai que ça date Et bois un coup cest pour moi Bsahtek la paire de Prada Wesh la famille, comment ça va ? Tu parles encore de ton ex Mais vas-y oublie-la Cousin faut tourner la page Et puis le reste on verra Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Seul le Ciel est la limite Tout va si vite Et tu nvois plus le temps qui passe Habibi, laisse-toi guider Et tu verras qucest pas si mal Habibi, rien nest fini Et puis regarde autour de toi Ce monde te sourit Et la vie te tend les bras Eh yo te casse pas la tête Le gros son qui pète Habibi maguali noum Habibi jtai dans la tête Passeoprt, bagages Liasses de billet dcinq cent Libre comme lair Jprends lavion quand ça mchante Suis-moi on va senjailler non-stop Oublier nos soucis jusquà laube Chante avec moi lady, lady, lady Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi LAlgérino, Nassi Oriental Dream mon ami On tfait voyager en 3min20 Habibi</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Grosse garde robe</t>
+          <t>Halla Style</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>- Oh Momo le Suédois! - Oh l'Algé! -Ca va ou quoi? -Bien ou quoi? -Parait-il y'a une grosse soirée avec Dj Kayz -Ah je suis la ce soir -Hann on va se mettre frais! Grosse garde robe Ouais poto j'suis tarpin frais et jusqu'à l'aube J'ai tout mon temps, Rolex au poignet Grosse garde robe Khamsa f3aynik tu peux toujours parler Y a trop de lan-de lan-de langues de putes qui jactent De lon-longeur J'te la fais en chaoui en kabyle Seuseum J't'la fais même en turc Anani sikim Les jaloux ont le seum on s'en bat les klewi Nous on a la classe houma c'est des Kleb Retiens ta minche on dirait qu'elle a faim Nous on respecte t'es pas tombé sur des chiens T'es l'ex à mon kho tu veux mon numéro? Rohi ta3ti Tu connais pas l'Algérino L'Algérino flow de capito 1 million d'euros, tous mes classicos Une armée de bicos dans le bario On veux peser plus lourd que les généraux J'suis avec hbibi malik, fois gras halal Confiture de figues à la recherche d'une hlel Pas d'excès de zèle, pas d'coke dans le zen Le fond d'teint d'la veille, en plus tu fais la belle J'fais le tour des boîtes et des chichas Les rappeurs m'envient j'fais du biff, ils sont tous en lère-ga Rebeu frais, rebeu agile Pourquoi tu m'jalouses, rebeu fragile J'aime rouler toute la nuit, que j'gamberge delali Aba3ltilni ya omri ya ya delali Towo3rtini rayhati ralini nejri fi beli Mali-mali-malia Amanama x21</t>
+          <t>KHALASS Ya lila nez'hou wen'rannou ahh Khalass wel algerino Dj Kore, Dj Belek L'Algerino, Marseille Fi khatar kore La médaille d'or khouya C'est la halla dans la caisse Ray Bane sur la tete Te casses pas la tete Viens on t'aprend comment on fait la fete Ça vient de S'tif Fait pas za3ma tu kiffes pas Le son chaoui le son qui fait bouger les cha'hma Ammar ammar Kho dawwar dawwar Jib l'appareil photo sawwar sawwar C'est la folie la famix La folie, quand on est pas joli, petite on reste poli Ça c'est pour les frères qui bizz' et qui n'ont pas le temps Ça c'est pour les soeurs qui trainent Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Lila n'dirou halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Tape des mains si tu sais pas dancer Les chawi vont t'ambiancer Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Habibi</t>
+          <t>Hola Remix</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Moi jte parle de croquer la vie De laisser derrière soi La peine, les soucis Et la vie nous le rend bien Quand on veut bien voir Crois-moi Oriental Dream Wesh mon ami, comment ça va ? Ça fait des mois que jtai pas vu Cest vrai que ça date Et bois un coup cest pour moi Bsahtek la paire de Prada Wesh la famille, comment ça va ? Tu parles encore de ton ex Mais vas-y oublie-la Cousin faut tourner la page Et puis le reste on verra Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi Seul le Ciel est la limite Tout va si vite Et tu nvois plus le temps qui passe Habibi, laisse-toi guider Et tu verras qucest pas si mal Habibi, rien nest fini Et puis regarde autour de toi Ce monde te sourit Et la vie te tend les bras Eh yo te casse pas la tête Le gros son qui pète Habibi maguali noum Habibi jtai dans la tête Passeoprt, bagages Liasses de billet dcinq cent Libre comme lair Jprends lavion quand ça mchante Suis-moi on va senjailler non-stop Oublier nos soucis jusquà laube Chante avec moi lady, lady, lady Habibi ya hali Quelques sourires, un peu de joie Habibi ya hali Oublie tout, viens, danse avec moi LAlgérino, Nassi Oriental Dream mon ami On tfait voyager en 3min20 Habibi</t>
+          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack broeder, fuck m'n ex fuck it Ik kan niet hangen meer met de putain hahhhh Ik kom van de streets, en daar is het warm Bitch ik nam de benen, ik ben niet meer arm Ben nu millionair, het heeft tijd gekost tijd Ik weet wat ik wil, ik zie jij twijfelt nog hahaha Kom uit Saint Denis, dat zijn buitenwijken En voor police moest ik buiten wijken Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef! Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Papa m'a dit de préserver tous les liens Je l'aime et grâce à Dieu, je sais d'où je viens Le ciel et la Terre et dans les veines à vie J'veux m'sentir chez moi, dans mon bled ou dans le tien Quelques ignorants se chamaillent dans la cour La Terre est la même, le teint n'est pas raccord Les tiens comme les miens déçoivent chacun leur tour Y a qu'Kalash Criminel qui met tout l'monde d'accord Et de ce côté de moi, que diront-ils ? De l'autre côté de moi, que diront-ils ? J'suis pas un arabe, moi, pas un africain Un arabe d'Afrique, un Arafricain Fianso Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Heeft de hiya, hiya Hij laat je vliegen, vliegen Ik ben met zinas, zinas Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Halla Style</t>
+          <t>Honneur et bravoure</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>KHALASS Ya lila nez'hou wen'rannou ahh Khalass wel algerino Dj Kore, Dj Belek L'Algerino, Marseille Fi khatar kore La médaille d'or khouya C'est la halla dans la caisse Ray Bane sur la tete Te casses pas la tete Viens on t'aprend comment on fait la fete Ça vient de S'tif Fait pas za3ma tu kiffes pas Le son chaoui le son qui fait bouger les cha'hma Ammar ammar Kho dawwar dawwar Jib l'appareil photo sawwar sawwar C'est la folie la famix La folie, quand on est pas joli, petite on reste poli Ça c'est pour les frères qui bizz' et qui n'ont pas le temps Ça c'est pour les soeurs qui trainent Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine Lila n'dirou halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Halla halla Fais pas zehma zehma Vas y dance Vas y bouge y' a des bella bella Tape des mains si tu sais pas dancer Les chawi vont t'ambiancer Mha wlad bladi Yaharfou lel gaada Ay khamsa wekh'mouss Fi h'youne el hessada 2 Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Zahi'ine ou farhanine hekkakaa Yeah yeah yeah Ya lila n'dirou halla Yeah yeah yeah Llah yastarna mel'hine</t>
+          <t>Paraît que les temps sont durs À bout de nerfs, on reste forts Ce qui nous dirige, c'est la sincérité Rapper avec le cur tant qu'on entend ses battements Et si ça choque, c'est juste un bout de vérité lâché de plein fouet Mon souhait voir les frères soudés, accoudés sur des valeurs solides Loin de toute tractation, cinq piliers comme fondations Rester droit, telle est ma direction Aimer son frère quand y a plus d'amour Ça part dans tous les sens, dans toutes les directions Tous les chemins sont bons sauf les mauvais À toi d'interpréter ça dans tous les sens Trop de haine, ça a déstabilisé mes cinq sens Honneur et bravoure depuis l'époque juvénile On se battra tant qu'y a encore de l'eau dans le fleuve du Nil Le temps s'écoule et l'homme s'écroule, avertis la France Du haut de mes 22 piges, j'regarde le monde en gardant mes distances Petit, si je m'emporte, c'est le fruit de l'émotion Tant de sentiments et si peu de mots, si bien que tout se mélange dans ma tête Le désordre est proclamé, la folie se mêle à ma raison Et là, j'me lâche, j'me sens bien, ouais ! On marchera fiers sans sombrer dans l'orgueil, la vanité Putsch cérébral, abnégation, courage comme monture On prendra la place du calife, l'Algérino ! On me prendra sûrement pour un fou Un mec qui avait rien d'autre à foutre que de noircir ses feuilles blanches, raconter son vécu de merde Si tu savais, mon souhait réunir les consciences uvrer, éviter la pénitence, on aurait pu tomber Mais je me relève, tête haute, humble et simple J'aurais pu te parler de sexe et de shit, histoire de faire du chiffre Le pactole et les hits, bastos pour la frime Que j'mets un gilet pare-balles De peur de me faire allumer dans la street J'laisse ça aux mythomanes, j'clame ma différence haut et fort Parle fort, pense fort, rêve fort J'rêve que la roue tourne, quand elle vient à nous, on la crève Frère, on n'a pas le temps, la vie est brève Pour tous nos consorts, ceux que la vie a dépourvus de confort Pour ceux qui ont du blé et qui, simplement, se comportent Dédiée aux friqués qui pensent aux pauvres Et aux pauvres solidaires que la misère aurait pu diviser Unis dans la merde, unis dans la richesse Unis dans nos différences de teint, de classe sociale Le tout, c'est de respecter son prochain Aveuglés par le matos, on se marche dessus Nargués par Lucifer, le Malin On reste les mêmes survêt' Lacoste, Air Max De temps en temps, une veste en cuir pour briller On soigne notre langage pour pas se faire remarquer à la télé Jeune ambitieux qui veut s'en sortir Tous les moyens sont bons sauf les mauvais uvrer, s'éloigner du faux Tous frères malgré la différence de peau La vérité n'a pas d'étendard ni de drapeau Certains se repositionnent et d'autres s'égarent Pour se réveiller, il sera jamais trop tard Et si j'échoue, c'est juste que j'ai eu tort d'avoir eu raison trop tôt On reprendra mes phrases plus tard Libre songeur loin de toute tendance Tous les moyens sont bons sauf les mauvais</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hola Remix</t>
+          <t>Il est où</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>En Fefe, j'ai quitté le bendo, demande pas si je paye mes impôts Costume taillé de chez Smalto, j'suis toujours sur le bon tempo Barrage de flics, ils font des manières et l'OPJ, elle veut une photo Y a trop de zéros sur mon salaire, frais comme si j'avais gagné au loto J'fais la bise au physio, toi, tu fais la queue, nous, on rentre en marche arrière Posé dans le patio, j'attends mon cachet, nous, on fait pas la guerre Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Ik ben met Algérino, draag geen Valentino Deze dagen draag ik alleen Louboutin Loubs Die dikke stack broeder, fuck m'n ex fuck it Ik kan niet hangen meer met de putain hahhhh Ik kom van de streets, en daar is het warm Bitch ik nam de benen, ik ben niet meer arm Ben nu millionair, het heeft tijd gekost tijd Ik weet wat ik wil, ik zie jij twijfelt nog hahaha Kom uit Saint Denis, dat zijn buitenwijken En voor police moest ik buiten wijken Nederland is klein, zal ik uit gaan schrijven? Internationaal, ik moet uit gaan breiden, Boef! Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Papa m'a dit de préserver tous les liens Je l'aime et grâce à Dieu, je sais d'où je viens Le ciel et la Terre et dans les veines à vie J'veux m'sentir chez moi, dans mon bled ou dans le tien Quelques ignorants se chamaillent dans la cour La Terre est la même, le teint n'est pas raccord Les tiens comme les miens déçoivent chacun leur tour Y a qu'Kalash Criminel qui met tout l'monde d'accord Et de ce côté de moi, que diront-ils ? De l'autre côté de moi, que diront-ils ? J'suis pas un arabe, moi, pas un africain Un arabe d'Afrique, un Arafricain Fianso Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Heeft de hiya, hiya Hij laat je vliegen, vliegen Ik ben met zinas, zinas Maar wil verdienen-dienen Elle a tapé dans l'mille, mille Paire d'shoes à mille E, mille E Richard Mille, Mille Gros reste tranquille Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos Hola, hola, monte dans l'bolide, j'suis le roi d'la mélo' J'sais pas, chica, chica, j'aime trop ton style, j'pète un cigarillo Ma chérie, on va roder toute la night, n'écoute pas les ragots Laisse-les parler, moi, j'ai pas l'time, j'suis dans toutes les vagos</t>
+          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Honneur et bravoure</t>
+          <t>Impact 13</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Paraît que les temps sont durs À bout de nerfs, on reste forts Ce qui nous dirige, c'est la sincérité Rapper avec le cur tant qu'on entend ses battements Et si ça choque, c'est juste un bout de vérité lâché de plein fouet Mon souhait voir les frères soudés, accoudés sur des valeurs solides Loin de toute tractation, cinq piliers comme fondations Rester droit, telle est ma direction Aimer son frère quand y a plus d'amour Ça part dans tous les sens, dans toutes les directions Tous les chemins sont bons sauf les mauvais À toi d'interpréter ça dans tous les sens Trop de haine, ça a déstabilisé mes cinq sens Honneur et bravoure depuis l'époque juvénile On se battra tant qu'y a encore de l'eau dans le fleuve du Nil Le temps s'écoule et l'homme s'écroule, avertis la France Du haut de mes 22 piges, j'regarde le monde en gardant mes distances Petit, si je m'emporte, c'est le fruit de l'émotion Tant de sentiments et si peu de mots, si bien que tout se mélange dans ma tête Le désordre est proclamé, la folie se mêle à ma raison Et là, j'me lâche, j'me sens bien, ouais ! On marchera fiers sans sombrer dans l'orgueil, la vanité Putsch cérébral, abnégation, courage comme monture On prendra la place du calife, l'Algérino ! On me prendra sûrement pour un fou Un mec qui avait rien d'autre à foutre que de noircir ses feuilles blanches, raconter son vécu de merde Si tu savais, mon souhait réunir les consciences uvrer, éviter la pénitence, on aurait pu tomber Mais je me relève, tête haute, humble et simple J'aurais pu te parler de sexe et de shit, histoire de faire du chiffre Le pactole et les hits, bastos pour la frime Que j'mets un gilet pare-balles De peur de me faire allumer dans la street J'laisse ça aux mythomanes, j'clame ma différence haut et fort Parle fort, pense fort, rêve fort J'rêve que la roue tourne, quand elle vient à nous, on la crève Frère, on n'a pas le temps, la vie est brève Pour tous nos consorts, ceux que la vie a dépourvus de confort Pour ceux qui ont du blé et qui, simplement, se comportent Dédiée aux friqués qui pensent aux pauvres Et aux pauvres solidaires que la misère aurait pu diviser Unis dans la merde, unis dans la richesse Unis dans nos différences de teint, de classe sociale Le tout, c'est de respecter son prochain Aveuglés par le matos, on se marche dessus Nargués par Lucifer, le Malin On reste les mêmes survêt' Lacoste, Air Max De temps en temps, une veste en cuir pour briller On soigne notre langage pour pas se faire remarquer à la télé Jeune ambitieux qui veut s'en sortir Tous les moyens sont bons sauf les mauvais uvrer, s'éloigner du faux Tous frères malgré la différence de peau La vérité n'a pas d'étendard ni de drapeau Certains se repositionnent et d'autres s'égarent Pour se réveiller, il sera jamais trop tard Et si j'échoue, c'est juste que j'ai eu tort d'avoir eu raison trop tôt On reprendra mes phrases plus tard Libre songeur loin de toute tendance Tous les moyens sont bons sauf les mauvais</t>
+          <t>A Marseille les vrais qui pèsent, ne parlent pas Ils font leurs sous illégalement mais ne s'en vantent pas Zarbi pète pas plus haut que ton cul Les jaloux te braquent, t'aurais du tourner ta langue sept fois dans ton cul Rap je l'encule sans vaseline Vu que la plupart des mc sont des pd calibrés que dans les magazines Dehors c'est l'asile frère t'as peur de te montrer Derrière un mic, tu joues les fiers et dans la rue tu marches la tête baissée Je fais des tubes, ???????????, des thunes en levant le majeur Faire plaisir aux frangins qu'ont l'humeur rageuse Je sors en boite pour faire profiter les potes en vrac Place aux bad boys de la Savine, je veux la meilleure table Punchliner, ça se passe sur la ligne 30 13.0015 Mars que des monstroplantes Mc on fait pas partie du même bateau En sortant du bazar, je t'ai vu tapiner sur ????? Tu fais la fille bien, ton mec est tombé Tu te fais défoncer par sont pote qui l'a balancé Une chienne reste une chienne, les chiens mangent les chiens Si t'es en chien tous les moyen sont bons sauf à enculer les siens A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Zahef bézef, en bande tu chénef Mais tout seul tu trembles des lèvres Détend toi l'ami, si ta gadji me guette c'est qu'elle se respecte pas Si on sait qu'elle est maqué on respecte, on la touche pas Suspect devant un distributeur de billets Si tu vois un marseillais, fais gaffe à ta C.B Hoooo t'sais qu'on est toujours dispo J'représente mon bled d'où mon nom l'algérino Braquo vocal kho goutte c'est de la locale Fais péter le son t'as reconnu l'empreinte vocale 13 le code postal on veut peser comme Sossa ?????? tête dure demande à totta Rien à craindre rien à se reprocher Savine bâtiment D1 tu sais où me trouver J'suis chez moi partout en France, au bled ou aux Comores T'es pas content raciste, va niquer tes morts A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Frein à main voiture de location Regard de travers ma racaille effraie la nation On est là dans le poste je fais la fierté de ma ville Les pirates sont dans ta ville, ne laisses pas traîner ta fille Voyons vodka cul sec ??????? Q7 La famille tu vois flou t'es en train de brancher une pucelle A Marseille ça clashe pas, ça charcle Beaucoup de langue de pute mais y'a pas de voyou dans le rap 100 Rolloto, je traine avec Jonny Hamma Au bar Maeva ça nique le R.M.I au bingo Un coup d'espoir au Loto Marlboro Kawa Le temps se compte en mégot rêve de finir à Hawaï Les problèmes sous le k-way Tout va bien normal Marseille est pollué En plus de la construction du tramway Si les joueurs de l'O.M ne mouillent pas le maillot Les petits de la Savine iront Leur braquer le Cayenne x2 A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Je me sens chez moi en France au bled ou au Comores T'es pas content raciste, va niquer tes morts</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Il est où</t>
+          <t>Je prends le large</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brrr Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Alger, Casa, Dubaï, Marrakech Ça fait dix ans que j'ai fui la dèche Depuis minot, on sait faire d'la fraîche Soleil plein, je ramène de la fraîcheur Y a trop d'espèces, y a pas d'passagers Dans l'Boeing, y a que des hôtesses Ma chérie, on décolle, attache ta ceinture Hermès Tu parles trop, poto, paye le cachet et hasta luego, hasta luego Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en survêt' dans les rues de Monaco breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula toute la journée Tu veux mon biff comme XTentacion, faudra m'allumer On fait que des hits comme Maluma, j'les fais toutes danser En showcase sur la Luna, international L'Algé, il est où ? Il a trop d'adresses L'Algé, comment va ? Hamdoullah, khoya, labas J'suis à Bora-Bora, même d'là-bas, j'encaisse Tu as de nouvelles chaussures, j'ai une nouvelle caisse Bob Marley, j'suis l'roi d'la mélo Plaque algérienne, je sors de Maranello Gros, j'suis en indé en Cayenne, oh J'suis en shopping dans les rues de Milano breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Monte dans l'Audi Quattro si tu as mal aux pieds Mets-toi sur le côté si t'as pas de jolis pieds On fait du blé, on fait d'la moula la la la la la Tu veux mon biff comme XTentacion la la la la la On fait que des hits comme Maluma la la la la la En showcase sur la Luna, la la la la la, breh, breh Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ? Il est où ? L'Algé, il est où ?</t>
+          <t>Laissez-moi perdu j'mets les voiles Les pieds sur Terre J'ai rêvé que je touchais les étoiles Donc j'mets les voiles, j'mets les voiles Les soucis s'enchaînent La vie est faite d'épreuves et j'prends sur moi J'mets les voiles j'm'arrache en gros cube J'tire un trait sur l'passé Ne dis pas qu't'es mon ami Quand j'te voyais tu traçais Désormais c'est chacun sa vie Nos destins sont tracés Et poto si tu m'as trahi Sache que dans mon cur c'est amitié glacée J'mets les voiles ne pleure pas J'suis tellement loin qu'j'ai peur de plus revenir J'ai dit à la miss nan ne pars pas J'ai trop d'fierté pour te retenir Combien de fois la vie m'a marqué, taclé, char-clé ? La gloire, la réussite m'ont nargué, tardé Bloqué sur le quai j'voulais embarquer J'voyais ma daronne frotter le parquet On m'as dit de rester honnête Tu fais aussi despi qu'une commette J'traînais trop dehors j'rêvais d'or à tord J'aurais pu finir aux Baumettes yeah</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Impact 13</t>
+          <t>Je trace ma route</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A Marseille les vrais qui pèsent, ne parlent pas Ils font leurs sous illégalement mais ne s'en vantent pas Zarbi pète pas plus haut que ton cul Les jaloux te braquent, t'aurais du tourner ta langue sept fois dans ton cul Rap je l'encule sans vaseline Vu que la plupart des mc sont des pd calibrés que dans les magazines Dehors c'est l'asile frère t'as peur de te montrer Derrière un mic, tu joues les fiers et dans la rue tu marches la tête baissée Je fais des tubes, ???????????, des thunes en levant le majeur Faire plaisir aux frangins qu'ont l'humeur rageuse Je sors en boite pour faire profiter les potes en vrac Place aux bad boys de la Savine, je veux la meilleure table Punchliner, ça se passe sur la ligne 30 13.0015 Mars que des monstroplantes Mc on fait pas partie du même bateau En sortant du bazar, je t'ai vu tapiner sur ????? Tu fais la fille bien, ton mec est tombé Tu te fais défoncer par sont pote qui l'a balancé Une chienne reste une chienne, les chiens mangent les chiens Si t'es en chien tous les moyen sont bons sauf à enculer les siens A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Zahef bézef, en bande tu chénef Mais tout seul tu trembles des lèvres Détend toi l'ami, si ta gadji me guette c'est qu'elle se respecte pas Si on sait qu'elle est maqué on respecte, on la touche pas Suspect devant un distributeur de billets Si tu vois un marseillais, fais gaffe à ta C.B Hoooo t'sais qu'on est toujours dispo J'représente mon bled d'où mon nom l'algérino Braquo vocal kho goutte c'est de la locale Fais péter le son t'as reconnu l'empreinte vocale 13 le code postal on veut peser comme Sossa ?????? tête dure demande à totta Rien à craindre rien à se reprocher Savine bâtiment D1 tu sais où me trouver J'suis chez moi partout en France, au bled ou aux Comores T'es pas content raciste, va niquer tes morts A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Frein à main voiture de location Regard de travers ma racaille effraie la nation On est là dans le poste je fais la fierté de ma ville Les pirates sont dans ta ville, ne laisses pas traîner ta fille Voyons vodka cul sec ??????? Q7 La famille tu vois flou t'es en train de brancher une pucelle A Marseille ça clashe pas, ça charcle Beaucoup de langue de pute mais y'a pas de voyou dans le rap 100 Rolloto, je traine avec Jonny Hamma Au bar Maeva ça nique le R.M.I au bingo Un coup d'espoir au Loto Marlboro Kawa Le temps se compte en mégot rêve de finir à Hawaï Les problèmes sous le k-way Tout va bien normal Marseille est pollué En plus de la construction du tramway Si les joueurs de l'O.M ne mouillent pas le maillot Les petits de la Savine iront Leur braquer le Cayenne x2 A Marseille Rien à foutre que tu pèses Si tu flambe on te teste Si tu trembles on te baise Marseille Tu lèveras nos carénages 250 les poches pleines mais j'ai pété le péage Phrasé crapuleux, visage granuleux La racaille et dans les charts et ouais c'est fabuleux Y'a ceux qui sont le dîn, y'a ceux qui bombent le torse Y'a les arabes, y'a les corses Et ceux qui brûlent dans les coffres Je me sens chez moi en France au bled ou au Comores T'es pas content raciste, va niquer tes morts</t>
+          <t>Joublie pas qui je suis, joublie pas doù je viens Joublie pas que jétais ce galérien qu'est parti de rien Joublie pas que pour beaucoup jétais voué à léchec Mais jai appris que dans la vie faut jamais lâcher le steak Joublie pas mes racines, fier de mes origines Joublie pas ce temps où mon compte en banque criait famine Joublie pas ces années à traîner dans les ruelles Entre la rue et lécole, petit voleur à Marseille Insouciant à lépoque, je voulais refaire le monde Un ballon de foot, un marqueur, je voulais croquer le monde Mais jai vu le fossé entre les rêves et la réalité La satiété de fric ne fait quempirer la société Le frigo est vide mais je manquais de rien Le daron se tue à la tâche pour quon mange à notre faim Y disent quon était pauvres, pour moi jétais millionnaire Une mère et un père, cest la plus grande des richesses sur Terre Jai connu les coups durs, maladies de la vie Le chemin est parsemé d'embûches sur lautoroute de la vie Entre le bien et le mal, entre la terre et les cieux Je lève les yeux vers le ciel et passe la confiance en Dieu À lheure où jécris ce texte, je suis garé dans un parking Les flics mont contrôlé nont trouvé que des mégots, des sticks Les gens me prennent pour un fou, quand je rappe mes textes au feu rouge Ça passe au vert, ça klaxonne, les vieux me regardent dun air louche Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai connu la routine, je lui ai même fait lamour Perdu mon temps, chaque jour à traîner en bas dune tour À se demander ce que le sort me réservera demain Fatigué de rien foutre, assommé par des joints Les yeux cernés, je perdais mon duel contre le sommeil 14 heures du mat', ce jour qui ressemble à celui de la veille Jai-j'ai rien à perdre, je sais ce que jai à faire Tente le tout pour le tout avant de finir 6 pieds sous terre Jai connu les nuits de doute, intéressé par les maisons de disques Les radios navaient pas de place pour moi dans leurs playlists Mais la rue a tranché, elle a fait de moi ce que je suis Y'a de la place dans la caisse, que ceux qui maiment me suive Jallume la radio, les frères inondent la F.M MashAllah je souhaite le bien, les jaloux puent la défaite Faut aimer pour son prochain, ce quon aime pour soi-même Continue à tout niquer, vas y mais reste toi-même Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai déjà 27 ans, jai vécu un quart de siècle Dans la vie y'a des chances qui se présentent, ils faut les saisir Rien à foutre de ceux qui mettent les bâtons dans les roues Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Je prends le large</t>
+          <t>Johnny Hama</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Laissez-moi perdu j'mets les voiles Les pieds sur Terre J'ai rêvé que je touchais les étoiles Donc j'mets les voiles, j'mets les voiles Les soucis s'enchaînent La vie est faite d'épreuves et j'prends sur moi J'mets les voiles j'm'arrache en gros cube J'tire un trait sur l'passé Ne dis pas qu't'es mon ami Quand j'te voyais tu traçais Désormais c'est chacun sa vie Nos destins sont tracés Et poto si tu m'as trahi Sache que dans mon cur c'est amitié glacée J'mets les voiles ne pleure pas J'suis tellement loin qu'j'ai peur de plus revenir J'ai dit à la miss nan ne pars pas J'ai trop d'fierté pour te retenir Combien de fois la vie m'a marqué, taclé, char-clé ? La gloire, la réussite m'ont nargué, tardé Bloqué sur le quai j'voulais embarquer J'voyais ma daronne frotter le parquet On m'as dit de rester honnête Tu fais aussi despi qu'une commette J'traînais trop dehors j'rêvais d'or à tord J'aurais pu finir aux Baumettes yeah</t>
+          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Je trace ma route</t>
+          <t>Johnny Hama</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Joublie pas qui je suis, joublie pas doù je viens Joublie pas que jétais ce galérien qu'est parti de rien Joublie pas que pour beaucoup jétais voué à léchec Mais jai appris que dans la vie faut jamais lâcher le steak Joublie pas mes racines, fier de mes origines Joublie pas ce temps où mon compte en banque criait famine Joublie pas ces années à traîner dans les ruelles Entre la rue et lécole, petit voleur à Marseille Insouciant à lépoque, je voulais refaire le monde Un ballon de foot, un marqueur, je voulais croquer le monde Mais jai vu le fossé entre les rêves et la réalité La satiété de fric ne fait quempirer la société Le frigo est vide mais je manquais de rien Le daron se tue à la tâche pour quon mange à notre faim Y disent quon était pauvres, pour moi jétais millionnaire Une mère et un père, cest la plus grande des richesses sur Terre Jai connu les coups durs, maladies de la vie Le chemin est parsemé d'embûches sur lautoroute de la vie Entre le bien et le mal, entre la terre et les cieux Je lève les yeux vers le ciel et passe la confiance en Dieu À lheure où jécris ce texte, je suis garé dans un parking Les flics mont contrôlé nont trouvé que des mégots, des sticks Les gens me prennent pour un fou, quand je rappe mes textes au feu rouge Ça passe au vert, ça klaxonne, les vieux me regardent dun air louche Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai connu la routine, je lui ai même fait lamour Perdu mon temps, chaque jour à traîner en bas dune tour À se demander ce que le sort me réservera demain Fatigué de rien foutre, assommé par des joints Les yeux cernés, je perdais mon duel contre le sommeil 14 heures du mat', ce jour qui ressemble à celui de la veille Jai-j'ai rien à perdre, je sais ce que jai à faire Tente le tout pour le tout avant de finir 6 pieds sous terre Jai connu les nuits de doute, intéressé par les maisons de disques Les radios navaient pas de place pour moi dans leurs playlists Mais la rue a tranché, elle a fait de moi ce que je suis Y'a de la place dans la caisse, que ceux qui maiment me suive Jallume la radio, les frères inondent la F.M MashAllah je souhaite le bien, les jaloux puent la défaite Faut aimer pour son prochain, ce quon aime pour soi-même Continue à tout niquer, vas y mais reste toi-même Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir Jai déjà 27 ans, jai vécu un quart de siècle Dans la vie y'a des chances qui se présentent, ils faut les saisir Rien à foutre de ceux qui mettent les bâtons dans les roues Je trace ma route, joublie pas doù je suis parti Donnez-moi du bonheur en contrepartie Cest comment te dire, un peu flou mais clair dans ma tête Les poètes ont toujours été pris pour des fous Je trace mon chemin, joublie pas doù je viens Si tu as mal, serre les fesses, ça ira mieux demain À part ça tout va bien, je garde le sourire Je profite de chaque instant comme si demain, je devais mourir</t>
+          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Johnny Hama</t>
+          <t>Kechmara</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
+          <t>C'est correct ... L'algérino Jalal Hamdaoui, Maroc Algérie connection internationnal Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Apprécie ce son comme un Big Mac halal Bi bi big bass grosses caisses pour les rageurs L'algé Jalal hamdaoui Technique au micro comme Mounir El Hamdaoui Bouge tes fesses fesses ça vient de Mekness de Fes Fes Wesh wesh Panamera à Marrakech-kech !! Fais pas la hess On est VIP même rien dans les poches Tous des P.Diddy Ça flope au Es Saadi, à la Mamounia Je joue mon tapis, tu joue tes Puma Les frères en cavale khouya c'est hardcore Arrivé à la douane 20 euros dans le passeport Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Notre bled c'est l'Eldorado Évasion chicha Cristal, cocktail au Théatro Tapis rouge quand je débarque en Algérie Escorte militaire faites place le chaoui est de sortie On a les clés de l'aéroport de Batna J'bronze à Alger deux jours après je taille à Casa Khouya ça déchire d'être arbi La fierté dans le sang c'est le Maghreb uni J'suis avec Mourad dans le Chrysler Il y a des vaillants Consulte le Maghreb et toute sa ferveur Et que les touristes touchent pas à nos surs Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Johnny Hama</t>
+          <t>La Boca</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OK Bon sur c'morceau, l'Algé on l'a mis dans le coffre, on l'a ligoté hein... C'est Johnny Hama qui rappe Nouvel artiste Six-O-Nine, c'est le troisième papa Allez ça flex, j'te régale, fais péter ouais Un deux ouais Tu veux quoi dans le pain la famille Vas-y envoie la sauce, envoie ! Lunettes Gucci sur la tête, grosse Série 7 Johnny Hama dans la caisse, dans la bouche une allumette Crois pas qu'on se la pète, on a la flambe dans la sang La liasse dans le sac, du cran et des gants Appelle-moi Johnny de la night, Johnny de la Véga Un pied dans mon quartier, l'autre à Las Vegas On n'a peur de personne, on n'est pas des hagar Mais si y a haja, ça dégaine comme Nicky Larson Danse avec moi, fille j'te rabaisse pas Quoi, tu veux pas? Va niquer ta mère kahba Oh parle bien frère, ah parle bien Tah elle a un mec, bois un coup kho, mets-toi bien Sans complexe, c'est nous qu'on fait la mode Commissaire demande à ta femme si on a la cote Crapules en survèt' Lacoste, on n'est pas raciste Ramène dans la cave on la régale gratos On a ligoté Bob Sinclar dans le coffre Refoulés en boîte, la racaille est dans le poste J'traîne avec un million de p'tits gus Au lieu de dire salut les filles on dit wesh tu suces? Johnny c'est la crapule de la pire espèce Nique sans capote, il a même chopé l'herpès Son critère de sélection, plus de trente kilos Majeure ou pas, rien à foutre, c'est le même taro Mon nom c'est Johnny Johnny Ama Mon nom c'est Johnny Attends, attends, stop, stop, stop !! Détends-toi la famille C'est quoi ce refrain de merde? Déjà c'est pas Johnny Ama c'est Johnny Hama Microbe montre-leur comment on fait swinguer la foule Thug life, ooh Yeah, fais péter papa, t'y es fada ou quoi? Écoute le son la famille Bouge la tête, bouge, bouge oooh Détends-toi papa C'est Johnny Hama qui régale se soir Fais péter papa, t'y es fada ou quoi? Hé Johnny tu sors ce soir? nan, walou J'suis au quartier j'tiens les mur avec mes félous Quoi t'y as un plan t'y as des copines coquines J'suis en chien en ce moment j'ai perdu ma carte Sim Ok crois pas, qu'on n'a pas un radis J'suis un businessman, le taxi-phone à la Savine Le 5 le RMI, le 8 les Assedics Pour arrondir les fins de mois, j'vends un peu du shit J'me gratte les couilles et j'te serre la main C'est ma façon à moi d'dire que j't'apprécie bien J'tire des freins à main pour attirer les gazières Ça s'tape des délires à rouler en ville en marche arrière OK, fais pas ton beau petite crapule On te découpe vivant et on te ramasse à la spatule Nous on est des fous, des fois on est cool Surtout avec les filles dociles qui ont un gros b,oule Au fait la famille, j'ai un blog et un Myspace Johnny est à la page qu'est-ce tu crois Many P-Diddy comme ami Tupac et Biggie sont pas morts, sur ma mère j'les ai vus en vacances en Tunisie À Marseille on s'en bat les couilles du Crunk Nous on danse le funk sur du Lunatic Les armes dans la tire, on pisse sur la zik de zoulous C'est Johnny qui rappe, fais péter la zik de voyou Fais péter la zik de voyou Johnny Hama en live and direct Johnny Hama, papa ouais gros T'y es fada Tu rivalises pas avec lui c'est un malade Johnny Hama featuring Little Big Ali Johnny Hama te régale, fais péter, à droite, à gauche, devant, derrière C'est bien, c'est bien Microbe pas mal ça Microbe, vas-y vas-y continue La patate à deux-cent-mille, tiens, hop, hop, hop et hop Tiens les lunettes RayBan sur la tête Ou les Gucci, c'est pareil hein OK, tiens papa, ça régale au taquet hop hop hop Tac au tac, tiens, tiens, tiens À fond cent-trente, le sourire à deux-cent-mille Tu te la régales hein Microbe Oooh! Oh, elle est bonne elle! C'est bon Microbe, c'est bon Sur ma mère comme elle est bonne Oh viens là, viens là, tu suces? Oh microbe c'est bon ferme ta gueule Respecte, respecte frère, respecte... Johnny Hama Album en préparation ça s'appelle Te casse pas la tête Y a le skyblog Johnny Hama bientôt Et le Myspace pour tous les myspaciens, te casse pas la tête, Johnny Hama L'Algé il a disparu de la circulation c'est Johnny Hama Fais péter! Au fait si tu aimes pas, euh... va te faire enculer1</t>
+          <t>A-A AWA the mafia, my nigga Oyé, dame besos en la boca Mouah Uno de esos que a mí me provoca Hey Yo te tengo duro como roca Ouh Yo te tengo crazy, loca, loca Uh, uh, uh En la boca, la boca, la boca, la boca Hey Chica, chica, mami, salsa en la boca Hey Oyé papi, comment tu t'appelles ? Hey La gente hablando como loca Oh Millions, elle veut mes millions, la demoiselle me trouve mignon Ouais, ouais, ouais, l'argent, ça rend mignon Hey, hey Parle à mon agent, j'termine mon filet mignon En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh J'suis sorti ce soir, ne m'attnds pas Tu fais mal à la tête comme ma compta' Oh, oh J'suis posté, la suite au Méridin, ne m'attends pas Hey, oh, oh Chaque fois qu't'ouvres la bouche, c'est un attentat Hey Tú me gusta' porque tú me tocas como nadie Tes copines ont les yeux sur moi, c'est chaud à c'qui paraît Me quito la ropa que sea Gucci o Versace Chica, chica, rica, rica, j'vais te faire cantare La Boca, una loca locità Je donne ma langue au chat, elle parle plus qu'mon avocat Rrah, oh, oh, ah, ah, ah En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Oyé, dame besos en la boca Hey, hey, okay Uno de esos que a mí me provoca Hey, okay Yo te tengo duro como roca Hey, okay Yo te tengo crazy, loca, loca Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Bleh, bleh, bleh Cala boca Boca Eh, eh Oyé papi, comment tu t'appelles ?</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kechmara</t>
+          <t>La mélancolie de ce piano</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C'est correct ... L'algérino Jalal Hamdaoui, Maroc Algérie connection internationnal Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Apprécie ce son comme un Big Mac halal Bi bi big bass grosses caisses pour les rageurs L'algé Jalal hamdaoui Technique au micro comme Mounir El Hamdaoui Bouge tes fesses fesses ça vient de Mekness de Fes Fes Wesh wesh Panamera à Marrakech-kech !! Fais pas la hess On est VIP même rien dans les poches Tous des P.Diddy Ça flope au Es Saadi, à la Mamounia Je joue mon tapis, tu joue tes Puma Les frères en cavale khouya c'est hardcore Arrivé à la douane 20 euros dans le passeport Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena Notre bled c'est l'Eldorado Évasion chicha Cristal, cocktail au Théatro Tapis rouge quand je débarque en Algérie Escorte militaire faites place le chaoui est de sortie On a les clés de l'aéroport de Batna J'bronze à Alger deux jours après je taille à Casa Khouya ça déchire d'être arbi La fierté dans le sang c'est le Maghreb uni J'suis avec Mourad dans le Chrysler Il y a des vaillants Consulte le Maghreb et toute sa ferveur Et que les touristes touchent pas à nos surs Wana wana wana heee mama heee mama W hbibi berani heee mama heee mama Wana wana wana heee mama heee mama Khayef ila yensani heee mama heee mama Djibou khouya djibou khouya Haa rayeh mech wela Djibou khouya djibou khouya Wa rani fih ka nestena</t>
+          <t>La vie c'est un contre poids entre la peine et la joie, c'est ça... La mélancolie de ce piano, L'algérino Soprano Tire ou lève le d'ma tempe, rapper à blanc ça sert à rien Quand tu es chargé ne soit sûr de rien Contemple le bien, mon putain d'sourire Comment c'est quoi qui sort d'mon texte ? C'est la fumée d'un flingue qui vient d'servir Normal qu'jsuis speed, l'an 2000 c'est hier Marre d'suivre la carotte maintenant faut que j'enlève ces oeillères A cheval sur la misère, voilà pourquoi j'vis sur la paille Il m'faut du liquide mais il n'y a qu'au McDo qu'ils donnent une paille Donc j'sors mon Mic, son cross Fais mon cross sur un son de grosse caisse, rends l'rap cardiaque comme William Ross Grosse caisse, qu'est ce qui s'passe ? T'appuis sur l'champignon C'est bien mais faut aussi savoir tenir l'guidon La bague d'une femme te feras pas éviter l'crash Au contraire elle demande comment qu'tu craches Du front, du Zgeg à la C.B T'en prend sur l'zgeg et elle le sait bien et si elle est assez bien, tu t'maris Mais là elle oublie la capote et tu vois pas mieux qu'Ingalls Marie Car tes projets s'habillent en noir comme ton taf qui lui habille ta femme en blanche Qui tire une taffe sur ta vie qui part en fumée Mais c'est la vie et la vie faut l'assumer Voilà pourquoi je suis pressé comme un nez sous un collant Dim L'Algé envoie le refrain j'ai usé toutes les pages de mon jean J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend J'ai atterri dans ce monde on n'sait comment Après mon frère, ma mère pouvait plus enfanter mais malgré tout j'ai atterri sur terre J'suis une fausse couche, échoué sur les rives de la vie Et voilà que j'arrive on m'a dit sans m'le dire Pousse parmi les mauvaises herbes, m'efforce de garder ma tige droite Qu'ils s'doigtent si mon franc parler les gêne Quoi tu gerbes? Certes j'ai le verbe qui heurte excuse c'est parti tout seul Sers, les yeux cernés c'est le beur à l'oeil bleu T'as cerné la thématique, logico-mathématique Click, j'ai la rime automatique Le coeur tousse, marre d'être sous l'effet des drogues douces Tous, pour le flouze couz,on secoue nos poches et on tousse Hélas si tu l'as cru, on a cru alors Mais on s'est réveillé à l'aube Sobre, mais ivre de rage toujours dans l'excès ya pas de limites Quand la fight nous propose une poignée de main Mais on évite comme toi d'ailleurs Chercher refuge chez les tailleurs en soie mais ici c'est chacun pour soi Et Dieu pour qui croit une ligne droite tendue par l'ironie du sort Soit, ainsi soit notre sort... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend Hey...Au lieu d'savoir qui des M.C est le premier sur du Timbaland premier Vois la gravité d'nos actes, j'te parle pas d'Newton et d'son pommier Ravitaille tes raps pour les gens qu'ont la couleur du damier de Walid à Damien Oyé Oyé Sopra noyé Entre encre et larmes d'encre et d'arme à la main le Mic l'ventre énorme Mais l'vide prend trop d'place, les crocs classes, des grosses crasses Qu'ont nourri mes grosses tass à cause des grosses barasses d'air On dirait qu'j'taff dans le vent, rien à foutre Tant qu'j'taff dans l'fond j'reste terre à terre On dit souvent qu'à Marseille on a des raps de chialeur Eh si on transpire des yeux chez nous c'est pas à cause d'la chaleur Chez nous, rage et joie et valeur Nos genoux à l'heure quand il s'agit de prier Quand il s'agit d'crier râleurs genoux Repars avec des ballerines pendant qu'l'Ange de la mort fait ses courses en Palestine Le rap c'est sérieux Comme quand l' Amérique apprend à ses Bonds à faire sur nos pays des sauts périlleux Click Click Bam et rend les S.O.S muets Muets d'la voix on peut pas dire que t'as grandi, muer Ruez vous sur la caillasse c'est c'qu'on nous dit depuis gosse Normal qu'ça casse et qu'mon Mic sorte souvent d'son cross L'Algérino faut qu'on s'taille d'ici et vite, vite... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend1</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>La Boca</t>
+          <t>La Tchatche</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A-A AWA the mafia, my nigga Oyé, dame besos en la boca Mouah Uno de esos que a mí me provoca Hey Yo te tengo duro como roca Ouh Yo te tengo crazy, loca, loca Uh, uh, uh En la boca, la boca, la boca, la boca Hey Chica, chica, mami, salsa en la boca Hey Oyé papi, comment tu t'appelles ? Hey La gente hablando como loca Oh Millions, elle veut mes millions, la demoiselle me trouve mignon Ouais, ouais, ouais, l'argent, ça rend mignon Hey, hey Parle à mon agent, j'termine mon filet mignon En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh J'suis sorti ce soir, ne m'attnds pas Tu fais mal à la tête comme ma compta' Oh, oh J'suis posté, la suite au Méridin, ne m'attends pas Hey, oh, oh Chaque fois qu't'ouvres la bouche, c'est un attentat Hey Tú me gusta' porque tú me tocas como nadie Tes copines ont les yeux sur moi, c'est chaud à c'qui paraît Me quito la ropa que sea Gucci o Versace Chica, chica, rica, rica, j'vais te faire cantare La Boca, una loca locità Je donne ma langue au chat, elle parle plus qu'mon avocat Rrah, oh, oh, ah, ah, ah En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Oyé, dame besos en la boca Hey, hey, okay Uno de esos que a mí me provoca Hey, okay Yo te tengo duro como roca Hey, okay Yo te tengo crazy, loca, loca Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette Tu as la boco, j'roule un pét', j'rentre dans la boîte en survêt' Ouais, ouais, ouais, j'fais des hits, j'ai la recette En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh En la boca, la boca, la boca, la boca La boca, la boca, la boca La boca, la boca, la boca, oh, oh Bleh, bleh, bleh Cala boca Boca Eh, eh Oyé papi, comment tu t'appelles ?</t>
+          <t>Ça bégaye pas, quand ça parle en billets On a la tchatche et on sait shabiller Tiens cest la frappe, fume elle va te quiller Nique sa mère, le feu on la grillé Cétait mon pote, mais il ma négligé gamberge Tavais la cote, toutes les gadjis te voulaient re-gamberge À qui la faute, si dun coup tas coulé ? Tas pris la coke, à cquil paraît tes jnouné Tes là tu rends fou, à la base javais pas beaucoup Mais, jreste fidèle au club comme Manchester et Rooney Fais pas tes feintes, petit PD on tconnaît Fier comme un DZ, tu peux demander à lAlgé On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu roue jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la Deux heures du mat, jpiste lÉquipe 21 Elle fait la mac, jai les nerfs jen fais un Mappelle pas au phone, tas les shmitts sur tes reins allô Arah ils sont derrière, fais-leur un cassage de reins Il a fait temps-plein, plein, plein, pour du Philippe Plein Pantalon Balmain, il a fait la pute, lui serre pas la main Elle le tient en laisse, que il sort des liasses La daronne en hess, sur K.B il fait le gros qui brasse Jsuis dans lThalys sur le quai ya les condés Gros cache le shit, la vodka, fais pas chauffer On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu rouge jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>La mélancolie de ce piano</t>
+          <t>La tête dans les étoiles</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>La vie c'est un contre poids entre la peine et la joie, c'est ça... La mélancolie de ce piano, L'algérino Soprano Tire ou lève le d'ma tempe, rapper à blanc ça sert à rien Quand tu es chargé ne soit sûr de rien Contemple le bien, mon putain d'sourire Comment c'est quoi qui sort d'mon texte ? C'est la fumée d'un flingue qui vient d'servir Normal qu'jsuis speed, l'an 2000 c'est hier Marre d'suivre la carotte maintenant faut que j'enlève ces oeillères A cheval sur la misère, voilà pourquoi j'vis sur la paille Il m'faut du liquide mais il n'y a qu'au McDo qu'ils donnent une paille Donc j'sors mon Mic, son cross Fais mon cross sur un son de grosse caisse, rends l'rap cardiaque comme William Ross Grosse caisse, qu'est ce qui s'passe ? T'appuis sur l'champignon C'est bien mais faut aussi savoir tenir l'guidon La bague d'une femme te feras pas éviter l'crash Au contraire elle demande comment qu'tu craches Du front, du Zgeg à la C.B T'en prend sur l'zgeg et elle le sait bien et si elle est assez bien, tu t'maris Mais là elle oublie la capote et tu vois pas mieux qu'Ingalls Marie Car tes projets s'habillent en noir comme ton taf qui lui habille ta femme en blanche Qui tire une taffe sur ta vie qui part en fumée Mais c'est la vie et la vie faut l'assumer Voilà pourquoi je suis pressé comme un nez sous un collant Dim L'Algé envoie le refrain j'ai usé toutes les pages de mon jean J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend J'ai atterri dans ce monde on n'sait comment Après mon frère, ma mère pouvait plus enfanter mais malgré tout j'ai atterri sur terre J'suis une fausse couche, échoué sur les rives de la vie Et voilà que j'arrive on m'a dit sans m'le dire Pousse parmi les mauvaises herbes, m'efforce de garder ma tige droite Qu'ils s'doigtent si mon franc parler les gêne Quoi tu gerbes? Certes j'ai le verbe qui heurte excuse c'est parti tout seul Sers, les yeux cernés c'est le beur à l'oeil bleu T'as cerné la thématique, logico-mathématique Click, j'ai la rime automatique Le coeur tousse, marre d'être sous l'effet des drogues douces Tous, pour le flouze couz,on secoue nos poches et on tousse Hélas si tu l'as cru, on a cru alors Mais on s'est réveillé à l'aube Sobre, mais ivre de rage toujours dans l'excès ya pas de limites Quand la fight nous propose une poignée de main Mais on évite comme toi d'ailleurs Chercher refuge chez les tailleurs en soie mais ici c'est chacun pour soi Et Dieu pour qui croit une ligne droite tendue par l'ironie du sort Soit, ainsi soit notre sort... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend Hey...Au lieu d'savoir qui des M.C est le premier sur du Timbaland premier Vois la gravité d'nos actes, j'te parle pas d'Newton et d'son pommier Ravitaille tes raps pour les gens qu'ont la couleur du damier de Walid à Damien Oyé Oyé Sopra noyé Entre encre et larmes d'encre et d'arme à la main le Mic l'ventre énorme Mais l'vide prend trop d'place, les crocs classes, des grosses crasses Qu'ont nourri mes grosses tass à cause des grosses barasses d'air On dirait qu'j'taff dans le vent, rien à foutre Tant qu'j'taff dans l'fond j'reste terre à terre On dit souvent qu'à Marseille on a des raps de chialeur Eh si on transpire des yeux chez nous c'est pas à cause d'la chaleur Chez nous, rage et joie et valeur Nos genoux à l'heure quand il s'agit de prier Quand il s'agit d'crier râleurs genoux Repars avec des ballerines pendant qu'l'Ange de la mort fait ses courses en Palestine Le rap c'est sérieux Comme quand l' Amérique apprend à ses Bonds à faire sur nos pays des sauts périlleux Click Click Bam et rend les S.O.S muets Muets d'la voix on peut pas dire que t'as grandi, muer Ruez vous sur la caillasse c'est c'qu'on nous dit depuis gosse Normal qu'ça casse et qu'mon Mic sorte souvent d'son cross L'Algérino faut qu'on s'taille d'ici et vite, vite... J'vis la mélancolie de ce piano,une enclume dans l'coeur J'assume le poids de mes mots, ma plume trace une brume On manque d'air, la terre tourne et puis j'passe tu piges Toujours les tours qui s'érigent, on se tasse Tous ces riches on les envie D'où le voeux de dévorer la vie, savourer l'instant sans s'avouer vaincus Convaincus, on vaincra On vaincra Ancrés dans notre cran, on ose et ce qu'on peut on le prend1</t>
+          <t>Ouais frèro, le monde est a nous On a trimer, vous savez pas vous J'sais pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde, tout le monde perd ses valeurs On reviens de loin depuis ces années Même les genoux à terre, sur ma mère on s'est acharné J'ai pris le mic, t'étais pas né Ne fais pas l'ancien, même les plus crains se font caner Les petits bicrave dans le corner Va leur dire que l'argent ne fait pas le bonheur J'ai vu la madre galéré, 6h du mat le petit frère s'fait soulever Ça vend le shit, ça vend la C, 666 c'trop facile d'basculer Hé, hé, regarde moi J'voulais pas te faire du mal J'voulais juste ta part Hé, hé, regarde moi J'voulais pas te hagar J'voulais juste ??? J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde tout le monde perd ses valeurs Oui mon amor, faut que je taille C'est pas que je t'aime pas, j'étais mino faut que je maille Demande à Blanca on parle pas J'ai fait or, j'ai fait platine mais j'calcule pas J'ai la baraka d'la mama, le reste j'm'en fou si tu savais J'ai des frèros en or qui tuerais pour moi Dis moi avec qui tu traînes, je te dirais qui te tueras Chacun son destin, chacun ça chance mon cousin J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>La Tchatche</t>
+          <t>La vida</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ça bégaye pas, quand ça parle en billets On a la tchatche et on sait shabiller Tiens cest la frappe, fume elle va te quiller Nique sa mère, le feu on la grillé Cétait mon pote, mais il ma négligé gamberge Tavais la cote, toutes les gadjis te voulaient re-gamberge À qui la faute, si dun coup tas coulé ? Tas pris la coke, à cquil paraît tes jnouné Tes là tu rends fou, à la base javais pas beaucoup Mais, jreste fidèle au club comme Manchester et Rooney Fais pas tes feintes, petit PD on tconnaît Fier comme un DZ, tu peux demander à lAlgé On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu roue jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la Deux heures du mat, jpiste lÉquipe 21 Elle fait la mac, jai les nerfs jen fais un Mappelle pas au phone, tas les shmitts sur tes reins allô Arah ils sont derrière, fais-leur un cassage de reins Il a fait temps-plein, plein, plein, pour du Philippe Plein Pantalon Balmain, il a fait la pute, lui serre pas la main Elle le tient en laisse, que il sort des liasses La daronne en hess, sur K.B il fait le gros qui brasse Jsuis dans lThalys sur le quai ya les condés Gros cache le shit, la vodka, fais pas chauffer On bégaye pas, quand ça parle de billets On a la tchatche et on sait shabiller Eh nique sa mère, le feu rouge jlai grillé Tiens cest d'la frappe, fume elle va te quiller Jsuis en T-Max, les civs ils veulent me quiller Ça parle en cash, parole de canon scié Barrage de shmitts ya le poto quest fiché Mets-toi sur le côté, jai pas les papiers mon vié La la la la la la la, la la la la la la la La la la la la la la, la la la la la la la</t>
+          <t>L'Algérino, Sopra MBaba, la Vida Pull up Pied au plancher dans le Panamera J'fume un p'tit cigare, jsuis à Guantanamera Guantanamera On a grandi dans la favela On connait la rue, monte avec moi, morena Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Nla fais pas pleurer ou tu le paieras Jsuis dans la cabine, la concu', je la terrasse terrasse Jsuis venu tout péter, buona sera Pour toi, mi amor, je leur ferais la guerra Et c'est la vida C'est Dieu qui donne, c'est la vida Jsuis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, eh, eh Hola, chica, cómo estás? Sin ti la vida no tiene gasolina J'fais des classiques ou d'la moula Pleins phares sur la corniche, boite automatique Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, et c'est la vida, eh Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida donnez-leur la vida, la vida</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>La tête dans les étoiles</t>
+          <t>La Vie Que Je Mène</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ouais frèro, le monde est a nous On a trimer, vous savez pas vous J'sais pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde, tout le monde perd ses valeurs On reviens de loin depuis ces années Même les genoux à terre, sur ma mère on s'est acharné J'ai pris le mic, t'étais pas né Ne fais pas l'ancien, même les plus crains se font caner Les petits bicrave dans le corner Va leur dire que l'argent ne fait pas le bonheur J'ai vu la madre galéré, 6h du mat le petit frère s'fait soulever Ça vend le shit, ça vend la C, 666 c'trop facile d'basculer Hé, hé, regarde moi J'voulais pas te faire du mal J'voulais juste ta part Hé, hé, regarde moi J'voulais pas te hagar J'voulais juste ??? J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai envie de m'arracher ailleurs Ici c'est la merde tout le monde perd ses valeurs Oui mon amor, faut que je taille C'est pas que je t'aime pas, j'étais mino faut que je maille Demande à Blanca on parle pas J'ai fait or, j'ai fait platine mais j'calcule pas J'ai la baraka d'la mama, le reste j'm'en fou si tu savais J'ai des frèros en or qui tuerais pour moi Dis moi avec qui tu traînes, je te dirais qui te tueras Chacun son destin, chacun ça chance mon cousin J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène J'ai la tête dans les étoiles J'ai juste envie de mettre les voiles J'sais pas où la vie nous mène On sait pas où la vie nous mène</t>
+          <t>Amigo j'suis dans ma lune, j'ai perdu le sommeil Perdu combien de plumes à vouloir toucher le soleil Y'avait pas grand-monde quand je touchais le fond de la bouteille Chez moi le diable sonne et me propose beaucoup d'oseille Il veut me couvrir d'or khey de la tête aux orteils La came de Tijuana ou rentrer dans la Sunna J'ai le cul entre deux chaises électriques Allah Yastorna Moi je veux pas cramer dans les flammes ad vitam æternam Depuis tout petit je veux percer à tout prix Homme de guerre au grand cur mais la rue m'a tout pris La violence est gratuite car les Kalashs sont pas chers Parole gratuite va la vie de ta mère au Karsher Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or J'ai jamais su dire je t'aime aux gens qui me sont chers On prend conscience de la valeur d'une personne que lorsquon la perd Marlboro dans les chicots quand je pense aux potes partis trop tôt J'ai plus de chance me faire rafaler que de gagner au loto, poto Je traîne avec une armée de kholoto, semi-automatique ça déboule cagoulé en moto Zahma tu es un fou raconte pas tes histoires à Toto Le seul gamos que t'as conduit, c'était au Salon de l'Auto, amou Calme tes ardeurs m'a dit Malo Dans la rue y'a que cowboys mais maken walou l'Eldorado Maquillé sur les plateaux une paire de lunette les bero Moi je fais des sous avec du rai un swag de clando Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or avec chercher de l'or1</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>La vida</t>
+          <t>Le Chant Des Braves</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L'Algérino, Sopra MBaba, la Vida Pull up Pied au plancher dans le Panamera J'fume un p'tit cigare, jsuis à Guantanamera Guantanamera On a grandi dans la favela On connait la rue, monte avec moi, morena Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Nla fais pas pleurer ou tu le paieras Jsuis dans la cabine, la concu', je la terrasse terrasse Jsuis venu tout péter, buona sera Pour toi, mi amor, je leur ferais la guerra Et c'est la vida C'est Dieu qui donne, c'est la vida Jsuis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, eh, eh Hola, chica, cómo estás? Sin ti la vida no tiene gasolina J'fais des classiques ou d'la moula Pleins phares sur la corniche, boite automatique Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón yeah Baba, yeah Baba, ba Eh, eh La vida, la vida Eh, et c'est la vida, eh Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida, vida Eh Pepito Que des gars de la zone à mes côtés Eh Pepito Touche pas mi corazón Et c'est la vida C'est Dieu qui donne, c'est la vida J'suis dans l'bolide dans ta ville C'est Dieu qui donne, c'est la vida donnez-leur la vida, la vida</t>
+          <t>La rue je la vénère pas Elle m'a causé plus de tort que de bien mais j'l'aime quand même Car j'oublie pas d'où je viens Je représente les voyous au grand cur et les gens biens Chacun ses défauts J'regarde que les qualités de mes frangins Dédié à ceux qui m'apprécient À ceux qui me détestent Dieu m'éprouve et me teste J'suis un homme et j'encaisse Je m'fais un plaisir de chanter pour ceux qui m'aime fort Les traitres je les baise ce qui ne tue pas rend plus fort J'parle la vrai rue les p'tits qu'ont rien à rayave Les smicards dépressifs et les darons qui prient dans les caves Monte le son dans le poste Si ça te touche c'est que tu as du cur , on a tous les mêmes galères, les mêmes épreuves Moi j'fais ça avec le cur sans négliger mon disque Pour les frères sont dans les ténèbres et partout le vice Tournent les surs dans le tourment recherche le prince charmant Victimes de leur faiblesse certaines finissent dans des tournantes Les mains sales comme Le Rat on va se les laver Les frontières qui nous séparent du bien on va les braver Les taver, écule des clichés qu'on va bouleverser Seul mon père j'y crois fort dis-moi si je suis en train de rêver C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage Rien à foutre de c'que les gens diront Quand j'étais seul y'avait personne à part mon sang J'ai puisé la force chez les miens Mes faiblesses, j'les ai puisé chez les autres À m'attacher bêtement à des putes qui ne valent pas grand-chose Prend pas cette rage pour de la haine j'ai d'l'amour à vendre Des amis et des frères à aimer Des ennemis à pendre J'ai gaspillé d'l'amour à le donner à n'importe qui Gaspiller d'l'amitié parce qu'en fait j'savais pas quiller Ma voix dans les baffes, j'décompresse un max Comment faire confiance aux gens, ils t'baisent pour une paire d'Air Max Nos pas ont pas de paix Je mène ma guerre pour le baise L'amour s'achète cher les putes en vitrines à Bucarest L'autre trace des liasses et je fais la sieste Il serait temps que je me bouge que j'aille à la conquête des cents Ils veulent tuer mes rêves mais ils savent pas la rage qui m'habite Si la misère me drague ouais je lui sortirai ma bite Les grosses liasses, tout ça me fascine Mon penchant pour ceux qui brillent fait de moi une proie facile Lève ton verre à ma santé Je m'régale à chanter ma vie de merde qui n'intéresse que les clebs Je rêve de lingots d'or On a cru à l'or Mais la merde dans les yeux je m'suis reveillé à l'aube Ils veulent que je plaise aux mômes j'suis pas là pour vendre du rêve mon pote Encore moins pour vendre aux pauvres C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>La Vie Que Je Mène</t>
+          <t>Le Chant Des Pirates</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Amigo j'suis dans ma lune, j'ai perdu le sommeil Perdu combien de plumes à vouloir toucher le soleil Y'avait pas grand-monde quand je touchais le fond de la bouteille Chez moi le diable sonne et me propose beaucoup d'oseille Il veut me couvrir d'or khey de la tête aux orteils La came de Tijuana ou rentrer dans la Sunna J'ai le cul entre deux chaises électriques Allah Yastorna Moi je veux pas cramer dans les flammes ad vitam æternam Depuis tout petit je veux percer à tout prix Homme de guerre au grand cur mais la rue m'a tout pris La violence est gratuite car les Kalashs sont pas chers Parole gratuite va la vie de ta mère au Karsher Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or J'ai jamais su dire je t'aime aux gens qui me sont chers On prend conscience de la valeur d'une personne que lorsquon la perd Marlboro dans les chicots quand je pense aux potes partis trop tôt J'ai plus de chance me faire rafaler que de gagner au loto, poto Je traîne avec une armée de kholoto, semi-automatique ça déboule cagoulé en moto Zahma tu es un fou raconte pas tes histoires à Toto Le seul gamos que t'as conduit, c'était au Salon de l'Auto, amou Calme tes ardeurs m'a dit Malo Dans la rue y'a que cowboys mais maken walou l'Eldorado Maquillé sur les plateaux une paire de lunette les bero Moi je fais des sous avec du rai un swag de clando Il pleut des larmes de haine haine haine, dehors La vie que je mène 'ène 'ène, j'ai tort Je sais pas te dire je t'aime t'aime t'aime, oui c'est mort Je perds mon temps à chercher de l'or Il pleut des larmes de haine haine haine, dehors La vie que je mène mène mène, oui j'ai tort Je sais pas te dire je t'aime t'aime t'aime, c'est mort Je perds mon temps à chercher de l'or avec chercher de l'or1</t>
+          <t>C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Petit passe-moi le micro Jack Sparrow dans les ondes Préviens la France y'a mes pirates sont dans ta zone Le Black Pearl a hissé les voiles et fait son entrée Sur tous les murs de Marseille mon nom est placardé Malgré les tempêtes, on reste dans la lancée Monte le son dans le poste fatigué de ce rap français Place au gosse, hausse le level, grosse caisse, caisse claire Cause pour tous mes gosses, frangins est-ce clair ? Revendicateur depuis mon premier couplet J'me dois de représenter, mes pirates sont regroupés Normal que la foule m'acclame, quoi j'entends rien Lève ton putain de bras, c'est le chant des chacals qui n'ont rien Pour tous mes loup-garous en Subaru à l'aise en deux roues Cas de guette, quand les condés patrouillent, me parle pas de roubles Je veux des euros sans faire dans l'héro Chien de la classe, la rage à Ribéry au micro C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je suis dans la boîte avec mes locos, ambiance pirate Pleins de gadji qui en pincent sur ma bande de pirates Le matos sur la table entouré de sirènes Encerclé par mes khos qui ont la dalle et mauvaise haleine Succès soudain, parait que je pèse Les petits de mon quartier draguent et sur mon compte on baise Mets-toi à l'aise c'est l'Algé qui régale Des watts, des kilowatts à l'arrière de la Mégane C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je prends mon jet ski pirate, Hummer pirate Si tu as le sang chaud je t'invite dans mon bateau pirate Téléphone pirate, frère j'ai la puce pirate Les canons sont chargés, handek le premier qui râle J'suis passé d'un t-shirt sale au polo Gabbana J'ai rien d'extra à part ce putain de flow phénoménal Il me croyait bien, j'ai encore des douleurs abdominales J'ai encore faim de sous, c'est mentalité trop minable L'Algérino, flow lacrymo, primo rien à prouver dans ce milieu de merde que des putes en kilo Pour tous mes pirates l'Algé Jack Sparrow Paix à tous ceux qui m'aiment et qui me piratent À ceux qui me piratent QUOI ? Le CD saute Enfoiré tu l'as gravé, bas les pattes Sache que petit d'après le code des pirates On ne pirate jamais un pirate x2 C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Le Chant Des Braves</t>
+          <t>L’enfant de Marseille</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>La rue je la vénère pas Elle m'a causé plus de tort que de bien mais j'l'aime quand même Car j'oublie pas d'où je viens Je représente les voyous au grand cur et les gens biens Chacun ses défauts J'regarde que les qualités de mes frangins Dédié à ceux qui m'apprécient À ceux qui me détestent Dieu m'éprouve et me teste J'suis un homme et j'encaisse Je m'fais un plaisir de chanter pour ceux qui m'aime fort Les traitres je les baise ce qui ne tue pas rend plus fort J'parle la vrai rue les p'tits qu'ont rien à rayave Les smicards dépressifs et les darons qui prient dans les caves Monte le son dans le poste Si ça te touche c'est que tu as du cur , on a tous les mêmes galères, les mêmes épreuves Moi j'fais ça avec le cur sans négliger mon disque Pour les frères sont dans les ténèbres et partout le vice Tournent les surs dans le tourment recherche le prince charmant Victimes de leur faiblesse certaines finissent dans des tournantes Les mains sales comme Le Rat on va se les laver Les frontières qui nous séparent du bien on va les braver Les taver, écule des clichés qu'on va bouleverser Seul mon père j'y crois fort dis-moi si je suis en train de rêver C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage Rien à foutre de c'que les gens diront Quand j'étais seul y'avait personne à part mon sang J'ai puisé la force chez les miens Mes faiblesses, j'les ai puisé chez les autres À m'attacher bêtement à des putes qui ne valent pas grand-chose Prend pas cette rage pour de la haine j'ai d'l'amour à vendre Des amis et des frères à aimer Des ennemis à pendre J'ai gaspillé d'l'amour à le donner à n'importe qui Gaspiller d'l'amitié parce qu'en fait j'savais pas quiller Ma voix dans les baffes, j'décompresse un max Comment faire confiance aux gens, ils t'baisent pour une paire d'Air Max Nos pas ont pas de paix Je mène ma guerre pour le baise L'amour s'achète cher les putes en vitrines à Bucarest L'autre trace des liasses et je fais la sieste Il serait temps que je me bouge que j'aille à la conquête des cents Ils veulent tuer mes rêves mais ils savent pas la rage qui m'habite Si la misère me drague ouais je lui sortirai ma bite Les grosses liasses, tout ça me fascine Mon penchant pour ceux qui brillent fait de moi une proie facile Lève ton verre à ma santé Je m'régale à chanter ma vie de merde qui n'intéresse que les clebs Je rêve de lingots d'or On a cru à l'or Mais la merde dans les yeux je m'suis reveillé à l'aube Ils veulent que je plaise aux mômes j'suis pas là pour vendre du rêve mon pote Encore moins pour vendre aux pauvres C'est le chant de ceux qui lèvent la tête ceux qu'on oublie trop vite Qui ont des rêves et qui attendent pas qu'on tende la perche Ceux qui s'accrochent à l'espoir malgré les tourments Ceux qui gardent le moral et qui guettent le bonheur au tournant Pour toutes les femmes seules qui élèvent leurs gosses avec courage Et ceux qui restent fort enfermés dans une cage C'est le chant des braves On verra le soleil après l'orage</t>
+          <t>C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas J'ai pleuré un beau jour, 9 heures du mat', 2 mai 81 Après mon frère, ma mère ne pouvait plus enfanter Grâce à Dieu j'atterris sur terre, mon premier cri poussé Mes premières larmes versées à la maternité d'la Belle de Mai Issu d'une famille des plus modestes À la rue Parmentier on était sept à vivre dans une pièce Mon père travaillait 15 heures par jour et jle voyais que le soir Le regard marqué par le ciment et la routine bref Après qautre ans passés dans ce taudis Forcé de déménager vu que la famille s'est agrandie 143 rue Félix Piat mon premier meilleur ami Nordine Nekka t'inquiète frère jamais je t'oublie T'étais le premier mec avec qui je volais Après la classe te casse, on dévalisait Intermarché Tablette de chocolat Crunch, blanco et marqueur La fine équipe de parc petit débrouillard et tagueurs, bagarreur Après le foot c'était la mosquée Basket à 4 bandes trouées on puait des pieds C'est comme ça que j'ai appris ma première sourate J'm'en rappelle comme hier c'était avec mon petit frère Morad Enfant de Marseille insouciant j'ai peur de rien Malgré les roustes à 8 ans j'allais au stade Vélodrome comme un grand La vie est rude dans les rues de ma ville Hamdoullah tant que t'as les tiens, écoute le récit de ma vie C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas J'débarque à la Savine en 1990 L'année où ma mère a accouché du petit dernier L'équipe est au complet j'ai 4 frères et 4 surs 2 grand frères, 2 grandes surs, 2 petits frères et 2 petites surs Au milieu de tout ce beau monde légèrement privilégié J'étais ni l'aîné ni le dernier Jtrainais avec Marco le Bagdad Ce genre de pirate qui revenait au quartier avec un poney ou un kart Du collège Valepin au lycée nord des Aminettes Les liens se tissent dès qu'on s'attache avec ivresse Perturbateur au fond du cours élève agité Mais bon toujours premier surtout quand il fallait casser les couilles Famille nombreuse où le grand frère était un exemple Juste et ferme, droit et dur, humble et fier Qualités héritées de mes parents émigrés J'les en remercie pour toutes les choses dont ils se sont privés Au fait j'allais zapper mes origines Algérien chaoui de hrenchla c'est pour ça que j'ai la tête dure d'origine C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Depuis petit j'suis un rêveur, j'observe et je ne parle pas trop Je passe mon temps à délirer, quand j'm'ennuie, je réfléchis trop C'est là que ça se gâte tu te poses pleins de questions existentielles D'autant plus que la puberté s'en mêle À l'école ils disent que j'ai des facilités Mais que j'suis pas sérieux que j'finirai par me gâcher Grâce au foot j'ai eu des potes un peu partout à Mars L'époque des tournois de foot qui réunissait les quartiers en masse Salam à la Gavotte, Malik au plan dAou J'rêve d'avoir une carrière comme l'enfant prodige dla Castellane Mais bon on nest pas nés sous la même étoile Donc j'fais mon chemin et des petits textes apparaissent dans mes toiles À La Savine j'kiffais le rap mais rien de sérieux La morvelle dans le nez j'prends le micro avec les plus vieux J'étais le seul arabe avec mes frères comoriens Abdou Karim Zé Marteau et d'autres lâchent rien Le déclic en 9-6 avec le 4-5 J'fais ma première rencontre avec Alonzo de Psy4 9-8 j'prends mon micro et mon glaive La rage au micro t'inquiète frère ça sentait la relève C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Entre le foot et l'école, le rap, la déconne Les mignonnes, les défilés de mode à Saint-Ferréol Les survêts Lacoste, la sape et la tchatche Les je danse le mia quon faisait péter dans le poste Yeah c'est ça ma vie, l'Algérino Marseille du parc à la Savine Dédicacé à toute ma famille Dédicacé à tous mes amis Ceux qui m'ont vu grandir Ceux qui m'ont côtoyé à l'époque Au parc, au centre-ville, à Valepin, au lycée nord tous les frères de la Savine Ceux qui me font des rappels quand j'pars un peu en bip Bilal, Sofiane, tous les frères de la Villette Tous les frères de La Savine Tous les mecs avec qui j'ai rappé à l'ancienne Le soutien que m'apporte mon cousin Ibrahim Et la confiance que me font Nabil et Karim L'algérino, le ptit smire la famille, Marseille ma ville</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Le Chant Des Pirates</t>
+          <t>L’Envie De Vaincre</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Petit passe-moi le micro Jack Sparrow dans les ondes Préviens la France y'a mes pirates sont dans ta zone Le Black Pearl a hissé les voiles et fait son entrée Sur tous les murs de Marseille mon nom est placardé Malgré les tempêtes, on reste dans la lancée Monte le son dans le poste fatigué de ce rap français Place au gosse, hausse le level, grosse caisse, caisse claire Cause pour tous mes gosses, frangins est-ce clair ? Revendicateur depuis mon premier couplet J'me dois de représenter, mes pirates sont regroupés Normal que la foule m'acclame, quoi j'entends rien Lève ton putain de bras, c'est le chant des chacals qui n'ont rien Pour tous mes loup-garous en Subaru à l'aise en deux roues Cas de guette, quand les condés patrouillent, me parle pas de roubles Je veux des euros sans faire dans l'héro Chien de la classe, la rage à Ribéry au micro C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je suis dans la boîte avec mes locos, ambiance pirate Pleins de gadji qui en pincent sur ma bande de pirates Le matos sur la table entouré de sirènes Encerclé par mes khos qui ont la dalle et mauvaise haleine Succès soudain, parait que je pèse Les petits de mon quartier draguent et sur mon compte on baise Mets-toi à l'aise c'est l'Algé qui régale Des watts, des kilowatts à l'arrière de la Mégane C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate Je prends mon jet ski pirate, Hummer pirate Si tu as le sang chaud je t'invite dans mon bateau pirate Téléphone pirate, frère j'ai la puce pirate Les canons sont chargés, handek le premier qui râle J'suis passé d'un t-shirt sale au polo Gabbana J'ai rien d'extra à part ce putain de flow phénoménal Il me croyait bien, j'ai encore des douleurs abdominales J'ai encore faim de sous, c'est mentalité trop minable L'Algérino, flow lacrymo, primo rien à prouver dans ce milieu de merde que des putes en kilo Pour tous mes pirates l'Algé Jack Sparrow Paix à tous ceux qui m'aiment et qui me piratent À ceux qui me piratent QUOI ? Le CD saute Enfoiré tu l'as gravé, bas les pattes Sache que petit d'après le code des pirates On ne pirate jamais un pirate x2 C'est le chant des pirates, c'est l'Algé Pour tous mes pirates, l'Algé Jack Sparrow paix à ceux qui m'aiment et qui me piratent C'est le chant des pirates, c'est l'Algé L'Algérino au mic, carte pirate, puce pirate Connu au bled par M6 music black pirate</t>
+          <t>Ok !! adressez à tous ceux qui ont l'envie de vaincre !! L'algérino !! Marseille !! Pour tous les quartiers de France ! Soit t'as la rage soit tu l'as pas, tu as reconnu la voix Celle qui fait trembler les baffes, une spéciale pour les mecs qui en bavent Lèves ton bras en l'air, c'est le chant de la révolte En attendant la récolte, fais cracher le Pioneer Les mains sales comme Luciano Dédicaces à ceux qui m'ont donné l'envie de prendre le micro La vie ça tient à rien, j'aurais pu flancher Plier pour des billets, mais j'ai préféré crier Tu entends pas ?? C'est la rue qui parle Du vécu dans les boomers, fais péter les watts J'passe la 5ème, le regard saillant Pas besoin de tes larmes, j'suis un vaillant C'est la jeunesse de France qui parle, ouais!! En direct live de la merde, horizon de béton HLM au bord de la mer nique sa mère x4 L'envie de vaincre ah! ah! ah! ah! ah J'suis dans la caisse avec mes potes, on refait le monde Crame une sèche pour le fun, rêve de croquer le monde J'ai la grinta, petite caille sous les projecteurs Lis dans mes yeux, y'a la rage pour tous mes frères et surs Ignorés par l'état, on se permet de briller Vu que 12 mois sur 12 le moral est dans un sale état Laisse parler ta rage ouais!!! J'en place une pour les frères enfermés en cage Cicatrices dans le cur, stigmates sur le corps On défoncera les portes, le caisson dans le coffre La voix de ceux qui soufrent, la voix de ceux qui morflent La voix de ceux qui portent leur poids sur leurs épaules La voix de ceux qu'en bavent, ça c'est le chant des braves La voix de ces darons qui prient dans leur cave La voix de toutes ces mères, soucieuses pour leurs gosses La voix de tous ces gosse qui ont l'envie de vaincre x4 L'envie de vaincre ah! ah! ah! ah! ah Cette flamme que j'ai dans les yeux, personne ne pourra l'éteindre Humble blessure de moi, y'a que Dieu qui peut m'atteindre J'ai la foi, je m'acroche à elle quand j'ai mal Prie le divin chaque jour de m'écarter du mal Tous faibles devant des liasses et des grosses caisses De l'or, des strass, des paillettes et des gros seins Chaque jour est un combat contre moi même Que je mène ma révolution dans les enceintes. Pouah! Classique, c'est ma zik, c'est magique, c'est ma vie C'est ta vie !! J'ai chargé l'automatique, t'as cerné la thématique C'est dur à trouver le son, cesse de rester statique La pratique est la même, 1 pour ma team Fais péter le son frère, 2 pour la frime 3 pour les traitres et les gens qui m'estiment. L'ALGERINO x4 L'envie de vaincre ah! ah! ah! ah! ah Okayy !! Dédié à ceux qui ont la grinta le moins, le monde Adresser à tous ceux qui ont l'envie de vaincre Pour tous les quartiers de France !!! L'a dit Jack Sparrow !! Nord, Sud, Est, Ouest !! L'ALGERINO!!</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>L’Ecole de Samba</t>
+          <t>Le Rêve Français (Ma Princesse)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Département 01 AinGex - ChillaDépartement 02 AisneMarly-Gomont - KaminiDépartement 03 AllierDépartement 04 Alpes-de-Haute-ProvenceDépartement 05 Hautes-AlpesDépartement 06 Alpes-MaritimesAntibes - Infinit' - Jason Voriz - Quincy Cannes - Chiens de Paille - Sako - Jason Voriz Menton - Dostan Malicia Mc Nice - GAK - C2k - Fanny Polly - Infinit' - Kaotik747 - Mr Agaz - Millionaire - Jason Voriz Vallauris - Veust - Jason Voriz - Le Mic RaziDépartement 07 ArdèchePrivas - ShedarDépartement 08 ArdennesDépartement 09 AriègeDépartement 10 AubeRomilly-sur-Seine - NoldystyleDépartement 11 AudeDépartement 12 AveyronRodez - LombreDépartement 13 Bouches-du-RhôneAix-en-Provence - Ladea Arles - Kamikaz Aubagne - Sch Berre-l'Étang - Kalash l'Afro Marignane - NOR Marseille - 100 Blaze - 3e il - Akhenaton - Le A - L'Algérino - Alonzo - AM La Scampia - Boss One - Bouga - Dadinho - Elams - El Matador - Faf Larage - Fonky Family - Freeman - Ghetto Phénomène - Graya - Guirri Mafia - IAM - JMK - Jo Popo - JuL - K-Rhyme Le Roi - Keny Arkana - Kofs - La Coza - Lebeey - Le Rat Luciano - Menzo - MOH - Moubarak - Naps - Prodige Namor - Psy4 de la Rime - Sat l'Artificier - Soprano - Soso Maness - TK - R.E.D.K. - Thabiti - YL - Zamdane Miramas - Shurik'n - L'antidote la familleDépartement 14 CalvadosAlençon - OrelSan Caen - OrelSan - GringeDépartement 15 CantalDépartement 16 CharenteAngoulême - RESDépartement 17 Charente-MaritimeDépartement 18 CherVierzon - JosmanDépartement 19 CorrèzeDépartement 2A Corse-du-SudDépartement 2B Haute-CorseDépartement 21 Côte-d'OrDépartement 22 Côtes-d'ArmorDinan - Tristvn 9 - NégrouxDépartement 23 CreuseDépartement 24 DordognePérigueux - TTDépartement 25 DoubsBesançon - Butter Bullets - RadmoDépartement 26 DrômeMontélimar - Saminem Romans-sur-Isère - La Bavure - Lil Primo - Makis'Art - Max D. Carter Valence - 2Taf - Djado Mado - Djelow Stylez - Marshall'OmbreDépartement 27 EureEvreux - Yong-C Verneuil-sur-Avre - Hash24Département 28 Eure-et-LoirChartres - Bakar Dreux - Mehf WestDépartement 29 FinistèreBrest - Reynz Douarnenez - Vidji Fixpen Sill Quimper - Kéroué Fixpen SillDépartement 30 GardNîmes - Aysko - Devogvng - Meiiyuki - Ouss - RO2C - VSODépartement 31 Haute-GaronneToulouse - Babarr - BigFlo Oli - D1ST1 - Denfima - Don Choa - Furax Barbarossa - KDD - La Buze - Laylow - Petit Buz - TLZ ClanDépartement 32 GersDépartement 33 GirondeBordeaux - Black Kent - Boulcy - Denza - Fello - Fleyo - Fayçal - Joey Larsé - La Prune - Odezenne - Sam's - Smeels - Todd - VII - Yaska - Yudimah Floirac - Sam's La Teste-de-Buch - BuchWood FamilyDépartement 34 HéraultMontpellier - Ateyaba - Bip's - Lacraps - Titan - Sameer Ahmad - Set Match - Vin's - Wit. Sète - Demi Portion - SprinterDépartement 35 Ille-et-VilaineRennes - ABD - Columbine - Diez - Ideal Jim - Joubs - Kenyon - La Meute - Lorenzo - Makiavelich - Micronologie - RetaDépartement 36 IndreDépartement 37 Indre-et-LoireDépartement 38 IsèreGrenoble - Bash - Hassad - H-LO - Jeff le Nerf - Juice - Tortoz Veurey-Voroize - Mister VDépartement 39 JuraDépartement 40 LandesMont-de-Marsan - BapDépartement 41 Loir-et-CherBlois - Nino B - NiroDépartement 42 LoireSaint-Étienne - Zed Yun PavarottiDépartement 43 Haute-LoireMonistrol-sur-Loire - KurdennDépartement 44 Loire-AtlantiqueNantes - 20syl - Buzzy Hood - Coelho - Don Max - FK - Hicham Ali - Hunam - RatepiDépartement 45 LoiretOrléans - Biwaï - Dosseh - Ppros - VegedreamDépartement 46 LotDépartement 47 Lot-et-GaronneDépartement 48 LozèreDépartement 49 Maine-et-LoireCholet 49300 - BoosteeDépartement 50 MancheDépartement 51 MarneReims - 6rano - Créance de Son - thaHomeyDépartement 52 Haute-MarneDépartement 53 MayenneDépartement 54 Meurthe-et-MoselleNancy - Kikesa Thil - TaipanDépartement 55 MeuseDépartement 56 MorbihanDépartement 57 MoselleMetz - Aparzite - Mysa Sarrebourg - 7 JawsDépartement 58 NièvreDépartement 59 NordCondé-sur-l'Escaut - Michel Dunkerque - Sausco - Veerus Lille 59000 - Axiom - Bekar - Krilino - Pollux Roubaix - Gradur - JNR - Lam'k - N.I.M. - Rohn Noir - ZKR Valenciennes - Heuss l'Enfoiré - K5Département 60 OiseBeauvais - Sianna Nogent-sur-Oise - Keblack - KuRt 2020 Creil - Alliance Ethnik - Blaxo Réseaux - Naza - Tango Point HotelDépartement 61 OrneAlençon - OrelsanDépartement 62 Pas-de-CalaisDépartement 63 Puy-de-DômeClermont-Ferrand - Joe Natt - Pasteur H - VincenzDépartement 64 Pyrénées-AtlantiquesPau - Le DésordreDépartement 65 Hautes-PyrénéesDépartement 66 Pyrénées-OrientalesPerpignan - Gros Mo - Hassan Monkey - Nemir - Sinya - YUZMVDépartement 67 Bas-RhinStrasbourg - Abd al Malik - Ash Kidd - Dooz Kawa - Larry - Lycos - Matteo Falkone - MRCDépartement 68 Haut-RhinMulhouse - Siboy - I2HDépartement 69 RhôneLyon - Anton Serra - Barbiok - Casus Belli - Cidji - Cleim Haring - Cyrious - Deux Lyricists - Dico - Double Å - Ethor Skull - Gouap - Hakan le Grand - Ilénazz - Jorrdee - Kacem Wapalek - Kalams - Lala ce - La Microfaune - L'Animalerie - Lucio Bukowski - Lyonzon - Marius B - Mazoo - Mini - Missak - Nadir - Noma - Richi - Robse - Sethemsi - Smok - So Sama - Tedax Max - ZeGuerre Saint-Laurent-de-Mure - ArcanesDépartement 70 Haute-SaôneDépartement 71 Saône-et-LoireDépartement 72 SartheLe Mans - NKPDépartement 73 SavoieDépartement 74 Haute-SavoieAnnecy - Beny - Lucas OPRV - Luni SacksDépartement 75 ParisParis 3ème - Espiiem Paris 9ème - Barack Adama - Black M - Doums - Maître Gims - Maska Paris 12ème - Joe Lucazz - USKY Paris 13ème - Aladin 135 - Awax - Dante Sito - Dehmo - Hache-P - Jok'Air - Lomepal - Mothas la Mascarade - MZ - RC x ING - Youri Paris 14ème - Alpha Wann - L'Animal - Darryl Zeuja - Dinor Rdt - Fonky Flav - Népal - PLK - Syen Paris 15ème - Framal - Hippocampe Fou - Mekra - Nekfeu - Teki Latex Paris 16ème - Aïchakim Paris 17ème - Hayce Lemsi - Kranmax - Leto - PSO Thug - Volts Face - XV Barbar Paris 18ème - Aki la Machine - C.Sen - Davodka - Doc Gyneco - Dino - Georgio - Fabe - Flynt - Hugo TSR - Koma - JP Manova - Junior Bvndo - Lefa - Mokless - Omry - Sanka - Say - Sidi Omar - Sopico - Vesti - Vin7 Paris 19ème - Abis - Adès - Brulux - Eff Gee - Jarod - Jazzy Bazz - Les Frères Scotch - Lord Esperanza - MC Jean Gab'1 - MHD - Mister You - M le Maudit - Nelick - Oxmo Puccino - Pit Baccardi - S-Cap - Tino - Yzla Paris 20ème - 2zer - Cassidy - Franglish - H Magnum - Hi-Fi - Ill - Moha La Squale - S.Pri Noir - sean - Seven - Still FreshDépartement 76 Seine-MaritimeLe Havre - Alivor - Brav - Médine - Ness Cité - Oumar - Tiers Monde Rouen - Lalcko - Leone - Marouan Bigy - YounèsDépartement 77 Seine-et-MarneAvon 77210 - Leonis Champs-sur-Marne 77420 - Badjer - Boumso - J-Mi Sissoko - Timal Chelles 77500 - 2Bal Combs-la-Ville 77380 - Monsieur R - Y du V - P2 La Ferté-sous-Jouarre 77260 - ISK Le Mée-sur-Seine 77350 - A2H Meaux 77100 - Djadja Dinaz - Douma Kalash - Josué - Mystik - RK Melun 77000 - Retro X Mitry-Mory 77290 - Pins Dimeh Nemours 77140 - Gianni - Ninho - Viez Noisiel 77186 - Uzi Roissy-en-Brie 77680 - Qrono FuturistiqDépartement 78 YvelinesBailly - 47ter Élancourt 78990 - La Rumeur Guyancourt 78280 - Hatik - Kwistof Mantes-la-Jolie 78200 - Expression Direkt - Poison - VF Gang Montigny-le-Bretonneux - Keurta - SKG Les Clayes-sous-Bois - Garlou Les Mureaux 78130 - C4 Clan Plaisir - Bosh - Rapsonic Poissy 78300 - Gys Saint-Cyr-l'École 78210 - Azuul Smith - L'Skadrille Trappes 78190 - 3010 - Canardo - Green Money - Jazz Malone - La Fouine - M.A.S - MLC - Skreally Boy - S-Kro Vélizy-Villacoublay 78140 - Chanje Versailles 78000 - Fuzati Sartrouville 78500 - Koadur Fourqueux 78112 - KoadurDépartement 79 Deux-SèvresDépartement 80 SommeDépartement 81 TarnDépartement 82 Tarn-et-GaronneDépartement 83 VarSaint-Raphaël - Hooss La Crau - Gowaz Music Mamiz, La Nace'me La Seyne-sur-Mer - F.O.B. - MalakIronik - Germinal Soldats - Baba Le Luc - Hooss Toulon - Dialectic Pimp LePierrack - Saigne J - R'Mili - La Résistance Jsayan, 100s, rimk - Poupa Claudio - Sekel - Djalskov Le Pradet - Deen Burbigo - JehkylDépartement 84 VaucluseValréas - AlrimaDépartement 85 VendéeLa Roche-sur-Yon - MC CirculaireDépartement 86 VienneDépartement 87 Haute-VienneDépartement 88 VosgesDépartement 89 YonneDépartement 90 Territoire de BelfortDépartement 91 EssonneCorbeil-Essonnes 91100 - Black Brut - F430 - GDZ - IGD Gang - MMZ - PNL - S-Pion Chilly-Mazarin 91380 - Smoker Courcouronnes 91080 - Ol Kainry Draveil 91210 - Nubi Grigny 91350 - Al Péco - Cokein - Dalsim - Dems - Denzo - Douma - Gizo Evoracci - La Comera - LMC Click - Juicy P - Madox - Mozo du Zoo Épinay-sous-Sénart 91860 - Aronstrong - Danik Évry 91000 - Alkpote - Bolémvn - Desko - Disiz - Éloquence - Katana - Koba LaD - Kodes - Lestin - Luv Resval - Niska - Rabakar - Savage Toddy - Shotas - Unité 2 Feu - Zekwé Ramos - Zola Massy 91300 - Aladoum Ris-Orangis 91130 - Alrima - Cifack - KPoint Saint-Geneviève 91700 - Huntrill Savigny-sur-Orge 91600 - Jango Jack Les Ulis 91940 - Diam's - Grödash - Fiks et P-Kaer - Reeno - Scar Logan - Sinik Vigneux-sur-Seine 91270 - Tito Prince Yerres 91330 - Ninho - YaroDépartement 92 Hauts-de-SeineBagneux 92220 - Sultan Boulogne-Billancourt 92100 - Alox - Benash - Booba - Boulox - Bram's - Braki - Dany Dan - Darki - Djé - EXS - Elh Kmer - Les Rieurs - LIM - Mala - Melopheelo - Mo'vez Lang - Nysay - Sages Poètes de la Rue - Salif - Sir Doum's - Vesti - Zoxea Clamart 92140 - PLK - SDM Courbevoie 92400 - Kekra Montrouge 92120 - Nusky Nanterre 92000 - Bassirou - Bresom Gang - Brvmsoo - LMB Issy-les-Moulineaux 92130 - Ali - Kozi Suresnes 92150 - Ormaz Vanves 92170 - Movezu Villeneuve-la-Garenne 92390 - Guizmo - Heuss l'Enfoiré - SoolkingDépartement 93 Seine-Saint-DenisAubervilliers 93300 - Beeby - Deen Burbigo - Mac Kregor - Mac Tyer - Rémy - Tandem Aulnay-sous-Bois 93600 - C.O.R - Limsa - Sefyu - Suik'on Blaze AD - Topas - Vald Le Blanc-Mesnil 93150 - Bakhaw - Casey - Sofiane Bobigny 93000 - GLK - Kohndo - L'Indis - Lavokato - Nakk Mendosa - Worms T Bondy 93140 - Diddi Trix - James Izmad - Lartiste - Zikxo La Courneuve 93120 - Alibi Montana - Alino - Dinos - HoussBad - K.S.A - Tony Karino - TonyToxik - 4Keus - 4Keus Gang Clichy-sous-Bois 93390 - BFBC Dugny 93440 - Dixon Épinay-sur-Seine 93800 - Alpha 5.20 - Blaxo Réseaux - Busta Flex - Hornet la Frappe Les Lilas 93260 - Lasco Neuilly-Plaisance 93360 - Biffty - Sadek Noisy-le-Grand 93160 - Fababy - Mansly - Nick Conrad Noisy-le-Sec 93130 - Féfé - La Caution Montreuil 93100 - Cenza - Le Club - Fiasko Proximo - Ichon - Issaba - Loveni - Max Paro - MLR - Prince Waly - Swift Guad - TonyToxik - TripleGo Montfermeil 93370 - BFBC - Démocrates D - Louis Aoda - Reciprok Pantin 93500 - B-NØM - Freeze Corleone Pavillons-sous-Bois 93320 - Majster Le Pré-Saint-Gervais 93310 - Lesram Romainville 93230 - Dadju Saint-Denis 93200 - FMC Gang - Grand Corps Malade - JoeyStarr - Kool Shen - Landy - Psykopat - Q.E Favelas Saint-Ouen-sur-Seine 93400 - Rvzmo Sevran 93270 - 13 Block - Benab - Dabs - Da Uzi - Kaaris - Kalash Criminel - Ixzo - Maes - Solo Le Mythe - Walid Stains 93240 - Bakyl - Meiday Villetaneuse 93430 - Escobar MacsonDépartement 94 Val-de-MarneAlfortville 94140 - S-Pi Boissy-Saint-Léger 94470 - Le Juiice Champigny-sur-Marne 94500 - 25G - 400 Hyènes - K-Push - La Hyène - Luni - Marv Favelas - TDB - Wilkin Chevilly-Larue 94550 - Chily - Lacrim Choisy-le-Roi 94600 - Amy - Cinco - Demon One - Missak Créteil 94000 - Pejmaxx - Tirgo Fontenay-sous-Bois 94120 - Enfantdepauvres - Gambi - Kaza Le Kremlin-Bicêtre 94270 - Kamelancien Ivry-sur-Seine 94200 - Am1 O Mic - Daddy Mory - DTF Joinville-le-Pont 94340 - Aelpéacha - Kino - Selim du 94 Limeil-Brévannes 94450 - Baka - Delka - T2R Orly 94310 - Dry - Karlito - Kery James - Manu Key - Mista Flo - Take A Mic - Teddy Corona Saint-Maur-des-Fossés - Tengo John Thiais 94320 - Iron Sy Villejuif 94800 - 2Neg Villeneuve-le-Roi 94290 - Kennedy - P-dro Villeneuve-Saint-Georges 94190 - Captaine Roshi - MC Solaar - OBOY Villiers-sur-Marne 94350 - Dicidens - Houssein - Koryas Dicidens - Nessbeal Vitry-sur-Seine 94400 - 113 - Alain 2 L'Ombre A2L - AP - Doudou Masta - Duo2son - Gravité Zéro - Ikbal - L.E.C.K - Lionel D - Mike Lucazz - Mokobé - OGB - Phénomène Bizness - Rim'k - Rohff - Six Coups MC - ZesauDépartement 95 Val-d'OiseArgentueil 95100 - Jewel Usain Cergy 95000 95800 - Blackapar - Gaïden - Gringe - Lun1k - Wojtek Deuil-la-Barre 95170 - Aketo - Tunisiano Garges-lès-Gonesse 95140 - Key Largo - Nèg'Marrons Montmagny 95360 - D. Ace Osny 95520 - Youssoupha Sarcelles 95200 - Driver - Passi - Sëar Lui-Même - Sir Samuel - Stomy Bugsy - Youv Dee Saint-Ouen-l'Aumône 95310 - Seth Gueko Villiers-le-Bel 95400 - 404Billy - Calbo - Lino - Luidji - MorsayDépartement 971 Guadeloupe- Admiral T - Bridjahting - LuterDépartement 972 Martinique- KalashDépartement 973 GuyaneDépartement 974 RéunionSaint-Denis - Futur CrewDépartement 975 Saint-Pierre-et-MiquelonDépartement 976 Mayotte7</t>
+          <t>Je m'appelle Abdel Krim, j'habite à Alger, là-bas la blanche s'assombrit Et tout a son prix, exorbitant tous les jours je prie Dieu de me changer de cette vie routinière où tu restes ignare Chaque jour est un poignard en plein cagnard Illusion solaire sur la caseba, wallah sur la homa Mais je sens rien kho je suis comme dans un coma, trop mal Le chômage et les promesses de ces présidents Qui ne restent que quelques temps, juste pour ces belles résidences Yema je t'aime, je veux faire de toi une poupée Barbie Marre de tenir ses potos à des heures tardives La zone pétrolière attaque, brasse des millions Pendant que le peuple reçoit des coûts de matraque par milliers C'est la loi du taillon, j'suis diplômé, bac 6 Mais ici y a qu'des débouchés dans l'armée, ou dans la police L'Algérie c'est un pays d'avenir, mais vois ce qu'a fait de nous l'armée Un peuple islamique armée né pour mourir précocement Méhlich tous doucement, je vais faire de toi une princesse Que dieu exauce mon voeux, je connais un pays qui s'appelle la France Il paraît qu'il respecte les droits de l'homme J'pars pour t'élever sur un trône Yema, je vais faire de toi une princesse Je vais faire de toi une femme étincelante et pince moi si je rêve trop Yema, je pars, je laisse mon cur, mon corps part Mais ma conscience demeure, j'ai espoir pour demain Yema, embrasse mes frères et mes surs de ma part Dis leurs que je pars mais que je reviendrai riche Et que je les sortirai de cette friche Embrasse papa, merci pour la bonté que je sens en toi Pardon pour les soucis que je sème en toi Je prends mes jambes à mon cou J'embarque clandestinement dans un cargo Je me sens libre comme un pays qui sort d'un embargo Les larmes ruissèlent le long de mes paupières Pour aller s'écraser sur le sol poussiéreux A mesure que je quitte mes terres J'ai quelques fringues et les cigarettes que m'a passé ami hacli En attendant un miracle éclot j'en allume une Éclate mes souvenirs en cette pleine lune Ma mère hante mes pensées, la mer chante mes pensées Tant de souvenirs à relater, bons et mauvais Mais garde le sourire même avec cette mauvaise mine en ce mois de Mai Je me vois à Marseille faire mes affaires, satisfaire ma famille Fort de mon vécu, je ferai l'effort de faire des écus Je me réfugie dans un bateau de sauvetage Et j'entends qu'un passager clandestin est mort de froid dans une cale Des frissons dans le dos, mais le courage j'ai J'ai ... Dit à ma mère que j'avais des projets J'observe le soleil se lever, j'ai quitté le pays du soleil couchant Je me retrouve dans ce pays représentant l'occident C'est donc ça ? Le pays où y'a du boulot Le pays où rare sont les gens au bout du rouleau On débarque sur les ports de la Joliette Atmosphère musicale, chant des vagues et chant des mouettes Je souhaite faire ma vie ici a dire Ici la vie était d'or, c'est ce que j'ai entendu dire dehors C'est vrai le soleil est radieux Hamdoulilah je débarque saint et sauf et ce grâce à dieu J'évite les douaniers et la police, m'introduit dans la ville phocéenne Une envie de croquer monte soudaine Mais quelque chose m'intrigue, on me regarde bizarrement Quand je parle on se moque de mon accent Et c'est quelque part un peu vexant J'aperçois un de mes semblables en sanglot J'ai compris que la vie en France était loin de ce que j'imaginais la haut</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>L’enfant de Marseille</t>
+          <t>Les Bronzés font du Biff</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas J'ai pleuré un beau jour, 9 heures du mat', 2 mai 81 Après mon frère, ma mère ne pouvait plus enfanter Grâce à Dieu j'atterris sur terre, mon premier cri poussé Mes premières larmes versées à la maternité d'la Belle de Mai Issu d'une famille des plus modestes À la rue Parmentier on était sept à vivre dans une pièce Mon père travaillait 15 heures par jour et jle voyais que le soir Le regard marqué par le ciment et la routine bref Après qautre ans passés dans ce taudis Forcé de déménager vu que la famille s'est agrandie 143 rue Félix Piat mon premier meilleur ami Nordine Nekka t'inquiète frère jamais je t'oublie T'étais le premier mec avec qui je volais Après la classe te casse, on dévalisait Intermarché Tablette de chocolat Crunch, blanco et marqueur La fine équipe de parc petit débrouillard et tagueurs, bagarreur Après le foot c'était la mosquée Basket à 4 bandes trouées on puait des pieds C'est comme ça que j'ai appris ma première sourate J'm'en rappelle comme hier c'était avec mon petit frère Morad Enfant de Marseille insouciant j'ai peur de rien Malgré les roustes à 8 ans j'allais au stade Vélodrome comme un grand La vie est rude dans les rues de ma ville Hamdoullah tant que t'as les tiens, écoute le récit de ma vie C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas J'débarque à la Savine en 1990 L'année où ma mère a accouché du petit dernier L'équipe est au complet j'ai 4 frères et 4 surs 2 grand frères, 2 grandes surs, 2 petits frères et 2 petites surs Au milieu de tout ce beau monde légèrement privilégié J'étais ni l'aîné ni le dernier Jtrainais avec Marco le Bagdad Ce genre de pirate qui revenait au quartier avec un poney ou un kart Du collège Valepin au lycée nord des Aminettes Les liens se tissent dès qu'on s'attache avec ivresse Perturbateur au fond du cours élève agité Mais bon toujours premier surtout quand il fallait casser les couilles Famille nombreuse où le grand frère était un exemple Juste et ferme, droit et dur, humble et fier Qualités héritées de mes parents émigrés J'les en remercie pour toutes les choses dont ils se sont privés Au fait j'allais zapper mes origines Algérien chaoui de hrenchla c'est pour ça que j'ai la tête dure d'origine C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Depuis petit j'suis un rêveur, j'observe et je ne parle pas trop Je passe mon temps à délirer, quand j'm'ennuie, je réfléchis trop C'est là que ça se gâte tu te poses pleins de questions existentielles D'autant plus que la puberté s'en mêle À l'école ils disent que j'ai des facilités Mais que j'suis pas sérieux que j'finirai par me gâcher Grâce au foot j'ai eu des potes un peu partout à Mars L'époque des tournois de foot qui réunissait les quartiers en masse Salam à la Gavotte, Malik au plan dAou J'rêve d'avoir une carrière comme l'enfant prodige dla Castellane Mais bon on nest pas nés sous la même étoile Donc j'fais mon chemin et des petits textes apparaissent dans mes toiles À La Savine j'kiffais le rap mais rien de sérieux La morvelle dans le nez j'prends le micro avec les plus vieux J'étais le seul arabe avec mes frères comoriens Abdou Karim Zé Marteau et d'autres lâchent rien Le déclic en 9-6 avec le 4-5 J'fais ma première rencontre avec Alonzo de Psy4 9-8 j'prends mon micro et mon glaive La rage au micro t'inquiète frère ça sentait la relève C'est ma vie, ses hauts et ses bas Ils parlent de moi mais ne me connaissent même pas C'est ma vie, ses larmes et ses joies Ses rires, ses pleurs, ses peines et ses choix que je ne regrette pas Entre le foot et l'école, le rap, la déconne Les mignonnes, les défilés de mode à Saint-Ferréol Les survêts Lacoste, la sape et la tchatche Les je danse le mia quon faisait péter dans le poste Yeah c'est ça ma vie, l'Algérino Marseille du parc à la Savine Dédicacé à toute ma famille Dédicacé à tous mes amis Ceux qui m'ont vu grandir Ceux qui m'ont côtoyé à l'époque Au parc, au centre-ville, à Valepin, au lycée nord tous les frères de la Savine Ceux qui me font des rappels quand j'pars un peu en bip Bilal, Sofiane, tous les frères de la Villette Tous les frères de La Savine Tous les mecs avec qui j'ai rappé à l'ancienne Le soutien que m'apporte mon cousin Ibrahim Et la confiance que me font Nabil et Karim L'algérino, le ptit smire la famille, Marseille ma ville</t>
+          <t>Hola amigo Les Bronzés font du biff Y'en aura pour tout le monde Yalla Les bronzés font du biff x4 Je vais sur la côte De Miami Beach Ma jolie j'ai la côte Applaudis les nouveaux riches On est calé dans le club Calé dans la piste Tranquille Armés jusqu'aux dents Reste tranquille En France c'est la crise On investit dans les lingots Bientôt on s'barre au bled, hasta luego Blingo pawawawoo Lève ton sky Je fais danser la France Même sur du raï Je compte les billets méticuleusement Comme un byle-ka Danse de l'épaule à la Cyril Hannouna Il va pleuvoir des billets Tu vas te déshabiller L'argent fait le bonheur Et je danse le MIA Frais On est rasé de près Will Kingston Les Bronzés font du biff Gitan, rital, moi j'ai la black Et toi la carte vitale On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 On a les connections mieux que chez Alice Bronzé connection nous on fait des khalis On fait le casse du siècle Comme Spagiarri à Nice Je veux la mairie de Marseille Comme Samia Ghali La sape vient d'Italie C'est le hella décalé On est plein de manies J'aime bien quand j'suis calé La tchatch à la Mani Pour bien t'emboucaner Sapé Armani Rigatte Pene Okéééééé On pèse et on est là On est plein de billets Pas de tombola Des pièces en chocolat Tu pues le brocolis Y'a tous mes potos là J'attends un gros colis Prêt pour le décollage A bord d'un gros bolide J'achète tout ta ville Comme au Monopoly Nous on monopolise le game C'est la folie C'est le gang des Bronzés C'est pas Allô Police On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Bes3</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>L’Envie De Vaincre</t>
+          <t>Le sens de la vie (Urban Mix)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ok !! adressez à tous ceux qui ont l'envie de vaincre !! L'algérino !! Marseille !! Pour tous les quartiers de France ! Soit t'as la rage soit tu l'as pas, tu as reconnu la voix Celle qui fait trembler les baffes, une spéciale pour les mecs qui en bavent Lèves ton bras en l'air, c'est le chant de la révolte En attendant la récolte, fais cracher le Pioneer Les mains sales comme Luciano Dédicaces à ceux qui m'ont donné l'envie de prendre le micro La vie ça tient à rien, j'aurais pu flancher Plier pour des billets, mais j'ai préféré crier Tu entends pas ?? C'est la rue qui parle Du vécu dans les boomers, fais péter les watts J'passe la 5ème, le regard saillant Pas besoin de tes larmes, j'suis un vaillant C'est la jeunesse de France qui parle, ouais!! En direct live de la merde, horizon de béton HLM au bord de la mer nique sa mère x4 L'envie de vaincre ah! ah! ah! ah! ah J'suis dans la caisse avec mes potes, on refait le monde Crame une sèche pour le fun, rêve de croquer le monde J'ai la grinta, petite caille sous les projecteurs Lis dans mes yeux, y'a la rage pour tous mes frères et surs Ignorés par l'état, on se permet de briller Vu que 12 mois sur 12 le moral est dans un sale état Laisse parler ta rage ouais!!! J'en place une pour les frères enfermés en cage Cicatrices dans le cur, stigmates sur le corps On défoncera les portes, le caisson dans le coffre La voix de ceux qui soufrent, la voix de ceux qui morflent La voix de ceux qui portent leur poids sur leurs épaules La voix de ceux qu'en bavent, ça c'est le chant des braves La voix de ces darons qui prient dans leur cave La voix de toutes ces mères, soucieuses pour leurs gosses La voix de tous ces gosse qui ont l'envie de vaincre x4 L'envie de vaincre ah! ah! ah! ah! ah Cette flamme que j'ai dans les yeux, personne ne pourra l'éteindre Humble blessure de moi, y'a que Dieu qui peut m'atteindre J'ai la foi, je m'acroche à elle quand j'ai mal Prie le divin chaque jour de m'écarter du mal Tous faibles devant des liasses et des grosses caisses De l'or, des strass, des paillettes et des gros seins Chaque jour est un combat contre moi même Que je mène ma révolution dans les enceintes. Pouah! Classique, c'est ma zik, c'est magique, c'est ma vie C'est ta vie !! J'ai chargé l'automatique, t'as cerné la thématique C'est dur à trouver le son, cesse de rester statique La pratique est la même, 1 pour ma team Fais péter le son frère, 2 pour la frime 3 pour les traitres et les gens qui m'estiment. L'ALGERINO x4 L'envie de vaincre ah! ah! ah! ah! ah Okayy !! Dédié à ceux qui ont la grinta le moins, le monde Adresser à tous ceux qui ont l'envie de vaincre Pour tous les quartiers de France !!! L'a dit Jack Sparrow !! Nord, Sud, Est, Ouest !! L'ALGERINO!!</t>
+          <t>Yeah Des fois on s'perd dans l'obscurité, et on recherche la lumière Une brèche, une voie, un chemin entre le ciel et la terre Dans c'monde de sourds et de muets, on écoute les étoiles chanter L'Algé, Tal J'ai voulu dormir, et j'ai fermé les yeux yeah Sans même voir que le ciel était bleu Je me suis réveillée sous un nouveau soleil Et depuis ce jour-là, rien n'est pareil Lumières des projecteurs qui réchauffent mon cur Tout au fond de moi je n'ai plus jamais peur J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah Je crois en mon destin, tout est écrit même la fin J'ai des rêves à réaliser, mon avenir entre mes mains D'mande à Tal, j'kiffe la life, j'pousse la chansonnette quand je fly J'ai des rêves à réaliser, et long sera le chemin Tal ! J'ai trouvé le sens de la raison qui m'entraîne yeah À chaque pas sur le devant de la scène a'ight J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah okay On sait où l'on va, on sait d'où l'on vient Fier de c'que j'suis, j'ai d'l'amour pour les miens Peu importe d'où tu viens, j'me sens bien J'suis à l'aise sur n'importe quel méridien Ils parlent de lover, j'ai besoin de love L'amour c'est de l'or, trop de larmes dehors Et des fois on se perd, on finit par terre La tête haute, ce qui ne tue pas rend plus fort Est-ce que tu m'as vu quand je me sentais perdu? Je errais dans la rue en rêvant de toucher la Lune Je cherchais ma voie, j'ai trouvé ma plume ai'ght! C'est pour ça que je chante, no! J'ai trouvé le sens de la raison qui m'entraîne ai'ght À chaque pas sur le devant de la scène mmh no J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime yeah! J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène Tal! J'ai trouvé le sens de la vie que je mène le sens de la vie que je mène Et je l'aime L'Algérino, Tal Une étoile est née mon ami, c'est correct Yeah, yeah, one love pour ceux qui se sentent seul La vie est dure, qu'est-c'tu veux ? Affronter tes peurs Une guitare, un piano, une voix qui s'élève, Tal ! Un nouveau jour se lève ! J'ai trouvé le sens de la raison qui m'entraîne yeah! À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime J'ai trouvé le sens de la raison qui m'entraîne yeah yeah yeah À chaque pas sur le devant de la scène le sens de la vie J'ai trouvé le sens de la vie que je mène Et je l'aime</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Le Rêve Français (Ma Princesse)</t>
+          <t>Les princes de la nuit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Je m'appelle Abdel Krim, j'habite à Alger, là-bas la blanche s'assombrit Et tout a son prix, exorbitant tous les jours je prie Dieu de me changer de cette vie routinière où tu restes ignare Chaque jour est un poignard en plein cagnard Illusion solaire sur la caseba, wallah sur la homa Mais je sens rien kho je suis comme dans un coma, trop mal Le chômage et les promesses de ces présidents Qui ne restent que quelques temps, juste pour ces belles résidences Yema je t'aime, je veux faire de toi une poupée Barbie Marre de tenir ses potos à des heures tardives La zone pétrolière attaque, brasse des millions Pendant que le peuple reçoit des coûts de matraque par milliers C'est la loi du taillon, j'suis diplômé, bac 6 Mais ici y a qu'des débouchés dans l'armée, ou dans la police L'Algérie c'est un pays d'avenir, mais vois ce qu'a fait de nous l'armée Un peuple islamique armée né pour mourir précocement Méhlich tous doucement, je vais faire de toi une princesse Que dieu exauce mon voeux, je connais un pays qui s'appelle la France Il paraît qu'il respecte les droits de l'homme J'pars pour t'élever sur un trône Yema, je vais faire de toi une princesse Je vais faire de toi une femme étincelante et pince moi si je rêve trop Yema, je pars, je laisse mon cur, mon corps part Mais ma conscience demeure, j'ai espoir pour demain Yema, embrasse mes frères et mes surs de ma part Dis leurs que je pars mais que je reviendrai riche Et que je les sortirai de cette friche Embrasse papa, merci pour la bonté que je sens en toi Pardon pour les soucis que je sème en toi Je prends mes jambes à mon cou J'embarque clandestinement dans un cargo Je me sens libre comme un pays qui sort d'un embargo Les larmes ruissèlent le long de mes paupières Pour aller s'écraser sur le sol poussiéreux A mesure que je quitte mes terres J'ai quelques fringues et les cigarettes que m'a passé ami hacli En attendant un miracle éclot j'en allume une Éclate mes souvenirs en cette pleine lune Ma mère hante mes pensées, la mer chante mes pensées Tant de souvenirs à relater, bons et mauvais Mais garde le sourire même avec cette mauvaise mine en ce mois de Mai Je me vois à Marseille faire mes affaires, satisfaire ma famille Fort de mon vécu, je ferai l'effort de faire des écus Je me réfugie dans un bateau de sauvetage Et j'entends qu'un passager clandestin est mort de froid dans une cale Des frissons dans le dos, mais le courage j'ai J'ai ... Dit à ma mère que j'avais des projets J'observe le soleil se lever, j'ai quitté le pays du soleil couchant Je me retrouve dans ce pays représentant l'occident C'est donc ça ? Le pays où y'a du boulot Le pays où rare sont les gens au bout du rouleau On débarque sur les ports de la Joliette Atmosphère musicale, chant des vagues et chant des mouettes Je souhaite faire ma vie ici a dire Ici la vie était d'or, c'est ce que j'ai entendu dire dehors C'est vrai le soleil est radieux Hamdoulilah je débarque saint et sauf et ce grâce à dieu J'évite les douaniers et la police, m'introduit dans la ville phocéenne Une envie de croquer monte soudaine Mais quelque chose m'intrigue, on me regarde bizarrement Quand je parle on se moque de mon accent Et c'est quelque part un peu vexant J'aperçois un de mes semblables en sanglot J'ai compris que la vie en France était loin de ce que j'imaginais la haut</t>
+          <t>Nassey on da Track J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants On connait la rue, on sait d'où l'on vient Tu vas tout péter m'ont dit les anciens Réussir ou pas, ça tient à rien On voulait juste mettre la mama bien Dans les rues de Marseille comme un galérien La prof m'a dit que je valais rien Mental forgé, acier valyrien On lâche rien, valeureux galérien, j'suis un algérien Hola chica, comment ça va ? Me dis pas Como te llamas ? T'y es à moi jusqu'à mañana Les clés de mon cur sont chez la mama On a réussi, ils ont échoué Des Baumettes à Fresnes, nous ont écroués Si Dieu nous aime, on s'ra éprouvé Si Dieu nous aime, on s'ra éprouvé J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Un lundi, faudra qu'on se réveille Faut qu'on prépare la vie d'après Qu'on réussisse tous c'qu'on essaye Qu'on réunisse la mif, la vraie Bannir à jamais tous ces moments S'éloigner plus loin de ces endroits Ré-écrire les fins de ces romans Faire mentir le mal que ces gens croient Un croc de talles, un verre de soif Combien de soirs j'ai tout perdu ? La rue t'avale, demain fait raf Matin, tout de regrets, vêtu Mon frère, c'est comment, oh, mon frère c'est comment ? Papa fait la guerre au monde, maman n'est pas là n'est pas là J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Là, c'est Paris là, c'est Paris sombre Marseille sombre Marseille Prince de ma ville prince de ma ville, j'suis dans le zbeul, ouais, ouais ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Les Bronzés font du Biff</t>
+          <t>L’étendard</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hola amigo Les Bronzés font du biff Y'en aura pour tout le monde Yalla Les bronzés font du biff x4 Je vais sur la côte De Miami Beach Ma jolie j'ai la côte Applaudis les nouveaux riches On est calé dans le club Calé dans la piste Tranquille Armés jusqu'aux dents Reste tranquille En France c'est la crise On investit dans les lingots Bientôt on s'barre au bled, hasta luego Blingo pawawawoo Lève ton sky Je fais danser la France Même sur du raï Je compte les billets méticuleusement Comme un byle-ka Danse de l'épaule à la Cyril Hannouna Il va pleuvoir des billets Tu vas te déshabiller L'argent fait le bonheur Et je danse le MIA Frais On est rasé de près Will Kingston Les Bronzés font du biff Gitan, rital, moi j'ai la black Et toi la carte vitale On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 On a les connections mieux que chez Alice Bronzé connection nous on fait des khalis On fait le casse du siècle Comme Spagiarri à Nice Je veux la mairie de Marseille Comme Samia Ghali La sape vient d'Italie C'est le hella décalé On est plein de manies J'aime bien quand j'suis calé La tchatch à la Mani Pour bien t'emboucaner Sapé Armani Rigatte Pene Okéééééé On pèse et on est là On est plein de billets Pas de tombola Des pièces en chocolat Tu pues le brocolis Y'a tous mes potos là J'attends un gros colis Prêt pour le décollage A bord d'un gros bolide J'achète tout ta ville Comme au Monopoly Nous on monopolise le game C'est la folie C'est le gang des Bronzés C'est pas Allô Police On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff x2 Les bronzés font du biff x4 Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo Les bronzés font du ... Oseille oseille oseilloooo On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff On a le sens des affaires Du culot, du savoir-faire Dans le biz on a du flaire Mains en l'air Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Les bronzés font du biff Bes3</t>
+          <t>Être dans l'ombre, combien de détenus on dénombre ? Moral plongé dans la pénombre Tuerie psychologique, destin de famille tragique Dans nos têtes ça cogite trop et les armes s'agitent On nous a découragé, on cherche à s'évader Moral fragilisé, radicalement islamisé Égaré, formation de kamikaze ou de braqueur De toutes façons, la société nous a méprisés Vie brisée, tisée dans les paillettes Rêve de péter une carte pour aller se saper à Lafayette Recherche de la malette, dans les quartiers la faillite Le sheitan nous appelle et combien de mes frères ont failli ? Gel sur la tête, carosse cabriolet Les petits dans les quartiers vont à l'école en voiture volée La morale n'est plus, le mot d'ordre chacun pour soi Pour peser au grand jour même les chacals se font sournois Noyés, la détresse nous a noyé Pour faire du fric même les ... sont déployés dans les foyers Y'a plus de respect que des mecs qui insultent leur mères Et dehors se font click click L'hypocrisie trahie par un sourire dans l'ascenseur Tu fais la bise à ton pote, tu rêves de baiser sa soeur Peu de mecs honorables, que des tafioles sans parole Sur ma vie que des tahanes qui papotent en chorale Succès soudain, paraît que je pèse Les petits de mon quartier draguent et sur mon compte ils baisent Mets toi à l'aise c'est Morro qui régale Des oids-d', des kilowatts à l'arrière de la Mégane Vendre un discours de haine C'est comme vendre de la cocaïne à un môme le regardant s'en mettre plein les veines Comprennent le sens de mon discours un seul combat Un seul homme l'Algérino y'a QUOI ? Bienvenue dans l'ombre, là où les hommes sont de vrais hommes Ne jactent jamais par derrière Être dans l'ombre, on cherche la lumière dans la foi On l'a pas trouvée dans la soie Bienvenue dans l'ombre, wesh la famille chez nous c'est la fierté On combat dans nos textes, on pleure pas Bienvenue dans l'ombre, j'affronte la vie question de fierté La vie ce n'est qu'une question de fierté Chez nous on pleure pas, on se lamente pas frère Vas-y envoie Et qu'on t'en donne, je rêve de faire des millions de dollars Mais je perds plus de temps à rêver qu'à en faire au final ...</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Le sens de la vie (Urban Mix)</t>
+          <t>Lovers</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yeah Des fois on s'perd dans l'obscurité, et on recherche la lumière Une brèche, une voie, un chemin entre le ciel et la terre Dans c'monde de sourds et de muets, on écoute les étoiles chanter L'Algé, Tal J'ai voulu dormir, et j'ai fermé les yeux yeah Sans même voir que le ciel était bleu Je me suis réveillée sous un nouveau soleil Et depuis ce jour-là, rien n'est pareil Lumières des projecteurs qui réchauffent mon cur Tout au fond de moi je n'ai plus jamais peur J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah Je crois en mon destin, tout est écrit même la fin J'ai des rêves à réaliser, mon avenir entre mes mains D'mande à Tal, j'kiffe la life, j'pousse la chansonnette quand je fly J'ai des rêves à réaliser, et long sera le chemin Tal ! J'ai trouvé le sens de la raison qui m'entraîne yeah À chaque pas sur le devant de la scène a'ight J'ai trouvé le sens de la vie que je mène Et je l'aime Yeah, yeah, yeah okay On sait où l'on va, on sait d'où l'on vient Fier de c'que j'suis, j'ai d'l'amour pour les miens Peu importe d'où tu viens, j'me sens bien J'suis à l'aise sur n'importe quel méridien Ils parlent de lover, j'ai besoin de love L'amour c'est de l'or, trop de larmes dehors Et des fois on se perd, on finit par terre La tête haute, ce qui ne tue pas rend plus fort Est-ce que tu m'as vu quand je me sentais perdu? Je errais dans la rue en rêvant de toucher la Lune Je cherchais ma voie, j'ai trouvé ma plume ai'ght! C'est pour ça que je chante, no! J'ai trouvé le sens de la raison qui m'entraîne ai'ght À chaque pas sur le devant de la scène mmh no J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime yeah! J'ai trouvé le sens de la raison qui m'entraîne À chaque pas sur le devant de la scène Tal! J'ai trouvé le sens de la vie que je mène le sens de la vie que je mène Et je l'aime L'Algérino, Tal Une étoile est née mon ami, c'est correct Yeah, yeah, one love pour ceux qui se sentent seul La vie est dure, qu'est-c'tu veux ? Affronter tes peurs Une guitare, un piano, une voix qui s'élève, Tal ! Un nouveau jour se lève ! J'ai trouvé le sens de la raison qui m'entraîne yeah! À chaque pas sur le devant de la scène J'ai trouvé le sens de la vie que je mène que je mène Et je l'aime et je l'aime J'ai trouvé le sens de la raison qui m'entraîne yeah yeah yeah À chaque pas sur le devant de la scène le sens de la vie J'ai trouvé le sens de la vie que je mène Et je l'aime</t>
+          <t>Bring me to life</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Les princes de la nuit</t>
+          <t>Mal barré</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nassey on da Track J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants On connait la rue, on sait d'où l'on vient Tu vas tout péter m'ont dit les anciens Réussir ou pas, ça tient à rien On voulait juste mettre la mama bien Dans les rues de Marseille comme un galérien La prof m'a dit que je valais rien Mental forgé, acier valyrien On lâche rien, valeureux galérien, j'suis un algérien Hola chica, comment ça va ? Me dis pas Como te llamas ? T'y es à moi jusqu'à mañana Les clés de mon cur sont chez la mama On a réussi, ils ont échoué Des Baumettes à Fresnes, nous ont écroués Si Dieu nous aime, on s'ra éprouvé Si Dieu nous aime, on s'ra éprouvé J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Un lundi, faudra qu'on se réveille Faut qu'on prépare la vie d'après Qu'on réussisse tous c'qu'on essaye Qu'on réunisse la mif, la vraie Bannir à jamais tous ces moments S'éloigner plus loin de ces endroits Ré-écrire les fins de ces romans Faire mentir le mal que ces gens croient Un croc de talles, un verre de soif Combien de soirs j'ai tout perdu ? La rue t'avale, demain fait raf Matin, tout de regrets, vêtu Mon frère, c'est comment, oh, mon frère c'est comment ? Papa fait la guerre au monde, maman n'est pas là n'est pas là J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul J'croque la vie j'croque la vie, j'allume les nuits j'allume les nuits Prince de ma ville prince de ma ville, j'suis dans le zbeul le zbeul La vie, c'est violent, plus de sentiments Pour des centimes, la scène de crime, des curs déprimants Là, c'est Paris là, c'est Paris sombre Marseille sombre Marseille Prince de ma ville prince de ma ville, j'suis dans le zbeul, ouais, ouais ouais, ouais, ouais</t>
+          <t>Yeah Yeah On sait pas où la vie nous mène Dans mon royaume, j'ai mille problèmes On a fait tout ça par nous-mêmes J'veux partir, j'veux m'nachave, t'façon, on n'est qu'de passage J'enroule tous mes problèmes, mes joies, mes peines dans la massa Elles veulent la kichta, michtonnent pour un sac Chanel sac Chanel Elles veulent t'charmer, t'envoûter d'un plaisir charnel plaisir charnel Je m'suis perdu dans les rues sombres ds quartiers Nord quartiers Nord Tout va trop vite, ls regrets viennent après les torts après les torts J'ai appris qu'c'était la vie, qu'le monde est gore monde est gore J'veux prendre la mif, l'éloigner d'ce putain d'décor putain d'décor On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord On sait pas où la vie nous mène on sait pas où la vie nous mène On a fait tout ça par nous-mêmes on a fait tout ça par nous-mêmes Avant, on m'regardait bizarre quand j'étais à terre Maintenant, j'paye des impôts d'bâtard sur la vie d'ma mère J'suis dans l'M4 avec Ismet j'fais crier l'moteur dans l'tunnel J'me vois retraité en fumette j'me vois retraité en fumette Ça parle d'argent, de grosses kichtas toujours dans les affaires Mais on n'emporte rien plus tard On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>L’étendard</t>
+          <t>Marchand de rêve</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Être dans l'ombre, combien de détenus on dénombre ? Moral plongé dans la pénombre Tuerie psychologique, destin de famille tragique Dans nos têtes ça cogite trop et les armes s'agitent On nous a découragé, on cherche à s'évader Moral fragilisé, radicalement islamisé Égaré, formation de kamikaze ou de braqueur De toutes façons, la société nous a méprisés Vie brisée, tisée dans les paillettes Rêve de péter une carte pour aller se saper à Lafayette Recherche de la malette, dans les quartiers la faillite Le sheitan nous appelle et combien de mes frères ont failli ? Gel sur la tête, carosse cabriolet Les petits dans les quartiers vont à l'école en voiture volée La morale n'est plus, le mot d'ordre chacun pour soi Pour peser au grand jour même les chacals se font sournois Noyés, la détresse nous a noyé Pour faire du fric même les ... sont déployés dans les foyers Y'a plus de respect que des mecs qui insultent leur mères Et dehors se font click click L'hypocrisie trahie par un sourire dans l'ascenseur Tu fais la bise à ton pote, tu rêves de baiser sa soeur Peu de mecs honorables, que des tafioles sans parole Sur ma vie que des tahanes qui papotent en chorale Succès soudain, paraît que je pèse Les petits de mon quartier draguent et sur mon compte ils baisent Mets toi à l'aise c'est Morro qui régale Des oids-d', des kilowatts à l'arrière de la Mégane Vendre un discours de haine C'est comme vendre de la cocaïne à un môme le regardant s'en mettre plein les veines Comprennent le sens de mon discours un seul combat Un seul homme l'Algérino y'a QUOI ? Bienvenue dans l'ombre, là où les hommes sont de vrais hommes Ne jactent jamais par derrière Être dans l'ombre, on cherche la lumière dans la foi On l'a pas trouvée dans la soie Bienvenue dans l'ombre, wesh la famille chez nous c'est la fierté On combat dans nos textes, on pleure pas Bienvenue dans l'ombre, j'affronte la vie question de fierté La vie ce n'est qu'une question de fierté Chez nous on pleure pas, on se lamente pas frère Vas-y envoie Et qu'on t'en donne, je rêve de faire des millions de dollars Mais je perds plus de temps à rêver qu'à en faire au final ...</t>
+          <t>Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Quand je vois mon fils et dire que je ne croyais plus en la vie Destin en dent de scie, je reviens de loin si tu savais je chante mes douleurs en DO-RÉ-MI-FA-SOL-LA-SI Petit j'étais futé, flaire affuté, sirène de police et je courrais comme un furet Pas grandis dans l'opulence, pas grandis dans la soie Entre l'Algérie et la France ? demande pas de faire un choix Citoyen du monde je me sens chez moi partout à l'aise dans mes baskets je traine mon faciès partout Je rêvais pas d'être célèbre,je rêvais pas d'être une star Même les étoiles s'éteignent pour devenir des trous noirs Ils ne connaissent rien de moi, ils ne voient que le décor Avant je signé des autographes sans avoir de quoi m'acheter des clops Dieu merci on se plaint pas, on avance avec ce que l'on a, je fais du rap ma mère aurait préférée que je sois avocat Même aujourd'hui elle me le dit Wouldi arrête tes conneries mais quand elle me voit à la télé je sais qu'elle sourit Rien ne sert de courir j'étais la pomme pourris, aujourd'hui je chante la misère avec un putin de sourire Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentu quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé Couplet 2 Parcours aléatoire, leur temple est solaire, je ne suis pas superstitieux car mon calendrier est lunaire Destin pré-écrit depuis la nuit des temps, je ne crois plus en l'Homme, je courbe l'échine que devant le tout puissant Mais l'être humain est ingrat et j'ai des mauvaises passes Le cur encrassé, fragile devant paillettes et strasses Des contradictions dans mon cerveau, des faiblesses, ce verre alcoolisé et cette prière que je délaisse Entre deux flammes je plane et me laisse aller en espérant que le jour du jugement l'addition ne soit pas salé Je les laisses parler, qui sont-ils pour me juger ? quand j'étais au fond du gouffre, personne pour me relever Quand j'aime je fais pas semblant, trop souvent trahis, ça siffle dans mes oreilles amis quand tu me salis De toute façon je trace ma route et je suis ma trajectoire, éternel solitaire depuis le réfectoire L'autoroute de la vie, petit bateau navigue, je repense aux proches partis trop tôt, c'est mon cur qui chavire Paix à leurs âmes, la vie suit son cours, on a séchés nos larmes et ils seront dans nos curs pour toujours Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentus quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lovers</t>
+          <t>Marrakech Saint Tropez (French Version)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bring me to life</t>
+          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino On est partis tle chercher en Roumanie celui-là Uno, do, tres XXX x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et toi tu vis la vie de star Les soirées champagne Nous on sait samuser, comme ça On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez XXX On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum XXX</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mal barré</t>
+          <t>Marseille by night</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Yeah Yeah On sait pas où la vie nous mène Dans mon royaume, j'ai mille problèmes On a fait tout ça par nous-mêmes J'veux partir, j'veux m'nachave, t'façon, on n'est qu'de passage J'enroule tous mes problèmes, mes joies, mes peines dans la massa Elles veulent la kichta, michtonnent pour un sac Chanel sac Chanel Elles veulent t'charmer, t'envoûter d'un plaisir charnel plaisir charnel Je m'suis perdu dans les rues sombres ds quartiers Nord quartiers Nord Tout va trop vite, ls regrets viennent après les torts après les torts J'ai appris qu'c'était la vie, qu'le monde est gore monde est gore J'veux prendre la mif, l'éloigner d'ce putain d'décor putain d'décor On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord On sait pas où la vie nous mène on sait pas où la vie nous mène On a fait tout ça par nous-mêmes on a fait tout ça par nous-mêmes Avant, on m'regardait bizarre quand j'étais à terre Maintenant, j'paye des impôts d'bâtard sur la vie d'ma mère J'suis dans l'M4 avec Ismet j'fais crier l'moteur dans l'tunnel J'me vois retraité en fumette j'me vois retraité en fumette Ça parle d'argent, de grosses kichtas toujours dans les affaires Mais on n'emporte rien plus tard On fait ça pour la mama, ouais c'est tout pour la mama La seule qui m'sera fidèle, toi tu t'fais pigeonne par ta nana La seule que j'ai trouvée quand j'étais égaré égaré Si tu savais, l'ami, comme j'étais mal barré mal barré Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord Mal barré mal barré, ouais, mal barré mal barré Si tu savais, à la base, j'étais mal barré mal barré Faut rien lâcher, tout donner quand tu crois qu'c'est mort crois qu'c'est mort N'oublie jamais que Zizou sort des quartiers Nord quartiers Nord</t>
+          <t>Eeeh Hed lila ou ch'hèle zina Ok yeah l'Algerino Scalpovitch Hèd lil ou hèd lila Nassi African tonic sahbi C'est correct Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi N'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini Tunisie tunisie tunise J'ai rien à rien à faire les clés posées sur la table Consulte les sms font saturer mon portable Près devant la glace, lunettes prada heywa Ca sent la fraîcheur beau gosse hamdoullah ça va Fait tournait la disquette orientale et magique magique La vague est africaine et tonic tonic Faites d'la place y a d'la classe Ce soir y vont te faire rêver les chiens d'la casse Short claquette trait sur la plaque mec Liasse dans la sacoche ça accoste dla belette Vespa jet ski les flics on les esquive Oh arah ya le ford mondéo sur le rétro Y a les vieux qui jouent au rami a la place d'Aix Y a les charbonneures qui flambent au casino d'Aix dè dè d'Aix Y a les manouche kahlouche 3arbouche Qui garde la pêche malgré la dèdèdèdèdèch Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dhobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x2 Les gros kaïd en x 6 les girls en fiat 500 Ce soir c'est détendu on évitera les bains de sang Marseille la nuit cest Alger Miami Tony et mani Johnny Hama et la compagnie Ambiance chicha segniorita 3arbiya Wesh bicka tu c'est qu'on on fait danser le Mia On danse le Mia Oh cousine paraît que la vie est belle et le destin est dans les cartes Farhen j'ai gagné au poker Jles ai rasé chez Idir Ce soir c'est moi qui pose la bouteille Casse pas la tête Bachir Rien dans le compte bancaire Tout est dans la poche arrière Du violet, du jaune, du beige pas d'bleu Casse pas la tête on pese lourd Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x4</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Marchand de rêve</t>
+          <t>Miami Vice</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Couplet 1 Dieu est grand, je me dis chaque jours que je vois le sourire de ma fille Quand je vois mon fils et dire que je ne croyais plus en la vie Destin en dent de scie, je reviens de loin si tu savais je chante mes douleurs en DO-RÉ-MI-FA-SOL-LA-SI Petit j'étais futé, flaire affuté, sirène de police et je courrais comme un furet Pas grandis dans l'opulence, pas grandis dans la soie Entre l'Algérie et la France ? demande pas de faire un choix Citoyen du monde je me sens chez moi partout à l'aise dans mes baskets je traine mon faciès partout Je rêvais pas d'être célèbre,je rêvais pas d'être une star Même les étoiles s'éteignent pour devenir des trous noirs Ils ne connaissent rien de moi, ils ne voient que le décor Avant je signé des autographes sans avoir de quoi m'acheter des clops Dieu merci on se plaint pas, on avance avec ce que l'on a, je fais du rap ma mère aurait préférée que je sois avocat Même aujourd'hui elle me le dit Wouldi arrête tes conneries mais quand elle me voit à la télé je sais qu'elle sourit Rien ne sert de courir j'étais la pomme pourris, aujourd'hui je chante la misère avec un putin de sourire Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentu quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé Couplet 2 Parcours aléatoire, leur temple est solaire, je ne suis pas superstitieux car mon calendrier est lunaire Destin pré-écrit depuis la nuit des temps, je ne crois plus en l'Homme, je courbe l'échine que devant le tout puissant Mais l'être humain est ingrat et j'ai des mauvaises passes Le cur encrassé, fragile devant paillettes et strasses Des contradictions dans mon cerveau, des faiblesses, ce verre alcoolisé et cette prière que je délaisse Entre deux flammes je plane et me laisse aller en espérant que le jour du jugement l'addition ne soit pas salé Je les laisses parler, qui sont-ils pour me juger ? quand j'étais au fond du gouffre, personne pour me relever Quand j'aime je fais pas semblant, trop souvent trahis, ça siffle dans mes oreilles amis quand tu me salis De toute façon je trace ma route et je suis ma trajectoire, éternel solitaire depuis le réfectoire L'autoroute de la vie, petit bateau navigue, je repense aux proches partis trop tôt, c'est mon cur qui chavire Paix à leurs âmes, la vie suit son cours, on a séchés nos larmes et ils seront dans nos curs pour toujours Refrain Je rêvais de parcourir le monde, mais on m'a dit que le soleil ne brillait pas pour tout le monde J'ai voulu refaire le monde, j'ai pris ma plume, ma feuille mais je me suis réveillé alors Ça fait longtemps que je n'ai plus de souhait, ressentus quand je chante la gorge noué Ça fait longtemps que je n'ai plus rêvé</t>
+          <t>Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir Dur de trouver le sommeil, j'fais un tour en gamos On cherche de l'oseille, Cendrillon recherche son carrosse Mais même lui a fumé, même lui a tisé Siège auto rabaissée, rêve de gros billets Les condés font que pister, rôder, sirènes, gyrophares Go fast, furious, A7, plein phares Drogue, trafic, cannabis, coca Sex, alcool, schit, vida loca Dans les PMU ça tente des coups de poker, les RMIstes misent leur fortune sur un tocard Faillites, dépressions, insomnies répressions Vieilles, arrachages de sacs vols à l'agression Règlements de compte, petits-frères en cavale Turlutes en pagaille, petites surs qui avalent Narelsheytan, jeunesse égarée, ça deal, ça prie y a que Dieu qui peut juger Baumettes, Fresnes, Nanterre, la Santé, cauchemar le soir maison d'arrêt, maison hantée Vie d'incompris, de calvaire, pas à labri d'finir à Édouard Toulouse, Saint-Anne ou Valvert Tapin, Rabatau, cinquante euros la passe, pédophile relaxé, j'en chope un j'lui nique sa race Mademoiselle charmante recherche des footeux, se case avant la trentaine le passé plus que douteux Russes, roumaines, familles à nourrir, procureurs contre clients les proxos ont le sourire Tu peux toujours courir, les jeunes ont le muermo, karaté karaté pickpocket hasta luego Farine dans les narines comme Diego, breliqué de morts, ils font des sous ils s'en prennent à ton réseau Petits, bourgeois, quartiers sud, Bazar, quartiers nord ça craint, écarte-toi c'est Gaza Beauté fatale, quand j'te vois je cavale, j'suis riche et tu m'veux même si j'suis vilain comme Chabal Le fric ça rend beau, monte dans ma Lambo, sous coke avec une arme on s'sent invincible comme Rambo Séquestrations, rançons, dix kilos de beuh ladrénaline monte au péage de Lançon Les hajas pleurent leurs fils défunts, les petits frères s'entretuent, triste destin La souffrance de nos géniteurs, on verra c'que nous réserve notre progéniture Bosser pour son futur, parce que l'passé fût dur, s'armer de savoir et être fier de sa culture Sahab daroua, les barbus font le rappel mais à Marseille, il pleut du sang comme à Whitechapel C'est mon époque, mon-é, mon-é, mon-é, mon époque Mon époque c'est tout pour la monnaie ! Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Marrakech Saint Tropez (French Version)</t>
+          <t>Miiz’amor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et oui mon ami LAlgérino On est partis tle chercher en Roumanie celui-là Uno, do, tres XXX x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Et toi tu vis la vie de star Les soirées champagne Nous on sait samuser, comme ça On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum Marrakesh, Saint Trop, on est là Florin Salam, LAlgérino on est là Oriental Dream demande à Nassi on est là Allez on chante tous ensemble, allez XXX On samuse entre amis, amis, famille De Saint Trop à Bali, à Miami Tous les jours cest samedi x2 Et si on allait danser ? Marrakesh ou Saint Tropez Fais chanter la guitare Jusquà Lloret Del Mar Antalya et Bodrum XXX</t>
+          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×4 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser D'après les circonstances étant donner Que tu ma toujours fait galerer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×41</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Marseille by night</t>
+          <t>Miroir</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Eeeh Hed lila ou ch'hèle zina Ok yeah l'Algerino Scalpovitch Hèd lil ou hèd lila Nassi African tonic sahbi C'est correct Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi N'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini Tunisie tunisie tunise J'ai rien à rien à faire les clés posées sur la table Consulte les sms font saturer mon portable Près devant la glace, lunettes prada heywa Ca sent la fraîcheur beau gosse hamdoullah ça va Fait tournait la disquette orientale et magique magique La vague est africaine et tonic tonic Faites d'la place y a d'la classe Ce soir y vont te faire rêver les chiens d'la casse Short claquette trait sur la plaque mec Liasse dans la sacoche ça accoste dla belette Vespa jet ski les flics on les esquive Oh arah ya le ford mondéo sur le rétro Y a les vieux qui jouent au rami a la place d'Aix Y a les charbonneures qui flambent au casino d'Aix dè dè d'Aix Y a les manouche kahlouche 3arbouche Qui garde la pêche malgré la dèdèdèdèdèch Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dhobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x2 Les gros kaïd en x 6 les girls en fiat 500 Ce soir c'est détendu on évitera les bains de sang Marseille la nuit cest Alger Miami Tony et mani Johnny Hama et la compagnie Ambiance chicha segniorita 3arbiya Wesh bicka tu c'est qu'on on fait danser le Mia On danse le Mia Oh cousine paraît que la vie est belle et le destin est dans les cartes Farhen j'ai gagné au poker Jles ai rasé chez Idir Ce soir c'est moi qui pose la bouteille Casse pas la tête Bachir Rien dans le compte bancaire Tout est dans la poche arrière Du violet, du jaune, du beige pas d'bleu Casse pas la tête on pese lourd Hed lila ou hed lila Ou Marseille 3asimat galbi ya galbi We n'dobou n'fouwoul 3liha Ou Marseille 3mitili 3aini x4</t>
+          <t>Ils connaissent pas mon histoire, ils connaissent rien de ma vie J'ai d'mandé à mon miroir, il m'a dit J'm'en fous de ta vie Grandi l'bendo, mon pote, ouais, j'en ai perdu des potes Y a personne pour t'prévenir quand la faucheuse frappe à ta porte Allô, frérot ? Tu m'as lâché, allô, frérot ? La roue tourne, tu réapparais Le succès, rien à foutre, moi j'l'ai jamais cherché Ils n'voient que les bons côtés, j'reviens de loin, j'vais t'raconter Mama nous a tout donné, papa nous a tout donné Ouais, ouais, j'dois rien à personne, y a qu'la madre à couronner Le prof m'a sous-estimé, j'ai changé ma destinée Le daron m'a inspiré, il savait même pas s'exprimer Sparrow, fais-en un, on va tout leur expliquer Avant, on avait pas un, maintenant, on va tout niquer Khouya, on revient d'loin, on l'dira jamais assez On avait pas d'quoi fumer mais on n'a jamais lâché On a toujours dit les choses, on a toujours assumé Tu m'as trahi, j't'ai pardonné mais j'ai pas oublié J'ai regardé mon destin, dans les yeux, j'l'ai menacé On est passé par la f'nêtre, les portes étaient cadenassées Les portes étaient cadenassées, la juge veut pas me lâcher Vas-y, enlève tes lacets, ton poto t'a balancé Dur de faire confiance à l'homme, à lui, à elle, à eux, à l'autre Le monde part en couille, le monde est jnouné mais à qui la faute ? Argent sale, ça fait pas d'nous des bonhommes Remplir l'frigo d'la daronne, c'est mieux que d'poser des Magnum Mon bello, tu veux ma bombe latine, elle te dit Mi amor mais tu es sa pompe à fric On fait or, platine, j'trouve ça fantastique, frangin, on vient tout prendre comme la Françafrique 'çafrique Argent haram, drop-top, la jeunesse égarée, tant qu'la BAC fait toc-toc , plus moyen d'se barrer T'as plus d'sous de côté, qui paiera l'avocat ? Khouya, c'est la hechma quand la haja vient au parloir La vie est dure mais on n'a rien lâché, pourvu qu'ça dure, fais douaa, faut pas rager Tu es dans la dure, frérot qu'est-ce qui s'est passé ? Les larmes aux yeux quand je repense au passé Enfoiré, tu veux ma peau, enfoiré, tu peux ma place Enfoiré, tu veux ma go, enfoiré, tu veux ma liasse Enfoiré, j'suis dans le monstre, enfoiré, tu l'as rayé Enfoiré, tu veux ma vie, mes sous mais t'auras pas ma classe Enfoiré, j'suis dans le bloc, enfoiré, j'suis dans le tieks Enfoiré, j'suis sur les ondes, enfoiré enfoiré, enfoiré</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Miami Vice</t>
+          <t>Moonlight</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir Dur de trouver le sommeil, j'fais un tour en gamos On cherche de l'oseille, Cendrillon recherche son carrosse Mais même lui a fumé, même lui a tisé Siège auto rabaissée, rêve de gros billets Les condés font que pister, rôder, sirènes, gyrophares Go fast, furious, A7, plein phares Drogue, trafic, cannabis, coca Sex, alcool, schit, vida loca Dans les PMU ça tente des coups de poker, les RMIstes misent leur fortune sur un tocard Faillites, dépressions, insomnies répressions Vieilles, arrachages de sacs vols à l'agression Règlements de compte, petits-frères en cavale Turlutes en pagaille, petites surs qui avalent Narelsheytan, jeunesse égarée, ça deal, ça prie y a que Dieu qui peut juger Baumettes, Fresnes, Nanterre, la Santé, cauchemar le soir maison d'arrêt, maison hantée Vie d'incompris, de calvaire, pas à labri d'finir à Édouard Toulouse, Saint-Anne ou Valvert Tapin, Rabatau, cinquante euros la passe, pédophile relaxé, j'en chope un j'lui nique sa race Mademoiselle charmante recherche des footeux, se case avant la trentaine le passé plus que douteux Russes, roumaines, familles à nourrir, procureurs contre clients les proxos ont le sourire Tu peux toujours courir, les jeunes ont le muermo, karaté karaté pickpocket hasta luego Farine dans les narines comme Diego, breliqué de morts, ils font des sous ils s'en prennent à ton réseau Petits, bourgeois, quartiers sud, Bazar, quartiers nord ça craint, écarte-toi c'est Gaza Beauté fatale, quand j'te vois je cavale, j'suis riche et tu m'veux même si j'suis vilain comme Chabal Le fric ça rend beau, monte dans ma Lambo, sous coke avec une arme on s'sent invincible comme Rambo Séquestrations, rançons, dix kilos de beuh ladrénaline monte au péage de Lançon Les hajas pleurent leurs fils défunts, les petits frères s'entretuent, triste destin La souffrance de nos géniteurs, on verra c'que nous réserve notre progéniture Bosser pour son futur, parce que l'passé fût dur, s'armer de savoir et être fier de sa culture Sahab daroua, les barbus font le rappel mais à Marseille, il pleut du sang comme à Whitechapel C'est mon époque, mon-é, mon-é, mon-é, mon époque Mon époque c'est tout pour la monnaie ! Dans ce pays, il faut d'abord faire le fric Et quand tu as le pognon, tu as le pouvoir</t>
+          <t>Tout c'que j'ai vu dans ma life, t'en dormirais pas la night J'regarde les étoiles et j'pense à toutes leurs calomnies Plusieurs fois trahi, j'ai démasqué leurs félonies On s'dit bonjour, bonsoir, mais mon poto, j'oublie pas J'connais trop ta famille, la prochaine fois, j'te rate pas J'ai connu la faillite, la misère, cur à l'agonie En panne sur l'autoroute d'la vie, j'ai trouvé peu d'amis T'as retourné ta veste, ouais mon poto, j'oublie pas 6 heures du mat', j'rentre à la dalle, mon pote, j'vois la daronne qui prie J'suis en fumette, le cerveau en compote, j'suis perdu dans ma vie J'tourne dans la ville, putain, y a rien à faire à part deux-trois affaires Faut faire les sous mais qu'est-ce tu veux mon frère ? C'est le nerf de la guerre J'connais la rue, on va s'parler cru, y a beaucoup d'fils de putes Ça joue d'la flûte, ils t'salissent ta réput', que des histoires de stup' Élevé à la dure, baffes et coups d'ceinture, maman m'a dit Traîne pas trop dehors quand arrive la pleine lune Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Et au quartier, y a rien qui a changé, hiver comme été À part les p'tits, ils ont arrêté l'foot pour aller guetter Matrixé, ça marche calibré, shit, feuilles à rouler À l'heure qu'il est, Nassim et Djadjo se sont fait péter J'perds le cap des fois quand je navigue, mon esprit chavire Les nerfs à vif, la fumée est nocive, la puta elle aussi Le Diable chuchote cette mélodie J'ai grillé l'stop mais putain, j'ai pété l'Audi, merde Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen On sera jamais comme eux, on fait ça henen Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen, on fait ça henen Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire croire, croire J'veux ma kichta et ma mifa près de moi Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Yeah, tout c'que j'ai vu dans ma life, t'en dormirais pas la night On refait le monde dans la gov' gov' Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Miiz’amor</t>
+          <t>Number One</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ma chérie si on s'en aller On tourne en rond depuis tend d'année Qu'est ce qu'il t'arrive arrête de t'emballer Le regard des gens moi je m'en bas les D'après les circonstances étant donner Tu ma soûler depuis tend d'année Tu va pleurer quand j'vais t'abandonner J'te laisse le Audi pour te consoller Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×4 Toutes la nuit en train d'téléphoner Tes copines font que t'emboucanner Moi j'sui tranquille, j'suis poser, j'suis caller Yeh Zebb tu viens m'les casser D'après les circonstances étant donner Que tu ma toujours fait galerer Au flic tie capable de me donner Même ta grand mère ne peut pas te résonner. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tout est acquis, elle fait la mac quand elle se maquille. Mi amor Qu'est ce j'ai fait encore On dirai qu'tu veux ma mort Elle croit que tous est acquis, pour l'oublier j'fumme d'la paki. Perepepepepinh Perepepepepinpinh ×41</t>
+          <t>Oh mamacita, t'es ma number one Quoi qu'il arrive, t'es ma number one J't'ai vu arriver comme un tsunami, yeah Depuis, tu n'fais qu'éclairer toutes mes nuits Toute ma vie, j'ai été incompris, ah, ah, ah, ah T'es venue soigner toutes mes insomnies Quand j't'ai connu, j'avais pas un, je me sentais mal aimé Pour un oui, pour un non, j'étais tout l'temps mal luné J'voulais tout oublier, je pensais qu'à m'allumer Grâce à toi, mi amor, j'ai réappris à aimer oh, oh, oh T'as été ma boussole quand j'savais plus où aller J'ai ouvert les yeux, j'ai vu les étoiles s'aligner Tu m'as donné deux anges, liés pour l'éternité Grâce à toi, mi amor, j'ai réappris à aimer Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es mon hirondelle, mon bébé eh, eh Je suis bien dans tes bras, il n'y a que toi qui peut m'aider oh, oh, oh, oh Je vais prendre les devants, y a que pour toi que j'ai cédé eh, eh Chérie à moi, sois près de moi, mon cur s'arrête eh, eh Broliques pour les gues-din gues-din, eh Ceux qui feront les malins ah, ah T'inquiète, je gère les manettes, je protège ton corps un peu comme Cody comme Cody Mon hirondelle, mon hirondelle, oui, tu noies mes peines, oui, tu noies mes peines ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es ma number one ah, ah, ah, ah Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui T'es ma number one, number one Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui1</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Miroir</t>
+          <t>Oh mon papa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ils connaissent pas mon histoire, ils connaissent rien de ma vie J'ai d'mandé à mon miroir, il m'a dit J'm'en fous de ta vie Grandi l'bendo, mon pote, ouais, j'en ai perdu des potes Y a personne pour t'prévenir quand la faucheuse frappe à ta porte Allô, frérot ? Tu m'as lâché, allô, frérot ? La roue tourne, tu réapparais Le succès, rien à foutre, moi j'l'ai jamais cherché Ils n'voient que les bons côtés, j'reviens de loin, j'vais t'raconter Mama nous a tout donné, papa nous a tout donné Ouais, ouais, j'dois rien à personne, y a qu'la madre à couronner Le prof m'a sous-estimé, j'ai changé ma destinée Le daron m'a inspiré, il savait même pas s'exprimer Sparrow, fais-en un, on va tout leur expliquer Avant, on avait pas un, maintenant, on va tout niquer Khouya, on revient d'loin, on l'dira jamais assez On avait pas d'quoi fumer mais on n'a jamais lâché On a toujours dit les choses, on a toujours assumé Tu m'as trahi, j't'ai pardonné mais j'ai pas oublié J'ai regardé mon destin, dans les yeux, j'l'ai menacé On est passé par la f'nêtre, les portes étaient cadenassées Les portes étaient cadenassées, la juge veut pas me lâcher Vas-y, enlève tes lacets, ton poto t'a balancé Dur de faire confiance à l'homme, à lui, à elle, à eux, à l'autre Le monde part en couille, le monde est jnouné mais à qui la faute ? Argent sale, ça fait pas d'nous des bonhommes Remplir l'frigo d'la daronne, c'est mieux que d'poser des Magnum Mon bello, tu veux ma bombe latine, elle te dit Mi amor mais tu es sa pompe à fric On fait or, platine, j'trouve ça fantastique, frangin, on vient tout prendre comme la Françafrique 'çafrique Argent haram, drop-top, la jeunesse égarée, tant qu'la BAC fait toc-toc , plus moyen d'se barrer T'as plus d'sous de côté, qui paiera l'avocat ? Khouya, c'est la hechma quand la haja vient au parloir La vie est dure mais on n'a rien lâché, pourvu qu'ça dure, fais douaa, faut pas rager Tu es dans la dure, frérot qu'est-ce qui s'est passé ? Les larmes aux yeux quand je repense au passé Enfoiré, tu veux ma peau, enfoiré, tu peux ma place Enfoiré, tu veux ma go, enfoiré, tu veux ma liasse Enfoiré, j'suis dans le monstre, enfoiré, tu l'as rayé Enfoiré, tu veux ma vie, mes sous mais t'auras pas ma classe Enfoiré, j'suis dans le bloc, enfoiré, j'suis dans le tieks Enfoiré, j'suis sur les ondes, enfoiré enfoiré, enfoiré</t>
+          <t>Ta-ta-ta-ta Ta-la-ta-ta-ta Le silence est d'or et on trouve plus les mots Dehors, il pleut des cordes comme il pleut des textos J't'le dis pas souvent, ma fille, mais je t'aime trop Du mal à m'exprimer, parfois, j'ai pas les mots C'est fou comme t'as grandi, j'ai pas vu le temps passer Ton regard plein de larmes se noie dans les regrets J'suis peut-être pas le père que t'attendais Mais j'te jure sur ma vie, ma fille, que j'vais changer C'est que des paroles, oui, que des paroles J'irai t'chercher à l'école, je te donne ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Maman, j'vais la surprendre, j'vais sortir le grand jeu Dis-lui d'me pardonner, j'ai trop été orgueilleux Tu sais, ta mère, je l'aime même si j'lui dis pas tout l'temps C'est vrai qu'on s'prend la tête, j'ai fait des promesses dans l'vent Tu sais, les grands sont bêtes, ils font les sourds et muets J'ai été aveuglé et j'voyais pas qu'elle souffrait J'voudrais une dernière chance, si tu savais comme j'm'en veux La seule chose qui m'importe, c'est de te rendre heureuse C'est que des paroles des paroles, oui, que des paroles des paroles J'irai t'chercher à l'école t'chercher à l'école, je te donne ma parole ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Ma vie, j'te jure, j'suis plus le même J'suis tombé de haut, j'm'accroche à notre anneau Ma vie vie, j'te jure, j'suis plus le même j'suis plus le même J'suis tombé de haut j'suis tombé de haut, j'm'accroche à notre anneau ah Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Moonlight</t>
+          <t>On a trop charbonné</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tout c'que j'ai vu dans ma life, t'en dormirais pas la night J'regarde les étoiles et j'pense à toutes leurs calomnies Plusieurs fois trahi, j'ai démasqué leurs félonies On s'dit bonjour, bonsoir, mais mon poto, j'oublie pas J'connais trop ta famille, la prochaine fois, j'te rate pas J'ai connu la faillite, la misère, cur à l'agonie En panne sur l'autoroute d'la vie, j'ai trouvé peu d'amis T'as retourné ta veste, ouais mon poto, j'oublie pas 6 heures du mat', j'rentre à la dalle, mon pote, j'vois la daronne qui prie J'suis en fumette, le cerveau en compote, j'suis perdu dans ma vie J'tourne dans la ville, putain, y a rien à faire à part deux-trois affaires Faut faire les sous mais qu'est-ce tu veux mon frère ? C'est le nerf de la guerre J'connais la rue, on va s'parler cru, y a beaucoup d'fils de putes Ça joue d'la flûte, ils t'salissent ta réput', que des histoires de stup' Élevé à la dure, baffes et coups d'ceinture, maman m'a dit Traîne pas trop dehors quand arrive la pleine lune Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Et au quartier, y a rien qui a changé, hiver comme été À part les p'tits, ils ont arrêté l'foot pour aller guetter Matrixé, ça marche calibré, shit, feuilles à rouler À l'heure qu'il est, Nassim et Djadjo se sont fait péter J'perds le cap des fois quand je navigue, mon esprit chavire Les nerfs à vif, la fumée est nocive, la puta elle aussi Le Diable chuchote cette mélodie J'ai grillé l'stop mais putain, j'ai pété l'Audi, merde Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen On sera jamais comme eux, on fait ça henen Deux milliards de vues, ma mère a peur de l'il Je leur souris mais gentil n'a qu'un il On sera jamais comme eux, on fait ça henen, on fait ça henen Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire croire, croire J'veux ma kichta et ma mifa près de moi Tout c'que j'ai vu dans ma life, t'en dormirais pas la night Yeah, tout c'que j'ai vu dans ma life, t'en dormirais pas la night On refait le monde dans la gov' gov' Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi Et j'suis calé dans la gari, j'pense à toi J'suis sous la lune, j'm'enfume, j'allume les pleins phares Elle me dit que j'suis le plus beau, j'veux la croire J'veux ma kichta et ma mifa près de moi</t>
+          <t>Elle a trouvé la gadji Mon tel au milieu du linge Hey, je memboucane j'suis toujours sous l'effet de la bringue J'ai beaucoup de choses en tête ma chérie adoré Le mal que je cause pour te saper désolé J'suis pas ton gadjo ouh J'sors d'une blessure comme Pajot ouh Doucement faut pas s'affoler lalala En quête, en course de plein de choses paw, paw Moi la zone, je la quitte, j'ai trop zoné Le 7.5 et le 13 c'est la son-mai Dans la poche tout le blé que j'ai semé Ma chérie devant toi t'as le illeur-mé Follow me leggo J'sors le gamos, baby let's go Devant son corps, je perds mes mots Et j'ai perdu ma langue devant la popo Pull up on est beaucoup, feu sur la capitale C'est le S, c'est Marseille, c'est ris-Pa Dans la calle comme des rital Tout est bon, tout est véritable Debout on fait la re-gué, sappé on va pas rentrer Ça part en couilles et personne pour séparer Tchiki Tchikita, j'ai ma Tchiki Tchikita J'ai la plus belle, je minquiète pas Que faire sans toi, je sais pas Que les best, les target, qui peut me stopper Kishta sur moi, je vais tout dépenser On arrive dans la boite, tu vois que des pyramides On t'a dis met la gomme, t'as répondu j'fais ma vie Maintenant c'est qui qui tape My negga c'est qui qui frappe Tout les rageux qui nous parlent, m'en bat lec' de leur avis Les canner, je n'ai plus le choix Donc je continue je vais tout droit Viens toucher la frappe qui te foudroie Ça sent la genja dans le couloir RS4 ils finissent stunt On s'en va salir mes chaussettes vrunk Finir la Polia' jusqu'à j'suis drunk Bébé a rallumé son blunt Des kilos, des tonnes et des kishta Qui tombent juste au son de la guitare Baby, le biff m'appelle Baby, maybe après je t'appelle, maybe Sachet bien dans mon jean Versace sur ma bitch A Paris j'suis le prince de la ville Aquarium gelato dans la Jeep Le pull de ma go est rempli de la thune Pas de soutien gorge, y'a que sa poitrine Ses tétons pointent comme la patrie Si elle me dit bébé sur le parking J'la técla direct, j'suis fais d'or et de platine J'suis dans l'auto j'suis dans l'auto Sur la moto sur la moto Les keufs sont relou les keufs sont relou Ils veulent des photos ils prennent des photos Yeah, Jok'air, y'a de la drogue, de l'alcool et des grosses keh Je laisse ces salopes jouer les gangster De Marseille à Paname ça vient du 13 Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Mademoiselle faut qu'on s'attrape Mais je vois c'est le Black Jack Chou chou reste tranquille J'suis dans la fast life La guerre en prime time Chargeur extensible On a retenu son snap On a retenu sa carte Ça parait trop facile Khapta en by night Une gari dans la Mannschaft Prévient les âmes sensibles Wigi, wigi, elle me dit que ce soir elle veut wigi Pété, pété, sous Mathu de boubou en féfé Prada violet Rolex volée Poto, j'suis frais comme un gratteur du CV Aller j't'emène dans la fusée Parle a ta minch faudra pas nous accuser Bébé j'arrive en Aventador, ouverture papillon Je veux qu'on fasse un tour juste avant que tu dormes Ce soir t'es ma Cendrillon Dis moi ce que tu veux, j'achète Gucci Chanel et depuis je ne suis plus salarié C'est moi qui distribue les payes Wesh, le J c'est comment dans le 13 J'arrive avec l'équipe du PSG J'suis pas Messi mais j'ai la barraca Deux-cent mille et je suis millionnaire J'ai coupé, j'ai visser Détaillé dans le block Mais depuis c'est trop bon la vie d'artiste Dès le matin je me fait lahssa par une timp' Et c'est jamais la même sa mère Des hauts, des bas, des fois c'est pas facile Mais c'est rien c'est la vie On se tape des barres, y'a la Skoda de l'état Ils font les macs quand ils baissent la vitre Grosse équipe dans le classe A En survêt en place Oh t'es bella ragazza Une balle ça vaut pas un hassa Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir T'es en buvette mon sancho laisse moi piloter Tu veux que je t'aide mais toi tu m'aide pas, tu es culotté Je me mélange pas, j'reste tout seul comme Salvataro et Conte Ma vie c'est un film j'ai plein de choses à raconter Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Un million de soucis, une grosse kishta sous le coussin Entre nous pas de jalousie, on est tous frères ou cousins Ouais j'ai trop zoné, j'ai trop donné Trop déconné, trop niah T façon j'suis solide, j'suis dans le bolide sur la côte vers Marbella Dans la quartier je tournais comme un fou Ouais je pilote comme un fou La cité, m'a incité, mamacita faut plein de sous T'expliques et c'est compliqué Les petits dans l'block sont plein de Tropico Dans les affaires tous impliqué Les condés te mettent à cause de ton bigo Lélé lélé lélé lélé Tu fais du muay- thai on s'en bat lélélé Lélé lélé lélé lélé Rafale de guitare je fais danser le malélé Champagne ça fait tchin, tchin, tchin Dans l'Aventador Les bijoux font gling, gling, gling J'suis devant ta porte On prendra la moto Amour commandité Gros salam dans l'trafic Bébé à peur a cause de la vitesse Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Elle veut quitter la zone avec un homme qui fait la diff' Cette go est chargée, elle pense qu'a faire du biff Pour la pilo, faut piloter Maserati Ah, t'inquiète pas, je ferais la diff J'veux pas finir solo solo solo solo Solo solo solo solo J'vais quitter le bendo bendo bendo bendo Bendo bendo bendo bendo J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau, bateau Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Number One</t>
+          <t>On est là !</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Oh mamacita, t'es ma number one Quoi qu'il arrive, t'es ma number one J't'ai vu arriver comme un tsunami, yeah Depuis, tu n'fais qu'éclairer toutes mes nuits Toute ma vie, j'ai été incompris, ah, ah, ah, ah T'es venue soigner toutes mes insomnies Quand j't'ai connu, j'avais pas un, je me sentais mal aimé Pour un oui, pour un non, j'étais tout l'temps mal luné J'voulais tout oublier, je pensais qu'à m'allumer Grâce à toi, mi amor, j'ai réappris à aimer oh, oh, oh T'as été ma boussole quand j'savais plus où aller J'ai ouvert les yeux, j'ai vu les étoiles s'aligner Tu m'as donné deux anges, liés pour l'éternité Grâce à toi, mi amor, j'ai réappris à aimer Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es mon hirondelle, mon bébé eh, eh Je suis bien dans tes bras, il n'y a que toi qui peut m'aider oh, oh, oh, oh Je vais prendre les devants, y a que pour toi que j'ai cédé eh, eh Chérie à moi, sois près de moi, mon cur s'arrête eh, eh Broliques pour les gues-din gues-din, eh Ceux qui feront les malins ah, ah T'inquiète, je gère les manettes, je protège ton corps un peu comme Cody comme Cody Mon hirondelle, mon hirondelle, oui, tu noies mes peines, oui, tu noies mes peines ah, pah, pah, pah, pah Oh mamacita, t'es ma number one number one, yeah Quoi qu'il arrive, t'es ma number one number one, ouais, number one Oh mamacita, t'es ma number one ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one ah, pah, pah, pah, pah Oh mamacita, t'es ma number one, yeah Quoi qu'il arrive, t'es ma number one oh, oh, oh Oh mamacita, t'es ma number one, ah, ah, ah, ah Quoi qu'il arrive, t'es ma number one T'es ma number one ah, ah, ah, ah Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui T'es ma number one, number one Jusqu'au bout du monde, suis-moi Jusqu'au bout du monde, oui1</t>
+          <t>Et c'est un mec de plus qui pose, boum boum, c'est pour les frères Si tu as le sang chaud, lève ton bras en l'air C'est pour tous ces jeunes, dans ta caisse ou dans ta geôle Baisse ta vitre embuée, coco, et t'arrête pas de suer Oh là ! Ça rêve de grosses caisses, grosses fesses Trop se plaisent à ça, mec, fais péter la zarga Le phone sonne c'est A.L.O.N, ramène les gars de La Savine si y a la panique sur le Hé yo, classique, c'est ma zique, c'est magique , si t'as pas le délire, vite, vire de là Trop de merdes, là, tous bourrés, lève ton bras Tous leurrés par l'État, kho, j'ai mon Beretta, wow C'est chaud comme au Sahara, welcome ! 24 carats sur le thorax, c'est de la race Même si on a le blues mais c'est pas grave Les économies dans les shoes, on n'est pas des losers Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Grosse caisse, bon son, Mercedes Laisse tourner, tous mes gars tenus en laisse, hein hein Prennent leur pied, rouler à 200, vroum vroum Ça mérite un coup de zoom, prépare les paquets de chtoune Ok, mec, mets le son, j'ai le flow, quoi tu as swingué ? Moi, j'fais péter les blocks-starting Y a de la sape dans les stands, y a les s'habs qui attendent C'est l'Algérino sur bande ! J'suis pas laxiste, passe à l'action La vie, mon assise, et j'suis là que pour la lessive Mets la en sourdine, t'es sourd, dis ? Laisse-toi bercer par le son, j'ai le flow qui assassine Lassé par cette vie, lâcher, c'est pas le moment Cracher le feu, j'en ai le penchant, même si moche est mon faciès Vois ce que j'amoche, ce que j'amorce Se lit dans ta ganache, j'lie ceux qu'ont le panache Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Rapper fort, vrai, c'est mon hobby Tendance à oublier d'où notre zique sort Envoie le son que j'le tords illico speed 1 sur ton BM ou ton hélico, 2, clic clac pour ma clique, kiffe ça Un bic, un mic, un mix à la hauteur DJ, fais péter ce putain de cross-fader, on fera aucune faveur Chic chic, loin d'être BCBG Baissez les bras, taisez-vous tous, écoutez, stop ! Allez, allume le poste on est là !, dans ta tire on est là ! J'vois déjà les CBR s'élever comme ma voix Marseille sous les projecteurs, ça résonne jusqu'à Paname Tchatcheur sans état d'âme et la guitare gronde Le son des fêtards, de la bourgeoise convoitée par le smicard De celui qui est sobre à celui qui se tue au Ricard Lève lève lève lève ton bras, lève, vaffanculo C'est l'Algérino, vado culo culo Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah !</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Oh mon papa</t>
+          <t>On naît, on vit, on meurt</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ta-ta-ta-ta Ta-la-ta-ta-ta Le silence est d'or et on trouve plus les mots Dehors, il pleut des cordes comme il pleut des textos J't'le dis pas souvent, ma fille, mais je t'aime trop Du mal à m'exprimer, parfois, j'ai pas les mots C'est fou comme t'as grandi, j'ai pas vu le temps passer Ton regard plein de larmes se noie dans les regrets J'suis peut-être pas le père que t'attendais Mais j'te jure sur ma vie, ma fille, que j'vais changer C'est que des paroles, oui, que des paroles J'irai t'chercher à l'école, je te donne ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Maman, j'vais la surprendre, j'vais sortir le grand jeu Dis-lui d'me pardonner, j'ai trop été orgueilleux Tu sais, ta mère, je l'aime même si j'lui dis pas tout l'temps C'est vrai qu'on s'prend la tête, j'ai fait des promesses dans l'vent Tu sais, les grands sont bêtes, ils font les sourds et muets J'ai été aveuglé et j'voyais pas qu'elle souffrait J'voudrais une dernière chance, si tu savais comme j'm'en veux La seule chose qui m'importe, c'est de te rendre heureuse C'est que des paroles des paroles, oui, que des paroles des paroles J'irai t'chercher à l'école t'chercher à l'école, je te donne ma parole ma parole Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Ma vie, j'te jure, j'suis plus le même J'suis tombé de haut, j'm'accroche à notre anneau Ma vie vie, j'te jure, j'suis plus le même j'suis plus le même J'suis tombé de haut j'suis tombé de haut, j'm'accroche à notre anneau ah Oh, mon papa, rentre à la maison T'es mon papa, mon papa à moi Oh, mon papa, rentre à la maison Ne l'écoute pas, fais semblant Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh</t>
+          <t>On naît... Tout l'monde sait qu'le commencement d'un gosse, c'est la naissance Émotion, puis arrive le challenge dune mère, la patience J'suis pas né de la somme des parents aux gènes ivres Jai pas de carte de séjour on ma juste délivré un permis pour survivre Enfant avance à reculons au-devant dune impasse J'veux un futur honnête sans éboueur, un futur sans crasse Des petits cons, elle est là la race jeunesse, points de suture Bonheur en structure enfant dla lune, alignés comme des traits de couture Comme vous dites Nous navons pas les mêmes valeurs Juste j'rêve davoir un futur comme pour dire qu'nous navons pas les mêmes malheurs Parce que dirait ma mère, e suis pas meilleur que les autres Chaque jour être, faut que j'sois meilleur moi-même Rêver, quoi de mieux ? Quoi dautre ? Quand j'vois quon mapporte Quand j'vois qulamour dla famille vaut plus chère qulaction dune dote On grandit à contrecur, véritable votre est notre honneur Code comme Rohff, bonheur que joffre cest mon existence que jétoffe On loue à la vie, à quand la fin du bail ? Jregrette, jai pas assez vu ma mère au travail Jai fait lplus dur sortir du ventre et eu la vie comme récompense Jai juste ma mère comme mur contre les balles qui dansent Mon rap est un psychiatre, ma rime une thérapie Je créé plus vite quil ne recopie, mon rap est leur utopie Jrésume la vie à ceux qui est entre les doigts et le poignet Ce que Eve a mangé, ce qui pousse mes frères au danger On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On vit... Enfants d'la lune, on vient d'là où y'a trop d'brume Là où la route est floue, là où lespoir se consume Là où la vie est sourde, là où les anges nont pas dplumes Là où on snourrit drancune, là où on ncraint les coups Faut sfaire une raison, on veut tous cque lon voit, cque les autres ont, cest c'quon convoite Faut pas quon rate le pouvoir La richesse quon voit, nous attise, parait-il que toutes ces choses éphémères Qui met leau à la bouche sappelle la vie Focalise ce bas monde, adopte une méthode, faut quceux den bas monte Ça balise, adapte tes potes, faut que nos gars montrent Quon a les couilles et la hargne, on rouille depuis Normal quon smouille à des cartes Caisse dÉpargne Ok, ok la vie est faux-cul, tu veux dgros paquets Mais demande à la sortie si tu te retrouves avec des taquets, tac Cque tu mérites quand tas cd'idée préconçue Moi aussi jessaye de vivre ma vie, sans oublier celle qui ma conçue Car cest conflit, man Donne la trousse et jpousse ma douce raison de ne pas être confus, man Cest vrai quc'est confus cquon fait, confie pas ça à tes mômes, man En somme, on sommeille en attendant le réveil de glace, man Vise la dégaine vicelarde des mômes qui vivent lart de la rue Qui font les sujets de discussions des Jean-Luc Delarue De 0 à 15, de 15 à 25, toujours les mêmes dingues Toujours les mêmes flingues, toujours les mêmes scènes On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On meurt... À force dy croire fort comme le béton, jy suis resté Contrairement à tous les objectifs fixés, non détectés Bête, cest peut-être que lasphalte, ma terre, ou lorgueil mattire Sinvestir dans une conduite non respectée, khnet, mec, être Je cherchais pas une clairière ni le mur derrière, la condition dernière Jai la sécurité pour offre demploi, la cloque pour job La pute pour femme, cétait écrit 3.9.45 dans lhoroscope En trop, chauffe ça comme un fléau quand ça part en couille En 55, y a aucune exception, fait cquon nous colporte Sur mon sort jflippe, veux men sortir, les proches compris Mettre un pied devant lautre, de faits et actes A notre âge, nos cicatrices sont des rides Sur nos rétines des vies tristes se lisent, se brisent Nos rêves de donner des RIB aux prises Des regrets de navoir rien fait de nos vies À quoi on sconfie ? Drogue, alcool, tournée des filles Tous nos défis on fait quau block on est des loques Mince ou mastoc, tous des pantins sans ventriloque Une grosse fierté peut-être Mais à mon âge, faut qujarrête dfaire vibrer lcur dma mère Derrière cette fenêtre Jai promis un royaume où elle y serait la reine Mais ltaureau qujsuis voit rouge car la vie une arène Où toutes les promesses mont poignardées ldos Vie gâchée à force de baver sur cette Merco qua un A au dos On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>On a trop charbonné</t>
+          <t>On va où</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Elle a trouvé la gadji Mon tel au milieu du linge Hey, je memboucane j'suis toujours sous l'effet de la bringue J'ai beaucoup de choses en tête ma chérie adoré Le mal que je cause pour te saper désolé J'suis pas ton gadjo ouh J'sors d'une blessure comme Pajot ouh Doucement faut pas s'affoler lalala En quête, en course de plein de choses paw, paw Moi la zone, je la quitte, j'ai trop zoné Le 7.5 et le 13 c'est la son-mai Dans la poche tout le blé que j'ai semé Ma chérie devant toi t'as le illeur-mé Follow me leggo J'sors le gamos, baby let's go Devant son corps, je perds mes mots Et j'ai perdu ma langue devant la popo Pull up on est beaucoup, feu sur la capitale C'est le S, c'est Marseille, c'est ris-Pa Dans la calle comme des rital Tout est bon, tout est véritable Debout on fait la re-gué, sappé on va pas rentrer Ça part en couilles et personne pour séparer Tchiki Tchikita, j'ai ma Tchiki Tchikita J'ai la plus belle, je minquiète pas Que faire sans toi, je sais pas Que les best, les target, qui peut me stopper Kishta sur moi, je vais tout dépenser On arrive dans la boite, tu vois que des pyramides On t'a dis met la gomme, t'as répondu j'fais ma vie Maintenant c'est qui qui tape My negga c'est qui qui frappe Tout les rageux qui nous parlent, m'en bat lec' de leur avis Les canner, je n'ai plus le choix Donc je continue je vais tout droit Viens toucher la frappe qui te foudroie Ça sent la genja dans le couloir RS4 ils finissent stunt On s'en va salir mes chaussettes vrunk Finir la Polia' jusqu'à j'suis drunk Bébé a rallumé son blunt Des kilos, des tonnes et des kishta Qui tombent juste au son de la guitare Baby, le biff m'appelle Baby, maybe après je t'appelle, maybe Sachet bien dans mon jean Versace sur ma bitch A Paris j'suis le prince de la ville Aquarium gelato dans la Jeep Le pull de ma go est rempli de la thune Pas de soutien gorge, y'a que sa poitrine Ses tétons pointent comme la patrie Si elle me dit bébé sur le parking J'la técla direct, j'suis fais d'or et de platine J'suis dans l'auto j'suis dans l'auto Sur la moto sur la moto Les keufs sont relou les keufs sont relou Ils veulent des photos ils prennent des photos Yeah, Jok'air, y'a de la drogue, de l'alcool et des grosses keh Je laisse ces salopes jouer les gangster De Marseille à Paname ça vient du 13 Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Mademoiselle faut qu'on s'attrape Mais je vois c'est le Black Jack Chou chou reste tranquille J'suis dans la fast life La guerre en prime time Chargeur extensible On a retenu son snap On a retenu sa carte Ça parait trop facile Khapta en by night Une gari dans la Mannschaft Prévient les âmes sensibles Wigi, wigi, elle me dit que ce soir elle veut wigi Pété, pété, sous Mathu de boubou en féfé Prada violet Rolex volée Poto, j'suis frais comme un gratteur du CV Aller j't'emène dans la fusée Parle a ta minch faudra pas nous accuser Bébé j'arrive en Aventador, ouverture papillon Je veux qu'on fasse un tour juste avant que tu dormes Ce soir t'es ma Cendrillon Dis moi ce que tu veux, j'achète Gucci Chanel et depuis je ne suis plus salarié C'est moi qui distribue les payes Wesh, le J c'est comment dans le 13 J'arrive avec l'équipe du PSG J'suis pas Messi mais j'ai la barraca Deux-cent mille et je suis millionnaire J'ai coupé, j'ai visser Détaillé dans le block Mais depuis c'est trop bon la vie d'artiste Dès le matin je me fait lahssa par une timp' Et c'est jamais la même sa mère Des hauts, des bas, des fois c'est pas facile Mais c'est rien c'est la vie On se tape des barres, y'a la Skoda de l'état Ils font les macs quand ils baissent la vitre Grosse équipe dans le classe A En survêt en place Oh t'es bella ragazza Une balle ça vaut pas un hassa Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir Parfum Cartier, je m'habille quartier Elle avait trop faim mais j'ai du partir T'es en buvette mon sancho laisse moi piloter Tu veux que je t'aide mais toi tu m'aide pas, tu es culotté Je me mélange pas, j'reste tout seul comme Salvataro et Conte Ma vie c'est un film j'ai plein de choses à raconter Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Un million de soucis, une grosse kishta sous le coussin Entre nous pas de jalousie, on est tous frères ou cousins Ouais j'ai trop zoné, j'ai trop donné Trop déconné, trop niah T façon j'suis solide, j'suis dans le bolide sur la côte vers Marbella Dans la quartier je tournais comme un fou Ouais je pilote comme un fou La cité, m'a incité, mamacita faut plein de sous T'expliques et c'est compliqué Les petits dans l'block sont plein de Tropico Dans les affaires tous impliqué Les condés te mettent à cause de ton bigo Lélé lélé lélé lélé Tu fais du muay- thai on s'en bat lélélé Lélé lélé lélé lélé Rafale de guitare je fais danser le malélé Champagne ça fait tchin, tchin, tchin Dans l'Aventador Les bijoux font gling, gling, gling J'suis devant ta porte On prendra la moto Amour commandité Gros salam dans l'trafic Bébé à peur a cause de la vitesse Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Ah toute la nuit sur le sofa A deux doigts de te faire des enfants Toute la nuit sur le sofa A deux doigts d'lui faire des enfants Elle veut quitter la zone avec un homme qui fait la diff' Cette go est chargée, elle pense qu'a faire du biff Pour la pilo, faut piloter Maserati Ah, t'inquiète pas, je ferais la diff J'veux pas finir solo solo solo solo Solo solo solo solo J'vais quitter le bendo bendo bendo bendo Bendo bendo bendo bendo J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau J'ai le permis bateau Bouteille de scotch ??? J'vais le dévorer comme un gâteau Ça a dérapé dans le bateau, bateau Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné Donne nous juste notre money yeah On a trop charbonné</t>
+          <t>L'Algé', Ju-Ju-JuL Ah, ah, ah On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là J'suis dans l'club, j'fais l'hama, ouais, j'fais l'hama Full Dolce Gabbana, ouais, j'fais l'hama Elle m'a vu, elle a louché, pourtant, dans l'club, j'étais capuché Les p'tits du quartier galèrent, j'leur laisse les clés de la féfé Encore un pote dans la merde ouais, plaisir sans galère ouais, ouais J'fais que ça toute la soirée, les mains dans les affaires ouais, ouais, ouais On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là Ce soir, j'suis dans le game, poto, ce soir, j'suis le binks ouh Gros popo dans la benz, poto, en plein son dans la genz ouh Et j'fume la moulagalaga, et j'ai toujours la dalle, la dalle J'donne mon amour amour à ma nana et j'ferais tout pour ma mama Ce soir, j'ai pris la route sous 50 de Bernex Habillé en DP, j'sens le Terre d'Hermès Fais gaffe, la rue c'est chaud, des fois, le ter-ter blesse Et quand l'inspecteur passe, bah je reste perplexe La, la, la, la, la Avec L'Algé', ce soir, on fait la mala La, la, la, la, la Tu nous cherches, ce soir, on est pas là On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>On est là !</t>
+          <t>Parce qu’on y croit</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Et c'est un mec de plus qui pose, boum boum, c'est pour les frères Si tu as le sang chaud, lève ton bras en l'air C'est pour tous ces jeunes, dans ta caisse ou dans ta geôle Baisse ta vitre embuée, coco, et t'arrête pas de suer Oh là ! Ça rêve de grosses caisses, grosses fesses Trop se plaisent à ça, mec, fais péter la zarga Le phone sonne c'est A.L.O.N, ramène les gars de La Savine si y a la panique sur le Hé yo, classique, c'est ma zique, c'est magique , si t'as pas le délire, vite, vire de là Trop de merdes, là, tous bourrés, lève ton bras Tous leurrés par l'État, kho, j'ai mon Beretta, wow C'est chaud comme au Sahara, welcome ! 24 carats sur le thorax, c'est de la race Même si on a le blues mais c'est pas grave Les économies dans les shoes, on n'est pas des losers Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Grosse caisse, bon son, Mercedes Laisse tourner, tous mes gars tenus en laisse, hein hein Prennent leur pied, rouler à 200, vroum vroum Ça mérite un coup de zoom, prépare les paquets de chtoune Ok, mec, mets le son, j'ai le flow, quoi tu as swingué ? Moi, j'fais péter les blocks-starting Y a de la sape dans les stands, y a les s'habs qui attendent C'est l'Algérino sur bande ! J'suis pas laxiste, passe à l'action La vie, mon assise, et j'suis là que pour la lessive Mets la en sourdine, t'es sourd, dis ? Laisse-toi bercer par le son, j'ai le flow qui assassine Lassé par cette vie, lâcher, c'est pas le moment Cracher le feu, j'en ai le penchant, même si moche est mon faciès Vois ce que j'amoche, ce que j'amorce Se lit dans ta ganache, j'lie ceux qu'ont le panache Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah ! Rapper fort, vrai, c'est mon hobby Tendance à oublier d'où notre zique sort Envoie le son que j'le tords illico speed 1 sur ton BM ou ton hélico, 2, clic clac pour ma clique, kiffe ça Un bic, un mic, un mix à la hauteur DJ, fais péter ce putain de cross-fader, on fera aucune faveur Chic chic, loin d'être BCBG Baissez les bras, taisez-vous tous, écoutez, stop ! Allez, allume le poste on est là !, dans ta tire on est là ! J'vois déjà les CBR s'élever comme ma voix Marseille sous les projecteurs, ça résonne jusqu'à Paname Tchatcheur sans état d'âme et la guitare gronde Le son des fêtards, de la bourgeoise convoitée par le smicard De celui qui est sobre à celui qui se tue au Ricard Lève lève lève lève ton bras, lève, vaffanculo C'est l'Algérino, vado culo culo Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Salle comble, on est là ! Veste Schott, on est là ! Tire en l'air, on est là ! Woah, vas-y, on est là ! Si tu as les crocs, lève ton bras, si tu as le blues, prends mes mots Si tu as le sang chaud, vas-y, on est chaud Marseille, on est là ! Pour les blocs, on est là ! Pour les kho, on est là ! Woah, vas-y, on est là, woah !</t>
+          <t>Ce serait prétentieux de dire qu'on sème l'espoir Ce à quoi chacun d'nous aspire Que l'homme soit digne de l'oxygène qu'il respire Malgré c'qui s'passe autour d'nous, on agit L'espoir un fleuve que les gens veulent tarir Si j'avais écouté l'chant doux des sirènes, j'serais pas là Sûrement sur une chaise, fonctionnaire dans un bureau J'en serais malade À porter le courrier dans les étags Mais l'histoire dit que l'papillon meurt nfermé en cage Accroché à mes rêves, trop d'mal à coller à tes règles Mes heures passées à stresser, adossé à des braises Fatalement les murs s'écroulent comme à Troie Qui parle de baisser les bras? Ça fait un bail qu'on y croit Parce que la rue nous facilite pas, lève ton putain d'bras On garde le sourire, même timide, on lâche pas please Droit dans nos choix vise Sûrs de nous même s'ils nous contredisent Faut qu'on s'batte, quoi qu'tu dises, quoi qu'tu fasses Quoi qu'il s'passe Parce que même les verres les plus solides se cassent Le mental solide, j'en profite, j'ai mis mon casque Parce que tout va trop vite Qu'on peut tout gâcher en un instant Parce que l'être humain est trop stupide Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé J'en veux au monde comme un rescapé des camps d'la mort à Auschwitz Qui voit ses économies s'faire racketter par une banque suisse Vois, on nous manipule, depuis l'époque on dort Faut qu'on s'révolte mais rares sont les hommes qui portent des testicules On sème mais on récolte peu Peut-être le manque de conviction Le travail faut qu'on l'fasse, tu peux toujours attendre la coalition La jeunesse dans tous ses états Dédié à ceux qu'ont oublié qu'les Arabes et les Noirs ont délivré la Corse Mais on reste frères même dans la discorde Message de paix d'un p'tit gamin qu'est rentré par la p'tite porte En évitant les miradors, une balle dans le bras droit Les jeunes sont des taureaux blessés, la France est le matador Ça fait un bail qu'on y croit fort, on court après c'qui nous échappe La France un casino, les croupiers ont truqué les cartes Vois comme on nous rabaisse On a beau flamber en Merco, on sera toujours en bas d'l'échelle tant qu'on se remuera pas l'derche Depuis l'époque on vogue, mate, on chavire Dur de garder l'cap quand tu vois la misère qui gravite Décor dans la merde, HLM au bord de la mer Nique sa mère, plus rien à foutre, on tentera tout vu qu'ça merde Une touche d'espoir derrière le calibre Les yeux braqués vers le ciel, on braquera tant qu'on se sent pas libre Messieurs les jurés, j'suis innocent J'crois pas en cette assise Mon sort sera scellé le jour du jugement On nous fait croire qu'on est d'la merde sans cervelle Qu'nos parents ramassaient la merde et qu'on fera pareil Dédié à tous les éboueurs d'Paris à Marseille Y a pas d'sous-métier pour ceux qui vivent en dessous d'la moyenne Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé La fausse gauche nous bassine avec leur Black Blanc Beur Nous on file droit dans la lignée des Black Panthers Intelligents et secs, taxés d'Antéchrist Direct à la crise, Mexico 70 Voix éraillées, teints glabres Entends, c'est du blues moderne Nos cris d'rage que ces looses modèrent Donne c'mic, c'est mon sabre, le tonnerre Une pierre deux coups, bâillonne tous ces fachos et ces commères Les tapes et les concerts, nos armes dissuasives Mais la soif de fric, la soif de gloire est bien plus persuasive Télévision lascive, dans ton yomp' tu t'lèves Avec des armes de destruction massive Face à ça, notre histoire se brade Les mômes matent et complexés, rêvent d'être Jennifer et Brad Une culture sans envergure, à trop mater l'cul des autres Faut être sûr De pouvoir laver sa figure Parce qu'on a perdu nos valeurs et tu en dis quoi Parce que l'on cultive trop de rancur et qu'est-ce tu crois Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>On naît, on vit, on meurt</t>
+          <t>Pas là pour leur plaire</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>On naît... Tout l'monde sait qu'le commencement d'un gosse, c'est la naissance Émotion, puis arrive le challenge dune mère, la patience J'suis pas né de la somme des parents aux gènes ivres Jai pas de carte de séjour on ma juste délivré un permis pour survivre Enfant avance à reculons au-devant dune impasse J'veux un futur honnête sans éboueur, un futur sans crasse Des petits cons, elle est là la race jeunesse, points de suture Bonheur en structure enfant dla lune, alignés comme des traits de couture Comme vous dites Nous navons pas les mêmes valeurs Juste j'rêve davoir un futur comme pour dire qu'nous navons pas les mêmes malheurs Parce que dirait ma mère, e suis pas meilleur que les autres Chaque jour être, faut que j'sois meilleur moi-même Rêver, quoi de mieux ? Quoi dautre ? Quand j'vois quon mapporte Quand j'vois qulamour dla famille vaut plus chère qulaction dune dote On grandit à contrecur, véritable votre est notre honneur Code comme Rohff, bonheur que joffre cest mon existence que jétoffe On loue à la vie, à quand la fin du bail ? Jregrette, jai pas assez vu ma mère au travail Jai fait lplus dur sortir du ventre et eu la vie comme récompense Jai juste ma mère comme mur contre les balles qui dansent Mon rap est un psychiatre, ma rime une thérapie Je créé plus vite quil ne recopie, mon rap est leur utopie Jrésume la vie à ceux qui est entre les doigts et le poignet Ce que Eve a mangé, ce qui pousse mes frères au danger On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On vit... Enfants d'la lune, on vient d'là où y'a trop d'brume Là où la route est floue, là où lespoir se consume Là où la vie est sourde, là où les anges nont pas dplumes Là où on snourrit drancune, là où on ncraint les coups Faut sfaire une raison, on veut tous cque lon voit, cque les autres ont, cest c'quon convoite Faut pas quon rate le pouvoir La richesse quon voit, nous attise, parait-il que toutes ces choses éphémères Qui met leau à la bouche sappelle la vie Focalise ce bas monde, adopte une méthode, faut quceux den bas monte Ça balise, adapte tes potes, faut que nos gars montrent Quon a les couilles et la hargne, on rouille depuis Normal quon smouille à des cartes Caisse dÉpargne Ok, ok la vie est faux-cul, tu veux dgros paquets Mais demande à la sortie si tu te retrouves avec des taquets, tac Cque tu mérites quand tas cd'idée préconçue Moi aussi jessaye de vivre ma vie, sans oublier celle qui ma conçue Car cest conflit, man Donne la trousse et jpousse ma douce raison de ne pas être confus, man Cest vrai quc'est confus cquon fait, confie pas ça à tes mômes, man En somme, on sommeille en attendant le réveil de glace, man Vise la dégaine vicelarde des mômes qui vivent lart de la rue Qui font les sujets de discussions des Jean-Luc Delarue De 0 à 15, de 15 à 25, toujours les mêmes dingues Toujours les mêmes flingues, toujours les mêmes scènes On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On meurt... À force dy croire fort comme le béton, jy suis resté Contrairement à tous les objectifs fixés, non détectés Bête, cest peut-être que lasphalte, ma terre, ou lorgueil mattire Sinvestir dans une conduite non respectée, khnet, mec, être Je cherchais pas une clairière ni le mur derrière, la condition dernière Jai la sécurité pour offre demploi, la cloque pour job La pute pour femme, cétait écrit 3.9.45 dans lhoroscope En trop, chauffe ça comme un fléau quand ça part en couille En 55, y a aucune exception, fait cquon nous colporte Sur mon sort jflippe, veux men sortir, les proches compris Mettre un pied devant lautre, de faits et actes A notre âge, nos cicatrices sont des rides Sur nos rétines des vies tristes se lisent, se brisent Nos rêves de donner des RIB aux prises Des regrets de navoir rien fait de nos vies À quoi on sconfie ? Drogue, alcool, tournée des filles Tous nos défis on fait quau block on est des loques Mince ou mastoc, tous des pantins sans ventriloque Une grosse fierté peut-être Mais à mon âge, faut qujarrête dfaire vibrer lcur dma mère Derrière cette fenêtre Jai promis un royaume où elle y serait la reine Mais ltaureau qujsuis voit rouge car la vie une arène Où toutes les promesses mont poignardées ldos Vie gâchée à force de baver sur cette Merco qua un A au dos On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure On naît, on vit, on meurt, sans doute les épreuves de la vie Ravi par certaines choses, déçu par dautres, on scontente de la vivre On scontente de la voir défiler, cest sûr Comme un beau mannequin quon tente de saccaparer à lusure</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>On va où</t>
+          <t>Petit Bateau</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L'Algé', Ju-Ju-JuL Ah, ah, ah On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là J'suis dans l'club, j'fais l'hama, ouais, j'fais l'hama Full Dolce Gabbana, ouais, j'fais l'hama Elle m'a vu, elle a louché, pourtant, dans l'club, j'étais capuché Les p'tits du quartier galèrent, j'leur laisse les clés de la féfé Encore un pote dans la merde ouais, plaisir sans galère ouais, ouais J'fais que ça toute la soirée, les mains dans les affaires ouais, ouais, ouais On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là Ce soir, j'suis dans le game, poto, ce soir, j'suis le binks ouh Gros popo dans la benz, poto, en plein son dans la genz ouh Et j'fume la moulagalaga, et j'ai toujours la dalle, la dalle J'donne mon amour amour à ma nana et j'ferais tout pour ma mama Ce soir, j'ai pris la route sous 50 de Bernex Habillé en DP, j'sens le Terre d'Hermès Fais gaffe, la rue c'est chaud, des fois, le ter-ter blesse Et quand l'inspecteur passe, bah je reste perplexe La, la, la, la, la Avec L'Algé', ce soir, on fait la mala La, la, la, la, la Tu nous cherches, ce soir, on est pas là On va où ? Là-bas, on vient faire la mala, ouais On va où ? Là-bas, fais gaffe à ta nana, ouais On va où ? Là-bas, j'fume la frappe de Meuda, ouais On va où ? Là-bas, on est des gros hamas, yeah La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là La, la, la, la, la J'suis dans un dél', j'me mets khapta, la, la, la, la Que tu tmenik de là à là, la, la, la Et la choupette aime la mala, la, la, la Faut qu'on s'taille de là</t>
+          <t>Ils ont pourri le monde fait en sorte que l'homme se dégrade Le temps s'écoule et l'homme s'écroule il devient de plus en plus con Ils n'ont plus de valeurs, les principes sont dans un tiroir Ils jurent que par l'argent et c'est la seule chose qui régit le monde Pourrissent les mômes avec leur discours à la con J'ai peur à l'idée qu'ils mangent leurs salades en même temps que les informations Ils ont pourri la Terre, les déchets toxiques, l'effet de serre On en a rien a foutre ça touchera les futures générations Ils redessinent le monde, des peuples déchirés pour des frontières C'était des anciennes colonisations Ils ont pillé l'Afrique, berceau de l'humanité Et quand y a génocide, c'est pas grave on n'est pas concerné Ils insultent les femmes, les prennent à coup de pierres C'est pas l'islam je vous rassure et là vous parle en tant que frère Foudroyés par l'ignorance homme du monde Ouvrons nos curs, acceptons-nous malgré nos différences On a perdu nos valeurs, un simple sourire peut changer la vie d'une personne que l'on croise On se tue à regarder nos défauts, nos qualités dans un cachot, on n'en sort que l'ego J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte Ils ont pourri l'espoir, ils ont noirci nos curs, on néglige nos amis nos frères On en prend conscience que lorsqu'on les perd On prend conscience de l'amour qu'on porte pour une personne que lorsqu'on la perd Profitons de nos pères, nos mères Ils nous aveuglent avec leur matériel, on oublie que tout est éphémère qu'on emportera rien avec nous sous terre Moi-même ils m'ont pourri je m'égare, le fric, les gros cigares, j'ai peur je m'écarte du vrai chemin J'ai peur Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Est-ce cela le prix à payer pour la paix ? On sera jugés pour notre passivité Films pornos, corps déchiquetés aux infos on a poussé notre voyeurisme et c'est sans se soucier de l'excès Ils parlent de voile comme soumission, que dire de ces pauvres femmes à poil objetisées à la télévision Elles méritent le respect mais se font marcher dessus, jeunes, vieux qui se masturbent devant Canal On était jeunes et cons, on le sera toujours d'ailleurs Que ceux qui n'ont jamais pêchés nous lancent leur première pierre Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Ils ont pillé l'Afrique, berceau de l'humanité et quand y a génocide c'est pas grave on est pas concerné Ils ont pourri la Terre, les déchets toxiques, l'effet de serre on en a rien a foutre ça touchera les futures générations Ils redessinent la Terre, des peuples déchirés pour des frontières, mon frère, c'était des anciennes colonisations Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Mec je reprends mes marques Navigue sur les eaux, m'accrochant a ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte on tourbillonne</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parce qu’on y croit</t>
+          <t>Petit Sam</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ce serait prétentieux de dire qu'on sème l'espoir Ce à quoi chacun d'nous aspire Que l'homme soit digne de l'oxygène qu'il respire Malgré c'qui s'passe autour d'nous, on agit L'espoir un fleuve que les gens veulent tarir Si j'avais écouté l'chant doux des sirènes, j'serais pas là Sûrement sur une chaise, fonctionnaire dans un bureau J'en serais malade À porter le courrier dans les étags Mais l'histoire dit que l'papillon meurt nfermé en cage Accroché à mes rêves, trop d'mal à coller à tes règles Mes heures passées à stresser, adossé à des braises Fatalement les murs s'écroulent comme à Troie Qui parle de baisser les bras? Ça fait un bail qu'on y croit Parce que la rue nous facilite pas, lève ton putain d'bras On garde le sourire, même timide, on lâche pas please Droit dans nos choix vise Sûrs de nous même s'ils nous contredisent Faut qu'on s'batte, quoi qu'tu dises, quoi qu'tu fasses Quoi qu'il s'passe Parce que même les verres les plus solides se cassent Le mental solide, j'en profite, j'ai mis mon casque Parce que tout va trop vite Qu'on peut tout gâcher en un instant Parce que l'être humain est trop stupide Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé J'en veux au monde comme un rescapé des camps d'la mort à Auschwitz Qui voit ses économies s'faire racketter par une banque suisse Vois, on nous manipule, depuis l'époque on dort Faut qu'on s'révolte mais rares sont les hommes qui portent des testicules On sème mais on récolte peu Peut-être le manque de conviction Le travail faut qu'on l'fasse, tu peux toujours attendre la coalition La jeunesse dans tous ses états Dédié à ceux qu'ont oublié qu'les Arabes et les Noirs ont délivré la Corse Mais on reste frères même dans la discorde Message de paix d'un p'tit gamin qu'est rentré par la p'tite porte En évitant les miradors, une balle dans le bras droit Les jeunes sont des taureaux blessés, la France est le matador Ça fait un bail qu'on y croit fort, on court après c'qui nous échappe La France un casino, les croupiers ont truqué les cartes Vois comme on nous rabaisse On a beau flamber en Merco, on sera toujours en bas d'l'échelle tant qu'on se remuera pas l'derche Depuis l'époque on vogue, mate, on chavire Dur de garder l'cap quand tu vois la misère qui gravite Décor dans la merde, HLM au bord de la mer Nique sa mère, plus rien à foutre, on tentera tout vu qu'ça merde Une touche d'espoir derrière le calibre Les yeux braqués vers le ciel, on braquera tant qu'on se sent pas libre Messieurs les jurés, j'suis innocent J'crois pas en cette assise Mon sort sera scellé le jour du jugement On nous fait croire qu'on est d'la merde sans cervelle Qu'nos parents ramassaient la merde et qu'on fera pareil Dédié à tous les éboueurs d'Paris à Marseille Y a pas d'sous-métier pour ceux qui vivent en dessous d'la moyenne Parce qu'on a perdu nos valeurs Et tu en dis quoi? Parce que l'on cultive trop de rancur Et qu'est-ce tu crois? Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé La fausse gauche nous bassine avec leur Black Blanc Beur Nous on file droit dans la lignée des Black Panthers Intelligents et secs, taxés d'Antéchrist Direct à la crise, Mexico 70 Voix éraillées, teints glabres Entends, c'est du blues moderne Nos cris d'rage que ces looses modèrent Donne c'mic, c'est mon sabre, le tonnerre Une pierre deux coups, bâillonne tous ces fachos et ces commères Les tapes et les concerts, nos armes dissuasives Mais la soif de fric, la soif de gloire est bien plus persuasive Télévision lascive, dans ton yomp' tu t'lèves Avec des armes de destruction massive Face à ça, notre histoire se brade Les mômes matent et complexés, rêvent d'être Jennifer et Brad Une culture sans envergure, à trop mater l'cul des autres Faut être sûr De pouvoir laver sa figure Parce qu'on a perdu nos valeurs et tu en dis quoi Parce que l'on cultive trop de rancur et qu'est-ce tu crois Parce que gars le monde ne tourne pas ici et là J'pige pas pourquoi Tout l'monde reste figé</t>
+          <t>J'vais en cours avec la peur au ventre J'ai même pas fait mes devoirs Coupure de courant c'est dur d'réviser dans le noir Toujours un truc à me reprocher Quand je voit les contrôleurs Je stresse même quand j'ai mon ticket Des rêves pleins le cerveau j'me voit pilote de F1 On est 7 dans un D1, est ce que tu vois le topo Comme tous le monde je suis un footeux Fouteur de merde, fougueux J'avais peur de rien, sauf de mes parents et du bon Dieu Rien ne m'effraies J'traîne dans les rue des ma ville J'voit les grand qui dealent J'ai comprit que la rue c'est l'asile Moi j'veux m'en sortir M'acheter les dernières sapes J'fait du rap les grands me disent ne lâche pas p'tit Sam Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne J'traine les vêtements que j'avais mis la veille Petit dormeur j'trouve pas le sommeil L'école je m'en fou j'ai taillé toute la semaine Dans mon quartier j'entends le chant des sirènes J'suis perdu là-bas dans la brume J'ai même plus d'encre pour tremper ma plume Je cherche refuge en cherchant des thunes La route est longue pour décrocher la lune J'veux m'évader et prendre le large Les grands sont cons j'trouve qu'ils sont tous barges Laissez-moi vivre je croit en ma destinée Mon petit Sam il est l'heure d'aller se coucher Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne4</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pas là pour leur plaire</t>
+          <t>P-M</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>S.I.N.I.K 2007 L'Algérino Six-O-Nine Bah ouais Pendant qu'les Arabes et les Corses se font la guerre Bienvenue à Mars, on cessera jamais d'représenter la Terre mère Là où les gros voyous deviennent des agents Rackettent les joueurs d'foot, c'est ça ou une balle dans la jambe On te salue en arabe et on t'insulte en gitan L'atmosphère est mafieuse, on a grandi avec des Ritals, des Corses et des Gitans Mais quand ça s'corse y a qu'des Arabes et des Khels, dans les quartiers quand ça chauffe On a l'air de fainéants, mais doués dans le bizness On t'achète on te vend, on te pique avec notre accent Le soleil est écrasant, la tristesse sous les Rayban La jeunesse en détresse rêve de liasses en se rasant C'est la merde, HLM au bord d'la mer Les Harbis montent en puissance, concurrencent la brise de mer Niveau rap, ça rappe dans dans tout les sens Arabes, Blancs, Noirs, on nique la musique de France À Mars on s'en bat les couilles du crunk Du clash, de ton cash, ça fume de la skunk sur un son de funk Les courses au marché soleil, les daronnes et les p'tites surs Dans les mariages des cortèges de Q7 et de vipers Ça claque trente-mille euros, ça divorce dans la foulée Jeunes mariés-divorcés se font frotter au millet Nos pères en pèlerinage, la jeunesse perd ses repères Charmés par les Roumaines au jarret en plein tapinage La mère qui fait le ménage, le fils qui perd les méninges Millionnaire en euros qui touche le RMI et l'chômage Les frères qui font le rappel, barbu ex-braqueur Qui pige que le dîn ça paye plus que dêtre gratteur Marseille, les carters, les dealers, les dockers Dans les parties de cartes ça perd des villas au poker Marseille c'est Zidane et Berbachi Quand on gagne contre Paris, ça relance l'économie À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Bienvenue dans l'ombre C'est Paris rap de qualité, la guerre et la rivalité Nike Air, baggy Marithé Ambiance bad boys, alcool, flash-ball Fat Joe, hardcore, bastos, pactole Diplômé pour faire la banque en moto C'est pas Voici mais les voisins qui veulent nous prendre en photo Le tier-quar, la famille, les amis, l'Algérie On étouffe car on est tous des Samy Naceri, man On a le style, on est toujours au goût des femmes On met des wesh, des gros et des ma gueule au bout des phrases Enfants des barricades, y a ceux qui crèvent et ceux qui parient cash Y a ceux qui partent et ceux qui restent à Paris-plage On devient délinquants, turbulents, trafiquants de l'ombre Futurs clients des fabriquant de tombes Chienne de vie alors on part au casse-pipe Du 9.1 au 9.5 des vies entières se gaspillent À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Yeah De la Savine aux Ulis De Paris à Marseille, c'est la même S.I.N.I.K L'Algérino Jack Sparrow Pour tous les quartiers d'France, Six-O-Nine Peu importe d'où tu viens Représente et fais ça bien Six-O-Nine</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Petit Bateau</t>
+          <t>Poussière d’étoile</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ils ont pourri le monde fait en sorte que l'homme se dégrade Le temps s'écoule et l'homme s'écroule il devient de plus en plus con Ils n'ont plus de valeurs, les principes sont dans un tiroir Ils jurent que par l'argent et c'est la seule chose qui régit le monde Pourrissent les mômes avec leur discours à la con J'ai peur à l'idée qu'ils mangent leurs salades en même temps que les informations Ils ont pourri la Terre, les déchets toxiques, l'effet de serre On en a rien a foutre ça touchera les futures générations Ils redessinent le monde, des peuples déchirés pour des frontières C'était des anciennes colonisations Ils ont pillé l'Afrique, berceau de l'humanité Et quand y a génocide, c'est pas grave on n'est pas concerné Ils insultent les femmes, les prennent à coup de pierres C'est pas l'islam je vous rassure et là vous parle en tant que frère Foudroyés par l'ignorance homme du monde Ouvrons nos curs, acceptons-nous malgré nos différences On a perdu nos valeurs, un simple sourire peut changer la vie d'une personne que l'on croise On se tue à regarder nos défauts, nos qualités dans un cachot, on n'en sort que l'ego J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte J'regarde le monde, mec, j'reprends mes marques Navigue sur les eaux, m'accrochant à ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte Ils ont pourri l'espoir, ils ont noirci nos curs, on néglige nos amis nos frères On en prend conscience que lorsqu'on les perd On prend conscience de l'amour qu'on porte pour une personne que lorsqu'on la perd Profitons de nos pères, nos mères Ils nous aveuglent avec leur matériel, on oublie que tout est éphémère qu'on emportera rien avec nous sous terre Moi-même ils m'ont pourri je m'égare, le fric, les gros cigares, j'ai peur je m'écarte du vrai chemin J'ai peur Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Est-ce cela le prix à payer pour la paix ? On sera jugés pour notre passivité Films pornos, corps déchiquetés aux infos on a poussé notre voyeurisme et c'est sans se soucier de l'excès Ils parlent de voile comme soumission, que dire de ces pauvres femmes à poil objetisées à la télévision Elles méritent le respect mais se font marcher dessus, jeunes, vieux qui se masturbent devant Canal On était jeunes et cons, on le sera toujours d'ailleurs Que ceux qui n'ont jamais pêchés nous lancent leur première pierre Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Faibles hommes que les passions torturent Dur de marcher droit quand le chemin est tordu Ils veulent refaire le monde, instaurer la paix mais c'est le chaos qu'ils installent Est-ce cela le prix à payer pour la paix ? Ils ont pillé l'Afrique, berceau de l'humanité et quand y a génocide c'est pas grave on est pas concerné Ils ont pourri la Terre, les déchets toxiques, l'effet de serre on en a rien a foutre ça touchera les futures générations Ils redessinent la Terre, des peuples déchirés pour des frontières, mon frère, c'était des anciennes colonisations Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Ils nous endorment, ils cherchent à nous distraire c'est moins dangereux que faire passer le clip de rap a la télévision Mec je reprends mes marques Navigue sur les eaux, m'accrochant a ma barque Petit bateau risque de s'égarer combien reviennent sains et saufs C'est plus fort que nous quand le mal nous emporte on tourbillonne</t>
+          <t>Dis leur! L'algérino, Léa, El nino Trafic Music Tu sais qui sont les vrais! Ok... Tu sais qui sont les vrais, tu sais Tout le monde crient Oh oh oh x2 Les rêves c'est pour les faibles, j'vais vivre mes fantasmes La vie est une table de poker et j'ai ma paire d'as Profiter de mon fils qu'il profite de son père On prend conscience de la valeur d'une personne que lorsqu'on la perd Fallait cacher ma vie, j'ai relevé la tête Ce son c'est pour les braves forts qui n'ont plus rien à perdre Ils voient que le décor mais ne savent rien de ce que j'ai vécu Mon frère si tu savais combien de fois la vie ma déçu On se nourrit d'espoir mais l'espoir coûte cher Combien d'échec en se disant t'inquiète ca va le faire Une spéciale dédicasse pour nos proches, pour nos pères, pour nos mères On sait ou l'on va en sachant garder nos repères</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Petit Sam</t>
+          <t>Quinte Flush</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'vais en cours avec la peur au ventre J'ai même pas fait mes devoirs Coupure de courant c'est dur d'réviser dans le noir Toujours un truc à me reprocher Quand je voit les contrôleurs Je stresse même quand j'ai mon ticket Des rêves pleins le cerveau j'me voit pilote de F1 On est 7 dans un D1, est ce que tu vois le topo Comme tous le monde je suis un footeux Fouteur de merde, fougueux J'avais peur de rien, sauf de mes parents et du bon Dieu Rien ne m'effraies J'traîne dans les rue des ma ville J'voit les grand qui dealent J'ai comprit que la rue c'est l'asile Moi j'veux m'en sortir M'acheter les dernières sapes J'fait du rap les grands me disent ne lâche pas p'tit Sam Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne J'traine les vêtements que j'avais mis la veille Petit dormeur j'trouve pas le sommeil L'école je m'en fou j'ai taillé toute la semaine Dans mon quartier j'entends le chant des sirènes J'suis perdu là-bas dans la brume J'ai même plus d'encre pour tremper ma plume Je cherche refuge en cherchant des thunes La route est longue pour décrocher la lune J'veux m'évader et prendre le large Les grands sont cons j'trouve qu'ils sont tous barges Laissez-moi vivre je croit en ma destinée Mon petit Sam il est l'heure d'aller se coucher Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Le chemin est étroit, qui peux m'empêcher d'avancer Moi j'ferme les yeux et je croise les doigts Sur la route du succès j'ai vu des curs blessés J'avance sans me retourner, je crois en mon étoile Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne Petit Sam a la dalle Petit Sam a la dalle Petit Sam a le goût de la gagne4</t>
+          <t>Yeah Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Ça fait du bien de revenir dans la bergerie Je sème le trouble y a plus de réseau dans les BlackBerry Petite n'achète pas mes CD pour mes beaux yeux J'ai du vécu j'ai des choses à dire dédicace à gros yeux Gominé comme un rital mais mentalité 12 becs Issu des zones à risques ici si tu parles trop on te clou le bec Depuis l'euro c'est rude dans la rue les jeunes s'entretuent Les petits lâchent les études et comme Béné ils veulent de la thune 13 015 matricule tends l'oreille quand j'articule OH Nouvelle sensation le son qui te pète les clavicules Yeah Si tu nous cherches pas on te cherche pas Regarde pas à travers si tu demandes qu'on te rate pas on fait pas de hagra Éduqués dans le respect Joue pas avec la rue ou tu risques d'y rester Faire un peu de fric sans le flamber au casino J'ai vu des jeunes millionnaires tout perdre dans les jeux péter les plombs repartir à zéro Ça vient de la Savine oh ça vient du Plan D'aou oh Ça vient de La Castellane de Fond-Vert et de la Busserine Ça vient de la Cayole pour tout les mecs à Payol Pour tout les secteurs de Marseille interdit aux tafioles Ça vient de Lyon Vaulx-en-Velin - Vénissieux Miss l'Ariane comme la beau gars pour tous les petits vicieux Toulouse Bordeaux Lille toutes les banlieues de Paris Toutes les actes donnant à Besac les petits rappeurs qui arrivent On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas morfler, ok Ça faisait longtemps j'me suis fais un peu discret Enfermé dans un bunker j'te lâche ce petit extrait Avant-goût de la bombe sans prétention Entre quatre murs j'écris des textes comme en détention Mon inspiration entre deux parties de poker Quand toi tu demandes le changement faites entrer le Joker Ça vient du 1.4.3 du Centre Ville de La Soli À la Gavote ça tchek ça jette des caillasses sur la police Petit harbi mental de chaoui casse pas les cléoui J'ai rien à craindre mon avocat c'est Karim Machoui C'est pour mes bicots karlouche toi et tes hétanos Mental à faire forger tellement que j'ai chopé le tétanos Le monde appartient à ceux qui se lèvent tôt j'fais des nuits blanches Ça roule en bolides brolic on mène pas une vie d'ange Des Baumettes à Fresnes ça stresse nos vies sont des go fast Ça bombarde Tanger à Mars sans laisser de traces x2 1 3 sur la plaque on repart à l'attaque Pousse les watts ça vient de Mars déconseillé aux cardiaques Nouveaux tracks nouveaux styles nouvelles claques Février 2009 j'fête ma sortie dans les bacs On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas m'emporter, ok ?1</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P-M</t>
+          <t>Respectés dans le monde</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>S.I.N.I.K 2007 L'Algérino Six-O-Nine Bah ouais Pendant qu'les Arabes et les Corses se font la guerre Bienvenue à Mars, on cessera jamais d'représenter la Terre mère Là où les gros voyous deviennent des agents Rackettent les joueurs d'foot, c'est ça ou une balle dans la jambe On te salue en arabe et on t'insulte en gitan L'atmosphère est mafieuse, on a grandi avec des Ritals, des Corses et des Gitans Mais quand ça s'corse y a qu'des Arabes et des Khels, dans les quartiers quand ça chauffe On a l'air de fainéants, mais doués dans le bizness On t'achète on te vend, on te pique avec notre accent Le soleil est écrasant, la tristesse sous les Rayban La jeunesse en détresse rêve de liasses en se rasant C'est la merde, HLM au bord d'la mer Les Harbis montent en puissance, concurrencent la brise de mer Niveau rap, ça rappe dans dans tout les sens Arabes, Blancs, Noirs, on nique la musique de France À Mars on s'en bat les couilles du crunk Du clash, de ton cash, ça fume de la skunk sur un son de funk Les courses au marché soleil, les daronnes et les p'tites surs Dans les mariages des cortèges de Q7 et de vipers Ça claque trente-mille euros, ça divorce dans la foulée Jeunes mariés-divorcés se font frotter au millet Nos pères en pèlerinage, la jeunesse perd ses repères Charmés par les Roumaines au jarret en plein tapinage La mère qui fait le ménage, le fils qui perd les méninges Millionnaire en euros qui touche le RMI et l'chômage Les frères qui font le rappel, barbu ex-braqueur Qui pige que le dîn ça paye plus que dêtre gratteur Marseille, les carters, les dealers, les dockers Dans les parties de cartes ça perd des villas au poker Marseille c'est Zidane et Berbachi Quand on gagne contre Paris, ça relance l'économie À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Bienvenue dans l'ombre C'est Paris rap de qualité, la guerre et la rivalité Nike Air, baggy Marithé Ambiance bad boys, alcool, flash-ball Fat Joe, hardcore, bastos, pactole Diplômé pour faire la banque en moto C'est pas Voici mais les voisins qui veulent nous prendre en photo Le tier-quar, la famille, les amis, l'Algérie On étouffe car on est tous des Samy Naceri, man On a le style, on est toujours au goût des femmes On met des wesh, des gros et des ma gueule au bout des phrases Enfants des barricades, y a ceux qui crèvent et ceux qui parient cash Y a ceux qui partent et ceux qui restent à Paris-plage On devient délinquants, turbulents, trafiquants de l'ombre Futurs clients des fabriquant de tombes Chienne de vie alors on part au casse-pipe Du 9.1 au 9.5 des vies entières se gaspillent À part la ville, qu'est-ce qui nous sépare ? Les mêmes problèmes, les mêmes guerres, la même merde et c'est la même tout-par Peu importe d'où ça vient Tant qu'ça représente les tiens, représente et fais-le bien Yeah De la Savine aux Ulis De Paris à Marseille, c'est la même S.I.N.I.K L'Algérino Jack Sparrow Pour tous les quartiers d'France, Six-O-Nine Peu importe d'où tu viens Représente et fais ça bien Six-O-Nine</t>
+          <t>Marseille N'essaye pas d'ignorer signore Ici c'est Mars, étang et eau de mer Tous veulent la Audemars au pied de la Bonne Mère Une prod sale et on démarre, comme d'hab j'creuse l'écart Rien à foutre de leurs standards Ici pas d'monarque, juste moi et mon art Regarde ma poésie trouer les murs, choquer les sourds Regarde ma feuille, elle et moi on rêve de péter leurs tours Au départ tout c'qu'on voulait, c'était péter l'score Et au final, j'm'en sers encore pour briser le sort J'rappe, rimes sanguinolentes jetées comme des lames Parfois ça pose les armes, ouais, ma ville a du charme Fière jusqu'à l'indécence, les mains parlent souvent Mais on s'calme avec un sss et l'soleil couchant Faut revenir à la faute ou j'vais niquer la prod' Mentir à la proc', c'est pas réciproque Ils s'en foutent des nôtres, juré, j'suis en mode 1-3 j'suis en or, pour eux, j'suis un nègre Le papier j'l'aime en mauve et quand je vole j'suis un aigle J'meurs ici, entre les missiles Fin d'mois difficiles, pas loin d'la Sicile Tu connais l'récit, j'ai fait le tour du monde mais je suis revenu à la mise à l'eau J'crame un pét', j'plonge dans les étoiles en immersion Dans le 4Motion j'sors les armes J'ai failli frapper deux fois depuis qu'ils ont fait les travaux Job plein temps, je m'suis écarté de plein d'gens Tu crois qu'j'suis ton collègue, j'ai plus vingt ans Nous revoilà, y a quoi là, longue vie à la Squala Comme un flic et cent-quarante dans l'ancienne Vite caché derrière d'beaux habits, ça Pas l'temps d'être au bout d'sa vie Ça va vite comme GP d'Abu-Dhabi Un deux, aïe aïe, die die bénef spots bleus En bref, 1-3 rien d'neuf devant R9, fric-frac dans tes Rap Marseille, poids lourd, intenable flow kung-fu kick Cantona Mieux crever que vivre à genoux, rien d'new L'monde après nous, ric-pfou, ils n'auront d'nous J'suis pas un ancien, j'suis une légende Ici y a que les Carlos Mozer qui visent les jambes J'suis un putain d'sale rappeur, quoi que disent les gens Si j'veux j'leur roule tous dessus mais j'veux pas salir mes jantes Ici les jeunes disjonctent, déjeunent en fumant le jaune Fume les gens même en période de jeûne Marie-Jeanne offre plus d'emplois que Marianne Quand tu fais le tour de France t'as plus de gilets jaunes que de maillots jaunes Si t'as les gènes un peu trop bronzés, tu les gênes Le monde est cheum, bientôt des collégiennes pleines de collagène C'est la jungle, manifestations, fumigènes Femmes seules armées de bombes lacrymogènes Entre égotrip et social, j'viens rapper 13 Organisé Avec les du rap marseillais Le gang des postiches, des royalties de ces quarante dernières années Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra DZ égérie, ma chérie Marseille la nouvelle wilaya d'Algérie Harraga, Annabi, Ouarlani, Kabylie chaoui Ça s'mord la langue comme Imane Khelif Quartiers sous CR, les p'tits au bord de mer c'est l'enfer Mais qu'est-ce tu veux que j'dise aux p'tits frères ? T'façon l'État les a laissés d'côté Les darons prient dans les caves, ils veulent fermer les mosquées Marseille, ça parle en crypté, paye en crypto Le cur effrité, les frères qui partent tôt, les mères attristées Ils voulaient que j'porte la flamme olympique J'préfère lever le drapeau d'la Palestine J'monte sur scène dents serrées, vaillant Micro saillant sans dessins Plus Payet que Payot ou Payan Dans c'carré où les vandales ont brisé les vitrines Le parquet requiert un an pour deux pantalons J'rappe pour que les gominés crient go minot Et qu'les sales pédos tombent comme Lego et dominos Mon cahier d'rimes soulevé au comico Parce que les de Géronimo Anti-colon, l'aigle c'est ma colombe Bref, sur feuille volante, j'n'écoute pas leurs violons Leur paix est violente, j'emplis mon cur de l'air et l'art de Bali J'ferme sacs et valises, j'leur laisse l'or du Mali Joue pas l'voyou dans les clips, j'éteins comme une éclipse À dire qu'à dix minutes d'chez moi ça s'fait la guerre un peu comme les Bloods et les Crips J'trahis pas mon équipe, j'connais les codes, j'connais les kids J'suis pas l'genre de mec qui va coller les kings Nouvelle école la série gold pour moi ça reste la même, et toi Si pour toi les sous ils tombent du ciel c'est qu'on n'est pas né sous la même étoile J'ai remis d'l'eau dans l'vase, la fleur était fanée J'ai pas vu l'soleil, j'étais au stud toute l'année J'aimerais m'balader normi mais ma tête est cramée Dans l'RS3 j'écoute les rappeurs de ma ville pour planer Sur une autre planète, j'mise jamais sur l'paraître J'passe les flics me suivent, m'prennent pour un vendeur d'barrettes C'est Marseille, c'est PACA, c'est bouillant, c'est pas calme C'est bruyant, c'est l'vacarme, c'est violent, c'est macabre Les les AK, les brancards, les braquages J'fais plus cas, c'est banal, c'est vaillant, c'est pas grave C'est ça l'drame, j'ai fini par m'y habituer Décroche le portable, apprends qu'un ami s'est fait tuer Devant les yeux de sa fille, l'ont délesté de sa vie J'sais plus si j'dois aimer ou bien détester ma ville Si je dois la quitter, lui rester fidèle Dois-je écouter mon cur ou ma raison qui se méfie d'elle ? Aussi vraie que ma ville est dure, ma ville est belle La vie est dure mais la vie est belle Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra Marseille Signore</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Poussière d’étoile</t>
+          <t>Rimes sévères</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dis leur! L'algérino, Léa, El nino Trafic Music Tu sais qui sont les vrais! Ok... Tu sais qui sont les vrais, tu sais Tout le monde crient Oh oh oh x2 Les rêves c'est pour les faibles, j'vais vivre mes fantasmes La vie est une table de poker et j'ai ma paire d'as Profiter de mon fils qu'il profite de son père On prend conscience de la valeur d'une personne que lorsqu'on la perd Fallait cacher ma vie, j'ai relevé la tête Ce son c'est pour les braves forts qui n'ont plus rien à perdre Ils voient que le décor mais ne savent rien de ce que j'ai vécu Mon frère si tu savais combien de fois la vie ma déçu On se nourrit d'espoir mais l'espoir coûte cher Combien d'échec en se disant t'inquiète ca va le faire Une spéciale dédicasse pour nos proches, pour nos pères, pour nos mères On sait ou l'on va en sachant garder nos repères</t>
+          <t>- Pooo olalalala oh elle fracasse cette instru - Oh putain oh c'est un challenge là - Ouais franchement c'est un challenge mais qu'est-ce que tu verrais dessus ? Qu'est-ce tu ferais ? - Franchement j'sais pas mais c'qui est sur c'est qu'j'vais donner des rimes sévères Yeah, yeah Black offside, mec de ces blocks sales Traine quand c'est rode crade Mec rétrograde, écoute ce style grave Ça sent le gaz et moi j'm'enflamme à chaque rime trash Ici c'est dark et les types débarquent en Clarks Mon rap plonge dans la sueur et les marques nos stigmates Dehors les flics mattent car les beaufs flippent gravent Méchante selection et les frères trippent grave C'est du gros son, caisson, sors au balcon Tension, friction, rien dans l'fourgon Ça c'est mon territoire, moyen d'exécutoire Problème d'échappatoire dans cette life dérisoire Sale con, sale son qui sort des catacombes C'est la cata qui tombe sur le charme de ces combes Toi tu veux boycotter mon show Apocalyptique rap mystique font partie de mon glossaire Fait pas ça bêtement, technique vierge, nouveau flow Naturel à base, mec sans pierre ni coco Vrai sur les photos, mon texte une savonnette si t'aimes pas d'paix J'rappe pour le bourg ou roloto Meneur CB, tout contact d'l'extérieur Block party, branche tes cables sur l'compteur Pour nos patries, brûle le hash' chef dis-leur, yeah Brûle les sacs Greg Killer J'dynamite l'assistance avec un ah chef, une pièce en plastoc Fastoche y'a pas d'pastiche que du flow mastoc Pete plastique, s'crack sonne sur platine si c'est l'cur presse pas stop Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Allons voir si la merde est partie sous mes s'melles J'suis l'même, ogive dans mes s'nemes, bouffe saine, svelte J'ai mis du piment dans mes semaines Y'a pas d'mal et tu crois chez eux y tombe tous la même, tu captes Apprécie l'son, apprécie les rares sourires et les rares soupires Les rares souv'nirs, moi j'kiffe dans l'fond Et Alonzo, y'a la merde qui squatte au mic c'est à toi allez Nettoie ça comme Bronzo J'ai des rimes au gros ou en détaillé, du style en vrac et Du flow embrasé, mais tu restes censé Je reste offensé, j'ramène ta gaieté, à mes soucis fermés Oh franchement bien le style le flow et tout mais à qui tu t'adresse là ? Ces mangeurs de gaieté, majeurs endettés, mineurs en TD Aime en été, et c'est la tuile et... La foule en délire, tu la vois bien dans tous ses états Chaleur Hip-Hop et si t'as goûté range ton Beretta crues tapent, retiens ton souffle, on n'saute pas les étapes, stop Fais moi un break que je reparte Style L'Algérino, Alonzo pas du rap à Zonzo Range ton conzé fais pas une flaque c'est que du rap propre Rap pro, rappeur d'élite, rapport d'acolyte Prévention te saoule pas, à notre son électrolyte Ce soir c'est la furie, 3, 6, 1, écurie Pas d'Pierre et Marie Curie, tuerie seulement parce qu'on est puriste Surine, échappé des murs sales et des flaques d'urine J'réclame ma part du rythme, rime j'en torture une Ecarte tu t'écartes du rythme V'nir danser, fête pourrie, pleine cave où l'équipe burine Pour l'heure ici c'est l'faya Si M.O.B était dans l'spot il crierait Faya J't'amène mon crayon sur un beat lourd type du ghetto Du bic surhumain, préviens ton réseau, dis-leur qu'au mic y'a trois assassins 2001, tu veux un big name Donc tu vois les MC Kung Fu, t'auras mon big nem Sur l'disque embargo total, la crise du rap total Un manque de sens Total Recall T'sais la d'où j'viens que des têtes bizarres Des têtes cramées par ces quartiers chauds, des mecs à part recall Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Quinte Flush</t>
+          <t>Rolex Présidentielle</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Yeah Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Ça fait du bien de revenir dans la bergerie Je sème le trouble y a plus de réseau dans les BlackBerry Petite n'achète pas mes CD pour mes beaux yeux J'ai du vécu j'ai des choses à dire dédicace à gros yeux Gominé comme un rital mais mentalité 12 becs Issu des zones à risques ici si tu parles trop on te clou le bec Depuis l'euro c'est rude dans la rue les jeunes s'entretuent Les petits lâchent les études et comme Béné ils veulent de la thune 13 015 matricule tends l'oreille quand j'articule OH Nouvelle sensation le son qui te pète les clavicules Yeah Si tu nous cherches pas on te cherche pas Regarde pas à travers si tu demandes qu'on te rate pas on fait pas de hagra Éduqués dans le respect Joue pas avec la rue ou tu risques d'y rester Faire un peu de fric sans le flamber au casino J'ai vu des jeunes millionnaires tout perdre dans les jeux péter les plombs repartir à zéro Ça vient de la Savine oh ça vient du Plan D'aou oh Ça vient de La Castellane de Fond-Vert et de la Busserine Ça vient de la Cayole pour tout les mecs à Payol Pour tout les secteurs de Marseille interdit aux tafioles Ça vient de Lyon Vaulx-en-Velin - Vénissieux Miss l'Ariane comme la beau gars pour tous les petits vicieux Toulouse Bordeaux Lille toutes les banlieues de Paris Toutes les actes donnant à Besac les petits rappeurs qui arrivent On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas morfler, ok Ça faisait longtemps j'me suis fais un peu discret Enfermé dans un bunker j'te lâche ce petit extrait Avant-goût de la bombe sans prétention Entre quatre murs j'écris des textes comme en détention Mon inspiration entre deux parties de poker Quand toi tu demandes le changement faites entrer le Joker Ça vient du 1.4.3 du Centre Ville de La Soli À la Gavote ça tchek ça jette des caillasses sur la police Petit harbi mental de chaoui casse pas les cléoui J'ai rien à craindre mon avocat c'est Karim Machoui C'est pour mes bicots karlouche toi et tes hétanos Mental à faire forger tellement que j'ai chopé le tétanos Le monde appartient à ceux qui se lèvent tôt j'fais des nuits blanches Ça roule en bolides brolic on mène pas une vie d'ange Des Baumettes à Fresnes ça stresse nos vies sont des go fast Ça bombarde Tanger à Mars sans laisser de traces x2 1 3 sur la plaque on repart à l'attaque Pousse les watts ça vient de Mars déconseillé aux cardiaques Nouveaux tracks nouveaux styles nouvelles claques Février 2009 j'fête ma sortie dans les bacs On est encore là Marseille prêt à tout piller piller De la classe et du sang-froid on est venu faire un peu de billets billets La France ne nous entend pas t'inquiète mon pote on est organisé-nisé De la classe et du sang-froid on est venu faire un peu de billets billets Cette année paraît que y a de grosses sorties La concurrence je la baise le petit harbi est de sortie Passe-moi le mic dans n'importe quelle position j'l'amortis J'représente le Maroc, la Tunisie et l'Algérie L'Algérino ça s'écoute dans chaque quartier De Marseille à Paris de la Savine à Jacques Cartier Si tu me clash à moi tu clash toute une communauté Fais pas trop trop ta belle Mc ou tu vas m'emporter, ok ?1</t>
+          <t>ALprod Casque Arai, Rolex présidentielle Pour des kichtas comme ça, j'ai vu des hnin devenir cruelles J'maitrise l'essentiel, j'la fais swipe up au septième ciel Elle est trop belle au naturel, elle est pas superficielle J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides Que d'la quali', l'cerveau il fume, je job, j'sors plus, j'étouffe gros J'étouffe gros J'raconte ma vie, c'qui s'passe, les joies, les peines, les bons, les putos Les putos J'suis-j'suis-j'suis bon qu'à faire du sale, à remplir des salles Y a du monde, mais j'suis seul, tu veux mon bien, ouais c'est ça En c'moment c'est bandite, j'ai que d'la beuh, j'ai plus d'shit On fait danser ta p'tite, elle a le cur qui palpite Comme full DP, c'est classique Ah, Ju-Ju-JuL c'est magique Ah Paralysé sous statique Ah, t'as l'cerveau qui te fait des bogues Acteur, menteur, jackteur, bandeur, y a que des suceurs Ils entendent le moteur, ils ont peur, tu meurs Qui peut le faire à part nous ? On a tous les sous, les joujoux Quelques frangins à Morgiou, des bijoux que pour les grands jours Ok, comment ça s'fait qu'il parle mal de moi devant toi Tu dis qu'tu m'aimes que sous commission rogatoire Faudrait qu'tu tej', j'entends qu't'aimes faire d'la balançoire En soi, j'm'en bats les couilles, boulette sur ma chemise en soie Haha Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple À 210 sur le tableau d'bord, même à pied, on a fait des bornes Demi-tour la gadji est bonne Bonne, bonne, bonne Sous le soleil, j'ai mes hublots, du kérosène dans le turbo Fais l'oseille beaucoup plus tôt, à Marseille la ville est au plus haut Vérifie tous les angles morts quand tu roules dans les quartiers nord Les mains faites pour les disques d'or D'or, d'or, d'or On m'appelle pour un big show, sur le yacht y a des bimbos Verre de champagne en cristaux, pas de garde du corps à l'akimbo Je suis seul, mais j'suis pas tout seul, de bonne humeur, j'arrive en douceur Si t'es bourré, ne vient pas me deuh Deuh, deuh, deuh Merco', ça finit tard pour les histoires Très tard, y a la guitare Tapis j'm'arrache ma race, j'ai la paire d'As Elle veut Hermès, terrasse, Audi RS et un sac d'os Tu parles trop quand t'es pété Pété Un verre d'trop, tu vas regretter 'gretter Dans le rétro', j'les vois m'guetter J'ai fais les euros yemma, faut plus t'inquiéter Et m'raconte pas qui a fait ci, qui a fait ça Même si moi j't'apprécie, parle pas d'tout ça Marseille, ouais faut tout prendre avant d'tout perdre Good bye genre à Dubaï, gros tudo bem Pour le bon, fallait bosser fissa Trop nia, j'ai trop cédé pour ça C'est pas grave, moi j'les aimais pourtant On s'la donne si on s'croise, ça c'est sûr Et j'm'évade quand j'fais bénéf' au max' En soum soum, c'est moi sur l'T-Max J'm'habitue, j'ai mal, mais j'avance J'm'habitue, j'ai mal, mais j'avance Quand on y est, on y est, faut toujours en découdre et pas lâcher le morceau Oubliez, oubliez, oubliez-moi le jour où je claque la porte Paroles, encore des paroles J'sais que m'vider comme ça, j'ai jamais parlé dehors Nan, nan, nan, nan Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple J'suis parti en bandite ma petite À la base, j'avais les mains dans le shit Akha la C, RS8 J'passe devant la Castellane en V8 Crapuleux sous moula, des jets-ski, la playa Premier DP, la paye tout droit, c'est Marseille - Jonquera Minuit sur la Ro'-Ro' Oh, oh, gros mélange de Vo'-Vo' Oh, oh Ta gadji me trouve beau, elle danse joga, joga bonito Oh, oh, ah, ah, ah J'suis dans l'bédo, bédo, les rentes, pas dans l'détail J'suis dans Paris, j'suis dans l'tel-hô, négro, on fait tourner l'bétail C'est la rue C'est la rue, représenter toute la caillé toute l'année Me retrouver sur la playa, plus jamais J'roule un teh, j'bois mon thé, j'ai même plus besoin d'pénav C'est la rue, c'est la vraie, en I, ça me té-ma Souvent matrixé et peiné, j'vois plus les choses comme avant Peut-être qu'hier, oui on s'aimait, mais là c'est plus comme avant Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Respectés dans le monde</t>
+          <t>Roméo</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Marseille N'essaye pas d'ignorer signore Ici c'est Mars, étang et eau de mer Tous veulent la Audemars au pied de la Bonne Mère Une prod sale et on démarre, comme d'hab j'creuse l'écart Rien à foutre de leurs standards Ici pas d'monarque, juste moi et mon art Regarde ma poésie trouer les murs, choquer les sourds Regarde ma feuille, elle et moi on rêve de péter leurs tours Au départ tout c'qu'on voulait, c'était péter l'score Et au final, j'm'en sers encore pour briser le sort J'rappe, rimes sanguinolentes jetées comme des lames Parfois ça pose les armes, ouais, ma ville a du charme Fière jusqu'à l'indécence, les mains parlent souvent Mais on s'calme avec un sss et l'soleil couchant Faut revenir à la faute ou j'vais niquer la prod' Mentir à la proc', c'est pas réciproque Ils s'en foutent des nôtres, juré, j'suis en mode 1-3 j'suis en or, pour eux, j'suis un nègre Le papier j'l'aime en mauve et quand je vole j'suis un aigle J'meurs ici, entre les missiles Fin d'mois difficiles, pas loin d'la Sicile Tu connais l'récit, j'ai fait le tour du monde mais je suis revenu à la mise à l'eau J'crame un pét', j'plonge dans les étoiles en immersion Dans le 4Motion j'sors les armes J'ai failli frapper deux fois depuis qu'ils ont fait les travaux Job plein temps, je m'suis écarté de plein d'gens Tu crois qu'j'suis ton collègue, j'ai plus vingt ans Nous revoilà, y a quoi là, longue vie à la Squala Comme un flic et cent-quarante dans l'ancienne Vite caché derrière d'beaux habits, ça Pas l'temps d'être au bout d'sa vie Ça va vite comme GP d'Abu-Dhabi Un deux, aïe aïe, die die bénef spots bleus En bref, 1-3 rien d'neuf devant R9, fric-frac dans tes Rap Marseille, poids lourd, intenable flow kung-fu kick Cantona Mieux crever que vivre à genoux, rien d'new L'monde après nous, ric-pfou, ils n'auront d'nous J'suis pas un ancien, j'suis une légende Ici y a que les Carlos Mozer qui visent les jambes J'suis un putain d'sale rappeur, quoi que disent les gens Si j'veux j'leur roule tous dessus mais j'veux pas salir mes jantes Ici les jeunes disjonctent, déjeunent en fumant le jaune Fume les gens même en période de jeûne Marie-Jeanne offre plus d'emplois que Marianne Quand tu fais le tour de France t'as plus de gilets jaunes que de maillots jaunes Si t'as les gènes un peu trop bronzés, tu les gênes Le monde est cheum, bientôt des collégiennes pleines de collagène C'est la jungle, manifestations, fumigènes Femmes seules armées de bombes lacrymogènes Entre égotrip et social, j'viens rapper 13 Organisé Avec les du rap marseillais Le gang des postiches, des royalties de ces quarante dernières années Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra DZ égérie, ma chérie Marseille la nouvelle wilaya d'Algérie Harraga, Annabi, Ouarlani, Kabylie chaoui Ça s'mord la langue comme Imane Khelif Quartiers sous CR, les p'tits au bord de mer c'est l'enfer Mais qu'est-ce tu veux que j'dise aux p'tits frères ? T'façon l'État les a laissés d'côté Les darons prient dans les caves, ils veulent fermer les mosquées Marseille, ça parle en crypté, paye en crypto Le cur effrité, les frères qui partent tôt, les mères attristées Ils voulaient que j'porte la flamme olympique J'préfère lever le drapeau d'la Palestine J'monte sur scène dents serrées, vaillant Micro saillant sans dessins Plus Payet que Payot ou Payan Dans c'carré où les vandales ont brisé les vitrines Le parquet requiert un an pour deux pantalons J'rappe pour que les gominés crient go minot Et qu'les sales pédos tombent comme Lego et dominos Mon cahier d'rimes soulevé au comico Parce que les de Géronimo Anti-colon, l'aigle c'est ma colombe Bref, sur feuille volante, j'n'écoute pas leurs violons Leur paix est violente, j'emplis mon cur de l'air et l'art de Bali J'ferme sacs et valises, j'leur laisse l'or du Mali Joue pas l'voyou dans les clips, j'éteins comme une éclipse À dire qu'à dix minutes d'chez moi ça s'fait la guerre un peu comme les Bloods et les Crips J'trahis pas mon équipe, j'connais les codes, j'connais les kids J'suis pas l'genre de mec qui va coller les kings Nouvelle école la série gold pour moi ça reste la même, et toi Si pour toi les sous ils tombent du ciel c'est qu'on n'est pas né sous la même étoile J'ai remis d'l'eau dans l'vase, la fleur était fanée J'ai pas vu l'soleil, j'étais au stud toute l'année J'aimerais m'balader normi mais ma tête est cramée Dans l'RS3 j'écoute les rappeurs de ma ville pour planer Sur une autre planète, j'mise jamais sur l'paraître J'passe les flics me suivent, m'prennent pour un vendeur d'barrettes C'est Marseille, c'est PACA, c'est bouillant, c'est pas calme C'est bruyant, c'est l'vacarme, c'est violent, c'est macabre Les les AK, les brancards, les braquages J'fais plus cas, c'est banal, c'est vaillant, c'est pas grave C'est ça l'drame, j'ai fini par m'y habituer Décroche le portable, apprends qu'un ami s'est fait tuer Devant les yeux de sa fille, l'ont délesté de sa vie J'sais plus si j'dois aimer ou bien détester ma ville Si je dois la quitter, lui rester fidèle Dois-je écouter mon cur ou ma raison qui se méfie d'elle ? Aussi vraie que ma ville est dure, ma ville est belle La vie est dure mais la vie est belle Toute la ville a les dents longues On aime briller dans l'ombre On en a perdu un grand nombre À jamais respecté dans l'monde Marseille C'est ma ville, j'l'aime comme ça tu sais, j'l'aime comme ça J'vais p't-être dormir dans ses draps une fleur sous les étoiles Aucun avenir dans ces drames aucun avenir, non, aucun avenir, non J'espère mourir dans ses bras c'est dans ses bras qu'on mourra Marseille Signore</t>
+          <t>Nass Brans Ma chérie coco, ah Eh ma chérie coco Boh Laisse-moi juste un moment Elle m'connaît un peu trop J'peux même plus faire semblant J'sais pas où je s'rais demain Mais là j'veux toucher l'summum J'suis pas son sac à main Poh Elle veut me prendre au mot Boh En c'moment, j'suis partagé Entre l'oseille et son hmm Mademoiselle s'est attachée Moi j'suis parti, j'reviens plus Ouh Je réponds plus aux appels Elle est comme mon passé, j'l'ai zappé Viens on fait des affaires Hey Pour l'instant mon cur est cassé Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ma chérie coco J'les ai toutes unfollow Depuis l'début j'te voulais Elle a tous les codes, elle est à la mode, elle les fait tous serrer Serrer Elle m'appelle devant des potes mais nous deux c'est mort, elle est sur la sellette Elle m'a jeté un sort, j'reconnais mes torts, comme un fou j'ai suivi Elle me fait perdre le nord, je l'ai dans mais faut que j'en finisse Elle veut prendre tout mon liquide Elle me prend pour le kéké des kékés Que de mauvaises habitudes Elle commence et elle sait plus s'arrêter Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Coco, loco, loco Coco, loco, loco</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rimes sévères</t>
+          <t>Salam</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>- Pooo olalalala oh elle fracasse cette instru - Oh putain oh c'est un challenge là - Ouais franchement c'est un challenge mais qu'est-ce que tu verrais dessus ? Qu'est-ce tu ferais ? - Franchement j'sais pas mais c'qui est sur c'est qu'j'vais donner des rimes sévères Yeah, yeah Black offside, mec de ces blocks sales Traine quand c'est rode crade Mec rétrograde, écoute ce style grave Ça sent le gaz et moi j'm'enflamme à chaque rime trash Ici c'est dark et les types débarquent en Clarks Mon rap plonge dans la sueur et les marques nos stigmates Dehors les flics mattent car les beaufs flippent gravent Méchante selection et les frères trippent grave C'est du gros son, caisson, sors au balcon Tension, friction, rien dans l'fourgon Ça c'est mon territoire, moyen d'exécutoire Problème d'échappatoire dans cette life dérisoire Sale con, sale son qui sort des catacombes C'est la cata qui tombe sur le charme de ces combes Toi tu veux boycotter mon show Apocalyptique rap mystique font partie de mon glossaire Fait pas ça bêtement, technique vierge, nouveau flow Naturel à base, mec sans pierre ni coco Vrai sur les photos, mon texte une savonnette si t'aimes pas d'paix J'rappe pour le bourg ou roloto Meneur CB, tout contact d'l'extérieur Block party, branche tes cables sur l'compteur Pour nos patries, brûle le hash' chef dis-leur, yeah Brûle les sacs Greg Killer J'dynamite l'assistance avec un ah chef, une pièce en plastoc Fastoche y'a pas d'pastiche que du flow mastoc Pete plastique, s'crack sonne sur platine si c'est l'cur presse pas stop Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Allons voir si la merde est partie sous mes s'melles J'suis l'même, ogive dans mes s'nemes, bouffe saine, svelte J'ai mis du piment dans mes semaines Y'a pas d'mal et tu crois chez eux y tombe tous la même, tu captes Apprécie l'son, apprécie les rares sourires et les rares soupires Les rares souv'nirs, moi j'kiffe dans l'fond Et Alonzo, y'a la merde qui squatte au mic c'est à toi allez Nettoie ça comme Bronzo J'ai des rimes au gros ou en détaillé, du style en vrac et Du flow embrasé, mais tu restes censé Je reste offensé, j'ramène ta gaieté, à mes soucis fermés Oh franchement bien le style le flow et tout mais à qui tu t'adresse là ? Ces mangeurs de gaieté, majeurs endettés, mineurs en TD Aime en été, et c'est la tuile et... La foule en délire, tu la vois bien dans tous ses états Chaleur Hip-Hop et si t'as goûté range ton Beretta crues tapent, retiens ton souffle, on n'saute pas les étapes, stop Fais moi un break que je reparte Style L'Algérino, Alonzo pas du rap à Zonzo Range ton conzé fais pas une flaque c'est que du rap propre Rap pro, rappeur d'élite, rapport d'acolyte Prévention te saoule pas, à notre son électrolyte Ce soir c'est la furie, 3, 6, 1, écurie Pas d'Pierre et Marie Curie, tuerie seulement parce qu'on est puriste Surine, échappé des murs sales et des flaques d'urine J'réclame ma part du rythme, rime j'en torture une Ecarte tu t'écartes du rythme V'nir danser, fête pourrie, pleine cave où l'équipe burine Pour l'heure ici c'est l'faya Si M.O.B était dans l'spot il crierait Faya J't'amène mon crayon sur un beat lourd type du ghetto Du bic surhumain, préviens ton réseau, dis-leur qu'au mic y'a trois assassins 2001, tu veux un big name Donc tu vois les MC Kung Fu, t'auras mon big nem Sur l'disque embargo total, la crise du rap total Un manque de sens Total Recall T'sais la d'où j'viens que des têtes bizarres Des têtes cramées par ces quartiers chauds, des mecs à part recall Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers Dans chaque couplet rimes sévères Dans chaque couplet l'tonerre crache ses aires Frime sévère, Arltop, joue l'son comme tu le sens pote Déverse sous nos cahiers de rimes brillent ces vers</t>
+          <t>One Love One Blood One Love Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Enfant de la terre , qui n'a pas connu la misère Morales ou matérielles on ressent les mêmes douleurs On a pas la même couleur du peau mais le sang est le même Nos pères sont des rois et nos mères sont des reines Nos pères sont des rois et nos mères sont des reines x2 Nos frères sont des Lions, se battent pour la paix Sommes-nous prêts à donner nos vies pour un brin de liberté ? Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh L'amour n'a pas de couleur, ni de religion Il agit avec le cur il ne se pose pas de questions Il tapprend que le bonheur n'est pas dans les millions Mais plutôt dans les valeurs humaines que nous partageons Ils veulent nous diviser j'te parle d'unité La plus grande des richesse c'est la diversité Ils veulent nous diviser j'te parle d'unité Dans la diversité nous sommes tous liés oui J'vous dis Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rolex Présidentielle</t>
+          <t>Sensación</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ALprod Casque Arai, Rolex présidentielle Pour des kichtas comme ça, j'ai vu des hnin devenir cruelles J'maitrise l'essentiel, j'la fais swipe up au septième ciel Elle est trop belle au naturel, elle est pas superficielle J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides J'suis trop rapide, j'la rattrape sur la voie rapide Elle m'dit T'es un p'tit charo tah les ajouts rapides Que d'la quali', l'cerveau il fume, je job, j'sors plus, j'étouffe gros J'étouffe gros J'raconte ma vie, c'qui s'passe, les joies, les peines, les bons, les putos Les putos J'suis-j'suis-j'suis bon qu'à faire du sale, à remplir des salles Y a du monde, mais j'suis seul, tu veux mon bien, ouais c'est ça En c'moment c'est bandite, j'ai que d'la beuh, j'ai plus d'shit On fait danser ta p'tite, elle a le cur qui palpite Comme full DP, c'est classique Ah, Ju-Ju-JuL c'est magique Ah Paralysé sous statique Ah, t'as l'cerveau qui te fait des bogues Acteur, menteur, jackteur, bandeur, y a que des suceurs Ils entendent le moteur, ils ont peur, tu meurs Qui peut le faire à part nous ? On a tous les sous, les joujoux Quelques frangins à Morgiou, des bijoux que pour les grands jours Ok, comment ça s'fait qu'il parle mal de moi devant toi Tu dis qu'tu m'aimes que sous commission rogatoire Faudrait qu'tu tej', j'entends qu't'aimes faire d'la balançoire En soi, j'm'en bats les couilles, boulette sur ma chemise en soie Haha Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple À 210 sur le tableau d'bord, même à pied, on a fait des bornes Demi-tour la gadji est bonne Bonne, bonne, bonne Sous le soleil, j'ai mes hublots, du kérosène dans le turbo Fais l'oseille beaucoup plus tôt, à Marseille la ville est au plus haut Vérifie tous les angles morts quand tu roules dans les quartiers nord Les mains faites pour les disques d'or D'or, d'or, d'or On m'appelle pour un big show, sur le yacht y a des bimbos Verre de champagne en cristaux, pas de garde du corps à l'akimbo Je suis seul, mais j'suis pas tout seul, de bonne humeur, j'arrive en douceur Si t'es bourré, ne vient pas me deuh Deuh, deuh, deuh Merco', ça finit tard pour les histoires Très tard, y a la guitare Tapis j'm'arrache ma race, j'ai la paire d'As Elle veut Hermès, terrasse, Audi RS et un sac d'os Tu parles trop quand t'es pété Pété Un verre d'trop, tu vas regretter 'gretter Dans le rétro', j'les vois m'guetter J'ai fais les euros yemma, faut plus t'inquiéter Et m'raconte pas qui a fait ci, qui a fait ça Même si moi j't'apprécie, parle pas d'tout ça Marseille, ouais faut tout prendre avant d'tout perdre Good bye genre à Dubaï, gros tudo bem Pour le bon, fallait bosser fissa Trop nia, j'ai trop cédé pour ça C'est pas grave, moi j'les aimais pourtant On s'la donne si on s'croise, ça c'est sûr Et j'm'évade quand j'fais bénéf' au max' En soum soum, c'est moi sur l'T-Max J'm'habitue, j'ai mal, mais j'avance J'm'habitue, j'ai mal, mais j'avance Quand on y est, on y est, faut toujours en découdre et pas lâcher le morceau Oubliez, oubliez, oubliez-moi le jour où je claque la porte Paroles, encore des paroles J'sais que m'vider comme ça, j'ai jamais parlé dehors Nan, nan, nan, nan Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple J'suis parti en bandite ma petite À la base, j'avais les mains dans le shit Akha la C, RS8 J'passe devant la Castellane en V8 Crapuleux sous moula, des jets-ski, la playa Premier DP, la paye tout droit, c'est Marseille - Jonquera Minuit sur la Ro'-Ro' Oh, oh, gros mélange de Vo'-Vo' Oh, oh Ta gadji me trouve beau, elle danse joga, joga bonito Oh, oh, ah, ah, ah J'suis dans l'bédo, bédo, les rentes, pas dans l'détail J'suis dans Paris, j'suis dans l'tel-hô, négro, on fait tourner l'bétail C'est la rue C'est la rue, représenter toute la caillé toute l'année Me retrouver sur la playa, plus jamais J'roule un teh, j'bois mon thé, j'ai même plus besoin d'pénav C'est la rue, c'est la vraie, en I, ça me té-ma Souvent matrixé et peiné, j'vois plus les choses comme avant Peut-être qu'hier, oui on s'aimait, mais là c'est plus comme avant Chapeau d'paille, sur la côte on s'taille où J'ai pris deux kichtas en plus au cas où J'ai fourni détail, quantité et j'ai pris du galon Elle veut pas sortir d'la cité, elle veut pas arrêter les ballons Ah bon ? Elle fait chier, elle est pumple up, la belle est tombée love Oh sans pitié, elle est pumple up, pumple, pumple, pumple</t>
+          <t>Ouais belloumi, c'est fini l'hibernation, la congélation Noxious C'est les sensations, baba L'Algé' Les p'tits dans l'Porsche, sans permis, dans la cité T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Rndez-vous dans l'bar d'à-côté, madame veut papotr Ça sent l'bullrun bébé, j'recharge en USDT Force pas sur la vodka, mets-toi sur l'bas-côté Non, c'est pas l'Dakota, c'est Marseille, ma beauté Ma beauté Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night Mais t'inquiète pas, mi amor, pour toi, j'donnerai mia vida J'finis derrière l'mirador, y a les stup' dans la Skoda Guetteur a donné l'alerte, un soir de plus sous la luna Pour oublier, j'fume d'la verte là T'façon, on a rien à perdre, faut la baraque vers la mer Dans la merde, y avait que ma mère Alors ma race ? Tu t'rappelles de moi ? Ouais, personne m'a fait la passe, ils préfèrent tirer d'loin Mais c'est pas d'ma faute à moi, y a trop d'sheitanas Et j'respecte pas la loi, j'respecte la mama La mama Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Roméo</t>
+          <t>Sourire</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nass Brans Ma chérie coco, ah Eh ma chérie coco Boh Laisse-moi juste un moment Elle m'connaît un peu trop J'peux même plus faire semblant J'sais pas où je s'rais demain Mais là j'veux toucher l'summum J'suis pas son sac à main Poh Elle veut me prendre au mot Boh En c'moment, j'suis partagé Entre l'oseille et son hmm Mademoiselle s'est attachée Moi j'suis parti, j'reviens plus Ouh Je réponds plus aux appels Elle est comme mon passé, j'l'ai zappé Viens on fait des affaires Hey Pour l'instant mon cur est cassé Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ma chérie coco J'les ai toutes unfollow Depuis l'début j'te voulais Elle a tous les codes, elle est à la mode, elle les fait tous serrer Serrer Elle m'appelle devant des potes mais nous deux c'est mort, elle est sur la sellette Elle m'a jeté un sort, j'reconnais mes torts, comme un fou j'ai suivi Elle me fait perdre le nord, je l'ai dans mais faut que j'en finisse Elle veut prendre tout mon liquide Elle me prend pour le kéké des kékés Que de mauvaises habitudes Elle commence et elle sait plus s'arrêter Ma chérie coco Là c'est l'été faut nous laisser Elle me rend loco J'ai essayé, faut pas forcer Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle m'appelle Mon Roméo Ehh, ehh, eh Ma chérie me rend paro Ehh, ehh, eh Elle est belle comme ma mélo' Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Pas ton Roméo Et toi t'es pas ma Julietta Partir à zéro Elle veut recommencer ça Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Ehh, ehh, eh Coco, loco, loco Coco, loco, loco</t>
+          <t>Pour des raisons que j'ai pas à vous donner, jcontinuerai de chanter et danser Oui, je suis tombée pour mieux me relever, je suis bornée donc j'continue d'rêver Jpeux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant J'peux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps Jme sens tellement bien quand je chante Comme si jétais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Eh, jsuis ivre sur les Champs, je pense à rien, tout est écrit, j'pense plus à demain Qui tente rien n'a rien, ils étaient où quand je galérais ? Elle m'a pas faite dcadeau, la vie, rare sont les amis, les amis Ils danseront sur ma tombe à ma mort et moi, je souris, je souris Ils ont fait du mal à ton fils, mama, on s'en remettra, j'dis toujours Hamdou', ça va J'pars dans tous les sens, je tourne, je cours, j'ai l'temps d'rien Mi amor, prends ma mano, sourire, ça fait du bien Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Sur les Champs, ouais, sur les Champs Je me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Salam</t>
+          <t>Tape dans le mille</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>One Love One Blood One Love Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Enfant de la terre , qui n'a pas connu la misère Morales ou matérielles on ressent les mêmes douleurs On a pas la même couleur du peau mais le sang est le même Nos pères sont des rois et nos mères sont des reines Nos pères sont des rois et nos mères sont des reines x2 Nos frères sont des Lions, se battent pour la paix Sommes-nous prêts à donner nos vies pour un brin de liberté ? Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh L'amour n'a pas de couleur, ni de religion Il agit avec le cur il ne se pose pas de questions Il tapprend que le bonheur n'est pas dans les millions Mais plutôt dans les valeurs humaines que nous partageons Ils veulent nous diviser j'te parle d'unité La plus grande des richesse c'est la diversité Ils veulent nous diviser j'te parle d'unité Dans la diversité nous sommes tous liés oui J'vous dis Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh Je vous dis amour et paix, je vous dis amour et paix N'ayons pas peur de la différence fraternité J'ai dis amour et paix , je répète amour et paix N'ayons pas peur de la différence fraternité c'est... Salam Alaykoum Salam alaykoum Alaykoum Salam One Love Salam Alaykoum Ooooohh Alaykoum Salam Yeah eh eh Salam Alaykoum Amanama Alaykoum Salam Amanama Salam Alaykoum Amanama Alaykoum Salam Yeah eh eh</t>
+          <t>Bella j'ai sortit la Rolls Royce Je t'offrirais pleins de roses roses Au vélodrome j'ai ma loge loge J'préfère des yeux que tes fesses LOL Quitter le secteur, quitter le quartier En sécurité, le cash il est J'suis loin d'la fortune de Bolloré Mais j'ai de quoi te faire rêver On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer J'ai des euros, pas des bitcoins Tu m'trouves mignon, j'te trouve mignonne J'aime beaucoup tes aires de petites connes On se parle qu'en emoticones Les ecoutes pas, s'est des fatigués Toute la nuit, j'suis pas fatigué Billets violets, billets mauves Oui ma chérie j'suis refais Elle a taper dans le mille On s'taillera dans une île Y'a plus personnes au bout du fil Laisse un message après le bip Tilit, tilit x2 On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer1</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sensación</t>
+          <t>The Ring</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ouais belloumi, c'est fini l'hibernation, la congélation Noxious C'est les sensations, baba L'Algé' Les p'tits dans l'Porsche, sans permis, dans la cité T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Rndez-vous dans l'bar d'à-côté, madame veut papotr Ça sent l'bullrun bébé, j'recharge en USDT Force pas sur la vodka, mets-toi sur l'bas-côté Non, c'est pas l'Dakota, c'est Marseille, ma beauté Ma beauté Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night Mais t'inquiète pas, mi amor, pour toi, j'donnerai mia vida J'finis derrière l'mirador, y a les stup' dans la Skoda Guetteur a donné l'alerte, un soir de plus sous la luna Pour oublier, j'fume d'la verte là T'façon, on a rien à perdre, faut la baraque vers la mer Dans la merde, y avait que ma mère Alors ma race ? Tu t'rappelles de moi ? Ouais, personne m'a fait la passe, ils préfèrent tirer d'loin Mais c'est pas d'ma faute à moi, y a trop d'sheitanas Et j'respecte pas la loi, j'respecte la mama La mama Sans permis dans la cité Eh T'arrêtes pas, y a les porcs, la juge va pas t'acquitter Eh Rolex en or, Christian Dior, j'sors de l'hôtel Eh Elle, plus jamais j'la sors, elle a vidé la bouteille Ouais, ouais, ouais Elle a, elle a, elle a vidé la bouteille J'la connais d'puis ce soir, elle veut qu'j'l'emmène à Dubaï Qu'j'l'emmène à Dubaï Oh mi amor, toi, tu veux pas m'écouter Ouais J'te récupère en bas d'chez toi, grimpe dans le coupé Dans le coupé A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night A-A-Allô ? Elle m'dit qu'j'suis un salaud Elle a fait les mèches, les talons, dans l'Audi, elle tape des ballons Des bombonnes toute la night</t>
+          <t>Ca commence par un salut, ça finit par un j't'encule Ca commence par un j't'emmerde, ça finit par un j'te fumme Au début on est des frères, plus tard on s'fera la guerre Ca commence par un je t'aime, ça finit par un j't'enterre Ca commence gentillement On fume, on boit, on fait les 400 coups Plus tard on s'tire dessus, y a plus de sentiments Ca commence à l'école primaire Ça finit au parloir Pour d'autres dans un cimetière Ca commence par un regard Ça finit par une lame Face au hagal, Ça finit par des armes Bon Dieu, écarte mes frères de la déchéance! On a baigné dans le dîn et on a finit dans la mécréance Ca commence par un coup de coeur, ça finit par un coup de pute Une caresse, un je t'aime pour ton fric, un coup de flûte Yeah! Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans le bien, ça finit dans le mal La rue nous a pourri, j'essaye d'lutter tant bien qu'mal La course aux armements, rhey, la ruée vers l'or Ca commence par un litron, et ça écoule des tonnes Ca papote, ça crapote le premier paquet de cloppes Ca commence dans le chite, et ça finit dans la coke Ca commence par un bisou, ça finit par une pipe Plus de bisous, un strip pour des bijoux, des girls qui ce la joue Yeah! Monde pourri, tout pour les capitaux Partouse de notables à l'Elisée devant les chapitaux Ils ne jurent que par l'argent et le pétrole, zeubi Ca commence par l'Irak et ça finit par la Libye Rappeur qui a la dale, lâche pas l'affaire Ca commence dans une cave et ça remplie des salles de concerts Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sourire</t>
+          <t>Tout ce qu’il fallait..</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pour des raisons que j'ai pas à vous donner, jcontinuerai de chanter et danser Oui, je suis tombée pour mieux me relever, je suis bornée donc j'continue d'rêver Jpeux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant J'peux pas tout lâcher, j'peux pas tout lâcher, non J'peux pas tout lâcher, surtout pas maintenant Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps Jme sens tellement bien quand je chante Comme si jétais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Eh, jsuis ivre sur les Champs, je pense à rien, tout est écrit, j'pense plus à demain Qui tente rien n'a rien, ils étaient où quand je galérais ? Elle m'a pas faite dcadeau, la vie, rare sont les amis, les amis Ils danseront sur ma tombe à ma mort et moi, je souris, je souris Ils ont fait du mal à ton fils, mama, on s'en remettra, j'dis toujours Hamdou', ça va J'pars dans tous les sens, je tourne, je cours, j'ai l'temps d'rien Mi amor, prends ma mano, sourire, ça fait du bien Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé J'suis pas prête à céder, j'étais seule à saigner Mis mon cur sur CD, c'est d'l'amour que j'ai semé Toujours sourire quand tu croises les gens Moi non plus, j'n'échapperai pas au temps J'me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs Ivre sur les Champs, ouais Sur les Champs, sur les Champs Comme si j'étais ivre sur les Champs, ouais Sur les Champs, sur les Champs Sur les Champs, ouais, sur les Champs Je me sens tellement bien quand je chante Comme si j'étais ivre sur les Champs</t>
+          <t>On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes Dans les rues d'la vie, j'suis en pilotage, alcoolisé, mauvais ballotage Mon cur est noir, mon âme n otage et j'gamberg de fou dans le carénage Gardez vos couronnes, moi j'ai passé l'âge, pour percer dans l'jeu, pas b'soin d'parrainage On remplit des dômes et des Arena, toi tu es démodé comme les Carrera Trois millions poto par an, ça m'ira, j't'éclate les neurones comme la sativa Ça casse des verres comme dans barmitsva, une belle Morena, j'fume un Cohiba Elle est loin d'l'époque de la Córdoba, j'suis sur la corniche en Panamera Tu m'vois pas beaucoup, j'suis un diamant rare, j'suis un diamant rare, j'suis une uvre d'art J'éblouis ta route, j'ai les phares xénons, une question taraude mais c'est quoi ton nom ? Personne te connaît dans mon giron, tu es devant la roulette mais tu as pas d'jetons On a bon cur, on sait pas dire non, fais pas l'malin, prends pas pour un con À la base, poto, j'avais pas un rond, on a fait c'qu'il fallait dans la chanson On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre Enfoiré, j'peux plus t'encadrer, tu m'as trahi, tu as trop parlé J'aime bien kicker pour la forme, tu seras piqué comme à Fortnite J'vois sur ton front, y a la corne, tu es un courant d'air, j'suis une tornade Tu sors la guitare pour les charmé, gros on dirait un attardé Tu racontes trop de sornettes, tu sais même pas c'que c'est un Charley J'fais pas le mec bien, j'ai mes démons, tu fais la fille hlel, tout l'monde t'as té-mon À mort les traîtres, à mort les félons, j'ai la rage, mon regard en dit long On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes J'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tape dans le mille</t>
+          <t>Un sourire cache une larme</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bella j'ai sortit la Rolls Royce Je t'offrirais pleins de roses roses Au vélodrome j'ai ma loge loge J'préfère des yeux que tes fesses LOL Quitter le secteur, quitter le quartier En sécurité, le cash il est J'suis loin d'la fortune de Bolloré Mais j'ai de quoi te faire rêver On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer J'ai des euros, pas des bitcoins Tu m'trouves mignon, j'te trouve mignonne J'aime beaucoup tes aires de petites connes On se parle qu'en emoticones Les ecoutes pas, s'est des fatigués Toute la nuit, j'suis pas fatigué Billets violets, billets mauves Oui ma chérie j'suis refais Elle a taper dans le mille On s'taillera dans une île Y'a plus personnes au bout du fil Laisse un message après le bip Tilit, tilit x2 On fera le tour de la ville Attache ta ceinture, ça va bombarder Elle a taper dans le mille J'ai cacher le fer côté passager Ma chérie on s'barre de là Billet en première, Ma chérie on s'barre de là Rolex au poignet, je ne vois plus le temps passer1</t>
+          <t>L'algérino - Un Sourrire Cache Une Larme Samedi soir, pleine lune les loups sortent de leur tanière Les louves se font belles s'habillent de la plus belle des manières Une semaine de labeur c'est comme un rituel Sortir le samedi soir pour évacuer le stress habituel Je suis pas d'humeur à m'amuser, mes potes mon tirer de mon bloc J'avais du mal à noircir les pages de mon bloc-note Je monte dans la caisse de manière nonchalante Mon esprit est ailleurs mon corps et bel est bien dans la calandre Je ferme les yeux quand je les ouvres je me retrouve en boite Aveuglé par les spots naturellement je crame une clope Ce soir je n'ai pas la tête à faire la fête les femelles se déhanchent Et les males dominant remuent leur crête J'gamberge et j'observe je fait les caméras isolées Je tombe sur une fille qui avait sans doute trop picolé Je zoom son visage m'est pas inconnu c'est la soeur à un tel elle a tourné la Tête quand elle m'a reconnue Elle se dirige vers les toilettes un mec la suit, pas besoin de faire un dessin On devine facilement la suite Et dire qu'elle devait se fiancé mais son mec la trompé depuis elle est tombé En dépression elle ne sait plus ce qu'elle fait Sexe, drogue, alcool, farine dans les narines la petite Carine est devenue accro À la cocaïne On apprendra plus tard qu'elle s'est suicidée dans sa baignoire Elle s'est taillée les veines, la drogue à tué tout ses espoirs Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Mon champ de vision s'élargit je les vois tous éclatés l'oseille, ça danse Ça s'éclate, ça rit et ça se parle dans l'oreille Une serveuse se rapproche de moi et me propose un cigare bizarre elle me rappelle Quelqu'un donc je zoom sur son visage Ex-tentatrice victime de la matrice, la télé réalité tue les rêves ma Chérie la gloire est brève Elle était adulée les mois sont passés, se voyait star de cinéma mais elle a Sombré dans l'anonymat Dans ce monde d'illusion je prend du recul sur les choses Une fille me reconnait me demande une photo je tape une pose Je sort de mon corps je me vois dans ce foutu décor Parce qu'elle m'a vue à la télé elle me propose son corps Je suis là sans être là ! Observe ce que les gens ne voient pas Constate qu'il y a beaucoup de gens qui font semblant d'être ce qu'ils ne sont Pas Pour épater la galerie une mec gaspille en une soirée ce qu'un africain ne Gagnera jamais en toute une vie 5 bouteilles de Laurent Perrier, combien de gens en France vivent en dessous du Seuil de pauvreté ??!! Les gens se un collier de fleur sur le coup il branche la femme de son Meilleur pote juste pour tirer son coup Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Ok 3h du mat. l'ambiance est à son comble la chaleur m'étouffe je sort dans le Patio fumé une blonde Soudain y'a une embrouille mouvement de foule dans la salle les gens se Dispersent la tension monte et les verres claquent, bouteille de champ. dans la Tête Tête ! les videurs se pointent guettent un mec et le mettent à terre le gaz et Le ruine parterre le sortent direct de la boite et pour finir lui font danser la Tecktonik au chant du taser Mais ce soir ils sont tombés sur un chaud de la cuite revient calibré tire Pendant que les gens queue -Et la ça fait toujours les zorros ? Dire que les videurs risquent leur vie chaque soir pour 80 euros Bref ! Un mec me tape dans l'épaule me dit - Qu'est ce tu fou là ? Comment ça va gros ? Ça fait un bail, bois un coup C'est pour moi ! - Merci ! Et toi comment tu te porte ? - Ça pourrait aller mieux, ça fait un mois que ma femme m'a foutu à la porte Ça fait 10mois et je n'ai même plus de job, regarde mon RMI au fond de cette Bouteille de rhum, mon fils n'a même pas vu le jours qu'il a déjà un nouveau Père, j'ai l'aire heureux mais je noie mon chagrin dans les pacs de bière Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme 5h du mat. je rentre à l'heure ou le daron prie hachma je sens la clope, les Yeux rouges il a bien compris Je me dirige vers ma chambre et je m'allonge sur mon lit, j'allume une dernière Clope et je gamberge à cette vie</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>The Ring</t>
+          <t>Venga Venga</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ca commence par un salut, ça finit par un j't'encule Ca commence par un j't'emmerde, ça finit par un j'te fumme Au début on est des frères, plus tard on s'fera la guerre Ca commence par un je t'aime, ça finit par un j't'enterre Ca commence gentillement On fume, on boit, on fait les 400 coups Plus tard on s'tire dessus, y a plus de sentiments Ca commence à l'école primaire Ça finit au parloir Pour d'autres dans un cimetière Ca commence par un regard Ça finit par une lame Face au hagal, Ça finit par des armes Bon Dieu, écarte mes frères de la déchéance! On a baigné dans le dîn et on a finit dans la mécréance Ca commence par un coup de coeur, ça finit par un coup de pute Une caresse, un je t'aime pour ton fric, un coup de flûte Yeah! Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans le bien, ça finit dans le mal La rue nous a pourri, j'essaye d'lutter tant bien qu'mal La course aux armements, rhey, la ruée vers l'or Ca commence par un litron, et ça écoule des tonnes Ca papote, ça crapote le premier paquet de cloppes Ca commence dans le chite, et ça finit dans la coke Ca commence par un bisou, ça finit par une pipe Plus de bisous, un strip pour des bijoux, des girls qui ce la joue Yeah! Monde pourri, tout pour les capitaux Partouse de notables à l'Elisée devant les chapitaux Ils ne jurent que par l'argent et le pétrole, zeubi Ca commence par l'Irak et ça finit par la Libye Rappeur qui a la dale, lâche pas l'affaire Ca commence dans une cave et ça remplie des salles de concerts Va savoir où ça nous mène! On a perdu la Foi On s'tue entre frères, pour devenir des rois Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi Ca commence dans un bloc bloc bloc ... Ça finit par des Glocks Glocks Glocks ... Mon Dieu qu'la vie est belle, mais on s'déchire ici bas J'écraserais jamais mon frère, pour devenir un roi</t>
+          <t>Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Yeah J'ai rien à foutre de la gloire j'veux mon pze et me tailler J'ai grandi dans la rue appelle-moi Hombre de la calle Short Quiksilver, maillot de l'OM, claquettes Sous le soleil à Mars fais péter la canette mec Clope au bec on fait les mias Dix mois de l'année à Mars, deux mois Vitres baissées, lunettes Ray Ban, chemise Temps des Cerises Petite liasse qui dépasse de mon jeans Levis J'apprécie la vie tout doucement Prends ton temps, détends-toi, j'te fais voyager en trois minutes trente Dans la caisse avec Kassim en train d'fumer, d'écouter du raï À l'arrière de la tire y a Aishwarya Rai Pleins phares sur la Corniche, j'rêve de tout et de rien Avec la ferme intention de mettre à l'abri les miens Une pensée a tous les galériens qui gambergent trop La vie est belle kho, prends-la comme elle vient kho Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua J'ai été élevé par une femme, j'suis marié à une femme J'ai procréé une femme, je suis leur premier fan J'suis prêt à liquider le poids d'un gosse en shit Pour qu'elles manquent de rien le jour où je rendrai l'âme Je doute de savoir bien les aimer J'suis le quartier, j'ai des mauvais repères, L'Algé J'suis néparano, j'veux voir la kikette à l'écho J'suis pas macho mais j'me connais trop Quand on refait le monde dans l'arrière de la caisse mec Chacun s'inquiète mais chacun encaisse mec On remet la peur à demain cousin Deux en un, j'ai les mains moites, je tiens le volant d'mon destin Moi j'y vois même sans phares xénon J'dois ramener la famille à l'autre bout L'or n'a pas remplacé l'pain J'suis comorien, la diaspora en Diadora sur l'terrain Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Entre les voyous dans les crimes, les tchatcheurs dans la frime Vingt-quatre années à Marseille, kho attaché a ma ville Croquer la vie à pleines dents en savourant chaque instant Les plus belles filles de ma ville y trainent à canipelle dans ? Wesh la famille, ça flex tranquille Pousse le son dans la gove, encaisse Envoie la caillasse qu'on s'mette à l'aise, papa Wesh faut que ça paga Tête cramée en Maserati et en costume Prada Yemma te fais plus de soucis pour ton fils Tenté par le vice, j'ai préféré vendre des disques Et si j'pars, retenez mes textes conscients Des fois j'm'égare à laisser parler la haine dans mes chansons Dis-leur, on laissera que le bon à nos familles l'Algé Incha'Allah frère Yeah... Vas-y Détends-toi ha ha ha Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tout ce qu’il fallait..</t>
+          <t>Vitamine</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes Dans les rues d'la vie, j'suis en pilotage, alcoolisé, mauvais ballotage Mon cur est noir, mon âme n otage et j'gamberg de fou dans le carénage Gardez vos couronnes, moi j'ai passé l'âge, pour percer dans l'jeu, pas b'soin d'parrainage On remplit des dômes et des Arena, toi tu es démodé comme les Carrera Trois millions poto par an, ça m'ira, j't'éclate les neurones comme la sativa Ça casse des verres comme dans barmitsva, une belle Morena, j'fume un Cohiba Elle est loin d'l'époque de la Córdoba, j'suis sur la corniche en Panamera Tu m'vois pas beaucoup, j'suis un diamant rare, j'suis un diamant rare, j'suis une uvre d'art J'éblouis ta route, j'ai les phares xénons, une question taraude mais c'est quoi ton nom ? Personne te connaît dans mon giron, tu es devant la roulette mais tu as pas d'jetons On a bon cur, on sait pas dire non, fais pas l'malin, prends pas pour un con À la base, poto, j'avais pas un rond, on a fait c'qu'il fallait dans la chanson On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre Enfoiré, j'peux plus t'encadrer, tu m'as trahi, tu as trop parlé J'aime bien kicker pour la forme, tu seras piqué comme à Fortnite J'vois sur ton front, y a la corne, tu es un courant d'air, j'suis une tornade Tu sors la guitare pour les charmé, gros on dirait un attardé Tu racontes trop de sornettes, tu sais même pas c'que c'est un Charley J'fais pas le mec bien, j'ai mes démons, tu fais la fille hlel, tout l'monde t'as té-mon À mort les traîtres, à mort les félons, j'ai la rage, mon regard en dit long On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes On a fait tout c'qu'il fallait, fallait sonner l'alarme Parler, on l'a trop fait, tu m'as trahi, j'ai coupé les ponts J'avance dans le néant, violent est le mélange Mes douleurs sont les miennes, j'suis pisté par les hyènes J'suis pisté par les hyènes On a mis à l'abri la madre, j'ai les cojones du padre</t>
+          <t>Ma berline est allemande, ma sape vient d'Italie Prend pas d'cocaïne, on est bourrés de vitamines Frérot, à qui la faute? C'est ton pote qui t'la mise Posté devant le bloc, les p'tits en C.P. Company hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'prends le rap en otage, c'est la vida loca J'prends l'oseille et j'nachave, on s'rappelle à l'occas' Y a la BAC à l'étage, prépare bien le paquetage Frère, on est dans l'partage, j'fais chanter le virage J'suis en harmonie, j'fais de l'art money Ma chérie, viens que j't'armanise, te Louis vuittoner Du charisme, le flow est carré, ils ont beau me carrer J'suis pas cain-ri, non j'fais pas crari, Jerry quand c'est taré, non Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Okay Change les tarifs, zino, change les tarifs okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'apparais comme par magie, par magie, on parle peu nous, on agit, on agit Parce que j'ai trop mal agi, mal agi, le fric, c'est trop maladif, maladif hey J'fais la diff' depuis qu'j'suis né, la fumée est inhalée Trois barres, je fais mon année, à faire des sous, j'suis condamné Le bolide est piloté, la brune côté passager, les p'tits du quartier la vendent et toi, tu t'la fous dans le nez, oui bébé Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Hey Change les tarifs, zino change les tarifs Okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Un sourire cache une larme</t>
+          <t>Warriorz</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>L'algérino - Un Sourrire Cache Une Larme Samedi soir, pleine lune les loups sortent de leur tanière Les louves se font belles s'habillent de la plus belle des manières Une semaine de labeur c'est comme un rituel Sortir le samedi soir pour évacuer le stress habituel Je suis pas d'humeur à m'amuser, mes potes mon tirer de mon bloc J'avais du mal à noircir les pages de mon bloc-note Je monte dans la caisse de manière nonchalante Mon esprit est ailleurs mon corps et bel est bien dans la calandre Je ferme les yeux quand je les ouvres je me retrouve en boite Aveuglé par les spots naturellement je crame une clope Ce soir je n'ai pas la tête à faire la fête les femelles se déhanchent Et les males dominant remuent leur crête J'gamberge et j'observe je fait les caméras isolées Je tombe sur une fille qui avait sans doute trop picolé Je zoom son visage m'est pas inconnu c'est la soeur à un tel elle a tourné la Tête quand elle m'a reconnue Elle se dirige vers les toilettes un mec la suit, pas besoin de faire un dessin On devine facilement la suite Et dire qu'elle devait se fiancé mais son mec la trompé depuis elle est tombé En dépression elle ne sait plus ce qu'elle fait Sexe, drogue, alcool, farine dans les narines la petite Carine est devenue accro À la cocaïne On apprendra plus tard qu'elle s'est suicidée dans sa baignoire Elle s'est taillée les veines, la drogue à tué tout ses espoirs Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Mon champ de vision s'élargit je les vois tous éclatés l'oseille, ça danse Ça s'éclate, ça rit et ça se parle dans l'oreille Une serveuse se rapproche de moi et me propose un cigare bizarre elle me rappelle Quelqu'un donc je zoom sur son visage Ex-tentatrice victime de la matrice, la télé réalité tue les rêves ma Chérie la gloire est brève Elle était adulée les mois sont passés, se voyait star de cinéma mais elle a Sombré dans l'anonymat Dans ce monde d'illusion je prend du recul sur les choses Une fille me reconnait me demande une photo je tape une pose Je sort de mon corps je me vois dans ce foutu décor Parce qu'elle m'a vue à la télé elle me propose son corps Je suis là sans être là ! Observe ce que les gens ne voient pas Constate qu'il y a beaucoup de gens qui font semblant d'être ce qu'ils ne sont Pas Pour épater la galerie une mec gaspille en une soirée ce qu'un africain ne Gagnera jamais en toute une vie 5 bouteilles de Laurent Perrier, combien de gens en France vivent en dessous du Seuil de pauvreté ??!! Les gens se un collier de fleur sur le coup il branche la femme de son Meilleur pote juste pour tirer son coup Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme Ok 3h du mat. l'ambiance est à son comble la chaleur m'étouffe je sort dans le Patio fumé une blonde Soudain y'a une embrouille mouvement de foule dans la salle les gens se Dispersent la tension monte et les verres claquent, bouteille de champ. dans la Tête Tête ! les videurs se pointent guettent un mec et le mettent à terre le gaz et Le ruine parterre le sortent direct de la boite et pour finir lui font danser la Tecktonik au chant du taser Mais ce soir ils sont tombés sur un chaud de la cuite revient calibré tire Pendant que les gens queue -Et la ça fait toujours les zorros ? Dire que les videurs risquent leur vie chaque soir pour 80 euros Bref ! Un mec me tape dans l'épaule me dit - Qu'est ce tu fou là ? Comment ça va gros ? Ça fait un bail, bois un coup C'est pour moi ! - Merci ! Et toi comment tu te porte ? - Ça pourrait aller mieux, ça fait un mois que ma femme m'a foutu à la porte Ça fait 10mois et je n'ai même plus de job, regarde mon RMI au fond de cette Bouteille de rhum, mon fils n'a même pas vu le jours qu'il a déjà un nouveau Père, j'ai l'aire heureux mais je noie mon chagrin dans les pacs de bière Refrain Un sourire cache une larme x3 Cache une larme Un sourire cache une larme x3 Cache une larme 5h du mat. je rentre à l'heure ou le daron prie hachma je sens la clope, les Yeux rouges il a bien compris Je me dirige vers ma chambre et je m'allonge sur mon lit, j'allume une dernière Clope et je gamberge à cette vie</t>
+          <t>Yeah, l'Algérino J'réside à MARSEILLE J'suis frais toute la semaine Lunettes Carrera J'traine les morceaux d'MC sous ma semelle On veut du cash monnaie Il y a des billets violets Poto c'est la crise Trop de flob ds ce bins Que dis-je On veut tout contrôler J'm'en fous du rap game Ma vie c'est du cash game Une paire d'as J'termine en full 10 000 la semaine Ils savent plus quoi rapper Mentalité carnassier Petit harbi veut tout niquer en France Mais comment t'expliquer Ma race fait peur à la nation Génération Mauvais garçon Warrior sorti des bastons Faut faut putain voir les dragons J'traverse les pâturages Moi j'accélère toi tu rames Passez-moi le micro Trop de mythos Dans les quartiers de France J'rallume la flamme 1.3 warrior Attitude warriorz Mentalité warrior MARSEILLE que des warriorX2 Est-ce que mes gars sont là ohh X3 MARSEILLE que des warrior Est-ce que mes gars sont là ohh X2 MARSEILLE que des warrior 100 kilos dans le A4 Pleins gaz sur la A7 N'essaie pas de nous mettre À l'amende on te découpe à la machette Grosse équipe de rageurs Pas de Audi S line On a le sang chaud Frère on a grandi sous le sunshine Si t'as plus la cote Tes ventes s'écroulent comme un château de cartes Tu t'écartes Pour ma part chui à fond Je défonce les portes Par tout les moyens il me faudra ma part Tu fait ton buzz sur Facebook J'fais mon buzz en concert À chaque fois qu'on m'invite les têtes de l'affiche ont le cul par terre Cme drive, j'reste fidèle au poste Appelle-moi M. le boss Patron d'une équipe de K-SOS Chaque fois que j't'entends c'est les bastos Dire que ces trous du cul représentent ma ville J'suis Marseille en personne de la Cayole à la Savine M.A.R.S one C'est la c'est la c'est les waouh C'est les techniques waouh J'fais qu'mon boulot Cogno ciao Qui t'as dit qu'j'étais dead Jack Sparrow on remet ça Niker vos mères patron des mers J'navigue en jet star 13000 cordes à mon arc Facile Je maîtrise mon art Trop d'style Je pète les radars Arrêtez de jacter fils de bâtard L'Algé baise l'état ta ta ta ta flow Beretta Est-ce que mes gars sont là que les quartiers d'France lèvent les bras</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Venga Venga</t>
+          <t>Wesh Dani</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Yeah J'ai rien à foutre de la gloire j'veux mon pze et me tailler J'ai grandi dans la rue appelle-moi Hombre de la calle Short Quiksilver, maillot de l'OM, claquettes Sous le soleil à Mars fais péter la canette mec Clope au bec on fait les mias Dix mois de l'année à Mars, deux mois Vitres baissées, lunettes Ray Ban, chemise Temps des Cerises Petite liasse qui dépasse de mon jeans Levis J'apprécie la vie tout doucement Prends ton temps, détends-toi, j'te fais voyager en trois minutes trente Dans la caisse avec Kassim en train d'fumer, d'écouter du raï À l'arrière de la tire y a Aishwarya Rai Pleins phares sur la Corniche, j'rêve de tout et de rien Avec la ferme intention de mettre à l'abri les miens Une pensée a tous les galériens qui gambergent trop La vie est belle kho, prends-la comme elle vient kho Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua J'ai été élevé par une femme, j'suis marié à une femme J'ai procréé une femme, je suis leur premier fan J'suis prêt à liquider le poids d'un gosse en shit Pour qu'elles manquent de rien le jour où je rendrai l'âme Je doute de savoir bien les aimer J'suis le quartier, j'ai des mauvais repères, L'Algé J'suis néparano, j'veux voir la kikette à l'écho J'suis pas macho mais j'me connais trop Quand on refait le monde dans l'arrière de la caisse mec Chacun s'inquiète mais chacun encaisse mec On remet la peur à demain cousin Deux en un, j'ai les mains moites, je tiens le volant d'mon destin Moi j'y vois même sans phares xénon J'dois ramener la famille à l'autre bout L'or n'a pas remplacé l'pain J'suis comorien, la diaspora en Diadora sur l'terrain Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Ya de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Entre les voyous dans les crimes, les tchatcheurs dans la frime Vingt-quatre années à Marseille, kho attaché a ma ville Croquer la vie à pleines dents en savourant chaque instant Les plus belles filles de ma ville y trainent à canipelle dans ? Wesh la famille, ça flex tranquille Pousse le son dans la gove, encaisse Envoie la caillasse qu'on s'mette à l'aise, papa Wesh faut que ça paga Tête cramée en Maserati et en costume Prada Yemma te fais plus de soucis pour ton fils Tenté par le vice, j'ai préféré vendre des disques Et si j'pars, retenez mes textes conscients Des fois j'm'égare à laisser parler la haine dans mes chansons Dis-leur, on laissera que le bon à nos familles l'Algé Incha'Allah frère Yeah... Vas-y Détends-toi ha ha ha Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua Venga Venga Y a de la joie dans nos chagrins Venga Venga On prend la vie comme elle vient Venga Venga Oua Oua</t>
+          <t>Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces le son du mariage contre les gens Banals les racas haine anti Cousine tu me cherche je suis au cabaret de l est ta vu ma location lacte et recta tu vu le henna et les menottes et on lui fait voir toute la couleur l'aminode met toi free ce soir je sors dormirai cher un pote ci elle m'ouvre pas la porte Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces pour mes peros de lyon a paname je suis a Marseille on vous passe le salem Ce soir je suis invité a Floride a palace je vais au hammame pour me mettrer je suis un halaf un petit degrader je suis un gros pub soucette sur la prada sur le prad'homme bloque les tubes et les fadas Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 On chante tous ensemble allez ho ho ho a chtah a chtah hya hya</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Vitamine</t>
+          <t>Wesh Rhey</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ma berline est allemande, ma sape vient d'Italie Prend pas d'cocaïne, on est bourrés de vitamines Frérot, à qui la faute? C'est ton pote qui t'la mise Posté devant le bloc, les p'tits en C.P. Company hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'prends le rap en otage, c'est la vida loca J'prends l'oseille et j'nachave, on s'rappelle à l'occas' Y a la BAC à l'étage, prépare bien le paquetage Frère, on est dans l'partage, j'fais chanter le virage J'suis en harmonie, j'fais de l'art money Ma chérie, viens que j't'armanise, te Louis vuittoner Du charisme, le flow est carré, ils ont beau me carrer J'suis pas cain-ri, non j'fais pas crari, Jerry quand c'est taré, non Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Okay Change les tarifs, zino, change les tarifs okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company J'apparais comme par magie, par magie, on parle peu nous, on agit, on agit Parce que j'ai trop mal agi, mal agi, le fric, c'est trop maladif, maladif hey J'fais la diff' depuis qu'j'suis né, la fumée est inhalée Trois barres, je fais mon année, à faire des sous, j'suis condamné Le bolide est piloté, la brune côté passager, les p'tits du quartier la vendent et toi, tu t'la fous dans le nez, oui bébé Les p'tits sortent les calibres bang, sortent les calibres bang, bang Y a plus d'canifs, fais pas l'chaud, qu'est-ce qu'il t'arrive ? Hey Change les tarifs, zino change les tarifs Okay Ça prépare la tournée, y a l'nouvel album qui arrive, hey Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company Ma berline est allemande, ma sape vient d'Italie d'Italie Prend pas d'cocaïne, on est bourrés de vitamines de vitamines Frérot, à qui la faute ? C'est ton pote qui t'la mise qui t'la mise Posté devant le bloc, les p'tits en C.P. Company</t>
+          <t>Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Le charbon, le chantier, la pelle et marteau piqueur Y'en a marre on veut le million, ouais on veut des millions Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche J'fais des euros que des heureux cesse de déconner On grandit dans le besoin depuis qu'on a la hanouna pendue au nez Mais dit moi de quoi tu me parles ? L'argent fait pas le bonheur, oh taré On se lève la vie pour le fric faut la villa de mama sous les palmiers palmiers Quitte à écouler des kilos de pillons On est des tonnes à rechercher le filon Roh j'ai la dalle mon r'gard en dit long Tu me crois riche ? Tu me trouves mignon ? On veut tous s'échapper de la meeeerde J'rêvais d'une belle villa au bord de la mer J'ai pas les loves Faut du faut du faut du fric fric faut du blé faut de la monnaie x2 Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche A gauche un demi million à droite la carabine Tu m'as bien regardé ? J'ai la tête à faire du lèche-vitrine Faut faire du pognon Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche Refrain Faut des euros pour vivre Faut des euros pour kiffer Factures, huissiers, forfaits bloqués Wesh Wesh Rhey faut de la fraîche Rhey Je connais la dalle ah Faut d'l'oseille Pour les lovés y'a la famille qui se mord les lèvres Mord les lèvres Salamalikoum on a la dalle on part vivre nos rêves Vivre nos rêves Putain d'époque j'ai du mal à trouver le sommeil Obsédés jour et nuit on jure plus que par l'oseille T'inquiète mon pote c'est sur on les aura Hara y'a la BAC qui tourne cache la Selha</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Warriorz</t>
+          <t>Y’a des mots qu’on peut pas dire</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yeah, l'Algérino J'réside à MARSEILLE J'suis frais toute la semaine Lunettes Carrera J'traine les morceaux d'MC sous ma semelle On veut du cash monnaie Il y a des billets violets Poto c'est la crise Trop de flob ds ce bins Que dis-je On veut tout contrôler J'm'en fous du rap game Ma vie c'est du cash game Une paire d'as J'termine en full 10 000 la semaine Ils savent plus quoi rapper Mentalité carnassier Petit harbi veut tout niquer en France Mais comment t'expliquer Ma race fait peur à la nation Génération Mauvais garçon Warrior sorti des bastons Faut faut putain voir les dragons J'traverse les pâturages Moi j'accélère toi tu rames Passez-moi le micro Trop de mythos Dans les quartiers de France J'rallume la flamme 1.3 warrior Attitude warriorz Mentalité warrior MARSEILLE que des warriorX2 Est-ce que mes gars sont là ohh X3 MARSEILLE que des warrior Est-ce que mes gars sont là ohh X2 MARSEILLE que des warrior 100 kilos dans le A4 Pleins gaz sur la A7 N'essaie pas de nous mettre À l'amende on te découpe à la machette Grosse équipe de rageurs Pas de Audi S line On a le sang chaud Frère on a grandi sous le sunshine Si t'as plus la cote Tes ventes s'écroulent comme un château de cartes Tu t'écartes Pour ma part chui à fond Je défonce les portes Par tout les moyens il me faudra ma part Tu fait ton buzz sur Facebook J'fais mon buzz en concert À chaque fois qu'on m'invite les têtes de l'affiche ont le cul par terre Cme drive, j'reste fidèle au poste Appelle-moi M. le boss Patron d'une équipe de K-SOS Chaque fois que j't'entends c'est les bastos Dire que ces trous du cul représentent ma ville J'suis Marseille en personne de la Cayole à la Savine M.A.R.S one C'est la c'est la c'est les waouh C'est les techniques waouh J'fais qu'mon boulot Cogno ciao Qui t'as dit qu'j'étais dead Jack Sparrow on remet ça Niker vos mères patron des mers J'navigue en jet star 13000 cordes à mon arc Facile Je maîtrise mon art Trop d'style Je pète les radars Arrêtez de jacter fils de bâtard L'Algé baise l'état ta ta ta ta flow Beretta Est-ce que mes gars sont là que les quartiers d'France lèvent les bras</t>
+          <t>C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi Qui arrive en guerre, repart en paix Jette l'ancre quand mon cur chavire Mes sentiments en forme de fleur T'es le canon j'suis la cible Pour toi j'me mets le monde à dos J'te jure sur un sol la fa mi ré do Et comme l'a fait Hallyday On s'enterra sous le mirado Quand certaines choses ne vont pas Tu m'reproches le fait que j'parle pas Trop d'choses à dire mais j'peux pas Avec le temps ça passera Les mots sont censurés par fierté Oui oui j'pense dès que c'est par fierté J't'offrirai la lune pour t'épater Embrasse-moi en évitant les blablabla Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wesh Dani</t>
+          <t>Ya yemma</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces le son du mariage contre les gens Banals les racas haine anti Cousine tu me cherche je suis au cabaret de l est ta vu ma location lacte et recta tu vu le henna et les menottes et on lui fait voir toute la couleur l'aminode met toi free ce soir je sors dormirai cher un pote ci elle m'ouvre pas la porte Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 Ces pour mes peros de lyon a paname je suis a Marseille on vous passe le salem Ce soir je suis invité a Floride a palace je vais au hammame pour me mettrer je suis un halaf un petit degrader je suis un gros pub soucette sur la prada sur le prad'homme bloque les tubes et les fadas Wesh dani 3 Andek ha Wesh dani 3 nsoufri ha Eh ywa Wghir ntya Yalbnya Ah rani Ngoulhalik ah edi Wa allah Manwliche Maak 3 On chante tous ensemble allez ho ho ho a chtah a chtah hya hya</t>
+          <t>Jsai pas jtaime pas tu maime pas bravo bref faut faire du bif on a interet donc parlons zeille oh lala</t>
         </is>
       </c>
     </row>
@@ -3263,61 +3263,10 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Wesh Rhey</t>
+          <t>Yema</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
-        <is>
-          <t>Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Wesh Rhey il m'faut de l'oseille Je pense tellement à faire des tunes j'en perds le sommeil Le charbon, le chantier, la pelle et marteau piqueur Y'en a marre on veut le million, ouais on veut des millions Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche J'fais des euros que des heureux cesse de déconner On grandit dans le besoin depuis qu'on a la hanouna pendue au nez Mais dit moi de quoi tu me parles ? L'argent fait pas le bonheur, oh taré On se lève la vie pour le fric faut la villa de mama sous les palmiers palmiers Quitte à écouler des kilos de pillons On est des tonnes à rechercher le filon Roh j'ai la dalle mon r'gard en dit long Tu me crois riche ? Tu me trouves mignon ? On veut tous s'échapper de la meeeerde J'rêvais d'une belle villa au bord de la mer J'ai pas les loves Faut du faut du faut du fric fric faut du blé faut de la monnaie x2 Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche A gauche un demi million à droite la carabine Tu m'as bien regardé ? J'ai la tête à faire du lèche-vitrine Faut faire du pognon Ah si j'étais riche Ah si j'étais riche Ah si j'étais riche Ah Ah Ah si j'étais riche Refrain Faut des euros pour vivre Faut des euros pour kiffer Factures, huissiers, forfaits bloqués Wesh Wesh Rhey faut de la fraîche Rhey Je connais la dalle ah Faut d'l'oseille Pour les lovés y'a la famille qui se mord les lèvres Mord les lèvres Salamalikoum on a la dalle on part vivre nos rêves Vivre nos rêves Putain d'époque j'ai du mal à trouver le sommeil Obsédés jour et nuit on jure plus que par l'oseille T'inquiète mon pote c'est sur on les aura Hara y'a la BAC qui tourne cache la Selha</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>L'Algérino</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Y’a des mots qu’on peut pas dire</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi Qui arrive en guerre, repart en paix Jette l'ancre quand mon cur chavire Mes sentiments en forme de fleur T'es le canon j'suis la cible Pour toi j'me mets le monde à dos J'te jure sur un sol la fa mi ré do Et comme l'a fait Hallyday On s'enterra sous le mirado Quand certaines choses ne vont pas Tu m'reproches le fait que j'parle pas Trop d'choses à dire mais j'peux pas Avec le temps ça passera Les mots sont censurés par fierté Oui oui j'pense dès que c'est par fierté J't'offrirai la lune pour t'épater Embrasse-moi en évitant les blablabla Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire C'que j'ressens pour toi, t'es toute ma vie Y a des mots qu'on peut pas dire J't'offrirai la lune, un bel avenir Même si y a un mot que j'peux pas dire J'ai déçu des potes, perdu des amis Y a des mots que j'peux pas dire La vie c'est beau des fois on pleure, on rit Mais y a des choses qu'on peut pas dire Ah ha ha ha ha ha ha ha ha J'veux m'barrer loin de là Là où les autres n'iront pas J'ai pas les mots je prends sur moi</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>L'Algérino</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Ya yemma</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Jsai pas jtaime pas tu maime pas bravo bref faut faire du bif on a interet donc parlons zeille oh lala</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>L'Algérino</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Yema</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Même chargé, ça contrôle le pilotage On aimerait tous se marier, laisser un bel héritage Pour pas mourir dans la calle, faudra poser l'étalage Beaucoup de frères ont serré, j'te jure, souhaite-nous du courage Yma, yema, yema, yema, yma, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Au fond, on est les mêmes, on fait les sourds quand on entend l'Eden On fait les sourds quand on entend l'Eden, calé dans la Volkswagen On d'mande pardon que quand c'est trop la merde, on d'mande pardon que quand c'est trop la merde Ouais, dans la masa, j'ai fumé ma peine, dans la masa, j'ai fumé ma haine Fais-moi les pinces, gros, j'ai l'morale en panne, y a que des poussettes, que des BDH Tu peux finir dans un coffre ou cribler de balles sur l'A7 Et ouais, Sam sur la mnzaze, au lieu d's'occuper d'la daronne, on fait qu'zigzaguer Ça pense qu'à faire du papier pour du tissu Versace Dehors, c'est la merde, les p'tits vendent la mort en p'tits sachets On a fait c'qu'il fallait, t'façon, on n'est que de passage Du charbon au palais, petit frère au guettage La daronne passe le balais, on va lui construire un palace On fume, on fait que planer, le cerveau dans les nuages Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Ah, laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la Laï, laï, laï, laï, la Laï, laï, laï, laï, la Na, da, da, da, da Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Laï, laï, laï, laï, la yema Na, da, da, da, da Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema la rue ne pardonne pas Yema, yema, yema, yema, yema, yema yema Yema, yema, yema, yema, yema, yema yema La rue ne pardonne pas La rue ne pardonne pas</t>
         </is>
